--- a/myfile.xlsx
+++ b/myfile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\coronavirus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CD81DF9-BF6B-48D2-97B9-F33C88720997}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ADFF9B7-6715-4705-A48E-155A5C58479D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1464" yWindow="1464" windowWidth="17280" windowHeight="8964" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="worldometer" sheetId="1" r:id="rId1"/>
@@ -2822,25 +2822,25 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="42" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -7928,16 +7928,16 @@
       <c r="A2" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="29" t="s">
         <v>29</v>
       </c>
       <c r="F2" s="6" t="s">
@@ -7946,136 +7946,136 @@
       <c r="G2" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="H2" s="30" t="s">
+      <c r="H2" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="I2" s="30" t="s">
+      <c r="I2" s="29" t="s">
         <v>234</v>
       </c>
-      <c r="J2" s="30" t="s">
+      <c r="J2" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="30" t="s">
+      <c r="K2" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="L2" s="30" t="s">
+      <c r="L2" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="M2" s="30" t="s">
+      <c r="M2" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="N2" s="30" t="s">
+      <c r="N2" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="O2" s="30" t="s">
+      <c r="O2" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="P2" s="30" t="s">
+      <c r="P2" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="Q2" s="30" t="s">
+      <c r="Q2" s="29" t="s">
         <v>47</v>
       </c>
       <c r="R2" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="S2" s="30" t="s">
+      <c r="S2" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="T2" s="30" t="s">
+      <c r="T2" s="29" t="s">
         <v>235</v>
       </c>
-      <c r="U2" s="30" t="s">
+      <c r="U2" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="V2" s="30" t="s">
+      <c r="V2" s="29" t="s">
         <v>236</v>
       </c>
-      <c r="W2" s="30" t="s">
+      <c r="W2" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="X2" s="30" t="s">
+      <c r="X2" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="Y2" s="30" t="s">
+      <c r="Y2" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="Z2" s="30" t="s">
+      <c r="Z2" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="AA2" s="30" t="s">
+      <c r="AA2" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="AB2" s="30" t="s">
+      <c r="AB2" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="AC2" s="30" t="s">
+      <c r="AC2" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="AD2" s="30" t="s">
+      <c r="AD2" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="AE2" s="30" t="s">
+      <c r="AE2" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="AF2" s="30" t="s">
+      <c r="AF2" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="AG2" s="30" t="s">
+      <c r="AG2" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="AH2" s="30" t="s">
+      <c r="AH2" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="AI2" s="30" t="s">
+      <c r="AI2" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="AJ2" s="30" t="s">
+      <c r="AJ2" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="AK2" s="30" t="s">
+      <c r="AK2" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="AL2" s="30" t="s">
+      <c r="AL2" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="AM2" s="30" t="s">
+      <c r="AM2" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="AN2" s="30" t="s">
+      <c r="AN2" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="AO2" s="30" t="s">
+      <c r="AO2" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="AP2" s="30" t="s">
+      <c r="AP2" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="AQ2" s="30" t="s">
+      <c r="AQ2" s="29" t="s">
         <v>66</v>
       </c>
       <c r="AR2" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="AS2" s="30" t="s">
+      <c r="AS2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="AT2" s="30" t="s">
+      <c r="AT2" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="AU2" s="30" t="s">
+      <c r="AU2" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="AV2" s="30" t="s">
+      <c r="AV2" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="AW2" s="30" t="s">
+      <c r="AW2" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="AX2" s="30" t="s">
+      <c r="AX2" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="AY2" s="30" t="s">
+      <c r="AY2" s="29" t="s">
         <v>28</v>
       </c>
       <c r="AZ2" s="4" t="s">
@@ -8084,233 +8084,233 @@
       <c r="BA2" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="BB2" s="30" t="s">
+      <c r="BB2" s="29" t="s">
         <v>48</v>
       </c>
       <c r="BC2" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="BD2" s="30" t="s">
+      <c r="BD2" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="BE2" s="30" t="s">
+      <c r="BE2" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="BF2" s="30" t="s">
+      <c r="BF2" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="BG2" s="30" t="s">
+      <c r="BG2" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="BH2" s="30" t="s">
+      <c r="BH2" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="BI2" s="30" t="s">
+      <c r="BI2" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="BJ2" s="30" t="s">
+      <c r="BJ2" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="BK2" s="30" t="s">
+      <c r="BK2" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="BL2" s="30" t="s">
+      <c r="BL2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="BM2" s="30" t="s">
+      <c r="BM2" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="BN2" s="30" t="s">
+      <c r="BN2" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="BO2" s="30" t="s">
+      <c r="BO2" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="BP2" s="30" t="s">
+      <c r="BP2" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="BQ2" s="30" t="s">
+      <c r="BQ2" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="BR2" s="30" t="s">
+      <c r="BR2" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="BS2" s="30" t="s">
+      <c r="BS2" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="BT2" s="30" t="s">
+      <c r="BT2" s="29" t="s">
         <v>20</v>
       </c>
       <c r="BU2" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="BV2" s="30" t="s">
+      <c r="BV2" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="BW2" s="30" t="s">
+      <c r="BW2" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="BX2" s="30" t="s">
+      <c r="BX2" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="BY2" s="30" t="s">
+      <c r="BY2" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="BZ2" s="30" t="s">
+      <c r="BZ2" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="CA2" s="30" t="s">
+      <c r="CA2" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="CB2" s="30" t="s">
+      <c r="CB2" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="CC2" s="30" t="s">
+      <c r="CC2" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="CD2" s="30" t="s">
+      <c r="CD2" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="CE2" s="30" t="s">
+      <c r="CE2" s="29" t="s">
         <v>41</v>
       </c>
       <c r="CF2" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="CG2" s="30" t="s">
+      <c r="CG2" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="CH2" s="30" t="s">
+      <c r="CH2" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="CI2" s="30" t="s">
+      <c r="CI2" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="CJ2" s="30" t="s">
+      <c r="CJ2" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="CK2" s="30" t="s">
+      <c r="CK2" s="29" t="s">
         <v>45</v>
       </c>
       <c r="CL2" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="CM2" s="29" t="s">
+      <c r="CM2" s="30" t="s">
         <v>248</v>
       </c>
-      <c r="CN2" s="29" t="s">
+      <c r="CN2" s="30" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:92" ht="87.6" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
       <c r="F3" s="6" t="s">
         <v>231</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
       <c r="R3" s="4"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30"/>
-      <c r="U3" s="30"/>
-      <c r="V3" s="30"/>
-      <c r="W3" s="30"/>
-      <c r="X3" s="30"/>
-      <c r="Y3" s="30"/>
-      <c r="Z3" s="30"/>
-      <c r="AA3" s="30"/>
-      <c r="AB3" s="30"/>
-      <c r="AC3" s="30"/>
-      <c r="AD3" s="30"/>
-      <c r="AE3" s="30"/>
-      <c r="AF3" s="30"/>
-      <c r="AG3" s="30"/>
-      <c r="AH3" s="30"/>
-      <c r="AI3" s="30"/>
-      <c r="AJ3" s="30"/>
-      <c r="AK3" s="30"/>
-      <c r="AL3" s="30"/>
-      <c r="AM3" s="30"/>
-      <c r="AN3" s="30"/>
-      <c r="AO3" s="30"/>
-      <c r="AP3" s="30"/>
-      <c r="AQ3" s="30"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="29"/>
+      <c r="W3" s="29"/>
+      <c r="X3" s="29"/>
+      <c r="Y3" s="29"/>
+      <c r="Z3" s="29"/>
+      <c r="AA3" s="29"/>
+      <c r="AB3" s="29"/>
+      <c r="AC3" s="29"/>
+      <c r="AD3" s="29"/>
+      <c r="AE3" s="29"/>
+      <c r="AF3" s="29"/>
+      <c r="AG3" s="29"/>
+      <c r="AH3" s="29"/>
+      <c r="AI3" s="29"/>
+      <c r="AJ3" s="29"/>
+      <c r="AK3" s="29"/>
+      <c r="AL3" s="29"/>
+      <c r="AM3" s="29"/>
+      <c r="AN3" s="29"/>
+      <c r="AO3" s="29"/>
+      <c r="AP3" s="29"/>
+      <c r="AQ3" s="29"/>
       <c r="AR3" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="AS3" s="30"/>
-      <c r="AT3" s="30"/>
-      <c r="AU3" s="30"/>
-      <c r="AV3" s="30"/>
-      <c r="AW3" s="30"/>
-      <c r="AX3" s="30"/>
-      <c r="AY3" s="30"/>
+      <c r="AS3" s="29"/>
+      <c r="AT3" s="29"/>
+      <c r="AU3" s="29"/>
+      <c r="AV3" s="29"/>
+      <c r="AW3" s="29"/>
+      <c r="AX3" s="29"/>
+      <c r="AY3" s="29"/>
       <c r="AZ3" s="4"/>
       <c r="BA3" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="BB3" s="30"/>
+      <c r="BB3" s="29"/>
       <c r="BC3" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="BD3" s="30"/>
-      <c r="BE3" s="30"/>
-      <c r="BF3" s="30"/>
-      <c r="BG3" s="30"/>
-      <c r="BH3" s="30"/>
-      <c r="BI3" s="30"/>
-      <c r="BJ3" s="30"/>
-      <c r="BK3" s="30"/>
-      <c r="BL3" s="30"/>
-      <c r="BM3" s="30"/>
-      <c r="BN3" s="30"/>
-      <c r="BO3" s="30"/>
-      <c r="BP3" s="30"/>
-      <c r="BQ3" s="30"/>
-      <c r="BR3" s="30"/>
-      <c r="BS3" s="30"/>
-      <c r="BT3" s="30"/>
+      <c r="BD3" s="29"/>
+      <c r="BE3" s="29"/>
+      <c r="BF3" s="29"/>
+      <c r="BG3" s="29"/>
+      <c r="BH3" s="29"/>
+      <c r="BI3" s="29"/>
+      <c r="BJ3" s="29"/>
+      <c r="BK3" s="29"/>
+      <c r="BL3" s="29"/>
+      <c r="BM3" s="29"/>
+      <c r="BN3" s="29"/>
+      <c r="BO3" s="29"/>
+      <c r="BP3" s="29"/>
+      <c r="BQ3" s="29"/>
+      <c r="BR3" s="29"/>
+      <c r="BS3" s="29"/>
+      <c r="BT3" s="29"/>
       <c r="BU3" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="BV3" s="30"/>
-      <c r="BW3" s="30"/>
-      <c r="BX3" s="30"/>
-      <c r="BY3" s="30"/>
-      <c r="BZ3" s="30"/>
-      <c r="CA3" s="30"/>
-      <c r="CB3" s="30"/>
-      <c r="CC3" s="30"/>
-      <c r="CD3" s="30"/>
-      <c r="CE3" s="30"/>
+      <c r="BV3" s="29"/>
+      <c r="BW3" s="29"/>
+      <c r="BX3" s="29"/>
+      <c r="BY3" s="29"/>
+      <c r="BZ3" s="29"/>
+      <c r="CA3" s="29"/>
+      <c r="CB3" s="29"/>
+      <c r="CC3" s="29"/>
+      <c r="CD3" s="29"/>
+      <c r="CE3" s="29"/>
       <c r="CF3" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="CG3" s="30"/>
-      <c r="CH3" s="30"/>
-      <c r="CI3" s="30"/>
-      <c r="CJ3" s="30"/>
-      <c r="CK3" s="30"/>
+      <c r="CG3" s="29"/>
+      <c r="CH3" s="29"/>
+      <c r="CI3" s="29"/>
+      <c r="CJ3" s="29"/>
+      <c r="CK3" s="29"/>
       <c r="CL3" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="CM3" s="29"/>
-      <c r="CN3" s="29"/>
+      <c r="CM3" s="30"/>
+      <c r="CN3" s="30"/>
     </row>
     <row r="4" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
@@ -10460,16 +10460,16 @@
       <c r="A23" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="30" t="s">
+      <c r="C23" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="30" t="s">
+      <c r="D23" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="E23" s="30" t="s">
+      <c r="E23" s="29" t="s">
         <v>29</v>
       </c>
       <c r="F23" s="6" t="s">
@@ -10478,136 +10478,136 @@
       <c r="G23" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="H23" s="30" t="s">
+      <c r="H23" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="I23" s="30" t="s">
+      <c r="I23" s="29" t="s">
         <v>234</v>
       </c>
-      <c r="J23" s="30" t="s">
+      <c r="J23" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="K23" s="30" t="s">
+      <c r="K23" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="L23" s="30" t="s">
+      <c r="L23" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="M23" s="30" t="s">
+      <c r="M23" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="N23" s="30" t="s">
+      <c r="N23" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="O23" s="30" t="s">
+      <c r="O23" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="P23" s="30" t="s">
+      <c r="P23" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="Q23" s="30" t="s">
+      <c r="Q23" s="29" t="s">
         <v>47</v>
       </c>
       <c r="R23" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="S23" s="30" t="s">
+      <c r="S23" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="T23" s="30" t="s">
+      <c r="T23" s="29" t="s">
         <v>235</v>
       </c>
-      <c r="U23" s="30" t="s">
+      <c r="U23" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="V23" s="30" t="s">
+      <c r="V23" s="29" t="s">
         <v>236</v>
       </c>
-      <c r="W23" s="30" t="s">
+      <c r="W23" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="X23" s="30" t="s">
+      <c r="X23" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="Y23" s="30" t="s">
+      <c r="Y23" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="Z23" s="30" t="s">
+      <c r="Z23" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="AA23" s="30" t="s">
+      <c r="AA23" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="AB23" s="30" t="s">
+      <c r="AB23" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="AC23" s="30" t="s">
+      <c r="AC23" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="AD23" s="30" t="s">
+      <c r="AD23" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="AE23" s="30" t="s">
+      <c r="AE23" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="AF23" s="30" t="s">
+      <c r="AF23" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="AG23" s="30" t="s">
+      <c r="AG23" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="AH23" s="30" t="s">
+      <c r="AH23" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="AI23" s="30" t="s">
+      <c r="AI23" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="AJ23" s="30" t="s">
+      <c r="AJ23" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="AK23" s="30" t="s">
+      <c r="AK23" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="AL23" s="30" t="s">
+      <c r="AL23" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="AM23" s="30" t="s">
+      <c r="AM23" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="AN23" s="30" t="s">
+      <c r="AN23" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="AO23" s="30" t="s">
+      <c r="AO23" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="AP23" s="30" t="s">
+      <c r="AP23" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="AQ23" s="30" t="s">
+      <c r="AQ23" s="29" t="s">
         <v>66</v>
       </c>
       <c r="AR23" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="AS23" s="30" t="s">
+      <c r="AS23" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="AT23" s="30" t="s">
+      <c r="AT23" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="AU23" s="30" t="s">
+      <c r="AU23" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="AV23" s="30" t="s">
+      <c r="AV23" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="AW23" s="30" t="s">
+      <c r="AW23" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="AX23" s="30" t="s">
+      <c r="AX23" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="AY23" s="30" t="s">
+      <c r="AY23" s="29" t="s">
         <v>28</v>
       </c>
       <c r="AZ23" s="4" t="s">
@@ -10616,121 +10616,121 @@
       <c r="BA23" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="BB23" s="30" t="s">
+      <c r="BB23" s="29" t="s">
         <v>48</v>
       </c>
       <c r="BC23" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="BD23" s="30" t="s">
+      <c r="BD23" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="BE23" s="30" t="s">
+      <c r="BE23" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="BF23" s="30" t="s">
+      <c r="BF23" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="BG23" s="30" t="s">
+      <c r="BG23" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="BH23" s="30" t="s">
+      <c r="BH23" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="BI23" s="30" t="s">
+      <c r="BI23" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="BJ23" s="30" t="s">
+      <c r="BJ23" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="BK23" s="30" t="s">
+      <c r="BK23" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="BL23" s="30" t="s">
+      <c r="BL23" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="BM23" s="30" t="s">
+      <c r="BM23" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="BN23" s="30" t="s">
+      <c r="BN23" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="BO23" s="30" t="s">
+      <c r="BO23" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="BP23" s="30" t="s">
+      <c r="BP23" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="BQ23" s="30" t="s">
+      <c r="BQ23" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="BR23" s="30" t="s">
+      <c r="BR23" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="BS23" s="30" t="s">
+      <c r="BS23" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="BT23" s="30" t="s">
+      <c r="BT23" s="29" t="s">
         <v>20</v>
       </c>
       <c r="BU23" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="BV23" s="30" t="s">
+      <c r="BV23" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="BW23" s="30" t="s">
+      <c r="BW23" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="BX23" s="30" t="s">
+      <c r="BX23" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="BY23" s="30" t="s">
+      <c r="BY23" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="BZ23" s="30" t="s">
+      <c r="BZ23" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="CA23" s="30" t="s">
+      <c r="CA23" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="CB23" s="30" t="s">
+      <c r="CB23" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="CC23" s="30" t="s">
+      <c r="CC23" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="CD23" s="30" t="s">
+      <c r="CD23" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="CE23" s="30" t="s">
+      <c r="CE23" s="29" t="s">
         <v>41</v>
       </c>
       <c r="CF23" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="CG23" s="30" t="s">
+      <c r="CG23" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="CH23" s="30" t="s">
+      <c r="CH23" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="CI23" s="30" t="s">
+      <c r="CI23" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="CJ23" s="30" t="s">
+      <c r="CJ23" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="CK23" s="30" t="s">
+      <c r="CK23" s="29" t="s">
         <v>45</v>
       </c>
       <c r="CL23" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="CM23" s="29" t="s">
+      <c r="CM23" s="30" t="s">
         <v>248</v>
       </c>
-      <c r="CN23" s="29" t="s">
+      <c r="CN23" s="30" t="s">
         <v>249</v>
       </c>
     </row>
@@ -10738,117 +10738,117 @@
       <c r="A24" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
       <c r="F24" s="6" t="s">
         <v>231</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
-      <c r="N24" s="30"/>
-      <c r="O24" s="30"/>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="30"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="29"/>
       <c r="R24" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="S24" s="30"/>
-      <c r="T24" s="30"/>
-      <c r="U24" s="30"/>
-      <c r="V24" s="30"/>
-      <c r="W24" s="30"/>
-      <c r="X24" s="30"/>
-      <c r="Y24" s="30"/>
-      <c r="Z24" s="30"/>
-      <c r="AA24" s="30"/>
-      <c r="AB24" s="30"/>
-      <c r="AC24" s="30"/>
-      <c r="AD24" s="30"/>
-      <c r="AE24" s="30"/>
-      <c r="AF24" s="30"/>
-      <c r="AG24" s="30"/>
-      <c r="AH24" s="30"/>
-      <c r="AI24" s="30"/>
-      <c r="AJ24" s="30"/>
-      <c r="AK24" s="30"/>
-      <c r="AL24" s="30"/>
-      <c r="AM24" s="30"/>
-      <c r="AN24" s="30"/>
-      <c r="AO24" s="30"/>
-      <c r="AP24" s="30"/>
-      <c r="AQ24" s="30"/>
+      <c r="S24" s="29"/>
+      <c r="T24" s="29"/>
+      <c r="U24" s="29"/>
+      <c r="V24" s="29"/>
+      <c r="W24" s="29"/>
+      <c r="X24" s="29"/>
+      <c r="Y24" s="29"/>
+      <c r="Z24" s="29"/>
+      <c r="AA24" s="29"/>
+      <c r="AB24" s="29"/>
+      <c r="AC24" s="29"/>
+      <c r="AD24" s="29"/>
+      <c r="AE24" s="29"/>
+      <c r="AF24" s="29"/>
+      <c r="AG24" s="29"/>
+      <c r="AH24" s="29"/>
+      <c r="AI24" s="29"/>
+      <c r="AJ24" s="29"/>
+      <c r="AK24" s="29"/>
+      <c r="AL24" s="29"/>
+      <c r="AM24" s="29"/>
+      <c r="AN24" s="29"/>
+      <c r="AO24" s="29"/>
+      <c r="AP24" s="29"/>
+      <c r="AQ24" s="29"/>
       <c r="AR24" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="AS24" s="30"/>
-      <c r="AT24" s="30"/>
-      <c r="AU24" s="30"/>
-      <c r="AV24" s="30"/>
-      <c r="AW24" s="30"/>
-      <c r="AX24" s="30"/>
-      <c r="AY24" s="30"/>
+      <c r="AS24" s="29"/>
+      <c r="AT24" s="29"/>
+      <c r="AU24" s="29"/>
+      <c r="AV24" s="29"/>
+      <c r="AW24" s="29"/>
+      <c r="AX24" s="29"/>
+      <c r="AY24" s="29"/>
       <c r="AZ24" s="4" t="s">
         <v>212</v>
       </c>
       <c r="BA24" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="BB24" s="30"/>
+      <c r="BB24" s="29"/>
       <c r="BC24" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="BD24" s="30"/>
-      <c r="BE24" s="30"/>
-      <c r="BF24" s="30"/>
-      <c r="BG24" s="30"/>
-      <c r="BH24" s="30"/>
-      <c r="BI24" s="30"/>
-      <c r="BJ24" s="30"/>
-      <c r="BK24" s="30"/>
-      <c r="BL24" s="30"/>
-      <c r="BM24" s="30"/>
-      <c r="BN24" s="30"/>
-      <c r="BO24" s="30"/>
-      <c r="BP24" s="30"/>
-      <c r="BQ24" s="30"/>
-      <c r="BR24" s="30"/>
-      <c r="BS24" s="30"/>
-      <c r="BT24" s="30"/>
+      <c r="BD24" s="29"/>
+      <c r="BE24" s="29"/>
+      <c r="BF24" s="29"/>
+      <c r="BG24" s="29"/>
+      <c r="BH24" s="29"/>
+      <c r="BI24" s="29"/>
+      <c r="BJ24" s="29"/>
+      <c r="BK24" s="29"/>
+      <c r="BL24" s="29"/>
+      <c r="BM24" s="29"/>
+      <c r="BN24" s="29"/>
+      <c r="BO24" s="29"/>
+      <c r="BP24" s="29"/>
+      <c r="BQ24" s="29"/>
+      <c r="BR24" s="29"/>
+      <c r="BS24" s="29"/>
+      <c r="BT24" s="29"/>
       <c r="BU24" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="BV24" s="30"/>
-      <c r="BW24" s="30"/>
-      <c r="BX24" s="30"/>
-      <c r="BY24" s="30"/>
-      <c r="BZ24" s="30"/>
-      <c r="CA24" s="30"/>
-      <c r="CB24" s="30"/>
-      <c r="CC24" s="30"/>
-      <c r="CD24" s="30"/>
-      <c r="CE24" s="30"/>
+      <c r="BV24" s="29"/>
+      <c r="BW24" s="29"/>
+      <c r="BX24" s="29"/>
+      <c r="BY24" s="29"/>
+      <c r="BZ24" s="29"/>
+      <c r="CA24" s="29"/>
+      <c r="CB24" s="29"/>
+      <c r="CC24" s="29"/>
+      <c r="CD24" s="29"/>
+      <c r="CE24" s="29"/>
       <c r="CF24" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="CG24" s="30"/>
-      <c r="CH24" s="30"/>
-      <c r="CI24" s="30"/>
-      <c r="CJ24" s="30"/>
-      <c r="CK24" s="30"/>
+      <c r="CG24" s="29"/>
+      <c r="CH24" s="29"/>
+      <c r="CI24" s="29"/>
+      <c r="CJ24" s="29"/>
+      <c r="CK24" s="29"/>
       <c r="CL24" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="CM24" s="29"/>
-      <c r="CN24" s="29"/>
+      <c r="CM24" s="30"/>
+      <c r="CN24" s="30"/>
     </row>
     <row r="25" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
@@ -14540,16 +14540,16 @@
       <c r="A54" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="B54" s="30" t="s">
+      <c r="B54" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="C54" s="30" t="s">
+      <c r="C54" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="D54" s="30" t="s">
+      <c r="D54" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="E54" s="30" t="s">
+      <c r="E54" s="29" t="s">
         <v>29</v>
       </c>
       <c r="F54" s="6" t="s">
@@ -14558,136 +14558,136 @@
       <c r="G54" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="H54" s="30" t="s">
+      <c r="H54" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="I54" s="30" t="s">
+      <c r="I54" s="29" t="s">
         <v>234</v>
       </c>
-      <c r="J54" s="30" t="s">
+      <c r="J54" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="K54" s="30" t="s">
+      <c r="K54" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="L54" s="30" t="s">
+      <c r="L54" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="M54" s="30" t="s">
+      <c r="M54" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="N54" s="30" t="s">
+      <c r="N54" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="O54" s="30" t="s">
+      <c r="O54" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="P54" s="30" t="s">
+      <c r="P54" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="Q54" s="30" t="s">
+      <c r="Q54" s="29" t="s">
         <v>47</v>
       </c>
       <c r="R54" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="S54" s="30" t="s">
+      <c r="S54" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="T54" s="30" t="s">
+      <c r="T54" s="29" t="s">
         <v>235</v>
       </c>
-      <c r="U54" s="30" t="s">
+      <c r="U54" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="V54" s="30" t="s">
+      <c r="V54" s="29" t="s">
         <v>236</v>
       </c>
-      <c r="W54" s="30" t="s">
+      <c r="W54" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="X54" s="30" t="s">
+      <c r="X54" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="Y54" s="30" t="s">
+      <c r="Y54" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="Z54" s="30" t="s">
+      <c r="Z54" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="AA54" s="30" t="s">
+      <c r="AA54" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="AB54" s="30" t="s">
+      <c r="AB54" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="AC54" s="30" t="s">
+      <c r="AC54" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="AD54" s="30" t="s">
+      <c r="AD54" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="AE54" s="30" t="s">
+      <c r="AE54" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="AF54" s="30" t="s">
+      <c r="AF54" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="AG54" s="30" t="s">
+      <c r="AG54" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="AH54" s="30" t="s">
+      <c r="AH54" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="AI54" s="30" t="s">
+      <c r="AI54" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="AJ54" s="30" t="s">
+      <c r="AJ54" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="AK54" s="30" t="s">
+      <c r="AK54" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="AL54" s="30" t="s">
+      <c r="AL54" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="AM54" s="30" t="s">
+      <c r="AM54" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="AN54" s="30" t="s">
+      <c r="AN54" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="AO54" s="30" t="s">
+      <c r="AO54" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="AP54" s="30" t="s">
+      <c r="AP54" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="AQ54" s="30" t="s">
+      <c r="AQ54" s="29" t="s">
         <v>66</v>
       </c>
       <c r="AR54" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="AS54" s="30" t="s">
+      <c r="AS54" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="AT54" s="30" t="s">
+      <c r="AT54" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="AU54" s="30" t="s">
+      <c r="AU54" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="AV54" s="30" t="s">
+      <c r="AV54" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="AW54" s="30" t="s">
+      <c r="AW54" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="AX54" s="30" t="s">
+      <c r="AX54" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="AY54" s="30" t="s">
+      <c r="AY54" s="29" t="s">
         <v>28</v>
       </c>
       <c r="AZ54" s="4" t="s">
@@ -14696,121 +14696,121 @@
       <c r="BA54" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="BB54" s="30" t="s">
+      <c r="BB54" s="29" t="s">
         <v>48</v>
       </c>
       <c r="BC54" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="BD54" s="30" t="s">
+      <c r="BD54" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="BE54" s="30" t="s">
+      <c r="BE54" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="BF54" s="30" t="s">
+      <c r="BF54" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="BG54" s="30" t="s">
+      <c r="BG54" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="BH54" s="30" t="s">
+      <c r="BH54" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="BI54" s="30" t="s">
+      <c r="BI54" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="BJ54" s="30" t="s">
+      <c r="BJ54" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="BK54" s="30" t="s">
+      <c r="BK54" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="BL54" s="30" t="s">
+      <c r="BL54" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="BM54" s="30" t="s">
+      <c r="BM54" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="BN54" s="30" t="s">
+      <c r="BN54" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="BO54" s="30" t="s">
+      <c r="BO54" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="BP54" s="30" t="s">
+      <c r="BP54" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="BQ54" s="30" t="s">
+      <c r="BQ54" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="BR54" s="30" t="s">
+      <c r="BR54" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="BS54" s="30" t="s">
+      <c r="BS54" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="BT54" s="30" t="s">
+      <c r="BT54" s="29" t="s">
         <v>20</v>
       </c>
       <c r="BU54" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="BV54" s="30" t="s">
+      <c r="BV54" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="BW54" s="30" t="s">
+      <c r="BW54" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="BX54" s="30" t="s">
+      <c r="BX54" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="BY54" s="30" t="s">
+      <c r="BY54" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="BZ54" s="30" t="s">
+      <c r="BZ54" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="CA54" s="30" t="s">
+      <c r="CA54" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="CB54" s="30" t="s">
+      <c r="CB54" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="CC54" s="30" t="s">
+      <c r="CC54" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="CD54" s="30" t="s">
+      <c r="CD54" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="CE54" s="30" t="s">
+      <c r="CE54" s="29" t="s">
         <v>41</v>
       </c>
       <c r="CF54" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="CG54" s="30" t="s">
+      <c r="CG54" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="CH54" s="30" t="s">
+      <c r="CH54" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="CI54" s="30" t="s">
+      <c r="CI54" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="CJ54" s="30" t="s">
+      <c r="CJ54" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="CK54" s="30" t="s">
+      <c r="CK54" s="29" t="s">
         <v>45</v>
       </c>
       <c r="CL54" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="CM54" s="29" t="s">
+      <c r="CM54" s="30" t="s">
         <v>248</v>
       </c>
-      <c r="CN54" s="29" t="s">
+      <c r="CN54" s="30" t="s">
         <v>249</v>
       </c>
     </row>
@@ -14818,117 +14818,117 @@
       <c r="A55" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="B55" s="30"/>
-      <c r="C55" s="30"/>
-      <c r="D55" s="30"/>
-      <c r="E55" s="30"/>
+      <c r="B55" s="29"/>
+      <c r="C55" s="29"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="29"/>
       <c r="F55" s="6" t="s">
         <v>231</v>
       </c>
       <c r="G55" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="H55" s="30"/>
-      <c r="I55" s="30"/>
-      <c r="J55" s="30"/>
-      <c r="K55" s="30"/>
-      <c r="L55" s="30"/>
-      <c r="M55" s="30"/>
-      <c r="N55" s="30"/>
-      <c r="O55" s="30"/>
-      <c r="P55" s="30"/>
-      <c r="Q55" s="30"/>
+      <c r="H55" s="29"/>
+      <c r="I55" s="29"/>
+      <c r="J55" s="29"/>
+      <c r="K55" s="29"/>
+      <c r="L55" s="29"/>
+      <c r="M55" s="29"/>
+      <c r="N55" s="29"/>
+      <c r="O55" s="29"/>
+      <c r="P55" s="29"/>
+      <c r="Q55" s="29"/>
       <c r="R55" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="S55" s="30"/>
-      <c r="T55" s="30"/>
-      <c r="U55" s="30"/>
-      <c r="V55" s="30"/>
-      <c r="W55" s="30"/>
-      <c r="X55" s="30"/>
-      <c r="Y55" s="30"/>
-      <c r="Z55" s="30"/>
-      <c r="AA55" s="30"/>
-      <c r="AB55" s="30"/>
-      <c r="AC55" s="30"/>
-      <c r="AD55" s="30"/>
-      <c r="AE55" s="30"/>
-      <c r="AF55" s="30"/>
-      <c r="AG55" s="30"/>
-      <c r="AH55" s="30"/>
-      <c r="AI55" s="30"/>
-      <c r="AJ55" s="30"/>
-      <c r="AK55" s="30"/>
-      <c r="AL55" s="30"/>
-      <c r="AM55" s="30"/>
-      <c r="AN55" s="30"/>
-      <c r="AO55" s="30"/>
-      <c r="AP55" s="30"/>
-      <c r="AQ55" s="30"/>
+      <c r="S55" s="29"/>
+      <c r="T55" s="29"/>
+      <c r="U55" s="29"/>
+      <c r="V55" s="29"/>
+      <c r="W55" s="29"/>
+      <c r="X55" s="29"/>
+      <c r="Y55" s="29"/>
+      <c r="Z55" s="29"/>
+      <c r="AA55" s="29"/>
+      <c r="AB55" s="29"/>
+      <c r="AC55" s="29"/>
+      <c r="AD55" s="29"/>
+      <c r="AE55" s="29"/>
+      <c r="AF55" s="29"/>
+      <c r="AG55" s="29"/>
+      <c r="AH55" s="29"/>
+      <c r="AI55" s="29"/>
+      <c r="AJ55" s="29"/>
+      <c r="AK55" s="29"/>
+      <c r="AL55" s="29"/>
+      <c r="AM55" s="29"/>
+      <c r="AN55" s="29"/>
+      <c r="AO55" s="29"/>
+      <c r="AP55" s="29"/>
+      <c r="AQ55" s="29"/>
       <c r="AR55" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="AS55" s="30"/>
-      <c r="AT55" s="30"/>
-      <c r="AU55" s="30"/>
-      <c r="AV55" s="30"/>
-      <c r="AW55" s="30"/>
-      <c r="AX55" s="30"/>
-      <c r="AY55" s="30"/>
+      <c r="AS55" s="29"/>
+      <c r="AT55" s="29"/>
+      <c r="AU55" s="29"/>
+      <c r="AV55" s="29"/>
+      <c r="AW55" s="29"/>
+      <c r="AX55" s="29"/>
+      <c r="AY55" s="29"/>
       <c r="AZ55" s="4" t="s">
         <v>212</v>
       </c>
       <c r="BA55" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="BB55" s="30"/>
+      <c r="BB55" s="29"/>
       <c r="BC55" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="BD55" s="30"/>
-      <c r="BE55" s="30"/>
-      <c r="BF55" s="30"/>
-      <c r="BG55" s="30"/>
-      <c r="BH55" s="30"/>
-      <c r="BI55" s="30"/>
-      <c r="BJ55" s="30"/>
-      <c r="BK55" s="30"/>
-      <c r="BL55" s="30"/>
-      <c r="BM55" s="30"/>
-      <c r="BN55" s="30"/>
-      <c r="BO55" s="30"/>
-      <c r="BP55" s="30"/>
-      <c r="BQ55" s="30"/>
-      <c r="BR55" s="30"/>
-      <c r="BS55" s="30"/>
-      <c r="BT55" s="30"/>
+      <c r="BD55" s="29"/>
+      <c r="BE55" s="29"/>
+      <c r="BF55" s="29"/>
+      <c r="BG55" s="29"/>
+      <c r="BH55" s="29"/>
+      <c r="BI55" s="29"/>
+      <c r="BJ55" s="29"/>
+      <c r="BK55" s="29"/>
+      <c r="BL55" s="29"/>
+      <c r="BM55" s="29"/>
+      <c r="BN55" s="29"/>
+      <c r="BO55" s="29"/>
+      <c r="BP55" s="29"/>
+      <c r="BQ55" s="29"/>
+      <c r="BR55" s="29"/>
+      <c r="BS55" s="29"/>
+      <c r="BT55" s="29"/>
       <c r="BU55" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="BV55" s="30"/>
-      <c r="BW55" s="30"/>
-      <c r="BX55" s="30"/>
-      <c r="BY55" s="30"/>
-      <c r="BZ55" s="30"/>
-      <c r="CA55" s="30"/>
-      <c r="CB55" s="30"/>
-      <c r="CC55" s="30"/>
-      <c r="CD55" s="30"/>
-      <c r="CE55" s="30"/>
+      <c r="BV55" s="29"/>
+      <c r="BW55" s="29"/>
+      <c r="BX55" s="29"/>
+      <c r="BY55" s="29"/>
+      <c r="BZ55" s="29"/>
+      <c r="CA55" s="29"/>
+      <c r="CB55" s="29"/>
+      <c r="CC55" s="29"/>
+      <c r="CD55" s="29"/>
+      <c r="CE55" s="29"/>
       <c r="CF55" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="CG55" s="30"/>
-      <c r="CH55" s="30"/>
-      <c r="CI55" s="30"/>
-      <c r="CJ55" s="30"/>
-      <c r="CK55" s="30"/>
+      <c r="CG55" s="29"/>
+      <c r="CH55" s="29"/>
+      <c r="CI55" s="29"/>
+      <c r="CJ55" s="29"/>
+      <c r="CK55" s="29"/>
       <c r="CL55" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="CM55" s="29"/>
-      <c r="CN55" s="29"/>
+      <c r="CM55" s="30"/>
+      <c r="CN55" s="30"/>
     </row>
     <row r="56" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
@@ -20664,16 +20664,16 @@
       <c r="A84" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="B84" s="30" t="s">
+      <c r="B84" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="C84" s="30" t="s">
+      <c r="C84" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="D84" s="30" t="s">
+      <c r="D84" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="E84" s="30" t="s">
+      <c r="E84" s="29" t="s">
         <v>29</v>
       </c>
       <c r="F84" s="6" t="s">
@@ -20682,136 +20682,136 @@
       <c r="G84" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="H84" s="30" t="s">
+      <c r="H84" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="I84" s="30" t="s">
+      <c r="I84" s="29" t="s">
         <v>234</v>
       </c>
-      <c r="J84" s="30" t="s">
+      <c r="J84" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="K84" s="30" t="s">
+      <c r="K84" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="L84" s="30" t="s">
+      <c r="L84" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="M84" s="30" t="s">
+      <c r="M84" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="N84" s="30" t="s">
+      <c r="N84" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="O84" s="30" t="s">
+      <c r="O84" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="P84" s="30" t="s">
+      <c r="P84" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="Q84" s="30" t="s">
+      <c r="Q84" s="29" t="s">
         <v>47</v>
       </c>
       <c r="R84" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="S84" s="30" t="s">
+      <c r="S84" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="T84" s="30" t="s">
+      <c r="T84" s="29" t="s">
         <v>235</v>
       </c>
-      <c r="U84" s="30" t="s">
+      <c r="U84" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="V84" s="30" t="s">
+      <c r="V84" s="29" t="s">
         <v>236</v>
       </c>
-      <c r="W84" s="30" t="s">
+      <c r="W84" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="X84" s="30" t="s">
+      <c r="X84" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="Y84" s="30" t="s">
+      <c r="Y84" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="Z84" s="30" t="s">
+      <c r="Z84" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="AA84" s="30" t="s">
+      <c r="AA84" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="AB84" s="30" t="s">
+      <c r="AB84" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="AC84" s="30" t="s">
+      <c r="AC84" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="AD84" s="30" t="s">
+      <c r="AD84" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="AE84" s="30" t="s">
+      <c r="AE84" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="AF84" s="30" t="s">
+      <c r="AF84" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="AG84" s="30" t="s">
+      <c r="AG84" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="AH84" s="30" t="s">
+      <c r="AH84" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="AI84" s="30" t="s">
+      <c r="AI84" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="AJ84" s="30" t="s">
+      <c r="AJ84" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="AK84" s="30" t="s">
+      <c r="AK84" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="AL84" s="30" t="s">
+      <c r="AL84" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="AM84" s="30" t="s">
+      <c r="AM84" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="AN84" s="30" t="s">
+      <c r="AN84" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="AO84" s="30" t="s">
+      <c r="AO84" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="AP84" s="30" t="s">
+      <c r="AP84" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="AQ84" s="30" t="s">
+      <c r="AQ84" s="29" t="s">
         <v>66</v>
       </c>
       <c r="AR84" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="AS84" s="30" t="s">
+      <c r="AS84" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="AT84" s="30" t="s">
+      <c r="AT84" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="AU84" s="30" t="s">
+      <c r="AU84" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="AV84" s="30" t="s">
+      <c r="AV84" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="AW84" s="30" t="s">
+      <c r="AW84" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="AX84" s="30" t="s">
+      <c r="AX84" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="AY84" s="30" t="s">
+      <c r="AY84" s="29" t="s">
         <v>28</v>
       </c>
       <c r="AZ84" s="4" t="s">
@@ -20820,121 +20820,121 @@
       <c r="BA84" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="BB84" s="30" t="s">
+      <c r="BB84" s="29" t="s">
         <v>48</v>
       </c>
       <c r="BC84" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="BD84" s="30" t="s">
+      <c r="BD84" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="BE84" s="30" t="s">
+      <c r="BE84" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="BF84" s="30" t="s">
+      <c r="BF84" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="BG84" s="30" t="s">
+      <c r="BG84" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="BH84" s="30" t="s">
+      <c r="BH84" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="BI84" s="30" t="s">
+      <c r="BI84" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="BJ84" s="30" t="s">
+      <c r="BJ84" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="BK84" s="30" t="s">
+      <c r="BK84" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="BL84" s="30" t="s">
+      <c r="BL84" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="BM84" s="30" t="s">
+      <c r="BM84" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="BN84" s="30" t="s">
+      <c r="BN84" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="BO84" s="30" t="s">
+      <c r="BO84" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="BP84" s="30" t="s">
+      <c r="BP84" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="BQ84" s="30" t="s">
+      <c r="BQ84" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="BR84" s="30" t="s">
+      <c r="BR84" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="BS84" s="30" t="s">
+      <c r="BS84" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="BT84" s="30" t="s">
+      <c r="BT84" s="29" t="s">
         <v>20</v>
       </c>
       <c r="BU84" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="BV84" s="30" t="s">
+      <c r="BV84" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="BW84" s="30" t="s">
+      <c r="BW84" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="BX84" s="30" t="s">
+      <c r="BX84" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="BY84" s="30" t="s">
+      <c r="BY84" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="BZ84" s="30" t="s">
+      <c r="BZ84" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="CA84" s="30" t="s">
+      <c r="CA84" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="CB84" s="30" t="s">
+      <c r="CB84" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="CC84" s="30" t="s">
+      <c r="CC84" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="CD84" s="30" t="s">
+      <c r="CD84" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="CE84" s="30" t="s">
+      <c r="CE84" s="29" t="s">
         <v>41</v>
       </c>
       <c r="CF84" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="CG84" s="30" t="s">
+      <c r="CG84" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="CH84" s="30" t="s">
+      <c r="CH84" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="CI84" s="30" t="s">
+      <c r="CI84" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="CJ84" s="30" t="s">
+      <c r="CJ84" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="CK84" s="30" t="s">
+      <c r="CK84" s="29" t="s">
         <v>45</v>
       </c>
       <c r="CL84" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="CM84" s="29" t="s">
+      <c r="CM84" s="30" t="s">
         <v>248</v>
       </c>
-      <c r="CN84" s="29" t="s">
+      <c r="CN84" s="30" t="s">
         <v>249</v>
       </c>
     </row>
@@ -20942,117 +20942,117 @@
       <c r="A85" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="B85" s="30"/>
-      <c r="C85" s="30"/>
-      <c r="D85" s="30"/>
-      <c r="E85" s="30"/>
+      <c r="B85" s="29"/>
+      <c r="C85" s="29"/>
+      <c r="D85" s="29"/>
+      <c r="E85" s="29"/>
       <c r="F85" s="6" t="s">
         <v>231</v>
       </c>
       <c r="G85" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="H85" s="30"/>
-      <c r="I85" s="30"/>
-      <c r="J85" s="30"/>
-      <c r="K85" s="30"/>
-      <c r="L85" s="30"/>
-      <c r="M85" s="30"/>
-      <c r="N85" s="30"/>
-      <c r="O85" s="30"/>
-      <c r="P85" s="30"/>
-      <c r="Q85" s="30"/>
+      <c r="H85" s="29"/>
+      <c r="I85" s="29"/>
+      <c r="J85" s="29"/>
+      <c r="K85" s="29"/>
+      <c r="L85" s="29"/>
+      <c r="M85" s="29"/>
+      <c r="N85" s="29"/>
+      <c r="O85" s="29"/>
+      <c r="P85" s="29"/>
+      <c r="Q85" s="29"/>
       <c r="R85" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="S85" s="30"/>
-      <c r="T85" s="30"/>
-      <c r="U85" s="30"/>
-      <c r="V85" s="30"/>
-      <c r="W85" s="30"/>
-      <c r="X85" s="30"/>
-      <c r="Y85" s="30"/>
-      <c r="Z85" s="30"/>
-      <c r="AA85" s="30"/>
-      <c r="AB85" s="30"/>
-      <c r="AC85" s="30"/>
-      <c r="AD85" s="30"/>
-      <c r="AE85" s="30"/>
-      <c r="AF85" s="30"/>
-      <c r="AG85" s="30"/>
-      <c r="AH85" s="30"/>
-      <c r="AI85" s="30"/>
-      <c r="AJ85" s="30"/>
-      <c r="AK85" s="30"/>
-      <c r="AL85" s="30"/>
-      <c r="AM85" s="30"/>
-      <c r="AN85" s="30"/>
-      <c r="AO85" s="30"/>
-      <c r="AP85" s="30"/>
-      <c r="AQ85" s="30"/>
+      <c r="S85" s="29"/>
+      <c r="T85" s="29"/>
+      <c r="U85" s="29"/>
+      <c r="V85" s="29"/>
+      <c r="W85" s="29"/>
+      <c r="X85" s="29"/>
+      <c r="Y85" s="29"/>
+      <c r="Z85" s="29"/>
+      <c r="AA85" s="29"/>
+      <c r="AB85" s="29"/>
+      <c r="AC85" s="29"/>
+      <c r="AD85" s="29"/>
+      <c r="AE85" s="29"/>
+      <c r="AF85" s="29"/>
+      <c r="AG85" s="29"/>
+      <c r="AH85" s="29"/>
+      <c r="AI85" s="29"/>
+      <c r="AJ85" s="29"/>
+      <c r="AK85" s="29"/>
+      <c r="AL85" s="29"/>
+      <c r="AM85" s="29"/>
+      <c r="AN85" s="29"/>
+      <c r="AO85" s="29"/>
+      <c r="AP85" s="29"/>
+      <c r="AQ85" s="29"/>
       <c r="AR85" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="AS85" s="30"/>
-      <c r="AT85" s="30"/>
-      <c r="AU85" s="30"/>
-      <c r="AV85" s="30"/>
-      <c r="AW85" s="30"/>
-      <c r="AX85" s="30"/>
-      <c r="AY85" s="30"/>
+      <c r="AS85" s="29"/>
+      <c r="AT85" s="29"/>
+      <c r="AU85" s="29"/>
+      <c r="AV85" s="29"/>
+      <c r="AW85" s="29"/>
+      <c r="AX85" s="29"/>
+      <c r="AY85" s="29"/>
       <c r="AZ85" s="4" t="s">
         <v>212</v>
       </c>
       <c r="BA85" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="BB85" s="30"/>
+      <c r="BB85" s="29"/>
       <c r="BC85" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="BD85" s="30"/>
-      <c r="BE85" s="30"/>
-      <c r="BF85" s="30"/>
-      <c r="BG85" s="30"/>
-      <c r="BH85" s="30"/>
-      <c r="BI85" s="30"/>
-      <c r="BJ85" s="30"/>
-      <c r="BK85" s="30"/>
-      <c r="BL85" s="30"/>
-      <c r="BM85" s="30"/>
-      <c r="BN85" s="30"/>
-      <c r="BO85" s="30"/>
-      <c r="BP85" s="30"/>
-      <c r="BQ85" s="30"/>
-      <c r="BR85" s="30"/>
-      <c r="BS85" s="30"/>
-      <c r="BT85" s="30"/>
+      <c r="BD85" s="29"/>
+      <c r="BE85" s="29"/>
+      <c r="BF85" s="29"/>
+      <c r="BG85" s="29"/>
+      <c r="BH85" s="29"/>
+      <c r="BI85" s="29"/>
+      <c r="BJ85" s="29"/>
+      <c r="BK85" s="29"/>
+      <c r="BL85" s="29"/>
+      <c r="BM85" s="29"/>
+      <c r="BN85" s="29"/>
+      <c r="BO85" s="29"/>
+      <c r="BP85" s="29"/>
+      <c r="BQ85" s="29"/>
+      <c r="BR85" s="29"/>
+      <c r="BS85" s="29"/>
+      <c r="BT85" s="29"/>
       <c r="BU85" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="BV85" s="30"/>
-      <c r="BW85" s="30"/>
-      <c r="BX85" s="30"/>
-      <c r="BY85" s="30"/>
-      <c r="BZ85" s="30"/>
-      <c r="CA85" s="30"/>
-      <c r="CB85" s="30"/>
-      <c r="CC85" s="30"/>
-      <c r="CD85" s="30"/>
-      <c r="CE85" s="30"/>
+      <c r="BV85" s="29"/>
+      <c r="BW85" s="29"/>
+      <c r="BX85" s="29"/>
+      <c r="BY85" s="29"/>
+      <c r="BZ85" s="29"/>
+      <c r="CA85" s="29"/>
+      <c r="CB85" s="29"/>
+      <c r="CC85" s="29"/>
+      <c r="CD85" s="29"/>
+      <c r="CE85" s="29"/>
       <c r="CF85" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="CG85" s="30"/>
-      <c r="CH85" s="30"/>
-      <c r="CI85" s="30"/>
-      <c r="CJ85" s="30"/>
-      <c r="CK85" s="30"/>
+      <c r="CG85" s="29"/>
+      <c r="CH85" s="29"/>
+      <c r="CI85" s="29"/>
+      <c r="CJ85" s="29"/>
+      <c r="CK85" s="29"/>
       <c r="CL85" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="CM85" s="29"/>
-      <c r="CN85" s="29"/>
+      <c r="CM85" s="30"/>
+      <c r="CN85" s="30"/>
     </row>
     <row r="86" spans="1:92" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A86" s="4"/>
@@ -21184,6 +21184,334 @@
     </row>
   </sheetData>
   <mergeCells count="352">
+    <mergeCell ref="AL86:AY86"/>
+    <mergeCell ref="BA86:BK86"/>
+    <mergeCell ref="BL86:BT86"/>
+    <mergeCell ref="BU86:CD86"/>
+    <mergeCell ref="CE86:CK86"/>
+    <mergeCell ref="CN84:CN85"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="K86:N86"/>
+    <mergeCell ref="O86:P86"/>
+    <mergeCell ref="S86:W86"/>
+    <mergeCell ref="X86:AD86"/>
+    <mergeCell ref="AE86:AF86"/>
+    <mergeCell ref="AG86:AK86"/>
+    <mergeCell ref="CG84:CG85"/>
+    <mergeCell ref="CH84:CH85"/>
+    <mergeCell ref="CI84:CI85"/>
+    <mergeCell ref="CJ84:CJ85"/>
+    <mergeCell ref="CK84:CK85"/>
+    <mergeCell ref="CM84:CM85"/>
+    <mergeCell ref="BZ84:BZ85"/>
+    <mergeCell ref="CA84:CA85"/>
+    <mergeCell ref="CB84:CB85"/>
+    <mergeCell ref="CC84:CC85"/>
+    <mergeCell ref="CD84:CD85"/>
+    <mergeCell ref="CE84:CE85"/>
+    <mergeCell ref="BS84:BS85"/>
+    <mergeCell ref="BT84:BT85"/>
+    <mergeCell ref="BV84:BV85"/>
+    <mergeCell ref="BW84:BW85"/>
+    <mergeCell ref="BX84:BX85"/>
+    <mergeCell ref="BY84:BY85"/>
+    <mergeCell ref="BM84:BM85"/>
+    <mergeCell ref="BN84:BN85"/>
+    <mergeCell ref="BO84:BO85"/>
+    <mergeCell ref="BP84:BP85"/>
+    <mergeCell ref="BQ84:BQ85"/>
+    <mergeCell ref="BR84:BR85"/>
+    <mergeCell ref="BG84:BG85"/>
+    <mergeCell ref="BH84:BH85"/>
+    <mergeCell ref="BI84:BI85"/>
+    <mergeCell ref="BJ84:BJ85"/>
+    <mergeCell ref="BK84:BK85"/>
+    <mergeCell ref="BL84:BL85"/>
+    <mergeCell ref="AX84:AX85"/>
+    <mergeCell ref="AY84:AY85"/>
+    <mergeCell ref="BB84:BB85"/>
+    <mergeCell ref="BD84:BD85"/>
+    <mergeCell ref="BE84:BE85"/>
+    <mergeCell ref="BF84:BF85"/>
+    <mergeCell ref="AQ84:AQ85"/>
+    <mergeCell ref="AS84:AS85"/>
+    <mergeCell ref="AT84:AT85"/>
+    <mergeCell ref="AU84:AU85"/>
+    <mergeCell ref="AV84:AV85"/>
+    <mergeCell ref="AW84:AW85"/>
+    <mergeCell ref="AK84:AK85"/>
+    <mergeCell ref="AL84:AL85"/>
+    <mergeCell ref="AM84:AM85"/>
+    <mergeCell ref="AN84:AN85"/>
+    <mergeCell ref="AO84:AO85"/>
+    <mergeCell ref="AP84:AP85"/>
+    <mergeCell ref="AE84:AE85"/>
+    <mergeCell ref="AF84:AF85"/>
+    <mergeCell ref="AG84:AG85"/>
+    <mergeCell ref="AH84:AH85"/>
+    <mergeCell ref="AI84:AI85"/>
+    <mergeCell ref="AJ84:AJ85"/>
+    <mergeCell ref="Y84:Y85"/>
+    <mergeCell ref="Z84:Z85"/>
+    <mergeCell ref="AA84:AA85"/>
+    <mergeCell ref="AB84:AB85"/>
+    <mergeCell ref="AC84:AC85"/>
+    <mergeCell ref="AD84:AD85"/>
+    <mergeCell ref="S84:S85"/>
+    <mergeCell ref="T84:T85"/>
+    <mergeCell ref="U84:U85"/>
+    <mergeCell ref="V84:V85"/>
+    <mergeCell ref="W84:W85"/>
+    <mergeCell ref="X84:X85"/>
+    <mergeCell ref="L84:L85"/>
+    <mergeCell ref="M84:M85"/>
+    <mergeCell ref="N84:N85"/>
+    <mergeCell ref="O84:O85"/>
+    <mergeCell ref="P84:P85"/>
+    <mergeCell ref="Q84:Q85"/>
+    <mergeCell ref="CM54:CM55"/>
+    <mergeCell ref="CN54:CN55"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="H84:H85"/>
+    <mergeCell ref="I84:I85"/>
+    <mergeCell ref="J84:J85"/>
+    <mergeCell ref="K84:K85"/>
+    <mergeCell ref="CE54:CE55"/>
+    <mergeCell ref="CG54:CG55"/>
+    <mergeCell ref="CH54:CH55"/>
+    <mergeCell ref="CI54:CI55"/>
+    <mergeCell ref="CJ54:CJ55"/>
+    <mergeCell ref="CK54:CK55"/>
+    <mergeCell ref="BY54:BY55"/>
+    <mergeCell ref="BZ54:BZ55"/>
+    <mergeCell ref="CA54:CA55"/>
+    <mergeCell ref="CB54:CB55"/>
+    <mergeCell ref="CC54:CC55"/>
+    <mergeCell ref="CD54:CD55"/>
+    <mergeCell ref="BR54:BR55"/>
+    <mergeCell ref="BS54:BS55"/>
+    <mergeCell ref="BT54:BT55"/>
+    <mergeCell ref="BV54:BV55"/>
+    <mergeCell ref="BW54:BW55"/>
+    <mergeCell ref="BX54:BX55"/>
+    <mergeCell ref="BL54:BL55"/>
+    <mergeCell ref="BM54:BM55"/>
+    <mergeCell ref="BN54:BN55"/>
+    <mergeCell ref="BO54:BO55"/>
+    <mergeCell ref="BP54:BP55"/>
+    <mergeCell ref="BQ54:BQ55"/>
+    <mergeCell ref="BF54:BF55"/>
+    <mergeCell ref="BG54:BG55"/>
+    <mergeCell ref="BH54:BH55"/>
+    <mergeCell ref="BI54:BI55"/>
+    <mergeCell ref="BJ54:BJ55"/>
+    <mergeCell ref="BK54:BK55"/>
+    <mergeCell ref="AW54:AW55"/>
+    <mergeCell ref="AX54:AX55"/>
+    <mergeCell ref="AY54:AY55"/>
+    <mergeCell ref="BB54:BB55"/>
+    <mergeCell ref="BD54:BD55"/>
+    <mergeCell ref="BE54:BE55"/>
+    <mergeCell ref="AP54:AP55"/>
+    <mergeCell ref="AQ54:AQ55"/>
+    <mergeCell ref="AS54:AS55"/>
+    <mergeCell ref="AT54:AT55"/>
+    <mergeCell ref="AU54:AU55"/>
+    <mergeCell ref="AV54:AV55"/>
+    <mergeCell ref="AJ54:AJ55"/>
+    <mergeCell ref="AK54:AK55"/>
+    <mergeCell ref="AL54:AL55"/>
+    <mergeCell ref="AM54:AM55"/>
+    <mergeCell ref="AN54:AN55"/>
+    <mergeCell ref="AO54:AO55"/>
+    <mergeCell ref="AD54:AD55"/>
+    <mergeCell ref="AE54:AE55"/>
+    <mergeCell ref="AF54:AF55"/>
+    <mergeCell ref="AG54:AG55"/>
+    <mergeCell ref="AH54:AH55"/>
+    <mergeCell ref="AI54:AI55"/>
+    <mergeCell ref="X54:X55"/>
+    <mergeCell ref="Y54:Y55"/>
+    <mergeCell ref="Z54:Z55"/>
+    <mergeCell ref="AA54:AA55"/>
+    <mergeCell ref="AB54:AB55"/>
+    <mergeCell ref="AC54:AC55"/>
+    <mergeCell ref="Q54:Q55"/>
+    <mergeCell ref="S54:S55"/>
+    <mergeCell ref="T54:T55"/>
+    <mergeCell ref="U54:U55"/>
+    <mergeCell ref="V54:V55"/>
+    <mergeCell ref="W54:W55"/>
+    <mergeCell ref="K54:K55"/>
+    <mergeCell ref="L54:L55"/>
+    <mergeCell ref="M54:M55"/>
+    <mergeCell ref="N54:N55"/>
+    <mergeCell ref="O54:O55"/>
+    <mergeCell ref="P54:P55"/>
+    <mergeCell ref="CK23:CK24"/>
+    <mergeCell ref="CM23:CM24"/>
+    <mergeCell ref="CN23:CN24"/>
+    <mergeCell ref="CG23:CG24"/>
+    <mergeCell ref="CH23:CH24"/>
+    <mergeCell ref="CI23:CI24"/>
+    <mergeCell ref="CJ23:CJ24"/>
+    <mergeCell ref="BN23:BN24"/>
+    <mergeCell ref="BO23:BO24"/>
+    <mergeCell ref="BP23:BP24"/>
+    <mergeCell ref="BE23:BE24"/>
+    <mergeCell ref="BF23:BF24"/>
+    <mergeCell ref="BG23:BG24"/>
+    <mergeCell ref="BH23:BH24"/>
+    <mergeCell ref="BI23:BI24"/>
+    <mergeCell ref="BJ23:BJ24"/>
+    <mergeCell ref="AV23:AV24"/>
+    <mergeCell ref="AW23:AW24"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="I54:I55"/>
+    <mergeCell ref="J54:J55"/>
+    <mergeCell ref="CD23:CD24"/>
+    <mergeCell ref="CE23:CE24"/>
+    <mergeCell ref="BX23:BX24"/>
+    <mergeCell ref="BY23:BY24"/>
+    <mergeCell ref="BZ23:BZ24"/>
+    <mergeCell ref="CA23:CA24"/>
+    <mergeCell ref="CB23:CB24"/>
+    <mergeCell ref="CC23:CC24"/>
+    <mergeCell ref="BQ23:BQ24"/>
+    <mergeCell ref="BR23:BR24"/>
+    <mergeCell ref="BS23:BS24"/>
+    <mergeCell ref="BT23:BT24"/>
+    <mergeCell ref="BV23:BV24"/>
+    <mergeCell ref="BW23:BW24"/>
+    <mergeCell ref="BK23:BK24"/>
+    <mergeCell ref="BL23:BL24"/>
+    <mergeCell ref="BM23:BM24"/>
+    <mergeCell ref="AX23:AX24"/>
+    <mergeCell ref="AY23:AY24"/>
+    <mergeCell ref="BB23:BB24"/>
+    <mergeCell ref="BD23:BD24"/>
+    <mergeCell ref="AO23:AO24"/>
+    <mergeCell ref="AP23:AP24"/>
+    <mergeCell ref="AQ23:AQ24"/>
+    <mergeCell ref="AS23:AS24"/>
+    <mergeCell ref="AT23:AT24"/>
+    <mergeCell ref="AU23:AU24"/>
+    <mergeCell ref="AI23:AI24"/>
+    <mergeCell ref="AJ23:AJ24"/>
+    <mergeCell ref="AK23:AK24"/>
+    <mergeCell ref="AL23:AL24"/>
+    <mergeCell ref="AM23:AM24"/>
+    <mergeCell ref="AN23:AN24"/>
+    <mergeCell ref="AC23:AC24"/>
+    <mergeCell ref="AD23:AD24"/>
+    <mergeCell ref="AE23:AE24"/>
+    <mergeCell ref="AF23:AF24"/>
+    <mergeCell ref="AG23:AG24"/>
+    <mergeCell ref="AH23:AH24"/>
+    <mergeCell ref="W23:W24"/>
+    <mergeCell ref="X23:X24"/>
+    <mergeCell ref="Y23:Y24"/>
+    <mergeCell ref="Z23:Z24"/>
+    <mergeCell ref="AA23:AA24"/>
+    <mergeCell ref="AB23:AB24"/>
+    <mergeCell ref="P23:P24"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="S23:S24"/>
+    <mergeCell ref="T23:T24"/>
+    <mergeCell ref="U23:U24"/>
+    <mergeCell ref="V23:V24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="CH2:CH3"/>
+    <mergeCell ref="CI2:CI3"/>
+    <mergeCell ref="CJ2:CJ3"/>
+    <mergeCell ref="CK2:CK3"/>
+    <mergeCell ref="CM2:CM3"/>
+    <mergeCell ref="CN2:CN3"/>
+    <mergeCell ref="CA2:CA3"/>
+    <mergeCell ref="CB2:CB3"/>
+    <mergeCell ref="CC2:CC3"/>
+    <mergeCell ref="CD2:CD3"/>
+    <mergeCell ref="CE2:CE3"/>
+    <mergeCell ref="CG2:CG3"/>
+    <mergeCell ref="BT2:BT3"/>
+    <mergeCell ref="BV2:BV3"/>
+    <mergeCell ref="BW2:BW3"/>
+    <mergeCell ref="BX2:BX3"/>
+    <mergeCell ref="BY2:BY3"/>
+    <mergeCell ref="BZ2:BZ3"/>
+    <mergeCell ref="BN2:BN3"/>
+    <mergeCell ref="BO2:BO3"/>
+    <mergeCell ref="BP2:BP3"/>
+    <mergeCell ref="BQ2:BQ3"/>
+    <mergeCell ref="BR2:BR3"/>
+    <mergeCell ref="BS2:BS3"/>
+    <mergeCell ref="BH2:BH3"/>
+    <mergeCell ref="BI2:BI3"/>
+    <mergeCell ref="BJ2:BJ3"/>
+    <mergeCell ref="BK2:BK3"/>
+    <mergeCell ref="BL2:BL3"/>
+    <mergeCell ref="BM2:BM3"/>
+    <mergeCell ref="AY2:AY3"/>
+    <mergeCell ref="BB2:BB3"/>
+    <mergeCell ref="BD2:BD3"/>
+    <mergeCell ref="BE2:BE3"/>
+    <mergeCell ref="BF2:BF3"/>
+    <mergeCell ref="BG2:BG3"/>
+    <mergeCell ref="AS2:AS3"/>
+    <mergeCell ref="AT2:AT3"/>
+    <mergeCell ref="AU2:AU3"/>
+    <mergeCell ref="AV2:AV3"/>
+    <mergeCell ref="AW2:AW3"/>
+    <mergeCell ref="AX2:AX3"/>
+    <mergeCell ref="AL2:AL3"/>
+    <mergeCell ref="AM2:AM3"/>
+    <mergeCell ref="AN2:AN3"/>
+    <mergeCell ref="AO2:AO3"/>
+    <mergeCell ref="AP2:AP3"/>
+    <mergeCell ref="AQ2:AQ3"/>
+    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="AH2:AH3"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="AJ2:AJ3"/>
+    <mergeCell ref="AK2:AK3"/>
+    <mergeCell ref="Z2:Z3"/>
+    <mergeCell ref="AA2:AA3"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="S2:S3"/>
     <mergeCell ref="CE1:CK1"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
@@ -21208,334 +21536,6 @@
     <mergeCell ref="S1:W1"/>
     <mergeCell ref="X1:AD1"/>
     <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="AF2:AF3"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="AJ2:AJ3"/>
-    <mergeCell ref="AK2:AK3"/>
-    <mergeCell ref="Z2:Z3"/>
-    <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="AS2:AS3"/>
-    <mergeCell ref="AT2:AT3"/>
-    <mergeCell ref="AU2:AU3"/>
-    <mergeCell ref="AV2:AV3"/>
-    <mergeCell ref="AW2:AW3"/>
-    <mergeCell ref="AX2:AX3"/>
-    <mergeCell ref="AL2:AL3"/>
-    <mergeCell ref="AM2:AM3"/>
-    <mergeCell ref="AN2:AN3"/>
-    <mergeCell ref="AO2:AO3"/>
-    <mergeCell ref="AP2:AP3"/>
-    <mergeCell ref="AQ2:AQ3"/>
-    <mergeCell ref="BH2:BH3"/>
-    <mergeCell ref="BI2:BI3"/>
-    <mergeCell ref="BJ2:BJ3"/>
-    <mergeCell ref="BK2:BK3"/>
-    <mergeCell ref="BL2:BL3"/>
-    <mergeCell ref="BM2:BM3"/>
-    <mergeCell ref="AY2:AY3"/>
-    <mergeCell ref="BB2:BB3"/>
-    <mergeCell ref="BD2:BD3"/>
-    <mergeCell ref="BE2:BE3"/>
-    <mergeCell ref="BF2:BF3"/>
-    <mergeCell ref="BG2:BG3"/>
-    <mergeCell ref="BT2:BT3"/>
-    <mergeCell ref="BV2:BV3"/>
-    <mergeCell ref="BW2:BW3"/>
-    <mergeCell ref="BX2:BX3"/>
-    <mergeCell ref="BY2:BY3"/>
-    <mergeCell ref="BZ2:BZ3"/>
-    <mergeCell ref="BN2:BN3"/>
-    <mergeCell ref="BO2:BO3"/>
-    <mergeCell ref="BP2:BP3"/>
-    <mergeCell ref="BQ2:BQ3"/>
-    <mergeCell ref="BR2:BR3"/>
-    <mergeCell ref="BS2:BS3"/>
-    <mergeCell ref="CH2:CH3"/>
-    <mergeCell ref="CI2:CI3"/>
-    <mergeCell ref="CJ2:CJ3"/>
-    <mergeCell ref="CK2:CK3"/>
-    <mergeCell ref="CM2:CM3"/>
-    <mergeCell ref="CN2:CN3"/>
-    <mergeCell ref="CA2:CA3"/>
-    <mergeCell ref="CB2:CB3"/>
-    <mergeCell ref="CC2:CC3"/>
-    <mergeCell ref="CD2:CD3"/>
-    <mergeCell ref="CE2:CE3"/>
-    <mergeCell ref="CG2:CG3"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="W23:W24"/>
-    <mergeCell ref="X23:X24"/>
-    <mergeCell ref="Y23:Y24"/>
-    <mergeCell ref="Z23:Z24"/>
-    <mergeCell ref="AA23:AA24"/>
-    <mergeCell ref="AB23:AB24"/>
-    <mergeCell ref="P23:P24"/>
-    <mergeCell ref="Q23:Q24"/>
-    <mergeCell ref="S23:S24"/>
-    <mergeCell ref="T23:T24"/>
-    <mergeCell ref="U23:U24"/>
-    <mergeCell ref="V23:V24"/>
-    <mergeCell ref="AI23:AI24"/>
-    <mergeCell ref="AJ23:AJ24"/>
-    <mergeCell ref="AK23:AK24"/>
-    <mergeCell ref="AL23:AL24"/>
-    <mergeCell ref="AM23:AM24"/>
-    <mergeCell ref="AN23:AN24"/>
-    <mergeCell ref="AC23:AC24"/>
-    <mergeCell ref="AD23:AD24"/>
-    <mergeCell ref="AE23:AE24"/>
-    <mergeCell ref="AF23:AF24"/>
-    <mergeCell ref="AG23:AG24"/>
-    <mergeCell ref="AH23:AH24"/>
-    <mergeCell ref="AX23:AX24"/>
-    <mergeCell ref="AY23:AY24"/>
-    <mergeCell ref="BB23:BB24"/>
-    <mergeCell ref="BD23:BD24"/>
-    <mergeCell ref="AO23:AO24"/>
-    <mergeCell ref="AP23:AP24"/>
-    <mergeCell ref="AQ23:AQ24"/>
-    <mergeCell ref="AS23:AS24"/>
-    <mergeCell ref="AT23:AT24"/>
-    <mergeCell ref="AU23:AU24"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="H54:H55"/>
-    <mergeCell ref="I54:I55"/>
-    <mergeCell ref="J54:J55"/>
-    <mergeCell ref="CD23:CD24"/>
-    <mergeCell ref="CE23:CE24"/>
-    <mergeCell ref="BX23:BX24"/>
-    <mergeCell ref="BY23:BY24"/>
-    <mergeCell ref="BZ23:BZ24"/>
-    <mergeCell ref="CA23:CA24"/>
-    <mergeCell ref="CB23:CB24"/>
-    <mergeCell ref="CC23:CC24"/>
-    <mergeCell ref="BQ23:BQ24"/>
-    <mergeCell ref="BR23:BR24"/>
-    <mergeCell ref="BS23:BS24"/>
-    <mergeCell ref="BT23:BT24"/>
-    <mergeCell ref="BV23:BV24"/>
-    <mergeCell ref="BW23:BW24"/>
-    <mergeCell ref="BK23:BK24"/>
-    <mergeCell ref="BL23:BL24"/>
-    <mergeCell ref="BM23:BM24"/>
-    <mergeCell ref="K54:K55"/>
-    <mergeCell ref="L54:L55"/>
-    <mergeCell ref="M54:M55"/>
-    <mergeCell ref="N54:N55"/>
-    <mergeCell ref="O54:O55"/>
-    <mergeCell ref="P54:P55"/>
-    <mergeCell ref="CK23:CK24"/>
-    <mergeCell ref="CM23:CM24"/>
-    <mergeCell ref="CN23:CN24"/>
-    <mergeCell ref="CG23:CG24"/>
-    <mergeCell ref="CH23:CH24"/>
-    <mergeCell ref="CI23:CI24"/>
-    <mergeCell ref="CJ23:CJ24"/>
-    <mergeCell ref="BN23:BN24"/>
-    <mergeCell ref="BO23:BO24"/>
-    <mergeCell ref="BP23:BP24"/>
-    <mergeCell ref="BE23:BE24"/>
-    <mergeCell ref="BF23:BF24"/>
-    <mergeCell ref="BG23:BG24"/>
-    <mergeCell ref="BH23:BH24"/>
-    <mergeCell ref="BI23:BI24"/>
-    <mergeCell ref="BJ23:BJ24"/>
-    <mergeCell ref="AV23:AV24"/>
-    <mergeCell ref="AW23:AW24"/>
-    <mergeCell ref="X54:X55"/>
-    <mergeCell ref="Y54:Y55"/>
-    <mergeCell ref="Z54:Z55"/>
-    <mergeCell ref="AA54:AA55"/>
-    <mergeCell ref="AB54:AB55"/>
-    <mergeCell ref="AC54:AC55"/>
-    <mergeCell ref="Q54:Q55"/>
-    <mergeCell ref="S54:S55"/>
-    <mergeCell ref="T54:T55"/>
-    <mergeCell ref="U54:U55"/>
-    <mergeCell ref="V54:V55"/>
-    <mergeCell ref="W54:W55"/>
-    <mergeCell ref="AJ54:AJ55"/>
-    <mergeCell ref="AK54:AK55"/>
-    <mergeCell ref="AL54:AL55"/>
-    <mergeCell ref="AM54:AM55"/>
-    <mergeCell ref="AN54:AN55"/>
-    <mergeCell ref="AO54:AO55"/>
-    <mergeCell ref="AD54:AD55"/>
-    <mergeCell ref="AE54:AE55"/>
-    <mergeCell ref="AF54:AF55"/>
-    <mergeCell ref="AG54:AG55"/>
-    <mergeCell ref="AH54:AH55"/>
-    <mergeCell ref="AI54:AI55"/>
-    <mergeCell ref="AW54:AW55"/>
-    <mergeCell ref="AX54:AX55"/>
-    <mergeCell ref="AY54:AY55"/>
-    <mergeCell ref="BB54:BB55"/>
-    <mergeCell ref="BD54:BD55"/>
-    <mergeCell ref="BE54:BE55"/>
-    <mergeCell ref="AP54:AP55"/>
-    <mergeCell ref="AQ54:AQ55"/>
-    <mergeCell ref="AS54:AS55"/>
-    <mergeCell ref="AT54:AT55"/>
-    <mergeCell ref="AU54:AU55"/>
-    <mergeCell ref="AV54:AV55"/>
-    <mergeCell ref="BL54:BL55"/>
-    <mergeCell ref="BM54:BM55"/>
-    <mergeCell ref="BN54:BN55"/>
-    <mergeCell ref="BO54:BO55"/>
-    <mergeCell ref="BP54:BP55"/>
-    <mergeCell ref="BQ54:BQ55"/>
-    <mergeCell ref="BF54:BF55"/>
-    <mergeCell ref="BG54:BG55"/>
-    <mergeCell ref="BH54:BH55"/>
-    <mergeCell ref="BI54:BI55"/>
-    <mergeCell ref="BJ54:BJ55"/>
-    <mergeCell ref="BK54:BK55"/>
-    <mergeCell ref="CA54:CA55"/>
-    <mergeCell ref="CB54:CB55"/>
-    <mergeCell ref="CC54:CC55"/>
-    <mergeCell ref="CD54:CD55"/>
-    <mergeCell ref="BR54:BR55"/>
-    <mergeCell ref="BS54:BS55"/>
-    <mergeCell ref="BT54:BT55"/>
-    <mergeCell ref="BV54:BV55"/>
-    <mergeCell ref="BW54:BW55"/>
-    <mergeCell ref="BX54:BX55"/>
-    <mergeCell ref="L84:L85"/>
-    <mergeCell ref="M84:M85"/>
-    <mergeCell ref="N84:N85"/>
-    <mergeCell ref="O84:O85"/>
-    <mergeCell ref="P84:P85"/>
-    <mergeCell ref="Q84:Q85"/>
-    <mergeCell ref="CM54:CM55"/>
-    <mergeCell ref="CN54:CN55"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="H84:H85"/>
-    <mergeCell ref="I84:I85"/>
-    <mergeCell ref="J84:J85"/>
-    <mergeCell ref="K84:K85"/>
-    <mergeCell ref="CE54:CE55"/>
-    <mergeCell ref="CG54:CG55"/>
-    <mergeCell ref="CH54:CH55"/>
-    <mergeCell ref="CI54:CI55"/>
-    <mergeCell ref="CJ54:CJ55"/>
-    <mergeCell ref="CK54:CK55"/>
-    <mergeCell ref="BY54:BY55"/>
-    <mergeCell ref="BZ54:BZ55"/>
-    <mergeCell ref="Y84:Y85"/>
-    <mergeCell ref="Z84:Z85"/>
-    <mergeCell ref="AA84:AA85"/>
-    <mergeCell ref="AB84:AB85"/>
-    <mergeCell ref="AC84:AC85"/>
-    <mergeCell ref="AD84:AD85"/>
-    <mergeCell ref="S84:S85"/>
-    <mergeCell ref="T84:T85"/>
-    <mergeCell ref="U84:U85"/>
-    <mergeCell ref="V84:V85"/>
-    <mergeCell ref="W84:W85"/>
-    <mergeCell ref="X84:X85"/>
-    <mergeCell ref="AK84:AK85"/>
-    <mergeCell ref="AL84:AL85"/>
-    <mergeCell ref="AM84:AM85"/>
-    <mergeCell ref="AN84:AN85"/>
-    <mergeCell ref="AO84:AO85"/>
-    <mergeCell ref="AP84:AP85"/>
-    <mergeCell ref="AE84:AE85"/>
-    <mergeCell ref="AF84:AF85"/>
-    <mergeCell ref="AG84:AG85"/>
-    <mergeCell ref="AH84:AH85"/>
-    <mergeCell ref="AI84:AI85"/>
-    <mergeCell ref="AJ84:AJ85"/>
-    <mergeCell ref="AX84:AX85"/>
-    <mergeCell ref="AY84:AY85"/>
-    <mergeCell ref="BB84:BB85"/>
-    <mergeCell ref="BD84:BD85"/>
-    <mergeCell ref="BE84:BE85"/>
-    <mergeCell ref="BF84:BF85"/>
-    <mergeCell ref="AQ84:AQ85"/>
-    <mergeCell ref="AS84:AS85"/>
-    <mergeCell ref="AT84:AT85"/>
-    <mergeCell ref="AU84:AU85"/>
-    <mergeCell ref="AV84:AV85"/>
-    <mergeCell ref="AW84:AW85"/>
-    <mergeCell ref="BM84:BM85"/>
-    <mergeCell ref="BN84:BN85"/>
-    <mergeCell ref="BO84:BO85"/>
-    <mergeCell ref="BP84:BP85"/>
-    <mergeCell ref="BQ84:BQ85"/>
-    <mergeCell ref="BR84:BR85"/>
-    <mergeCell ref="BG84:BG85"/>
-    <mergeCell ref="BH84:BH85"/>
-    <mergeCell ref="BI84:BI85"/>
-    <mergeCell ref="BJ84:BJ85"/>
-    <mergeCell ref="BK84:BK85"/>
-    <mergeCell ref="BL84:BL85"/>
-    <mergeCell ref="CC84:CC85"/>
-    <mergeCell ref="CD84:CD85"/>
-    <mergeCell ref="CE84:CE85"/>
-    <mergeCell ref="BS84:BS85"/>
-    <mergeCell ref="BT84:BT85"/>
-    <mergeCell ref="BV84:BV85"/>
-    <mergeCell ref="BW84:BW85"/>
-    <mergeCell ref="BX84:BX85"/>
-    <mergeCell ref="BY84:BY85"/>
-    <mergeCell ref="AL86:AY86"/>
-    <mergeCell ref="BA86:BK86"/>
-    <mergeCell ref="BL86:BT86"/>
-    <mergeCell ref="BU86:CD86"/>
-    <mergeCell ref="CE86:CK86"/>
-    <mergeCell ref="CN84:CN85"/>
-    <mergeCell ref="B86:E86"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="K86:N86"/>
-    <mergeCell ref="O86:P86"/>
-    <mergeCell ref="S86:W86"/>
-    <mergeCell ref="X86:AD86"/>
-    <mergeCell ref="AE86:AF86"/>
-    <mergeCell ref="AG86:AK86"/>
-    <mergeCell ref="CG84:CG85"/>
-    <mergeCell ref="CH84:CH85"/>
-    <mergeCell ref="CI84:CI85"/>
-    <mergeCell ref="CJ84:CJ85"/>
-    <mergeCell ref="CK84:CK85"/>
-    <mergeCell ref="CM84:CM85"/>
-    <mergeCell ref="BZ84:BZ85"/>
-    <mergeCell ref="CA84:CA85"/>
-    <mergeCell ref="CB84:CB85"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" location="Argentina" tooltip="2019–20 coronavirus pandemic by country and territory" display="https://en.wikipedia.org/wiki/2019%E2%80%9320_coronavirus_pandemic_by_country_and_territory - Argentina" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
@@ -22111,8 +22111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:DA119"/>
   <sheetViews>
-    <sheetView topLeftCell="BY63" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="CH86" sqref="CH86"/>
+    <sheetView tabSelected="1" topLeftCell="CF66" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="CC86" sqref="CC86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22268,43 +22268,43 @@
       <c r="A2" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="H2" s="30" t="s">
+      <c r="H2" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="I2" s="30" t="s">
+      <c r="I2" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="J2" s="30" t="s">
+      <c r="J2" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="K2" s="30" t="s">
+      <c r="K2" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="L2" s="30" t="s">
+      <c r="L2" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="M2" s="30" t="s">
+      <c r="M2" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="N2" s="30" t="s">
+      <c r="N2" s="29" t="s">
         <v>165</v>
       </c>
       <c r="O2" s="9" t="s">
@@ -22313,148 +22313,148 @@
       <c r="P2" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="Q2" s="30" t="s">
+      <c r="Q2" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="R2" s="30" t="s">
+      <c r="R2" s="29" t="s">
         <v>234</v>
       </c>
-      <c r="S2" s="30" t="s">
+      <c r="S2" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="T2" s="30" t="s">
+      <c r="T2" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="U2" s="30" t="s">
+      <c r="U2" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="V2" s="30" t="s">
+      <c r="V2" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="W2" s="30" t="s">
+      <c r="W2" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="X2" s="30" t="s">
+      <c r="X2" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="Y2" s="30" t="s">
+      <c r="Y2" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="Z2" s="30" t="s">
+      <c r="Z2" s="29" t="s">
         <v>47</v>
       </c>
       <c r="AA2" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="AB2" s="30" t="s">
+      <c r="AB2" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="AC2" s="30" t="s">
+      <c r="AC2" s="29" t="s">
         <v>235</v>
       </c>
-      <c r="AD2" s="30" t="s">
+      <c r="AD2" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="AE2" s="30" t="s">
+      <c r="AE2" s="29" t="s">
         <v>236</v>
       </c>
-      <c r="AF2" s="30" t="s">
+      <c r="AF2" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="AG2" s="30" t="s">
+      <c r="AG2" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="AH2" s="30" t="s">
+      <c r="AH2" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="AI2" s="30" t="s">
+      <c r="AI2" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="AJ2" s="30" t="s">
+      <c r="AJ2" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="AK2" s="30" t="s">
+      <c r="AK2" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="AL2" s="30" t="s">
+      <c r="AL2" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="AM2" s="30" t="s">
+      <c r="AM2" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="AN2" s="30" t="s">
+      <c r="AN2" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="AO2" s="30" t="s">
+      <c r="AO2" s="29" t="s">
         <v>671</v>
       </c>
-      <c r="AP2" s="30" t="s">
+      <c r="AP2" s="29" t="s">
         <v>174</v>
       </c>
-      <c r="AQ2" s="30" t="s">
+      <c r="AQ2" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="AR2" s="30" t="s">
+      <c r="AR2" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="AS2" s="30" t="s">
+      <c r="AS2" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="AT2" s="30" t="s">
+      <c r="AT2" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="AU2" s="30" t="s">
+      <c r="AU2" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="AV2" s="30" t="s">
+      <c r="AV2" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="AW2" s="30" t="s">
+      <c r="AW2" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="AX2" s="30" t="s">
+      <c r="AX2" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="AY2" s="30" t="s">
+      <c r="AY2" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="AZ2" s="30" t="s">
+      <c r="AZ2" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="BA2" s="30" t="s">
+      <c r="BA2" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="BB2" s="30" t="s">
+      <c r="BB2" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="BC2" s="30" t="s">
+      <c r="BC2" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="BD2" s="30" t="s">
+      <c r="BD2" s="29" t="s">
         <v>66</v>
       </c>
       <c r="BE2" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="BF2" s="30" t="s">
+      <c r="BF2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="BG2" s="30" t="s">
+      <c r="BG2" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="BH2" s="30" t="s">
+      <c r="BH2" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="BI2" s="30" t="s">
+      <c r="BI2" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="BJ2" s="30" t="s">
+      <c r="BJ2" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="BK2" s="30" t="s">
+      <c r="BK2" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="BL2" s="30" t="s">
+      <c r="BL2" s="29" t="s">
         <v>28</v>
       </c>
       <c r="BM2" s="8" t="s">
@@ -22463,246 +22463,246 @@
       <c r="BN2" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="BO2" s="30" t="s">
+      <c r="BO2" s="29" t="s">
         <v>48</v>
       </c>
       <c r="BP2" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="BQ2" s="30" t="s">
+      <c r="BQ2" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="BR2" s="30" t="s">
+      <c r="BR2" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="BS2" s="30" t="s">
+      <c r="BS2" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="BT2" s="30" t="s">
+      <c r="BT2" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="BU2" s="30" t="s">
+      <c r="BU2" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="BV2" s="30" t="s">
+      <c r="BV2" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="BW2" s="30" t="s">
+      <c r="BW2" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="BX2" s="30" t="s">
+      <c r="BX2" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="BY2" s="30" t="s">
+      <c r="BY2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="BZ2" s="30" t="s">
+      <c r="BZ2" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="CA2" s="30" t="s">
+      <c r="CA2" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="CB2" s="30" t="s">
+      <c r="CB2" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="CC2" s="30" t="s">
+      <c r="CC2" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="CD2" s="30" t="s">
+      <c r="CD2" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="CE2" s="30" t="s">
+      <c r="CE2" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="CF2" s="30" t="s">
+      <c r="CF2" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="CG2" s="30" t="s">
+      <c r="CG2" s="29" t="s">
         <v>20</v>
       </c>
       <c r="CH2" s="9" t="s">
         <v>679</v>
       </c>
-      <c r="CI2" s="30" t="s">
+      <c r="CI2" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="CJ2" s="30" t="s">
+      <c r="CJ2" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="CK2" s="30" t="s">
+      <c r="CK2" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="CL2" s="30" t="s">
+      <c r="CL2" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="CM2" s="30" t="s">
+      <c r="CM2" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="CN2" s="30" t="s">
+      <c r="CN2" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="CO2" s="30" t="s">
+      <c r="CO2" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="CP2" s="30" t="s">
+      <c r="CP2" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="CQ2" s="30" t="s">
+      <c r="CQ2" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="CR2" s="30" t="s">
+      <c r="CR2" s="29" t="s">
         <v>41</v>
       </c>
       <c r="CS2" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="CT2" s="30" t="s">
+      <c r="CT2" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="CU2" s="30" t="s">
+      <c r="CU2" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="CV2" s="30" t="s">
+      <c r="CV2" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="CW2" s="30" t="s">
+      <c r="CW2" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="CX2" s="30" t="s">
+      <c r="CX2" s="29" t="s">
         <v>45</v>
       </c>
       <c r="CY2" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="CZ2" s="29" t="s">
+      <c r="CZ2" s="30" t="s">
         <v>248</v>
       </c>
-      <c r="DA2" s="29" t="s">
+      <c r="DA2" s="30" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:105" ht="87.6" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
       <c r="O3" s="9" t="s">
         <v>231</v>
       </c>
       <c r="P3" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30"/>
-      <c r="U3" s="30"/>
-      <c r="V3" s="30"/>
-      <c r="W3" s="30"/>
-      <c r="X3" s="30"/>
-      <c r="Y3" s="30"/>
-      <c r="Z3" s="30"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="29"/>
+      <c r="W3" s="29"/>
+      <c r="X3" s="29"/>
+      <c r="Y3" s="29"/>
+      <c r="Z3" s="29"/>
       <c r="AA3" s="8"/>
-      <c r="AB3" s="30"/>
-      <c r="AC3" s="30"/>
-      <c r="AD3" s="30"/>
-      <c r="AE3" s="30"/>
-      <c r="AF3" s="30"/>
-      <c r="AG3" s="30"/>
-      <c r="AH3" s="30"/>
-      <c r="AI3" s="30"/>
-      <c r="AJ3" s="30"/>
-      <c r="AK3" s="30"/>
-      <c r="AL3" s="30"/>
-      <c r="AM3" s="30"/>
-      <c r="AN3" s="30"/>
-      <c r="AO3" s="30"/>
-      <c r="AP3" s="30"/>
-      <c r="AQ3" s="30"/>
-      <c r="AR3" s="30"/>
-      <c r="AS3" s="30"/>
-      <c r="AT3" s="30"/>
-      <c r="AU3" s="30"/>
-      <c r="AV3" s="30"/>
-      <c r="AW3" s="30"/>
-      <c r="AX3" s="30"/>
-      <c r="AY3" s="30"/>
-      <c r="AZ3" s="30"/>
-      <c r="BA3" s="30"/>
-      <c r="BB3" s="30"/>
-      <c r="BC3" s="30"/>
-      <c r="BD3" s="30"/>
+      <c r="AB3" s="29"/>
+      <c r="AC3" s="29"/>
+      <c r="AD3" s="29"/>
+      <c r="AE3" s="29"/>
+      <c r="AF3" s="29"/>
+      <c r="AG3" s="29"/>
+      <c r="AH3" s="29"/>
+      <c r="AI3" s="29"/>
+      <c r="AJ3" s="29"/>
+      <c r="AK3" s="29"/>
+      <c r="AL3" s="29"/>
+      <c r="AM3" s="29"/>
+      <c r="AN3" s="29"/>
+      <c r="AO3" s="29"/>
+      <c r="AP3" s="29"/>
+      <c r="AQ3" s="29"/>
+      <c r="AR3" s="29"/>
+      <c r="AS3" s="29"/>
+      <c r="AT3" s="29"/>
+      <c r="AU3" s="29"/>
+      <c r="AV3" s="29"/>
+      <c r="AW3" s="29"/>
+      <c r="AX3" s="29"/>
+      <c r="AY3" s="29"/>
+      <c r="AZ3" s="29"/>
+      <c r="BA3" s="29"/>
+      <c r="BB3" s="29"/>
+      <c r="BC3" s="29"/>
+      <c r="BD3" s="29"/>
       <c r="BE3" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="BF3" s="30"/>
-      <c r="BG3" s="30"/>
-      <c r="BH3" s="30"/>
-      <c r="BI3" s="30"/>
-      <c r="BJ3" s="30"/>
-      <c r="BK3" s="30"/>
-      <c r="BL3" s="30"/>
+      <c r="BF3" s="29"/>
+      <c r="BG3" s="29"/>
+      <c r="BH3" s="29"/>
+      <c r="BI3" s="29"/>
+      <c r="BJ3" s="29"/>
+      <c r="BK3" s="29"/>
+      <c r="BL3" s="29"/>
       <c r="BM3" s="8"/>
       <c r="BN3" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="BO3" s="30"/>
+      <c r="BO3" s="29"/>
       <c r="BP3" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="BQ3" s="30"/>
-      <c r="BR3" s="30"/>
-      <c r="BS3" s="30"/>
-      <c r="BT3" s="30"/>
-      <c r="BU3" s="30"/>
-      <c r="BV3" s="30"/>
-      <c r="BW3" s="30"/>
-      <c r="BX3" s="30"/>
-      <c r="BY3" s="30"/>
-      <c r="BZ3" s="30"/>
-      <c r="CA3" s="30"/>
-      <c r="CB3" s="30"/>
-      <c r="CC3" s="30"/>
-      <c r="CD3" s="30"/>
-      <c r="CE3" s="30"/>
-      <c r="CF3" s="30"/>
-      <c r="CG3" s="30"/>
+      <c r="BQ3" s="29"/>
+      <c r="BR3" s="29"/>
+      <c r="BS3" s="29"/>
+      <c r="BT3" s="29"/>
+      <c r="BU3" s="29"/>
+      <c r="BV3" s="29"/>
+      <c r="BW3" s="29"/>
+      <c r="BX3" s="29"/>
+      <c r="BY3" s="29"/>
+      <c r="BZ3" s="29"/>
+      <c r="CA3" s="29"/>
+      <c r="CB3" s="29"/>
+      <c r="CC3" s="29"/>
+      <c r="CD3" s="29"/>
+      <c r="CE3" s="29"/>
+      <c r="CF3" s="29"/>
+      <c r="CG3" s="29"/>
       <c r="CH3" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="CI3" s="30"/>
-      <c r="CJ3" s="30"/>
-      <c r="CK3" s="30"/>
-      <c r="CL3" s="30"/>
-      <c r="CM3" s="30"/>
-      <c r="CN3" s="30"/>
-      <c r="CO3" s="30"/>
-      <c r="CP3" s="30"/>
-      <c r="CQ3" s="30"/>
-      <c r="CR3" s="30"/>
+      <c r="CI3" s="29"/>
+      <c r="CJ3" s="29"/>
+      <c r="CK3" s="29"/>
+      <c r="CL3" s="29"/>
+      <c r="CM3" s="29"/>
+      <c r="CN3" s="29"/>
+      <c r="CO3" s="29"/>
+      <c r="CP3" s="29"/>
+      <c r="CQ3" s="29"/>
+      <c r="CR3" s="29"/>
       <c r="CS3" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="CT3" s="30"/>
-      <c r="CU3" s="30"/>
-      <c r="CV3" s="30"/>
-      <c r="CW3" s="30"/>
-      <c r="CX3" s="30"/>
+      <c r="CT3" s="29"/>
+      <c r="CU3" s="29"/>
+      <c r="CV3" s="29"/>
+      <c r="CW3" s="29"/>
+      <c r="CX3" s="29"/>
       <c r="CY3" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="CZ3" s="29"/>
-      <c r="DA3" s="29"/>
+      <c r="CZ3" s="30"/>
+      <c r="DA3" s="30"/>
     </row>
     <row r="4" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
@@ -22816,9 +22816,7 @@
       <c r="CW4" s="7"/>
       <c r="CX4" s="7"/>
       <c r="CY4" s="7"/>
-      <c r="CZ4" s="8">
-        <v>1</v>
-      </c>
+      <c r="CZ4" s="8"/>
       <c r="DA4" s="8">
         <v>1</v>
       </c>
@@ -25101,43 +25099,43 @@
       <c r="A23" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="30" t="s">
+      <c r="C23" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="30" t="s">
+      <c r="D23" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="E23" s="30" t="s">
+      <c r="E23" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="F23" s="30" t="s">
+      <c r="F23" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="G23" s="30" t="s">
+      <c r="G23" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="H23" s="30" t="s">
+      <c r="H23" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="I23" s="30" t="s">
+      <c r="I23" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="J23" s="30" t="s">
+      <c r="J23" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="K23" s="30" t="s">
+      <c r="K23" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="L23" s="30" t="s">
+      <c r="L23" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="M23" s="30" t="s">
+      <c r="M23" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="N23" s="30" t="s">
+      <c r="N23" s="29" t="s">
         <v>165</v>
       </c>
       <c r="O23" s="9" t="s">
@@ -25146,148 +25144,148 @@
       <c r="P23" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="Q23" s="30" t="s">
+      <c r="Q23" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="R23" s="30" t="s">
+      <c r="R23" s="29" t="s">
         <v>234</v>
       </c>
-      <c r="S23" s="30" t="s">
+      <c r="S23" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="T23" s="30" t="s">
+      <c r="T23" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="U23" s="30" t="s">
+      <c r="U23" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="V23" s="30" t="s">
+      <c r="V23" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="W23" s="30" t="s">
+      <c r="W23" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="X23" s="30" t="s">
+      <c r="X23" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="Y23" s="30" t="s">
+      <c r="Y23" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="Z23" s="30" t="s">
+      <c r="Z23" s="29" t="s">
         <v>47</v>
       </c>
       <c r="AA23" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="AB23" s="30" t="s">
+      <c r="AB23" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="AC23" s="30" t="s">
+      <c r="AC23" s="29" t="s">
         <v>235</v>
       </c>
-      <c r="AD23" s="30" t="s">
+      <c r="AD23" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="AE23" s="30" t="s">
+      <c r="AE23" s="29" t="s">
         <v>236</v>
       </c>
-      <c r="AF23" s="30" t="s">
+      <c r="AF23" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="AG23" s="30" t="s">
+      <c r="AG23" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="AH23" s="30" t="s">
+      <c r="AH23" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="AI23" s="30" t="s">
+      <c r="AI23" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="AJ23" s="30" t="s">
+      <c r="AJ23" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="AK23" s="30" t="s">
+      <c r="AK23" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="AL23" s="30" t="s">
+      <c r="AL23" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="AM23" s="30" t="s">
+      <c r="AM23" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="AN23" s="30" t="s">
+      <c r="AN23" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="AO23" s="30" t="s">
+      <c r="AO23" s="29" t="s">
         <v>671</v>
       </c>
-      <c r="AP23" s="30" t="s">
+      <c r="AP23" s="29" t="s">
         <v>174</v>
       </c>
-      <c r="AQ23" s="30" t="s">
+      <c r="AQ23" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="AR23" s="30" t="s">
+      <c r="AR23" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="AS23" s="30" t="s">
+      <c r="AS23" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="AT23" s="30" t="s">
+      <c r="AT23" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="AU23" s="30" t="s">
+      <c r="AU23" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="AV23" s="30" t="s">
+      <c r="AV23" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="AW23" s="30" t="s">
+      <c r="AW23" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="AX23" s="30" t="s">
+      <c r="AX23" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="AY23" s="30" t="s">
+      <c r="AY23" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="AZ23" s="30" t="s">
+      <c r="AZ23" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="BA23" s="30" t="s">
+      <c r="BA23" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="BB23" s="30" t="s">
+      <c r="BB23" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="BC23" s="30" t="s">
+      <c r="BC23" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="BD23" s="30" t="s">
+      <c r="BD23" s="29" t="s">
         <v>66</v>
       </c>
       <c r="BE23" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="BF23" s="30" t="s">
+      <c r="BF23" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="BG23" s="30" t="s">
+      <c r="BG23" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="BH23" s="30" t="s">
+      <c r="BH23" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="BI23" s="30" t="s">
+      <c r="BI23" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="BJ23" s="30" t="s">
+      <c r="BJ23" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="BK23" s="30" t="s">
+      <c r="BK23" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="BL23" s="30" t="s">
+      <c r="BL23" s="29" t="s">
         <v>28</v>
       </c>
       <c r="BM23" s="8" t="s">
@@ -25296,121 +25294,121 @@
       <c r="BN23" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="BO23" s="30" t="s">
+      <c r="BO23" s="29" t="s">
         <v>48</v>
       </c>
       <c r="BP23" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="BQ23" s="30" t="s">
+      <c r="BQ23" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="BR23" s="30" t="s">
+      <c r="BR23" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="BS23" s="30" t="s">
+      <c r="BS23" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="BT23" s="30" t="s">
+      <c r="BT23" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="BU23" s="30" t="s">
+      <c r="BU23" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="BV23" s="30" t="s">
+      <c r="BV23" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="BW23" s="30" t="s">
+      <c r="BW23" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="BX23" s="30" t="s">
+      <c r="BX23" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="BY23" s="30" t="s">
+      <c r="BY23" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="BZ23" s="30" t="s">
+      <c r="BZ23" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="CA23" s="30" t="s">
+      <c r="CA23" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="CB23" s="30" t="s">
+      <c r="CB23" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="CC23" s="30" t="s">
+      <c r="CC23" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="CD23" s="30" t="s">
+      <c r="CD23" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="CE23" s="30" t="s">
+      <c r="CE23" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="CF23" s="30" t="s">
+      <c r="CF23" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="CG23" s="30" t="s">
+      <c r="CG23" s="29" t="s">
         <v>20</v>
       </c>
       <c r="CH23" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="CI23" s="30" t="s">
+      <c r="CI23" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="CJ23" s="30" t="s">
+      <c r="CJ23" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="CK23" s="30" t="s">
+      <c r="CK23" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="CL23" s="30" t="s">
+      <c r="CL23" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="CM23" s="30" t="s">
+      <c r="CM23" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="CN23" s="30" t="s">
+      <c r="CN23" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="CO23" s="30" t="s">
+      <c r="CO23" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="CP23" s="30" t="s">
+      <c r="CP23" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="CQ23" s="30" t="s">
+      <c r="CQ23" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="CR23" s="30" t="s">
+      <c r="CR23" s="29" t="s">
         <v>41</v>
       </c>
       <c r="CS23" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="CT23" s="30" t="s">
+      <c r="CT23" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="CU23" s="30" t="s">
+      <c r="CU23" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="CV23" s="30" t="s">
+      <c r="CV23" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="CW23" s="30" t="s">
+      <c r="CW23" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="CX23" s="30" t="s">
+      <c r="CX23" s="29" t="s">
         <v>45</v>
       </c>
       <c r="CY23" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="CZ23" s="29" t="s">
+      <c r="CZ23" s="30" t="s">
         <v>248</v>
       </c>
-      <c r="DA23" s="29" t="s">
+      <c r="DA23" s="30" t="s">
         <v>249</v>
       </c>
     </row>
@@ -25418,130 +25416,130 @@
       <c r="A24" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
-      <c r="N24" s="30"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
       <c r="O24" s="9" t="s">
         <v>231</v>
       </c>
       <c r="P24" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="Q24" s="30"/>
-      <c r="R24" s="30"/>
-      <c r="S24" s="30"/>
-      <c r="T24" s="30"/>
-      <c r="U24" s="30"/>
-      <c r="V24" s="30"/>
-      <c r="W24" s="30"/>
-      <c r="X24" s="30"/>
-      <c r="Y24" s="30"/>
-      <c r="Z24" s="30"/>
+      <c r="Q24" s="29"/>
+      <c r="R24" s="29"/>
+      <c r="S24" s="29"/>
+      <c r="T24" s="29"/>
+      <c r="U24" s="29"/>
+      <c r="V24" s="29"/>
+      <c r="W24" s="29"/>
+      <c r="X24" s="29"/>
+      <c r="Y24" s="29"/>
+      <c r="Z24" s="29"/>
       <c r="AA24" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="AB24" s="30"/>
-      <c r="AC24" s="30"/>
-      <c r="AD24" s="30"/>
-      <c r="AE24" s="30"/>
-      <c r="AF24" s="30"/>
-      <c r="AG24" s="30"/>
-      <c r="AH24" s="30"/>
-      <c r="AI24" s="30"/>
-      <c r="AJ24" s="30"/>
-      <c r="AK24" s="30"/>
-      <c r="AL24" s="30"/>
-      <c r="AM24" s="30"/>
-      <c r="AN24" s="30"/>
-      <c r="AO24" s="30"/>
-      <c r="AP24" s="30"/>
-      <c r="AQ24" s="30"/>
-      <c r="AR24" s="30"/>
-      <c r="AS24" s="30"/>
-      <c r="AT24" s="30"/>
-      <c r="AU24" s="30"/>
-      <c r="AV24" s="30"/>
-      <c r="AW24" s="30"/>
-      <c r="AX24" s="30"/>
-      <c r="AY24" s="30"/>
-      <c r="AZ24" s="30"/>
-      <c r="BA24" s="30"/>
-      <c r="BB24" s="30"/>
-      <c r="BC24" s="30"/>
-      <c r="BD24" s="30"/>
+      <c r="AB24" s="29"/>
+      <c r="AC24" s="29"/>
+      <c r="AD24" s="29"/>
+      <c r="AE24" s="29"/>
+      <c r="AF24" s="29"/>
+      <c r="AG24" s="29"/>
+      <c r="AH24" s="29"/>
+      <c r="AI24" s="29"/>
+      <c r="AJ24" s="29"/>
+      <c r="AK24" s="29"/>
+      <c r="AL24" s="29"/>
+      <c r="AM24" s="29"/>
+      <c r="AN24" s="29"/>
+      <c r="AO24" s="29"/>
+      <c r="AP24" s="29"/>
+      <c r="AQ24" s="29"/>
+      <c r="AR24" s="29"/>
+      <c r="AS24" s="29"/>
+      <c r="AT24" s="29"/>
+      <c r="AU24" s="29"/>
+      <c r="AV24" s="29"/>
+      <c r="AW24" s="29"/>
+      <c r="AX24" s="29"/>
+      <c r="AY24" s="29"/>
+      <c r="AZ24" s="29"/>
+      <c r="BA24" s="29"/>
+      <c r="BB24" s="29"/>
+      <c r="BC24" s="29"/>
+      <c r="BD24" s="29"/>
       <c r="BE24" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="BF24" s="30"/>
-      <c r="BG24" s="30"/>
-      <c r="BH24" s="30"/>
-      <c r="BI24" s="30"/>
-      <c r="BJ24" s="30"/>
-      <c r="BK24" s="30"/>
-      <c r="BL24" s="30"/>
+      <c r="BF24" s="29"/>
+      <c r="BG24" s="29"/>
+      <c r="BH24" s="29"/>
+      <c r="BI24" s="29"/>
+      <c r="BJ24" s="29"/>
+      <c r="BK24" s="29"/>
+      <c r="BL24" s="29"/>
       <c r="BM24" s="8" t="s">
         <v>212</v>
       </c>
       <c r="BN24" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="BO24" s="30"/>
+      <c r="BO24" s="29"/>
       <c r="BP24" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="BQ24" s="30"/>
-      <c r="BR24" s="30"/>
-      <c r="BS24" s="30"/>
-      <c r="BT24" s="30"/>
-      <c r="BU24" s="30"/>
-      <c r="BV24" s="30"/>
-      <c r="BW24" s="30"/>
-      <c r="BX24" s="30"/>
-      <c r="BY24" s="30"/>
-      <c r="BZ24" s="30"/>
-      <c r="CA24" s="30"/>
-      <c r="CB24" s="30"/>
-      <c r="CC24" s="30"/>
-      <c r="CD24" s="30"/>
-      <c r="CE24" s="30"/>
-      <c r="CF24" s="30"/>
-      <c r="CG24" s="30"/>
+      <c r="BQ24" s="29"/>
+      <c r="BR24" s="29"/>
+      <c r="BS24" s="29"/>
+      <c r="BT24" s="29"/>
+      <c r="BU24" s="29"/>
+      <c r="BV24" s="29"/>
+      <c r="BW24" s="29"/>
+      <c r="BX24" s="29"/>
+      <c r="BY24" s="29"/>
+      <c r="BZ24" s="29"/>
+      <c r="CA24" s="29"/>
+      <c r="CB24" s="29"/>
+      <c r="CC24" s="29"/>
+      <c r="CD24" s="29"/>
+      <c r="CE24" s="29"/>
+      <c r="CF24" s="29"/>
+      <c r="CG24" s="29"/>
       <c r="CH24" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="CI24" s="30"/>
-      <c r="CJ24" s="30"/>
-      <c r="CK24" s="30"/>
-      <c r="CL24" s="30"/>
-      <c r="CM24" s="30"/>
-      <c r="CN24" s="30"/>
-      <c r="CO24" s="30"/>
-      <c r="CP24" s="30"/>
-      <c r="CQ24" s="30"/>
-      <c r="CR24" s="30"/>
+      <c r="CI24" s="29"/>
+      <c r="CJ24" s="29"/>
+      <c r="CK24" s="29"/>
+      <c r="CL24" s="29"/>
+      <c r="CM24" s="29"/>
+      <c r="CN24" s="29"/>
+      <c r="CO24" s="29"/>
+      <c r="CP24" s="29"/>
+      <c r="CQ24" s="29"/>
+      <c r="CR24" s="29"/>
       <c r="CS24" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="CT24" s="30"/>
-      <c r="CU24" s="30"/>
-      <c r="CV24" s="30"/>
-      <c r="CW24" s="30"/>
-      <c r="CX24" s="30"/>
+      <c r="CT24" s="29"/>
+      <c r="CU24" s="29"/>
+      <c r="CV24" s="29"/>
+      <c r="CW24" s="29"/>
+      <c r="CX24" s="29"/>
       <c r="CY24" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="CZ24" s="29"/>
-      <c r="DA24" s="29"/>
+      <c r="CZ24" s="30"/>
+      <c r="DA24" s="30"/>
     </row>
     <row r="25" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
@@ -29636,43 +29634,43 @@
       <c r="A54" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="B54" s="30" t="s">
+      <c r="B54" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="C54" s="30" t="s">
+      <c r="C54" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="D54" s="30" t="s">
+      <c r="D54" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="E54" s="30" t="s">
+      <c r="E54" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="F54" s="30" t="s">
+      <c r="F54" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="G54" s="30" t="s">
+      <c r="G54" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="H54" s="30" t="s">
+      <c r="H54" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="I54" s="30" t="s">
+      <c r="I54" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="J54" s="30" t="s">
+      <c r="J54" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="K54" s="30" t="s">
+      <c r="K54" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="L54" s="30" t="s">
+      <c r="L54" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="M54" s="30" t="s">
+      <c r="M54" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="N54" s="30" t="s">
+      <c r="N54" s="29" t="s">
         <v>165</v>
       </c>
       <c r="O54" s="9" t="s">
@@ -29681,148 +29679,148 @@
       <c r="P54" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="Q54" s="30" t="s">
+      <c r="Q54" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="R54" s="30" t="s">
+      <c r="R54" s="29" t="s">
         <v>234</v>
       </c>
-      <c r="S54" s="30" t="s">
+      <c r="S54" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="T54" s="30" t="s">
+      <c r="T54" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="U54" s="30" t="s">
+      <c r="U54" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="V54" s="30" t="s">
+      <c r="V54" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="W54" s="30" t="s">
+      <c r="W54" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="X54" s="30" t="s">
+      <c r="X54" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="Y54" s="30" t="s">
+      <c r="Y54" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="Z54" s="30" t="s">
+      <c r="Z54" s="29" t="s">
         <v>47</v>
       </c>
       <c r="AA54" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="AB54" s="30" t="s">
+      <c r="AB54" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="AC54" s="30" t="s">
+      <c r="AC54" s="29" t="s">
         <v>235</v>
       </c>
-      <c r="AD54" s="30" t="s">
+      <c r="AD54" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="AE54" s="30" t="s">
+      <c r="AE54" s="29" t="s">
         <v>236</v>
       </c>
-      <c r="AF54" s="30" t="s">
+      <c r="AF54" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="AG54" s="30" t="s">
+      <c r="AG54" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="AH54" s="30" t="s">
+      <c r="AH54" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="AI54" s="30" t="s">
+      <c r="AI54" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="AJ54" s="30" t="s">
+      <c r="AJ54" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="AK54" s="30" t="s">
+      <c r="AK54" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="AL54" s="30" t="s">
+      <c r="AL54" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="AM54" s="30" t="s">
+      <c r="AM54" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="AN54" s="30" t="s">
+      <c r="AN54" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="AO54" s="30" t="s">
+      <c r="AO54" s="29" t="s">
         <v>671</v>
       </c>
-      <c r="AP54" s="30" t="s">
+      <c r="AP54" s="29" t="s">
         <v>174</v>
       </c>
-      <c r="AQ54" s="30" t="s">
+      <c r="AQ54" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="AR54" s="30" t="s">
+      <c r="AR54" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="AS54" s="30" t="s">
+      <c r="AS54" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="AT54" s="30" t="s">
+      <c r="AT54" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="AU54" s="30" t="s">
+      <c r="AU54" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="AV54" s="30" t="s">
+      <c r="AV54" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="AW54" s="30" t="s">
+      <c r="AW54" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="AX54" s="30" t="s">
+      <c r="AX54" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="AY54" s="30" t="s">
+      <c r="AY54" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="AZ54" s="30" t="s">
+      <c r="AZ54" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="BA54" s="30" t="s">
+      <c r="BA54" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="BB54" s="30" t="s">
+      <c r="BB54" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="BC54" s="30" t="s">
+      <c r="BC54" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="BD54" s="30" t="s">
+      <c r="BD54" s="29" t="s">
         <v>66</v>
       </c>
       <c r="BE54" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="BF54" s="30" t="s">
+      <c r="BF54" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="BG54" s="30" t="s">
+      <c r="BG54" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="BH54" s="30" t="s">
+      <c r="BH54" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="BI54" s="30" t="s">
+      <c r="BI54" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="BJ54" s="30" t="s">
+      <c r="BJ54" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="BK54" s="30" t="s">
+      <c r="BK54" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="BL54" s="30" t="s">
+      <c r="BL54" s="29" t="s">
         <v>28</v>
       </c>
       <c r="BM54" s="8" t="s">
@@ -29831,121 +29829,121 @@
       <c r="BN54" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="BO54" s="30" t="s">
+      <c r="BO54" s="29" t="s">
         <v>48</v>
       </c>
       <c r="BP54" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="BQ54" s="30" t="s">
+      <c r="BQ54" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="BR54" s="30" t="s">
+      <c r="BR54" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="BS54" s="30" t="s">
+      <c r="BS54" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="BT54" s="30" t="s">
+      <c r="BT54" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="BU54" s="30" t="s">
+      <c r="BU54" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="BV54" s="30" t="s">
+      <c r="BV54" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="BW54" s="30" t="s">
+      <c r="BW54" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="BX54" s="30" t="s">
+      <c r="BX54" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="BY54" s="30" t="s">
+      <c r="BY54" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="BZ54" s="30" t="s">
+      <c r="BZ54" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="CA54" s="30" t="s">
+      <c r="CA54" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="CB54" s="30" t="s">
+      <c r="CB54" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="CC54" s="30" t="s">
+      <c r="CC54" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="CD54" s="30" t="s">
+      <c r="CD54" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="CE54" s="30" t="s">
+      <c r="CE54" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="CF54" s="30" t="s">
+      <c r="CF54" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="CG54" s="30" t="s">
+      <c r="CG54" s="29" t="s">
         <v>20</v>
       </c>
       <c r="CH54" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="CI54" s="30" t="s">
+      <c r="CI54" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="CJ54" s="30" t="s">
+      <c r="CJ54" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="CK54" s="30" t="s">
+      <c r="CK54" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="CL54" s="30" t="s">
+      <c r="CL54" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="CM54" s="30" t="s">
+      <c r="CM54" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="CN54" s="30" t="s">
+      <c r="CN54" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="CO54" s="30" t="s">
+      <c r="CO54" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="CP54" s="30" t="s">
+      <c r="CP54" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="CQ54" s="30" t="s">
+      <c r="CQ54" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="CR54" s="30" t="s">
+      <c r="CR54" s="29" t="s">
         <v>41</v>
       </c>
       <c r="CS54" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="CT54" s="30" t="s">
+      <c r="CT54" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="CU54" s="30" t="s">
+      <c r="CU54" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="CV54" s="30" t="s">
+      <c r="CV54" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="CW54" s="30" t="s">
+      <c r="CW54" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="CX54" s="30" t="s">
+      <c r="CX54" s="29" t="s">
         <v>45</v>
       </c>
       <c r="CY54" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="CZ54" s="29" t="s">
+      <c r="CZ54" s="30" t="s">
         <v>248</v>
       </c>
-      <c r="DA54" s="29" t="s">
+      <c r="DA54" s="30" t="s">
         <v>249</v>
       </c>
     </row>
@@ -29953,130 +29951,130 @@
       <c r="A55" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="B55" s="30"/>
-      <c r="C55" s="30"/>
-      <c r="D55" s="30"/>
-      <c r="E55" s="30"/>
-      <c r="F55" s="30"/>
-      <c r="G55" s="30"/>
-      <c r="H55" s="30"/>
-      <c r="I55" s="30"/>
-      <c r="J55" s="30"/>
-      <c r="K55" s="30"/>
-      <c r="L55" s="30"/>
-      <c r="M55" s="30"/>
-      <c r="N55" s="30"/>
+      <c r="B55" s="29"/>
+      <c r="C55" s="29"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="29"/>
+      <c r="F55" s="29"/>
+      <c r="G55" s="29"/>
+      <c r="H55" s="29"/>
+      <c r="I55" s="29"/>
+      <c r="J55" s="29"/>
+      <c r="K55" s="29"/>
+      <c r="L55" s="29"/>
+      <c r="M55" s="29"/>
+      <c r="N55" s="29"/>
       <c r="O55" s="9" t="s">
         <v>231</v>
       </c>
       <c r="P55" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="Q55" s="30"/>
-      <c r="R55" s="30"/>
-      <c r="S55" s="30"/>
-      <c r="T55" s="30"/>
-      <c r="U55" s="30"/>
-      <c r="V55" s="30"/>
-      <c r="W55" s="30"/>
-      <c r="X55" s="30"/>
-      <c r="Y55" s="30"/>
-      <c r="Z55" s="30"/>
+      <c r="Q55" s="29"/>
+      <c r="R55" s="29"/>
+      <c r="S55" s="29"/>
+      <c r="T55" s="29"/>
+      <c r="U55" s="29"/>
+      <c r="V55" s="29"/>
+      <c r="W55" s="29"/>
+      <c r="X55" s="29"/>
+      <c r="Y55" s="29"/>
+      <c r="Z55" s="29"/>
       <c r="AA55" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="AB55" s="30"/>
-      <c r="AC55" s="30"/>
-      <c r="AD55" s="30"/>
-      <c r="AE55" s="30"/>
-      <c r="AF55" s="30"/>
-      <c r="AG55" s="30"/>
-      <c r="AH55" s="30"/>
-      <c r="AI55" s="30"/>
-      <c r="AJ55" s="30"/>
-      <c r="AK55" s="30"/>
-      <c r="AL55" s="30"/>
-      <c r="AM55" s="30"/>
-      <c r="AN55" s="30"/>
-      <c r="AO55" s="30"/>
-      <c r="AP55" s="30"/>
-      <c r="AQ55" s="30"/>
-      <c r="AR55" s="30"/>
-      <c r="AS55" s="30"/>
-      <c r="AT55" s="30"/>
-      <c r="AU55" s="30"/>
-      <c r="AV55" s="30"/>
-      <c r="AW55" s="30"/>
-      <c r="AX55" s="30"/>
-      <c r="AY55" s="30"/>
-      <c r="AZ55" s="30"/>
-      <c r="BA55" s="30"/>
-      <c r="BB55" s="30"/>
-      <c r="BC55" s="30"/>
-      <c r="BD55" s="30"/>
+      <c r="AB55" s="29"/>
+      <c r="AC55" s="29"/>
+      <c r="AD55" s="29"/>
+      <c r="AE55" s="29"/>
+      <c r="AF55" s="29"/>
+      <c r="AG55" s="29"/>
+      <c r="AH55" s="29"/>
+      <c r="AI55" s="29"/>
+      <c r="AJ55" s="29"/>
+      <c r="AK55" s="29"/>
+      <c r="AL55" s="29"/>
+      <c r="AM55" s="29"/>
+      <c r="AN55" s="29"/>
+      <c r="AO55" s="29"/>
+      <c r="AP55" s="29"/>
+      <c r="AQ55" s="29"/>
+      <c r="AR55" s="29"/>
+      <c r="AS55" s="29"/>
+      <c r="AT55" s="29"/>
+      <c r="AU55" s="29"/>
+      <c r="AV55" s="29"/>
+      <c r="AW55" s="29"/>
+      <c r="AX55" s="29"/>
+      <c r="AY55" s="29"/>
+      <c r="AZ55" s="29"/>
+      <c r="BA55" s="29"/>
+      <c r="BB55" s="29"/>
+      <c r="BC55" s="29"/>
+      <c r="BD55" s="29"/>
       <c r="BE55" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="BF55" s="30"/>
-      <c r="BG55" s="30"/>
-      <c r="BH55" s="30"/>
-      <c r="BI55" s="30"/>
-      <c r="BJ55" s="30"/>
-      <c r="BK55" s="30"/>
-      <c r="BL55" s="30"/>
+      <c r="BF55" s="29"/>
+      <c r="BG55" s="29"/>
+      <c r="BH55" s="29"/>
+      <c r="BI55" s="29"/>
+      <c r="BJ55" s="29"/>
+      <c r="BK55" s="29"/>
+      <c r="BL55" s="29"/>
       <c r="BM55" s="8" t="s">
         <v>212</v>
       </c>
       <c r="BN55" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="BO55" s="30"/>
+      <c r="BO55" s="29"/>
       <c r="BP55" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="BQ55" s="30"/>
-      <c r="BR55" s="30"/>
-      <c r="BS55" s="30"/>
-      <c r="BT55" s="30"/>
-      <c r="BU55" s="30"/>
-      <c r="BV55" s="30"/>
-      <c r="BW55" s="30"/>
-      <c r="BX55" s="30"/>
-      <c r="BY55" s="30"/>
-      <c r="BZ55" s="30"/>
-      <c r="CA55" s="30"/>
-      <c r="CB55" s="30"/>
-      <c r="CC55" s="30"/>
-      <c r="CD55" s="30"/>
-      <c r="CE55" s="30"/>
-      <c r="CF55" s="30"/>
-      <c r="CG55" s="30"/>
+      <c r="BQ55" s="29"/>
+      <c r="BR55" s="29"/>
+      <c r="BS55" s="29"/>
+      <c r="BT55" s="29"/>
+      <c r="BU55" s="29"/>
+      <c r="BV55" s="29"/>
+      <c r="BW55" s="29"/>
+      <c r="BX55" s="29"/>
+      <c r="BY55" s="29"/>
+      <c r="BZ55" s="29"/>
+      <c r="CA55" s="29"/>
+      <c r="CB55" s="29"/>
+      <c r="CC55" s="29"/>
+      <c r="CD55" s="29"/>
+      <c r="CE55" s="29"/>
+      <c r="CF55" s="29"/>
+      <c r="CG55" s="29"/>
       <c r="CH55" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="CI55" s="30"/>
-      <c r="CJ55" s="30"/>
-      <c r="CK55" s="30"/>
-      <c r="CL55" s="30"/>
-      <c r="CM55" s="30"/>
-      <c r="CN55" s="30"/>
-      <c r="CO55" s="30"/>
-      <c r="CP55" s="30"/>
-      <c r="CQ55" s="30"/>
-      <c r="CR55" s="30"/>
+      <c r="CI55" s="29"/>
+      <c r="CJ55" s="29"/>
+      <c r="CK55" s="29"/>
+      <c r="CL55" s="29"/>
+      <c r="CM55" s="29"/>
+      <c r="CN55" s="29"/>
+      <c r="CO55" s="29"/>
+      <c r="CP55" s="29"/>
+      <c r="CQ55" s="29"/>
+      <c r="CR55" s="29"/>
       <c r="CS55" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="CT55" s="30"/>
-      <c r="CU55" s="30"/>
-      <c r="CV55" s="30"/>
-      <c r="CW55" s="30"/>
-      <c r="CX55" s="30"/>
+      <c r="CT55" s="29"/>
+      <c r="CU55" s="29"/>
+      <c r="CV55" s="29"/>
+      <c r="CW55" s="29"/>
+      <c r="CX55" s="29"/>
       <c r="CY55" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="CZ55" s="29"/>
-      <c r="DA55" s="29"/>
+      <c r="CZ55" s="30"/>
+      <c r="DA55" s="30"/>
     </row>
     <row r="56" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
@@ -37381,6 +37379,12 @@
       <c r="R86" s="7">
         <v>24742</v>
       </c>
+      <c r="AR86" s="7">
+        <v>303</v>
+      </c>
+      <c r="AU86" s="7">
+        <v>146</v>
+      </c>
       <c r="BF86" s="7">
         <v>3110</v>
       </c>
@@ -37538,17 +37542,267 @@
     </row>
   </sheetData>
   <mergeCells count="296">
-    <mergeCell ref="CZ54:CZ55"/>
-    <mergeCell ref="DA54:DA55"/>
-    <mergeCell ref="CO54:CO55"/>
-    <mergeCell ref="CP54:CP55"/>
-    <mergeCell ref="CQ54:CQ55"/>
-    <mergeCell ref="CR54:CR55"/>
-    <mergeCell ref="CT54:CT55"/>
-    <mergeCell ref="CU54:CU55"/>
-    <mergeCell ref="CV54:CV55"/>
-    <mergeCell ref="CW54:CW55"/>
-    <mergeCell ref="CX54:CX55"/>
+    <mergeCell ref="CK54:CK55"/>
+    <mergeCell ref="CM54:CM55"/>
+    <mergeCell ref="CN54:CN55"/>
+    <mergeCell ref="CD54:CD55"/>
+    <mergeCell ref="CE54:CE55"/>
+    <mergeCell ref="CG54:CG55"/>
+    <mergeCell ref="CI54:CI55"/>
+    <mergeCell ref="CJ54:CJ55"/>
+    <mergeCell ref="CF54:CF55"/>
+    <mergeCell ref="CL54:CL55"/>
+    <mergeCell ref="BY54:BY55"/>
+    <mergeCell ref="BZ54:BZ55"/>
+    <mergeCell ref="CA54:CA55"/>
+    <mergeCell ref="CB54:CB55"/>
+    <mergeCell ref="CC54:CC55"/>
+    <mergeCell ref="BQ54:BQ55"/>
+    <mergeCell ref="BR54:BR55"/>
+    <mergeCell ref="BS54:BS55"/>
+    <mergeCell ref="BT54:BT55"/>
+    <mergeCell ref="BV54:BV55"/>
+    <mergeCell ref="BW54:BW55"/>
+    <mergeCell ref="BU54:BU55"/>
+    <mergeCell ref="BK54:BK55"/>
+    <mergeCell ref="BL54:BL55"/>
+    <mergeCell ref="BO54:BO55"/>
+    <mergeCell ref="BF54:BF55"/>
+    <mergeCell ref="BG54:BG55"/>
+    <mergeCell ref="BH54:BH55"/>
+    <mergeCell ref="BI54:BI55"/>
+    <mergeCell ref="BJ54:BJ55"/>
+    <mergeCell ref="BX54:BX55"/>
+    <mergeCell ref="AV54:AV55"/>
+    <mergeCell ref="AW54:AW55"/>
+    <mergeCell ref="AX54:AX55"/>
+    <mergeCell ref="AY54:AY55"/>
+    <mergeCell ref="BB54:BB55"/>
+    <mergeCell ref="BD54:BD55"/>
+    <mergeCell ref="AO54:AO55"/>
+    <mergeCell ref="AP54:AP55"/>
+    <mergeCell ref="AQ54:AQ55"/>
+    <mergeCell ref="AS54:AS55"/>
+    <mergeCell ref="AT54:AT55"/>
+    <mergeCell ref="AU54:AU55"/>
+    <mergeCell ref="AR54:AR55"/>
+    <mergeCell ref="AZ54:AZ55"/>
+    <mergeCell ref="BA54:BA55"/>
+    <mergeCell ref="BC54:BC55"/>
+    <mergeCell ref="AI54:AI55"/>
+    <mergeCell ref="AJ54:AJ55"/>
+    <mergeCell ref="AK54:AK55"/>
+    <mergeCell ref="AL54:AL55"/>
+    <mergeCell ref="AM54:AM55"/>
+    <mergeCell ref="AN54:AN55"/>
+    <mergeCell ref="AC54:AC55"/>
+    <mergeCell ref="AD54:AD55"/>
+    <mergeCell ref="AE54:AE55"/>
+    <mergeCell ref="AF54:AF55"/>
+    <mergeCell ref="AG54:AG55"/>
+    <mergeCell ref="AH54:AH55"/>
+    <mergeCell ref="W54:W55"/>
+    <mergeCell ref="X54:X55"/>
+    <mergeCell ref="Y54:Y55"/>
+    <mergeCell ref="Z54:Z55"/>
+    <mergeCell ref="AB54:AB55"/>
+    <mergeCell ref="Q54:Q55"/>
+    <mergeCell ref="S54:S55"/>
+    <mergeCell ref="T54:T55"/>
+    <mergeCell ref="U54:U55"/>
+    <mergeCell ref="V54:V55"/>
+    <mergeCell ref="R54:R55"/>
+    <mergeCell ref="J54:J55"/>
+    <mergeCell ref="K54:K55"/>
+    <mergeCell ref="L54:L55"/>
+    <mergeCell ref="M54:M55"/>
+    <mergeCell ref="N54:N55"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="I54:I55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="CI23:CI24"/>
+    <mergeCell ref="CJ23:CJ24"/>
+    <mergeCell ref="CK23:CK24"/>
+    <mergeCell ref="CM23:CM24"/>
+    <mergeCell ref="CN23:CN24"/>
+    <mergeCell ref="CA23:CA24"/>
+    <mergeCell ref="CB23:CB24"/>
+    <mergeCell ref="CC23:CC24"/>
+    <mergeCell ref="CD23:CD24"/>
+    <mergeCell ref="CE23:CE24"/>
+    <mergeCell ref="CG23:CG24"/>
+    <mergeCell ref="BT23:BT24"/>
+    <mergeCell ref="BV23:BV24"/>
+    <mergeCell ref="BW23:BW24"/>
+    <mergeCell ref="BX23:BX24"/>
+    <mergeCell ref="BY23:BY24"/>
+    <mergeCell ref="BZ23:BZ24"/>
+    <mergeCell ref="BO23:BO24"/>
+    <mergeCell ref="BQ23:BQ24"/>
+    <mergeCell ref="BR23:BR24"/>
+    <mergeCell ref="BS23:BS24"/>
+    <mergeCell ref="AQ23:AQ24"/>
+    <mergeCell ref="BH23:BH24"/>
+    <mergeCell ref="BI23:BI24"/>
+    <mergeCell ref="BJ23:BJ24"/>
+    <mergeCell ref="BK23:BK24"/>
+    <mergeCell ref="BL23:BL24"/>
+    <mergeCell ref="AY23:AY24"/>
+    <mergeCell ref="BB23:BB24"/>
+    <mergeCell ref="BD23:BD24"/>
+    <mergeCell ref="BF23:BF24"/>
+    <mergeCell ref="BG23:BG24"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="S23:S24"/>
+    <mergeCell ref="AF23:AF24"/>
+    <mergeCell ref="AG23:AG24"/>
+    <mergeCell ref="AH23:AH24"/>
+    <mergeCell ref="AI23:AI24"/>
+    <mergeCell ref="AJ23:AJ24"/>
+    <mergeCell ref="Z23:Z24"/>
+    <mergeCell ref="AB23:AB24"/>
+    <mergeCell ref="AC23:AC24"/>
+    <mergeCell ref="AD23:AD24"/>
+    <mergeCell ref="AE23:AE24"/>
+    <mergeCell ref="CB2:CB3"/>
+    <mergeCell ref="CC2:CC3"/>
+    <mergeCell ref="CD2:CD3"/>
+    <mergeCell ref="CE2:CE3"/>
+    <mergeCell ref="BS2:BS3"/>
+    <mergeCell ref="BT2:BT3"/>
+    <mergeCell ref="T23:T24"/>
+    <mergeCell ref="U23:U24"/>
+    <mergeCell ref="V23:V24"/>
+    <mergeCell ref="W23:W24"/>
+    <mergeCell ref="X23:X24"/>
+    <mergeCell ref="Y23:Y24"/>
+    <mergeCell ref="AK23:AK24"/>
+    <mergeCell ref="AS23:AS24"/>
+    <mergeCell ref="AT23:AT24"/>
+    <mergeCell ref="AU23:AU24"/>
+    <mergeCell ref="AV23:AV24"/>
+    <mergeCell ref="AW23:AW24"/>
+    <mergeCell ref="AX23:AX24"/>
+    <mergeCell ref="AL23:AL24"/>
+    <mergeCell ref="AM23:AM24"/>
+    <mergeCell ref="AN23:AN24"/>
+    <mergeCell ref="AO23:AO24"/>
+    <mergeCell ref="AP23:AP24"/>
+    <mergeCell ref="BV2:BV3"/>
+    <mergeCell ref="BW2:BW3"/>
+    <mergeCell ref="BX2:BX3"/>
+    <mergeCell ref="BY2:BY3"/>
+    <mergeCell ref="BO2:BO3"/>
+    <mergeCell ref="BQ2:BQ3"/>
+    <mergeCell ref="BR2:BR3"/>
+    <mergeCell ref="CN2:CN3"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="CG2:CG3"/>
+    <mergeCell ref="CI2:CI3"/>
+    <mergeCell ref="CJ2:CJ3"/>
+    <mergeCell ref="CK2:CK3"/>
+    <mergeCell ref="CM2:CM3"/>
+    <mergeCell ref="BZ2:BZ3"/>
+    <mergeCell ref="CA2:CA3"/>
+    <mergeCell ref="BG2:BG3"/>
+    <mergeCell ref="BH2:BH3"/>
+    <mergeCell ref="BI2:BI3"/>
+    <mergeCell ref="BJ2:BJ3"/>
+    <mergeCell ref="BK2:BK3"/>
+    <mergeCell ref="BL2:BL3"/>
+    <mergeCell ref="AX2:AX3"/>
+    <mergeCell ref="AY2:AY3"/>
+    <mergeCell ref="BB2:BB3"/>
+    <mergeCell ref="BD2:BD3"/>
+    <mergeCell ref="BF2:BF3"/>
+    <mergeCell ref="AQ2:AQ3"/>
+    <mergeCell ref="AS2:AS3"/>
+    <mergeCell ref="AT2:AT3"/>
+    <mergeCell ref="AU2:AU3"/>
+    <mergeCell ref="AV2:AV3"/>
+    <mergeCell ref="AW2:AW3"/>
+    <mergeCell ref="AK2:AK3"/>
+    <mergeCell ref="AL2:AL3"/>
+    <mergeCell ref="AM2:AM3"/>
+    <mergeCell ref="AN2:AN3"/>
+    <mergeCell ref="AO2:AO3"/>
+    <mergeCell ref="AP2:AP3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="AH2:AH3"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="AJ2:AJ3"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="Z2:Z3"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="AG1:AQ1"/>
+    <mergeCell ref="AR1:AS1"/>
+    <mergeCell ref="AT1:AX1"/>
+    <mergeCell ref="AY1:BL1"/>
+    <mergeCell ref="BN1:BX1"/>
+    <mergeCell ref="BY1:CG1"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="B1:N1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="CH1:CQ1"/>
+    <mergeCell ref="CR1:CX1"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="AR2:AR3"/>
+    <mergeCell ref="AZ2:AZ3"/>
+    <mergeCell ref="BA2:BA3"/>
+    <mergeCell ref="BC2:BC3"/>
+    <mergeCell ref="BU2:BU3"/>
+    <mergeCell ref="CF2:CF3"/>
+    <mergeCell ref="CL2:CL3"/>
+    <mergeCell ref="CO2:CO3"/>
+    <mergeCell ref="CP2:CP3"/>
+    <mergeCell ref="CQ2:CQ3"/>
+    <mergeCell ref="CR2:CR3"/>
+    <mergeCell ref="CT2:CT3"/>
+    <mergeCell ref="CU2:CU3"/>
+    <mergeCell ref="CV2:CV3"/>
+    <mergeCell ref="CW2:CW3"/>
+    <mergeCell ref="CX2:CX3"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="AB1:AF1"/>
     <mergeCell ref="CZ2:CZ3"/>
     <mergeCell ref="DA2:DA3"/>
     <mergeCell ref="F23:F24"/>
@@ -37573,267 +37827,17 @@
     <mergeCell ref="CZ23:CZ24"/>
     <mergeCell ref="DA23:DA24"/>
     <mergeCell ref="M2:M3"/>
-    <mergeCell ref="CH1:CQ1"/>
-    <mergeCell ref="CR1:CX1"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="AR2:AR3"/>
-    <mergeCell ref="AZ2:AZ3"/>
-    <mergeCell ref="BA2:BA3"/>
-    <mergeCell ref="BC2:BC3"/>
-    <mergeCell ref="BU2:BU3"/>
-    <mergeCell ref="CF2:CF3"/>
-    <mergeCell ref="CL2:CL3"/>
-    <mergeCell ref="CO2:CO3"/>
-    <mergeCell ref="CP2:CP3"/>
-    <mergeCell ref="CQ2:CQ3"/>
-    <mergeCell ref="CR2:CR3"/>
-    <mergeCell ref="CT2:CT3"/>
-    <mergeCell ref="CU2:CU3"/>
-    <mergeCell ref="CV2:CV3"/>
-    <mergeCell ref="CW2:CW3"/>
-    <mergeCell ref="CX2:CX3"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="AB1:AF1"/>
-    <mergeCell ref="AG1:AQ1"/>
-    <mergeCell ref="AR1:AS1"/>
-    <mergeCell ref="AT1:AX1"/>
-    <mergeCell ref="AY1:BL1"/>
-    <mergeCell ref="BN1:BX1"/>
-    <mergeCell ref="BY1:CG1"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="B1:N1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="AF2:AF3"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="AJ2:AJ3"/>
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="Z2:Z3"/>
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="AQ2:AQ3"/>
-    <mergeCell ref="AS2:AS3"/>
-    <mergeCell ref="AT2:AT3"/>
-    <mergeCell ref="AU2:AU3"/>
-    <mergeCell ref="AV2:AV3"/>
-    <mergeCell ref="AW2:AW3"/>
-    <mergeCell ref="AK2:AK3"/>
-    <mergeCell ref="AL2:AL3"/>
-    <mergeCell ref="AM2:AM3"/>
-    <mergeCell ref="AN2:AN3"/>
-    <mergeCell ref="AO2:AO3"/>
-    <mergeCell ref="AP2:AP3"/>
-    <mergeCell ref="BG2:BG3"/>
-    <mergeCell ref="BH2:BH3"/>
-    <mergeCell ref="BI2:BI3"/>
-    <mergeCell ref="BJ2:BJ3"/>
-    <mergeCell ref="BK2:BK3"/>
-    <mergeCell ref="BL2:BL3"/>
-    <mergeCell ref="AX2:AX3"/>
-    <mergeCell ref="AY2:AY3"/>
-    <mergeCell ref="BB2:BB3"/>
-    <mergeCell ref="BD2:BD3"/>
-    <mergeCell ref="BF2:BF3"/>
-    <mergeCell ref="BV2:BV3"/>
-    <mergeCell ref="BW2:BW3"/>
-    <mergeCell ref="BX2:BX3"/>
-    <mergeCell ref="BY2:BY3"/>
-    <mergeCell ref="BO2:BO3"/>
-    <mergeCell ref="BQ2:BQ3"/>
-    <mergeCell ref="BR2:BR3"/>
-    <mergeCell ref="CN2:CN3"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="CG2:CG3"/>
-    <mergeCell ref="CI2:CI3"/>
-    <mergeCell ref="CJ2:CJ3"/>
-    <mergeCell ref="CK2:CK3"/>
-    <mergeCell ref="CM2:CM3"/>
-    <mergeCell ref="BZ2:BZ3"/>
-    <mergeCell ref="CA2:CA3"/>
-    <mergeCell ref="CB2:CB3"/>
-    <mergeCell ref="CC2:CC3"/>
-    <mergeCell ref="CD2:CD3"/>
-    <mergeCell ref="CE2:CE3"/>
-    <mergeCell ref="BS2:BS3"/>
-    <mergeCell ref="BT2:BT3"/>
-    <mergeCell ref="T23:T24"/>
-    <mergeCell ref="U23:U24"/>
-    <mergeCell ref="V23:V24"/>
-    <mergeCell ref="W23:W24"/>
-    <mergeCell ref="X23:X24"/>
-    <mergeCell ref="Y23:Y24"/>
-    <mergeCell ref="AK23:AK24"/>
-    <mergeCell ref="AS23:AS24"/>
-    <mergeCell ref="AT23:AT24"/>
-    <mergeCell ref="AU23:AU24"/>
-    <mergeCell ref="AV23:AV24"/>
-    <mergeCell ref="AW23:AW24"/>
-    <mergeCell ref="AX23:AX24"/>
-    <mergeCell ref="AL23:AL24"/>
-    <mergeCell ref="AM23:AM24"/>
-    <mergeCell ref="AN23:AN24"/>
-    <mergeCell ref="AO23:AO24"/>
-    <mergeCell ref="AP23:AP24"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="Q23:Q24"/>
-    <mergeCell ref="S23:S24"/>
-    <mergeCell ref="AF23:AF24"/>
-    <mergeCell ref="AG23:AG24"/>
-    <mergeCell ref="AH23:AH24"/>
-    <mergeCell ref="AI23:AI24"/>
-    <mergeCell ref="AJ23:AJ24"/>
-    <mergeCell ref="Z23:Z24"/>
-    <mergeCell ref="AB23:AB24"/>
-    <mergeCell ref="AC23:AC24"/>
-    <mergeCell ref="AD23:AD24"/>
-    <mergeCell ref="AE23:AE24"/>
-    <mergeCell ref="AQ23:AQ24"/>
-    <mergeCell ref="BH23:BH24"/>
-    <mergeCell ref="BI23:BI24"/>
-    <mergeCell ref="BJ23:BJ24"/>
-    <mergeCell ref="BK23:BK24"/>
-    <mergeCell ref="BL23:BL24"/>
-    <mergeCell ref="AY23:AY24"/>
-    <mergeCell ref="BB23:BB24"/>
-    <mergeCell ref="BD23:BD24"/>
-    <mergeCell ref="BF23:BF24"/>
-    <mergeCell ref="BG23:BG24"/>
-    <mergeCell ref="BT23:BT24"/>
-    <mergeCell ref="BV23:BV24"/>
-    <mergeCell ref="BW23:BW24"/>
-    <mergeCell ref="BX23:BX24"/>
-    <mergeCell ref="BY23:BY24"/>
-    <mergeCell ref="BZ23:BZ24"/>
-    <mergeCell ref="BO23:BO24"/>
-    <mergeCell ref="BQ23:BQ24"/>
-    <mergeCell ref="BR23:BR24"/>
-    <mergeCell ref="BS23:BS24"/>
-    <mergeCell ref="CI23:CI24"/>
-    <mergeCell ref="CJ23:CJ24"/>
-    <mergeCell ref="CK23:CK24"/>
-    <mergeCell ref="CM23:CM24"/>
-    <mergeCell ref="CN23:CN24"/>
-    <mergeCell ref="CA23:CA24"/>
-    <mergeCell ref="CB23:CB24"/>
-    <mergeCell ref="CC23:CC24"/>
-    <mergeCell ref="CD23:CD24"/>
-    <mergeCell ref="CE23:CE24"/>
-    <mergeCell ref="CG23:CG24"/>
-    <mergeCell ref="J54:J55"/>
-    <mergeCell ref="K54:K55"/>
-    <mergeCell ref="L54:L55"/>
-    <mergeCell ref="M54:M55"/>
-    <mergeCell ref="N54:N55"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="H54:H55"/>
-    <mergeCell ref="I54:I55"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="W54:W55"/>
-    <mergeCell ref="X54:X55"/>
-    <mergeCell ref="Y54:Y55"/>
-    <mergeCell ref="Z54:Z55"/>
-    <mergeCell ref="AB54:AB55"/>
-    <mergeCell ref="Q54:Q55"/>
-    <mergeCell ref="S54:S55"/>
-    <mergeCell ref="T54:T55"/>
-    <mergeCell ref="U54:U55"/>
-    <mergeCell ref="V54:V55"/>
-    <mergeCell ref="R54:R55"/>
-    <mergeCell ref="AI54:AI55"/>
-    <mergeCell ref="AJ54:AJ55"/>
-    <mergeCell ref="AK54:AK55"/>
-    <mergeCell ref="AL54:AL55"/>
-    <mergeCell ref="AM54:AM55"/>
-    <mergeCell ref="AN54:AN55"/>
-    <mergeCell ref="AC54:AC55"/>
-    <mergeCell ref="AD54:AD55"/>
-    <mergeCell ref="AE54:AE55"/>
-    <mergeCell ref="AF54:AF55"/>
-    <mergeCell ref="AG54:AG55"/>
-    <mergeCell ref="AH54:AH55"/>
-    <mergeCell ref="AV54:AV55"/>
-    <mergeCell ref="AW54:AW55"/>
-    <mergeCell ref="AX54:AX55"/>
-    <mergeCell ref="AY54:AY55"/>
-    <mergeCell ref="BB54:BB55"/>
-    <mergeCell ref="BD54:BD55"/>
-    <mergeCell ref="AO54:AO55"/>
-    <mergeCell ref="AP54:AP55"/>
-    <mergeCell ref="AQ54:AQ55"/>
-    <mergeCell ref="AS54:AS55"/>
-    <mergeCell ref="AT54:AT55"/>
-    <mergeCell ref="AU54:AU55"/>
-    <mergeCell ref="AR54:AR55"/>
-    <mergeCell ref="AZ54:AZ55"/>
-    <mergeCell ref="BA54:BA55"/>
-    <mergeCell ref="BC54:BC55"/>
-    <mergeCell ref="BK54:BK55"/>
-    <mergeCell ref="BL54:BL55"/>
-    <mergeCell ref="BO54:BO55"/>
-    <mergeCell ref="BF54:BF55"/>
-    <mergeCell ref="BG54:BG55"/>
-    <mergeCell ref="BH54:BH55"/>
-    <mergeCell ref="BI54:BI55"/>
-    <mergeCell ref="BJ54:BJ55"/>
-    <mergeCell ref="BX54:BX55"/>
-    <mergeCell ref="BY54:BY55"/>
-    <mergeCell ref="BZ54:BZ55"/>
-    <mergeCell ref="CA54:CA55"/>
-    <mergeCell ref="CB54:CB55"/>
-    <mergeCell ref="CC54:CC55"/>
-    <mergeCell ref="BQ54:BQ55"/>
-    <mergeCell ref="BR54:BR55"/>
-    <mergeCell ref="BS54:BS55"/>
-    <mergeCell ref="BT54:BT55"/>
-    <mergeCell ref="BV54:BV55"/>
-    <mergeCell ref="BW54:BW55"/>
-    <mergeCell ref="BU54:BU55"/>
-    <mergeCell ref="CK54:CK55"/>
-    <mergeCell ref="CM54:CM55"/>
-    <mergeCell ref="CN54:CN55"/>
-    <mergeCell ref="CD54:CD55"/>
-    <mergeCell ref="CE54:CE55"/>
-    <mergeCell ref="CG54:CG55"/>
-    <mergeCell ref="CI54:CI55"/>
-    <mergeCell ref="CJ54:CJ55"/>
-    <mergeCell ref="CF54:CF55"/>
-    <mergeCell ref="CL54:CL55"/>
+    <mergeCell ref="CZ54:CZ55"/>
+    <mergeCell ref="DA54:DA55"/>
+    <mergeCell ref="CO54:CO55"/>
+    <mergeCell ref="CP54:CP55"/>
+    <mergeCell ref="CQ54:CQ55"/>
+    <mergeCell ref="CR54:CR55"/>
+    <mergeCell ref="CT54:CT55"/>
+    <mergeCell ref="CU54:CU55"/>
+    <mergeCell ref="CV54:CV55"/>
+    <mergeCell ref="CW54:CW55"/>
+    <mergeCell ref="CX54:CX55"/>
   </mergeCells>
   <phoneticPr fontId="28" type="noConversion"/>
   <hyperlinks>
@@ -38356,7 +38360,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F0720B9-F1C1-4E88-8345-0A7B8577FCEF}">
   <dimension ref="A1:CT51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AM21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="AM17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AO52" sqref="AO52"/>
     </sheetView>
   </sheetViews>
@@ -38366,137 +38370,137 @@
       <c r="A1" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="32" t="s">
         <v>673</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31" t="s">
+      <c r="C1" s="32"/>
+      <c r="D1" s="32" t="s">
         <v>674</v>
       </c>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31" t="s">
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32" t="s">
         <v>217</v>
       </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31" t="s">
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32" t="s">
         <v>218</v>
       </c>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
       <c r="R1" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="S1" s="31" t="s">
+      <c r="S1" s="32" t="s">
         <v>216</v>
       </c>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31" t="s">
+      <c r="T1" s="32"/>
+      <c r="U1" s="32" t="s">
         <v>215</v>
       </c>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31"/>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31" t="s">
+      <c r="V1" s="32"/>
+      <c r="W1" s="32"/>
+      <c r="X1" s="32"/>
+      <c r="Y1" s="32" t="s">
         <v>214</v>
       </c>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="31"/>
-      <c r="AB1" s="31" t="s">
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="32" t="s">
         <v>213</v>
       </c>
-      <c r="AC1" s="31"/>
-      <c r="AD1" s="31"/>
-      <c r="AE1" s="31"/>
-      <c r="AF1" s="31"/>
-      <c r="AG1" s="31"/>
-      <c r="AH1" s="31"/>
-      <c r="AI1" s="31"/>
+      <c r="AC1" s="32"/>
+      <c r="AD1" s="32"/>
+      <c r="AE1" s="32"/>
+      <c r="AF1" s="32"/>
+      <c r="AG1" s="32"/>
+      <c r="AH1" s="32"/>
+      <c r="AI1" s="32"/>
       <c r="AJ1" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="AK1" s="31" t="s">
+      <c r="AK1" s="32" t="s">
         <v>220</v>
       </c>
-      <c r="AL1" s="31"/>
-      <c r="AM1" s="31"/>
-      <c r="AN1" s="31"/>
-      <c r="AO1" s="31" t="s">
+      <c r="AL1" s="32"/>
+      <c r="AM1" s="32"/>
+      <c r="AN1" s="32"/>
+      <c r="AO1" s="32" t="s">
         <v>221</v>
       </c>
-      <c r="AP1" s="31"/>
-      <c r="AQ1" s="31"/>
-      <c r="AR1" s="31"/>
-      <c r="AS1" s="31"/>
-      <c r="AT1" s="31" t="s">
+      <c r="AP1" s="32"/>
+      <c r="AQ1" s="32"/>
+      <c r="AR1" s="32"/>
+      <c r="AS1" s="32"/>
+      <c r="AT1" s="32" t="s">
         <v>223</v>
       </c>
-      <c r="AU1" s="31"/>
-      <c r="AV1" s="31"/>
-      <c r="AW1" s="31"/>
-      <c r="AX1" s="31"/>
-      <c r="AY1" s="31" t="s">
+      <c r="AU1" s="32"/>
+      <c r="AV1" s="32"/>
+      <c r="AW1" s="32"/>
+      <c r="AX1" s="32"/>
+      <c r="AY1" s="32" t="s">
         <v>224</v>
       </c>
-      <c r="AZ1" s="31"/>
-      <c r="BA1" s="31"/>
-      <c r="BB1" s="31"/>
-      <c r="BC1" s="31"/>
-      <c r="BD1" s="31"/>
-      <c r="BE1" s="31"/>
-      <c r="BF1" s="31"/>
-      <c r="BG1" s="31"/>
+      <c r="AZ1" s="32"/>
+      <c r="BA1" s="32"/>
+      <c r="BB1" s="32"/>
+      <c r="BC1" s="32"/>
+      <c r="BD1" s="32"/>
+      <c r="BE1" s="32"/>
+      <c r="BF1" s="32"/>
+      <c r="BG1" s="32"/>
       <c r="BH1" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="BI1" s="31" t="s">
+      <c r="BI1" s="32" t="s">
         <v>228</v>
       </c>
-      <c r="BJ1" s="31"/>
-      <c r="BK1" s="31"/>
-      <c r="BL1" s="31"/>
-      <c r="BM1" s="31"/>
-      <c r="BN1" s="31"/>
-      <c r="BO1" s="31"/>
-      <c r="BP1" s="31" t="s">
+      <c r="BJ1" s="32"/>
+      <c r="BK1" s="32"/>
+      <c r="BL1" s="32"/>
+      <c r="BM1" s="32"/>
+      <c r="BN1" s="32"/>
+      <c r="BO1" s="32"/>
+      <c r="BP1" s="32" t="s">
         <v>227</v>
       </c>
-      <c r="BQ1" s="31"/>
-      <c r="BR1" s="31"/>
-      <c r="BS1" s="31"/>
-      <c r="BT1" s="31"/>
-      <c r="BU1" s="31"/>
-      <c r="BV1" s="31"/>
-      <c r="BW1" s="31"/>
-      <c r="BX1" s="31" t="s">
+      <c r="BQ1" s="32"/>
+      <c r="BR1" s="32"/>
+      <c r="BS1" s="32"/>
+      <c r="BT1" s="32"/>
+      <c r="BU1" s="32"/>
+      <c r="BV1" s="32"/>
+      <c r="BW1" s="32"/>
+      <c r="BX1" s="32" t="s">
         <v>225</v>
       </c>
-      <c r="BY1" s="31"/>
-      <c r="BZ1" s="31"/>
-      <c r="CA1" s="31"/>
-      <c r="CB1" s="31"/>
-      <c r="CC1" s="31"/>
-      <c r="CD1" s="31"/>
-      <c r="CE1" s="31"/>
-      <c r="CF1" s="31"/>
-      <c r="CG1" s="31"/>
-      <c r="CH1" s="31"/>
-      <c r="CI1" s="31"/>
-      <c r="CJ1" s="31" t="s">
+      <c r="BY1" s="32"/>
+      <c r="BZ1" s="32"/>
+      <c r="CA1" s="32"/>
+      <c r="CB1" s="32"/>
+      <c r="CC1" s="32"/>
+      <c r="CD1" s="32"/>
+      <c r="CE1" s="32"/>
+      <c r="CF1" s="32"/>
+      <c r="CG1" s="32"/>
+      <c r="CH1" s="32"/>
+      <c r="CI1" s="32"/>
+      <c r="CJ1" s="32" t="s">
         <v>226</v>
       </c>
-      <c r="CK1" s="31"/>
-      <c r="CL1" s="31"/>
-      <c r="CM1" s="31"/>
-      <c r="CN1" s="31"/>
-      <c r="CO1" s="31"/>
-      <c r="CP1" s="31"/>
+      <c r="CK1" s="32"/>
+      <c r="CL1" s="32"/>
+      <c r="CM1" s="32"/>
+      <c r="CN1" s="32"/>
+      <c r="CO1" s="32"/>
+      <c r="CP1" s="32"/>
       <c r="CQ1" s="21" t="s">
         <v>222</v>
       </c>
@@ -38510,399 +38514,399 @@
       <c r="A2" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="29" t="s">
         <v>178</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="29" t="s">
         <v>675</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="H2" s="30" t="s">
+      <c r="H2" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="I2" s="30" t="s">
+      <c r="I2" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="J2" s="30" t="s">
+      <c r="J2" s="29" t="s">
         <v>188</v>
       </c>
-      <c r="K2" s="30" t="s">
+      <c r="K2" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="L2" s="30" t="s">
+      <c r="L2" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="M2" s="30" t="s">
+      <c r="M2" s="29" t="s">
         <v>676</v>
       </c>
-      <c r="N2" s="30" t="s">
+      <c r="N2" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="O2" s="30" t="s">
+      <c r="O2" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="P2" s="30" t="s">
+      <c r="P2" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="Q2" s="30" t="s">
+      <c r="Q2" s="29" t="s">
         <v>122</v>
       </c>
       <c r="R2" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="S2" s="30" t="s">
+      <c r="S2" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="T2" s="30" t="s">
+      <c r="T2" s="29" t="s">
         <v>234</v>
       </c>
-      <c r="U2" s="30" t="s">
+      <c r="U2" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="V2" s="30" t="s">
+      <c r="V2" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="W2" s="30" t="s">
+      <c r="W2" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="X2" s="30" t="s">
+      <c r="X2" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="Y2" s="30" t="s">
+      <c r="Y2" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="Z2" s="30" t="s">
+      <c r="Z2" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="AA2" s="30" t="s">
+      <c r="AA2" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="AB2" s="30" t="s">
+      <c r="AB2" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="AC2" s="30" t="s">
+      <c r="AC2" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="AD2" s="30" t="s">
+      <c r="AD2" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="AE2" s="30" t="s">
+      <c r="AE2" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="AF2" s="30" t="s">
+      <c r="AF2" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="AG2" s="30" t="s">
+      <c r="AG2" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="AH2" s="30" t="s">
+      <c r="AH2" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="AI2" s="30" t="s">
+      <c r="AI2" s="29" t="s">
         <v>58</v>
       </c>
       <c r="AJ2" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="AK2" s="30" t="s">
+      <c r="AK2" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="AL2" s="30" t="s">
+      <c r="AL2" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="AM2" s="30" t="s">
+      <c r="AM2" s="29" t="s">
         <v>236</v>
       </c>
-      <c r="AN2" s="30" t="s">
+      <c r="AN2" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="AO2" s="30" t="s">
+      <c r="AO2" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="AP2" s="30" t="s">
+      <c r="AP2" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="AQ2" s="30" t="s">
+      <c r="AQ2" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="AR2" s="30" t="s">
+      <c r="AR2" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="AS2" s="30" t="s">
+      <c r="AS2" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="AT2" s="30" t="s">
+      <c r="AT2" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="AU2" s="30" t="s">
+      <c r="AU2" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="AV2" s="30" t="s">
+      <c r="AV2" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="AW2" s="30" t="s">
+      <c r="AW2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="AX2" s="30" t="s">
+      <c r="AX2" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="AY2" s="30" t="s">
+      <c r="AY2" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="AZ2" s="30" t="s">
+      <c r="AZ2" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="BA2" s="30" t="s">
+      <c r="BA2" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="BB2" s="30" t="s">
+      <c r="BB2" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="BC2" s="30" t="s">
+      <c r="BC2" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="BD2" s="30" t="s">
+      <c r="BD2" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="BE2" s="30" t="s">
+      <c r="BE2" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="BF2" s="30" t="s">
+      <c r="BF2" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="BG2" s="30" t="s">
+      <c r="BG2" s="29" t="s">
         <v>677</v>
       </c>
       <c r="BH2" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="BI2" s="30" t="s">
+      <c r="BI2" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="BJ2" s="30" t="s">
+      <c r="BJ2" s="29" t="s">
         <v>678</v>
       </c>
-      <c r="BK2" s="30" t="s">
+      <c r="BK2" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="BL2" s="30" t="s">
+      <c r="BL2" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="BM2" s="30" t="s">
+      <c r="BM2" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="BN2" s="30" t="s">
+      <c r="BN2" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="BO2" s="30" t="s">
+      <c r="BO2" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="BP2" s="30" t="s">
+      <c r="BP2" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="BQ2" s="30" t="s">
+      <c r="BQ2" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="BR2" s="30" t="s">
+      <c r="BR2" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="BS2" s="30" t="s">
+      <c r="BS2" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="BT2" s="30" t="s">
+      <c r="BT2" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="BU2" s="30" t="s">
+      <c r="BU2" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="BV2" s="30" t="s">
+      <c r="BV2" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="BW2" s="30" t="s">
+      <c r="BW2" s="29" t="s">
         <v>679</v>
       </c>
-      <c r="BX2" s="30" t="s">
+      <c r="BX2" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="BY2" s="30" t="s">
+      <c r="BY2" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="BZ2" s="30" t="s">
+      <c r="BZ2" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="CA2" s="30" t="s">
+      <c r="CA2" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="CB2" s="30" t="s">
+      <c r="CB2" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="CC2" s="30" t="s">
+      <c r="CC2" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="CD2" s="30" t="s">
+      <c r="CD2" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="CE2" s="30" t="s">
+      <c r="CE2" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="CF2" s="30" t="s">
+      <c r="CF2" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="CG2" s="30" t="s">
+      <c r="CG2" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="CH2" s="30" t="s">
+      <c r="CH2" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="CI2" s="30" t="s">
+      <c r="CI2" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="CJ2" s="30" t="s">
+      <c r="CJ2" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="CK2" s="30" t="s">
+      <c r="CK2" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="CL2" s="30" t="s">
+      <c r="CL2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="CM2" s="30" t="s">
+      <c r="CM2" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="CN2" s="30" t="s">
+      <c r="CN2" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="CO2" s="30" t="s">
+      <c r="CO2" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="CP2" s="30" t="s">
+      <c r="CP2" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="CQ2" s="30" t="s">
+      <c r="CQ2" s="29" t="s">
         <v>27</v>
       </c>
       <c r="CR2" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="CS2" s="32" t="s">
+      <c r="CS2" s="31" t="s">
         <v>248</v>
       </c>
-      <c r="CT2" s="32" t="s">
+      <c r="CT2" s="31" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:98" ht="51.6" x14ac:dyDescent="0.3">
       <c r="A3" s="21"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
       <c r="R3" s="21"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30"/>
-      <c r="U3" s="30"/>
-      <c r="V3" s="30"/>
-      <c r="W3" s="30"/>
-      <c r="X3" s="30"/>
-      <c r="Y3" s="30"/>
-      <c r="Z3" s="30"/>
-      <c r="AA3" s="30"/>
-      <c r="AB3" s="30"/>
-      <c r="AC3" s="30"/>
-      <c r="AD3" s="30"/>
-      <c r="AE3" s="30"/>
-      <c r="AF3" s="30"/>
-      <c r="AG3" s="30"/>
-      <c r="AH3" s="30"/>
-      <c r="AI3" s="30"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="29"/>
+      <c r="W3" s="29"/>
+      <c r="X3" s="29"/>
+      <c r="Y3" s="29"/>
+      <c r="Z3" s="29"/>
+      <c r="AA3" s="29"/>
+      <c r="AB3" s="29"/>
+      <c r="AC3" s="29"/>
+      <c r="AD3" s="29"/>
+      <c r="AE3" s="29"/>
+      <c r="AF3" s="29"/>
+      <c r="AG3" s="29"/>
+      <c r="AH3" s="29"/>
+      <c r="AI3" s="29"/>
       <c r="AJ3" s="21"/>
-      <c r="AK3" s="30"/>
-      <c r="AL3" s="30"/>
-      <c r="AM3" s="30"/>
-      <c r="AN3" s="30"/>
-      <c r="AO3" s="30"/>
-      <c r="AP3" s="30"/>
-      <c r="AQ3" s="30"/>
-      <c r="AR3" s="30"/>
-      <c r="AS3" s="30"/>
-      <c r="AT3" s="30"/>
-      <c r="AU3" s="30"/>
-      <c r="AV3" s="30"/>
-      <c r="AW3" s="30"/>
-      <c r="AX3" s="30"/>
-      <c r="AY3" s="30"/>
-      <c r="AZ3" s="30"/>
-      <c r="BA3" s="30"/>
-      <c r="BB3" s="30"/>
-      <c r="BC3" s="30"/>
-      <c r="BD3" s="30"/>
-      <c r="BE3" s="30"/>
-      <c r="BF3" s="30"/>
-      <c r="BG3" s="30"/>
+      <c r="AK3" s="29"/>
+      <c r="AL3" s="29"/>
+      <c r="AM3" s="29"/>
+      <c r="AN3" s="29"/>
+      <c r="AO3" s="29"/>
+      <c r="AP3" s="29"/>
+      <c r="AQ3" s="29"/>
+      <c r="AR3" s="29"/>
+      <c r="AS3" s="29"/>
+      <c r="AT3" s="29"/>
+      <c r="AU3" s="29"/>
+      <c r="AV3" s="29"/>
+      <c r="AW3" s="29"/>
+      <c r="AX3" s="29"/>
+      <c r="AY3" s="29"/>
+      <c r="AZ3" s="29"/>
+      <c r="BA3" s="29"/>
+      <c r="BB3" s="29"/>
+      <c r="BC3" s="29"/>
+      <c r="BD3" s="29"/>
+      <c r="BE3" s="29"/>
+      <c r="BF3" s="29"/>
+      <c r="BG3" s="29"/>
       <c r="BH3" s="21"/>
-      <c r="BI3" s="30"/>
-      <c r="BJ3" s="30"/>
-      <c r="BK3" s="30"/>
-      <c r="BL3" s="30"/>
-      <c r="BM3" s="30"/>
-      <c r="BN3" s="30"/>
-      <c r="BO3" s="30"/>
-      <c r="BP3" s="30"/>
-      <c r="BQ3" s="30"/>
-      <c r="BR3" s="30"/>
-      <c r="BS3" s="30"/>
-      <c r="BT3" s="30"/>
-      <c r="BU3" s="30"/>
-      <c r="BV3" s="30"/>
-      <c r="BW3" s="30"/>
-      <c r="BX3" s="30"/>
-      <c r="BY3" s="30"/>
-      <c r="BZ3" s="30"/>
-      <c r="CA3" s="30"/>
-      <c r="CB3" s="30"/>
-      <c r="CC3" s="30"/>
-      <c r="CD3" s="30"/>
-      <c r="CE3" s="30"/>
-      <c r="CF3" s="30"/>
-      <c r="CG3" s="30"/>
-      <c r="CH3" s="30"/>
-      <c r="CI3" s="30"/>
-      <c r="CJ3" s="30"/>
-      <c r="CK3" s="30"/>
-      <c r="CL3" s="30"/>
-      <c r="CM3" s="30"/>
-      <c r="CN3" s="30"/>
-      <c r="CO3" s="30"/>
-      <c r="CP3" s="30"/>
-      <c r="CQ3" s="30"/>
+      <c r="BI3" s="29"/>
+      <c r="BJ3" s="29"/>
+      <c r="BK3" s="29"/>
+      <c r="BL3" s="29"/>
+      <c r="BM3" s="29"/>
+      <c r="BN3" s="29"/>
+      <c r="BO3" s="29"/>
+      <c r="BP3" s="29"/>
+      <c r="BQ3" s="29"/>
+      <c r="BR3" s="29"/>
+      <c r="BS3" s="29"/>
+      <c r="BT3" s="29"/>
+      <c r="BU3" s="29"/>
+      <c r="BV3" s="29"/>
+      <c r="BW3" s="29"/>
+      <c r="BX3" s="29"/>
+      <c r="BY3" s="29"/>
+      <c r="BZ3" s="29"/>
+      <c r="CA3" s="29"/>
+      <c r="CB3" s="29"/>
+      <c r="CC3" s="29"/>
+      <c r="CD3" s="29"/>
+      <c r="CE3" s="29"/>
+      <c r="CF3" s="29"/>
+      <c r="CG3" s="29"/>
+      <c r="CH3" s="29"/>
+      <c r="CI3" s="29"/>
+      <c r="CJ3" s="29"/>
+      <c r="CK3" s="29"/>
+      <c r="CL3" s="29"/>
+      <c r="CM3" s="29"/>
+      <c r="CN3" s="29"/>
+      <c r="CO3" s="29"/>
+      <c r="CP3" s="29"/>
+      <c r="CQ3" s="29"/>
       <c r="CR3" s="22" t="s">
         <v>247</v>
       </c>
-      <c r="CS3" s="32"/>
-      <c r="CT3" s="32"/>
+      <c r="CS3" s="31"/>
+      <c r="CT3" s="31"/>
     </row>
     <row r="4" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
@@ -40674,295 +40678,295 @@
       <c r="A19" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="29" t="s">
         <v>178</v>
       </c>
-      <c r="D19" s="30" t="s">
+      <c r="D19" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="E19" s="30" t="s">
+      <c r="E19" s="29" t="s">
         <v>675</v>
       </c>
-      <c r="F19" s="30" t="s">
+      <c r="F19" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="G19" s="30" t="s">
+      <c r="G19" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="H19" s="30" t="s">
+      <c r="H19" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="I19" s="30" t="s">
+      <c r="I19" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="J19" s="30" t="s">
+      <c r="J19" s="29" t="s">
         <v>188</v>
       </c>
-      <c r="K19" s="30" t="s">
+      <c r="K19" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="L19" s="30" t="s">
+      <c r="L19" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="M19" s="30" t="s">
+      <c r="M19" s="29" t="s">
         <v>676</v>
       </c>
-      <c r="N19" s="30" t="s">
+      <c r="N19" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="O19" s="30" t="s">
+      <c r="O19" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="P19" s="30" t="s">
+      <c r="P19" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="Q19" s="30" t="s">
+      <c r="Q19" s="29" t="s">
         <v>122</v>
       </c>
       <c r="R19" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="S19" s="30" t="s">
+      <c r="S19" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="T19" s="30" t="s">
+      <c r="T19" s="29" t="s">
         <v>234</v>
       </c>
-      <c r="U19" s="30" t="s">
+      <c r="U19" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="V19" s="30" t="s">
+      <c r="V19" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="W19" s="30" t="s">
+      <c r="W19" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="X19" s="30" t="s">
+      <c r="X19" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="Y19" s="30" t="s">
+      <c r="Y19" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="Z19" s="30" t="s">
+      <c r="Z19" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="AA19" s="30" t="s">
+      <c r="AA19" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="AB19" s="30" t="s">
+      <c r="AB19" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="AC19" s="30" t="s">
+      <c r="AC19" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="AD19" s="30" t="s">
+      <c r="AD19" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="AE19" s="30" t="s">
+      <c r="AE19" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="AF19" s="30" t="s">
+      <c r="AF19" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="AG19" s="30" t="s">
+      <c r="AG19" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="AH19" s="30" t="s">
+      <c r="AH19" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="AI19" s="30" t="s">
+      <c r="AI19" s="29" t="s">
         <v>58</v>
       </c>
       <c r="AJ19" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="AK19" s="30" t="s">
+      <c r="AK19" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="AL19" s="30" t="s">
+      <c r="AL19" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="AM19" s="30" t="s">
+      <c r="AM19" s="29" t="s">
         <v>236</v>
       </c>
-      <c r="AN19" s="30" t="s">
+      <c r="AN19" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="AO19" s="30" t="s">
+      <c r="AO19" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="AP19" s="30" t="s">
+      <c r="AP19" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="AQ19" s="30" t="s">
+      <c r="AQ19" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="AR19" s="30" t="s">
+      <c r="AR19" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="AS19" s="30" t="s">
+      <c r="AS19" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="AT19" s="30" t="s">
+      <c r="AT19" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="AU19" s="30" t="s">
+      <c r="AU19" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="AV19" s="30" t="s">
+      <c r="AV19" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="AW19" s="30" t="s">
+      <c r="AW19" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="AX19" s="30" t="s">
+      <c r="AX19" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="AY19" s="30" t="s">
+      <c r="AY19" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="AZ19" s="30" t="s">
+      <c r="AZ19" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="BA19" s="30" t="s">
+      <c r="BA19" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="BB19" s="30" t="s">
+      <c r="BB19" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="BC19" s="30" t="s">
+      <c r="BC19" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="BD19" s="30" t="s">
+      <c r="BD19" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="BE19" s="30" t="s">
+      <c r="BE19" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="BF19" s="30" t="s">
+      <c r="BF19" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="BG19" s="30" t="s">
+      <c r="BG19" s="29" t="s">
         <v>677</v>
       </c>
       <c r="BH19" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="BI19" s="30" t="s">
+      <c r="BI19" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="BJ19" s="30" t="s">
+      <c r="BJ19" s="29" t="s">
         <v>678</v>
       </c>
-      <c r="BK19" s="30" t="s">
+      <c r="BK19" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="BL19" s="30" t="s">
+      <c r="BL19" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="BM19" s="30" t="s">
+      <c r="BM19" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="BN19" s="30" t="s">
+      <c r="BN19" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="BO19" s="30" t="s">
+      <c r="BO19" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="BP19" s="30" t="s">
+      <c r="BP19" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="BQ19" s="30" t="s">
+      <c r="BQ19" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="BR19" s="30" t="s">
+      <c r="BR19" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="BS19" s="30" t="s">
+      <c r="BS19" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="BT19" s="30" t="s">
+      <c r="BT19" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="BU19" s="30" t="s">
+      <c r="BU19" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="BV19" s="30" t="s">
+      <c r="BV19" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="BW19" s="30" t="s">
+      <c r="BW19" s="29" t="s">
         <v>679</v>
       </c>
-      <c r="BX19" s="30" t="s">
+      <c r="BX19" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="BY19" s="30" t="s">
+      <c r="BY19" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="BZ19" s="30" t="s">
+      <c r="BZ19" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="CA19" s="30" t="s">
+      <c r="CA19" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="CB19" s="30" t="s">
+      <c r="CB19" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="CC19" s="30" t="s">
+      <c r="CC19" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="CD19" s="30" t="s">
+      <c r="CD19" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="CE19" s="30" t="s">
+      <c r="CE19" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="CF19" s="30" t="s">
+      <c r="CF19" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="CG19" s="30" t="s">
+      <c r="CG19" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="CH19" s="30" t="s">
+      <c r="CH19" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="CI19" s="30" t="s">
+      <c r="CI19" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="CJ19" s="30" t="s">
+      <c r="CJ19" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="CK19" s="30" t="s">
+      <c r="CK19" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="CL19" s="30" t="s">
+      <c r="CL19" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="CM19" s="30" t="s">
+      <c r="CM19" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="CN19" s="30" t="s">
+      <c r="CN19" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="CO19" s="30" t="s">
+      <c r="CO19" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="CP19" s="30" t="s">
+      <c r="CP19" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="CQ19" s="30" t="s">
+      <c r="CQ19" s="29" t="s">
         <v>27</v>
       </c>
       <c r="CR19" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="CS19" s="32" t="s">
+      <c r="CS19" s="31" t="s">
         <v>248</v>
       </c>
-      <c r="CT19" s="32" t="s">
+      <c r="CT19" s="31" t="s">
         <v>249</v>
       </c>
     </row>
@@ -40970,111 +40974,111 @@
       <c r="A20" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="30"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="29"/>
       <c r="R20" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="S20" s="30"/>
-      <c r="T20" s="30"/>
-      <c r="U20" s="30"/>
-      <c r="V20" s="30"/>
-      <c r="W20" s="30"/>
-      <c r="X20" s="30"/>
-      <c r="Y20" s="30"/>
-      <c r="Z20" s="30"/>
-      <c r="AA20" s="30"/>
-      <c r="AB20" s="30"/>
-      <c r="AC20" s="30"/>
-      <c r="AD20" s="30"/>
-      <c r="AE20" s="30"/>
-      <c r="AF20" s="30"/>
-      <c r="AG20" s="30"/>
-      <c r="AH20" s="30"/>
-      <c r="AI20" s="30"/>
+      <c r="S20" s="29"/>
+      <c r="T20" s="29"/>
+      <c r="U20" s="29"/>
+      <c r="V20" s="29"/>
+      <c r="W20" s="29"/>
+      <c r="X20" s="29"/>
+      <c r="Y20" s="29"/>
+      <c r="Z20" s="29"/>
+      <c r="AA20" s="29"/>
+      <c r="AB20" s="29"/>
+      <c r="AC20" s="29"/>
+      <c r="AD20" s="29"/>
+      <c r="AE20" s="29"/>
+      <c r="AF20" s="29"/>
+      <c r="AG20" s="29"/>
+      <c r="AH20" s="29"/>
+      <c r="AI20" s="29"/>
       <c r="AJ20" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="AK20" s="30"/>
-      <c r="AL20" s="30"/>
-      <c r="AM20" s="30"/>
-      <c r="AN20" s="30"/>
-      <c r="AO20" s="30"/>
-      <c r="AP20" s="30"/>
-      <c r="AQ20" s="30"/>
-      <c r="AR20" s="30"/>
-      <c r="AS20" s="30"/>
-      <c r="AT20" s="30"/>
-      <c r="AU20" s="30"/>
-      <c r="AV20" s="30"/>
-      <c r="AW20" s="30"/>
-      <c r="AX20" s="30"/>
-      <c r="AY20" s="30"/>
-      <c r="AZ20" s="30"/>
-      <c r="BA20" s="30"/>
-      <c r="BB20" s="30"/>
-      <c r="BC20" s="30"/>
-      <c r="BD20" s="30"/>
-      <c r="BE20" s="30"/>
-      <c r="BF20" s="30"/>
-      <c r="BG20" s="30"/>
+      <c r="AK20" s="29"/>
+      <c r="AL20" s="29"/>
+      <c r="AM20" s="29"/>
+      <c r="AN20" s="29"/>
+      <c r="AO20" s="29"/>
+      <c r="AP20" s="29"/>
+      <c r="AQ20" s="29"/>
+      <c r="AR20" s="29"/>
+      <c r="AS20" s="29"/>
+      <c r="AT20" s="29"/>
+      <c r="AU20" s="29"/>
+      <c r="AV20" s="29"/>
+      <c r="AW20" s="29"/>
+      <c r="AX20" s="29"/>
+      <c r="AY20" s="29"/>
+      <c r="AZ20" s="29"/>
+      <c r="BA20" s="29"/>
+      <c r="BB20" s="29"/>
+      <c r="BC20" s="29"/>
+      <c r="BD20" s="29"/>
+      <c r="BE20" s="29"/>
+      <c r="BF20" s="29"/>
+      <c r="BG20" s="29"/>
       <c r="BH20" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="BI20" s="30"/>
-      <c r="BJ20" s="30"/>
-      <c r="BK20" s="30"/>
-      <c r="BL20" s="30"/>
-      <c r="BM20" s="30"/>
-      <c r="BN20" s="30"/>
-      <c r="BO20" s="30"/>
-      <c r="BP20" s="30"/>
-      <c r="BQ20" s="30"/>
-      <c r="BR20" s="30"/>
-      <c r="BS20" s="30"/>
-      <c r="BT20" s="30"/>
-      <c r="BU20" s="30"/>
-      <c r="BV20" s="30"/>
-      <c r="BW20" s="30"/>
-      <c r="BX20" s="30"/>
-      <c r="BY20" s="30"/>
-      <c r="BZ20" s="30"/>
-      <c r="CA20" s="30"/>
-      <c r="CB20" s="30"/>
-      <c r="CC20" s="30"/>
-      <c r="CD20" s="30"/>
-      <c r="CE20" s="30"/>
-      <c r="CF20" s="30"/>
-      <c r="CG20" s="30"/>
-      <c r="CH20" s="30"/>
-      <c r="CI20" s="30"/>
-      <c r="CJ20" s="30"/>
-      <c r="CK20" s="30"/>
-      <c r="CL20" s="30"/>
-      <c r="CM20" s="30"/>
-      <c r="CN20" s="30"/>
-      <c r="CO20" s="30"/>
-      <c r="CP20" s="30"/>
-      <c r="CQ20" s="30"/>
+      <c r="BI20" s="29"/>
+      <c r="BJ20" s="29"/>
+      <c r="BK20" s="29"/>
+      <c r="BL20" s="29"/>
+      <c r="BM20" s="29"/>
+      <c r="BN20" s="29"/>
+      <c r="BO20" s="29"/>
+      <c r="BP20" s="29"/>
+      <c r="BQ20" s="29"/>
+      <c r="BR20" s="29"/>
+      <c r="BS20" s="29"/>
+      <c r="BT20" s="29"/>
+      <c r="BU20" s="29"/>
+      <c r="BV20" s="29"/>
+      <c r="BW20" s="29"/>
+      <c r="BX20" s="29"/>
+      <c r="BY20" s="29"/>
+      <c r="BZ20" s="29"/>
+      <c r="CA20" s="29"/>
+      <c r="CB20" s="29"/>
+      <c r="CC20" s="29"/>
+      <c r="CD20" s="29"/>
+      <c r="CE20" s="29"/>
+      <c r="CF20" s="29"/>
+      <c r="CG20" s="29"/>
+      <c r="CH20" s="29"/>
+      <c r="CI20" s="29"/>
+      <c r="CJ20" s="29"/>
+      <c r="CK20" s="29"/>
+      <c r="CL20" s="29"/>
+      <c r="CM20" s="29"/>
+      <c r="CN20" s="29"/>
+      <c r="CO20" s="29"/>
+      <c r="CP20" s="29"/>
+      <c r="CQ20" s="29"/>
       <c r="CR20" s="22" t="s">
         <v>247</v>
       </c>
-      <c r="CS20" s="32"/>
-      <c r="CT20" s="32"/>
+      <c r="CS20" s="31"/>
+      <c r="CT20" s="31"/>
     </row>
     <row r="21" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A21" s="23" t="s">
@@ -45125,92 +45129,98 @@
     </row>
   </sheetData>
   <mergeCells count="202">
-    <mergeCell ref="CS19:CS20"/>
-    <mergeCell ref="CT19:CT20"/>
-    <mergeCell ref="CL19:CL20"/>
-    <mergeCell ref="CM19:CM20"/>
-    <mergeCell ref="CN19:CN20"/>
-    <mergeCell ref="CO19:CO20"/>
-    <mergeCell ref="CP19:CP20"/>
-    <mergeCell ref="CQ19:CQ20"/>
-    <mergeCell ref="CF19:CF20"/>
-    <mergeCell ref="CG19:CG20"/>
-    <mergeCell ref="CH19:CH20"/>
-    <mergeCell ref="CI19:CI20"/>
-    <mergeCell ref="CJ19:CJ20"/>
-    <mergeCell ref="CK19:CK20"/>
-    <mergeCell ref="BZ19:BZ20"/>
-    <mergeCell ref="CA19:CA20"/>
-    <mergeCell ref="CB19:CB20"/>
-    <mergeCell ref="CC19:CC20"/>
-    <mergeCell ref="CD19:CD20"/>
-    <mergeCell ref="CE19:CE20"/>
-    <mergeCell ref="BT19:BT20"/>
-    <mergeCell ref="BU19:BU20"/>
-    <mergeCell ref="BV19:BV20"/>
-    <mergeCell ref="BW19:BW20"/>
-    <mergeCell ref="BX19:BX20"/>
-    <mergeCell ref="BY19:BY20"/>
-    <mergeCell ref="BN19:BN20"/>
-    <mergeCell ref="BO19:BO20"/>
-    <mergeCell ref="BP19:BP20"/>
-    <mergeCell ref="BQ19:BQ20"/>
-    <mergeCell ref="BR19:BR20"/>
-    <mergeCell ref="BS19:BS20"/>
-    <mergeCell ref="BG19:BG20"/>
-    <mergeCell ref="BI19:BI20"/>
-    <mergeCell ref="BJ19:BJ20"/>
-    <mergeCell ref="BK19:BK20"/>
-    <mergeCell ref="BL19:BL20"/>
-    <mergeCell ref="BM19:BM20"/>
-    <mergeCell ref="BA19:BA20"/>
-    <mergeCell ref="BB19:BB20"/>
-    <mergeCell ref="BC19:BC20"/>
-    <mergeCell ref="BD19:BD20"/>
-    <mergeCell ref="BE19:BE20"/>
-    <mergeCell ref="BF19:BF20"/>
-    <mergeCell ref="AU19:AU20"/>
-    <mergeCell ref="AV19:AV20"/>
-    <mergeCell ref="AW19:AW20"/>
-    <mergeCell ref="AX19:AX20"/>
-    <mergeCell ref="AY19:AY20"/>
-    <mergeCell ref="AZ19:AZ20"/>
-    <mergeCell ref="AO19:AO20"/>
-    <mergeCell ref="AP19:AP20"/>
-    <mergeCell ref="AQ19:AQ20"/>
-    <mergeCell ref="AR19:AR20"/>
-    <mergeCell ref="AS19:AS20"/>
-    <mergeCell ref="AT19:AT20"/>
-    <mergeCell ref="AH19:AH20"/>
-    <mergeCell ref="AI19:AI20"/>
-    <mergeCell ref="AK19:AK20"/>
-    <mergeCell ref="AL19:AL20"/>
-    <mergeCell ref="AM19:AM20"/>
-    <mergeCell ref="AN19:AN20"/>
-    <mergeCell ref="AB19:AB20"/>
-    <mergeCell ref="AC19:AC20"/>
-    <mergeCell ref="AD19:AD20"/>
-    <mergeCell ref="AE19:AE20"/>
-    <mergeCell ref="AF19:AF20"/>
-    <mergeCell ref="AG19:AG20"/>
-    <mergeCell ref="V19:V20"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="X19:X20"/>
-    <mergeCell ref="Y19:Y20"/>
-    <mergeCell ref="Z19:Z20"/>
-    <mergeCell ref="AA19:AA20"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="P19:P20"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="S19:S20"/>
-    <mergeCell ref="T19:T20"/>
-    <mergeCell ref="U19:U20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="BI1:BO1"/>
+    <mergeCell ref="BP1:BW1"/>
+    <mergeCell ref="BX1:CI1"/>
+    <mergeCell ref="CJ1:CP1"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="Y1:AA1"/>
+    <mergeCell ref="AB1:AI1"/>
+    <mergeCell ref="AK1:AN1"/>
+    <mergeCell ref="AO1:AS1"/>
+    <mergeCell ref="AT1:AX1"/>
+    <mergeCell ref="AY1:BG1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="L1:Q1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:X1"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="AA2:AA3"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="Z2:Z3"/>
+    <mergeCell ref="AN2:AN3"/>
+    <mergeCell ref="AO2:AO3"/>
+    <mergeCell ref="AP2:AP3"/>
+    <mergeCell ref="AQ2:AQ3"/>
+    <mergeCell ref="AR2:AR3"/>
+    <mergeCell ref="AS2:AS3"/>
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="AH2:AH3"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="AK2:AK3"/>
+    <mergeCell ref="AL2:AL3"/>
+    <mergeCell ref="AM2:AM3"/>
+    <mergeCell ref="AZ2:AZ3"/>
+    <mergeCell ref="BA2:BA3"/>
+    <mergeCell ref="BB2:BB3"/>
+    <mergeCell ref="BC2:BC3"/>
+    <mergeCell ref="BD2:BD3"/>
+    <mergeCell ref="BE2:BE3"/>
+    <mergeCell ref="AT2:AT3"/>
+    <mergeCell ref="AU2:AU3"/>
+    <mergeCell ref="AV2:AV3"/>
+    <mergeCell ref="AW2:AW3"/>
+    <mergeCell ref="AX2:AX3"/>
+    <mergeCell ref="AY2:AY3"/>
+    <mergeCell ref="BM2:BM3"/>
+    <mergeCell ref="BN2:BN3"/>
+    <mergeCell ref="BO2:BO3"/>
+    <mergeCell ref="BP2:BP3"/>
+    <mergeCell ref="BQ2:BQ3"/>
+    <mergeCell ref="BR2:BR3"/>
+    <mergeCell ref="BF2:BF3"/>
+    <mergeCell ref="BG2:BG3"/>
+    <mergeCell ref="BI2:BI3"/>
+    <mergeCell ref="BJ2:BJ3"/>
+    <mergeCell ref="BK2:BK3"/>
+    <mergeCell ref="BL2:BL3"/>
+    <mergeCell ref="CA2:CA3"/>
+    <mergeCell ref="CB2:CB3"/>
+    <mergeCell ref="CC2:CC3"/>
+    <mergeCell ref="CD2:CD3"/>
+    <mergeCell ref="BS2:BS3"/>
+    <mergeCell ref="BT2:BT3"/>
+    <mergeCell ref="BU2:BU3"/>
+    <mergeCell ref="BV2:BV3"/>
+    <mergeCell ref="BW2:BW3"/>
+    <mergeCell ref="BX2:BX3"/>
     <mergeCell ref="CQ2:CQ3"/>
     <mergeCell ref="CS2:CS3"/>
     <mergeCell ref="CT2:CT3"/>
@@ -45235,98 +45245,92 @@
     <mergeCell ref="CJ2:CJ3"/>
     <mergeCell ref="BY2:BY3"/>
     <mergeCell ref="BZ2:BZ3"/>
-    <mergeCell ref="CA2:CA3"/>
-    <mergeCell ref="CB2:CB3"/>
-    <mergeCell ref="CC2:CC3"/>
-    <mergeCell ref="CD2:CD3"/>
-    <mergeCell ref="BS2:BS3"/>
-    <mergeCell ref="BT2:BT3"/>
-    <mergeCell ref="BU2:BU3"/>
-    <mergeCell ref="BV2:BV3"/>
-    <mergeCell ref="BW2:BW3"/>
-    <mergeCell ref="BX2:BX3"/>
-    <mergeCell ref="BM2:BM3"/>
-    <mergeCell ref="BN2:BN3"/>
-    <mergeCell ref="BO2:BO3"/>
-    <mergeCell ref="BP2:BP3"/>
-    <mergeCell ref="BQ2:BQ3"/>
-    <mergeCell ref="BR2:BR3"/>
-    <mergeCell ref="BF2:BF3"/>
-    <mergeCell ref="BG2:BG3"/>
-    <mergeCell ref="BI2:BI3"/>
-    <mergeCell ref="BJ2:BJ3"/>
-    <mergeCell ref="BK2:BK3"/>
-    <mergeCell ref="BL2:BL3"/>
-    <mergeCell ref="AZ2:AZ3"/>
-    <mergeCell ref="BA2:BA3"/>
-    <mergeCell ref="BB2:BB3"/>
-    <mergeCell ref="BC2:BC3"/>
-    <mergeCell ref="BD2:BD3"/>
-    <mergeCell ref="BE2:BE3"/>
-    <mergeCell ref="AT2:AT3"/>
-    <mergeCell ref="AU2:AU3"/>
-    <mergeCell ref="AV2:AV3"/>
-    <mergeCell ref="AW2:AW3"/>
-    <mergeCell ref="AX2:AX3"/>
-    <mergeCell ref="AY2:AY3"/>
-    <mergeCell ref="AN2:AN3"/>
-    <mergeCell ref="AO2:AO3"/>
-    <mergeCell ref="AP2:AP3"/>
-    <mergeCell ref="AQ2:AQ3"/>
-    <mergeCell ref="AR2:AR3"/>
-    <mergeCell ref="AS2:AS3"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="AK2:AK3"/>
-    <mergeCell ref="AL2:AL3"/>
-    <mergeCell ref="AM2:AM3"/>
-    <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="AF2:AF3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="Z2:Z3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="BI1:BO1"/>
-    <mergeCell ref="BP1:BW1"/>
-    <mergeCell ref="BX1:CI1"/>
-    <mergeCell ref="CJ1:CP1"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="Y1:AA1"/>
-    <mergeCell ref="AB1:AI1"/>
-    <mergeCell ref="AK1:AN1"/>
-    <mergeCell ref="AO1:AS1"/>
-    <mergeCell ref="AT1:AX1"/>
-    <mergeCell ref="AY1:BG1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:K1"/>
-    <mergeCell ref="L1:Q1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:X1"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="S19:S20"/>
+    <mergeCell ref="T19:T20"/>
+    <mergeCell ref="U19:U20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="AB19:AB20"/>
+    <mergeCell ref="AC19:AC20"/>
+    <mergeCell ref="AD19:AD20"/>
+    <mergeCell ref="AE19:AE20"/>
+    <mergeCell ref="AF19:AF20"/>
+    <mergeCell ref="AG19:AG20"/>
+    <mergeCell ref="V19:V20"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="X19:X20"/>
+    <mergeCell ref="Y19:Y20"/>
+    <mergeCell ref="Z19:Z20"/>
+    <mergeCell ref="AA19:AA20"/>
+    <mergeCell ref="AO19:AO20"/>
+    <mergeCell ref="AP19:AP20"/>
+    <mergeCell ref="AQ19:AQ20"/>
+    <mergeCell ref="AR19:AR20"/>
+    <mergeCell ref="AS19:AS20"/>
+    <mergeCell ref="AT19:AT20"/>
+    <mergeCell ref="AH19:AH20"/>
+    <mergeCell ref="AI19:AI20"/>
+    <mergeCell ref="AK19:AK20"/>
+    <mergeCell ref="AL19:AL20"/>
+    <mergeCell ref="AM19:AM20"/>
+    <mergeCell ref="AN19:AN20"/>
+    <mergeCell ref="BA19:BA20"/>
+    <mergeCell ref="BB19:BB20"/>
+    <mergeCell ref="BC19:BC20"/>
+    <mergeCell ref="BD19:BD20"/>
+    <mergeCell ref="BE19:BE20"/>
+    <mergeCell ref="BF19:BF20"/>
+    <mergeCell ref="AU19:AU20"/>
+    <mergeCell ref="AV19:AV20"/>
+    <mergeCell ref="AW19:AW20"/>
+    <mergeCell ref="AX19:AX20"/>
+    <mergeCell ref="AY19:AY20"/>
+    <mergeCell ref="AZ19:AZ20"/>
+    <mergeCell ref="BN19:BN20"/>
+    <mergeCell ref="BO19:BO20"/>
+    <mergeCell ref="BP19:BP20"/>
+    <mergeCell ref="BQ19:BQ20"/>
+    <mergeCell ref="BR19:BR20"/>
+    <mergeCell ref="BS19:BS20"/>
+    <mergeCell ref="BG19:BG20"/>
+    <mergeCell ref="BI19:BI20"/>
+    <mergeCell ref="BJ19:BJ20"/>
+    <mergeCell ref="BK19:BK20"/>
+    <mergeCell ref="BL19:BL20"/>
+    <mergeCell ref="BM19:BM20"/>
+    <mergeCell ref="BZ19:BZ20"/>
+    <mergeCell ref="CA19:CA20"/>
+    <mergeCell ref="CB19:CB20"/>
+    <mergeCell ref="CC19:CC20"/>
+    <mergeCell ref="CD19:CD20"/>
+    <mergeCell ref="CE19:CE20"/>
+    <mergeCell ref="BT19:BT20"/>
+    <mergeCell ref="BU19:BU20"/>
+    <mergeCell ref="BV19:BV20"/>
+    <mergeCell ref="BW19:BW20"/>
+    <mergeCell ref="BX19:BX20"/>
+    <mergeCell ref="BY19:BY20"/>
+    <mergeCell ref="CS19:CS20"/>
+    <mergeCell ref="CT19:CT20"/>
+    <mergeCell ref="CL19:CL20"/>
+    <mergeCell ref="CM19:CM20"/>
+    <mergeCell ref="CN19:CN20"/>
+    <mergeCell ref="CO19:CO20"/>
+    <mergeCell ref="CP19:CP20"/>
+    <mergeCell ref="CQ19:CQ20"/>
+    <mergeCell ref="CF19:CF20"/>
+    <mergeCell ref="CG19:CG20"/>
+    <mergeCell ref="CH19:CH20"/>
+    <mergeCell ref="CI19:CI20"/>
+    <mergeCell ref="CJ19:CJ20"/>
+    <mergeCell ref="CK19:CK20"/>
   </mergeCells>
   <phoneticPr fontId="28" type="noConversion"/>
   <hyperlinks>
@@ -45535,101 +45539,101 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="33" t="s">
         <v>557</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="35" t="s">
         <v>525</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33" t="s">
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35" t="s">
         <v>520</v>
       </c>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33" t="s">
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35" t="s">
         <v>241</v>
       </c>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33" t="s">
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35" t="s">
         <v>526</v>
       </c>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33" t="s">
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35" t="s">
         <v>527</v>
       </c>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="33" t="s">
+      <c r="X1" s="35"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="35" t="s">
         <v>528</v>
       </c>
-      <c r="AC1" s="33"/>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="33"/>
-      <c r="AG1" s="33"/>
-      <c r="AH1" s="33"/>
-      <c r="AI1" s="33"/>
-      <c r="AJ1" s="33"/>
+      <c r="AC1" s="35"/>
+      <c r="AD1" s="35"/>
+      <c r="AE1" s="35"/>
+      <c r="AF1" s="35"/>
+      <c r="AG1" s="35"/>
+      <c r="AH1" s="35"/>
+      <c r="AI1" s="35"/>
+      <c r="AJ1" s="35"/>
       <c r="AK1" s="12" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A2" s="35"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33"/>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="33"/>
-      <c r="Z2" s="33"/>
-      <c r="AA2" s="33"/>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="33"/>
-      <c r="AE2" s="33"/>
-      <c r="AF2" s="33"/>
-      <c r="AG2" s="33"/>
-      <c r="AH2" s="33"/>
-      <c r="AI2" s="33"/>
-      <c r="AJ2" s="33"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="35"/>
+      <c r="V2" s="35"/>
+      <c r="W2" s="35"/>
+      <c r="X2" s="35"/>
+      <c r="Y2" s="35"/>
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="35"/>
+      <c r="AD2" s="35"/>
+      <c r="AE2" s="35"/>
+      <c r="AF2" s="35"/>
+      <c r="AG2" s="35"/>
+      <c r="AH2" s="35"/>
+      <c r="AI2" s="35"/>
+      <c r="AJ2" s="35"/>
       <c r="AK2" s="2"/>
     </row>
     <row r="3" spans="1:37" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="35"/>
+      <c r="A3" s="33"/>
       <c r="B3" s="34" t="s">
         <v>521</v>
       </c>
@@ -45740,7 +45744,7 @@
       </c>
     </row>
     <row r="4" spans="1:37" ht="130.80000000000001" x14ac:dyDescent="0.3">
-      <c r="A4" s="35"/>
+      <c r="A4" s="33"/>
       <c r="B4" s="34"/>
       <c r="C4" s="34"/>
       <c r="D4" s="34"/>
@@ -50869,29 +50873,8 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="AF3:AF4"/>
+    <mergeCell ref="W3:W4"/>
     <mergeCell ref="AI1:AI2"/>
     <mergeCell ref="AH1:AH2"/>
     <mergeCell ref="AJ1:AJ2"/>
@@ -50908,8 +50891,29 @@
     <mergeCell ref="AC3:AC4"/>
     <mergeCell ref="AD3:AD4"/>
     <mergeCell ref="AE3:AE4"/>
-    <mergeCell ref="AF3:AF4"/>
-    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="Time in China" display="https://en.wikipedia.org/wiki/Time_in_China" xr:uid="{00000000-0004-0000-0300-000000000000}"/>

--- a/myfile.xlsx
+++ b/myfile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\coronavirus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ADFF9B7-6715-4705-A48E-155A5C58479D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC485B2-C892-44F1-8909-85077A844B29}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1464" yWindow="1464" windowWidth="17280" windowHeight="8964" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="worldometer" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2436" uniqueCount="688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2438" uniqueCount="689">
   <si>
     <t>Country,Other</t>
   </si>
@@ -2164,6 +2164,9 @@
   </si>
   <si>
     <t>20.3.31</t>
+  </si>
+  <si>
+    <t>20.4.01</t>
   </si>
 </sst>
 </file>
@@ -2822,25 +2825,25 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="42" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="42" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="42" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="42" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -7928,16 +7931,16 @@
       <c r="A2" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="30" t="s">
         <v>29</v>
       </c>
       <c r="F2" s="6" t="s">
@@ -7946,136 +7949,136 @@
       <c r="G2" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="I2" s="30" t="s">
         <v>234</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="J2" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="29" t="s">
+      <c r="K2" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="L2" s="29" t="s">
+      <c r="L2" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="M2" s="29" t="s">
+      <c r="M2" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="N2" s="29" t="s">
+      <c r="N2" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="O2" s="29" t="s">
+      <c r="O2" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="P2" s="29" t="s">
+      <c r="P2" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="Q2" s="29" t="s">
+      <c r="Q2" s="30" t="s">
         <v>47</v>
       </c>
       <c r="R2" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="S2" s="29" t="s">
+      <c r="S2" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="T2" s="29" t="s">
+      <c r="T2" s="30" t="s">
         <v>235</v>
       </c>
-      <c r="U2" s="29" t="s">
+      <c r="U2" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="V2" s="29" t="s">
+      <c r="V2" s="30" t="s">
         <v>236</v>
       </c>
-      <c r="W2" s="29" t="s">
+      <c r="W2" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="X2" s="29" t="s">
+      <c r="X2" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="Y2" s="29" t="s">
+      <c r="Y2" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="Z2" s="29" t="s">
+      <c r="Z2" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="AA2" s="29" t="s">
+      <c r="AA2" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="AB2" s="29" t="s">
+      <c r="AB2" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="AC2" s="29" t="s">
+      <c r="AC2" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="AD2" s="29" t="s">
+      <c r="AD2" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="AE2" s="29" t="s">
+      <c r="AE2" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="AF2" s="29" t="s">
+      <c r="AF2" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="AG2" s="29" t="s">
+      <c r="AG2" s="30" t="s">
         <v>189</v>
       </c>
-      <c r="AH2" s="29" t="s">
+      <c r="AH2" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="AI2" s="29" t="s">
+      <c r="AI2" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="AJ2" s="29" t="s">
+      <c r="AJ2" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="AK2" s="29" t="s">
+      <c r="AK2" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="AL2" s="29" t="s">
+      <c r="AL2" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="AM2" s="29" t="s">
+      <c r="AM2" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="AN2" s="29" t="s">
+      <c r="AN2" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="AO2" s="29" t="s">
+      <c r="AO2" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="AP2" s="29" t="s">
+      <c r="AP2" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="AQ2" s="29" t="s">
+      <c r="AQ2" s="30" t="s">
         <v>66</v>
       </c>
       <c r="AR2" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="AS2" s="29" t="s">
+      <c r="AS2" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="AT2" s="29" t="s">
+      <c r="AT2" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="AU2" s="29" t="s">
+      <c r="AU2" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="AV2" s="29" t="s">
+      <c r="AV2" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="AW2" s="29" t="s">
+      <c r="AW2" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="AX2" s="29" t="s">
+      <c r="AX2" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="AY2" s="29" t="s">
+      <c r="AY2" s="30" t="s">
         <v>28</v>
       </c>
       <c r="AZ2" s="4" t="s">
@@ -8084,233 +8087,233 @@
       <c r="BA2" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="BB2" s="29" t="s">
+      <c r="BB2" s="30" t="s">
         <v>48</v>
       </c>
       <c r="BC2" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="BD2" s="29" t="s">
+      <c r="BD2" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="BE2" s="29" t="s">
+      <c r="BE2" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="BF2" s="29" t="s">
+      <c r="BF2" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="BG2" s="29" t="s">
+      <c r="BG2" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="BH2" s="29" t="s">
+      <c r="BH2" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="BI2" s="29" t="s">
+      <c r="BI2" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="BJ2" s="29" t="s">
+      <c r="BJ2" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="BK2" s="29" t="s">
+      <c r="BK2" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="BL2" s="29" t="s">
+      <c r="BL2" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="BM2" s="29" t="s">
+      <c r="BM2" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="BN2" s="29" t="s">
+      <c r="BN2" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="BO2" s="29" t="s">
+      <c r="BO2" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="BP2" s="29" t="s">
+      <c r="BP2" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="BQ2" s="29" t="s">
+      <c r="BQ2" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="BR2" s="29" t="s">
+      <c r="BR2" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="BS2" s="29" t="s">
+      <c r="BS2" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="BT2" s="29" t="s">
+      <c r="BT2" s="30" t="s">
         <v>20</v>
       </c>
       <c r="BU2" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="BV2" s="29" t="s">
+      <c r="BV2" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="BW2" s="29" t="s">
+      <c r="BW2" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="BX2" s="29" t="s">
+      <c r="BX2" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="BY2" s="29" t="s">
+      <c r="BY2" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="BZ2" s="29" t="s">
+      <c r="BZ2" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="CA2" s="29" t="s">
+      <c r="CA2" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="CB2" s="29" t="s">
+      <c r="CB2" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="CC2" s="29" t="s">
+      <c r="CC2" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="CD2" s="29" t="s">
+      <c r="CD2" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="CE2" s="29" t="s">
+      <c r="CE2" s="30" t="s">
         <v>41</v>
       </c>
       <c r="CF2" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="CG2" s="29" t="s">
+      <c r="CG2" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="CH2" s="29" t="s">
+      <c r="CH2" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="CI2" s="29" t="s">
+      <c r="CI2" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="CJ2" s="29" t="s">
+      <c r="CJ2" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="CK2" s="29" t="s">
+      <c r="CK2" s="30" t="s">
         <v>45</v>
       </c>
       <c r="CL2" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="CM2" s="30" t="s">
+      <c r="CM2" s="29" t="s">
         <v>248</v>
       </c>
-      <c r="CN2" s="30" t="s">
+      <c r="CN2" s="29" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:92" ht="87.6" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
       <c r="F3" s="6" t="s">
         <v>231</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
       <c r="R3" s="4"/>
-      <c r="S3" s="29"/>
-      <c r="T3" s="29"/>
-      <c r="U3" s="29"/>
-      <c r="V3" s="29"/>
-      <c r="W3" s="29"/>
-      <c r="X3" s="29"/>
-      <c r="Y3" s="29"/>
-      <c r="Z3" s="29"/>
-      <c r="AA3" s="29"/>
-      <c r="AB3" s="29"/>
-      <c r="AC3" s="29"/>
-      <c r="AD3" s="29"/>
-      <c r="AE3" s="29"/>
-      <c r="AF3" s="29"/>
-      <c r="AG3" s="29"/>
-      <c r="AH3" s="29"/>
-      <c r="AI3" s="29"/>
-      <c r="AJ3" s="29"/>
-      <c r="AK3" s="29"/>
-      <c r="AL3" s="29"/>
-      <c r="AM3" s="29"/>
-      <c r="AN3" s="29"/>
-      <c r="AO3" s="29"/>
-      <c r="AP3" s="29"/>
-      <c r="AQ3" s="29"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="30"/>
+      <c r="V3" s="30"/>
+      <c r="W3" s="30"/>
+      <c r="X3" s="30"/>
+      <c r="Y3" s="30"/>
+      <c r="Z3" s="30"/>
+      <c r="AA3" s="30"/>
+      <c r="AB3" s="30"/>
+      <c r="AC3" s="30"/>
+      <c r="AD3" s="30"/>
+      <c r="AE3" s="30"/>
+      <c r="AF3" s="30"/>
+      <c r="AG3" s="30"/>
+      <c r="AH3" s="30"/>
+      <c r="AI3" s="30"/>
+      <c r="AJ3" s="30"/>
+      <c r="AK3" s="30"/>
+      <c r="AL3" s="30"/>
+      <c r="AM3" s="30"/>
+      <c r="AN3" s="30"/>
+      <c r="AO3" s="30"/>
+      <c r="AP3" s="30"/>
+      <c r="AQ3" s="30"/>
       <c r="AR3" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="AS3" s="29"/>
-      <c r="AT3" s="29"/>
-      <c r="AU3" s="29"/>
-      <c r="AV3" s="29"/>
-      <c r="AW3" s="29"/>
-      <c r="AX3" s="29"/>
-      <c r="AY3" s="29"/>
+      <c r="AS3" s="30"/>
+      <c r="AT3" s="30"/>
+      <c r="AU3" s="30"/>
+      <c r="AV3" s="30"/>
+      <c r="AW3" s="30"/>
+      <c r="AX3" s="30"/>
+      <c r="AY3" s="30"/>
       <c r="AZ3" s="4"/>
       <c r="BA3" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="BB3" s="29"/>
+      <c r="BB3" s="30"/>
       <c r="BC3" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="BD3" s="29"/>
-      <c r="BE3" s="29"/>
-      <c r="BF3" s="29"/>
-      <c r="BG3" s="29"/>
-      <c r="BH3" s="29"/>
-      <c r="BI3" s="29"/>
-      <c r="BJ3" s="29"/>
-      <c r="BK3" s="29"/>
-      <c r="BL3" s="29"/>
-      <c r="BM3" s="29"/>
-      <c r="BN3" s="29"/>
-      <c r="BO3" s="29"/>
-      <c r="BP3" s="29"/>
-      <c r="BQ3" s="29"/>
-      <c r="BR3" s="29"/>
-      <c r="BS3" s="29"/>
-      <c r="BT3" s="29"/>
+      <c r="BD3" s="30"/>
+      <c r="BE3" s="30"/>
+      <c r="BF3" s="30"/>
+      <c r="BG3" s="30"/>
+      <c r="BH3" s="30"/>
+      <c r="BI3" s="30"/>
+      <c r="BJ3" s="30"/>
+      <c r="BK3" s="30"/>
+      <c r="BL3" s="30"/>
+      <c r="BM3" s="30"/>
+      <c r="BN3" s="30"/>
+      <c r="BO3" s="30"/>
+      <c r="BP3" s="30"/>
+      <c r="BQ3" s="30"/>
+      <c r="BR3" s="30"/>
+      <c r="BS3" s="30"/>
+      <c r="BT3" s="30"/>
       <c r="BU3" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="BV3" s="29"/>
-      <c r="BW3" s="29"/>
-      <c r="BX3" s="29"/>
-      <c r="BY3" s="29"/>
-      <c r="BZ3" s="29"/>
-      <c r="CA3" s="29"/>
-      <c r="CB3" s="29"/>
-      <c r="CC3" s="29"/>
-      <c r="CD3" s="29"/>
-      <c r="CE3" s="29"/>
+      <c r="BV3" s="30"/>
+      <c r="BW3" s="30"/>
+      <c r="BX3" s="30"/>
+      <c r="BY3" s="30"/>
+      <c r="BZ3" s="30"/>
+      <c r="CA3" s="30"/>
+      <c r="CB3" s="30"/>
+      <c r="CC3" s="30"/>
+      <c r="CD3" s="30"/>
+      <c r="CE3" s="30"/>
       <c r="CF3" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="CG3" s="29"/>
-      <c r="CH3" s="29"/>
-      <c r="CI3" s="29"/>
-      <c r="CJ3" s="29"/>
-      <c r="CK3" s="29"/>
+      <c r="CG3" s="30"/>
+      <c r="CH3" s="30"/>
+      <c r="CI3" s="30"/>
+      <c r="CJ3" s="30"/>
+      <c r="CK3" s="30"/>
       <c r="CL3" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="CM3" s="30"/>
-      <c r="CN3" s="30"/>
+      <c r="CM3" s="29"/>
+      <c r="CN3" s="29"/>
     </row>
     <row r="4" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
@@ -10460,16 +10463,16 @@
       <c r="A23" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="29" t="s">
+      <c r="D23" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="E23" s="29" t="s">
+      <c r="E23" s="30" t="s">
         <v>29</v>
       </c>
       <c r="F23" s="6" t="s">
@@ -10478,136 +10481,136 @@
       <c r="G23" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="H23" s="29" t="s">
+      <c r="H23" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="I23" s="29" t="s">
+      <c r="I23" s="30" t="s">
         <v>234</v>
       </c>
-      <c r="J23" s="29" t="s">
+      <c r="J23" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="K23" s="29" t="s">
+      <c r="K23" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="L23" s="29" t="s">
+      <c r="L23" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="M23" s="29" t="s">
+      <c r="M23" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="N23" s="29" t="s">
+      <c r="N23" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="O23" s="29" t="s">
+      <c r="O23" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="P23" s="29" t="s">
+      <c r="P23" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="Q23" s="29" t="s">
+      <c r="Q23" s="30" t="s">
         <v>47</v>
       </c>
       <c r="R23" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="S23" s="29" t="s">
+      <c r="S23" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="T23" s="29" t="s">
+      <c r="T23" s="30" t="s">
         <v>235</v>
       </c>
-      <c r="U23" s="29" t="s">
+      <c r="U23" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="V23" s="29" t="s">
+      <c r="V23" s="30" t="s">
         <v>236</v>
       </c>
-      <c r="W23" s="29" t="s">
+      <c r="W23" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="X23" s="29" t="s">
+      <c r="X23" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="Y23" s="29" t="s">
+      <c r="Y23" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="Z23" s="29" t="s">
+      <c r="Z23" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="AA23" s="29" t="s">
+      <c r="AA23" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="AB23" s="29" t="s">
+      <c r="AB23" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="AC23" s="29" t="s">
+      <c r="AC23" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="AD23" s="29" t="s">
+      <c r="AD23" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="AE23" s="29" t="s">
+      <c r="AE23" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="AF23" s="29" t="s">
+      <c r="AF23" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="AG23" s="29" t="s">
+      <c r="AG23" s="30" t="s">
         <v>189</v>
       </c>
-      <c r="AH23" s="29" t="s">
+      <c r="AH23" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="AI23" s="29" t="s">
+      <c r="AI23" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="AJ23" s="29" t="s">
+      <c r="AJ23" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="AK23" s="29" t="s">
+      <c r="AK23" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="AL23" s="29" t="s">
+      <c r="AL23" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="AM23" s="29" t="s">
+      <c r="AM23" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="AN23" s="29" t="s">
+      <c r="AN23" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="AO23" s="29" t="s">
+      <c r="AO23" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="AP23" s="29" t="s">
+      <c r="AP23" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="AQ23" s="29" t="s">
+      <c r="AQ23" s="30" t="s">
         <v>66</v>
       </c>
       <c r="AR23" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="AS23" s="29" t="s">
+      <c r="AS23" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="AT23" s="29" t="s">
+      <c r="AT23" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="AU23" s="29" t="s">
+      <c r="AU23" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="AV23" s="29" t="s">
+      <c r="AV23" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="AW23" s="29" t="s">
+      <c r="AW23" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="AX23" s="29" t="s">
+      <c r="AX23" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="AY23" s="29" t="s">
+      <c r="AY23" s="30" t="s">
         <v>28</v>
       </c>
       <c r="AZ23" s="4" t="s">
@@ -10616,121 +10619,121 @@
       <c r="BA23" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="BB23" s="29" t="s">
+      <c r="BB23" s="30" t="s">
         <v>48</v>
       </c>
       <c r="BC23" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="BD23" s="29" t="s">
+      <c r="BD23" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="BE23" s="29" t="s">
+      <c r="BE23" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="BF23" s="29" t="s">
+      <c r="BF23" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="BG23" s="29" t="s">
+      <c r="BG23" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="BH23" s="29" t="s">
+      <c r="BH23" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="BI23" s="29" t="s">
+      <c r="BI23" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="BJ23" s="29" t="s">
+      <c r="BJ23" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="BK23" s="29" t="s">
+      <c r="BK23" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="BL23" s="29" t="s">
+      <c r="BL23" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="BM23" s="29" t="s">
+      <c r="BM23" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="BN23" s="29" t="s">
+      <c r="BN23" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="BO23" s="29" t="s">
+      <c r="BO23" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="BP23" s="29" t="s">
+      <c r="BP23" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="BQ23" s="29" t="s">
+      <c r="BQ23" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="BR23" s="29" t="s">
+      <c r="BR23" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="BS23" s="29" t="s">
+      <c r="BS23" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="BT23" s="29" t="s">
+      <c r="BT23" s="30" t="s">
         <v>20</v>
       </c>
       <c r="BU23" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="BV23" s="29" t="s">
+      <c r="BV23" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="BW23" s="29" t="s">
+      <c r="BW23" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="BX23" s="29" t="s">
+      <c r="BX23" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="BY23" s="29" t="s">
+      <c r="BY23" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="BZ23" s="29" t="s">
+      <c r="BZ23" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="CA23" s="29" t="s">
+      <c r="CA23" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="CB23" s="29" t="s">
+      <c r="CB23" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="CC23" s="29" t="s">
+      <c r="CC23" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="CD23" s="29" t="s">
+      <c r="CD23" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="CE23" s="29" t="s">
+      <c r="CE23" s="30" t="s">
         <v>41</v>
       </c>
       <c r="CF23" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="CG23" s="29" t="s">
+      <c r="CG23" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="CH23" s="29" t="s">
+      <c r="CH23" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="CI23" s="29" t="s">
+      <c r="CI23" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="CJ23" s="29" t="s">
+      <c r="CJ23" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="CK23" s="29" t="s">
+      <c r="CK23" s="30" t="s">
         <v>45</v>
       </c>
       <c r="CL23" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="CM23" s="30" t="s">
+      <c r="CM23" s="29" t="s">
         <v>248</v>
       </c>
-      <c r="CN23" s="30" t="s">
+      <c r="CN23" s="29" t="s">
         <v>249</v>
       </c>
     </row>
@@ -10738,117 +10741,117 @@
       <c r="A24" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
       <c r="F24" s="6" t="s">
         <v>231</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="29"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="30"/>
+      <c r="N24" s="30"/>
+      <c r="O24" s="30"/>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="30"/>
       <c r="R24" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="S24" s="29"/>
-      <c r="T24" s="29"/>
-      <c r="U24" s="29"/>
-      <c r="V24" s="29"/>
-      <c r="W24" s="29"/>
-      <c r="X24" s="29"/>
-      <c r="Y24" s="29"/>
-      <c r="Z24" s="29"/>
-      <c r="AA24" s="29"/>
-      <c r="AB24" s="29"/>
-      <c r="AC24" s="29"/>
-      <c r="AD24" s="29"/>
-      <c r="AE24" s="29"/>
-      <c r="AF24" s="29"/>
-      <c r="AG24" s="29"/>
-      <c r="AH24" s="29"/>
-      <c r="AI24" s="29"/>
-      <c r="AJ24" s="29"/>
-      <c r="AK24" s="29"/>
-      <c r="AL24" s="29"/>
-      <c r="AM24" s="29"/>
-      <c r="AN24" s="29"/>
-      <c r="AO24" s="29"/>
-      <c r="AP24" s="29"/>
-      <c r="AQ24" s="29"/>
+      <c r="S24" s="30"/>
+      <c r="T24" s="30"/>
+      <c r="U24" s="30"/>
+      <c r="V24" s="30"/>
+      <c r="W24" s="30"/>
+      <c r="X24" s="30"/>
+      <c r="Y24" s="30"/>
+      <c r="Z24" s="30"/>
+      <c r="AA24" s="30"/>
+      <c r="AB24" s="30"/>
+      <c r="AC24" s="30"/>
+      <c r="AD24" s="30"/>
+      <c r="AE24" s="30"/>
+      <c r="AF24" s="30"/>
+      <c r="AG24" s="30"/>
+      <c r="AH24" s="30"/>
+      <c r="AI24" s="30"/>
+      <c r="AJ24" s="30"/>
+      <c r="AK24" s="30"/>
+      <c r="AL24" s="30"/>
+      <c r="AM24" s="30"/>
+      <c r="AN24" s="30"/>
+      <c r="AO24" s="30"/>
+      <c r="AP24" s="30"/>
+      <c r="AQ24" s="30"/>
       <c r="AR24" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="AS24" s="29"/>
-      <c r="AT24" s="29"/>
-      <c r="AU24" s="29"/>
-      <c r="AV24" s="29"/>
-      <c r="AW24" s="29"/>
-      <c r="AX24" s="29"/>
-      <c r="AY24" s="29"/>
+      <c r="AS24" s="30"/>
+      <c r="AT24" s="30"/>
+      <c r="AU24" s="30"/>
+      <c r="AV24" s="30"/>
+      <c r="AW24" s="30"/>
+      <c r="AX24" s="30"/>
+      <c r="AY24" s="30"/>
       <c r="AZ24" s="4" t="s">
         <v>212</v>
       </c>
       <c r="BA24" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="BB24" s="29"/>
+      <c r="BB24" s="30"/>
       <c r="BC24" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="BD24" s="29"/>
-      <c r="BE24" s="29"/>
-      <c r="BF24" s="29"/>
-      <c r="BG24" s="29"/>
-      <c r="BH24" s="29"/>
-      <c r="BI24" s="29"/>
-      <c r="BJ24" s="29"/>
-      <c r="BK24" s="29"/>
-      <c r="BL24" s="29"/>
-      <c r="BM24" s="29"/>
-      <c r="BN24" s="29"/>
-      <c r="BO24" s="29"/>
-      <c r="BP24" s="29"/>
-      <c r="BQ24" s="29"/>
-      <c r="BR24" s="29"/>
-      <c r="BS24" s="29"/>
-      <c r="BT24" s="29"/>
+      <c r="BD24" s="30"/>
+      <c r="BE24" s="30"/>
+      <c r="BF24" s="30"/>
+      <c r="BG24" s="30"/>
+      <c r="BH24" s="30"/>
+      <c r="BI24" s="30"/>
+      <c r="BJ24" s="30"/>
+      <c r="BK24" s="30"/>
+      <c r="BL24" s="30"/>
+      <c r="BM24" s="30"/>
+      <c r="BN24" s="30"/>
+      <c r="BO24" s="30"/>
+      <c r="BP24" s="30"/>
+      <c r="BQ24" s="30"/>
+      <c r="BR24" s="30"/>
+      <c r="BS24" s="30"/>
+      <c r="BT24" s="30"/>
       <c r="BU24" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="BV24" s="29"/>
-      <c r="BW24" s="29"/>
-      <c r="BX24" s="29"/>
-      <c r="BY24" s="29"/>
-      <c r="BZ24" s="29"/>
-      <c r="CA24" s="29"/>
-      <c r="CB24" s="29"/>
-      <c r="CC24" s="29"/>
-      <c r="CD24" s="29"/>
-      <c r="CE24" s="29"/>
+      <c r="BV24" s="30"/>
+      <c r="BW24" s="30"/>
+      <c r="BX24" s="30"/>
+      <c r="BY24" s="30"/>
+      <c r="BZ24" s="30"/>
+      <c r="CA24" s="30"/>
+      <c r="CB24" s="30"/>
+      <c r="CC24" s="30"/>
+      <c r="CD24" s="30"/>
+      <c r="CE24" s="30"/>
       <c r="CF24" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="CG24" s="29"/>
-      <c r="CH24" s="29"/>
-      <c r="CI24" s="29"/>
-      <c r="CJ24" s="29"/>
-      <c r="CK24" s="29"/>
+      <c r="CG24" s="30"/>
+      <c r="CH24" s="30"/>
+      <c r="CI24" s="30"/>
+      <c r="CJ24" s="30"/>
+      <c r="CK24" s="30"/>
       <c r="CL24" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="CM24" s="30"/>
-      <c r="CN24" s="30"/>
+      <c r="CM24" s="29"/>
+      <c r="CN24" s="29"/>
     </row>
     <row r="25" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
@@ -14540,16 +14543,16 @@
       <c r="A54" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="B54" s="29" t="s">
+      <c r="B54" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="C54" s="29" t="s">
+      <c r="C54" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="D54" s="29" t="s">
+      <c r="D54" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="E54" s="29" t="s">
+      <c r="E54" s="30" t="s">
         <v>29</v>
       </c>
       <c r="F54" s="6" t="s">
@@ -14558,136 +14561,136 @@
       <c r="G54" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="H54" s="29" t="s">
+      <c r="H54" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="I54" s="29" t="s">
+      <c r="I54" s="30" t="s">
         <v>234</v>
       </c>
-      <c r="J54" s="29" t="s">
+      <c r="J54" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="K54" s="29" t="s">
+      <c r="K54" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="L54" s="29" t="s">
+      <c r="L54" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="M54" s="29" t="s">
+      <c r="M54" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="N54" s="29" t="s">
+      <c r="N54" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="O54" s="29" t="s">
+      <c r="O54" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="P54" s="29" t="s">
+      <c r="P54" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="Q54" s="29" t="s">
+      <c r="Q54" s="30" t="s">
         <v>47</v>
       </c>
       <c r="R54" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="S54" s="29" t="s">
+      <c r="S54" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="T54" s="29" t="s">
+      <c r="T54" s="30" t="s">
         <v>235</v>
       </c>
-      <c r="U54" s="29" t="s">
+      <c r="U54" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="V54" s="29" t="s">
+      <c r="V54" s="30" t="s">
         <v>236</v>
       </c>
-      <c r="W54" s="29" t="s">
+      <c r="W54" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="X54" s="29" t="s">
+      <c r="X54" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="Y54" s="29" t="s">
+      <c r="Y54" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="Z54" s="29" t="s">
+      <c r="Z54" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="AA54" s="29" t="s">
+      <c r="AA54" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="AB54" s="29" t="s">
+      <c r="AB54" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="AC54" s="29" t="s">
+      <c r="AC54" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="AD54" s="29" t="s">
+      <c r="AD54" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="AE54" s="29" t="s">
+      <c r="AE54" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="AF54" s="29" t="s">
+      <c r="AF54" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="AG54" s="29" t="s">
+      <c r="AG54" s="30" t="s">
         <v>189</v>
       </c>
-      <c r="AH54" s="29" t="s">
+      <c r="AH54" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="AI54" s="29" t="s">
+      <c r="AI54" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="AJ54" s="29" t="s">
+      <c r="AJ54" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="AK54" s="29" t="s">
+      <c r="AK54" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="AL54" s="29" t="s">
+      <c r="AL54" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="AM54" s="29" t="s">
+      <c r="AM54" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="AN54" s="29" t="s">
+      <c r="AN54" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="AO54" s="29" t="s">
+      <c r="AO54" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="AP54" s="29" t="s">
+      <c r="AP54" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="AQ54" s="29" t="s">
+      <c r="AQ54" s="30" t="s">
         <v>66</v>
       </c>
       <c r="AR54" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="AS54" s="29" t="s">
+      <c r="AS54" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="AT54" s="29" t="s">
+      <c r="AT54" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="AU54" s="29" t="s">
+      <c r="AU54" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="AV54" s="29" t="s">
+      <c r="AV54" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="AW54" s="29" t="s">
+      <c r="AW54" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="AX54" s="29" t="s">
+      <c r="AX54" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="AY54" s="29" t="s">
+      <c r="AY54" s="30" t="s">
         <v>28</v>
       </c>
       <c r="AZ54" s="4" t="s">
@@ -14696,121 +14699,121 @@
       <c r="BA54" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="BB54" s="29" t="s">
+      <c r="BB54" s="30" t="s">
         <v>48</v>
       </c>
       <c r="BC54" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="BD54" s="29" t="s">
+      <c r="BD54" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="BE54" s="29" t="s">
+      <c r="BE54" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="BF54" s="29" t="s">
+      <c r="BF54" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="BG54" s="29" t="s">
+      <c r="BG54" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="BH54" s="29" t="s">
+      <c r="BH54" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="BI54" s="29" t="s">
+      <c r="BI54" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="BJ54" s="29" t="s">
+      <c r="BJ54" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="BK54" s="29" t="s">
+      <c r="BK54" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="BL54" s="29" t="s">
+      <c r="BL54" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="BM54" s="29" t="s">
+      <c r="BM54" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="BN54" s="29" t="s">
+      <c r="BN54" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="BO54" s="29" t="s">
+      <c r="BO54" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="BP54" s="29" t="s">
+      <c r="BP54" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="BQ54" s="29" t="s">
+      <c r="BQ54" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="BR54" s="29" t="s">
+      <c r="BR54" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="BS54" s="29" t="s">
+      <c r="BS54" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="BT54" s="29" t="s">
+      <c r="BT54" s="30" t="s">
         <v>20</v>
       </c>
       <c r="BU54" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="BV54" s="29" t="s">
+      <c r="BV54" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="BW54" s="29" t="s">
+      <c r="BW54" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="BX54" s="29" t="s">
+      <c r="BX54" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="BY54" s="29" t="s">
+      <c r="BY54" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="BZ54" s="29" t="s">
+      <c r="BZ54" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="CA54" s="29" t="s">
+      <c r="CA54" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="CB54" s="29" t="s">
+      <c r="CB54" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="CC54" s="29" t="s">
+      <c r="CC54" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="CD54" s="29" t="s">
+      <c r="CD54" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="CE54" s="29" t="s">
+      <c r="CE54" s="30" t="s">
         <v>41</v>
       </c>
       <c r="CF54" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="CG54" s="29" t="s">
+      <c r="CG54" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="CH54" s="29" t="s">
+      <c r="CH54" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="CI54" s="29" t="s">
+      <c r="CI54" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="CJ54" s="29" t="s">
+      <c r="CJ54" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="CK54" s="29" t="s">
+      <c r="CK54" s="30" t="s">
         <v>45</v>
       </c>
       <c r="CL54" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="CM54" s="30" t="s">
+      <c r="CM54" s="29" t="s">
         <v>248</v>
       </c>
-      <c r="CN54" s="30" t="s">
+      <c r="CN54" s="29" t="s">
         <v>249</v>
       </c>
     </row>
@@ -14818,117 +14821,117 @@
       <c r="A55" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="B55" s="29"/>
-      <c r="C55" s="29"/>
-      <c r="D55" s="29"/>
-      <c r="E55" s="29"/>
+      <c r="B55" s="30"/>
+      <c r="C55" s="30"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="30"/>
       <c r="F55" s="6" t="s">
         <v>231</v>
       </c>
       <c r="G55" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="H55" s="29"/>
-      <c r="I55" s="29"/>
-      <c r="J55" s="29"/>
-      <c r="K55" s="29"/>
-      <c r="L55" s="29"/>
-      <c r="M55" s="29"/>
-      <c r="N55" s="29"/>
-      <c r="O55" s="29"/>
-      <c r="P55" s="29"/>
-      <c r="Q55" s="29"/>
+      <c r="H55" s="30"/>
+      <c r="I55" s="30"/>
+      <c r="J55" s="30"/>
+      <c r="K55" s="30"/>
+      <c r="L55" s="30"/>
+      <c r="M55" s="30"/>
+      <c r="N55" s="30"/>
+      <c r="O55" s="30"/>
+      <c r="P55" s="30"/>
+      <c r="Q55" s="30"/>
       <c r="R55" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="S55" s="29"/>
-      <c r="T55" s="29"/>
-      <c r="U55" s="29"/>
-      <c r="V55" s="29"/>
-      <c r="W55" s="29"/>
-      <c r="X55" s="29"/>
-      <c r="Y55" s="29"/>
-      <c r="Z55" s="29"/>
-      <c r="AA55" s="29"/>
-      <c r="AB55" s="29"/>
-      <c r="AC55" s="29"/>
-      <c r="AD55" s="29"/>
-      <c r="AE55" s="29"/>
-      <c r="AF55" s="29"/>
-      <c r="AG55" s="29"/>
-      <c r="AH55" s="29"/>
-      <c r="AI55" s="29"/>
-      <c r="AJ55" s="29"/>
-      <c r="AK55" s="29"/>
-      <c r="AL55" s="29"/>
-      <c r="AM55" s="29"/>
-      <c r="AN55" s="29"/>
-      <c r="AO55" s="29"/>
-      <c r="AP55" s="29"/>
-      <c r="AQ55" s="29"/>
+      <c r="S55" s="30"/>
+      <c r="T55" s="30"/>
+      <c r="U55" s="30"/>
+      <c r="V55" s="30"/>
+      <c r="W55" s="30"/>
+      <c r="X55" s="30"/>
+      <c r="Y55" s="30"/>
+      <c r="Z55" s="30"/>
+      <c r="AA55" s="30"/>
+      <c r="AB55" s="30"/>
+      <c r="AC55" s="30"/>
+      <c r="AD55" s="30"/>
+      <c r="AE55" s="30"/>
+      <c r="AF55" s="30"/>
+      <c r="AG55" s="30"/>
+      <c r="AH55" s="30"/>
+      <c r="AI55" s="30"/>
+      <c r="AJ55" s="30"/>
+      <c r="AK55" s="30"/>
+      <c r="AL55" s="30"/>
+      <c r="AM55" s="30"/>
+      <c r="AN55" s="30"/>
+      <c r="AO55" s="30"/>
+      <c r="AP55" s="30"/>
+      <c r="AQ55" s="30"/>
       <c r="AR55" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="AS55" s="29"/>
-      <c r="AT55" s="29"/>
-      <c r="AU55" s="29"/>
-      <c r="AV55" s="29"/>
-      <c r="AW55" s="29"/>
-      <c r="AX55" s="29"/>
-      <c r="AY55" s="29"/>
+      <c r="AS55" s="30"/>
+      <c r="AT55" s="30"/>
+      <c r="AU55" s="30"/>
+      <c r="AV55" s="30"/>
+      <c r="AW55" s="30"/>
+      <c r="AX55" s="30"/>
+      <c r="AY55" s="30"/>
       <c r="AZ55" s="4" t="s">
         <v>212</v>
       </c>
       <c r="BA55" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="BB55" s="29"/>
+      <c r="BB55" s="30"/>
       <c r="BC55" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="BD55" s="29"/>
-      <c r="BE55" s="29"/>
-      <c r="BF55" s="29"/>
-      <c r="BG55" s="29"/>
-      <c r="BH55" s="29"/>
-      <c r="BI55" s="29"/>
-      <c r="BJ55" s="29"/>
-      <c r="BK55" s="29"/>
-      <c r="BL55" s="29"/>
-      <c r="BM55" s="29"/>
-      <c r="BN55" s="29"/>
-      <c r="BO55" s="29"/>
-      <c r="BP55" s="29"/>
-      <c r="BQ55" s="29"/>
-      <c r="BR55" s="29"/>
-      <c r="BS55" s="29"/>
-      <c r="BT55" s="29"/>
+      <c r="BD55" s="30"/>
+      <c r="BE55" s="30"/>
+      <c r="BF55" s="30"/>
+      <c r="BG55" s="30"/>
+      <c r="BH55" s="30"/>
+      <c r="BI55" s="30"/>
+      <c r="BJ55" s="30"/>
+      <c r="BK55" s="30"/>
+      <c r="BL55" s="30"/>
+      <c r="BM55" s="30"/>
+      <c r="BN55" s="30"/>
+      <c r="BO55" s="30"/>
+      <c r="BP55" s="30"/>
+      <c r="BQ55" s="30"/>
+      <c r="BR55" s="30"/>
+      <c r="BS55" s="30"/>
+      <c r="BT55" s="30"/>
       <c r="BU55" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="BV55" s="29"/>
-      <c r="BW55" s="29"/>
-      <c r="BX55" s="29"/>
-      <c r="BY55" s="29"/>
-      <c r="BZ55" s="29"/>
-      <c r="CA55" s="29"/>
-      <c r="CB55" s="29"/>
-      <c r="CC55" s="29"/>
-      <c r="CD55" s="29"/>
-      <c r="CE55" s="29"/>
+      <c r="BV55" s="30"/>
+      <c r="BW55" s="30"/>
+      <c r="BX55" s="30"/>
+      <c r="BY55" s="30"/>
+      <c r="BZ55" s="30"/>
+      <c r="CA55" s="30"/>
+      <c r="CB55" s="30"/>
+      <c r="CC55" s="30"/>
+      <c r="CD55" s="30"/>
+      <c r="CE55" s="30"/>
       <c r="CF55" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="CG55" s="29"/>
-      <c r="CH55" s="29"/>
-      <c r="CI55" s="29"/>
-      <c r="CJ55" s="29"/>
-      <c r="CK55" s="29"/>
+      <c r="CG55" s="30"/>
+      <c r="CH55" s="30"/>
+      <c r="CI55" s="30"/>
+      <c r="CJ55" s="30"/>
+      <c r="CK55" s="30"/>
       <c r="CL55" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="CM55" s="30"/>
-      <c r="CN55" s="30"/>
+      <c r="CM55" s="29"/>
+      <c r="CN55" s="29"/>
     </row>
     <row r="56" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
@@ -20664,16 +20667,16 @@
       <c r="A84" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="B84" s="29" t="s">
+      <c r="B84" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="C84" s="29" t="s">
+      <c r="C84" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="D84" s="29" t="s">
+      <c r="D84" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="E84" s="29" t="s">
+      <c r="E84" s="30" t="s">
         <v>29</v>
       </c>
       <c r="F84" s="6" t="s">
@@ -20682,136 +20685,136 @@
       <c r="G84" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="H84" s="29" t="s">
+      <c r="H84" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="I84" s="29" t="s">
+      <c r="I84" s="30" t="s">
         <v>234</v>
       </c>
-      <c r="J84" s="29" t="s">
+      <c r="J84" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="K84" s="29" t="s">
+      <c r="K84" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="L84" s="29" t="s">
+      <c r="L84" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="M84" s="29" t="s">
+      <c r="M84" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="N84" s="29" t="s">
+      <c r="N84" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="O84" s="29" t="s">
+      <c r="O84" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="P84" s="29" t="s">
+      <c r="P84" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="Q84" s="29" t="s">
+      <c r="Q84" s="30" t="s">
         <v>47</v>
       </c>
       <c r="R84" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="S84" s="29" t="s">
+      <c r="S84" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="T84" s="29" t="s">
+      <c r="T84" s="30" t="s">
         <v>235</v>
       </c>
-      <c r="U84" s="29" t="s">
+      <c r="U84" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="V84" s="29" t="s">
+      <c r="V84" s="30" t="s">
         <v>236</v>
       </c>
-      <c r="W84" s="29" t="s">
+      <c r="W84" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="X84" s="29" t="s">
+      <c r="X84" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="Y84" s="29" t="s">
+      <c r="Y84" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="Z84" s="29" t="s">
+      <c r="Z84" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="AA84" s="29" t="s">
+      <c r="AA84" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="AB84" s="29" t="s">
+      <c r="AB84" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="AC84" s="29" t="s">
+      <c r="AC84" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="AD84" s="29" t="s">
+      <c r="AD84" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="AE84" s="29" t="s">
+      <c r="AE84" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="AF84" s="29" t="s">
+      <c r="AF84" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="AG84" s="29" t="s">
+      <c r="AG84" s="30" t="s">
         <v>189</v>
       </c>
-      <c r="AH84" s="29" t="s">
+      <c r="AH84" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="AI84" s="29" t="s">
+      <c r="AI84" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="AJ84" s="29" t="s">
+      <c r="AJ84" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="AK84" s="29" t="s">
+      <c r="AK84" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="AL84" s="29" t="s">
+      <c r="AL84" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="AM84" s="29" t="s">
+      <c r="AM84" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="AN84" s="29" t="s">
+      <c r="AN84" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="AO84" s="29" t="s">
+      <c r="AO84" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="AP84" s="29" t="s">
+      <c r="AP84" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="AQ84" s="29" t="s">
+      <c r="AQ84" s="30" t="s">
         <v>66</v>
       </c>
       <c r="AR84" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="AS84" s="29" t="s">
+      <c r="AS84" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="AT84" s="29" t="s">
+      <c r="AT84" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="AU84" s="29" t="s">
+      <c r="AU84" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="AV84" s="29" t="s">
+      <c r="AV84" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="AW84" s="29" t="s">
+      <c r="AW84" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="AX84" s="29" t="s">
+      <c r="AX84" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="AY84" s="29" t="s">
+      <c r="AY84" s="30" t="s">
         <v>28</v>
       </c>
       <c r="AZ84" s="4" t="s">
@@ -20820,121 +20823,121 @@
       <c r="BA84" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="BB84" s="29" t="s">
+      <c r="BB84" s="30" t="s">
         <v>48</v>
       </c>
       <c r="BC84" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="BD84" s="29" t="s">
+      <c r="BD84" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="BE84" s="29" t="s">
+      <c r="BE84" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="BF84" s="29" t="s">
+      <c r="BF84" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="BG84" s="29" t="s">
+      <c r="BG84" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="BH84" s="29" t="s">
+      <c r="BH84" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="BI84" s="29" t="s">
+      <c r="BI84" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="BJ84" s="29" t="s">
+      <c r="BJ84" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="BK84" s="29" t="s">
+      <c r="BK84" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="BL84" s="29" t="s">
+      <c r="BL84" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="BM84" s="29" t="s">
+      <c r="BM84" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="BN84" s="29" t="s">
+      <c r="BN84" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="BO84" s="29" t="s">
+      <c r="BO84" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="BP84" s="29" t="s">
+      <c r="BP84" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="BQ84" s="29" t="s">
+      <c r="BQ84" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="BR84" s="29" t="s">
+      <c r="BR84" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="BS84" s="29" t="s">
+      <c r="BS84" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="BT84" s="29" t="s">
+      <c r="BT84" s="30" t="s">
         <v>20</v>
       </c>
       <c r="BU84" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="BV84" s="29" t="s">
+      <c r="BV84" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="BW84" s="29" t="s">
+      <c r="BW84" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="BX84" s="29" t="s">
+      <c r="BX84" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="BY84" s="29" t="s">
+      <c r="BY84" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="BZ84" s="29" t="s">
+      <c r="BZ84" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="CA84" s="29" t="s">
+      <c r="CA84" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="CB84" s="29" t="s">
+      <c r="CB84" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="CC84" s="29" t="s">
+      <c r="CC84" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="CD84" s="29" t="s">
+      <c r="CD84" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="CE84" s="29" t="s">
+      <c r="CE84" s="30" t="s">
         <v>41</v>
       </c>
       <c r="CF84" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="CG84" s="29" t="s">
+      <c r="CG84" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="CH84" s="29" t="s">
+      <c r="CH84" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="CI84" s="29" t="s">
+      <c r="CI84" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="CJ84" s="29" t="s">
+      <c r="CJ84" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="CK84" s="29" t="s">
+      <c r="CK84" s="30" t="s">
         <v>45</v>
       </c>
       <c r="CL84" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="CM84" s="30" t="s">
+      <c r="CM84" s="29" t="s">
         <v>248</v>
       </c>
-      <c r="CN84" s="30" t="s">
+      <c r="CN84" s="29" t="s">
         <v>249</v>
       </c>
     </row>
@@ -20942,117 +20945,117 @@
       <c r="A85" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="B85" s="29"/>
-      <c r="C85" s="29"/>
-      <c r="D85" s="29"/>
-      <c r="E85" s="29"/>
+      <c r="B85" s="30"/>
+      <c r="C85" s="30"/>
+      <c r="D85" s="30"/>
+      <c r="E85" s="30"/>
       <c r="F85" s="6" t="s">
         <v>231</v>
       </c>
       <c r="G85" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="H85" s="29"/>
-      <c r="I85" s="29"/>
-      <c r="J85" s="29"/>
-      <c r="K85" s="29"/>
-      <c r="L85" s="29"/>
-      <c r="M85" s="29"/>
-      <c r="N85" s="29"/>
-      <c r="O85" s="29"/>
-      <c r="P85" s="29"/>
-      <c r="Q85" s="29"/>
+      <c r="H85" s="30"/>
+      <c r="I85" s="30"/>
+      <c r="J85" s="30"/>
+      <c r="K85" s="30"/>
+      <c r="L85" s="30"/>
+      <c r="M85" s="30"/>
+      <c r="N85" s="30"/>
+      <c r="O85" s="30"/>
+      <c r="P85" s="30"/>
+      <c r="Q85" s="30"/>
       <c r="R85" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="S85" s="29"/>
-      <c r="T85" s="29"/>
-      <c r="U85" s="29"/>
-      <c r="V85" s="29"/>
-      <c r="W85" s="29"/>
-      <c r="X85" s="29"/>
-      <c r="Y85" s="29"/>
-      <c r="Z85" s="29"/>
-      <c r="AA85" s="29"/>
-      <c r="AB85" s="29"/>
-      <c r="AC85" s="29"/>
-      <c r="AD85" s="29"/>
-      <c r="AE85" s="29"/>
-      <c r="AF85" s="29"/>
-      <c r="AG85" s="29"/>
-      <c r="AH85" s="29"/>
-      <c r="AI85" s="29"/>
-      <c r="AJ85" s="29"/>
-      <c r="AK85" s="29"/>
-      <c r="AL85" s="29"/>
-      <c r="AM85" s="29"/>
-      <c r="AN85" s="29"/>
-      <c r="AO85" s="29"/>
-      <c r="AP85" s="29"/>
-      <c r="AQ85" s="29"/>
+      <c r="S85" s="30"/>
+      <c r="T85" s="30"/>
+      <c r="U85" s="30"/>
+      <c r="V85" s="30"/>
+      <c r="W85" s="30"/>
+      <c r="X85" s="30"/>
+      <c r="Y85" s="30"/>
+      <c r="Z85" s="30"/>
+      <c r="AA85" s="30"/>
+      <c r="AB85" s="30"/>
+      <c r="AC85" s="30"/>
+      <c r="AD85" s="30"/>
+      <c r="AE85" s="30"/>
+      <c r="AF85" s="30"/>
+      <c r="AG85" s="30"/>
+      <c r="AH85" s="30"/>
+      <c r="AI85" s="30"/>
+      <c r="AJ85" s="30"/>
+      <c r="AK85" s="30"/>
+      <c r="AL85" s="30"/>
+      <c r="AM85" s="30"/>
+      <c r="AN85" s="30"/>
+      <c r="AO85" s="30"/>
+      <c r="AP85" s="30"/>
+      <c r="AQ85" s="30"/>
       <c r="AR85" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="AS85" s="29"/>
-      <c r="AT85" s="29"/>
-      <c r="AU85" s="29"/>
-      <c r="AV85" s="29"/>
-      <c r="AW85" s="29"/>
-      <c r="AX85" s="29"/>
-      <c r="AY85" s="29"/>
+      <c r="AS85" s="30"/>
+      <c r="AT85" s="30"/>
+      <c r="AU85" s="30"/>
+      <c r="AV85" s="30"/>
+      <c r="AW85" s="30"/>
+      <c r="AX85" s="30"/>
+      <c r="AY85" s="30"/>
       <c r="AZ85" s="4" t="s">
         <v>212</v>
       </c>
       <c r="BA85" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="BB85" s="29"/>
+      <c r="BB85" s="30"/>
       <c r="BC85" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="BD85" s="29"/>
-      <c r="BE85" s="29"/>
-      <c r="BF85" s="29"/>
-      <c r="BG85" s="29"/>
-      <c r="BH85" s="29"/>
-      <c r="BI85" s="29"/>
-      <c r="BJ85" s="29"/>
-      <c r="BK85" s="29"/>
-      <c r="BL85" s="29"/>
-      <c r="BM85" s="29"/>
-      <c r="BN85" s="29"/>
-      <c r="BO85" s="29"/>
-      <c r="BP85" s="29"/>
-      <c r="BQ85" s="29"/>
-      <c r="BR85" s="29"/>
-      <c r="BS85" s="29"/>
-      <c r="BT85" s="29"/>
+      <c r="BD85" s="30"/>
+      <c r="BE85" s="30"/>
+      <c r="BF85" s="30"/>
+      <c r="BG85" s="30"/>
+      <c r="BH85" s="30"/>
+      <c r="BI85" s="30"/>
+      <c r="BJ85" s="30"/>
+      <c r="BK85" s="30"/>
+      <c r="BL85" s="30"/>
+      <c r="BM85" s="30"/>
+      <c r="BN85" s="30"/>
+      <c r="BO85" s="30"/>
+      <c r="BP85" s="30"/>
+      <c r="BQ85" s="30"/>
+      <c r="BR85" s="30"/>
+      <c r="BS85" s="30"/>
+      <c r="BT85" s="30"/>
       <c r="BU85" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="BV85" s="29"/>
-      <c r="BW85" s="29"/>
-      <c r="BX85" s="29"/>
-      <c r="BY85" s="29"/>
-      <c r="BZ85" s="29"/>
-      <c r="CA85" s="29"/>
-      <c r="CB85" s="29"/>
-      <c r="CC85" s="29"/>
-      <c r="CD85" s="29"/>
-      <c r="CE85" s="29"/>
+      <c r="BV85" s="30"/>
+      <c r="BW85" s="30"/>
+      <c r="BX85" s="30"/>
+      <c r="BY85" s="30"/>
+      <c r="BZ85" s="30"/>
+      <c r="CA85" s="30"/>
+      <c r="CB85" s="30"/>
+      <c r="CC85" s="30"/>
+      <c r="CD85" s="30"/>
+      <c r="CE85" s="30"/>
       <c r="CF85" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="CG85" s="29"/>
-      <c r="CH85" s="29"/>
-      <c r="CI85" s="29"/>
-      <c r="CJ85" s="29"/>
-      <c r="CK85" s="29"/>
+      <c r="CG85" s="30"/>
+      <c r="CH85" s="30"/>
+      <c r="CI85" s="30"/>
+      <c r="CJ85" s="30"/>
+      <c r="CK85" s="30"/>
       <c r="CL85" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="CM85" s="30"/>
-      <c r="CN85" s="30"/>
+      <c r="CM85" s="29"/>
+      <c r="CN85" s="29"/>
     </row>
     <row r="86" spans="1:92" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A86" s="4"/>
@@ -21184,6 +21187,334 @@
     </row>
   </sheetData>
   <mergeCells count="352">
+    <mergeCell ref="CE1:CK1"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="AG1:AK1"/>
+    <mergeCell ref="AL1:AY1"/>
+    <mergeCell ref="BA1:BK1"/>
+    <mergeCell ref="BL1:BT1"/>
+    <mergeCell ref="BU1:CD1"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="S1:W1"/>
+    <mergeCell ref="X1:AD1"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="AH2:AH3"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="AJ2:AJ3"/>
+    <mergeCell ref="AK2:AK3"/>
+    <mergeCell ref="Z2:Z3"/>
+    <mergeCell ref="AA2:AA3"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="AS2:AS3"/>
+    <mergeCell ref="AT2:AT3"/>
+    <mergeCell ref="AU2:AU3"/>
+    <mergeCell ref="AV2:AV3"/>
+    <mergeCell ref="AW2:AW3"/>
+    <mergeCell ref="AX2:AX3"/>
+    <mergeCell ref="AL2:AL3"/>
+    <mergeCell ref="AM2:AM3"/>
+    <mergeCell ref="AN2:AN3"/>
+    <mergeCell ref="AO2:AO3"/>
+    <mergeCell ref="AP2:AP3"/>
+    <mergeCell ref="AQ2:AQ3"/>
+    <mergeCell ref="BH2:BH3"/>
+    <mergeCell ref="BI2:BI3"/>
+    <mergeCell ref="BJ2:BJ3"/>
+    <mergeCell ref="BK2:BK3"/>
+    <mergeCell ref="BL2:BL3"/>
+    <mergeCell ref="BM2:BM3"/>
+    <mergeCell ref="AY2:AY3"/>
+    <mergeCell ref="BB2:BB3"/>
+    <mergeCell ref="BD2:BD3"/>
+    <mergeCell ref="BE2:BE3"/>
+    <mergeCell ref="BF2:BF3"/>
+    <mergeCell ref="BG2:BG3"/>
+    <mergeCell ref="BT2:BT3"/>
+    <mergeCell ref="BV2:BV3"/>
+    <mergeCell ref="BW2:BW3"/>
+    <mergeCell ref="BX2:BX3"/>
+    <mergeCell ref="BY2:BY3"/>
+    <mergeCell ref="BZ2:BZ3"/>
+    <mergeCell ref="BN2:BN3"/>
+    <mergeCell ref="BO2:BO3"/>
+    <mergeCell ref="BP2:BP3"/>
+    <mergeCell ref="BQ2:BQ3"/>
+    <mergeCell ref="BR2:BR3"/>
+    <mergeCell ref="BS2:BS3"/>
+    <mergeCell ref="CH2:CH3"/>
+    <mergeCell ref="CI2:CI3"/>
+    <mergeCell ref="CJ2:CJ3"/>
+    <mergeCell ref="CK2:CK3"/>
+    <mergeCell ref="CM2:CM3"/>
+    <mergeCell ref="CN2:CN3"/>
+    <mergeCell ref="CA2:CA3"/>
+    <mergeCell ref="CB2:CB3"/>
+    <mergeCell ref="CC2:CC3"/>
+    <mergeCell ref="CD2:CD3"/>
+    <mergeCell ref="CE2:CE3"/>
+    <mergeCell ref="CG2:CG3"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="W23:W24"/>
+    <mergeCell ref="X23:X24"/>
+    <mergeCell ref="Y23:Y24"/>
+    <mergeCell ref="Z23:Z24"/>
+    <mergeCell ref="AA23:AA24"/>
+    <mergeCell ref="AB23:AB24"/>
+    <mergeCell ref="P23:P24"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="S23:S24"/>
+    <mergeCell ref="T23:T24"/>
+    <mergeCell ref="U23:U24"/>
+    <mergeCell ref="V23:V24"/>
+    <mergeCell ref="AI23:AI24"/>
+    <mergeCell ref="AJ23:AJ24"/>
+    <mergeCell ref="AK23:AK24"/>
+    <mergeCell ref="AL23:AL24"/>
+    <mergeCell ref="AM23:AM24"/>
+    <mergeCell ref="AN23:AN24"/>
+    <mergeCell ref="AC23:AC24"/>
+    <mergeCell ref="AD23:AD24"/>
+    <mergeCell ref="AE23:AE24"/>
+    <mergeCell ref="AF23:AF24"/>
+    <mergeCell ref="AG23:AG24"/>
+    <mergeCell ref="AH23:AH24"/>
+    <mergeCell ref="AX23:AX24"/>
+    <mergeCell ref="AY23:AY24"/>
+    <mergeCell ref="BB23:BB24"/>
+    <mergeCell ref="BD23:BD24"/>
+    <mergeCell ref="AO23:AO24"/>
+    <mergeCell ref="AP23:AP24"/>
+    <mergeCell ref="AQ23:AQ24"/>
+    <mergeCell ref="AS23:AS24"/>
+    <mergeCell ref="AT23:AT24"/>
+    <mergeCell ref="AU23:AU24"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="I54:I55"/>
+    <mergeCell ref="J54:J55"/>
+    <mergeCell ref="CD23:CD24"/>
+    <mergeCell ref="CE23:CE24"/>
+    <mergeCell ref="BX23:BX24"/>
+    <mergeCell ref="BY23:BY24"/>
+    <mergeCell ref="BZ23:BZ24"/>
+    <mergeCell ref="CA23:CA24"/>
+    <mergeCell ref="CB23:CB24"/>
+    <mergeCell ref="CC23:CC24"/>
+    <mergeCell ref="BQ23:BQ24"/>
+    <mergeCell ref="BR23:BR24"/>
+    <mergeCell ref="BS23:BS24"/>
+    <mergeCell ref="BT23:BT24"/>
+    <mergeCell ref="BV23:BV24"/>
+    <mergeCell ref="BW23:BW24"/>
+    <mergeCell ref="BK23:BK24"/>
+    <mergeCell ref="BL23:BL24"/>
+    <mergeCell ref="BM23:BM24"/>
+    <mergeCell ref="K54:K55"/>
+    <mergeCell ref="L54:L55"/>
+    <mergeCell ref="M54:M55"/>
+    <mergeCell ref="N54:N55"/>
+    <mergeCell ref="O54:O55"/>
+    <mergeCell ref="P54:P55"/>
+    <mergeCell ref="CK23:CK24"/>
+    <mergeCell ref="CM23:CM24"/>
+    <mergeCell ref="CN23:CN24"/>
+    <mergeCell ref="CG23:CG24"/>
+    <mergeCell ref="CH23:CH24"/>
+    <mergeCell ref="CI23:CI24"/>
+    <mergeCell ref="CJ23:CJ24"/>
+    <mergeCell ref="BN23:BN24"/>
+    <mergeCell ref="BO23:BO24"/>
+    <mergeCell ref="BP23:BP24"/>
+    <mergeCell ref="BE23:BE24"/>
+    <mergeCell ref="BF23:BF24"/>
+    <mergeCell ref="BG23:BG24"/>
+    <mergeCell ref="BH23:BH24"/>
+    <mergeCell ref="BI23:BI24"/>
+    <mergeCell ref="BJ23:BJ24"/>
+    <mergeCell ref="AV23:AV24"/>
+    <mergeCell ref="AW23:AW24"/>
+    <mergeCell ref="X54:X55"/>
+    <mergeCell ref="Y54:Y55"/>
+    <mergeCell ref="Z54:Z55"/>
+    <mergeCell ref="AA54:AA55"/>
+    <mergeCell ref="AB54:AB55"/>
+    <mergeCell ref="AC54:AC55"/>
+    <mergeCell ref="Q54:Q55"/>
+    <mergeCell ref="S54:S55"/>
+    <mergeCell ref="T54:T55"/>
+    <mergeCell ref="U54:U55"/>
+    <mergeCell ref="V54:V55"/>
+    <mergeCell ref="W54:W55"/>
+    <mergeCell ref="AJ54:AJ55"/>
+    <mergeCell ref="AK54:AK55"/>
+    <mergeCell ref="AL54:AL55"/>
+    <mergeCell ref="AM54:AM55"/>
+    <mergeCell ref="AN54:AN55"/>
+    <mergeCell ref="AO54:AO55"/>
+    <mergeCell ref="AD54:AD55"/>
+    <mergeCell ref="AE54:AE55"/>
+    <mergeCell ref="AF54:AF55"/>
+    <mergeCell ref="AG54:AG55"/>
+    <mergeCell ref="AH54:AH55"/>
+    <mergeCell ref="AI54:AI55"/>
+    <mergeCell ref="AW54:AW55"/>
+    <mergeCell ref="AX54:AX55"/>
+    <mergeCell ref="AY54:AY55"/>
+    <mergeCell ref="BB54:BB55"/>
+    <mergeCell ref="BD54:BD55"/>
+    <mergeCell ref="BE54:BE55"/>
+    <mergeCell ref="AP54:AP55"/>
+    <mergeCell ref="AQ54:AQ55"/>
+    <mergeCell ref="AS54:AS55"/>
+    <mergeCell ref="AT54:AT55"/>
+    <mergeCell ref="AU54:AU55"/>
+    <mergeCell ref="AV54:AV55"/>
+    <mergeCell ref="BL54:BL55"/>
+    <mergeCell ref="BM54:BM55"/>
+    <mergeCell ref="BN54:BN55"/>
+    <mergeCell ref="BO54:BO55"/>
+    <mergeCell ref="BP54:BP55"/>
+    <mergeCell ref="BQ54:BQ55"/>
+    <mergeCell ref="BF54:BF55"/>
+    <mergeCell ref="BG54:BG55"/>
+    <mergeCell ref="BH54:BH55"/>
+    <mergeCell ref="BI54:BI55"/>
+    <mergeCell ref="BJ54:BJ55"/>
+    <mergeCell ref="BK54:BK55"/>
+    <mergeCell ref="CA54:CA55"/>
+    <mergeCell ref="CB54:CB55"/>
+    <mergeCell ref="CC54:CC55"/>
+    <mergeCell ref="CD54:CD55"/>
+    <mergeCell ref="BR54:BR55"/>
+    <mergeCell ref="BS54:BS55"/>
+    <mergeCell ref="BT54:BT55"/>
+    <mergeCell ref="BV54:BV55"/>
+    <mergeCell ref="BW54:BW55"/>
+    <mergeCell ref="BX54:BX55"/>
+    <mergeCell ref="L84:L85"/>
+    <mergeCell ref="M84:M85"/>
+    <mergeCell ref="N84:N85"/>
+    <mergeCell ref="O84:O85"/>
+    <mergeCell ref="P84:P85"/>
+    <mergeCell ref="Q84:Q85"/>
+    <mergeCell ref="CM54:CM55"/>
+    <mergeCell ref="CN54:CN55"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="H84:H85"/>
+    <mergeCell ref="I84:I85"/>
+    <mergeCell ref="J84:J85"/>
+    <mergeCell ref="K84:K85"/>
+    <mergeCell ref="CE54:CE55"/>
+    <mergeCell ref="CG54:CG55"/>
+    <mergeCell ref="CH54:CH55"/>
+    <mergeCell ref="CI54:CI55"/>
+    <mergeCell ref="CJ54:CJ55"/>
+    <mergeCell ref="CK54:CK55"/>
+    <mergeCell ref="BY54:BY55"/>
+    <mergeCell ref="BZ54:BZ55"/>
+    <mergeCell ref="Y84:Y85"/>
+    <mergeCell ref="Z84:Z85"/>
+    <mergeCell ref="AA84:AA85"/>
+    <mergeCell ref="AB84:AB85"/>
+    <mergeCell ref="AC84:AC85"/>
+    <mergeCell ref="AD84:AD85"/>
+    <mergeCell ref="S84:S85"/>
+    <mergeCell ref="T84:T85"/>
+    <mergeCell ref="U84:U85"/>
+    <mergeCell ref="V84:V85"/>
+    <mergeCell ref="W84:W85"/>
+    <mergeCell ref="X84:X85"/>
+    <mergeCell ref="AK84:AK85"/>
+    <mergeCell ref="AL84:AL85"/>
+    <mergeCell ref="AM84:AM85"/>
+    <mergeCell ref="AN84:AN85"/>
+    <mergeCell ref="AO84:AO85"/>
+    <mergeCell ref="AP84:AP85"/>
+    <mergeCell ref="AE84:AE85"/>
+    <mergeCell ref="AF84:AF85"/>
+    <mergeCell ref="AG84:AG85"/>
+    <mergeCell ref="AH84:AH85"/>
+    <mergeCell ref="AI84:AI85"/>
+    <mergeCell ref="AJ84:AJ85"/>
+    <mergeCell ref="AX84:AX85"/>
+    <mergeCell ref="AY84:AY85"/>
+    <mergeCell ref="BB84:BB85"/>
+    <mergeCell ref="BD84:BD85"/>
+    <mergeCell ref="BE84:BE85"/>
+    <mergeCell ref="BF84:BF85"/>
+    <mergeCell ref="AQ84:AQ85"/>
+    <mergeCell ref="AS84:AS85"/>
+    <mergeCell ref="AT84:AT85"/>
+    <mergeCell ref="AU84:AU85"/>
+    <mergeCell ref="AV84:AV85"/>
+    <mergeCell ref="AW84:AW85"/>
+    <mergeCell ref="BM84:BM85"/>
+    <mergeCell ref="BN84:BN85"/>
+    <mergeCell ref="BO84:BO85"/>
+    <mergeCell ref="BP84:BP85"/>
+    <mergeCell ref="BQ84:BQ85"/>
+    <mergeCell ref="BR84:BR85"/>
+    <mergeCell ref="BG84:BG85"/>
+    <mergeCell ref="BH84:BH85"/>
+    <mergeCell ref="BI84:BI85"/>
+    <mergeCell ref="BJ84:BJ85"/>
+    <mergeCell ref="BK84:BK85"/>
+    <mergeCell ref="BL84:BL85"/>
+    <mergeCell ref="CC84:CC85"/>
+    <mergeCell ref="CD84:CD85"/>
+    <mergeCell ref="CE84:CE85"/>
+    <mergeCell ref="BS84:BS85"/>
+    <mergeCell ref="BT84:BT85"/>
+    <mergeCell ref="BV84:BV85"/>
+    <mergeCell ref="BW84:BW85"/>
+    <mergeCell ref="BX84:BX85"/>
+    <mergeCell ref="BY84:BY85"/>
     <mergeCell ref="AL86:AY86"/>
     <mergeCell ref="BA86:BK86"/>
     <mergeCell ref="BL86:BT86"/>
@@ -21208,334 +21539,6 @@
     <mergeCell ref="BZ84:BZ85"/>
     <mergeCell ref="CA84:CA85"/>
     <mergeCell ref="CB84:CB85"/>
-    <mergeCell ref="CC84:CC85"/>
-    <mergeCell ref="CD84:CD85"/>
-    <mergeCell ref="CE84:CE85"/>
-    <mergeCell ref="BS84:BS85"/>
-    <mergeCell ref="BT84:BT85"/>
-    <mergeCell ref="BV84:BV85"/>
-    <mergeCell ref="BW84:BW85"/>
-    <mergeCell ref="BX84:BX85"/>
-    <mergeCell ref="BY84:BY85"/>
-    <mergeCell ref="BM84:BM85"/>
-    <mergeCell ref="BN84:BN85"/>
-    <mergeCell ref="BO84:BO85"/>
-    <mergeCell ref="BP84:BP85"/>
-    <mergeCell ref="BQ84:BQ85"/>
-    <mergeCell ref="BR84:BR85"/>
-    <mergeCell ref="BG84:BG85"/>
-    <mergeCell ref="BH84:BH85"/>
-    <mergeCell ref="BI84:BI85"/>
-    <mergeCell ref="BJ84:BJ85"/>
-    <mergeCell ref="BK84:BK85"/>
-    <mergeCell ref="BL84:BL85"/>
-    <mergeCell ref="AX84:AX85"/>
-    <mergeCell ref="AY84:AY85"/>
-    <mergeCell ref="BB84:BB85"/>
-    <mergeCell ref="BD84:BD85"/>
-    <mergeCell ref="BE84:BE85"/>
-    <mergeCell ref="BF84:BF85"/>
-    <mergeCell ref="AQ84:AQ85"/>
-    <mergeCell ref="AS84:AS85"/>
-    <mergeCell ref="AT84:AT85"/>
-    <mergeCell ref="AU84:AU85"/>
-    <mergeCell ref="AV84:AV85"/>
-    <mergeCell ref="AW84:AW85"/>
-    <mergeCell ref="AK84:AK85"/>
-    <mergeCell ref="AL84:AL85"/>
-    <mergeCell ref="AM84:AM85"/>
-    <mergeCell ref="AN84:AN85"/>
-    <mergeCell ref="AO84:AO85"/>
-    <mergeCell ref="AP84:AP85"/>
-    <mergeCell ref="AE84:AE85"/>
-    <mergeCell ref="AF84:AF85"/>
-    <mergeCell ref="AG84:AG85"/>
-    <mergeCell ref="AH84:AH85"/>
-    <mergeCell ref="AI84:AI85"/>
-    <mergeCell ref="AJ84:AJ85"/>
-    <mergeCell ref="Y84:Y85"/>
-    <mergeCell ref="Z84:Z85"/>
-    <mergeCell ref="AA84:AA85"/>
-    <mergeCell ref="AB84:AB85"/>
-    <mergeCell ref="AC84:AC85"/>
-    <mergeCell ref="AD84:AD85"/>
-    <mergeCell ref="S84:S85"/>
-    <mergeCell ref="T84:T85"/>
-    <mergeCell ref="U84:U85"/>
-    <mergeCell ref="V84:V85"/>
-    <mergeCell ref="W84:W85"/>
-    <mergeCell ref="X84:X85"/>
-    <mergeCell ref="L84:L85"/>
-    <mergeCell ref="M84:M85"/>
-    <mergeCell ref="N84:N85"/>
-    <mergeCell ref="O84:O85"/>
-    <mergeCell ref="P84:P85"/>
-    <mergeCell ref="Q84:Q85"/>
-    <mergeCell ref="CM54:CM55"/>
-    <mergeCell ref="CN54:CN55"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="H84:H85"/>
-    <mergeCell ref="I84:I85"/>
-    <mergeCell ref="J84:J85"/>
-    <mergeCell ref="K84:K85"/>
-    <mergeCell ref="CE54:CE55"/>
-    <mergeCell ref="CG54:CG55"/>
-    <mergeCell ref="CH54:CH55"/>
-    <mergeCell ref="CI54:CI55"/>
-    <mergeCell ref="CJ54:CJ55"/>
-    <mergeCell ref="CK54:CK55"/>
-    <mergeCell ref="BY54:BY55"/>
-    <mergeCell ref="BZ54:BZ55"/>
-    <mergeCell ref="CA54:CA55"/>
-    <mergeCell ref="CB54:CB55"/>
-    <mergeCell ref="CC54:CC55"/>
-    <mergeCell ref="CD54:CD55"/>
-    <mergeCell ref="BR54:BR55"/>
-    <mergeCell ref="BS54:BS55"/>
-    <mergeCell ref="BT54:BT55"/>
-    <mergeCell ref="BV54:BV55"/>
-    <mergeCell ref="BW54:BW55"/>
-    <mergeCell ref="BX54:BX55"/>
-    <mergeCell ref="BL54:BL55"/>
-    <mergeCell ref="BM54:BM55"/>
-    <mergeCell ref="BN54:BN55"/>
-    <mergeCell ref="BO54:BO55"/>
-    <mergeCell ref="BP54:BP55"/>
-    <mergeCell ref="BQ54:BQ55"/>
-    <mergeCell ref="BF54:BF55"/>
-    <mergeCell ref="BG54:BG55"/>
-    <mergeCell ref="BH54:BH55"/>
-    <mergeCell ref="BI54:BI55"/>
-    <mergeCell ref="BJ54:BJ55"/>
-    <mergeCell ref="BK54:BK55"/>
-    <mergeCell ref="AW54:AW55"/>
-    <mergeCell ref="AX54:AX55"/>
-    <mergeCell ref="AY54:AY55"/>
-    <mergeCell ref="BB54:BB55"/>
-    <mergeCell ref="BD54:BD55"/>
-    <mergeCell ref="BE54:BE55"/>
-    <mergeCell ref="AP54:AP55"/>
-    <mergeCell ref="AQ54:AQ55"/>
-    <mergeCell ref="AS54:AS55"/>
-    <mergeCell ref="AT54:AT55"/>
-    <mergeCell ref="AU54:AU55"/>
-    <mergeCell ref="AV54:AV55"/>
-    <mergeCell ref="AJ54:AJ55"/>
-    <mergeCell ref="AK54:AK55"/>
-    <mergeCell ref="AL54:AL55"/>
-    <mergeCell ref="AM54:AM55"/>
-    <mergeCell ref="AN54:AN55"/>
-    <mergeCell ref="AO54:AO55"/>
-    <mergeCell ref="AD54:AD55"/>
-    <mergeCell ref="AE54:AE55"/>
-    <mergeCell ref="AF54:AF55"/>
-    <mergeCell ref="AG54:AG55"/>
-    <mergeCell ref="AH54:AH55"/>
-    <mergeCell ref="AI54:AI55"/>
-    <mergeCell ref="X54:X55"/>
-    <mergeCell ref="Y54:Y55"/>
-    <mergeCell ref="Z54:Z55"/>
-    <mergeCell ref="AA54:AA55"/>
-    <mergeCell ref="AB54:AB55"/>
-    <mergeCell ref="AC54:AC55"/>
-    <mergeCell ref="Q54:Q55"/>
-    <mergeCell ref="S54:S55"/>
-    <mergeCell ref="T54:T55"/>
-    <mergeCell ref="U54:U55"/>
-    <mergeCell ref="V54:V55"/>
-    <mergeCell ref="W54:W55"/>
-    <mergeCell ref="K54:K55"/>
-    <mergeCell ref="L54:L55"/>
-    <mergeCell ref="M54:M55"/>
-    <mergeCell ref="N54:N55"/>
-    <mergeCell ref="O54:O55"/>
-    <mergeCell ref="P54:P55"/>
-    <mergeCell ref="CK23:CK24"/>
-    <mergeCell ref="CM23:CM24"/>
-    <mergeCell ref="CN23:CN24"/>
-    <mergeCell ref="CG23:CG24"/>
-    <mergeCell ref="CH23:CH24"/>
-    <mergeCell ref="CI23:CI24"/>
-    <mergeCell ref="CJ23:CJ24"/>
-    <mergeCell ref="BN23:BN24"/>
-    <mergeCell ref="BO23:BO24"/>
-    <mergeCell ref="BP23:BP24"/>
-    <mergeCell ref="BE23:BE24"/>
-    <mergeCell ref="BF23:BF24"/>
-    <mergeCell ref="BG23:BG24"/>
-    <mergeCell ref="BH23:BH24"/>
-    <mergeCell ref="BI23:BI24"/>
-    <mergeCell ref="BJ23:BJ24"/>
-    <mergeCell ref="AV23:AV24"/>
-    <mergeCell ref="AW23:AW24"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="H54:H55"/>
-    <mergeCell ref="I54:I55"/>
-    <mergeCell ref="J54:J55"/>
-    <mergeCell ref="CD23:CD24"/>
-    <mergeCell ref="CE23:CE24"/>
-    <mergeCell ref="BX23:BX24"/>
-    <mergeCell ref="BY23:BY24"/>
-    <mergeCell ref="BZ23:BZ24"/>
-    <mergeCell ref="CA23:CA24"/>
-    <mergeCell ref="CB23:CB24"/>
-    <mergeCell ref="CC23:CC24"/>
-    <mergeCell ref="BQ23:BQ24"/>
-    <mergeCell ref="BR23:BR24"/>
-    <mergeCell ref="BS23:BS24"/>
-    <mergeCell ref="BT23:BT24"/>
-    <mergeCell ref="BV23:BV24"/>
-    <mergeCell ref="BW23:BW24"/>
-    <mergeCell ref="BK23:BK24"/>
-    <mergeCell ref="BL23:BL24"/>
-    <mergeCell ref="BM23:BM24"/>
-    <mergeCell ref="AX23:AX24"/>
-    <mergeCell ref="AY23:AY24"/>
-    <mergeCell ref="BB23:BB24"/>
-    <mergeCell ref="BD23:BD24"/>
-    <mergeCell ref="AO23:AO24"/>
-    <mergeCell ref="AP23:AP24"/>
-    <mergeCell ref="AQ23:AQ24"/>
-    <mergeCell ref="AS23:AS24"/>
-    <mergeCell ref="AT23:AT24"/>
-    <mergeCell ref="AU23:AU24"/>
-    <mergeCell ref="AI23:AI24"/>
-    <mergeCell ref="AJ23:AJ24"/>
-    <mergeCell ref="AK23:AK24"/>
-    <mergeCell ref="AL23:AL24"/>
-    <mergeCell ref="AM23:AM24"/>
-    <mergeCell ref="AN23:AN24"/>
-    <mergeCell ref="AC23:AC24"/>
-    <mergeCell ref="AD23:AD24"/>
-    <mergeCell ref="AE23:AE24"/>
-    <mergeCell ref="AF23:AF24"/>
-    <mergeCell ref="AG23:AG24"/>
-    <mergeCell ref="AH23:AH24"/>
-    <mergeCell ref="W23:W24"/>
-    <mergeCell ref="X23:X24"/>
-    <mergeCell ref="Y23:Y24"/>
-    <mergeCell ref="Z23:Z24"/>
-    <mergeCell ref="AA23:AA24"/>
-    <mergeCell ref="AB23:AB24"/>
-    <mergeCell ref="P23:P24"/>
-    <mergeCell ref="Q23:Q24"/>
-    <mergeCell ref="S23:S24"/>
-    <mergeCell ref="T23:T24"/>
-    <mergeCell ref="U23:U24"/>
-    <mergeCell ref="V23:V24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="CH2:CH3"/>
-    <mergeCell ref="CI2:CI3"/>
-    <mergeCell ref="CJ2:CJ3"/>
-    <mergeCell ref="CK2:CK3"/>
-    <mergeCell ref="CM2:CM3"/>
-    <mergeCell ref="CN2:CN3"/>
-    <mergeCell ref="CA2:CA3"/>
-    <mergeCell ref="CB2:CB3"/>
-    <mergeCell ref="CC2:CC3"/>
-    <mergeCell ref="CD2:CD3"/>
-    <mergeCell ref="CE2:CE3"/>
-    <mergeCell ref="CG2:CG3"/>
-    <mergeCell ref="BT2:BT3"/>
-    <mergeCell ref="BV2:BV3"/>
-    <mergeCell ref="BW2:BW3"/>
-    <mergeCell ref="BX2:BX3"/>
-    <mergeCell ref="BY2:BY3"/>
-    <mergeCell ref="BZ2:BZ3"/>
-    <mergeCell ref="BN2:BN3"/>
-    <mergeCell ref="BO2:BO3"/>
-    <mergeCell ref="BP2:BP3"/>
-    <mergeCell ref="BQ2:BQ3"/>
-    <mergeCell ref="BR2:BR3"/>
-    <mergeCell ref="BS2:BS3"/>
-    <mergeCell ref="BH2:BH3"/>
-    <mergeCell ref="BI2:BI3"/>
-    <mergeCell ref="BJ2:BJ3"/>
-    <mergeCell ref="BK2:BK3"/>
-    <mergeCell ref="BL2:BL3"/>
-    <mergeCell ref="BM2:BM3"/>
-    <mergeCell ref="AY2:AY3"/>
-    <mergeCell ref="BB2:BB3"/>
-    <mergeCell ref="BD2:BD3"/>
-    <mergeCell ref="BE2:BE3"/>
-    <mergeCell ref="BF2:BF3"/>
-    <mergeCell ref="BG2:BG3"/>
-    <mergeCell ref="AS2:AS3"/>
-    <mergeCell ref="AT2:AT3"/>
-    <mergeCell ref="AU2:AU3"/>
-    <mergeCell ref="AV2:AV3"/>
-    <mergeCell ref="AW2:AW3"/>
-    <mergeCell ref="AX2:AX3"/>
-    <mergeCell ref="AL2:AL3"/>
-    <mergeCell ref="AM2:AM3"/>
-    <mergeCell ref="AN2:AN3"/>
-    <mergeCell ref="AO2:AO3"/>
-    <mergeCell ref="AP2:AP3"/>
-    <mergeCell ref="AQ2:AQ3"/>
-    <mergeCell ref="AF2:AF3"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="AJ2:AJ3"/>
-    <mergeCell ref="AK2:AK3"/>
-    <mergeCell ref="Z2:Z3"/>
-    <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="CE1:CK1"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="AG1:AK1"/>
-    <mergeCell ref="AL1:AY1"/>
-    <mergeCell ref="BA1:BK1"/>
-    <mergeCell ref="BL1:BT1"/>
-    <mergeCell ref="BU1:CD1"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="S1:W1"/>
-    <mergeCell ref="X1:AD1"/>
-    <mergeCell ref="T2:T3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" location="Argentina" tooltip="2019–20 coronavirus pandemic by country and territory" display="https://en.wikipedia.org/wiki/2019%E2%80%9320_coronavirus_pandemic_by_country_and_territory - Argentina" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
@@ -22111,8 +22114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:DA119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CF66" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="CC86" sqref="CC86"/>
+    <sheetView tabSelected="1" topLeftCell="CF63" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="CK88" sqref="CK88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22268,43 +22271,43 @@
       <c r="A2" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="I2" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="J2" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="K2" s="29" t="s">
+      <c r="K2" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="L2" s="29" t="s">
+      <c r="L2" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="M2" s="29" t="s">
+      <c r="M2" s="30" t="s">
         <v>177</v>
       </c>
-      <c r="N2" s="29" t="s">
+      <c r="N2" s="30" t="s">
         <v>165</v>
       </c>
       <c r="O2" s="9" t="s">
@@ -22313,148 +22316,148 @@
       <c r="P2" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="Q2" s="29" t="s">
+      <c r="Q2" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="R2" s="29" t="s">
+      <c r="R2" s="30" t="s">
         <v>234</v>
       </c>
-      <c r="S2" s="29" t="s">
+      <c r="S2" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="T2" s="29" t="s">
+      <c r="T2" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="U2" s="29" t="s">
+      <c r="U2" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="V2" s="29" t="s">
+      <c r="V2" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="W2" s="29" t="s">
+      <c r="W2" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="X2" s="29" t="s">
+      <c r="X2" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="Y2" s="29" t="s">
+      <c r="Y2" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="Z2" s="29" t="s">
+      <c r="Z2" s="30" t="s">
         <v>47</v>
       </c>
       <c r="AA2" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="AB2" s="29" t="s">
+      <c r="AB2" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="AC2" s="29" t="s">
+      <c r="AC2" s="30" t="s">
         <v>235</v>
       </c>
-      <c r="AD2" s="29" t="s">
+      <c r="AD2" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="AE2" s="29" t="s">
+      <c r="AE2" s="30" t="s">
         <v>236</v>
       </c>
-      <c r="AF2" s="29" t="s">
+      <c r="AF2" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="AG2" s="29" t="s">
+      <c r="AG2" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="AH2" s="29" t="s">
+      <c r="AH2" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="AI2" s="29" t="s">
+      <c r="AI2" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="AJ2" s="29" t="s">
+      <c r="AJ2" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="AK2" s="29" t="s">
+      <c r="AK2" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="AL2" s="29" t="s">
+      <c r="AL2" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="AM2" s="29" t="s">
+      <c r="AM2" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="AN2" s="29" t="s">
+      <c r="AN2" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="AO2" s="29" t="s">
+      <c r="AO2" s="30" t="s">
         <v>671</v>
       </c>
-      <c r="AP2" s="29" t="s">
+      <c r="AP2" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="AQ2" s="29" t="s">
+      <c r="AQ2" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="AR2" s="29" t="s">
+      <c r="AR2" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="AS2" s="29" t="s">
+      <c r="AS2" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="AT2" s="29" t="s">
+      <c r="AT2" s="30" t="s">
         <v>189</v>
       </c>
-      <c r="AU2" s="29" t="s">
+      <c r="AU2" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="AV2" s="29" t="s">
+      <c r="AV2" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="AW2" s="29" t="s">
+      <c r="AW2" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="AX2" s="29" t="s">
+      <c r="AX2" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="AY2" s="29" t="s">
+      <c r="AY2" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="AZ2" s="29" t="s">
+      <c r="AZ2" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="BA2" s="29" t="s">
+      <c r="BA2" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="BB2" s="29" t="s">
+      <c r="BB2" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="BC2" s="29" t="s">
+      <c r="BC2" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="BD2" s="29" t="s">
+      <c r="BD2" s="30" t="s">
         <v>66</v>
       </c>
       <c r="BE2" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="BF2" s="29" t="s">
+      <c r="BF2" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="BG2" s="29" t="s">
+      <c r="BG2" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="BH2" s="29" t="s">
+      <c r="BH2" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="BI2" s="29" t="s">
+      <c r="BI2" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="BJ2" s="29" t="s">
+      <c r="BJ2" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="BK2" s="29" t="s">
+      <c r="BK2" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="BL2" s="29" t="s">
+      <c r="BL2" s="30" t="s">
         <v>28</v>
       </c>
       <c r="BM2" s="8" t="s">
@@ -22463,246 +22466,246 @@
       <c r="BN2" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="BO2" s="29" t="s">
+      <c r="BO2" s="30" t="s">
         <v>48</v>
       </c>
       <c r="BP2" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="BQ2" s="29" t="s">
+      <c r="BQ2" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="BR2" s="29" t="s">
+      <c r="BR2" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="BS2" s="29" t="s">
+      <c r="BS2" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="BT2" s="29" t="s">
+      <c r="BT2" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="BU2" s="29" t="s">
+      <c r="BU2" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="BV2" s="29" t="s">
+      <c r="BV2" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="BW2" s="29" t="s">
+      <c r="BW2" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="BX2" s="29" t="s">
+      <c r="BX2" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="BY2" s="29" t="s">
+      <c r="BY2" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="BZ2" s="29" t="s">
+      <c r="BZ2" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="CA2" s="29" t="s">
+      <c r="CA2" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="CB2" s="29" t="s">
+      <c r="CB2" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="CC2" s="29" t="s">
+      <c r="CC2" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="CD2" s="29" t="s">
+      <c r="CD2" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="CE2" s="29" t="s">
+      <c r="CE2" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="CF2" s="29" t="s">
+      <c r="CF2" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="CG2" s="29" t="s">
+      <c r="CG2" s="30" t="s">
         <v>20</v>
       </c>
       <c r="CH2" s="9" t="s">
         <v>679</v>
       </c>
-      <c r="CI2" s="29" t="s">
+      <c r="CI2" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="CJ2" s="29" t="s">
+      <c r="CJ2" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="CK2" s="29" t="s">
+      <c r="CK2" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="CL2" s="29" t="s">
+      <c r="CL2" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="CM2" s="29" t="s">
+      <c r="CM2" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="CN2" s="29" t="s">
+      <c r="CN2" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="CO2" s="29" t="s">
+      <c r="CO2" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="CP2" s="29" t="s">
+      <c r="CP2" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="CQ2" s="29" t="s">
+      <c r="CQ2" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="CR2" s="29" t="s">
+      <c r="CR2" s="30" t="s">
         <v>41</v>
       </c>
       <c r="CS2" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="CT2" s="29" t="s">
+      <c r="CT2" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="CU2" s="29" t="s">
+      <c r="CU2" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="CV2" s="29" t="s">
+      <c r="CV2" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="CW2" s="29" t="s">
+      <c r="CW2" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="CX2" s="29" t="s">
+      <c r="CX2" s="30" t="s">
         <v>45</v>
       </c>
       <c r="CY2" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="CZ2" s="30" t="s">
+      <c r="CZ2" s="29" t="s">
         <v>248</v>
       </c>
-      <c r="DA2" s="30" t="s">
+      <c r="DA2" s="29" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:105" ht="87.6" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
       <c r="O3" s="9" t="s">
         <v>231</v>
       </c>
       <c r="P3" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="29"/>
-      <c r="T3" s="29"/>
-      <c r="U3" s="29"/>
-      <c r="V3" s="29"/>
-      <c r="W3" s="29"/>
-      <c r="X3" s="29"/>
-      <c r="Y3" s="29"/>
-      <c r="Z3" s="29"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="30"/>
+      <c r="V3" s="30"/>
+      <c r="W3" s="30"/>
+      <c r="X3" s="30"/>
+      <c r="Y3" s="30"/>
+      <c r="Z3" s="30"/>
       <c r="AA3" s="8"/>
-      <c r="AB3" s="29"/>
-      <c r="AC3" s="29"/>
-      <c r="AD3" s="29"/>
-      <c r="AE3" s="29"/>
-      <c r="AF3" s="29"/>
-      <c r="AG3" s="29"/>
-      <c r="AH3" s="29"/>
-      <c r="AI3" s="29"/>
-      <c r="AJ3" s="29"/>
-      <c r="AK3" s="29"/>
-      <c r="AL3" s="29"/>
-      <c r="AM3" s="29"/>
-      <c r="AN3" s="29"/>
-      <c r="AO3" s="29"/>
-      <c r="AP3" s="29"/>
-      <c r="AQ3" s="29"/>
-      <c r="AR3" s="29"/>
-      <c r="AS3" s="29"/>
-      <c r="AT3" s="29"/>
-      <c r="AU3" s="29"/>
-      <c r="AV3" s="29"/>
-      <c r="AW3" s="29"/>
-      <c r="AX3" s="29"/>
-      <c r="AY3" s="29"/>
-      <c r="AZ3" s="29"/>
-      <c r="BA3" s="29"/>
-      <c r="BB3" s="29"/>
-      <c r="BC3" s="29"/>
-      <c r="BD3" s="29"/>
+      <c r="AB3" s="30"/>
+      <c r="AC3" s="30"/>
+      <c r="AD3" s="30"/>
+      <c r="AE3" s="30"/>
+      <c r="AF3" s="30"/>
+      <c r="AG3" s="30"/>
+      <c r="AH3" s="30"/>
+      <c r="AI3" s="30"/>
+      <c r="AJ3" s="30"/>
+      <c r="AK3" s="30"/>
+      <c r="AL3" s="30"/>
+      <c r="AM3" s="30"/>
+      <c r="AN3" s="30"/>
+      <c r="AO3" s="30"/>
+      <c r="AP3" s="30"/>
+      <c r="AQ3" s="30"/>
+      <c r="AR3" s="30"/>
+      <c r="AS3" s="30"/>
+      <c r="AT3" s="30"/>
+      <c r="AU3" s="30"/>
+      <c r="AV3" s="30"/>
+      <c r="AW3" s="30"/>
+      <c r="AX3" s="30"/>
+      <c r="AY3" s="30"/>
+      <c r="AZ3" s="30"/>
+      <c r="BA3" s="30"/>
+      <c r="BB3" s="30"/>
+      <c r="BC3" s="30"/>
+      <c r="BD3" s="30"/>
       <c r="BE3" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="BF3" s="29"/>
-      <c r="BG3" s="29"/>
-      <c r="BH3" s="29"/>
-      <c r="BI3" s="29"/>
-      <c r="BJ3" s="29"/>
-      <c r="BK3" s="29"/>
-      <c r="BL3" s="29"/>
+      <c r="BF3" s="30"/>
+      <c r="BG3" s="30"/>
+      <c r="BH3" s="30"/>
+      <c r="BI3" s="30"/>
+      <c r="BJ3" s="30"/>
+      <c r="BK3" s="30"/>
+      <c r="BL3" s="30"/>
       <c r="BM3" s="8"/>
       <c r="BN3" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="BO3" s="29"/>
+      <c r="BO3" s="30"/>
       <c r="BP3" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="BQ3" s="29"/>
-      <c r="BR3" s="29"/>
-      <c r="BS3" s="29"/>
-      <c r="BT3" s="29"/>
-      <c r="BU3" s="29"/>
-      <c r="BV3" s="29"/>
-      <c r="BW3" s="29"/>
-      <c r="BX3" s="29"/>
-      <c r="BY3" s="29"/>
-      <c r="BZ3" s="29"/>
-      <c r="CA3" s="29"/>
-      <c r="CB3" s="29"/>
-      <c r="CC3" s="29"/>
-      <c r="CD3" s="29"/>
-      <c r="CE3" s="29"/>
-      <c r="CF3" s="29"/>
-      <c r="CG3" s="29"/>
+      <c r="BQ3" s="30"/>
+      <c r="BR3" s="30"/>
+      <c r="BS3" s="30"/>
+      <c r="BT3" s="30"/>
+      <c r="BU3" s="30"/>
+      <c r="BV3" s="30"/>
+      <c r="BW3" s="30"/>
+      <c r="BX3" s="30"/>
+      <c r="BY3" s="30"/>
+      <c r="BZ3" s="30"/>
+      <c r="CA3" s="30"/>
+      <c r="CB3" s="30"/>
+      <c r="CC3" s="30"/>
+      <c r="CD3" s="30"/>
+      <c r="CE3" s="30"/>
+      <c r="CF3" s="30"/>
+      <c r="CG3" s="30"/>
       <c r="CH3" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="CI3" s="29"/>
-      <c r="CJ3" s="29"/>
-      <c r="CK3" s="29"/>
-      <c r="CL3" s="29"/>
-      <c r="CM3" s="29"/>
-      <c r="CN3" s="29"/>
-      <c r="CO3" s="29"/>
-      <c r="CP3" s="29"/>
-      <c r="CQ3" s="29"/>
-      <c r="CR3" s="29"/>
+      <c r="CI3" s="30"/>
+      <c r="CJ3" s="30"/>
+      <c r="CK3" s="30"/>
+      <c r="CL3" s="30"/>
+      <c r="CM3" s="30"/>
+      <c r="CN3" s="30"/>
+      <c r="CO3" s="30"/>
+      <c r="CP3" s="30"/>
+      <c r="CQ3" s="30"/>
+      <c r="CR3" s="30"/>
       <c r="CS3" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="CT3" s="29"/>
-      <c r="CU3" s="29"/>
-      <c r="CV3" s="29"/>
-      <c r="CW3" s="29"/>
-      <c r="CX3" s="29"/>
+      <c r="CT3" s="30"/>
+      <c r="CU3" s="30"/>
+      <c r="CV3" s="30"/>
+      <c r="CW3" s="30"/>
+      <c r="CX3" s="30"/>
       <c r="CY3" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="CZ3" s="30"/>
-      <c r="DA3" s="30"/>
+      <c r="CZ3" s="29"/>
+      <c r="DA3" s="29"/>
     </row>
     <row r="4" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
@@ -25099,43 +25102,43 @@
       <c r="A23" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="29" t="s">
+      <c r="D23" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="E23" s="29" t="s">
+      <c r="E23" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="F23" s="29" t="s">
+      <c r="F23" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="G23" s="29" t="s">
+      <c r="G23" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="H23" s="29" t="s">
+      <c r="H23" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="I23" s="29" t="s">
+      <c r="I23" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="J23" s="29" t="s">
+      <c r="J23" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="K23" s="29" t="s">
+      <c r="K23" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="L23" s="29" t="s">
+      <c r="L23" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="M23" s="29" t="s">
+      <c r="M23" s="30" t="s">
         <v>177</v>
       </c>
-      <c r="N23" s="29" t="s">
+      <c r="N23" s="30" t="s">
         <v>165</v>
       </c>
       <c r="O23" s="9" t="s">
@@ -25144,148 +25147,148 @@
       <c r="P23" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="Q23" s="29" t="s">
+      <c r="Q23" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="R23" s="29" t="s">
+      <c r="R23" s="30" t="s">
         <v>234</v>
       </c>
-      <c r="S23" s="29" t="s">
+      <c r="S23" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="T23" s="29" t="s">
+      <c r="T23" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="U23" s="29" t="s">
+      <c r="U23" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="V23" s="29" t="s">
+      <c r="V23" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="W23" s="29" t="s">
+      <c r="W23" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="X23" s="29" t="s">
+      <c r="X23" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="Y23" s="29" t="s">
+      <c r="Y23" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="Z23" s="29" t="s">
+      <c r="Z23" s="30" t="s">
         <v>47</v>
       </c>
       <c r="AA23" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="AB23" s="29" t="s">
+      <c r="AB23" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="AC23" s="29" t="s">
+      <c r="AC23" s="30" t="s">
         <v>235</v>
       </c>
-      <c r="AD23" s="29" t="s">
+      <c r="AD23" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="AE23" s="29" t="s">
+      <c r="AE23" s="30" t="s">
         <v>236</v>
       </c>
-      <c r="AF23" s="29" t="s">
+      <c r="AF23" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="AG23" s="29" t="s">
+      <c r="AG23" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="AH23" s="29" t="s">
+      <c r="AH23" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="AI23" s="29" t="s">
+      <c r="AI23" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="AJ23" s="29" t="s">
+      <c r="AJ23" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="AK23" s="29" t="s">
+      <c r="AK23" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="AL23" s="29" t="s">
+      <c r="AL23" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="AM23" s="29" t="s">
+      <c r="AM23" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="AN23" s="29" t="s">
+      <c r="AN23" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="AO23" s="29" t="s">
+      <c r="AO23" s="30" t="s">
         <v>671</v>
       </c>
-      <c r="AP23" s="29" t="s">
+      <c r="AP23" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="AQ23" s="29" t="s">
+      <c r="AQ23" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="AR23" s="29" t="s">
+      <c r="AR23" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="AS23" s="29" t="s">
+      <c r="AS23" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="AT23" s="29" t="s">
+      <c r="AT23" s="30" t="s">
         <v>189</v>
       </c>
-      <c r="AU23" s="29" t="s">
+      <c r="AU23" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="AV23" s="29" t="s">
+      <c r="AV23" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="AW23" s="29" t="s">
+      <c r="AW23" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="AX23" s="29" t="s">
+      <c r="AX23" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="AY23" s="29" t="s">
+      <c r="AY23" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="AZ23" s="29" t="s">
+      <c r="AZ23" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="BA23" s="29" t="s">
+      <c r="BA23" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="BB23" s="29" t="s">
+      <c r="BB23" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="BC23" s="29" t="s">
+      <c r="BC23" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="BD23" s="29" t="s">
+      <c r="BD23" s="30" t="s">
         <v>66</v>
       </c>
       <c r="BE23" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="BF23" s="29" t="s">
+      <c r="BF23" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="BG23" s="29" t="s">
+      <c r="BG23" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="BH23" s="29" t="s">
+      <c r="BH23" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="BI23" s="29" t="s">
+      <c r="BI23" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="BJ23" s="29" t="s">
+      <c r="BJ23" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="BK23" s="29" t="s">
+      <c r="BK23" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="BL23" s="29" t="s">
+      <c r="BL23" s="30" t="s">
         <v>28</v>
       </c>
       <c r="BM23" s="8" t="s">
@@ -25294,121 +25297,121 @@
       <c r="BN23" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="BO23" s="29" t="s">
+      <c r="BO23" s="30" t="s">
         <v>48</v>
       </c>
       <c r="BP23" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="BQ23" s="29" t="s">
+      <c r="BQ23" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="BR23" s="29" t="s">
+      <c r="BR23" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="BS23" s="29" t="s">
+      <c r="BS23" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="BT23" s="29" t="s">
+      <c r="BT23" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="BU23" s="29" t="s">
+      <c r="BU23" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="BV23" s="29" t="s">
+      <c r="BV23" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="BW23" s="29" t="s">
+      <c r="BW23" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="BX23" s="29" t="s">
+      <c r="BX23" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="BY23" s="29" t="s">
+      <c r="BY23" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="BZ23" s="29" t="s">
+      <c r="BZ23" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="CA23" s="29" t="s">
+      <c r="CA23" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="CB23" s="29" t="s">
+      <c r="CB23" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="CC23" s="29" t="s">
+      <c r="CC23" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="CD23" s="29" t="s">
+      <c r="CD23" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="CE23" s="29" t="s">
+      <c r="CE23" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="CF23" s="29" t="s">
+      <c r="CF23" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="CG23" s="29" t="s">
+      <c r="CG23" s="30" t="s">
         <v>20</v>
       </c>
       <c r="CH23" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="CI23" s="29" t="s">
+      <c r="CI23" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="CJ23" s="29" t="s">
+      <c r="CJ23" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="CK23" s="29" t="s">
+      <c r="CK23" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="CL23" s="29" t="s">
+      <c r="CL23" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="CM23" s="29" t="s">
+      <c r="CM23" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="CN23" s="29" t="s">
+      <c r="CN23" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="CO23" s="29" t="s">
+      <c r="CO23" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="CP23" s="29" t="s">
+      <c r="CP23" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="CQ23" s="29" t="s">
+      <c r="CQ23" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="CR23" s="29" t="s">
+      <c r="CR23" s="30" t="s">
         <v>41</v>
       </c>
       <c r="CS23" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="CT23" s="29" t="s">
+      <c r="CT23" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="CU23" s="29" t="s">
+      <c r="CU23" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="CV23" s="29" t="s">
+      <c r="CV23" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="CW23" s="29" t="s">
+      <c r="CW23" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="CX23" s="29" t="s">
+      <c r="CX23" s="30" t="s">
         <v>45</v>
       </c>
       <c r="CY23" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="CZ23" s="30" t="s">
+      <c r="CZ23" s="29" t="s">
         <v>248</v>
       </c>
-      <c r="DA23" s="30" t="s">
+      <c r="DA23" s="29" t="s">
         <v>249</v>
       </c>
     </row>
@@ -25416,130 +25419,130 @@
       <c r="A24" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="30"/>
+      <c r="N24" s="30"/>
       <c r="O24" s="9" t="s">
         <v>231</v>
       </c>
       <c r="P24" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="Q24" s="29"/>
-      <c r="R24" s="29"/>
-      <c r="S24" s="29"/>
-      <c r="T24" s="29"/>
-      <c r="U24" s="29"/>
-      <c r="V24" s="29"/>
-      <c r="W24" s="29"/>
-      <c r="X24" s="29"/>
-      <c r="Y24" s="29"/>
-      <c r="Z24" s="29"/>
+      <c r="Q24" s="30"/>
+      <c r="R24" s="30"/>
+      <c r="S24" s="30"/>
+      <c r="T24" s="30"/>
+      <c r="U24" s="30"/>
+      <c r="V24" s="30"/>
+      <c r="W24" s="30"/>
+      <c r="X24" s="30"/>
+      <c r="Y24" s="30"/>
+      <c r="Z24" s="30"/>
       <c r="AA24" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="AB24" s="29"/>
-      <c r="AC24" s="29"/>
-      <c r="AD24" s="29"/>
-      <c r="AE24" s="29"/>
-      <c r="AF24" s="29"/>
-      <c r="AG24" s="29"/>
-      <c r="AH24" s="29"/>
-      <c r="AI24" s="29"/>
-      <c r="AJ24" s="29"/>
-      <c r="AK24" s="29"/>
-      <c r="AL24" s="29"/>
-      <c r="AM24" s="29"/>
-      <c r="AN24" s="29"/>
-      <c r="AO24" s="29"/>
-      <c r="AP24" s="29"/>
-      <c r="AQ24" s="29"/>
-      <c r="AR24" s="29"/>
-      <c r="AS24" s="29"/>
-      <c r="AT24" s="29"/>
-      <c r="AU24" s="29"/>
-      <c r="AV24" s="29"/>
-      <c r="AW24" s="29"/>
-      <c r="AX24" s="29"/>
-      <c r="AY24" s="29"/>
-      <c r="AZ24" s="29"/>
-      <c r="BA24" s="29"/>
-      <c r="BB24" s="29"/>
-      <c r="BC24" s="29"/>
-      <c r="BD24" s="29"/>
+      <c r="AB24" s="30"/>
+      <c r="AC24" s="30"/>
+      <c r="AD24" s="30"/>
+      <c r="AE24" s="30"/>
+      <c r="AF24" s="30"/>
+      <c r="AG24" s="30"/>
+      <c r="AH24" s="30"/>
+      <c r="AI24" s="30"/>
+      <c r="AJ24" s="30"/>
+      <c r="AK24" s="30"/>
+      <c r="AL24" s="30"/>
+      <c r="AM24" s="30"/>
+      <c r="AN24" s="30"/>
+      <c r="AO24" s="30"/>
+      <c r="AP24" s="30"/>
+      <c r="AQ24" s="30"/>
+      <c r="AR24" s="30"/>
+      <c r="AS24" s="30"/>
+      <c r="AT24" s="30"/>
+      <c r="AU24" s="30"/>
+      <c r="AV24" s="30"/>
+      <c r="AW24" s="30"/>
+      <c r="AX24" s="30"/>
+      <c r="AY24" s="30"/>
+      <c r="AZ24" s="30"/>
+      <c r="BA24" s="30"/>
+      <c r="BB24" s="30"/>
+      <c r="BC24" s="30"/>
+      <c r="BD24" s="30"/>
       <c r="BE24" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="BF24" s="29"/>
-      <c r="BG24" s="29"/>
-      <c r="BH24" s="29"/>
-      <c r="BI24" s="29"/>
-      <c r="BJ24" s="29"/>
-      <c r="BK24" s="29"/>
-      <c r="BL24" s="29"/>
+      <c r="BF24" s="30"/>
+      <c r="BG24" s="30"/>
+      <c r="BH24" s="30"/>
+      <c r="BI24" s="30"/>
+      <c r="BJ24" s="30"/>
+      <c r="BK24" s="30"/>
+      <c r="BL24" s="30"/>
       <c r="BM24" s="8" t="s">
         <v>212</v>
       </c>
       <c r="BN24" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="BO24" s="29"/>
+      <c r="BO24" s="30"/>
       <c r="BP24" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="BQ24" s="29"/>
-      <c r="BR24" s="29"/>
-      <c r="BS24" s="29"/>
-      <c r="BT24" s="29"/>
-      <c r="BU24" s="29"/>
-      <c r="BV24" s="29"/>
-      <c r="BW24" s="29"/>
-      <c r="BX24" s="29"/>
-      <c r="BY24" s="29"/>
-      <c r="BZ24" s="29"/>
-      <c r="CA24" s="29"/>
-      <c r="CB24" s="29"/>
-      <c r="CC24" s="29"/>
-      <c r="CD24" s="29"/>
-      <c r="CE24" s="29"/>
-      <c r="CF24" s="29"/>
-      <c r="CG24" s="29"/>
+      <c r="BQ24" s="30"/>
+      <c r="BR24" s="30"/>
+      <c r="BS24" s="30"/>
+      <c r="BT24" s="30"/>
+      <c r="BU24" s="30"/>
+      <c r="BV24" s="30"/>
+      <c r="BW24" s="30"/>
+      <c r="BX24" s="30"/>
+      <c r="BY24" s="30"/>
+      <c r="BZ24" s="30"/>
+      <c r="CA24" s="30"/>
+      <c r="CB24" s="30"/>
+      <c r="CC24" s="30"/>
+      <c r="CD24" s="30"/>
+      <c r="CE24" s="30"/>
+      <c r="CF24" s="30"/>
+      <c r="CG24" s="30"/>
       <c r="CH24" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="CI24" s="29"/>
-      <c r="CJ24" s="29"/>
-      <c r="CK24" s="29"/>
-      <c r="CL24" s="29"/>
-      <c r="CM24" s="29"/>
-      <c r="CN24" s="29"/>
-      <c r="CO24" s="29"/>
-      <c r="CP24" s="29"/>
-      <c r="CQ24" s="29"/>
-      <c r="CR24" s="29"/>
+      <c r="CI24" s="30"/>
+      <c r="CJ24" s="30"/>
+      <c r="CK24" s="30"/>
+      <c r="CL24" s="30"/>
+      <c r="CM24" s="30"/>
+      <c r="CN24" s="30"/>
+      <c r="CO24" s="30"/>
+      <c r="CP24" s="30"/>
+      <c r="CQ24" s="30"/>
+      <c r="CR24" s="30"/>
       <c r="CS24" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="CT24" s="29"/>
-      <c r="CU24" s="29"/>
-      <c r="CV24" s="29"/>
-      <c r="CW24" s="29"/>
-      <c r="CX24" s="29"/>
+      <c r="CT24" s="30"/>
+      <c r="CU24" s="30"/>
+      <c r="CV24" s="30"/>
+      <c r="CW24" s="30"/>
+      <c r="CX24" s="30"/>
       <c r="CY24" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="CZ24" s="30"/>
-      <c r="DA24" s="30"/>
+      <c r="CZ24" s="29"/>
+      <c r="DA24" s="29"/>
     </row>
     <row r="25" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
@@ -29634,43 +29637,43 @@
       <c r="A54" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="B54" s="29" t="s">
+      <c r="B54" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="C54" s="29" t="s">
+      <c r="C54" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="D54" s="29" t="s">
+      <c r="D54" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="E54" s="29" t="s">
+      <c r="E54" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="F54" s="29" t="s">
+      <c r="F54" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="G54" s="29" t="s">
+      <c r="G54" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="H54" s="29" t="s">
+      <c r="H54" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="I54" s="29" t="s">
+      <c r="I54" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="J54" s="29" t="s">
+      <c r="J54" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="K54" s="29" t="s">
+      <c r="K54" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="L54" s="29" t="s">
+      <c r="L54" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="M54" s="29" t="s">
+      <c r="M54" s="30" t="s">
         <v>177</v>
       </c>
-      <c r="N54" s="29" t="s">
+      <c r="N54" s="30" t="s">
         <v>165</v>
       </c>
       <c r="O54" s="9" t="s">
@@ -29679,148 +29682,148 @@
       <c r="P54" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="Q54" s="29" t="s">
+      <c r="Q54" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="R54" s="29" t="s">
+      <c r="R54" s="30" t="s">
         <v>234</v>
       </c>
-      <c r="S54" s="29" t="s">
+      <c r="S54" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="T54" s="29" t="s">
+      <c r="T54" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="U54" s="29" t="s">
+      <c r="U54" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="V54" s="29" t="s">
+      <c r="V54" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="W54" s="29" t="s">
+      <c r="W54" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="X54" s="29" t="s">
+      <c r="X54" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="Y54" s="29" t="s">
+      <c r="Y54" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="Z54" s="29" t="s">
+      <c r="Z54" s="30" t="s">
         <v>47</v>
       </c>
       <c r="AA54" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="AB54" s="29" t="s">
+      <c r="AB54" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="AC54" s="29" t="s">
+      <c r="AC54" s="30" t="s">
         <v>235</v>
       </c>
-      <c r="AD54" s="29" t="s">
+      <c r="AD54" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="AE54" s="29" t="s">
+      <c r="AE54" s="30" t="s">
         <v>236</v>
       </c>
-      <c r="AF54" s="29" t="s">
+      <c r="AF54" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="AG54" s="29" t="s">
+      <c r="AG54" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="AH54" s="29" t="s">
+      <c r="AH54" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="AI54" s="29" t="s">
+      <c r="AI54" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="AJ54" s="29" t="s">
+      <c r="AJ54" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="AK54" s="29" t="s">
+      <c r="AK54" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="AL54" s="29" t="s">
+      <c r="AL54" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="AM54" s="29" t="s">
+      <c r="AM54" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="AN54" s="29" t="s">
+      <c r="AN54" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="AO54" s="29" t="s">
+      <c r="AO54" s="30" t="s">
         <v>671</v>
       </c>
-      <c r="AP54" s="29" t="s">
+      <c r="AP54" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="AQ54" s="29" t="s">
+      <c r="AQ54" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="AR54" s="29" t="s">
+      <c r="AR54" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="AS54" s="29" t="s">
+      <c r="AS54" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="AT54" s="29" t="s">
+      <c r="AT54" s="30" t="s">
         <v>189</v>
       </c>
-      <c r="AU54" s="29" t="s">
+      <c r="AU54" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="AV54" s="29" t="s">
+      <c r="AV54" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="AW54" s="29" t="s">
+      <c r="AW54" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="AX54" s="29" t="s">
+      <c r="AX54" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="AY54" s="29" t="s">
+      <c r="AY54" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="AZ54" s="29" t="s">
+      <c r="AZ54" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="BA54" s="29" t="s">
+      <c r="BA54" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="BB54" s="29" t="s">
+      <c r="BB54" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="BC54" s="29" t="s">
+      <c r="BC54" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="BD54" s="29" t="s">
+      <c r="BD54" s="30" t="s">
         <v>66</v>
       </c>
       <c r="BE54" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="BF54" s="29" t="s">
+      <c r="BF54" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="BG54" s="29" t="s">
+      <c r="BG54" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="BH54" s="29" t="s">
+      <c r="BH54" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="BI54" s="29" t="s">
+      <c r="BI54" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="BJ54" s="29" t="s">
+      <c r="BJ54" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="BK54" s="29" t="s">
+      <c r="BK54" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="BL54" s="29" t="s">
+      <c r="BL54" s="30" t="s">
         <v>28</v>
       </c>
       <c r="BM54" s="8" t="s">
@@ -29829,121 +29832,121 @@
       <c r="BN54" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="BO54" s="29" t="s">
+      <c r="BO54" s="30" t="s">
         <v>48</v>
       </c>
       <c r="BP54" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="BQ54" s="29" t="s">
+      <c r="BQ54" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="BR54" s="29" t="s">
+      <c r="BR54" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="BS54" s="29" t="s">
+      <c r="BS54" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="BT54" s="29" t="s">
+      <c r="BT54" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="BU54" s="29" t="s">
+      <c r="BU54" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="BV54" s="29" t="s">
+      <c r="BV54" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="BW54" s="29" t="s">
+      <c r="BW54" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="BX54" s="29" t="s">
+      <c r="BX54" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="BY54" s="29" t="s">
+      <c r="BY54" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="BZ54" s="29" t="s">
+      <c r="BZ54" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="CA54" s="29" t="s">
+      <c r="CA54" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="CB54" s="29" t="s">
+      <c r="CB54" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="CC54" s="29" t="s">
+      <c r="CC54" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="CD54" s="29" t="s">
+      <c r="CD54" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="CE54" s="29" t="s">
+      <c r="CE54" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="CF54" s="29" t="s">
+      <c r="CF54" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="CG54" s="29" t="s">
+      <c r="CG54" s="30" t="s">
         <v>20</v>
       </c>
       <c r="CH54" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="CI54" s="29" t="s">
+      <c r="CI54" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="CJ54" s="29" t="s">
+      <c r="CJ54" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="CK54" s="29" t="s">
+      <c r="CK54" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="CL54" s="29" t="s">
+      <c r="CL54" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="CM54" s="29" t="s">
+      <c r="CM54" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="CN54" s="29" t="s">
+      <c r="CN54" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="CO54" s="29" t="s">
+      <c r="CO54" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="CP54" s="29" t="s">
+      <c r="CP54" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="CQ54" s="29" t="s">
+      <c r="CQ54" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="CR54" s="29" t="s">
+      <c r="CR54" s="30" t="s">
         <v>41</v>
       </c>
       <c r="CS54" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="CT54" s="29" t="s">
+      <c r="CT54" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="CU54" s="29" t="s">
+      <c r="CU54" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="CV54" s="29" t="s">
+      <c r="CV54" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="CW54" s="29" t="s">
+      <c r="CW54" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="CX54" s="29" t="s">
+      <c r="CX54" s="30" t="s">
         <v>45</v>
       </c>
       <c r="CY54" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="CZ54" s="30" t="s">
+      <c r="CZ54" s="29" t="s">
         <v>248</v>
       </c>
-      <c r="DA54" s="30" t="s">
+      <c r="DA54" s="29" t="s">
         <v>249</v>
       </c>
     </row>
@@ -29951,130 +29954,130 @@
       <c r="A55" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="B55" s="29"/>
-      <c r="C55" s="29"/>
-      <c r="D55" s="29"/>
-      <c r="E55" s="29"/>
-      <c r="F55" s="29"/>
-      <c r="G55" s="29"/>
-      <c r="H55" s="29"/>
-      <c r="I55" s="29"/>
-      <c r="J55" s="29"/>
-      <c r="K55" s="29"/>
-      <c r="L55" s="29"/>
-      <c r="M55" s="29"/>
-      <c r="N55" s="29"/>
+      <c r="B55" s="30"/>
+      <c r="C55" s="30"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="30"/>
+      <c r="F55" s="30"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="30"/>
+      <c r="I55" s="30"/>
+      <c r="J55" s="30"/>
+      <c r="K55" s="30"/>
+      <c r="L55" s="30"/>
+      <c r="M55" s="30"/>
+      <c r="N55" s="30"/>
       <c r="O55" s="9" t="s">
         <v>231</v>
       </c>
       <c r="P55" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="Q55" s="29"/>
-      <c r="R55" s="29"/>
-      <c r="S55" s="29"/>
-      <c r="T55" s="29"/>
-      <c r="U55" s="29"/>
-      <c r="V55" s="29"/>
-      <c r="W55" s="29"/>
-      <c r="X55" s="29"/>
-      <c r="Y55" s="29"/>
-      <c r="Z55" s="29"/>
+      <c r="Q55" s="30"/>
+      <c r="R55" s="30"/>
+      <c r="S55" s="30"/>
+      <c r="T55" s="30"/>
+      <c r="U55" s="30"/>
+      <c r="V55" s="30"/>
+      <c r="W55" s="30"/>
+      <c r="X55" s="30"/>
+      <c r="Y55" s="30"/>
+      <c r="Z55" s="30"/>
       <c r="AA55" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="AB55" s="29"/>
-      <c r="AC55" s="29"/>
-      <c r="AD55" s="29"/>
-      <c r="AE55" s="29"/>
-      <c r="AF55" s="29"/>
-      <c r="AG55" s="29"/>
-      <c r="AH55" s="29"/>
-      <c r="AI55" s="29"/>
-      <c r="AJ55" s="29"/>
-      <c r="AK55" s="29"/>
-      <c r="AL55" s="29"/>
-      <c r="AM55" s="29"/>
-      <c r="AN55" s="29"/>
-      <c r="AO55" s="29"/>
-      <c r="AP55" s="29"/>
-      <c r="AQ55" s="29"/>
-      <c r="AR55" s="29"/>
-      <c r="AS55" s="29"/>
-      <c r="AT55" s="29"/>
-      <c r="AU55" s="29"/>
-      <c r="AV55" s="29"/>
-      <c r="AW55" s="29"/>
-      <c r="AX55" s="29"/>
-      <c r="AY55" s="29"/>
-      <c r="AZ55" s="29"/>
-      <c r="BA55" s="29"/>
-      <c r="BB55" s="29"/>
-      <c r="BC55" s="29"/>
-      <c r="BD55" s="29"/>
+      <c r="AB55" s="30"/>
+      <c r="AC55" s="30"/>
+      <c r="AD55" s="30"/>
+      <c r="AE55" s="30"/>
+      <c r="AF55" s="30"/>
+      <c r="AG55" s="30"/>
+      <c r="AH55" s="30"/>
+      <c r="AI55" s="30"/>
+      <c r="AJ55" s="30"/>
+      <c r="AK55" s="30"/>
+      <c r="AL55" s="30"/>
+      <c r="AM55" s="30"/>
+      <c r="AN55" s="30"/>
+      <c r="AO55" s="30"/>
+      <c r="AP55" s="30"/>
+      <c r="AQ55" s="30"/>
+      <c r="AR55" s="30"/>
+      <c r="AS55" s="30"/>
+      <c r="AT55" s="30"/>
+      <c r="AU55" s="30"/>
+      <c r="AV55" s="30"/>
+      <c r="AW55" s="30"/>
+      <c r="AX55" s="30"/>
+      <c r="AY55" s="30"/>
+      <c r="AZ55" s="30"/>
+      <c r="BA55" s="30"/>
+      <c r="BB55" s="30"/>
+      <c r="BC55" s="30"/>
+      <c r="BD55" s="30"/>
       <c r="BE55" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="BF55" s="29"/>
-      <c r="BG55" s="29"/>
-      <c r="BH55" s="29"/>
-      <c r="BI55" s="29"/>
-      <c r="BJ55" s="29"/>
-      <c r="BK55" s="29"/>
-      <c r="BL55" s="29"/>
+      <c r="BF55" s="30"/>
+      <c r="BG55" s="30"/>
+      <c r="BH55" s="30"/>
+      <c r="BI55" s="30"/>
+      <c r="BJ55" s="30"/>
+      <c r="BK55" s="30"/>
+      <c r="BL55" s="30"/>
       <c r="BM55" s="8" t="s">
         <v>212</v>
       </c>
       <c r="BN55" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="BO55" s="29"/>
+      <c r="BO55" s="30"/>
       <c r="BP55" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="BQ55" s="29"/>
-      <c r="BR55" s="29"/>
-      <c r="BS55" s="29"/>
-      <c r="BT55" s="29"/>
-      <c r="BU55" s="29"/>
-      <c r="BV55" s="29"/>
-      <c r="BW55" s="29"/>
-      <c r="BX55" s="29"/>
-      <c r="BY55" s="29"/>
-      <c r="BZ55" s="29"/>
-      <c r="CA55" s="29"/>
-      <c r="CB55" s="29"/>
-      <c r="CC55" s="29"/>
-      <c r="CD55" s="29"/>
-      <c r="CE55" s="29"/>
-      <c r="CF55" s="29"/>
-      <c r="CG55" s="29"/>
+      <c r="BQ55" s="30"/>
+      <c r="BR55" s="30"/>
+      <c r="BS55" s="30"/>
+      <c r="BT55" s="30"/>
+      <c r="BU55" s="30"/>
+      <c r="BV55" s="30"/>
+      <c r="BW55" s="30"/>
+      <c r="BX55" s="30"/>
+      <c r="BY55" s="30"/>
+      <c r="BZ55" s="30"/>
+      <c r="CA55" s="30"/>
+      <c r="CB55" s="30"/>
+      <c r="CC55" s="30"/>
+      <c r="CD55" s="30"/>
+      <c r="CE55" s="30"/>
+      <c r="CF55" s="30"/>
+      <c r="CG55" s="30"/>
       <c r="CH55" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="CI55" s="29"/>
-      <c r="CJ55" s="29"/>
-      <c r="CK55" s="29"/>
-      <c r="CL55" s="29"/>
-      <c r="CM55" s="29"/>
-      <c r="CN55" s="29"/>
-      <c r="CO55" s="29"/>
-      <c r="CP55" s="29"/>
-      <c r="CQ55" s="29"/>
-      <c r="CR55" s="29"/>
+      <c r="CI55" s="30"/>
+      <c r="CJ55" s="30"/>
+      <c r="CK55" s="30"/>
+      <c r="CL55" s="30"/>
+      <c r="CM55" s="30"/>
+      <c r="CN55" s="30"/>
+      <c r="CO55" s="30"/>
+      <c r="CP55" s="30"/>
+      <c r="CQ55" s="30"/>
+      <c r="CR55" s="30"/>
       <c r="CS55" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="CT55" s="29"/>
-      <c r="CU55" s="29"/>
-      <c r="CV55" s="29"/>
-      <c r="CW55" s="29"/>
-      <c r="CX55" s="29"/>
+      <c r="CT55" s="30"/>
+      <c r="CU55" s="30"/>
+      <c r="CV55" s="30"/>
+      <c r="CW55" s="30"/>
+      <c r="CX55" s="30"/>
       <c r="CY55" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="CZ55" s="30"/>
-      <c r="DA55" s="30"/>
+      <c r="CZ55" s="29"/>
+      <c r="DA55" s="29"/>
     </row>
     <row r="56" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
@@ -30813,7 +30816,7 @@
         <v>11</v>
       </c>
       <c r="CC59" s="7">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="CD59" s="7"/>
       <c r="CE59" s="7"/>
@@ -31028,7 +31031,7 @@
         <v>12</v>
       </c>
       <c r="CC60" s="7">
-        <v>109</v>
+        <v>283</v>
       </c>
       <c r="CD60" s="7"/>
       <c r="CE60" s="7"/>
@@ -31225,11 +31228,11 @@
         <v>2</v>
       </c>
       <c r="BW61" s="7">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="BX61" s="7"/>
       <c r="BY61" s="7">
-        <v>154</v>
+        <v>230</v>
       </c>
       <c r="BZ61" s="7"/>
       <c r="CA61" s="7">
@@ -31239,7 +31242,7 @@
         <v>14</v>
       </c>
       <c r="CC61" s="7">
-        <v>185</v>
+        <v>125</v>
       </c>
       <c r="CD61" s="7"/>
       <c r="CE61" s="7"/>
@@ -31447,10 +31450,12 @@
       <c r="BV62" s="7">
         <v>4</v>
       </c>
-      <c r="BW62" s="7"/>
+      <c r="BW62" s="7">
+        <v>124</v>
+      </c>
       <c r="BX62" s="7"/>
       <c r="BY62" s="7">
-        <v>336</v>
+        <v>296</v>
       </c>
       <c r="BZ62" s="7"/>
       <c r="CA62" s="7">
@@ -31460,7 +31465,7 @@
         <v>24</v>
       </c>
       <c r="CC62" s="7">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="CD62" s="7"/>
       <c r="CE62" s="7"/>
@@ -31658,10 +31663,12 @@
       <c r="BV63" s="7">
         <v>4</v>
       </c>
-      <c r="BW63" s="7"/>
+      <c r="BW63" s="7">
+        <v>149</v>
+      </c>
       <c r="BX63" s="7"/>
       <c r="BY63" s="7">
-        <v>117</v>
+        <v>260</v>
       </c>
       <c r="BZ63" s="7"/>
       <c r="CA63" s="7">
@@ -31671,7 +31678,7 @@
         <v>20</v>
       </c>
       <c r="CC63" s="7">
-        <v>163</v>
+        <v>240</v>
       </c>
       <c r="CD63" s="7"/>
       <c r="CE63" s="7"/>
@@ -31884,11 +31891,11 @@
         <v>9</v>
       </c>
       <c r="BW64" s="7">
-        <v>634</v>
+        <v>557</v>
       </c>
       <c r="BX64" s="7"/>
       <c r="BY64" s="7">
-        <v>382</v>
+        <v>203</v>
       </c>
       <c r="BZ64" s="7"/>
       <c r="CA64" s="7">
@@ -31898,7 +31905,7 @@
         <v>32</v>
       </c>
       <c r="CC64" s="7">
-        <v>265</v>
+        <v>184</v>
       </c>
       <c r="CD64" s="7"/>
       <c r="CE64" s="7"/>
@@ -32111,7 +32118,7 @@
         <v>9</v>
       </c>
       <c r="BW65" s="7">
-        <v>623</v>
+        <v>464</v>
       </c>
       <c r="BX65" s="7"/>
       <c r="BY65" s="7">
@@ -32125,7 +32132,7 @@
         <v>51</v>
       </c>
       <c r="CC65" s="7">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="CD65" s="7"/>
       <c r="CE65" s="7"/>
@@ -32330,7 +32337,7 @@
         <v>23</v>
       </c>
       <c r="BW66" s="7">
-        <v>506</v>
+        <v>582</v>
       </c>
       <c r="BX66" s="7"/>
       <c r="BY66" s="7">
@@ -32344,7 +32351,7 @@
         <v>64</v>
       </c>
       <c r="CC66" s="7">
-        <v>424</v>
+        <v>401</v>
       </c>
       <c r="CD66" s="7"/>
       <c r="CE66" s="7"/>
@@ -32565,7 +32572,7 @@
         <v>32</v>
       </c>
       <c r="BW67" s="7">
-        <v>822</v>
+        <v>869</v>
       </c>
       <c r="BX67" s="7"/>
       <c r="BY67" s="7">
@@ -32579,7 +32586,7 @@
         <v>115</v>
       </c>
       <c r="CC67" s="7">
-        <v>485</v>
+        <v>779</v>
       </c>
       <c r="CD67" s="7"/>
       <c r="CE67" s="7"/>
@@ -32812,7 +32819,7 @@
         <v>52</v>
       </c>
       <c r="BW68" s="7">
-        <v>1259</v>
+        <v>2086</v>
       </c>
       <c r="BX68" s="7"/>
       <c r="BY68" s="7">
@@ -32826,7 +32833,7 @@
         <v>143</v>
       </c>
       <c r="CC68" s="7">
-        <v>693</v>
+        <v>930</v>
       </c>
       <c r="CD68" s="7"/>
       <c r="CE68" s="7"/>
@@ -33051,7 +33058,7 @@
         <v>40</v>
       </c>
       <c r="BW69" s="7">
-        <v>1544</v>
+        <v>1159</v>
       </c>
       <c r="BX69" s="7"/>
       <c r="BY69" s="7">
@@ -33065,7 +33072,7 @@
         <v>151</v>
       </c>
       <c r="CC69" s="7">
-        <v>733</v>
+        <v>924</v>
       </c>
       <c r="CD69" s="7"/>
       <c r="CE69" s="7"/>
@@ -33304,7 +33311,7 @@
         <v>38</v>
       </c>
       <c r="BW70" s="7">
-        <v>2000</v>
+        <v>1597</v>
       </c>
       <c r="BX70" s="7"/>
       <c r="BY70" s="7">
@@ -33318,7 +33325,7 @@
         <v>205</v>
       </c>
       <c r="CC70" s="7">
-        <v>1043</v>
+        <v>1214</v>
       </c>
       <c r="CD70" s="7"/>
       <c r="CE70" s="7"/>
@@ -33547,7 +33554,7 @@
         <v>34</v>
       </c>
       <c r="BW71" s="7">
-        <v>3425</v>
+        <v>1954</v>
       </c>
       <c r="BX71" s="7"/>
       <c r="BY71" s="7">
@@ -33561,7 +33568,7 @@
         <v>156</v>
       </c>
       <c r="CC71" s="7">
-        <v>1174</v>
+        <v>1459</v>
       </c>
       <c r="CD71" s="7"/>
       <c r="CE71" s="7"/>
@@ -33802,7 +33809,7 @@
         <v>22</v>
       </c>
       <c r="BW72" s="7">
-        <v>2538</v>
+        <v>1884</v>
       </c>
       <c r="BX72" s="7"/>
       <c r="BY72" s="7">
@@ -33816,7 +33823,7 @@
         <v>316</v>
       </c>
       <c r="CC72" s="7">
-        <v>1144</v>
+        <v>2095</v>
       </c>
       <c r="CD72" s="7"/>
       <c r="CE72" s="7"/>
@@ -34055,7 +34062,7 @@
         <v>11</v>
       </c>
       <c r="BW73" s="7">
-        <v>3431</v>
+        <v>2943</v>
       </c>
       <c r="BX73" s="7"/>
       <c r="BY73" s="7">
@@ -34069,7 +34076,7 @@
         <v>314</v>
       </c>
       <c r="CC73" s="7">
-        <v>1042</v>
+        <v>2960</v>
       </c>
       <c r="CD73" s="7"/>
       <c r="CE73" s="7"/>
@@ -34318,7 +34325,7 @@
         <v>33</v>
       </c>
       <c r="BW74" s="7">
-        <v>2833</v>
+        <v>3308</v>
       </c>
       <c r="BX74" s="7"/>
       <c r="BY74" s="7">
@@ -34332,7 +34339,7 @@
         <v>367</v>
       </c>
       <c r="CC74" s="7">
-        <v>2801</v>
+        <v>2993</v>
       </c>
       <c r="CD74" s="7"/>
       <c r="CE74" s="7"/>
@@ -34571,7 +34578,7 @@
       </c>
       <c r="BV75" s="7"/>
       <c r="BW75" s="7">
-        <v>4946</v>
+        <v>3494</v>
       </c>
       <c r="BX75" s="7"/>
       <c r="BY75" s="7">
@@ -34585,7 +34592,7 @@
         <v>375</v>
       </c>
       <c r="CC75" s="7">
-        <v>2958</v>
+        <v>4528</v>
       </c>
       <c r="CD75" s="7"/>
       <c r="CE75" s="7"/>
@@ -34832,7 +34839,7 @@
       </c>
       <c r="BV76" s="7"/>
       <c r="BW76" s="7">
-        <v>3646</v>
+        <v>3925</v>
       </c>
       <c r="BX76" s="7"/>
       <c r="BY76" s="7">
@@ -34846,7 +34853,7 @@
         <v>426</v>
       </c>
       <c r="CC76" s="7">
-        <v>2705</v>
+        <v>2516</v>
       </c>
       <c r="CD76" s="7"/>
       <c r="CE76" s="7"/>
@@ -34861,7 +34868,9 @@
       </c>
       <c r="CI76" s="7"/>
       <c r="CJ76" s="7"/>
-      <c r="CK76" s="7"/>
+      <c r="CK76" s="7">
+        <v>205</v>
+      </c>
       <c r="CL76" s="7">
         <v>83</v>
       </c>
@@ -35091,11 +35100,11 @@
       </c>
       <c r="BV77" s="7"/>
       <c r="BW77" s="7">
-        <v>4517</v>
+        <v>3272</v>
       </c>
       <c r="BX77" s="7"/>
       <c r="BY77" s="7">
-        <v>2230</v>
+        <v>1559</v>
       </c>
       <c r="BZ77" s="7"/>
       <c r="CA77" s="7"/>
@@ -35103,7 +35112,7 @@
         <v>212</v>
       </c>
       <c r="CC77" s="7">
-        <v>1948</v>
+        <v>2509</v>
       </c>
       <c r="CD77" s="7"/>
       <c r="CE77" s="7"/>
@@ -35116,7 +35125,9 @@
       </c>
       <c r="CI77" s="7"/>
       <c r="CJ77" s="7"/>
-      <c r="CK77" s="7"/>
+      <c r="CK77" s="7">
+        <v>221</v>
+      </c>
       <c r="CL77" s="7"/>
       <c r="CM77" s="7">
         <v>145</v>
@@ -35342,13 +35353,13 @@
       </c>
       <c r="BV78" s="7"/>
       <c r="BW78" s="7">
-        <v>6584</v>
+        <v>6368</v>
       </c>
       <c r="BX78" s="7">
         <v>20</v>
       </c>
       <c r="BY78" s="7">
-        <v>3176</v>
+        <v>3838</v>
       </c>
       <c r="BZ78" s="7"/>
       <c r="CA78" s="7">
@@ -35629,13 +35640,13 @@
         <v>38</v>
       </c>
       <c r="BW79" s="7">
-        <v>7937</v>
+        <v>6922</v>
       </c>
       <c r="BX79" s="7">
         <v>31</v>
       </c>
       <c r="BY79" s="7">
-        <v>2446</v>
+        <v>2448</v>
       </c>
       <c r="BZ79" s="7"/>
       <c r="CA79" s="7">
@@ -35918,13 +35929,13 @@
         <v>48</v>
       </c>
       <c r="BW80" s="7">
-        <v>8578</v>
+        <v>7457</v>
       </c>
       <c r="BX80" s="7">
         <v>24</v>
       </c>
       <c r="BY80" s="7">
-        <v>2931</v>
+        <v>2929</v>
       </c>
       <c r="BZ80" s="7">
         <v>8</v>
@@ -36205,7 +36216,7 @@
         <v>34</v>
       </c>
       <c r="BW81" s="7">
-        <v>7871</v>
+        <v>8271</v>
       </c>
       <c r="BX81" s="7">
         <v>36</v>
@@ -36502,13 +36513,13 @@
         <v>70</v>
       </c>
       <c r="BW82" s="7">
-        <v>8189</v>
+        <v>7933</v>
       </c>
       <c r="BX82" s="7">
         <v>43</v>
       </c>
       <c r="BY82" s="7">
-        <v>3809</v>
+        <v>2809</v>
       </c>
       <c r="BZ82" s="7">
         <v>9</v>
@@ -36779,7 +36790,7 @@
         <v>52</v>
       </c>
       <c r="BW83" s="7">
-        <v>6549</v>
+        <v>7516</v>
       </c>
       <c r="BX83" s="7">
         <v>41</v>
@@ -37404,10 +37415,51 @@
       <c r="CH86" s="7">
         <v>3009</v>
       </c>
+      <c r="CK86" s="7">
+        <v>196</v>
+      </c>
+      <c r="CM86" s="7">
+        <v>407</v>
+      </c>
     </row>
     <row r="87" spans="1:105" x14ac:dyDescent="0.3">
-      <c r="A87" s="7"/>
+      <c r="A87" s="7" t="s">
+        <v>688</v>
+      </c>
+      <c r="R87" s="7">
+        <v>26473</v>
+      </c>
+      <c r="AR87" s="7">
+        <v>285</v>
+      </c>
+      <c r="AU87" s="7">
+        <v>601</v>
+      </c>
+      <c r="BF87" s="7">
+        <v>2988</v>
+      </c>
       <c r="BM87" s="7"/>
+      <c r="BS87" s="7">
+        <v>4782</v>
+      </c>
+      <c r="BW87" s="7">
+        <v>8195</v>
+      </c>
+      <c r="BY87" s="7">
+        <v>4861</v>
+      </c>
+      <c r="CC87" s="7">
+        <v>6173</v>
+      </c>
+      <c r="CH87" s="7">
+        <v>4324</v>
+      </c>
+      <c r="CK87" s="7">
+        <v>236</v>
+      </c>
+      <c r="CM87" s="7">
+        <v>512</v>
+      </c>
     </row>
     <row r="88" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A88" s="7"/>
@@ -37542,135 +37594,149 @@
     </row>
   </sheetData>
   <mergeCells count="296">
-    <mergeCell ref="CK54:CK55"/>
-    <mergeCell ref="CM54:CM55"/>
-    <mergeCell ref="CN54:CN55"/>
-    <mergeCell ref="CD54:CD55"/>
-    <mergeCell ref="CE54:CE55"/>
-    <mergeCell ref="CG54:CG55"/>
-    <mergeCell ref="CI54:CI55"/>
-    <mergeCell ref="CJ54:CJ55"/>
-    <mergeCell ref="CF54:CF55"/>
-    <mergeCell ref="CL54:CL55"/>
-    <mergeCell ref="BY54:BY55"/>
-    <mergeCell ref="BZ54:BZ55"/>
-    <mergeCell ref="CA54:CA55"/>
-    <mergeCell ref="CB54:CB55"/>
-    <mergeCell ref="CC54:CC55"/>
-    <mergeCell ref="BQ54:BQ55"/>
-    <mergeCell ref="BR54:BR55"/>
-    <mergeCell ref="BS54:BS55"/>
-    <mergeCell ref="BT54:BT55"/>
-    <mergeCell ref="BV54:BV55"/>
-    <mergeCell ref="BW54:BW55"/>
-    <mergeCell ref="BU54:BU55"/>
-    <mergeCell ref="BK54:BK55"/>
-    <mergeCell ref="BL54:BL55"/>
-    <mergeCell ref="BO54:BO55"/>
-    <mergeCell ref="BF54:BF55"/>
-    <mergeCell ref="BG54:BG55"/>
-    <mergeCell ref="BH54:BH55"/>
-    <mergeCell ref="BI54:BI55"/>
-    <mergeCell ref="BJ54:BJ55"/>
-    <mergeCell ref="BX54:BX55"/>
-    <mergeCell ref="AV54:AV55"/>
-    <mergeCell ref="AW54:AW55"/>
-    <mergeCell ref="AX54:AX55"/>
-    <mergeCell ref="AY54:AY55"/>
-    <mergeCell ref="BB54:BB55"/>
-    <mergeCell ref="BD54:BD55"/>
-    <mergeCell ref="AO54:AO55"/>
-    <mergeCell ref="AP54:AP55"/>
-    <mergeCell ref="AQ54:AQ55"/>
-    <mergeCell ref="AS54:AS55"/>
-    <mergeCell ref="AT54:AT55"/>
-    <mergeCell ref="AU54:AU55"/>
-    <mergeCell ref="AR54:AR55"/>
-    <mergeCell ref="AZ54:AZ55"/>
-    <mergeCell ref="BA54:BA55"/>
-    <mergeCell ref="BC54:BC55"/>
-    <mergeCell ref="AI54:AI55"/>
-    <mergeCell ref="AJ54:AJ55"/>
-    <mergeCell ref="AK54:AK55"/>
-    <mergeCell ref="AL54:AL55"/>
-    <mergeCell ref="AM54:AM55"/>
-    <mergeCell ref="AN54:AN55"/>
-    <mergeCell ref="AC54:AC55"/>
-    <mergeCell ref="AD54:AD55"/>
-    <mergeCell ref="AE54:AE55"/>
-    <mergeCell ref="AF54:AF55"/>
-    <mergeCell ref="AG54:AG55"/>
-    <mergeCell ref="AH54:AH55"/>
-    <mergeCell ref="W54:W55"/>
-    <mergeCell ref="X54:X55"/>
-    <mergeCell ref="Y54:Y55"/>
-    <mergeCell ref="Z54:Z55"/>
-    <mergeCell ref="AB54:AB55"/>
-    <mergeCell ref="Q54:Q55"/>
-    <mergeCell ref="S54:S55"/>
-    <mergeCell ref="T54:T55"/>
-    <mergeCell ref="U54:U55"/>
-    <mergeCell ref="V54:V55"/>
-    <mergeCell ref="R54:R55"/>
-    <mergeCell ref="J54:J55"/>
-    <mergeCell ref="K54:K55"/>
-    <mergeCell ref="L54:L55"/>
-    <mergeCell ref="M54:M55"/>
-    <mergeCell ref="N54:N55"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="H54:H55"/>
-    <mergeCell ref="I54:I55"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="CI23:CI24"/>
-    <mergeCell ref="CJ23:CJ24"/>
-    <mergeCell ref="CK23:CK24"/>
-    <mergeCell ref="CM23:CM24"/>
-    <mergeCell ref="CN23:CN24"/>
-    <mergeCell ref="CA23:CA24"/>
-    <mergeCell ref="CB23:CB24"/>
-    <mergeCell ref="CC23:CC24"/>
-    <mergeCell ref="CD23:CD24"/>
-    <mergeCell ref="CE23:CE24"/>
-    <mergeCell ref="CG23:CG24"/>
-    <mergeCell ref="BT23:BT24"/>
-    <mergeCell ref="BV23:BV24"/>
-    <mergeCell ref="BW23:BW24"/>
-    <mergeCell ref="BX23:BX24"/>
-    <mergeCell ref="BY23:BY24"/>
-    <mergeCell ref="BZ23:BZ24"/>
-    <mergeCell ref="BO23:BO24"/>
-    <mergeCell ref="BQ23:BQ24"/>
-    <mergeCell ref="BR23:BR24"/>
-    <mergeCell ref="BS23:BS24"/>
-    <mergeCell ref="AQ23:AQ24"/>
-    <mergeCell ref="BH23:BH24"/>
-    <mergeCell ref="BI23:BI24"/>
-    <mergeCell ref="BJ23:BJ24"/>
-    <mergeCell ref="BK23:BK24"/>
-    <mergeCell ref="BL23:BL24"/>
-    <mergeCell ref="AY23:AY24"/>
-    <mergeCell ref="BB23:BB24"/>
-    <mergeCell ref="BD23:BD24"/>
-    <mergeCell ref="BF23:BF24"/>
-    <mergeCell ref="BG23:BG24"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="Q23:Q24"/>
-    <mergeCell ref="S23:S24"/>
-    <mergeCell ref="AF23:AF24"/>
-    <mergeCell ref="AG23:AG24"/>
-    <mergeCell ref="AH23:AH24"/>
-    <mergeCell ref="AI23:AI24"/>
-    <mergeCell ref="AJ23:AJ24"/>
-    <mergeCell ref="Z23:Z24"/>
-    <mergeCell ref="AB23:AB24"/>
-    <mergeCell ref="AC23:AC24"/>
-    <mergeCell ref="AD23:AD24"/>
-    <mergeCell ref="AE23:AE24"/>
+    <mergeCell ref="CZ54:CZ55"/>
+    <mergeCell ref="DA54:DA55"/>
+    <mergeCell ref="CO54:CO55"/>
+    <mergeCell ref="CP54:CP55"/>
+    <mergeCell ref="CQ54:CQ55"/>
+    <mergeCell ref="CR54:CR55"/>
+    <mergeCell ref="CT54:CT55"/>
+    <mergeCell ref="CU54:CU55"/>
+    <mergeCell ref="CV54:CV55"/>
+    <mergeCell ref="CW54:CW55"/>
+    <mergeCell ref="CX54:CX55"/>
+    <mergeCell ref="CZ2:CZ3"/>
+    <mergeCell ref="DA2:DA3"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="R23:R24"/>
+    <mergeCell ref="AR23:AR24"/>
+    <mergeCell ref="AZ23:AZ24"/>
+    <mergeCell ref="BA23:BA24"/>
+    <mergeCell ref="BC23:BC24"/>
+    <mergeCell ref="BU23:BU24"/>
+    <mergeCell ref="CF23:CF24"/>
+    <mergeCell ref="CL23:CL24"/>
+    <mergeCell ref="CO23:CO24"/>
+    <mergeCell ref="CP23:CP24"/>
+    <mergeCell ref="CQ23:CQ24"/>
+    <mergeCell ref="CR23:CR24"/>
+    <mergeCell ref="CT23:CT24"/>
+    <mergeCell ref="CU23:CU24"/>
+    <mergeCell ref="CV23:CV24"/>
+    <mergeCell ref="CW23:CW24"/>
+    <mergeCell ref="CX23:CX24"/>
+    <mergeCell ref="CZ23:CZ24"/>
+    <mergeCell ref="DA23:DA24"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="CH1:CQ1"/>
+    <mergeCell ref="CR1:CX1"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="AR2:AR3"/>
+    <mergeCell ref="AZ2:AZ3"/>
+    <mergeCell ref="BA2:BA3"/>
+    <mergeCell ref="BC2:BC3"/>
+    <mergeCell ref="BU2:BU3"/>
+    <mergeCell ref="CF2:CF3"/>
+    <mergeCell ref="CL2:CL3"/>
+    <mergeCell ref="CO2:CO3"/>
+    <mergeCell ref="CP2:CP3"/>
+    <mergeCell ref="CQ2:CQ3"/>
+    <mergeCell ref="CR2:CR3"/>
+    <mergeCell ref="CT2:CT3"/>
+    <mergeCell ref="CU2:CU3"/>
+    <mergeCell ref="CV2:CV3"/>
+    <mergeCell ref="CW2:CW3"/>
+    <mergeCell ref="CX2:CX3"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="AB1:AF1"/>
+    <mergeCell ref="AG1:AQ1"/>
+    <mergeCell ref="AR1:AS1"/>
+    <mergeCell ref="AT1:AX1"/>
+    <mergeCell ref="AY1:BL1"/>
+    <mergeCell ref="BN1:BX1"/>
+    <mergeCell ref="BY1:CG1"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="B1:N1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="AH2:AH3"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="AJ2:AJ3"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="Z2:Z3"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="AQ2:AQ3"/>
+    <mergeCell ref="AS2:AS3"/>
+    <mergeCell ref="AT2:AT3"/>
+    <mergeCell ref="AU2:AU3"/>
+    <mergeCell ref="AV2:AV3"/>
+    <mergeCell ref="AW2:AW3"/>
+    <mergeCell ref="AK2:AK3"/>
+    <mergeCell ref="AL2:AL3"/>
+    <mergeCell ref="AM2:AM3"/>
+    <mergeCell ref="AN2:AN3"/>
+    <mergeCell ref="AO2:AO3"/>
+    <mergeCell ref="AP2:AP3"/>
+    <mergeCell ref="BG2:BG3"/>
+    <mergeCell ref="BH2:BH3"/>
+    <mergeCell ref="BI2:BI3"/>
+    <mergeCell ref="BJ2:BJ3"/>
+    <mergeCell ref="BK2:BK3"/>
+    <mergeCell ref="BL2:BL3"/>
+    <mergeCell ref="AX2:AX3"/>
+    <mergeCell ref="AY2:AY3"/>
+    <mergeCell ref="BB2:BB3"/>
+    <mergeCell ref="BD2:BD3"/>
+    <mergeCell ref="BF2:BF3"/>
+    <mergeCell ref="BV2:BV3"/>
+    <mergeCell ref="BW2:BW3"/>
+    <mergeCell ref="BX2:BX3"/>
+    <mergeCell ref="BY2:BY3"/>
+    <mergeCell ref="BO2:BO3"/>
+    <mergeCell ref="BQ2:BQ3"/>
+    <mergeCell ref="BR2:BR3"/>
+    <mergeCell ref="CN2:CN3"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="CG2:CG3"/>
+    <mergeCell ref="CI2:CI3"/>
+    <mergeCell ref="CJ2:CJ3"/>
+    <mergeCell ref="CK2:CK3"/>
+    <mergeCell ref="CM2:CM3"/>
+    <mergeCell ref="BZ2:BZ3"/>
+    <mergeCell ref="CA2:CA3"/>
     <mergeCell ref="CB2:CB3"/>
     <mergeCell ref="CC2:CC3"/>
     <mergeCell ref="CD2:CD3"/>
@@ -37695,149 +37761,135 @@
     <mergeCell ref="AN23:AN24"/>
     <mergeCell ref="AO23:AO24"/>
     <mergeCell ref="AP23:AP24"/>
-    <mergeCell ref="BV2:BV3"/>
-    <mergeCell ref="BW2:BW3"/>
-    <mergeCell ref="BX2:BX3"/>
-    <mergeCell ref="BY2:BY3"/>
-    <mergeCell ref="BO2:BO3"/>
-    <mergeCell ref="BQ2:BQ3"/>
-    <mergeCell ref="BR2:BR3"/>
-    <mergeCell ref="CN2:CN3"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="CG2:CG3"/>
-    <mergeCell ref="CI2:CI3"/>
-    <mergeCell ref="CJ2:CJ3"/>
-    <mergeCell ref="CK2:CK3"/>
-    <mergeCell ref="CM2:CM3"/>
-    <mergeCell ref="BZ2:BZ3"/>
-    <mergeCell ref="CA2:CA3"/>
-    <mergeCell ref="BG2:BG3"/>
-    <mergeCell ref="BH2:BH3"/>
-    <mergeCell ref="BI2:BI3"/>
-    <mergeCell ref="BJ2:BJ3"/>
-    <mergeCell ref="BK2:BK3"/>
-    <mergeCell ref="BL2:BL3"/>
-    <mergeCell ref="AX2:AX3"/>
-    <mergeCell ref="AY2:AY3"/>
-    <mergeCell ref="BB2:BB3"/>
-    <mergeCell ref="BD2:BD3"/>
-    <mergeCell ref="BF2:BF3"/>
-    <mergeCell ref="AQ2:AQ3"/>
-    <mergeCell ref="AS2:AS3"/>
-    <mergeCell ref="AT2:AT3"/>
-    <mergeCell ref="AU2:AU3"/>
-    <mergeCell ref="AV2:AV3"/>
-    <mergeCell ref="AW2:AW3"/>
-    <mergeCell ref="AK2:AK3"/>
-    <mergeCell ref="AL2:AL3"/>
-    <mergeCell ref="AM2:AM3"/>
-    <mergeCell ref="AN2:AN3"/>
-    <mergeCell ref="AO2:AO3"/>
-    <mergeCell ref="AP2:AP3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="AF2:AF3"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="AJ2:AJ3"/>
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="Z2:Z3"/>
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="AG1:AQ1"/>
-    <mergeCell ref="AR1:AS1"/>
-    <mergeCell ref="AT1:AX1"/>
-    <mergeCell ref="AY1:BL1"/>
-    <mergeCell ref="BN1:BX1"/>
-    <mergeCell ref="BY1:CG1"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="B1:N1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="CH1:CQ1"/>
-    <mergeCell ref="CR1:CX1"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="AR2:AR3"/>
-    <mergeCell ref="AZ2:AZ3"/>
-    <mergeCell ref="BA2:BA3"/>
-    <mergeCell ref="BC2:BC3"/>
-    <mergeCell ref="BU2:BU3"/>
-    <mergeCell ref="CF2:CF3"/>
-    <mergeCell ref="CL2:CL3"/>
-    <mergeCell ref="CO2:CO3"/>
-    <mergeCell ref="CP2:CP3"/>
-    <mergeCell ref="CQ2:CQ3"/>
-    <mergeCell ref="CR2:CR3"/>
-    <mergeCell ref="CT2:CT3"/>
-    <mergeCell ref="CU2:CU3"/>
-    <mergeCell ref="CV2:CV3"/>
-    <mergeCell ref="CW2:CW3"/>
-    <mergeCell ref="CX2:CX3"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="AB1:AF1"/>
-    <mergeCell ref="CZ2:CZ3"/>
-    <mergeCell ref="DA2:DA3"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="R23:R24"/>
-    <mergeCell ref="AR23:AR24"/>
-    <mergeCell ref="AZ23:AZ24"/>
-    <mergeCell ref="BA23:BA24"/>
-    <mergeCell ref="BC23:BC24"/>
-    <mergeCell ref="BU23:BU24"/>
-    <mergeCell ref="CF23:CF24"/>
-    <mergeCell ref="CL23:CL24"/>
-    <mergeCell ref="CO23:CO24"/>
-    <mergeCell ref="CP23:CP24"/>
-    <mergeCell ref="CQ23:CQ24"/>
-    <mergeCell ref="CR23:CR24"/>
-    <mergeCell ref="CT23:CT24"/>
-    <mergeCell ref="CU23:CU24"/>
-    <mergeCell ref="CV23:CV24"/>
-    <mergeCell ref="CW23:CW24"/>
-    <mergeCell ref="CX23:CX24"/>
-    <mergeCell ref="CZ23:CZ24"/>
-    <mergeCell ref="DA23:DA24"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="CZ54:CZ55"/>
-    <mergeCell ref="DA54:DA55"/>
-    <mergeCell ref="CO54:CO55"/>
-    <mergeCell ref="CP54:CP55"/>
-    <mergeCell ref="CQ54:CQ55"/>
-    <mergeCell ref="CR54:CR55"/>
-    <mergeCell ref="CT54:CT55"/>
-    <mergeCell ref="CU54:CU55"/>
-    <mergeCell ref="CV54:CV55"/>
-    <mergeCell ref="CW54:CW55"/>
-    <mergeCell ref="CX54:CX55"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="S23:S24"/>
+    <mergeCell ref="AF23:AF24"/>
+    <mergeCell ref="AG23:AG24"/>
+    <mergeCell ref="AH23:AH24"/>
+    <mergeCell ref="AI23:AI24"/>
+    <mergeCell ref="AJ23:AJ24"/>
+    <mergeCell ref="Z23:Z24"/>
+    <mergeCell ref="AB23:AB24"/>
+    <mergeCell ref="AC23:AC24"/>
+    <mergeCell ref="AD23:AD24"/>
+    <mergeCell ref="AE23:AE24"/>
+    <mergeCell ref="AQ23:AQ24"/>
+    <mergeCell ref="BH23:BH24"/>
+    <mergeCell ref="BI23:BI24"/>
+    <mergeCell ref="BJ23:BJ24"/>
+    <mergeCell ref="BK23:BK24"/>
+    <mergeCell ref="BL23:BL24"/>
+    <mergeCell ref="AY23:AY24"/>
+    <mergeCell ref="BB23:BB24"/>
+    <mergeCell ref="BD23:BD24"/>
+    <mergeCell ref="BF23:BF24"/>
+    <mergeCell ref="BG23:BG24"/>
+    <mergeCell ref="BT23:BT24"/>
+    <mergeCell ref="BV23:BV24"/>
+    <mergeCell ref="BW23:BW24"/>
+    <mergeCell ref="BX23:BX24"/>
+    <mergeCell ref="BY23:BY24"/>
+    <mergeCell ref="BZ23:BZ24"/>
+    <mergeCell ref="BO23:BO24"/>
+    <mergeCell ref="BQ23:BQ24"/>
+    <mergeCell ref="BR23:BR24"/>
+    <mergeCell ref="BS23:BS24"/>
+    <mergeCell ref="CI23:CI24"/>
+    <mergeCell ref="CJ23:CJ24"/>
+    <mergeCell ref="CK23:CK24"/>
+    <mergeCell ref="CM23:CM24"/>
+    <mergeCell ref="CN23:CN24"/>
+    <mergeCell ref="CA23:CA24"/>
+    <mergeCell ref="CB23:CB24"/>
+    <mergeCell ref="CC23:CC24"/>
+    <mergeCell ref="CD23:CD24"/>
+    <mergeCell ref="CE23:CE24"/>
+    <mergeCell ref="CG23:CG24"/>
+    <mergeCell ref="J54:J55"/>
+    <mergeCell ref="K54:K55"/>
+    <mergeCell ref="L54:L55"/>
+    <mergeCell ref="M54:M55"/>
+    <mergeCell ref="N54:N55"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="I54:I55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="W54:W55"/>
+    <mergeCell ref="X54:X55"/>
+    <mergeCell ref="Y54:Y55"/>
+    <mergeCell ref="Z54:Z55"/>
+    <mergeCell ref="AB54:AB55"/>
+    <mergeCell ref="Q54:Q55"/>
+    <mergeCell ref="S54:S55"/>
+    <mergeCell ref="T54:T55"/>
+    <mergeCell ref="U54:U55"/>
+    <mergeCell ref="V54:V55"/>
+    <mergeCell ref="R54:R55"/>
+    <mergeCell ref="AI54:AI55"/>
+    <mergeCell ref="AJ54:AJ55"/>
+    <mergeCell ref="AK54:AK55"/>
+    <mergeCell ref="AL54:AL55"/>
+    <mergeCell ref="AM54:AM55"/>
+    <mergeCell ref="AN54:AN55"/>
+    <mergeCell ref="AC54:AC55"/>
+    <mergeCell ref="AD54:AD55"/>
+    <mergeCell ref="AE54:AE55"/>
+    <mergeCell ref="AF54:AF55"/>
+    <mergeCell ref="AG54:AG55"/>
+    <mergeCell ref="AH54:AH55"/>
+    <mergeCell ref="AV54:AV55"/>
+    <mergeCell ref="AW54:AW55"/>
+    <mergeCell ref="AX54:AX55"/>
+    <mergeCell ref="AY54:AY55"/>
+    <mergeCell ref="BB54:BB55"/>
+    <mergeCell ref="BD54:BD55"/>
+    <mergeCell ref="AO54:AO55"/>
+    <mergeCell ref="AP54:AP55"/>
+    <mergeCell ref="AQ54:AQ55"/>
+    <mergeCell ref="AS54:AS55"/>
+    <mergeCell ref="AT54:AT55"/>
+    <mergeCell ref="AU54:AU55"/>
+    <mergeCell ref="AR54:AR55"/>
+    <mergeCell ref="AZ54:AZ55"/>
+    <mergeCell ref="BA54:BA55"/>
+    <mergeCell ref="BC54:BC55"/>
+    <mergeCell ref="BK54:BK55"/>
+    <mergeCell ref="BL54:BL55"/>
+    <mergeCell ref="BO54:BO55"/>
+    <mergeCell ref="BF54:BF55"/>
+    <mergeCell ref="BG54:BG55"/>
+    <mergeCell ref="BH54:BH55"/>
+    <mergeCell ref="BI54:BI55"/>
+    <mergeCell ref="BJ54:BJ55"/>
+    <mergeCell ref="BX54:BX55"/>
+    <mergeCell ref="BY54:BY55"/>
+    <mergeCell ref="BZ54:BZ55"/>
+    <mergeCell ref="CA54:CA55"/>
+    <mergeCell ref="CB54:CB55"/>
+    <mergeCell ref="CC54:CC55"/>
+    <mergeCell ref="BQ54:BQ55"/>
+    <mergeCell ref="BR54:BR55"/>
+    <mergeCell ref="BS54:BS55"/>
+    <mergeCell ref="BT54:BT55"/>
+    <mergeCell ref="BV54:BV55"/>
+    <mergeCell ref="BW54:BW55"/>
+    <mergeCell ref="BU54:BU55"/>
+    <mergeCell ref="CK54:CK55"/>
+    <mergeCell ref="CM54:CM55"/>
+    <mergeCell ref="CN54:CN55"/>
+    <mergeCell ref="CD54:CD55"/>
+    <mergeCell ref="CE54:CE55"/>
+    <mergeCell ref="CG54:CG55"/>
+    <mergeCell ref="CI54:CI55"/>
+    <mergeCell ref="CJ54:CJ55"/>
+    <mergeCell ref="CF54:CF55"/>
+    <mergeCell ref="CL54:CL55"/>
   </mergeCells>
   <phoneticPr fontId="28" type="noConversion"/>
   <hyperlinks>
@@ -38358,10 +38410,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F0720B9-F1C1-4E88-8345-0A7B8577FCEF}">
-  <dimension ref="A1:CT51"/>
+  <dimension ref="A1:CT52"/>
   <sheetViews>
-    <sheetView topLeftCell="AM17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AO52" sqref="AO52"/>
+    <sheetView topLeftCell="CE23" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="CM53" sqref="CM53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -38370,137 +38422,137 @@
       <c r="A1" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="31" t="s">
         <v>673</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32" t="s">
+      <c r="C1" s="31"/>
+      <c r="D1" s="31" t="s">
         <v>674</v>
       </c>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32" t="s">
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31" t="s">
         <v>217</v>
       </c>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32" t="s">
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31" t="s">
         <v>218</v>
       </c>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
       <c r="R1" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="S1" s="32" t="s">
+      <c r="S1" s="31" t="s">
         <v>216</v>
       </c>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32" t="s">
+      <c r="T1" s="31"/>
+      <c r="U1" s="31" t="s">
         <v>215</v>
       </c>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32" t="s">
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31" t="s">
         <v>214</v>
       </c>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32" t="s">
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31" t="s">
         <v>213</v>
       </c>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="32"/>
-      <c r="AE1" s="32"/>
-      <c r="AF1" s="32"/>
-      <c r="AG1" s="32"/>
-      <c r="AH1" s="32"/>
-      <c r="AI1" s="32"/>
+      <c r="AC1" s="31"/>
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="31"/>
+      <c r="AG1" s="31"/>
+      <c r="AH1" s="31"/>
+      <c r="AI1" s="31"/>
       <c r="AJ1" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="AK1" s="32" t="s">
+      <c r="AK1" s="31" t="s">
         <v>220</v>
       </c>
-      <c r="AL1" s="32"/>
-      <c r="AM1" s="32"/>
-      <c r="AN1" s="32"/>
-      <c r="AO1" s="32" t="s">
+      <c r="AL1" s="31"/>
+      <c r="AM1" s="31"/>
+      <c r="AN1" s="31"/>
+      <c r="AO1" s="31" t="s">
         <v>221</v>
       </c>
-      <c r="AP1" s="32"/>
-      <c r="AQ1" s="32"/>
-      <c r="AR1" s="32"/>
-      <c r="AS1" s="32"/>
-      <c r="AT1" s="32" t="s">
+      <c r="AP1" s="31"/>
+      <c r="AQ1" s="31"/>
+      <c r="AR1" s="31"/>
+      <c r="AS1" s="31"/>
+      <c r="AT1" s="31" t="s">
         <v>223</v>
       </c>
-      <c r="AU1" s="32"/>
-      <c r="AV1" s="32"/>
-      <c r="AW1" s="32"/>
-      <c r="AX1" s="32"/>
-      <c r="AY1" s="32" t="s">
+      <c r="AU1" s="31"/>
+      <c r="AV1" s="31"/>
+      <c r="AW1" s="31"/>
+      <c r="AX1" s="31"/>
+      <c r="AY1" s="31" t="s">
         <v>224</v>
       </c>
-      <c r="AZ1" s="32"/>
-      <c r="BA1" s="32"/>
-      <c r="BB1" s="32"/>
-      <c r="BC1" s="32"/>
-      <c r="BD1" s="32"/>
-      <c r="BE1" s="32"/>
-      <c r="BF1" s="32"/>
-      <c r="BG1" s="32"/>
+      <c r="AZ1" s="31"/>
+      <c r="BA1" s="31"/>
+      <c r="BB1" s="31"/>
+      <c r="BC1" s="31"/>
+      <c r="BD1" s="31"/>
+      <c r="BE1" s="31"/>
+      <c r="BF1" s="31"/>
+      <c r="BG1" s="31"/>
       <c r="BH1" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="BI1" s="32" t="s">
+      <c r="BI1" s="31" t="s">
         <v>228</v>
       </c>
-      <c r="BJ1" s="32"/>
-      <c r="BK1" s="32"/>
-      <c r="BL1" s="32"/>
-      <c r="BM1" s="32"/>
-      <c r="BN1" s="32"/>
-      <c r="BO1" s="32"/>
-      <c r="BP1" s="32" t="s">
+      <c r="BJ1" s="31"/>
+      <c r="BK1" s="31"/>
+      <c r="BL1" s="31"/>
+      <c r="BM1" s="31"/>
+      <c r="BN1" s="31"/>
+      <c r="BO1" s="31"/>
+      <c r="BP1" s="31" t="s">
         <v>227</v>
       </c>
-      <c r="BQ1" s="32"/>
-      <c r="BR1" s="32"/>
-      <c r="BS1" s="32"/>
-      <c r="BT1" s="32"/>
-      <c r="BU1" s="32"/>
-      <c r="BV1" s="32"/>
-      <c r="BW1" s="32"/>
-      <c r="BX1" s="32" t="s">
+      <c r="BQ1" s="31"/>
+      <c r="BR1" s="31"/>
+      <c r="BS1" s="31"/>
+      <c r="BT1" s="31"/>
+      <c r="BU1" s="31"/>
+      <c r="BV1" s="31"/>
+      <c r="BW1" s="31"/>
+      <c r="BX1" s="31" t="s">
         <v>225</v>
       </c>
-      <c r="BY1" s="32"/>
-      <c r="BZ1" s="32"/>
-      <c r="CA1" s="32"/>
-      <c r="CB1" s="32"/>
-      <c r="CC1" s="32"/>
-      <c r="CD1" s="32"/>
-      <c r="CE1" s="32"/>
-      <c r="CF1" s="32"/>
-      <c r="CG1" s="32"/>
-      <c r="CH1" s="32"/>
-      <c r="CI1" s="32"/>
-      <c r="CJ1" s="32" t="s">
+      <c r="BY1" s="31"/>
+      <c r="BZ1" s="31"/>
+      <c r="CA1" s="31"/>
+      <c r="CB1" s="31"/>
+      <c r="CC1" s="31"/>
+      <c r="CD1" s="31"/>
+      <c r="CE1" s="31"/>
+      <c r="CF1" s="31"/>
+      <c r="CG1" s="31"/>
+      <c r="CH1" s="31"/>
+      <c r="CI1" s="31"/>
+      <c r="CJ1" s="31" t="s">
         <v>226</v>
       </c>
-      <c r="CK1" s="32"/>
-      <c r="CL1" s="32"/>
-      <c r="CM1" s="32"/>
-      <c r="CN1" s="32"/>
-      <c r="CO1" s="32"/>
-      <c r="CP1" s="32"/>
+      <c r="CK1" s="31"/>
+      <c r="CL1" s="31"/>
+      <c r="CM1" s="31"/>
+      <c r="CN1" s="31"/>
+      <c r="CO1" s="31"/>
+      <c r="CP1" s="31"/>
       <c r="CQ1" s="21" t="s">
         <v>222</v>
       </c>
@@ -38514,399 +38566,399 @@
       <c r="A2" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="30" t="s">
         <v>178</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="30" t="s">
         <v>675</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="30" t="s">
         <v>167</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="I2" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="J2" s="30" t="s">
         <v>188</v>
       </c>
-      <c r="K2" s="29" t="s">
+      <c r="K2" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="L2" s="29" t="s">
+      <c r="L2" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="M2" s="29" t="s">
+      <c r="M2" s="30" t="s">
         <v>676</v>
       </c>
-      <c r="N2" s="29" t="s">
+      <c r="N2" s="30" t="s">
         <v>187</v>
       </c>
-      <c r="O2" s="29" t="s">
+      <c r="O2" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="P2" s="29" t="s">
+      <c r="P2" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="Q2" s="29" t="s">
+      <c r="Q2" s="30" t="s">
         <v>122</v>
       </c>
       <c r="R2" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="S2" s="29" t="s">
+      <c r="S2" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="T2" s="29" t="s">
+      <c r="T2" s="30" t="s">
         <v>234</v>
       </c>
-      <c r="U2" s="29" t="s">
+      <c r="U2" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="V2" s="29" t="s">
+      <c r="V2" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="W2" s="29" t="s">
+      <c r="W2" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="X2" s="29" t="s">
+      <c r="X2" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="Y2" s="29" t="s">
+      <c r="Y2" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="Z2" s="29" t="s">
+      <c r="Z2" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="AA2" s="29" t="s">
+      <c r="AA2" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="AB2" s="29" t="s">
+      <c r="AB2" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="AC2" s="29" t="s">
+      <c r="AC2" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="AD2" s="29" t="s">
+      <c r="AD2" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="AE2" s="29" t="s">
+      <c r="AE2" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="AF2" s="29" t="s">
+      <c r="AF2" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="AG2" s="29" t="s">
+      <c r="AG2" s="30" t="s">
         <v>177</v>
       </c>
-      <c r="AH2" s="29" t="s">
+      <c r="AH2" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="AI2" s="29" t="s">
+      <c r="AI2" s="30" t="s">
         <v>58</v>
       </c>
       <c r="AJ2" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="AK2" s="29" t="s">
+      <c r="AK2" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="AL2" s="29" t="s">
+      <c r="AL2" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="AM2" s="29" t="s">
+      <c r="AM2" s="30" t="s">
         <v>236</v>
       </c>
-      <c r="AN2" s="29" t="s">
+      <c r="AN2" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="AO2" s="29" t="s">
+      <c r="AO2" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="AP2" s="29" t="s">
+      <c r="AP2" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="AQ2" s="29" t="s">
+      <c r="AQ2" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="AR2" s="29" t="s">
+      <c r="AR2" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="AS2" s="29" t="s">
+      <c r="AS2" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="AT2" s="29" t="s">
+      <c r="AT2" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="AU2" s="29" t="s">
+      <c r="AU2" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="AV2" s="29" t="s">
+      <c r="AV2" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="AW2" s="29" t="s">
+      <c r="AW2" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="AX2" s="29" t="s">
+      <c r="AX2" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="AY2" s="29" t="s">
+      <c r="AY2" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="AZ2" s="29" t="s">
+      <c r="AZ2" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="BA2" s="29" t="s">
+      <c r="BA2" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="BB2" s="29" t="s">
+      <c r="BB2" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="BC2" s="29" t="s">
+      <c r="BC2" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="BD2" s="29" t="s">
+      <c r="BD2" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="BE2" s="29" t="s">
+      <c r="BE2" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="BF2" s="29" t="s">
+      <c r="BF2" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="BG2" s="29" t="s">
+      <c r="BG2" s="30" t="s">
         <v>677</v>
       </c>
       <c r="BH2" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="BI2" s="29" t="s">
+      <c r="BI2" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="BJ2" s="29" t="s">
+      <c r="BJ2" s="30" t="s">
         <v>678</v>
       </c>
-      <c r="BK2" s="29" t="s">
+      <c r="BK2" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="BL2" s="29" t="s">
+      <c r="BL2" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="BM2" s="29" t="s">
+      <c r="BM2" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="BN2" s="29" t="s">
+      <c r="BN2" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="BO2" s="29" t="s">
+      <c r="BO2" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="BP2" s="29" t="s">
+      <c r="BP2" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="BQ2" s="29" t="s">
+      <c r="BQ2" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="BR2" s="29" t="s">
+      <c r="BR2" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="BS2" s="29" t="s">
+      <c r="BS2" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="BT2" s="29" t="s">
+      <c r="BT2" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="BU2" s="29" t="s">
+      <c r="BU2" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="BV2" s="29" t="s">
+      <c r="BV2" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="BW2" s="29" t="s">
+      <c r="BW2" s="30" t="s">
         <v>679</v>
       </c>
-      <c r="BX2" s="29" t="s">
+      <c r="BX2" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="BY2" s="29" t="s">
+      <c r="BY2" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="BZ2" s="29" t="s">
+      <c r="BZ2" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="CA2" s="29" t="s">
+      <c r="CA2" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="CB2" s="29" t="s">
+      <c r="CB2" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="CC2" s="29" t="s">
+      <c r="CC2" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="CD2" s="29" t="s">
+      <c r="CD2" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="CE2" s="29" t="s">
+      <c r="CE2" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="CF2" s="29" t="s">
+      <c r="CF2" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="CG2" s="29" t="s">
+      <c r="CG2" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="CH2" s="29" t="s">
+      <c r="CH2" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="CI2" s="29" t="s">
+      <c r="CI2" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="CJ2" s="29" t="s">
+      <c r="CJ2" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="CK2" s="29" t="s">
+      <c r="CK2" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="CL2" s="29" t="s">
+      <c r="CL2" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="CM2" s="29" t="s">
+      <c r="CM2" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="CN2" s="29" t="s">
+      <c r="CN2" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="CO2" s="29" t="s">
+      <c r="CO2" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="CP2" s="29" t="s">
+      <c r="CP2" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="CQ2" s="29" t="s">
+      <c r="CQ2" s="30" t="s">
         <v>27</v>
       </c>
       <c r="CR2" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="CS2" s="31" t="s">
+      <c r="CS2" s="32" t="s">
         <v>248</v>
       </c>
-      <c r="CT2" s="31" t="s">
+      <c r="CT2" s="32" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:98" ht="51.6" x14ac:dyDescent="0.3">
       <c r="A3" s="21"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
       <c r="R3" s="21"/>
-      <c r="S3" s="29"/>
-      <c r="T3" s="29"/>
-      <c r="U3" s="29"/>
-      <c r="V3" s="29"/>
-      <c r="W3" s="29"/>
-      <c r="X3" s="29"/>
-      <c r="Y3" s="29"/>
-      <c r="Z3" s="29"/>
-      <c r="AA3" s="29"/>
-      <c r="AB3" s="29"/>
-      <c r="AC3" s="29"/>
-      <c r="AD3" s="29"/>
-      <c r="AE3" s="29"/>
-      <c r="AF3" s="29"/>
-      <c r="AG3" s="29"/>
-      <c r="AH3" s="29"/>
-      <c r="AI3" s="29"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="30"/>
+      <c r="V3" s="30"/>
+      <c r="W3" s="30"/>
+      <c r="X3" s="30"/>
+      <c r="Y3" s="30"/>
+      <c r="Z3" s="30"/>
+      <c r="AA3" s="30"/>
+      <c r="AB3" s="30"/>
+      <c r="AC3" s="30"/>
+      <c r="AD3" s="30"/>
+      <c r="AE3" s="30"/>
+      <c r="AF3" s="30"/>
+      <c r="AG3" s="30"/>
+      <c r="AH3" s="30"/>
+      <c r="AI3" s="30"/>
       <c r="AJ3" s="21"/>
-      <c r="AK3" s="29"/>
-      <c r="AL3" s="29"/>
-      <c r="AM3" s="29"/>
-      <c r="AN3" s="29"/>
-      <c r="AO3" s="29"/>
-      <c r="AP3" s="29"/>
-      <c r="AQ3" s="29"/>
-      <c r="AR3" s="29"/>
-      <c r="AS3" s="29"/>
-      <c r="AT3" s="29"/>
-      <c r="AU3" s="29"/>
-      <c r="AV3" s="29"/>
-      <c r="AW3" s="29"/>
-      <c r="AX3" s="29"/>
-      <c r="AY3" s="29"/>
-      <c r="AZ3" s="29"/>
-      <c r="BA3" s="29"/>
-      <c r="BB3" s="29"/>
-      <c r="BC3" s="29"/>
-      <c r="BD3" s="29"/>
-      <c r="BE3" s="29"/>
-      <c r="BF3" s="29"/>
-      <c r="BG3" s="29"/>
+      <c r="AK3" s="30"/>
+      <c r="AL3" s="30"/>
+      <c r="AM3" s="30"/>
+      <c r="AN3" s="30"/>
+      <c r="AO3" s="30"/>
+      <c r="AP3" s="30"/>
+      <c r="AQ3" s="30"/>
+      <c r="AR3" s="30"/>
+      <c r="AS3" s="30"/>
+      <c r="AT3" s="30"/>
+      <c r="AU3" s="30"/>
+      <c r="AV3" s="30"/>
+      <c r="AW3" s="30"/>
+      <c r="AX3" s="30"/>
+      <c r="AY3" s="30"/>
+      <c r="AZ3" s="30"/>
+      <c r="BA3" s="30"/>
+      <c r="BB3" s="30"/>
+      <c r="BC3" s="30"/>
+      <c r="BD3" s="30"/>
+      <c r="BE3" s="30"/>
+      <c r="BF3" s="30"/>
+      <c r="BG3" s="30"/>
       <c r="BH3" s="21"/>
-      <c r="BI3" s="29"/>
-      <c r="BJ3" s="29"/>
-      <c r="BK3" s="29"/>
-      <c r="BL3" s="29"/>
-      <c r="BM3" s="29"/>
-      <c r="BN3" s="29"/>
-      <c r="BO3" s="29"/>
-      <c r="BP3" s="29"/>
-      <c r="BQ3" s="29"/>
-      <c r="BR3" s="29"/>
-      <c r="BS3" s="29"/>
-      <c r="BT3" s="29"/>
-      <c r="BU3" s="29"/>
-      <c r="BV3" s="29"/>
-      <c r="BW3" s="29"/>
-      <c r="BX3" s="29"/>
-      <c r="BY3" s="29"/>
-      <c r="BZ3" s="29"/>
-      <c r="CA3" s="29"/>
-      <c r="CB3" s="29"/>
-      <c r="CC3" s="29"/>
-      <c r="CD3" s="29"/>
-      <c r="CE3" s="29"/>
-      <c r="CF3" s="29"/>
-      <c r="CG3" s="29"/>
-      <c r="CH3" s="29"/>
-      <c r="CI3" s="29"/>
-      <c r="CJ3" s="29"/>
-      <c r="CK3" s="29"/>
-      <c r="CL3" s="29"/>
-      <c r="CM3" s="29"/>
-      <c r="CN3" s="29"/>
-      <c r="CO3" s="29"/>
-      <c r="CP3" s="29"/>
-      <c r="CQ3" s="29"/>
+      <c r="BI3" s="30"/>
+      <c r="BJ3" s="30"/>
+      <c r="BK3" s="30"/>
+      <c r="BL3" s="30"/>
+      <c r="BM3" s="30"/>
+      <c r="BN3" s="30"/>
+      <c r="BO3" s="30"/>
+      <c r="BP3" s="30"/>
+      <c r="BQ3" s="30"/>
+      <c r="BR3" s="30"/>
+      <c r="BS3" s="30"/>
+      <c r="BT3" s="30"/>
+      <c r="BU3" s="30"/>
+      <c r="BV3" s="30"/>
+      <c r="BW3" s="30"/>
+      <c r="BX3" s="30"/>
+      <c r="BY3" s="30"/>
+      <c r="BZ3" s="30"/>
+      <c r="CA3" s="30"/>
+      <c r="CB3" s="30"/>
+      <c r="CC3" s="30"/>
+      <c r="CD3" s="30"/>
+      <c r="CE3" s="30"/>
+      <c r="CF3" s="30"/>
+      <c r="CG3" s="30"/>
+      <c r="CH3" s="30"/>
+      <c r="CI3" s="30"/>
+      <c r="CJ3" s="30"/>
+      <c r="CK3" s="30"/>
+      <c r="CL3" s="30"/>
+      <c r="CM3" s="30"/>
+      <c r="CN3" s="30"/>
+      <c r="CO3" s="30"/>
+      <c r="CP3" s="30"/>
+      <c r="CQ3" s="30"/>
       <c r="CR3" s="22" t="s">
         <v>247</v>
       </c>
-      <c r="CS3" s="31"/>
-      <c r="CT3" s="31"/>
+      <c r="CS3" s="32"/>
+      <c r="CT3" s="32"/>
     </row>
     <row r="4" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
@@ -40678,295 +40730,295 @@
       <c r="A19" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="30" t="s">
         <v>178</v>
       </c>
-      <c r="D19" s="29" t="s">
+      <c r="D19" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="E19" s="29" t="s">
+      <c r="E19" s="30" t="s">
         <v>675</v>
       </c>
-      <c r="F19" s="29" t="s">
+      <c r="F19" s="30" t="s">
         <v>167</v>
       </c>
-      <c r="G19" s="29" t="s">
+      <c r="G19" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="H19" s="29" t="s">
+      <c r="H19" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="I19" s="29" t="s">
+      <c r="I19" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="J19" s="29" t="s">
+      <c r="J19" s="30" t="s">
         <v>188</v>
       </c>
-      <c r="K19" s="29" t="s">
+      <c r="K19" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="L19" s="29" t="s">
+      <c r="L19" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="M19" s="29" t="s">
+      <c r="M19" s="30" t="s">
         <v>676</v>
       </c>
-      <c r="N19" s="29" t="s">
+      <c r="N19" s="30" t="s">
         <v>187</v>
       </c>
-      <c r="O19" s="29" t="s">
+      <c r="O19" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="P19" s="29" t="s">
+      <c r="P19" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="Q19" s="29" t="s">
+      <c r="Q19" s="30" t="s">
         <v>122</v>
       </c>
       <c r="R19" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="S19" s="29" t="s">
+      <c r="S19" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="T19" s="29" t="s">
+      <c r="T19" s="30" t="s">
         <v>234</v>
       </c>
-      <c r="U19" s="29" t="s">
+      <c r="U19" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="V19" s="29" t="s">
+      <c r="V19" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="W19" s="29" t="s">
+      <c r="W19" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="X19" s="29" t="s">
+      <c r="X19" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="Y19" s="29" t="s">
+      <c r="Y19" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="Z19" s="29" t="s">
+      <c r="Z19" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="AA19" s="29" t="s">
+      <c r="AA19" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="AB19" s="29" t="s">
+      <c r="AB19" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="AC19" s="29" t="s">
+      <c r="AC19" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="AD19" s="29" t="s">
+      <c r="AD19" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="AE19" s="29" t="s">
+      <c r="AE19" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="AF19" s="29" t="s">
+      <c r="AF19" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="AG19" s="29" t="s">
+      <c r="AG19" s="30" t="s">
         <v>177</v>
       </c>
-      <c r="AH19" s="29" t="s">
+      <c r="AH19" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="AI19" s="29" t="s">
+      <c r="AI19" s="30" t="s">
         <v>58</v>
       </c>
       <c r="AJ19" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="AK19" s="29" t="s">
+      <c r="AK19" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="AL19" s="29" t="s">
+      <c r="AL19" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="AM19" s="29" t="s">
+      <c r="AM19" s="30" t="s">
         <v>236</v>
       </c>
-      <c r="AN19" s="29" t="s">
+      <c r="AN19" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="AO19" s="29" t="s">
+      <c r="AO19" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="AP19" s="29" t="s">
+      <c r="AP19" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="AQ19" s="29" t="s">
+      <c r="AQ19" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="AR19" s="29" t="s">
+      <c r="AR19" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="AS19" s="29" t="s">
+      <c r="AS19" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="AT19" s="29" t="s">
+      <c r="AT19" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="AU19" s="29" t="s">
+      <c r="AU19" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="AV19" s="29" t="s">
+      <c r="AV19" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="AW19" s="29" t="s">
+      <c r="AW19" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="AX19" s="29" t="s">
+      <c r="AX19" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="AY19" s="29" t="s">
+      <c r="AY19" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="AZ19" s="29" t="s">
+      <c r="AZ19" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="BA19" s="29" t="s">
+      <c r="BA19" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="BB19" s="29" t="s">
+      <c r="BB19" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="BC19" s="29" t="s">
+      <c r="BC19" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="BD19" s="29" t="s">
+      <c r="BD19" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="BE19" s="29" t="s">
+      <c r="BE19" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="BF19" s="29" t="s">
+      <c r="BF19" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="BG19" s="29" t="s">
+      <c r="BG19" s="30" t="s">
         <v>677</v>
       </c>
       <c r="BH19" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="BI19" s="29" t="s">
+      <c r="BI19" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="BJ19" s="29" t="s">
+      <c r="BJ19" s="30" t="s">
         <v>678</v>
       </c>
-      <c r="BK19" s="29" t="s">
+      <c r="BK19" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="BL19" s="29" t="s">
+      <c r="BL19" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="BM19" s="29" t="s">
+      <c r="BM19" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="BN19" s="29" t="s">
+      <c r="BN19" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="BO19" s="29" t="s">
+      <c r="BO19" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="BP19" s="29" t="s">
+      <c r="BP19" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="BQ19" s="29" t="s">
+      <c r="BQ19" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="BR19" s="29" t="s">
+      <c r="BR19" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="BS19" s="29" t="s">
+      <c r="BS19" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="BT19" s="29" t="s">
+      <c r="BT19" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="BU19" s="29" t="s">
+      <c r="BU19" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="BV19" s="29" t="s">
+      <c r="BV19" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="BW19" s="29" t="s">
+      <c r="BW19" s="30" t="s">
         <v>679</v>
       </c>
-      <c r="BX19" s="29" t="s">
+      <c r="BX19" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="BY19" s="29" t="s">
+      <c r="BY19" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="BZ19" s="29" t="s">
+      <c r="BZ19" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="CA19" s="29" t="s">
+      <c r="CA19" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="CB19" s="29" t="s">
+      <c r="CB19" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="CC19" s="29" t="s">
+      <c r="CC19" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="CD19" s="29" t="s">
+      <c r="CD19" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="CE19" s="29" t="s">
+      <c r="CE19" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="CF19" s="29" t="s">
+      <c r="CF19" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="CG19" s="29" t="s">
+      <c r="CG19" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="CH19" s="29" t="s">
+      <c r="CH19" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="CI19" s="29" t="s">
+      <c r="CI19" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="CJ19" s="29" t="s">
+      <c r="CJ19" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="CK19" s="29" t="s">
+      <c r="CK19" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="CL19" s="29" t="s">
+      <c r="CL19" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="CM19" s="29" t="s">
+      <c r="CM19" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="CN19" s="29" t="s">
+      <c r="CN19" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="CO19" s="29" t="s">
+      <c r="CO19" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="CP19" s="29" t="s">
+      <c r="CP19" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="CQ19" s="29" t="s">
+      <c r="CQ19" s="30" t="s">
         <v>27</v>
       </c>
       <c r="CR19" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="CS19" s="31" t="s">
+      <c r="CS19" s="32" t="s">
         <v>248</v>
       </c>
-      <c r="CT19" s="31" t="s">
+      <c r="CT19" s="32" t="s">
         <v>249</v>
       </c>
     </row>
@@ -40974,111 +41026,111 @@
       <c r="A20" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="29"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="30"/>
       <c r="R20" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="S20" s="29"/>
-      <c r="T20" s="29"/>
-      <c r="U20" s="29"/>
-      <c r="V20" s="29"/>
-      <c r="W20" s="29"/>
-      <c r="X20" s="29"/>
-      <c r="Y20" s="29"/>
-      <c r="Z20" s="29"/>
-      <c r="AA20" s="29"/>
-      <c r="AB20" s="29"/>
-      <c r="AC20" s="29"/>
-      <c r="AD20" s="29"/>
-      <c r="AE20" s="29"/>
-      <c r="AF20" s="29"/>
-      <c r="AG20" s="29"/>
-      <c r="AH20" s="29"/>
-      <c r="AI20" s="29"/>
+      <c r="S20" s="30"/>
+      <c r="T20" s="30"/>
+      <c r="U20" s="30"/>
+      <c r="V20" s="30"/>
+      <c r="W20" s="30"/>
+      <c r="X20" s="30"/>
+      <c r="Y20" s="30"/>
+      <c r="Z20" s="30"/>
+      <c r="AA20" s="30"/>
+      <c r="AB20" s="30"/>
+      <c r="AC20" s="30"/>
+      <c r="AD20" s="30"/>
+      <c r="AE20" s="30"/>
+      <c r="AF20" s="30"/>
+      <c r="AG20" s="30"/>
+      <c r="AH20" s="30"/>
+      <c r="AI20" s="30"/>
       <c r="AJ20" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="AK20" s="29"/>
-      <c r="AL20" s="29"/>
-      <c r="AM20" s="29"/>
-      <c r="AN20" s="29"/>
-      <c r="AO20" s="29"/>
-      <c r="AP20" s="29"/>
-      <c r="AQ20" s="29"/>
-      <c r="AR20" s="29"/>
-      <c r="AS20" s="29"/>
-      <c r="AT20" s="29"/>
-      <c r="AU20" s="29"/>
-      <c r="AV20" s="29"/>
-      <c r="AW20" s="29"/>
-      <c r="AX20" s="29"/>
-      <c r="AY20" s="29"/>
-      <c r="AZ20" s="29"/>
-      <c r="BA20" s="29"/>
-      <c r="BB20" s="29"/>
-      <c r="BC20" s="29"/>
-      <c r="BD20" s="29"/>
-      <c r="BE20" s="29"/>
-      <c r="BF20" s="29"/>
-      <c r="BG20" s="29"/>
+      <c r="AK20" s="30"/>
+      <c r="AL20" s="30"/>
+      <c r="AM20" s="30"/>
+      <c r="AN20" s="30"/>
+      <c r="AO20" s="30"/>
+      <c r="AP20" s="30"/>
+      <c r="AQ20" s="30"/>
+      <c r="AR20" s="30"/>
+      <c r="AS20" s="30"/>
+      <c r="AT20" s="30"/>
+      <c r="AU20" s="30"/>
+      <c r="AV20" s="30"/>
+      <c r="AW20" s="30"/>
+      <c r="AX20" s="30"/>
+      <c r="AY20" s="30"/>
+      <c r="AZ20" s="30"/>
+      <c r="BA20" s="30"/>
+      <c r="BB20" s="30"/>
+      <c r="BC20" s="30"/>
+      <c r="BD20" s="30"/>
+      <c r="BE20" s="30"/>
+      <c r="BF20" s="30"/>
+      <c r="BG20" s="30"/>
       <c r="BH20" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="BI20" s="29"/>
-      <c r="BJ20" s="29"/>
-      <c r="BK20" s="29"/>
-      <c r="BL20" s="29"/>
-      <c r="BM20" s="29"/>
-      <c r="BN20" s="29"/>
-      <c r="BO20" s="29"/>
-      <c r="BP20" s="29"/>
-      <c r="BQ20" s="29"/>
-      <c r="BR20" s="29"/>
-      <c r="BS20" s="29"/>
-      <c r="BT20" s="29"/>
-      <c r="BU20" s="29"/>
-      <c r="BV20" s="29"/>
-      <c r="BW20" s="29"/>
-      <c r="BX20" s="29"/>
-      <c r="BY20" s="29"/>
-      <c r="BZ20" s="29"/>
-      <c r="CA20" s="29"/>
-      <c r="CB20" s="29"/>
-      <c r="CC20" s="29"/>
-      <c r="CD20" s="29"/>
-      <c r="CE20" s="29"/>
-      <c r="CF20" s="29"/>
-      <c r="CG20" s="29"/>
-      <c r="CH20" s="29"/>
-      <c r="CI20" s="29"/>
-      <c r="CJ20" s="29"/>
-      <c r="CK20" s="29"/>
-      <c r="CL20" s="29"/>
-      <c r="CM20" s="29"/>
-      <c r="CN20" s="29"/>
-      <c r="CO20" s="29"/>
-      <c r="CP20" s="29"/>
-      <c r="CQ20" s="29"/>
+      <c r="BI20" s="30"/>
+      <c r="BJ20" s="30"/>
+      <c r="BK20" s="30"/>
+      <c r="BL20" s="30"/>
+      <c r="BM20" s="30"/>
+      <c r="BN20" s="30"/>
+      <c r="BO20" s="30"/>
+      <c r="BP20" s="30"/>
+      <c r="BQ20" s="30"/>
+      <c r="BR20" s="30"/>
+      <c r="BS20" s="30"/>
+      <c r="BT20" s="30"/>
+      <c r="BU20" s="30"/>
+      <c r="BV20" s="30"/>
+      <c r="BW20" s="30"/>
+      <c r="BX20" s="30"/>
+      <c r="BY20" s="30"/>
+      <c r="BZ20" s="30"/>
+      <c r="CA20" s="30"/>
+      <c r="CB20" s="30"/>
+      <c r="CC20" s="30"/>
+      <c r="CD20" s="30"/>
+      <c r="CE20" s="30"/>
+      <c r="CF20" s="30"/>
+      <c r="CG20" s="30"/>
+      <c r="CH20" s="30"/>
+      <c r="CI20" s="30"/>
+      <c r="CJ20" s="30"/>
+      <c r="CK20" s="30"/>
+      <c r="CL20" s="30"/>
+      <c r="CM20" s="30"/>
+      <c r="CN20" s="30"/>
+      <c r="CO20" s="30"/>
+      <c r="CP20" s="30"/>
+      <c r="CQ20" s="30"/>
       <c r="CR20" s="22" t="s">
         <v>247</v>
       </c>
-      <c r="CS20" s="31"/>
-      <c r="CT20" s="31"/>
+      <c r="CS20" s="32"/>
+      <c r="CT20" s="32"/>
     </row>
     <row r="21" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A21" s="23" t="s">
@@ -45127,8 +45179,212 @@
         <v>130</v>
       </c>
     </row>
+    <row r="52" spans="1:91" x14ac:dyDescent="0.3">
+      <c r="A52" s="23" t="s">
+        <v>688</v>
+      </c>
+      <c r="T52" s="23">
+        <v>1049</v>
+      </c>
+      <c r="AW52" s="23">
+        <v>138</v>
+      </c>
+      <c r="BW52" s="23">
+        <v>563</v>
+      </c>
+      <c r="CB52" s="23">
+        <v>727</v>
+      </c>
+      <c r="CI52" s="23">
+        <v>923</v>
+      </c>
+      <c r="CL52" s="23">
+        <v>509</v>
+      </c>
+      <c r="CM52">
+        <v>156</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="202">
+    <mergeCell ref="CS19:CS20"/>
+    <mergeCell ref="CT19:CT20"/>
+    <mergeCell ref="CL19:CL20"/>
+    <mergeCell ref="CM19:CM20"/>
+    <mergeCell ref="CN19:CN20"/>
+    <mergeCell ref="CO19:CO20"/>
+    <mergeCell ref="CP19:CP20"/>
+    <mergeCell ref="CQ19:CQ20"/>
+    <mergeCell ref="CF19:CF20"/>
+    <mergeCell ref="CG19:CG20"/>
+    <mergeCell ref="CH19:CH20"/>
+    <mergeCell ref="CI19:CI20"/>
+    <mergeCell ref="CJ19:CJ20"/>
+    <mergeCell ref="CK19:CK20"/>
+    <mergeCell ref="BZ19:BZ20"/>
+    <mergeCell ref="CA19:CA20"/>
+    <mergeCell ref="CB19:CB20"/>
+    <mergeCell ref="CC19:CC20"/>
+    <mergeCell ref="CD19:CD20"/>
+    <mergeCell ref="CE19:CE20"/>
+    <mergeCell ref="BT19:BT20"/>
+    <mergeCell ref="BU19:BU20"/>
+    <mergeCell ref="BV19:BV20"/>
+    <mergeCell ref="BW19:BW20"/>
+    <mergeCell ref="BX19:BX20"/>
+    <mergeCell ref="BY19:BY20"/>
+    <mergeCell ref="BN19:BN20"/>
+    <mergeCell ref="BO19:BO20"/>
+    <mergeCell ref="BP19:BP20"/>
+    <mergeCell ref="BQ19:BQ20"/>
+    <mergeCell ref="BR19:BR20"/>
+    <mergeCell ref="BS19:BS20"/>
+    <mergeCell ref="BG19:BG20"/>
+    <mergeCell ref="BI19:BI20"/>
+    <mergeCell ref="BJ19:BJ20"/>
+    <mergeCell ref="BK19:BK20"/>
+    <mergeCell ref="BL19:BL20"/>
+    <mergeCell ref="BM19:BM20"/>
+    <mergeCell ref="BA19:BA20"/>
+    <mergeCell ref="BB19:BB20"/>
+    <mergeCell ref="BC19:BC20"/>
+    <mergeCell ref="BD19:BD20"/>
+    <mergeCell ref="BE19:BE20"/>
+    <mergeCell ref="BF19:BF20"/>
+    <mergeCell ref="AU19:AU20"/>
+    <mergeCell ref="AV19:AV20"/>
+    <mergeCell ref="AW19:AW20"/>
+    <mergeCell ref="AX19:AX20"/>
+    <mergeCell ref="AY19:AY20"/>
+    <mergeCell ref="AZ19:AZ20"/>
+    <mergeCell ref="AO19:AO20"/>
+    <mergeCell ref="AP19:AP20"/>
+    <mergeCell ref="AQ19:AQ20"/>
+    <mergeCell ref="AR19:AR20"/>
+    <mergeCell ref="AS19:AS20"/>
+    <mergeCell ref="AT19:AT20"/>
+    <mergeCell ref="AH19:AH20"/>
+    <mergeCell ref="AI19:AI20"/>
+    <mergeCell ref="AK19:AK20"/>
+    <mergeCell ref="AL19:AL20"/>
+    <mergeCell ref="AM19:AM20"/>
+    <mergeCell ref="AN19:AN20"/>
+    <mergeCell ref="AB19:AB20"/>
+    <mergeCell ref="AC19:AC20"/>
+    <mergeCell ref="AD19:AD20"/>
+    <mergeCell ref="AE19:AE20"/>
+    <mergeCell ref="AF19:AF20"/>
+    <mergeCell ref="AG19:AG20"/>
+    <mergeCell ref="V19:V20"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="X19:X20"/>
+    <mergeCell ref="Y19:Y20"/>
+    <mergeCell ref="Z19:Z20"/>
+    <mergeCell ref="AA19:AA20"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="S19:S20"/>
+    <mergeCell ref="T19:T20"/>
+    <mergeCell ref="U19:U20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="CQ2:CQ3"/>
+    <mergeCell ref="CS2:CS3"/>
+    <mergeCell ref="CT2:CT3"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="CK2:CK3"/>
+    <mergeCell ref="CL2:CL3"/>
+    <mergeCell ref="CM2:CM3"/>
+    <mergeCell ref="CN2:CN3"/>
+    <mergeCell ref="CO2:CO3"/>
+    <mergeCell ref="CP2:CP3"/>
+    <mergeCell ref="CE2:CE3"/>
+    <mergeCell ref="CF2:CF3"/>
+    <mergeCell ref="CG2:CG3"/>
+    <mergeCell ref="CH2:CH3"/>
+    <mergeCell ref="CI2:CI3"/>
+    <mergeCell ref="CJ2:CJ3"/>
+    <mergeCell ref="BY2:BY3"/>
+    <mergeCell ref="BZ2:BZ3"/>
+    <mergeCell ref="CA2:CA3"/>
+    <mergeCell ref="CB2:CB3"/>
+    <mergeCell ref="CC2:CC3"/>
+    <mergeCell ref="CD2:CD3"/>
+    <mergeCell ref="BS2:BS3"/>
+    <mergeCell ref="BT2:BT3"/>
+    <mergeCell ref="BU2:BU3"/>
+    <mergeCell ref="BV2:BV3"/>
+    <mergeCell ref="BW2:BW3"/>
+    <mergeCell ref="BX2:BX3"/>
+    <mergeCell ref="BM2:BM3"/>
+    <mergeCell ref="BN2:BN3"/>
+    <mergeCell ref="BO2:BO3"/>
+    <mergeCell ref="BP2:BP3"/>
+    <mergeCell ref="BQ2:BQ3"/>
+    <mergeCell ref="BR2:BR3"/>
+    <mergeCell ref="BF2:BF3"/>
+    <mergeCell ref="BG2:BG3"/>
+    <mergeCell ref="BI2:BI3"/>
+    <mergeCell ref="BJ2:BJ3"/>
+    <mergeCell ref="BK2:BK3"/>
+    <mergeCell ref="BL2:BL3"/>
+    <mergeCell ref="AZ2:AZ3"/>
+    <mergeCell ref="BA2:BA3"/>
+    <mergeCell ref="BB2:BB3"/>
+    <mergeCell ref="BC2:BC3"/>
+    <mergeCell ref="BD2:BD3"/>
+    <mergeCell ref="BE2:BE3"/>
+    <mergeCell ref="AT2:AT3"/>
+    <mergeCell ref="AU2:AU3"/>
+    <mergeCell ref="AV2:AV3"/>
+    <mergeCell ref="AW2:AW3"/>
+    <mergeCell ref="AX2:AX3"/>
+    <mergeCell ref="AY2:AY3"/>
+    <mergeCell ref="AN2:AN3"/>
+    <mergeCell ref="AO2:AO3"/>
+    <mergeCell ref="AP2:AP3"/>
+    <mergeCell ref="AQ2:AQ3"/>
+    <mergeCell ref="AR2:AR3"/>
+    <mergeCell ref="AS2:AS3"/>
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="AH2:AH3"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="AK2:AK3"/>
+    <mergeCell ref="AL2:AL3"/>
+    <mergeCell ref="AM2:AM3"/>
+    <mergeCell ref="AA2:AA3"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="Z2:Z3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
     <mergeCell ref="BI1:BO1"/>
     <mergeCell ref="BP1:BW1"/>
     <mergeCell ref="BX1:CI1"/>
@@ -45153,184 +45409,6 @@
     <mergeCell ref="U1:X1"/>
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="AF2:AF3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="Z2:Z3"/>
-    <mergeCell ref="AN2:AN3"/>
-    <mergeCell ref="AO2:AO3"/>
-    <mergeCell ref="AP2:AP3"/>
-    <mergeCell ref="AQ2:AQ3"/>
-    <mergeCell ref="AR2:AR3"/>
-    <mergeCell ref="AS2:AS3"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="AK2:AK3"/>
-    <mergeCell ref="AL2:AL3"/>
-    <mergeCell ref="AM2:AM3"/>
-    <mergeCell ref="AZ2:AZ3"/>
-    <mergeCell ref="BA2:BA3"/>
-    <mergeCell ref="BB2:BB3"/>
-    <mergeCell ref="BC2:BC3"/>
-    <mergeCell ref="BD2:BD3"/>
-    <mergeCell ref="BE2:BE3"/>
-    <mergeCell ref="AT2:AT3"/>
-    <mergeCell ref="AU2:AU3"/>
-    <mergeCell ref="AV2:AV3"/>
-    <mergeCell ref="AW2:AW3"/>
-    <mergeCell ref="AX2:AX3"/>
-    <mergeCell ref="AY2:AY3"/>
-    <mergeCell ref="BM2:BM3"/>
-    <mergeCell ref="BN2:BN3"/>
-    <mergeCell ref="BO2:BO3"/>
-    <mergeCell ref="BP2:BP3"/>
-    <mergeCell ref="BQ2:BQ3"/>
-    <mergeCell ref="BR2:BR3"/>
-    <mergeCell ref="BF2:BF3"/>
-    <mergeCell ref="BG2:BG3"/>
-    <mergeCell ref="BI2:BI3"/>
-    <mergeCell ref="BJ2:BJ3"/>
-    <mergeCell ref="BK2:BK3"/>
-    <mergeCell ref="BL2:BL3"/>
-    <mergeCell ref="CA2:CA3"/>
-    <mergeCell ref="CB2:CB3"/>
-    <mergeCell ref="CC2:CC3"/>
-    <mergeCell ref="CD2:CD3"/>
-    <mergeCell ref="BS2:BS3"/>
-    <mergeCell ref="BT2:BT3"/>
-    <mergeCell ref="BU2:BU3"/>
-    <mergeCell ref="BV2:BV3"/>
-    <mergeCell ref="BW2:BW3"/>
-    <mergeCell ref="BX2:BX3"/>
-    <mergeCell ref="CQ2:CQ3"/>
-    <mergeCell ref="CS2:CS3"/>
-    <mergeCell ref="CT2:CT3"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="CK2:CK3"/>
-    <mergeCell ref="CL2:CL3"/>
-    <mergeCell ref="CM2:CM3"/>
-    <mergeCell ref="CN2:CN3"/>
-    <mergeCell ref="CO2:CO3"/>
-    <mergeCell ref="CP2:CP3"/>
-    <mergeCell ref="CE2:CE3"/>
-    <mergeCell ref="CF2:CF3"/>
-    <mergeCell ref="CG2:CG3"/>
-    <mergeCell ref="CH2:CH3"/>
-    <mergeCell ref="CI2:CI3"/>
-    <mergeCell ref="CJ2:CJ3"/>
-    <mergeCell ref="BY2:BY3"/>
-    <mergeCell ref="BZ2:BZ3"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="P19:P20"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="S19:S20"/>
-    <mergeCell ref="T19:T20"/>
-    <mergeCell ref="U19:U20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="AB19:AB20"/>
-    <mergeCell ref="AC19:AC20"/>
-    <mergeCell ref="AD19:AD20"/>
-    <mergeCell ref="AE19:AE20"/>
-    <mergeCell ref="AF19:AF20"/>
-    <mergeCell ref="AG19:AG20"/>
-    <mergeCell ref="V19:V20"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="X19:X20"/>
-    <mergeCell ref="Y19:Y20"/>
-    <mergeCell ref="Z19:Z20"/>
-    <mergeCell ref="AA19:AA20"/>
-    <mergeCell ref="AO19:AO20"/>
-    <mergeCell ref="AP19:AP20"/>
-    <mergeCell ref="AQ19:AQ20"/>
-    <mergeCell ref="AR19:AR20"/>
-    <mergeCell ref="AS19:AS20"/>
-    <mergeCell ref="AT19:AT20"/>
-    <mergeCell ref="AH19:AH20"/>
-    <mergeCell ref="AI19:AI20"/>
-    <mergeCell ref="AK19:AK20"/>
-    <mergeCell ref="AL19:AL20"/>
-    <mergeCell ref="AM19:AM20"/>
-    <mergeCell ref="AN19:AN20"/>
-    <mergeCell ref="BA19:BA20"/>
-    <mergeCell ref="BB19:BB20"/>
-    <mergeCell ref="BC19:BC20"/>
-    <mergeCell ref="BD19:BD20"/>
-    <mergeCell ref="BE19:BE20"/>
-    <mergeCell ref="BF19:BF20"/>
-    <mergeCell ref="AU19:AU20"/>
-    <mergeCell ref="AV19:AV20"/>
-    <mergeCell ref="AW19:AW20"/>
-    <mergeCell ref="AX19:AX20"/>
-    <mergeCell ref="AY19:AY20"/>
-    <mergeCell ref="AZ19:AZ20"/>
-    <mergeCell ref="BN19:BN20"/>
-    <mergeCell ref="BO19:BO20"/>
-    <mergeCell ref="BP19:BP20"/>
-    <mergeCell ref="BQ19:BQ20"/>
-    <mergeCell ref="BR19:BR20"/>
-    <mergeCell ref="BS19:BS20"/>
-    <mergeCell ref="BG19:BG20"/>
-    <mergeCell ref="BI19:BI20"/>
-    <mergeCell ref="BJ19:BJ20"/>
-    <mergeCell ref="BK19:BK20"/>
-    <mergeCell ref="BL19:BL20"/>
-    <mergeCell ref="BM19:BM20"/>
-    <mergeCell ref="BZ19:BZ20"/>
-    <mergeCell ref="CA19:CA20"/>
-    <mergeCell ref="CB19:CB20"/>
-    <mergeCell ref="CC19:CC20"/>
-    <mergeCell ref="CD19:CD20"/>
-    <mergeCell ref="CE19:CE20"/>
-    <mergeCell ref="BT19:BT20"/>
-    <mergeCell ref="BU19:BU20"/>
-    <mergeCell ref="BV19:BV20"/>
-    <mergeCell ref="BW19:BW20"/>
-    <mergeCell ref="BX19:BX20"/>
-    <mergeCell ref="BY19:BY20"/>
-    <mergeCell ref="CS19:CS20"/>
-    <mergeCell ref="CT19:CT20"/>
-    <mergeCell ref="CL19:CL20"/>
-    <mergeCell ref="CM19:CM20"/>
-    <mergeCell ref="CN19:CN20"/>
-    <mergeCell ref="CO19:CO20"/>
-    <mergeCell ref="CP19:CP20"/>
-    <mergeCell ref="CQ19:CQ20"/>
-    <mergeCell ref="CF19:CF20"/>
-    <mergeCell ref="CG19:CG20"/>
-    <mergeCell ref="CH19:CH20"/>
-    <mergeCell ref="CI19:CI20"/>
-    <mergeCell ref="CJ19:CJ20"/>
-    <mergeCell ref="CK19:CK20"/>
   </mergeCells>
   <phoneticPr fontId="28" type="noConversion"/>
   <hyperlinks>
@@ -45539,192 +45617,192 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="35" t="s">
         <v>557</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="34" t="s">
         <v>525</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35" t="s">
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34" t="s">
         <v>520</v>
       </c>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35" t="s">
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34" t="s">
         <v>241</v>
       </c>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35" t="s">
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34" t="s">
         <v>526</v>
       </c>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35" t="s">
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34" t="s">
         <v>527</v>
       </c>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="35"/>
-      <c r="AA1" s="35"/>
-      <c r="AB1" s="35" t="s">
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34" t="s">
         <v>528</v>
       </c>
-      <c r="AC1" s="35"/>
-      <c r="AD1" s="35"/>
-      <c r="AE1" s="35"/>
-      <c r="AF1" s="35"/>
-      <c r="AG1" s="35"/>
-      <c r="AH1" s="35"/>
-      <c r="AI1" s="35"/>
-      <c r="AJ1" s="35"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="34"/>
+      <c r="AJ1" s="34"/>
       <c r="AK1" s="12" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A2" s="33"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="35"/>
-      <c r="W2" s="35"/>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="35"/>
-      <c r="Z2" s="35"/>
-      <c r="AA2" s="35"/>
-      <c r="AB2" s="35"/>
-      <c r="AC2" s="35"/>
-      <c r="AD2" s="35"/>
-      <c r="AE2" s="35"/>
-      <c r="AF2" s="35"/>
-      <c r="AG2" s="35"/>
-      <c r="AH2" s="35"/>
-      <c r="AI2" s="35"/>
-      <c r="AJ2" s="35"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="34"/>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="34"/>
+      <c r="AI2" s="34"/>
+      <c r="AJ2" s="34"/>
       <c r="AK2" s="2"/>
     </row>
     <row r="3" spans="1:37" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="33"/>
-      <c r="B3" s="34" t="s">
+      <c r="A3" s="35"/>
+      <c r="B3" s="33" t="s">
         <v>521</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="33" t="s">
         <v>529</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="33" t="s">
         <v>522</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="33" t="s">
         <v>530</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="F3" s="33" t="s">
         <v>531</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="33" t="s">
         <v>532</v>
       </c>
-      <c r="H3" s="34" t="s">
+      <c r="H3" s="33" t="s">
         <v>523</v>
       </c>
-      <c r="I3" s="34" t="s">
+      <c r="I3" s="33" t="s">
         <v>533</v>
       </c>
-      <c r="J3" s="34" t="s">
+      <c r="J3" s="33" t="s">
         <v>534</v>
       </c>
-      <c r="K3" s="34" t="s">
+      <c r="K3" s="33" t="s">
         <v>535</v>
       </c>
-      <c r="L3" s="34" t="s">
+      <c r="L3" s="33" t="s">
         <v>536</v>
       </c>
-      <c r="M3" s="34" t="s">
+      <c r="M3" s="33" t="s">
         <v>537</v>
       </c>
-      <c r="N3" s="34" t="s">
+      <c r="N3" s="33" t="s">
         <v>538</v>
       </c>
-      <c r="O3" s="34" t="s">
+      <c r="O3" s="33" t="s">
         <v>539</v>
       </c>
-      <c r="P3" s="34" t="s">
+      <c r="P3" s="33" t="s">
         <v>540</v>
       </c>
-      <c r="Q3" s="34" t="s">
+      <c r="Q3" s="33" t="s">
         <v>541</v>
       </c>
-      <c r="R3" s="34" t="s">
+      <c r="R3" s="33" t="s">
         <v>542</v>
       </c>
       <c r="S3" s="13" t="s">
         <v>543</v>
       </c>
-      <c r="T3" s="34" t="s">
+      <c r="T3" s="33" t="s">
         <v>544</v>
       </c>
-      <c r="U3" s="34" t="s">
+      <c r="U3" s="33" t="s">
         <v>545</v>
       </c>
-      <c r="V3" s="34" t="s">
+      <c r="V3" s="33" t="s">
         <v>546</v>
       </c>
-      <c r="W3" s="34" t="s">
+      <c r="W3" s="33" t="s">
         <v>547</v>
       </c>
-      <c r="X3" s="34" t="s">
+      <c r="X3" s="33" t="s">
         <v>524</v>
       </c>
-      <c r="Y3" s="34" t="s">
+      <c r="Y3" s="33" t="s">
         <v>548</v>
       </c>
-      <c r="Z3" s="34" t="s">
+      <c r="Z3" s="33" t="s">
         <v>549</v>
       </c>
-      <c r="AA3" s="34" t="s">
+      <c r="AA3" s="33" t="s">
         <v>550</v>
       </c>
-      <c r="AB3" s="34" t="s">
+      <c r="AB3" s="33" t="s">
         <v>551</v>
       </c>
-      <c r="AC3" s="34" t="s">
+      <c r="AC3" s="33" t="s">
         <v>552</v>
       </c>
-      <c r="AD3" s="34" t="s">
+      <c r="AD3" s="33" t="s">
         <v>553</v>
       </c>
-      <c r="AE3" s="34" t="s">
+      <c r="AE3" s="33" t="s">
         <v>554</v>
       </c>
-      <c r="AF3" s="34" t="s">
+      <c r="AF3" s="33" t="s">
         <v>555</v>
       </c>
       <c r="AG3" s="13" t="s">
@@ -45744,40 +45822,40 @@
       </c>
     </row>
     <row r="4" spans="1:37" ht="130.80000000000001" x14ac:dyDescent="0.3">
-      <c r="A4" s="33"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
+      <c r="A4" s="35"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="33"/>
       <c r="S4" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="T4" s="34"/>
-      <c r="U4" s="34"/>
-      <c r="V4" s="34"/>
-      <c r="W4" s="34"/>
-      <c r="X4" s="34"/>
-      <c r="Y4" s="34"/>
-      <c r="Z4" s="34"/>
-      <c r="AA4" s="34"/>
-      <c r="AB4" s="34"/>
-      <c r="AC4" s="34"/>
-      <c r="AD4" s="34"/>
-      <c r="AE4" s="34"/>
-      <c r="AF4" s="34"/>
+      <c r="T4" s="33"/>
+      <c r="U4" s="33"/>
+      <c r="V4" s="33"/>
+      <c r="W4" s="33"/>
+      <c r="X4" s="33"/>
+      <c r="Y4" s="33"/>
+      <c r="Z4" s="33"/>
+      <c r="AA4" s="33"/>
+      <c r="AB4" s="33"/>
+      <c r="AC4" s="33"/>
+      <c r="AD4" s="33"/>
+      <c r="AE4" s="33"/>
+      <c r="AF4" s="33"/>
       <c r="AG4" s="13" t="s">
         <v>559</v>
       </c>
@@ -50873,34 +50951,6 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="AF3:AF4"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="AI1:AI2"/>
-    <mergeCell ref="AH1:AH2"/>
-    <mergeCell ref="AJ1:AJ2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="B1:G2"/>
-    <mergeCell ref="H1:N2"/>
-    <mergeCell ref="O1:S2"/>
-    <mergeCell ref="T1:V2"/>
-    <mergeCell ref="W1:AA2"/>
-    <mergeCell ref="AB1:AF2"/>
-    <mergeCell ref="AG1:AG2"/>
-    <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="AC3:AC4"/>
-    <mergeCell ref="AD3:AD4"/>
-    <mergeCell ref="AE3:AE4"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="Z3:Z4"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
@@ -50914,6 +50964,34 @@
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="B1:G2"/>
+    <mergeCell ref="H1:N2"/>
+    <mergeCell ref="O1:S2"/>
+    <mergeCell ref="T1:V2"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="AF3:AF4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="AI1:AI2"/>
+    <mergeCell ref="AH1:AH2"/>
+    <mergeCell ref="AJ1:AJ2"/>
+    <mergeCell ref="W1:AA2"/>
+    <mergeCell ref="AB1:AF2"/>
+    <mergeCell ref="AG1:AG2"/>
+    <mergeCell ref="AB3:AB4"/>
+    <mergeCell ref="AC3:AC4"/>
+    <mergeCell ref="AD3:AD4"/>
+    <mergeCell ref="AE3:AE4"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="Z3:Z4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="Time in China" display="https://en.wikipedia.org/wiki/Time_in_China" xr:uid="{00000000-0004-0000-0300-000000000000}"/>

--- a/myfile.xlsx
+++ b/myfile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\coronavirus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC485B2-C892-44F1-8909-85077A844B29}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69EBEE19-E204-435F-B141-3B0F27DFEB32}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1464" yWindow="1464" windowWidth="17280" windowHeight="8964" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="worldometer" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2438" uniqueCount="689">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2437" uniqueCount="689">
   <si>
     <t>Country,Other</t>
   </si>
@@ -2118,9 +2118,6 @@
     <t>East Timor</t>
   </si>
   <si>
-    <t>4[112]</t>
-  </si>
-  <si>
     <t>Eastern Africa</t>
   </si>
   <si>
@@ -2167,13 +2164,16 @@
   </si>
   <si>
     <t>20.4.01</t>
+  </si>
+  <si>
+    <t>20.4.02</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2388,6 +2388,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.5"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2741,7 +2748,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2825,17 +2832,20 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="255" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="255" wrapText="1"/>
@@ -2843,9 +2853,7 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="42" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -7931,16 +7939,16 @@
       <c r="A2" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="29" t="s">
         <v>29</v>
       </c>
       <c r="F2" s="6" t="s">
@@ -7949,136 +7957,136 @@
       <c r="G2" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="H2" s="30" t="s">
+      <c r="H2" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="I2" s="30" t="s">
+      <c r="I2" s="29" t="s">
         <v>234</v>
       </c>
-      <c r="J2" s="30" t="s">
+      <c r="J2" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="30" t="s">
+      <c r="K2" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="L2" s="30" t="s">
+      <c r="L2" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="M2" s="30" t="s">
+      <c r="M2" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="N2" s="30" t="s">
+      <c r="N2" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="O2" s="30" t="s">
+      <c r="O2" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="P2" s="30" t="s">
+      <c r="P2" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="Q2" s="30" t="s">
+      <c r="Q2" s="29" t="s">
         <v>47</v>
       </c>
       <c r="R2" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="S2" s="30" t="s">
+      <c r="S2" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="T2" s="30" t="s">
+      <c r="T2" s="29" t="s">
         <v>235</v>
       </c>
-      <c r="U2" s="30" t="s">
+      <c r="U2" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="V2" s="30" t="s">
+      <c r="V2" s="29" t="s">
         <v>236</v>
       </c>
-      <c r="W2" s="30" t="s">
+      <c r="W2" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="X2" s="30" t="s">
+      <c r="X2" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="Y2" s="30" t="s">
+      <c r="Y2" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="Z2" s="30" t="s">
+      <c r="Z2" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="AA2" s="30" t="s">
+      <c r="AA2" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="AB2" s="30" t="s">
+      <c r="AB2" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="AC2" s="30" t="s">
+      <c r="AC2" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="AD2" s="30" t="s">
+      <c r="AD2" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="AE2" s="30" t="s">
+      <c r="AE2" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="AF2" s="30" t="s">
+      <c r="AF2" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="AG2" s="30" t="s">
+      <c r="AG2" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="AH2" s="30" t="s">
+      <c r="AH2" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="AI2" s="30" t="s">
+      <c r="AI2" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="AJ2" s="30" t="s">
+      <c r="AJ2" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="AK2" s="30" t="s">
+      <c r="AK2" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="AL2" s="30" t="s">
+      <c r="AL2" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="AM2" s="30" t="s">
+      <c r="AM2" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="AN2" s="30" t="s">
+      <c r="AN2" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="AO2" s="30" t="s">
+      <c r="AO2" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="AP2" s="30" t="s">
+      <c r="AP2" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="AQ2" s="30" t="s">
+      <c r="AQ2" s="29" t="s">
         <v>66</v>
       </c>
       <c r="AR2" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="AS2" s="30" t="s">
+      <c r="AS2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="AT2" s="30" t="s">
+      <c r="AT2" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="AU2" s="30" t="s">
+      <c r="AU2" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="AV2" s="30" t="s">
+      <c r="AV2" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="AW2" s="30" t="s">
+      <c r="AW2" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="AX2" s="30" t="s">
+      <c r="AX2" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="AY2" s="30" t="s">
+      <c r="AY2" s="29" t="s">
         <v>28</v>
       </c>
       <c r="AZ2" s="4" t="s">
@@ -8087,233 +8095,233 @@
       <c r="BA2" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="BB2" s="30" t="s">
+      <c r="BB2" s="29" t="s">
         <v>48</v>
       </c>
       <c r="BC2" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="BD2" s="30" t="s">
+      <c r="BD2" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="BE2" s="30" t="s">
+      <c r="BE2" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="BF2" s="30" t="s">
+      <c r="BF2" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="BG2" s="30" t="s">
+      <c r="BG2" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="BH2" s="30" t="s">
+      <c r="BH2" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="BI2" s="30" t="s">
+      <c r="BI2" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="BJ2" s="30" t="s">
+      <c r="BJ2" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="BK2" s="30" t="s">
+      <c r="BK2" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="BL2" s="30" t="s">
+      <c r="BL2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="BM2" s="30" t="s">
+      <c r="BM2" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="BN2" s="30" t="s">
+      <c r="BN2" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="BO2" s="30" t="s">
+      <c r="BO2" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="BP2" s="30" t="s">
+      <c r="BP2" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="BQ2" s="30" t="s">
+      <c r="BQ2" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="BR2" s="30" t="s">
+      <c r="BR2" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="BS2" s="30" t="s">
+      <c r="BS2" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="BT2" s="30" t="s">
+      <c r="BT2" s="29" t="s">
         <v>20</v>
       </c>
       <c r="BU2" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="BV2" s="30" t="s">
+      <c r="BV2" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="BW2" s="30" t="s">
+      <c r="BW2" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="BX2" s="30" t="s">
+      <c r="BX2" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="BY2" s="30" t="s">
+      <c r="BY2" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="BZ2" s="30" t="s">
+      <c r="BZ2" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="CA2" s="30" t="s">
+      <c r="CA2" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="CB2" s="30" t="s">
+      <c r="CB2" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="CC2" s="30" t="s">
+      <c r="CC2" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="CD2" s="30" t="s">
+      <c r="CD2" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="CE2" s="30" t="s">
+      <c r="CE2" s="29" t="s">
         <v>41</v>
       </c>
       <c r="CF2" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="CG2" s="30" t="s">
+      <c r="CG2" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="CH2" s="30" t="s">
+      <c r="CH2" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="CI2" s="30" t="s">
+      <c r="CI2" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="CJ2" s="30" t="s">
+      <c r="CJ2" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="CK2" s="30" t="s">
+      <c r="CK2" s="29" t="s">
         <v>45</v>
       </c>
       <c r="CL2" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="CM2" s="29" t="s">
+      <c r="CM2" s="30" t="s">
         <v>248</v>
       </c>
-      <c r="CN2" s="29" t="s">
+      <c r="CN2" s="30" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:92" ht="87.6" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
       <c r="F3" s="6" t="s">
         <v>231</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
       <c r="R3" s="4"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30"/>
-      <c r="U3" s="30"/>
-      <c r="V3" s="30"/>
-      <c r="W3" s="30"/>
-      <c r="X3" s="30"/>
-      <c r="Y3" s="30"/>
-      <c r="Z3" s="30"/>
-      <c r="AA3" s="30"/>
-      <c r="AB3" s="30"/>
-      <c r="AC3" s="30"/>
-      <c r="AD3" s="30"/>
-      <c r="AE3" s="30"/>
-      <c r="AF3" s="30"/>
-      <c r="AG3" s="30"/>
-      <c r="AH3" s="30"/>
-      <c r="AI3" s="30"/>
-      <c r="AJ3" s="30"/>
-      <c r="AK3" s="30"/>
-      <c r="AL3" s="30"/>
-      <c r="AM3" s="30"/>
-      <c r="AN3" s="30"/>
-      <c r="AO3" s="30"/>
-      <c r="AP3" s="30"/>
-      <c r="AQ3" s="30"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="29"/>
+      <c r="W3" s="29"/>
+      <c r="X3" s="29"/>
+      <c r="Y3" s="29"/>
+      <c r="Z3" s="29"/>
+      <c r="AA3" s="29"/>
+      <c r="AB3" s="29"/>
+      <c r="AC3" s="29"/>
+      <c r="AD3" s="29"/>
+      <c r="AE3" s="29"/>
+      <c r="AF3" s="29"/>
+      <c r="AG3" s="29"/>
+      <c r="AH3" s="29"/>
+      <c r="AI3" s="29"/>
+      <c r="AJ3" s="29"/>
+      <c r="AK3" s="29"/>
+      <c r="AL3" s="29"/>
+      <c r="AM3" s="29"/>
+      <c r="AN3" s="29"/>
+      <c r="AO3" s="29"/>
+      <c r="AP3" s="29"/>
+      <c r="AQ3" s="29"/>
       <c r="AR3" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="AS3" s="30"/>
-      <c r="AT3" s="30"/>
-      <c r="AU3" s="30"/>
-      <c r="AV3" s="30"/>
-      <c r="AW3" s="30"/>
-      <c r="AX3" s="30"/>
-      <c r="AY3" s="30"/>
+      <c r="AS3" s="29"/>
+      <c r="AT3" s="29"/>
+      <c r="AU3" s="29"/>
+      <c r="AV3" s="29"/>
+      <c r="AW3" s="29"/>
+      <c r="AX3" s="29"/>
+      <c r="AY3" s="29"/>
       <c r="AZ3" s="4"/>
       <c r="BA3" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="BB3" s="30"/>
+      <c r="BB3" s="29"/>
       <c r="BC3" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="BD3" s="30"/>
-      <c r="BE3" s="30"/>
-      <c r="BF3" s="30"/>
-      <c r="BG3" s="30"/>
-      <c r="BH3" s="30"/>
-      <c r="BI3" s="30"/>
-      <c r="BJ3" s="30"/>
-      <c r="BK3" s="30"/>
-      <c r="BL3" s="30"/>
-      <c r="BM3" s="30"/>
-      <c r="BN3" s="30"/>
-      <c r="BO3" s="30"/>
-      <c r="BP3" s="30"/>
-      <c r="BQ3" s="30"/>
-      <c r="BR3" s="30"/>
-      <c r="BS3" s="30"/>
-      <c r="BT3" s="30"/>
+      <c r="BD3" s="29"/>
+      <c r="BE3" s="29"/>
+      <c r="BF3" s="29"/>
+      <c r="BG3" s="29"/>
+      <c r="BH3" s="29"/>
+      <c r="BI3" s="29"/>
+      <c r="BJ3" s="29"/>
+      <c r="BK3" s="29"/>
+      <c r="BL3" s="29"/>
+      <c r="BM3" s="29"/>
+      <c r="BN3" s="29"/>
+      <c r="BO3" s="29"/>
+      <c r="BP3" s="29"/>
+      <c r="BQ3" s="29"/>
+      <c r="BR3" s="29"/>
+      <c r="BS3" s="29"/>
+      <c r="BT3" s="29"/>
       <c r="BU3" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="BV3" s="30"/>
-      <c r="BW3" s="30"/>
-      <c r="BX3" s="30"/>
-      <c r="BY3" s="30"/>
-      <c r="BZ3" s="30"/>
-      <c r="CA3" s="30"/>
-      <c r="CB3" s="30"/>
-      <c r="CC3" s="30"/>
-      <c r="CD3" s="30"/>
-      <c r="CE3" s="30"/>
+      <c r="BV3" s="29"/>
+      <c r="BW3" s="29"/>
+      <c r="BX3" s="29"/>
+      <c r="BY3" s="29"/>
+      <c r="BZ3" s="29"/>
+      <c r="CA3" s="29"/>
+      <c r="CB3" s="29"/>
+      <c r="CC3" s="29"/>
+      <c r="CD3" s="29"/>
+      <c r="CE3" s="29"/>
       <c r="CF3" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="CG3" s="30"/>
-      <c r="CH3" s="30"/>
-      <c r="CI3" s="30"/>
-      <c r="CJ3" s="30"/>
-      <c r="CK3" s="30"/>
+      <c r="CG3" s="29"/>
+      <c r="CH3" s="29"/>
+      <c r="CI3" s="29"/>
+      <c r="CJ3" s="29"/>
+      <c r="CK3" s="29"/>
       <c r="CL3" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="CM3" s="29"/>
-      <c r="CN3" s="29"/>
+      <c r="CM3" s="30"/>
+      <c r="CN3" s="30"/>
     </row>
     <row r="4" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
@@ -10463,16 +10471,16 @@
       <c r="A23" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="30" t="s">
+      <c r="C23" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="30" t="s">
+      <c r="D23" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="E23" s="30" t="s">
+      <c r="E23" s="29" t="s">
         <v>29</v>
       </c>
       <c r="F23" s="6" t="s">
@@ -10481,136 +10489,136 @@
       <c r="G23" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="H23" s="30" t="s">
+      <c r="H23" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="I23" s="30" t="s">
+      <c r="I23" s="29" t="s">
         <v>234</v>
       </c>
-      <c r="J23" s="30" t="s">
+      <c r="J23" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="K23" s="30" t="s">
+      <c r="K23" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="L23" s="30" t="s">
+      <c r="L23" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="M23" s="30" t="s">
+      <c r="M23" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="N23" s="30" t="s">
+      <c r="N23" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="O23" s="30" t="s">
+      <c r="O23" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="P23" s="30" t="s">
+      <c r="P23" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="Q23" s="30" t="s">
+      <c r="Q23" s="29" t="s">
         <v>47</v>
       </c>
       <c r="R23" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="S23" s="30" t="s">
+      <c r="S23" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="T23" s="30" t="s">
+      <c r="T23" s="29" t="s">
         <v>235</v>
       </c>
-      <c r="U23" s="30" t="s">
+      <c r="U23" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="V23" s="30" t="s">
+      <c r="V23" s="29" t="s">
         <v>236</v>
       </c>
-      <c r="W23" s="30" t="s">
+      <c r="W23" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="X23" s="30" t="s">
+      <c r="X23" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="Y23" s="30" t="s">
+      <c r="Y23" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="Z23" s="30" t="s">
+      <c r="Z23" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="AA23" s="30" t="s">
+      <c r="AA23" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="AB23" s="30" t="s">
+      <c r="AB23" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="AC23" s="30" t="s">
+      <c r="AC23" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="AD23" s="30" t="s">
+      <c r="AD23" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="AE23" s="30" t="s">
+      <c r="AE23" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="AF23" s="30" t="s">
+      <c r="AF23" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="AG23" s="30" t="s">
+      <c r="AG23" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="AH23" s="30" t="s">
+      <c r="AH23" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="AI23" s="30" t="s">
+      <c r="AI23" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="AJ23" s="30" t="s">
+      <c r="AJ23" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="AK23" s="30" t="s">
+      <c r="AK23" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="AL23" s="30" t="s">
+      <c r="AL23" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="AM23" s="30" t="s">
+      <c r="AM23" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="AN23" s="30" t="s">
+      <c r="AN23" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="AO23" s="30" t="s">
+      <c r="AO23" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="AP23" s="30" t="s">
+      <c r="AP23" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="AQ23" s="30" t="s">
+      <c r="AQ23" s="29" t="s">
         <v>66</v>
       </c>
       <c r="AR23" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="AS23" s="30" t="s">
+      <c r="AS23" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="AT23" s="30" t="s">
+      <c r="AT23" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="AU23" s="30" t="s">
+      <c r="AU23" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="AV23" s="30" t="s">
+      <c r="AV23" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="AW23" s="30" t="s">
+      <c r="AW23" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="AX23" s="30" t="s">
+      <c r="AX23" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="AY23" s="30" t="s">
+      <c r="AY23" s="29" t="s">
         <v>28</v>
       </c>
       <c r="AZ23" s="4" t="s">
@@ -10619,121 +10627,121 @@
       <c r="BA23" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="BB23" s="30" t="s">
+      <c r="BB23" s="29" t="s">
         <v>48</v>
       </c>
       <c r="BC23" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="BD23" s="30" t="s">
+      <c r="BD23" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="BE23" s="30" t="s">
+      <c r="BE23" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="BF23" s="30" t="s">
+      <c r="BF23" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="BG23" s="30" t="s">
+      <c r="BG23" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="BH23" s="30" t="s">
+      <c r="BH23" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="BI23" s="30" t="s">
+      <c r="BI23" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="BJ23" s="30" t="s">
+      <c r="BJ23" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="BK23" s="30" t="s">
+      <c r="BK23" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="BL23" s="30" t="s">
+      <c r="BL23" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="BM23" s="30" t="s">
+      <c r="BM23" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="BN23" s="30" t="s">
+      <c r="BN23" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="BO23" s="30" t="s">
+      <c r="BO23" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="BP23" s="30" t="s">
+      <c r="BP23" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="BQ23" s="30" t="s">
+      <c r="BQ23" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="BR23" s="30" t="s">
+      <c r="BR23" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="BS23" s="30" t="s">
+      <c r="BS23" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="BT23" s="30" t="s">
+      <c r="BT23" s="29" t="s">
         <v>20</v>
       </c>
       <c r="BU23" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="BV23" s="30" t="s">
+      <c r="BV23" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="BW23" s="30" t="s">
+      <c r="BW23" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="BX23" s="30" t="s">
+      <c r="BX23" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="BY23" s="30" t="s">
+      <c r="BY23" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="BZ23" s="30" t="s">
+      <c r="BZ23" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="CA23" s="30" t="s">
+      <c r="CA23" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="CB23" s="30" t="s">
+      <c r="CB23" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="CC23" s="30" t="s">
+      <c r="CC23" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="CD23" s="30" t="s">
+      <c r="CD23" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="CE23" s="30" t="s">
+      <c r="CE23" s="29" t="s">
         <v>41</v>
       </c>
       <c r="CF23" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="CG23" s="30" t="s">
+      <c r="CG23" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="CH23" s="30" t="s">
+      <c r="CH23" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="CI23" s="30" t="s">
+      <c r="CI23" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="CJ23" s="30" t="s">
+      <c r="CJ23" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="CK23" s="30" t="s">
+      <c r="CK23" s="29" t="s">
         <v>45</v>
       </c>
       <c r="CL23" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="CM23" s="29" t="s">
+      <c r="CM23" s="30" t="s">
         <v>248</v>
       </c>
-      <c r="CN23" s="29" t="s">
+      <c r="CN23" s="30" t="s">
         <v>249</v>
       </c>
     </row>
@@ -10741,117 +10749,117 @@
       <c r="A24" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
       <c r="F24" s="6" t="s">
         <v>231</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
-      <c r="N24" s="30"/>
-      <c r="O24" s="30"/>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="30"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="29"/>
       <c r="R24" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="S24" s="30"/>
-      <c r="T24" s="30"/>
-      <c r="U24" s="30"/>
-      <c r="V24" s="30"/>
-      <c r="W24" s="30"/>
-      <c r="X24" s="30"/>
-      <c r="Y24" s="30"/>
-      <c r="Z24" s="30"/>
-      <c r="AA24" s="30"/>
-      <c r="AB24" s="30"/>
-      <c r="AC24" s="30"/>
-      <c r="AD24" s="30"/>
-      <c r="AE24" s="30"/>
-      <c r="AF24" s="30"/>
-      <c r="AG24" s="30"/>
-      <c r="AH24" s="30"/>
-      <c r="AI24" s="30"/>
-      <c r="AJ24" s="30"/>
-      <c r="AK24" s="30"/>
-      <c r="AL24" s="30"/>
-      <c r="AM24" s="30"/>
-      <c r="AN24" s="30"/>
-      <c r="AO24" s="30"/>
-      <c r="AP24" s="30"/>
-      <c r="AQ24" s="30"/>
+      <c r="S24" s="29"/>
+      <c r="T24" s="29"/>
+      <c r="U24" s="29"/>
+      <c r="V24" s="29"/>
+      <c r="W24" s="29"/>
+      <c r="X24" s="29"/>
+      <c r="Y24" s="29"/>
+      <c r="Z24" s="29"/>
+      <c r="AA24" s="29"/>
+      <c r="AB24" s="29"/>
+      <c r="AC24" s="29"/>
+      <c r="AD24" s="29"/>
+      <c r="AE24" s="29"/>
+      <c r="AF24" s="29"/>
+      <c r="AG24" s="29"/>
+      <c r="AH24" s="29"/>
+      <c r="AI24" s="29"/>
+      <c r="AJ24" s="29"/>
+      <c r="AK24" s="29"/>
+      <c r="AL24" s="29"/>
+      <c r="AM24" s="29"/>
+      <c r="AN24" s="29"/>
+      <c r="AO24" s="29"/>
+      <c r="AP24" s="29"/>
+      <c r="AQ24" s="29"/>
       <c r="AR24" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="AS24" s="30"/>
-      <c r="AT24" s="30"/>
-      <c r="AU24" s="30"/>
-      <c r="AV24" s="30"/>
-      <c r="AW24" s="30"/>
-      <c r="AX24" s="30"/>
-      <c r="AY24" s="30"/>
+      <c r="AS24" s="29"/>
+      <c r="AT24" s="29"/>
+      <c r="AU24" s="29"/>
+      <c r="AV24" s="29"/>
+      <c r="AW24" s="29"/>
+      <c r="AX24" s="29"/>
+      <c r="AY24" s="29"/>
       <c r="AZ24" s="4" t="s">
         <v>212</v>
       </c>
       <c r="BA24" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="BB24" s="30"/>
+      <c r="BB24" s="29"/>
       <c r="BC24" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="BD24" s="30"/>
-      <c r="BE24" s="30"/>
-      <c r="BF24" s="30"/>
-      <c r="BG24" s="30"/>
-      <c r="BH24" s="30"/>
-      <c r="BI24" s="30"/>
-      <c r="BJ24" s="30"/>
-      <c r="BK24" s="30"/>
-      <c r="BL24" s="30"/>
-      <c r="BM24" s="30"/>
-      <c r="BN24" s="30"/>
-      <c r="BO24" s="30"/>
-      <c r="BP24" s="30"/>
-      <c r="BQ24" s="30"/>
-      <c r="BR24" s="30"/>
-      <c r="BS24" s="30"/>
-      <c r="BT24" s="30"/>
+      <c r="BD24" s="29"/>
+      <c r="BE24" s="29"/>
+      <c r="BF24" s="29"/>
+      <c r="BG24" s="29"/>
+      <c r="BH24" s="29"/>
+      <c r="BI24" s="29"/>
+      <c r="BJ24" s="29"/>
+      <c r="BK24" s="29"/>
+      <c r="BL24" s="29"/>
+      <c r="BM24" s="29"/>
+      <c r="BN24" s="29"/>
+      <c r="BO24" s="29"/>
+      <c r="BP24" s="29"/>
+      <c r="BQ24" s="29"/>
+      <c r="BR24" s="29"/>
+      <c r="BS24" s="29"/>
+      <c r="BT24" s="29"/>
       <c r="BU24" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="BV24" s="30"/>
-      <c r="BW24" s="30"/>
-      <c r="BX24" s="30"/>
-      <c r="BY24" s="30"/>
-      <c r="BZ24" s="30"/>
-      <c r="CA24" s="30"/>
-      <c r="CB24" s="30"/>
-      <c r="CC24" s="30"/>
-      <c r="CD24" s="30"/>
-      <c r="CE24" s="30"/>
+      <c r="BV24" s="29"/>
+      <c r="BW24" s="29"/>
+      <c r="BX24" s="29"/>
+      <c r="BY24" s="29"/>
+      <c r="BZ24" s="29"/>
+      <c r="CA24" s="29"/>
+      <c r="CB24" s="29"/>
+      <c r="CC24" s="29"/>
+      <c r="CD24" s="29"/>
+      <c r="CE24" s="29"/>
       <c r="CF24" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="CG24" s="30"/>
-      <c r="CH24" s="30"/>
-      <c r="CI24" s="30"/>
-      <c r="CJ24" s="30"/>
-      <c r="CK24" s="30"/>
+      <c r="CG24" s="29"/>
+      <c r="CH24" s="29"/>
+      <c r="CI24" s="29"/>
+      <c r="CJ24" s="29"/>
+      <c r="CK24" s="29"/>
       <c r="CL24" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="CM24" s="29"/>
-      <c r="CN24" s="29"/>
+      <c r="CM24" s="30"/>
+      <c r="CN24" s="30"/>
     </row>
     <row r="25" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
@@ -14543,16 +14551,16 @@
       <c r="A54" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="B54" s="30" t="s">
+      <c r="B54" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="C54" s="30" t="s">
+      <c r="C54" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="D54" s="30" t="s">
+      <c r="D54" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="E54" s="30" t="s">
+      <c r="E54" s="29" t="s">
         <v>29</v>
       </c>
       <c r="F54" s="6" t="s">
@@ -14561,136 +14569,136 @@
       <c r="G54" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="H54" s="30" t="s">
+      <c r="H54" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="I54" s="30" t="s">
+      <c r="I54" s="29" t="s">
         <v>234</v>
       </c>
-      <c r="J54" s="30" t="s">
+      <c r="J54" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="K54" s="30" t="s">
+      <c r="K54" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="L54" s="30" t="s">
+      <c r="L54" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="M54" s="30" t="s">
+      <c r="M54" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="N54" s="30" t="s">
+      <c r="N54" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="O54" s="30" t="s">
+      <c r="O54" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="P54" s="30" t="s">
+      <c r="P54" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="Q54" s="30" t="s">
+      <c r="Q54" s="29" t="s">
         <v>47</v>
       </c>
       <c r="R54" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="S54" s="30" t="s">
+      <c r="S54" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="T54" s="30" t="s">
+      <c r="T54" s="29" t="s">
         <v>235</v>
       </c>
-      <c r="U54" s="30" t="s">
+      <c r="U54" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="V54" s="30" t="s">
+      <c r="V54" s="29" t="s">
         <v>236</v>
       </c>
-      <c r="W54" s="30" t="s">
+      <c r="W54" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="X54" s="30" t="s">
+      <c r="X54" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="Y54" s="30" t="s">
+      <c r="Y54" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="Z54" s="30" t="s">
+      <c r="Z54" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="AA54" s="30" t="s">
+      <c r="AA54" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="AB54" s="30" t="s">
+      <c r="AB54" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="AC54" s="30" t="s">
+      <c r="AC54" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="AD54" s="30" t="s">
+      <c r="AD54" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="AE54" s="30" t="s">
+      <c r="AE54" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="AF54" s="30" t="s">
+      <c r="AF54" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="AG54" s="30" t="s">
+      <c r="AG54" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="AH54" s="30" t="s">
+      <c r="AH54" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="AI54" s="30" t="s">
+      <c r="AI54" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="AJ54" s="30" t="s">
+      <c r="AJ54" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="AK54" s="30" t="s">
+      <c r="AK54" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="AL54" s="30" t="s">
+      <c r="AL54" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="AM54" s="30" t="s">
+      <c r="AM54" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="AN54" s="30" t="s">
+      <c r="AN54" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="AO54" s="30" t="s">
+      <c r="AO54" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="AP54" s="30" t="s">
+      <c r="AP54" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="AQ54" s="30" t="s">
+      <c r="AQ54" s="29" t="s">
         <v>66</v>
       </c>
       <c r="AR54" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="AS54" s="30" t="s">
+      <c r="AS54" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="AT54" s="30" t="s">
+      <c r="AT54" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="AU54" s="30" t="s">
+      <c r="AU54" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="AV54" s="30" t="s">
+      <c r="AV54" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="AW54" s="30" t="s">
+      <c r="AW54" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="AX54" s="30" t="s">
+      <c r="AX54" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="AY54" s="30" t="s">
+      <c r="AY54" s="29" t="s">
         <v>28</v>
       </c>
       <c r="AZ54" s="4" t="s">
@@ -14699,121 +14707,121 @@
       <c r="BA54" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="BB54" s="30" t="s">
+      <c r="BB54" s="29" t="s">
         <v>48</v>
       </c>
       <c r="BC54" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="BD54" s="30" t="s">
+      <c r="BD54" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="BE54" s="30" t="s">
+      <c r="BE54" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="BF54" s="30" t="s">
+      <c r="BF54" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="BG54" s="30" t="s">
+      <c r="BG54" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="BH54" s="30" t="s">
+      <c r="BH54" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="BI54" s="30" t="s">
+      <c r="BI54" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="BJ54" s="30" t="s">
+      <c r="BJ54" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="BK54" s="30" t="s">
+      <c r="BK54" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="BL54" s="30" t="s">
+      <c r="BL54" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="BM54" s="30" t="s">
+      <c r="BM54" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="BN54" s="30" t="s">
+      <c r="BN54" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="BO54" s="30" t="s">
+      <c r="BO54" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="BP54" s="30" t="s">
+      <c r="BP54" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="BQ54" s="30" t="s">
+      <c r="BQ54" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="BR54" s="30" t="s">
+      <c r="BR54" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="BS54" s="30" t="s">
+      <c r="BS54" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="BT54" s="30" t="s">
+      <c r="BT54" s="29" t="s">
         <v>20</v>
       </c>
       <c r="BU54" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="BV54" s="30" t="s">
+      <c r="BV54" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="BW54" s="30" t="s">
+      <c r="BW54" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="BX54" s="30" t="s">
+      <c r="BX54" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="BY54" s="30" t="s">
+      <c r="BY54" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="BZ54" s="30" t="s">
+      <c r="BZ54" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="CA54" s="30" t="s">
+      <c r="CA54" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="CB54" s="30" t="s">
+      <c r="CB54" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="CC54" s="30" t="s">
+      <c r="CC54" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="CD54" s="30" t="s">
+      <c r="CD54" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="CE54" s="30" t="s">
+      <c r="CE54" s="29" t="s">
         <v>41</v>
       </c>
       <c r="CF54" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="CG54" s="30" t="s">
+      <c r="CG54" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="CH54" s="30" t="s">
+      <c r="CH54" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="CI54" s="30" t="s">
+      <c r="CI54" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="CJ54" s="30" t="s">
+      <c r="CJ54" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="CK54" s="30" t="s">
+      <c r="CK54" s="29" t="s">
         <v>45</v>
       </c>
       <c r="CL54" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="CM54" s="29" t="s">
+      <c r="CM54" s="30" t="s">
         <v>248</v>
       </c>
-      <c r="CN54" s="29" t="s">
+      <c r="CN54" s="30" t="s">
         <v>249</v>
       </c>
     </row>
@@ -14821,117 +14829,117 @@
       <c r="A55" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="B55" s="30"/>
-      <c r="C55" s="30"/>
-      <c r="D55" s="30"/>
-      <c r="E55" s="30"/>
+      <c r="B55" s="29"/>
+      <c r="C55" s="29"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="29"/>
       <c r="F55" s="6" t="s">
         <v>231</v>
       </c>
       <c r="G55" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="H55" s="30"/>
-      <c r="I55" s="30"/>
-      <c r="J55" s="30"/>
-      <c r="K55" s="30"/>
-      <c r="L55" s="30"/>
-      <c r="M55" s="30"/>
-      <c r="N55" s="30"/>
-      <c r="O55" s="30"/>
-      <c r="P55" s="30"/>
-      <c r="Q55" s="30"/>
+      <c r="H55" s="29"/>
+      <c r="I55" s="29"/>
+      <c r="J55" s="29"/>
+      <c r="K55" s="29"/>
+      <c r="L55" s="29"/>
+      <c r="M55" s="29"/>
+      <c r="N55" s="29"/>
+      <c r="O55" s="29"/>
+      <c r="P55" s="29"/>
+      <c r="Q55" s="29"/>
       <c r="R55" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="S55" s="30"/>
-      <c r="T55" s="30"/>
-      <c r="U55" s="30"/>
-      <c r="V55" s="30"/>
-      <c r="W55" s="30"/>
-      <c r="X55" s="30"/>
-      <c r="Y55" s="30"/>
-      <c r="Z55" s="30"/>
-      <c r="AA55" s="30"/>
-      <c r="AB55" s="30"/>
-      <c r="AC55" s="30"/>
-      <c r="AD55" s="30"/>
-      <c r="AE55" s="30"/>
-      <c r="AF55" s="30"/>
-      <c r="AG55" s="30"/>
-      <c r="AH55" s="30"/>
-      <c r="AI55" s="30"/>
-      <c r="AJ55" s="30"/>
-      <c r="AK55" s="30"/>
-      <c r="AL55" s="30"/>
-      <c r="AM55" s="30"/>
-      <c r="AN55" s="30"/>
-      <c r="AO55" s="30"/>
-      <c r="AP55" s="30"/>
-      <c r="AQ55" s="30"/>
+      <c r="S55" s="29"/>
+      <c r="T55" s="29"/>
+      <c r="U55" s="29"/>
+      <c r="V55" s="29"/>
+      <c r="W55" s="29"/>
+      <c r="X55" s="29"/>
+      <c r="Y55" s="29"/>
+      <c r="Z55" s="29"/>
+      <c r="AA55" s="29"/>
+      <c r="AB55" s="29"/>
+      <c r="AC55" s="29"/>
+      <c r="AD55" s="29"/>
+      <c r="AE55" s="29"/>
+      <c r="AF55" s="29"/>
+      <c r="AG55" s="29"/>
+      <c r="AH55" s="29"/>
+      <c r="AI55" s="29"/>
+      <c r="AJ55" s="29"/>
+      <c r="AK55" s="29"/>
+      <c r="AL55" s="29"/>
+      <c r="AM55" s="29"/>
+      <c r="AN55" s="29"/>
+      <c r="AO55" s="29"/>
+      <c r="AP55" s="29"/>
+      <c r="AQ55" s="29"/>
       <c r="AR55" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="AS55" s="30"/>
-      <c r="AT55" s="30"/>
-      <c r="AU55" s="30"/>
-      <c r="AV55" s="30"/>
-      <c r="AW55" s="30"/>
-      <c r="AX55" s="30"/>
-      <c r="AY55" s="30"/>
+      <c r="AS55" s="29"/>
+      <c r="AT55" s="29"/>
+      <c r="AU55" s="29"/>
+      <c r="AV55" s="29"/>
+      <c r="AW55" s="29"/>
+      <c r="AX55" s="29"/>
+      <c r="AY55" s="29"/>
       <c r="AZ55" s="4" t="s">
         <v>212</v>
       </c>
       <c r="BA55" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="BB55" s="30"/>
+      <c r="BB55" s="29"/>
       <c r="BC55" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="BD55" s="30"/>
-      <c r="BE55" s="30"/>
-      <c r="BF55" s="30"/>
-      <c r="BG55" s="30"/>
-      <c r="BH55" s="30"/>
-      <c r="BI55" s="30"/>
-      <c r="BJ55" s="30"/>
-      <c r="BK55" s="30"/>
-      <c r="BL55" s="30"/>
-      <c r="BM55" s="30"/>
-      <c r="BN55" s="30"/>
-      <c r="BO55" s="30"/>
-      <c r="BP55" s="30"/>
-      <c r="BQ55" s="30"/>
-      <c r="BR55" s="30"/>
-      <c r="BS55" s="30"/>
-      <c r="BT55" s="30"/>
+      <c r="BD55" s="29"/>
+      <c r="BE55" s="29"/>
+      <c r="BF55" s="29"/>
+      <c r="BG55" s="29"/>
+      <c r="BH55" s="29"/>
+      <c r="BI55" s="29"/>
+      <c r="BJ55" s="29"/>
+      <c r="BK55" s="29"/>
+      <c r="BL55" s="29"/>
+      <c r="BM55" s="29"/>
+      <c r="BN55" s="29"/>
+      <c r="BO55" s="29"/>
+      <c r="BP55" s="29"/>
+      <c r="BQ55" s="29"/>
+      <c r="BR55" s="29"/>
+      <c r="BS55" s="29"/>
+      <c r="BT55" s="29"/>
       <c r="BU55" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="BV55" s="30"/>
-      <c r="BW55" s="30"/>
-      <c r="BX55" s="30"/>
-      <c r="BY55" s="30"/>
-      <c r="BZ55" s="30"/>
-      <c r="CA55" s="30"/>
-      <c r="CB55" s="30"/>
-      <c r="CC55" s="30"/>
-      <c r="CD55" s="30"/>
-      <c r="CE55" s="30"/>
+      <c r="BV55" s="29"/>
+      <c r="BW55" s="29"/>
+      <c r="BX55" s="29"/>
+      <c r="BY55" s="29"/>
+      <c r="BZ55" s="29"/>
+      <c r="CA55" s="29"/>
+      <c r="CB55" s="29"/>
+      <c r="CC55" s="29"/>
+      <c r="CD55" s="29"/>
+      <c r="CE55" s="29"/>
       <c r="CF55" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="CG55" s="30"/>
-      <c r="CH55" s="30"/>
-      <c r="CI55" s="30"/>
-      <c r="CJ55" s="30"/>
-      <c r="CK55" s="30"/>
+      <c r="CG55" s="29"/>
+      <c r="CH55" s="29"/>
+      <c r="CI55" s="29"/>
+      <c r="CJ55" s="29"/>
+      <c r="CK55" s="29"/>
       <c r="CL55" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="CM55" s="29"/>
-      <c r="CN55" s="29"/>
+      <c r="CM55" s="30"/>
+      <c r="CN55" s="30"/>
     </row>
     <row r="56" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
@@ -20667,16 +20675,16 @@
       <c r="A84" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="B84" s="30" t="s">
+      <c r="B84" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="C84" s="30" t="s">
+      <c r="C84" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="D84" s="30" t="s">
+      <c r="D84" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="E84" s="30" t="s">
+      <c r="E84" s="29" t="s">
         <v>29</v>
       </c>
       <c r="F84" s="6" t="s">
@@ -20685,136 +20693,136 @@
       <c r="G84" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="H84" s="30" t="s">
+      <c r="H84" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="I84" s="30" t="s">
+      <c r="I84" s="29" t="s">
         <v>234</v>
       </c>
-      <c r="J84" s="30" t="s">
+      <c r="J84" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="K84" s="30" t="s">
+      <c r="K84" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="L84" s="30" t="s">
+      <c r="L84" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="M84" s="30" t="s">
+      <c r="M84" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="N84" s="30" t="s">
+      <c r="N84" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="O84" s="30" t="s">
+      <c r="O84" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="P84" s="30" t="s">
+      <c r="P84" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="Q84" s="30" t="s">
+      <c r="Q84" s="29" t="s">
         <v>47</v>
       </c>
       <c r="R84" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="S84" s="30" t="s">
+      <c r="S84" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="T84" s="30" t="s">
+      <c r="T84" s="29" t="s">
         <v>235</v>
       </c>
-      <c r="U84" s="30" t="s">
+      <c r="U84" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="V84" s="30" t="s">
+      <c r="V84" s="29" t="s">
         <v>236</v>
       </c>
-      <c r="W84" s="30" t="s">
+      <c r="W84" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="X84" s="30" t="s">
+      <c r="X84" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="Y84" s="30" t="s">
+      <c r="Y84" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="Z84" s="30" t="s">
+      <c r="Z84" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="AA84" s="30" t="s">
+      <c r="AA84" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="AB84" s="30" t="s">
+      <c r="AB84" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="AC84" s="30" t="s">
+      <c r="AC84" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="AD84" s="30" t="s">
+      <c r="AD84" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="AE84" s="30" t="s">
+      <c r="AE84" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="AF84" s="30" t="s">
+      <c r="AF84" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="AG84" s="30" t="s">
+      <c r="AG84" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="AH84" s="30" t="s">
+      <c r="AH84" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="AI84" s="30" t="s">
+      <c r="AI84" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="AJ84" s="30" t="s">
+      <c r="AJ84" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="AK84" s="30" t="s">
+      <c r="AK84" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="AL84" s="30" t="s">
+      <c r="AL84" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="AM84" s="30" t="s">
+      <c r="AM84" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="AN84" s="30" t="s">
+      <c r="AN84" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="AO84" s="30" t="s">
+      <c r="AO84" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="AP84" s="30" t="s">
+      <c r="AP84" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="AQ84" s="30" t="s">
+      <c r="AQ84" s="29" t="s">
         <v>66</v>
       </c>
       <c r="AR84" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="AS84" s="30" t="s">
+      <c r="AS84" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="AT84" s="30" t="s">
+      <c r="AT84" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="AU84" s="30" t="s">
+      <c r="AU84" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="AV84" s="30" t="s">
+      <c r="AV84" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="AW84" s="30" t="s">
+      <c r="AW84" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="AX84" s="30" t="s">
+      <c r="AX84" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="AY84" s="30" t="s">
+      <c r="AY84" s="29" t="s">
         <v>28</v>
       </c>
       <c r="AZ84" s="4" t="s">
@@ -20823,121 +20831,121 @@
       <c r="BA84" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="BB84" s="30" t="s">
+      <c r="BB84" s="29" t="s">
         <v>48</v>
       </c>
       <c r="BC84" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="BD84" s="30" t="s">
+      <c r="BD84" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="BE84" s="30" t="s">
+      <c r="BE84" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="BF84" s="30" t="s">
+      <c r="BF84" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="BG84" s="30" t="s">
+      <c r="BG84" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="BH84" s="30" t="s">
+      <c r="BH84" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="BI84" s="30" t="s">
+      <c r="BI84" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="BJ84" s="30" t="s">
+      <c r="BJ84" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="BK84" s="30" t="s">
+      <c r="BK84" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="BL84" s="30" t="s">
+      <c r="BL84" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="BM84" s="30" t="s">
+      <c r="BM84" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="BN84" s="30" t="s">
+      <c r="BN84" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="BO84" s="30" t="s">
+      <c r="BO84" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="BP84" s="30" t="s">
+      <c r="BP84" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="BQ84" s="30" t="s">
+      <c r="BQ84" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="BR84" s="30" t="s">
+      <c r="BR84" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="BS84" s="30" t="s">
+      <c r="BS84" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="BT84" s="30" t="s">
+      <c r="BT84" s="29" t="s">
         <v>20</v>
       </c>
       <c r="BU84" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="BV84" s="30" t="s">
+      <c r="BV84" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="BW84" s="30" t="s">
+      <c r="BW84" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="BX84" s="30" t="s">
+      <c r="BX84" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="BY84" s="30" t="s">
+      <c r="BY84" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="BZ84" s="30" t="s">
+      <c r="BZ84" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="CA84" s="30" t="s">
+      <c r="CA84" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="CB84" s="30" t="s">
+      <c r="CB84" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="CC84" s="30" t="s">
+      <c r="CC84" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="CD84" s="30" t="s">
+      <c r="CD84" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="CE84" s="30" t="s">
+      <c r="CE84" s="29" t="s">
         <v>41</v>
       </c>
       <c r="CF84" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="CG84" s="30" t="s">
+      <c r="CG84" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="CH84" s="30" t="s">
+      <c r="CH84" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="CI84" s="30" t="s">
+      <c r="CI84" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="CJ84" s="30" t="s">
+      <c r="CJ84" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="CK84" s="30" t="s">
+      <c r="CK84" s="29" t="s">
         <v>45</v>
       </c>
       <c r="CL84" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="CM84" s="29" t="s">
+      <c r="CM84" s="30" t="s">
         <v>248</v>
       </c>
-      <c r="CN84" s="29" t="s">
+      <c r="CN84" s="30" t="s">
         <v>249</v>
       </c>
     </row>
@@ -20945,117 +20953,117 @@
       <c r="A85" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="B85" s="30"/>
-      <c r="C85" s="30"/>
-      <c r="D85" s="30"/>
-      <c r="E85" s="30"/>
+      <c r="B85" s="29"/>
+      <c r="C85" s="29"/>
+      <c r="D85" s="29"/>
+      <c r="E85" s="29"/>
       <c r="F85" s="6" t="s">
         <v>231</v>
       </c>
       <c r="G85" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="H85" s="30"/>
-      <c r="I85" s="30"/>
-      <c r="J85" s="30"/>
-      <c r="K85" s="30"/>
-      <c r="L85" s="30"/>
-      <c r="M85" s="30"/>
-      <c r="N85" s="30"/>
-      <c r="O85" s="30"/>
-      <c r="P85" s="30"/>
-      <c r="Q85" s="30"/>
+      <c r="H85" s="29"/>
+      <c r="I85" s="29"/>
+      <c r="J85" s="29"/>
+      <c r="K85" s="29"/>
+      <c r="L85" s="29"/>
+      <c r="M85" s="29"/>
+      <c r="N85" s="29"/>
+      <c r="O85" s="29"/>
+      <c r="P85" s="29"/>
+      <c r="Q85" s="29"/>
       <c r="R85" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="S85" s="30"/>
-      <c r="T85" s="30"/>
-      <c r="U85" s="30"/>
-      <c r="V85" s="30"/>
-      <c r="W85" s="30"/>
-      <c r="X85" s="30"/>
-      <c r="Y85" s="30"/>
-      <c r="Z85" s="30"/>
-      <c r="AA85" s="30"/>
-      <c r="AB85" s="30"/>
-      <c r="AC85" s="30"/>
-      <c r="AD85" s="30"/>
-      <c r="AE85" s="30"/>
-      <c r="AF85" s="30"/>
-      <c r="AG85" s="30"/>
-      <c r="AH85" s="30"/>
-      <c r="AI85" s="30"/>
-      <c r="AJ85" s="30"/>
-      <c r="AK85" s="30"/>
-      <c r="AL85" s="30"/>
-      <c r="AM85" s="30"/>
-      <c r="AN85" s="30"/>
-      <c r="AO85" s="30"/>
-      <c r="AP85" s="30"/>
-      <c r="AQ85" s="30"/>
+      <c r="S85" s="29"/>
+      <c r="T85" s="29"/>
+      <c r="U85" s="29"/>
+      <c r="V85" s="29"/>
+      <c r="W85" s="29"/>
+      <c r="X85" s="29"/>
+      <c r="Y85" s="29"/>
+      <c r="Z85" s="29"/>
+      <c r="AA85" s="29"/>
+      <c r="AB85" s="29"/>
+      <c r="AC85" s="29"/>
+      <c r="AD85" s="29"/>
+      <c r="AE85" s="29"/>
+      <c r="AF85" s="29"/>
+      <c r="AG85" s="29"/>
+      <c r="AH85" s="29"/>
+      <c r="AI85" s="29"/>
+      <c r="AJ85" s="29"/>
+      <c r="AK85" s="29"/>
+      <c r="AL85" s="29"/>
+      <c r="AM85" s="29"/>
+      <c r="AN85" s="29"/>
+      <c r="AO85" s="29"/>
+      <c r="AP85" s="29"/>
+      <c r="AQ85" s="29"/>
       <c r="AR85" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="AS85" s="30"/>
-      <c r="AT85" s="30"/>
-      <c r="AU85" s="30"/>
-      <c r="AV85" s="30"/>
-      <c r="AW85" s="30"/>
-      <c r="AX85" s="30"/>
-      <c r="AY85" s="30"/>
+      <c r="AS85" s="29"/>
+      <c r="AT85" s="29"/>
+      <c r="AU85" s="29"/>
+      <c r="AV85" s="29"/>
+      <c r="AW85" s="29"/>
+      <c r="AX85" s="29"/>
+      <c r="AY85" s="29"/>
       <c r="AZ85" s="4" t="s">
         <v>212</v>
       </c>
       <c r="BA85" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="BB85" s="30"/>
+      <c r="BB85" s="29"/>
       <c r="BC85" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="BD85" s="30"/>
-      <c r="BE85" s="30"/>
-      <c r="BF85" s="30"/>
-      <c r="BG85" s="30"/>
-      <c r="BH85" s="30"/>
-      <c r="BI85" s="30"/>
-      <c r="BJ85" s="30"/>
-      <c r="BK85" s="30"/>
-      <c r="BL85" s="30"/>
-      <c r="BM85" s="30"/>
-      <c r="BN85" s="30"/>
-      <c r="BO85" s="30"/>
-      <c r="BP85" s="30"/>
-      <c r="BQ85" s="30"/>
-      <c r="BR85" s="30"/>
-      <c r="BS85" s="30"/>
-      <c r="BT85" s="30"/>
+      <c r="BD85" s="29"/>
+      <c r="BE85" s="29"/>
+      <c r="BF85" s="29"/>
+      <c r="BG85" s="29"/>
+      <c r="BH85" s="29"/>
+      <c r="BI85" s="29"/>
+      <c r="BJ85" s="29"/>
+      <c r="BK85" s="29"/>
+      <c r="BL85" s="29"/>
+      <c r="BM85" s="29"/>
+      <c r="BN85" s="29"/>
+      <c r="BO85" s="29"/>
+      <c r="BP85" s="29"/>
+      <c r="BQ85" s="29"/>
+      <c r="BR85" s="29"/>
+      <c r="BS85" s="29"/>
+      <c r="BT85" s="29"/>
       <c r="BU85" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="BV85" s="30"/>
-      <c r="BW85" s="30"/>
-      <c r="BX85" s="30"/>
-      <c r="BY85" s="30"/>
-      <c r="BZ85" s="30"/>
-      <c r="CA85" s="30"/>
-      <c r="CB85" s="30"/>
-      <c r="CC85" s="30"/>
-      <c r="CD85" s="30"/>
-      <c r="CE85" s="30"/>
+      <c r="BV85" s="29"/>
+      <c r="BW85" s="29"/>
+      <c r="BX85" s="29"/>
+      <c r="BY85" s="29"/>
+      <c r="BZ85" s="29"/>
+      <c r="CA85" s="29"/>
+      <c r="CB85" s="29"/>
+      <c r="CC85" s="29"/>
+      <c r="CD85" s="29"/>
+      <c r="CE85" s="29"/>
       <c r="CF85" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="CG85" s="30"/>
-      <c r="CH85" s="30"/>
-      <c r="CI85" s="30"/>
-      <c r="CJ85" s="30"/>
-      <c r="CK85" s="30"/>
+      <c r="CG85" s="29"/>
+      <c r="CH85" s="29"/>
+      <c r="CI85" s="29"/>
+      <c r="CJ85" s="29"/>
+      <c r="CK85" s="29"/>
       <c r="CL85" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="CM85" s="29"/>
-      <c r="CN85" s="29"/>
+      <c r="CM85" s="30"/>
+      <c r="CN85" s="30"/>
     </row>
     <row r="86" spans="1:92" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A86" s="4"/>
@@ -21187,6 +21195,334 @@
     </row>
   </sheetData>
   <mergeCells count="352">
+    <mergeCell ref="AL86:AY86"/>
+    <mergeCell ref="BA86:BK86"/>
+    <mergeCell ref="BL86:BT86"/>
+    <mergeCell ref="BU86:CD86"/>
+    <mergeCell ref="CE86:CK86"/>
+    <mergeCell ref="CN84:CN85"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="K86:N86"/>
+    <mergeCell ref="O86:P86"/>
+    <mergeCell ref="S86:W86"/>
+    <mergeCell ref="X86:AD86"/>
+    <mergeCell ref="AE86:AF86"/>
+    <mergeCell ref="AG86:AK86"/>
+    <mergeCell ref="CG84:CG85"/>
+    <mergeCell ref="CH84:CH85"/>
+    <mergeCell ref="CI84:CI85"/>
+    <mergeCell ref="CJ84:CJ85"/>
+    <mergeCell ref="CK84:CK85"/>
+    <mergeCell ref="CM84:CM85"/>
+    <mergeCell ref="BZ84:BZ85"/>
+    <mergeCell ref="CA84:CA85"/>
+    <mergeCell ref="CB84:CB85"/>
+    <mergeCell ref="CC84:CC85"/>
+    <mergeCell ref="CD84:CD85"/>
+    <mergeCell ref="CE84:CE85"/>
+    <mergeCell ref="BS84:BS85"/>
+    <mergeCell ref="BT84:BT85"/>
+    <mergeCell ref="BV84:BV85"/>
+    <mergeCell ref="BW84:BW85"/>
+    <mergeCell ref="BX84:BX85"/>
+    <mergeCell ref="BY84:BY85"/>
+    <mergeCell ref="BM84:BM85"/>
+    <mergeCell ref="BN84:BN85"/>
+    <mergeCell ref="BO84:BO85"/>
+    <mergeCell ref="BP84:BP85"/>
+    <mergeCell ref="BQ84:BQ85"/>
+    <mergeCell ref="BR84:BR85"/>
+    <mergeCell ref="BG84:BG85"/>
+    <mergeCell ref="BH84:BH85"/>
+    <mergeCell ref="BI84:BI85"/>
+    <mergeCell ref="BJ84:BJ85"/>
+    <mergeCell ref="BK84:BK85"/>
+    <mergeCell ref="BL84:BL85"/>
+    <mergeCell ref="AX84:AX85"/>
+    <mergeCell ref="AY84:AY85"/>
+    <mergeCell ref="BB84:BB85"/>
+    <mergeCell ref="BD84:BD85"/>
+    <mergeCell ref="BE84:BE85"/>
+    <mergeCell ref="BF84:BF85"/>
+    <mergeCell ref="AQ84:AQ85"/>
+    <mergeCell ref="AS84:AS85"/>
+    <mergeCell ref="AT84:AT85"/>
+    <mergeCell ref="AU84:AU85"/>
+    <mergeCell ref="AV84:AV85"/>
+    <mergeCell ref="AW84:AW85"/>
+    <mergeCell ref="AK84:AK85"/>
+    <mergeCell ref="AL84:AL85"/>
+    <mergeCell ref="AM84:AM85"/>
+    <mergeCell ref="AN84:AN85"/>
+    <mergeCell ref="AO84:AO85"/>
+    <mergeCell ref="AP84:AP85"/>
+    <mergeCell ref="AE84:AE85"/>
+    <mergeCell ref="AF84:AF85"/>
+    <mergeCell ref="AG84:AG85"/>
+    <mergeCell ref="AH84:AH85"/>
+    <mergeCell ref="AI84:AI85"/>
+    <mergeCell ref="AJ84:AJ85"/>
+    <mergeCell ref="Y84:Y85"/>
+    <mergeCell ref="Z84:Z85"/>
+    <mergeCell ref="AA84:AA85"/>
+    <mergeCell ref="AB84:AB85"/>
+    <mergeCell ref="AC84:AC85"/>
+    <mergeCell ref="AD84:AD85"/>
+    <mergeCell ref="S84:S85"/>
+    <mergeCell ref="T84:T85"/>
+    <mergeCell ref="U84:U85"/>
+    <mergeCell ref="V84:V85"/>
+    <mergeCell ref="W84:W85"/>
+    <mergeCell ref="X84:X85"/>
+    <mergeCell ref="L84:L85"/>
+    <mergeCell ref="M84:M85"/>
+    <mergeCell ref="N84:N85"/>
+    <mergeCell ref="O84:O85"/>
+    <mergeCell ref="P84:P85"/>
+    <mergeCell ref="Q84:Q85"/>
+    <mergeCell ref="CM54:CM55"/>
+    <mergeCell ref="CN54:CN55"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="H84:H85"/>
+    <mergeCell ref="I84:I85"/>
+    <mergeCell ref="J84:J85"/>
+    <mergeCell ref="K84:K85"/>
+    <mergeCell ref="CE54:CE55"/>
+    <mergeCell ref="CG54:CG55"/>
+    <mergeCell ref="CH54:CH55"/>
+    <mergeCell ref="CI54:CI55"/>
+    <mergeCell ref="CJ54:CJ55"/>
+    <mergeCell ref="CK54:CK55"/>
+    <mergeCell ref="BY54:BY55"/>
+    <mergeCell ref="BZ54:BZ55"/>
+    <mergeCell ref="CA54:CA55"/>
+    <mergeCell ref="CB54:CB55"/>
+    <mergeCell ref="CC54:CC55"/>
+    <mergeCell ref="CD54:CD55"/>
+    <mergeCell ref="BR54:BR55"/>
+    <mergeCell ref="BS54:BS55"/>
+    <mergeCell ref="BT54:BT55"/>
+    <mergeCell ref="BV54:BV55"/>
+    <mergeCell ref="BW54:BW55"/>
+    <mergeCell ref="BX54:BX55"/>
+    <mergeCell ref="BL54:BL55"/>
+    <mergeCell ref="BM54:BM55"/>
+    <mergeCell ref="BN54:BN55"/>
+    <mergeCell ref="BO54:BO55"/>
+    <mergeCell ref="BP54:BP55"/>
+    <mergeCell ref="BQ54:BQ55"/>
+    <mergeCell ref="BF54:BF55"/>
+    <mergeCell ref="BG54:BG55"/>
+    <mergeCell ref="BH54:BH55"/>
+    <mergeCell ref="BI54:BI55"/>
+    <mergeCell ref="BJ54:BJ55"/>
+    <mergeCell ref="BK54:BK55"/>
+    <mergeCell ref="AW54:AW55"/>
+    <mergeCell ref="AX54:AX55"/>
+    <mergeCell ref="AY54:AY55"/>
+    <mergeCell ref="BB54:BB55"/>
+    <mergeCell ref="BD54:BD55"/>
+    <mergeCell ref="BE54:BE55"/>
+    <mergeCell ref="AP54:AP55"/>
+    <mergeCell ref="AQ54:AQ55"/>
+    <mergeCell ref="AS54:AS55"/>
+    <mergeCell ref="AT54:AT55"/>
+    <mergeCell ref="AU54:AU55"/>
+    <mergeCell ref="AV54:AV55"/>
+    <mergeCell ref="AJ54:AJ55"/>
+    <mergeCell ref="AK54:AK55"/>
+    <mergeCell ref="AL54:AL55"/>
+    <mergeCell ref="AM54:AM55"/>
+    <mergeCell ref="AN54:AN55"/>
+    <mergeCell ref="AO54:AO55"/>
+    <mergeCell ref="AD54:AD55"/>
+    <mergeCell ref="AE54:AE55"/>
+    <mergeCell ref="AF54:AF55"/>
+    <mergeCell ref="AG54:AG55"/>
+    <mergeCell ref="AH54:AH55"/>
+    <mergeCell ref="AI54:AI55"/>
+    <mergeCell ref="X54:X55"/>
+    <mergeCell ref="Y54:Y55"/>
+    <mergeCell ref="Z54:Z55"/>
+    <mergeCell ref="AA54:AA55"/>
+    <mergeCell ref="AB54:AB55"/>
+    <mergeCell ref="AC54:AC55"/>
+    <mergeCell ref="Q54:Q55"/>
+    <mergeCell ref="S54:S55"/>
+    <mergeCell ref="T54:T55"/>
+    <mergeCell ref="U54:U55"/>
+    <mergeCell ref="V54:V55"/>
+    <mergeCell ref="W54:W55"/>
+    <mergeCell ref="K54:K55"/>
+    <mergeCell ref="L54:L55"/>
+    <mergeCell ref="M54:M55"/>
+    <mergeCell ref="N54:N55"/>
+    <mergeCell ref="O54:O55"/>
+    <mergeCell ref="P54:P55"/>
+    <mergeCell ref="CK23:CK24"/>
+    <mergeCell ref="CM23:CM24"/>
+    <mergeCell ref="CN23:CN24"/>
+    <mergeCell ref="CG23:CG24"/>
+    <mergeCell ref="CH23:CH24"/>
+    <mergeCell ref="CI23:CI24"/>
+    <mergeCell ref="CJ23:CJ24"/>
+    <mergeCell ref="BN23:BN24"/>
+    <mergeCell ref="BO23:BO24"/>
+    <mergeCell ref="BP23:BP24"/>
+    <mergeCell ref="BE23:BE24"/>
+    <mergeCell ref="BF23:BF24"/>
+    <mergeCell ref="BG23:BG24"/>
+    <mergeCell ref="BH23:BH24"/>
+    <mergeCell ref="BI23:BI24"/>
+    <mergeCell ref="BJ23:BJ24"/>
+    <mergeCell ref="AV23:AV24"/>
+    <mergeCell ref="AW23:AW24"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="I54:I55"/>
+    <mergeCell ref="J54:J55"/>
+    <mergeCell ref="CD23:CD24"/>
+    <mergeCell ref="CE23:CE24"/>
+    <mergeCell ref="BX23:BX24"/>
+    <mergeCell ref="BY23:BY24"/>
+    <mergeCell ref="BZ23:BZ24"/>
+    <mergeCell ref="CA23:CA24"/>
+    <mergeCell ref="CB23:CB24"/>
+    <mergeCell ref="CC23:CC24"/>
+    <mergeCell ref="BQ23:BQ24"/>
+    <mergeCell ref="BR23:BR24"/>
+    <mergeCell ref="BS23:BS24"/>
+    <mergeCell ref="BT23:BT24"/>
+    <mergeCell ref="BV23:BV24"/>
+    <mergeCell ref="BW23:BW24"/>
+    <mergeCell ref="BK23:BK24"/>
+    <mergeCell ref="BL23:BL24"/>
+    <mergeCell ref="BM23:BM24"/>
+    <mergeCell ref="AX23:AX24"/>
+    <mergeCell ref="AY23:AY24"/>
+    <mergeCell ref="BB23:BB24"/>
+    <mergeCell ref="BD23:BD24"/>
+    <mergeCell ref="AO23:AO24"/>
+    <mergeCell ref="AP23:AP24"/>
+    <mergeCell ref="AQ23:AQ24"/>
+    <mergeCell ref="AS23:AS24"/>
+    <mergeCell ref="AT23:AT24"/>
+    <mergeCell ref="AU23:AU24"/>
+    <mergeCell ref="AI23:AI24"/>
+    <mergeCell ref="AJ23:AJ24"/>
+    <mergeCell ref="AK23:AK24"/>
+    <mergeCell ref="AL23:AL24"/>
+    <mergeCell ref="AM23:AM24"/>
+    <mergeCell ref="AN23:AN24"/>
+    <mergeCell ref="AC23:AC24"/>
+    <mergeCell ref="AD23:AD24"/>
+    <mergeCell ref="AE23:AE24"/>
+    <mergeCell ref="AF23:AF24"/>
+    <mergeCell ref="AG23:AG24"/>
+    <mergeCell ref="AH23:AH24"/>
+    <mergeCell ref="W23:W24"/>
+    <mergeCell ref="X23:X24"/>
+    <mergeCell ref="Y23:Y24"/>
+    <mergeCell ref="Z23:Z24"/>
+    <mergeCell ref="AA23:AA24"/>
+    <mergeCell ref="AB23:AB24"/>
+    <mergeCell ref="P23:P24"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="S23:S24"/>
+    <mergeCell ref="T23:T24"/>
+    <mergeCell ref="U23:U24"/>
+    <mergeCell ref="V23:V24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="CH2:CH3"/>
+    <mergeCell ref="CI2:CI3"/>
+    <mergeCell ref="CJ2:CJ3"/>
+    <mergeCell ref="CK2:CK3"/>
+    <mergeCell ref="CM2:CM3"/>
+    <mergeCell ref="CN2:CN3"/>
+    <mergeCell ref="CA2:CA3"/>
+    <mergeCell ref="CB2:CB3"/>
+    <mergeCell ref="CC2:CC3"/>
+    <mergeCell ref="CD2:CD3"/>
+    <mergeCell ref="CE2:CE3"/>
+    <mergeCell ref="CG2:CG3"/>
+    <mergeCell ref="BT2:BT3"/>
+    <mergeCell ref="BV2:BV3"/>
+    <mergeCell ref="BW2:BW3"/>
+    <mergeCell ref="BX2:BX3"/>
+    <mergeCell ref="BY2:BY3"/>
+    <mergeCell ref="BZ2:BZ3"/>
+    <mergeCell ref="BN2:BN3"/>
+    <mergeCell ref="BO2:BO3"/>
+    <mergeCell ref="BP2:BP3"/>
+    <mergeCell ref="BQ2:BQ3"/>
+    <mergeCell ref="BR2:BR3"/>
+    <mergeCell ref="BS2:BS3"/>
+    <mergeCell ref="BH2:BH3"/>
+    <mergeCell ref="BI2:BI3"/>
+    <mergeCell ref="BJ2:BJ3"/>
+    <mergeCell ref="BK2:BK3"/>
+    <mergeCell ref="BL2:BL3"/>
+    <mergeCell ref="BM2:BM3"/>
+    <mergeCell ref="AY2:AY3"/>
+    <mergeCell ref="BB2:BB3"/>
+    <mergeCell ref="BD2:BD3"/>
+    <mergeCell ref="BE2:BE3"/>
+    <mergeCell ref="BF2:BF3"/>
+    <mergeCell ref="BG2:BG3"/>
+    <mergeCell ref="AS2:AS3"/>
+    <mergeCell ref="AT2:AT3"/>
+    <mergeCell ref="AU2:AU3"/>
+    <mergeCell ref="AV2:AV3"/>
+    <mergeCell ref="AW2:AW3"/>
+    <mergeCell ref="AX2:AX3"/>
+    <mergeCell ref="AL2:AL3"/>
+    <mergeCell ref="AM2:AM3"/>
+    <mergeCell ref="AN2:AN3"/>
+    <mergeCell ref="AO2:AO3"/>
+    <mergeCell ref="AP2:AP3"/>
+    <mergeCell ref="AQ2:AQ3"/>
+    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="AH2:AH3"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="AJ2:AJ3"/>
+    <mergeCell ref="AK2:AK3"/>
+    <mergeCell ref="Z2:Z3"/>
+    <mergeCell ref="AA2:AA3"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="S2:S3"/>
     <mergeCell ref="CE1:CK1"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
@@ -21211,334 +21547,6 @@
     <mergeCell ref="S1:W1"/>
     <mergeCell ref="X1:AD1"/>
     <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="AF2:AF3"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="AJ2:AJ3"/>
-    <mergeCell ref="AK2:AK3"/>
-    <mergeCell ref="Z2:Z3"/>
-    <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="AS2:AS3"/>
-    <mergeCell ref="AT2:AT3"/>
-    <mergeCell ref="AU2:AU3"/>
-    <mergeCell ref="AV2:AV3"/>
-    <mergeCell ref="AW2:AW3"/>
-    <mergeCell ref="AX2:AX3"/>
-    <mergeCell ref="AL2:AL3"/>
-    <mergeCell ref="AM2:AM3"/>
-    <mergeCell ref="AN2:AN3"/>
-    <mergeCell ref="AO2:AO3"/>
-    <mergeCell ref="AP2:AP3"/>
-    <mergeCell ref="AQ2:AQ3"/>
-    <mergeCell ref="BH2:BH3"/>
-    <mergeCell ref="BI2:BI3"/>
-    <mergeCell ref="BJ2:BJ3"/>
-    <mergeCell ref="BK2:BK3"/>
-    <mergeCell ref="BL2:BL3"/>
-    <mergeCell ref="BM2:BM3"/>
-    <mergeCell ref="AY2:AY3"/>
-    <mergeCell ref="BB2:BB3"/>
-    <mergeCell ref="BD2:BD3"/>
-    <mergeCell ref="BE2:BE3"/>
-    <mergeCell ref="BF2:BF3"/>
-    <mergeCell ref="BG2:BG3"/>
-    <mergeCell ref="BT2:BT3"/>
-    <mergeCell ref="BV2:BV3"/>
-    <mergeCell ref="BW2:BW3"/>
-    <mergeCell ref="BX2:BX3"/>
-    <mergeCell ref="BY2:BY3"/>
-    <mergeCell ref="BZ2:BZ3"/>
-    <mergeCell ref="BN2:BN3"/>
-    <mergeCell ref="BO2:BO3"/>
-    <mergeCell ref="BP2:BP3"/>
-    <mergeCell ref="BQ2:BQ3"/>
-    <mergeCell ref="BR2:BR3"/>
-    <mergeCell ref="BS2:BS3"/>
-    <mergeCell ref="CH2:CH3"/>
-    <mergeCell ref="CI2:CI3"/>
-    <mergeCell ref="CJ2:CJ3"/>
-    <mergeCell ref="CK2:CK3"/>
-    <mergeCell ref="CM2:CM3"/>
-    <mergeCell ref="CN2:CN3"/>
-    <mergeCell ref="CA2:CA3"/>
-    <mergeCell ref="CB2:CB3"/>
-    <mergeCell ref="CC2:CC3"/>
-    <mergeCell ref="CD2:CD3"/>
-    <mergeCell ref="CE2:CE3"/>
-    <mergeCell ref="CG2:CG3"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="W23:W24"/>
-    <mergeCell ref="X23:X24"/>
-    <mergeCell ref="Y23:Y24"/>
-    <mergeCell ref="Z23:Z24"/>
-    <mergeCell ref="AA23:AA24"/>
-    <mergeCell ref="AB23:AB24"/>
-    <mergeCell ref="P23:P24"/>
-    <mergeCell ref="Q23:Q24"/>
-    <mergeCell ref="S23:S24"/>
-    <mergeCell ref="T23:T24"/>
-    <mergeCell ref="U23:U24"/>
-    <mergeCell ref="V23:V24"/>
-    <mergeCell ref="AI23:AI24"/>
-    <mergeCell ref="AJ23:AJ24"/>
-    <mergeCell ref="AK23:AK24"/>
-    <mergeCell ref="AL23:AL24"/>
-    <mergeCell ref="AM23:AM24"/>
-    <mergeCell ref="AN23:AN24"/>
-    <mergeCell ref="AC23:AC24"/>
-    <mergeCell ref="AD23:AD24"/>
-    <mergeCell ref="AE23:AE24"/>
-    <mergeCell ref="AF23:AF24"/>
-    <mergeCell ref="AG23:AG24"/>
-    <mergeCell ref="AH23:AH24"/>
-    <mergeCell ref="AX23:AX24"/>
-    <mergeCell ref="AY23:AY24"/>
-    <mergeCell ref="BB23:BB24"/>
-    <mergeCell ref="BD23:BD24"/>
-    <mergeCell ref="AO23:AO24"/>
-    <mergeCell ref="AP23:AP24"/>
-    <mergeCell ref="AQ23:AQ24"/>
-    <mergeCell ref="AS23:AS24"/>
-    <mergeCell ref="AT23:AT24"/>
-    <mergeCell ref="AU23:AU24"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="H54:H55"/>
-    <mergeCell ref="I54:I55"/>
-    <mergeCell ref="J54:J55"/>
-    <mergeCell ref="CD23:CD24"/>
-    <mergeCell ref="CE23:CE24"/>
-    <mergeCell ref="BX23:BX24"/>
-    <mergeCell ref="BY23:BY24"/>
-    <mergeCell ref="BZ23:BZ24"/>
-    <mergeCell ref="CA23:CA24"/>
-    <mergeCell ref="CB23:CB24"/>
-    <mergeCell ref="CC23:CC24"/>
-    <mergeCell ref="BQ23:BQ24"/>
-    <mergeCell ref="BR23:BR24"/>
-    <mergeCell ref="BS23:BS24"/>
-    <mergeCell ref="BT23:BT24"/>
-    <mergeCell ref="BV23:BV24"/>
-    <mergeCell ref="BW23:BW24"/>
-    <mergeCell ref="BK23:BK24"/>
-    <mergeCell ref="BL23:BL24"/>
-    <mergeCell ref="BM23:BM24"/>
-    <mergeCell ref="K54:K55"/>
-    <mergeCell ref="L54:L55"/>
-    <mergeCell ref="M54:M55"/>
-    <mergeCell ref="N54:N55"/>
-    <mergeCell ref="O54:O55"/>
-    <mergeCell ref="P54:P55"/>
-    <mergeCell ref="CK23:CK24"/>
-    <mergeCell ref="CM23:CM24"/>
-    <mergeCell ref="CN23:CN24"/>
-    <mergeCell ref="CG23:CG24"/>
-    <mergeCell ref="CH23:CH24"/>
-    <mergeCell ref="CI23:CI24"/>
-    <mergeCell ref="CJ23:CJ24"/>
-    <mergeCell ref="BN23:BN24"/>
-    <mergeCell ref="BO23:BO24"/>
-    <mergeCell ref="BP23:BP24"/>
-    <mergeCell ref="BE23:BE24"/>
-    <mergeCell ref="BF23:BF24"/>
-    <mergeCell ref="BG23:BG24"/>
-    <mergeCell ref="BH23:BH24"/>
-    <mergeCell ref="BI23:BI24"/>
-    <mergeCell ref="BJ23:BJ24"/>
-    <mergeCell ref="AV23:AV24"/>
-    <mergeCell ref="AW23:AW24"/>
-    <mergeCell ref="X54:X55"/>
-    <mergeCell ref="Y54:Y55"/>
-    <mergeCell ref="Z54:Z55"/>
-    <mergeCell ref="AA54:AA55"/>
-    <mergeCell ref="AB54:AB55"/>
-    <mergeCell ref="AC54:AC55"/>
-    <mergeCell ref="Q54:Q55"/>
-    <mergeCell ref="S54:S55"/>
-    <mergeCell ref="T54:T55"/>
-    <mergeCell ref="U54:U55"/>
-    <mergeCell ref="V54:V55"/>
-    <mergeCell ref="W54:W55"/>
-    <mergeCell ref="AJ54:AJ55"/>
-    <mergeCell ref="AK54:AK55"/>
-    <mergeCell ref="AL54:AL55"/>
-    <mergeCell ref="AM54:AM55"/>
-    <mergeCell ref="AN54:AN55"/>
-    <mergeCell ref="AO54:AO55"/>
-    <mergeCell ref="AD54:AD55"/>
-    <mergeCell ref="AE54:AE55"/>
-    <mergeCell ref="AF54:AF55"/>
-    <mergeCell ref="AG54:AG55"/>
-    <mergeCell ref="AH54:AH55"/>
-    <mergeCell ref="AI54:AI55"/>
-    <mergeCell ref="AW54:AW55"/>
-    <mergeCell ref="AX54:AX55"/>
-    <mergeCell ref="AY54:AY55"/>
-    <mergeCell ref="BB54:BB55"/>
-    <mergeCell ref="BD54:BD55"/>
-    <mergeCell ref="BE54:BE55"/>
-    <mergeCell ref="AP54:AP55"/>
-    <mergeCell ref="AQ54:AQ55"/>
-    <mergeCell ref="AS54:AS55"/>
-    <mergeCell ref="AT54:AT55"/>
-    <mergeCell ref="AU54:AU55"/>
-    <mergeCell ref="AV54:AV55"/>
-    <mergeCell ref="BL54:BL55"/>
-    <mergeCell ref="BM54:BM55"/>
-    <mergeCell ref="BN54:BN55"/>
-    <mergeCell ref="BO54:BO55"/>
-    <mergeCell ref="BP54:BP55"/>
-    <mergeCell ref="BQ54:BQ55"/>
-    <mergeCell ref="BF54:BF55"/>
-    <mergeCell ref="BG54:BG55"/>
-    <mergeCell ref="BH54:BH55"/>
-    <mergeCell ref="BI54:BI55"/>
-    <mergeCell ref="BJ54:BJ55"/>
-    <mergeCell ref="BK54:BK55"/>
-    <mergeCell ref="CA54:CA55"/>
-    <mergeCell ref="CB54:CB55"/>
-    <mergeCell ref="CC54:CC55"/>
-    <mergeCell ref="CD54:CD55"/>
-    <mergeCell ref="BR54:BR55"/>
-    <mergeCell ref="BS54:BS55"/>
-    <mergeCell ref="BT54:BT55"/>
-    <mergeCell ref="BV54:BV55"/>
-    <mergeCell ref="BW54:BW55"/>
-    <mergeCell ref="BX54:BX55"/>
-    <mergeCell ref="L84:L85"/>
-    <mergeCell ref="M84:M85"/>
-    <mergeCell ref="N84:N85"/>
-    <mergeCell ref="O84:O85"/>
-    <mergeCell ref="P84:P85"/>
-    <mergeCell ref="Q84:Q85"/>
-    <mergeCell ref="CM54:CM55"/>
-    <mergeCell ref="CN54:CN55"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="H84:H85"/>
-    <mergeCell ref="I84:I85"/>
-    <mergeCell ref="J84:J85"/>
-    <mergeCell ref="K84:K85"/>
-    <mergeCell ref="CE54:CE55"/>
-    <mergeCell ref="CG54:CG55"/>
-    <mergeCell ref="CH54:CH55"/>
-    <mergeCell ref="CI54:CI55"/>
-    <mergeCell ref="CJ54:CJ55"/>
-    <mergeCell ref="CK54:CK55"/>
-    <mergeCell ref="BY54:BY55"/>
-    <mergeCell ref="BZ54:BZ55"/>
-    <mergeCell ref="Y84:Y85"/>
-    <mergeCell ref="Z84:Z85"/>
-    <mergeCell ref="AA84:AA85"/>
-    <mergeCell ref="AB84:AB85"/>
-    <mergeCell ref="AC84:AC85"/>
-    <mergeCell ref="AD84:AD85"/>
-    <mergeCell ref="S84:S85"/>
-    <mergeCell ref="T84:T85"/>
-    <mergeCell ref="U84:U85"/>
-    <mergeCell ref="V84:V85"/>
-    <mergeCell ref="W84:W85"/>
-    <mergeCell ref="X84:X85"/>
-    <mergeCell ref="AK84:AK85"/>
-    <mergeCell ref="AL84:AL85"/>
-    <mergeCell ref="AM84:AM85"/>
-    <mergeCell ref="AN84:AN85"/>
-    <mergeCell ref="AO84:AO85"/>
-    <mergeCell ref="AP84:AP85"/>
-    <mergeCell ref="AE84:AE85"/>
-    <mergeCell ref="AF84:AF85"/>
-    <mergeCell ref="AG84:AG85"/>
-    <mergeCell ref="AH84:AH85"/>
-    <mergeCell ref="AI84:AI85"/>
-    <mergeCell ref="AJ84:AJ85"/>
-    <mergeCell ref="AX84:AX85"/>
-    <mergeCell ref="AY84:AY85"/>
-    <mergeCell ref="BB84:BB85"/>
-    <mergeCell ref="BD84:BD85"/>
-    <mergeCell ref="BE84:BE85"/>
-    <mergeCell ref="BF84:BF85"/>
-    <mergeCell ref="AQ84:AQ85"/>
-    <mergeCell ref="AS84:AS85"/>
-    <mergeCell ref="AT84:AT85"/>
-    <mergeCell ref="AU84:AU85"/>
-    <mergeCell ref="AV84:AV85"/>
-    <mergeCell ref="AW84:AW85"/>
-    <mergeCell ref="BM84:BM85"/>
-    <mergeCell ref="BN84:BN85"/>
-    <mergeCell ref="BO84:BO85"/>
-    <mergeCell ref="BP84:BP85"/>
-    <mergeCell ref="BQ84:BQ85"/>
-    <mergeCell ref="BR84:BR85"/>
-    <mergeCell ref="BG84:BG85"/>
-    <mergeCell ref="BH84:BH85"/>
-    <mergeCell ref="BI84:BI85"/>
-    <mergeCell ref="BJ84:BJ85"/>
-    <mergeCell ref="BK84:BK85"/>
-    <mergeCell ref="BL84:BL85"/>
-    <mergeCell ref="CC84:CC85"/>
-    <mergeCell ref="CD84:CD85"/>
-    <mergeCell ref="CE84:CE85"/>
-    <mergeCell ref="BS84:BS85"/>
-    <mergeCell ref="BT84:BT85"/>
-    <mergeCell ref="BV84:BV85"/>
-    <mergeCell ref="BW84:BW85"/>
-    <mergeCell ref="BX84:BX85"/>
-    <mergeCell ref="BY84:BY85"/>
-    <mergeCell ref="AL86:AY86"/>
-    <mergeCell ref="BA86:BK86"/>
-    <mergeCell ref="BL86:BT86"/>
-    <mergeCell ref="BU86:CD86"/>
-    <mergeCell ref="CE86:CK86"/>
-    <mergeCell ref="CN84:CN85"/>
-    <mergeCell ref="B86:E86"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="K86:N86"/>
-    <mergeCell ref="O86:P86"/>
-    <mergeCell ref="S86:W86"/>
-    <mergeCell ref="X86:AD86"/>
-    <mergeCell ref="AE86:AF86"/>
-    <mergeCell ref="AG86:AK86"/>
-    <mergeCell ref="CG84:CG85"/>
-    <mergeCell ref="CH84:CH85"/>
-    <mergeCell ref="CI84:CI85"/>
-    <mergeCell ref="CJ84:CJ85"/>
-    <mergeCell ref="CK84:CK85"/>
-    <mergeCell ref="CM84:CM85"/>
-    <mergeCell ref="BZ84:BZ85"/>
-    <mergeCell ref="CA84:CA85"/>
-    <mergeCell ref="CB84:CB85"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" location="Argentina" tooltip="2019–20 coronavirus pandemic by country and territory" display="https://en.wikipedia.org/wiki/2019%E2%80%9320_coronavirus_pandemic_by_country_and_territory - Argentina" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
@@ -22114,8 +22122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:DA119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CF63" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="CK88" sqref="CK88"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="CM88" sqref="CM88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22271,43 +22279,43 @@
       <c r="A2" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="H2" s="30" t="s">
+      <c r="H2" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="I2" s="30" t="s">
+      <c r="I2" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="J2" s="30" t="s">
+      <c r="J2" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="K2" s="30" t="s">
+      <c r="K2" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="L2" s="30" t="s">
+      <c r="L2" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="M2" s="30" t="s">
+      <c r="M2" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="N2" s="30" t="s">
+      <c r="N2" s="29" t="s">
         <v>165</v>
       </c>
       <c r="O2" s="9" t="s">
@@ -22316,148 +22324,148 @@
       <c r="P2" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="Q2" s="30" t="s">
+      <c r="Q2" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="R2" s="30" t="s">
+      <c r="R2" s="29" t="s">
         <v>234</v>
       </c>
-      <c r="S2" s="30" t="s">
+      <c r="S2" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="T2" s="30" t="s">
+      <c r="T2" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="U2" s="30" t="s">
+      <c r="U2" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="V2" s="30" t="s">
+      <c r="V2" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="W2" s="30" t="s">
+      <c r="W2" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="X2" s="30" t="s">
+      <c r="X2" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="Y2" s="30" t="s">
+      <c r="Y2" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="Z2" s="30" t="s">
+      <c r="Z2" s="29" t="s">
         <v>47</v>
       </c>
       <c r="AA2" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="AB2" s="30" t="s">
+      <c r="AB2" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="AC2" s="30" t="s">
+      <c r="AC2" s="29" t="s">
         <v>235</v>
       </c>
-      <c r="AD2" s="30" t="s">
+      <c r="AD2" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="AE2" s="30" t="s">
+      <c r="AE2" s="29" t="s">
         <v>236</v>
       </c>
-      <c r="AF2" s="30" t="s">
+      <c r="AF2" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="AG2" s="30" t="s">
+      <c r="AG2" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="AH2" s="30" t="s">
+      <c r="AH2" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="AI2" s="30" t="s">
+      <c r="AI2" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="AJ2" s="30" t="s">
+      <c r="AJ2" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="AK2" s="30" t="s">
+      <c r="AK2" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="AL2" s="30" t="s">
+      <c r="AL2" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="AM2" s="30" t="s">
+      <c r="AM2" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="AN2" s="30" t="s">
+      <c r="AN2" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="AO2" s="30" t="s">
+      <c r="AO2" s="29" t="s">
         <v>671</v>
       </c>
-      <c r="AP2" s="30" t="s">
+      <c r="AP2" s="29" t="s">
         <v>174</v>
       </c>
-      <c r="AQ2" s="30" t="s">
+      <c r="AQ2" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="AR2" s="30" t="s">
+      <c r="AR2" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="AS2" s="30" t="s">
+      <c r="AS2" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="AT2" s="30" t="s">
+      <c r="AT2" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="AU2" s="30" t="s">
+      <c r="AU2" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="AV2" s="30" t="s">
+      <c r="AV2" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="AW2" s="30" t="s">
+      <c r="AW2" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="AX2" s="30" t="s">
+      <c r="AX2" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="AY2" s="30" t="s">
+      <c r="AY2" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="AZ2" s="30" t="s">
+      <c r="AZ2" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="BA2" s="30" t="s">
+      <c r="BA2" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="BB2" s="30" t="s">
+      <c r="BB2" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="BC2" s="30" t="s">
+      <c r="BC2" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="BD2" s="30" t="s">
+      <c r="BD2" s="29" t="s">
         <v>66</v>
       </c>
       <c r="BE2" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="BF2" s="30" t="s">
+      <c r="BF2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="BG2" s="30" t="s">
+      <c r="BG2" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="BH2" s="30" t="s">
+      <c r="BH2" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="BI2" s="30" t="s">
+      <c r="BI2" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="BJ2" s="30" t="s">
+      <c r="BJ2" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="BK2" s="30" t="s">
+      <c r="BK2" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="BL2" s="30" t="s">
+      <c r="BL2" s="29" t="s">
         <v>28</v>
       </c>
       <c r="BM2" s="8" t="s">
@@ -22466,246 +22474,246 @@
       <c r="BN2" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="BO2" s="30" t="s">
+      <c r="BO2" s="29" t="s">
         <v>48</v>
       </c>
       <c r="BP2" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="BQ2" s="30" t="s">
+      <c r="BQ2" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="BR2" s="30" t="s">
+      <c r="BR2" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="BS2" s="30" t="s">
+      <c r="BS2" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="BT2" s="30" t="s">
+      <c r="BT2" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="BU2" s="30" t="s">
+      <c r="BU2" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="BV2" s="30" t="s">
+      <c r="BV2" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="BW2" s="30" t="s">
+      <c r="BW2" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="BX2" s="30" t="s">
+      <c r="BX2" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="BY2" s="30" t="s">
+      <c r="BY2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="BZ2" s="30" t="s">
+      <c r="BZ2" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="CA2" s="30" t="s">
+      <c r="CA2" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="CB2" s="30" t="s">
+      <c r="CB2" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="CC2" s="30" t="s">
+      <c r="CC2" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="CD2" s="30" t="s">
+      <c r="CD2" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="CE2" s="30" t="s">
+      <c r="CE2" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="CF2" s="30" t="s">
+      <c r="CF2" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="CG2" s="30" t="s">
+      <c r="CG2" s="29" t="s">
         <v>20</v>
       </c>
       <c r="CH2" s="9" t="s">
-        <v>679</v>
-      </c>
-      <c r="CI2" s="30" t="s">
+        <v>678</v>
+      </c>
+      <c r="CI2" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="CJ2" s="30" t="s">
+      <c r="CJ2" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="CK2" s="30" t="s">
+      <c r="CK2" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="CL2" s="30" t="s">
+      <c r="CL2" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="CM2" s="30" t="s">
+      <c r="CM2" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="CN2" s="30" t="s">
+      <c r="CN2" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="CO2" s="30" t="s">
+      <c r="CO2" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="CP2" s="30" t="s">
+      <c r="CP2" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="CQ2" s="30" t="s">
+      <c r="CQ2" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="CR2" s="30" t="s">
+      <c r="CR2" s="29" t="s">
         <v>41</v>
       </c>
       <c r="CS2" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="CT2" s="30" t="s">
+      <c r="CT2" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="CU2" s="30" t="s">
+      <c r="CU2" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="CV2" s="30" t="s">
+      <c r="CV2" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="CW2" s="30" t="s">
+      <c r="CW2" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="CX2" s="30" t="s">
+      <c r="CX2" s="29" t="s">
         <v>45</v>
       </c>
       <c r="CY2" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="CZ2" s="29" t="s">
+      <c r="CZ2" s="30" t="s">
         <v>248</v>
       </c>
-      <c r="DA2" s="29" t="s">
+      <c r="DA2" s="30" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:105" ht="87.6" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
       <c r="O3" s="9" t="s">
         <v>231</v>
       </c>
       <c r="P3" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30"/>
-      <c r="U3" s="30"/>
-      <c r="V3" s="30"/>
-      <c r="W3" s="30"/>
-      <c r="X3" s="30"/>
-      <c r="Y3" s="30"/>
-      <c r="Z3" s="30"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="29"/>
+      <c r="W3" s="29"/>
+      <c r="X3" s="29"/>
+      <c r="Y3" s="29"/>
+      <c r="Z3" s="29"/>
       <c r="AA3" s="8"/>
-      <c r="AB3" s="30"/>
-      <c r="AC3" s="30"/>
-      <c r="AD3" s="30"/>
-      <c r="AE3" s="30"/>
-      <c r="AF3" s="30"/>
-      <c r="AG3" s="30"/>
-      <c r="AH3" s="30"/>
-      <c r="AI3" s="30"/>
-      <c r="AJ3" s="30"/>
-      <c r="AK3" s="30"/>
-      <c r="AL3" s="30"/>
-      <c r="AM3" s="30"/>
-      <c r="AN3" s="30"/>
-      <c r="AO3" s="30"/>
-      <c r="AP3" s="30"/>
-      <c r="AQ3" s="30"/>
-      <c r="AR3" s="30"/>
-      <c r="AS3" s="30"/>
-      <c r="AT3" s="30"/>
-      <c r="AU3" s="30"/>
-      <c r="AV3" s="30"/>
-      <c r="AW3" s="30"/>
-      <c r="AX3" s="30"/>
-      <c r="AY3" s="30"/>
-      <c r="AZ3" s="30"/>
-      <c r="BA3" s="30"/>
-      <c r="BB3" s="30"/>
-      <c r="BC3" s="30"/>
-      <c r="BD3" s="30"/>
+      <c r="AB3" s="29"/>
+      <c r="AC3" s="29"/>
+      <c r="AD3" s="29"/>
+      <c r="AE3" s="29"/>
+      <c r="AF3" s="29"/>
+      <c r="AG3" s="29"/>
+      <c r="AH3" s="29"/>
+      <c r="AI3" s="29"/>
+      <c r="AJ3" s="29"/>
+      <c r="AK3" s="29"/>
+      <c r="AL3" s="29"/>
+      <c r="AM3" s="29"/>
+      <c r="AN3" s="29"/>
+      <c r="AO3" s="29"/>
+      <c r="AP3" s="29"/>
+      <c r="AQ3" s="29"/>
+      <c r="AR3" s="29"/>
+      <c r="AS3" s="29"/>
+      <c r="AT3" s="29"/>
+      <c r="AU3" s="29"/>
+      <c r="AV3" s="29"/>
+      <c r="AW3" s="29"/>
+      <c r="AX3" s="29"/>
+      <c r="AY3" s="29"/>
+      <c r="AZ3" s="29"/>
+      <c r="BA3" s="29"/>
+      <c r="BB3" s="29"/>
+      <c r="BC3" s="29"/>
+      <c r="BD3" s="29"/>
       <c r="BE3" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="BF3" s="30"/>
-      <c r="BG3" s="30"/>
-      <c r="BH3" s="30"/>
-      <c r="BI3" s="30"/>
-      <c r="BJ3" s="30"/>
-      <c r="BK3" s="30"/>
-      <c r="BL3" s="30"/>
+      <c r="BF3" s="29"/>
+      <c r="BG3" s="29"/>
+      <c r="BH3" s="29"/>
+      <c r="BI3" s="29"/>
+      <c r="BJ3" s="29"/>
+      <c r="BK3" s="29"/>
+      <c r="BL3" s="29"/>
       <c r="BM3" s="8"/>
       <c r="BN3" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="BO3" s="30"/>
+      <c r="BO3" s="29"/>
       <c r="BP3" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="BQ3" s="30"/>
-      <c r="BR3" s="30"/>
-      <c r="BS3" s="30"/>
-      <c r="BT3" s="30"/>
-      <c r="BU3" s="30"/>
-      <c r="BV3" s="30"/>
-      <c r="BW3" s="30"/>
-      <c r="BX3" s="30"/>
-      <c r="BY3" s="30"/>
-      <c r="BZ3" s="30"/>
-      <c r="CA3" s="30"/>
-      <c r="CB3" s="30"/>
-      <c r="CC3" s="30"/>
-      <c r="CD3" s="30"/>
-      <c r="CE3" s="30"/>
-      <c r="CF3" s="30"/>
-      <c r="CG3" s="30"/>
+      <c r="BQ3" s="29"/>
+      <c r="BR3" s="29"/>
+      <c r="BS3" s="29"/>
+      <c r="BT3" s="29"/>
+      <c r="BU3" s="29"/>
+      <c r="BV3" s="29"/>
+      <c r="BW3" s="29"/>
+      <c r="BX3" s="29"/>
+      <c r="BY3" s="29"/>
+      <c r="BZ3" s="29"/>
+      <c r="CA3" s="29"/>
+      <c r="CB3" s="29"/>
+      <c r="CC3" s="29"/>
+      <c r="CD3" s="29"/>
+      <c r="CE3" s="29"/>
+      <c r="CF3" s="29"/>
+      <c r="CG3" s="29"/>
       <c r="CH3" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="CI3" s="30"/>
-      <c r="CJ3" s="30"/>
-      <c r="CK3" s="30"/>
-      <c r="CL3" s="30"/>
-      <c r="CM3" s="30"/>
-      <c r="CN3" s="30"/>
-      <c r="CO3" s="30"/>
-      <c r="CP3" s="30"/>
-      <c r="CQ3" s="30"/>
-      <c r="CR3" s="30"/>
+      <c r="CI3" s="29"/>
+      <c r="CJ3" s="29"/>
+      <c r="CK3" s="29"/>
+      <c r="CL3" s="29"/>
+      <c r="CM3" s="29"/>
+      <c r="CN3" s="29"/>
+      <c r="CO3" s="29"/>
+      <c r="CP3" s="29"/>
+      <c r="CQ3" s="29"/>
+      <c r="CR3" s="29"/>
       <c r="CS3" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="CT3" s="30"/>
-      <c r="CU3" s="30"/>
-      <c r="CV3" s="30"/>
-      <c r="CW3" s="30"/>
-      <c r="CX3" s="30"/>
+      <c r="CT3" s="29"/>
+      <c r="CU3" s="29"/>
+      <c r="CV3" s="29"/>
+      <c r="CW3" s="29"/>
+      <c r="CX3" s="29"/>
       <c r="CY3" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="CZ3" s="29"/>
-      <c r="DA3" s="29"/>
+      <c r="CZ3" s="30"/>
+      <c r="DA3" s="30"/>
     </row>
     <row r="4" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
@@ -25102,43 +25110,43 @@
       <c r="A23" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="30" t="s">
+      <c r="C23" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="30" t="s">
+      <c r="D23" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="E23" s="30" t="s">
+      <c r="E23" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="F23" s="30" t="s">
+      <c r="F23" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="G23" s="30" t="s">
+      <c r="G23" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="H23" s="30" t="s">
+      <c r="H23" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="I23" s="30" t="s">
+      <c r="I23" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="J23" s="30" t="s">
+      <c r="J23" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="K23" s="30" t="s">
+      <c r="K23" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="L23" s="30" t="s">
+      <c r="L23" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="M23" s="30" t="s">
+      <c r="M23" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="N23" s="30" t="s">
+      <c r="N23" s="29" t="s">
         <v>165</v>
       </c>
       <c r="O23" s="9" t="s">
@@ -25147,148 +25155,148 @@
       <c r="P23" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="Q23" s="30" t="s">
+      <c r="Q23" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="R23" s="30" t="s">
+      <c r="R23" s="29" t="s">
         <v>234</v>
       </c>
-      <c r="S23" s="30" t="s">
+      <c r="S23" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="T23" s="30" t="s">
+      <c r="T23" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="U23" s="30" t="s">
+      <c r="U23" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="V23" s="30" t="s">
+      <c r="V23" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="W23" s="30" t="s">
+      <c r="W23" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="X23" s="30" t="s">
+      <c r="X23" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="Y23" s="30" t="s">
+      <c r="Y23" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="Z23" s="30" t="s">
+      <c r="Z23" s="29" t="s">
         <v>47</v>
       </c>
       <c r="AA23" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="AB23" s="30" t="s">
+      <c r="AB23" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="AC23" s="30" t="s">
+      <c r="AC23" s="29" t="s">
         <v>235</v>
       </c>
-      <c r="AD23" s="30" t="s">
+      <c r="AD23" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="AE23" s="30" t="s">
+      <c r="AE23" s="29" t="s">
         <v>236</v>
       </c>
-      <c r="AF23" s="30" t="s">
+      <c r="AF23" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="AG23" s="30" t="s">
+      <c r="AG23" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="AH23" s="30" t="s">
+      <c r="AH23" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="AI23" s="30" t="s">
+      <c r="AI23" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="AJ23" s="30" t="s">
+      <c r="AJ23" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="AK23" s="30" t="s">
+      <c r="AK23" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="AL23" s="30" t="s">
+      <c r="AL23" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="AM23" s="30" t="s">
+      <c r="AM23" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="AN23" s="30" t="s">
+      <c r="AN23" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="AO23" s="30" t="s">
+      <c r="AO23" s="29" t="s">
         <v>671</v>
       </c>
-      <c r="AP23" s="30" t="s">
+      <c r="AP23" s="29" t="s">
         <v>174</v>
       </c>
-      <c r="AQ23" s="30" t="s">
+      <c r="AQ23" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="AR23" s="30" t="s">
+      <c r="AR23" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="AS23" s="30" t="s">
+      <c r="AS23" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="AT23" s="30" t="s">
+      <c r="AT23" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="AU23" s="30" t="s">
+      <c r="AU23" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="AV23" s="30" t="s">
+      <c r="AV23" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="AW23" s="30" t="s">
+      <c r="AW23" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="AX23" s="30" t="s">
+      <c r="AX23" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="AY23" s="30" t="s">
+      <c r="AY23" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="AZ23" s="30" t="s">
+      <c r="AZ23" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="BA23" s="30" t="s">
+      <c r="BA23" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="BB23" s="30" t="s">
+      <c r="BB23" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="BC23" s="30" t="s">
+      <c r="BC23" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="BD23" s="30" t="s">
+      <c r="BD23" s="29" t="s">
         <v>66</v>
       </c>
       <c r="BE23" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="BF23" s="30" t="s">
+      <c r="BF23" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="BG23" s="30" t="s">
+      <c r="BG23" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="BH23" s="30" t="s">
+      <c r="BH23" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="BI23" s="30" t="s">
+      <c r="BI23" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="BJ23" s="30" t="s">
+      <c r="BJ23" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="BK23" s="30" t="s">
+      <c r="BK23" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="BL23" s="30" t="s">
+      <c r="BL23" s="29" t="s">
         <v>28</v>
       </c>
       <c r="BM23" s="8" t="s">
@@ -25297,121 +25305,121 @@
       <c r="BN23" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="BO23" s="30" t="s">
+      <c r="BO23" s="29" t="s">
         <v>48</v>
       </c>
       <c r="BP23" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="BQ23" s="30" t="s">
+      <c r="BQ23" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="BR23" s="30" t="s">
+      <c r="BR23" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="BS23" s="30" t="s">
+      <c r="BS23" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="BT23" s="30" t="s">
+      <c r="BT23" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="BU23" s="30" t="s">
+      <c r="BU23" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="BV23" s="30" t="s">
+      <c r="BV23" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="BW23" s="30" t="s">
+      <c r="BW23" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="BX23" s="30" t="s">
+      <c r="BX23" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="BY23" s="30" t="s">
+      <c r="BY23" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="BZ23" s="30" t="s">
+      <c r="BZ23" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="CA23" s="30" t="s">
+      <c r="CA23" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="CB23" s="30" t="s">
+      <c r="CB23" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="CC23" s="30" t="s">
+      <c r="CC23" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="CD23" s="30" t="s">
+      <c r="CD23" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="CE23" s="30" t="s">
+      <c r="CE23" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="CF23" s="30" t="s">
+      <c r="CF23" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="CG23" s="30" t="s">
+      <c r="CG23" s="29" t="s">
         <v>20</v>
       </c>
       <c r="CH23" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="CI23" s="30" t="s">
+      <c r="CI23" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="CJ23" s="30" t="s">
+      <c r="CJ23" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="CK23" s="30" t="s">
+      <c r="CK23" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="CL23" s="30" t="s">
+      <c r="CL23" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="CM23" s="30" t="s">
+      <c r="CM23" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="CN23" s="30" t="s">
+      <c r="CN23" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="CO23" s="30" t="s">
+      <c r="CO23" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="CP23" s="30" t="s">
+      <c r="CP23" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="CQ23" s="30" t="s">
+      <c r="CQ23" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="CR23" s="30" t="s">
+      <c r="CR23" s="29" t="s">
         <v>41</v>
       </c>
       <c r="CS23" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="CT23" s="30" t="s">
+      <c r="CT23" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="CU23" s="30" t="s">
+      <c r="CU23" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="CV23" s="30" t="s">
+      <c r="CV23" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="CW23" s="30" t="s">
+      <c r="CW23" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="CX23" s="30" t="s">
+      <c r="CX23" s="29" t="s">
         <v>45</v>
       </c>
       <c r="CY23" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="CZ23" s="29" t="s">
+      <c r="CZ23" s="30" t="s">
         <v>248</v>
       </c>
-      <c r="DA23" s="29" t="s">
+      <c r="DA23" s="30" t="s">
         <v>249</v>
       </c>
     </row>
@@ -25419,130 +25427,130 @@
       <c r="A24" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
-      <c r="N24" s="30"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
       <c r="O24" s="9" t="s">
         <v>231</v>
       </c>
       <c r="P24" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="Q24" s="30"/>
-      <c r="R24" s="30"/>
-      <c r="S24" s="30"/>
-      <c r="T24" s="30"/>
-      <c r="U24" s="30"/>
-      <c r="V24" s="30"/>
-      <c r="W24" s="30"/>
-      <c r="X24" s="30"/>
-      <c r="Y24" s="30"/>
-      <c r="Z24" s="30"/>
+      <c r="Q24" s="29"/>
+      <c r="R24" s="29"/>
+      <c r="S24" s="29"/>
+      <c r="T24" s="29"/>
+      <c r="U24" s="29"/>
+      <c r="V24" s="29"/>
+      <c r="W24" s="29"/>
+      <c r="X24" s="29"/>
+      <c r="Y24" s="29"/>
+      <c r="Z24" s="29"/>
       <c r="AA24" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="AB24" s="30"/>
-      <c r="AC24" s="30"/>
-      <c r="AD24" s="30"/>
-      <c r="AE24" s="30"/>
-      <c r="AF24" s="30"/>
-      <c r="AG24" s="30"/>
-      <c r="AH24" s="30"/>
-      <c r="AI24" s="30"/>
-      <c r="AJ24" s="30"/>
-      <c r="AK24" s="30"/>
-      <c r="AL24" s="30"/>
-      <c r="AM24" s="30"/>
-      <c r="AN24" s="30"/>
-      <c r="AO24" s="30"/>
-      <c r="AP24" s="30"/>
-      <c r="AQ24" s="30"/>
-      <c r="AR24" s="30"/>
-      <c r="AS24" s="30"/>
-      <c r="AT24" s="30"/>
-      <c r="AU24" s="30"/>
-      <c r="AV24" s="30"/>
-      <c r="AW24" s="30"/>
-      <c r="AX24" s="30"/>
-      <c r="AY24" s="30"/>
-      <c r="AZ24" s="30"/>
-      <c r="BA24" s="30"/>
-      <c r="BB24" s="30"/>
-      <c r="BC24" s="30"/>
-      <c r="BD24" s="30"/>
+      <c r="AB24" s="29"/>
+      <c r="AC24" s="29"/>
+      <c r="AD24" s="29"/>
+      <c r="AE24" s="29"/>
+      <c r="AF24" s="29"/>
+      <c r="AG24" s="29"/>
+      <c r="AH24" s="29"/>
+      <c r="AI24" s="29"/>
+      <c r="AJ24" s="29"/>
+      <c r="AK24" s="29"/>
+      <c r="AL24" s="29"/>
+      <c r="AM24" s="29"/>
+      <c r="AN24" s="29"/>
+      <c r="AO24" s="29"/>
+      <c r="AP24" s="29"/>
+      <c r="AQ24" s="29"/>
+      <c r="AR24" s="29"/>
+      <c r="AS24" s="29"/>
+      <c r="AT24" s="29"/>
+      <c r="AU24" s="29"/>
+      <c r="AV24" s="29"/>
+      <c r="AW24" s="29"/>
+      <c r="AX24" s="29"/>
+      <c r="AY24" s="29"/>
+      <c r="AZ24" s="29"/>
+      <c r="BA24" s="29"/>
+      <c r="BB24" s="29"/>
+      <c r="BC24" s="29"/>
+      <c r="BD24" s="29"/>
       <c r="BE24" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="BF24" s="30"/>
-      <c r="BG24" s="30"/>
-      <c r="BH24" s="30"/>
-      <c r="BI24" s="30"/>
-      <c r="BJ24" s="30"/>
-      <c r="BK24" s="30"/>
-      <c r="BL24" s="30"/>
+      <c r="BF24" s="29"/>
+      <c r="BG24" s="29"/>
+      <c r="BH24" s="29"/>
+      <c r="BI24" s="29"/>
+      <c r="BJ24" s="29"/>
+      <c r="BK24" s="29"/>
+      <c r="BL24" s="29"/>
       <c r="BM24" s="8" t="s">
         <v>212</v>
       </c>
       <c r="BN24" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="BO24" s="30"/>
+      <c r="BO24" s="29"/>
       <c r="BP24" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="BQ24" s="30"/>
-      <c r="BR24" s="30"/>
-      <c r="BS24" s="30"/>
-      <c r="BT24" s="30"/>
-      <c r="BU24" s="30"/>
-      <c r="BV24" s="30"/>
-      <c r="BW24" s="30"/>
-      <c r="BX24" s="30"/>
-      <c r="BY24" s="30"/>
-      <c r="BZ24" s="30"/>
-      <c r="CA24" s="30"/>
-      <c r="CB24" s="30"/>
-      <c r="CC24" s="30"/>
-      <c r="CD24" s="30"/>
-      <c r="CE24" s="30"/>
-      <c r="CF24" s="30"/>
-      <c r="CG24" s="30"/>
+      <c r="BQ24" s="29"/>
+      <c r="BR24" s="29"/>
+      <c r="BS24" s="29"/>
+      <c r="BT24" s="29"/>
+      <c r="BU24" s="29"/>
+      <c r="BV24" s="29"/>
+      <c r="BW24" s="29"/>
+      <c r="BX24" s="29"/>
+      <c r="BY24" s="29"/>
+      <c r="BZ24" s="29"/>
+      <c r="CA24" s="29"/>
+      <c r="CB24" s="29"/>
+      <c r="CC24" s="29"/>
+      <c r="CD24" s="29"/>
+      <c r="CE24" s="29"/>
+      <c r="CF24" s="29"/>
+      <c r="CG24" s="29"/>
       <c r="CH24" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="CI24" s="30"/>
-      <c r="CJ24" s="30"/>
-      <c r="CK24" s="30"/>
-      <c r="CL24" s="30"/>
-      <c r="CM24" s="30"/>
-      <c r="CN24" s="30"/>
-      <c r="CO24" s="30"/>
-      <c r="CP24" s="30"/>
-      <c r="CQ24" s="30"/>
-      <c r="CR24" s="30"/>
+      <c r="CI24" s="29"/>
+      <c r="CJ24" s="29"/>
+      <c r="CK24" s="29"/>
+      <c r="CL24" s="29"/>
+      <c r="CM24" s="29"/>
+      <c r="CN24" s="29"/>
+      <c r="CO24" s="29"/>
+      <c r="CP24" s="29"/>
+      <c r="CQ24" s="29"/>
+      <c r="CR24" s="29"/>
       <c r="CS24" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="CT24" s="30"/>
-      <c r="CU24" s="30"/>
-      <c r="CV24" s="30"/>
-      <c r="CW24" s="30"/>
-      <c r="CX24" s="30"/>
+      <c r="CT24" s="29"/>
+      <c r="CU24" s="29"/>
+      <c r="CV24" s="29"/>
+      <c r="CW24" s="29"/>
+      <c r="CX24" s="29"/>
       <c r="CY24" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="CZ24" s="29"/>
-      <c r="DA24" s="29"/>
+      <c r="CZ24" s="30"/>
+      <c r="DA24" s="30"/>
     </row>
     <row r="25" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
@@ -28437,7 +28445,7 @@
       <c r="BQ46" s="7"/>
       <c r="BR46" s="7"/>
       <c r="BS46" s="25">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="BT46" s="7"/>
       <c r="BU46" s="7"/>
@@ -28570,12 +28578,11 @@
       <c r="BQ47" s="7"/>
       <c r="BR47" s="7"/>
       <c r="BS47" s="7">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="BT47" s="7"/>
       <c r="BU47" s="7"/>
       <c r="BV47" s="7"/>
-      <c r="BW47" s="7"/>
       <c r="BX47" s="7"/>
       <c r="BY47" s="7"/>
       <c r="BZ47" s="7"/>
@@ -28586,7 +28593,9 @@
       <c r="CE47" s="7"/>
       <c r="CF47" s="7"/>
       <c r="CG47" s="7"/>
-      <c r="CH47" s="7"/>
+      <c r="CH47" s="7">
+        <v>4</v>
+      </c>
       <c r="CI47" s="7"/>
       <c r="CJ47" s="7"/>
       <c r="CK47" s="7"/>
@@ -28715,13 +28724,13 @@
       <c r="BQ48" s="7"/>
       <c r="BR48" s="7"/>
       <c r="BS48" s="7">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="BT48" s="7"/>
       <c r="BU48" s="7"/>
       <c r="BV48" s="7"/>
-      <c r="BW48" s="3" t="s">
-        <v>672</v>
+      <c r="BW48" s="7">
+        <v>1</v>
       </c>
       <c r="BX48" s="7"/>
       <c r="BY48" s="7"/>
@@ -28868,17 +28877,17 @@
       </c>
       <c r="BR49" s="7"/>
       <c r="BS49" s="7">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="BT49" s="7"/>
       <c r="BU49" s="7"/>
       <c r="BV49" s="7"/>
       <c r="BW49" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BX49" s="7"/>
       <c r="BY49" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BZ49" s="7"/>
       <c r="CA49" s="3" t="s">
@@ -28895,7 +28904,7 @@
       <c r="CF49" s="7"/>
       <c r="CG49" s="7"/>
       <c r="CH49" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CI49" s="7"/>
       <c r="CJ49" s="7"/>
@@ -29029,21 +29038,23 @@
       </c>
       <c r="BR50" s="7"/>
       <c r="BS50" s="7">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="BT50" s="7"/>
       <c r="BU50" s="7"/>
       <c r="BV50" s="7"/>
-      <c r="BW50" s="7"/>
+      <c r="BW50" s="7">
+        <v>4</v>
+      </c>
       <c r="BX50" s="7"/>
       <c r="BY50" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BZ50" s="7"/>
       <c r="CA50" s="7"/>
       <c r="CB50" s="7"/>
       <c r="CC50" s="7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="CD50" s="7"/>
       <c r="CE50" s="7"/>
@@ -29052,9 +29063,7 @@
       <c r="CH50" s="7"/>
       <c r="CI50" s="7"/>
       <c r="CJ50" s="7"/>
-      <c r="CK50" s="3" t="s">
-        <v>416</v>
-      </c>
+      <c r="CK50" s="3"/>
       <c r="CL50" s="7"/>
       <c r="CM50" s="7">
         <v>1</v>
@@ -29192,13 +29201,13 @@
         <v>422</v>
       </c>
       <c r="BS51" s="7">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="BT51" s="7"/>
       <c r="BU51" s="7"/>
       <c r="BV51" s="7"/>
       <c r="BW51" s="7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="BX51" s="7"/>
       <c r="BY51" s="7">
@@ -29212,7 +29221,7 @@
         <v>1</v>
       </c>
       <c r="CC51" s="7">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="CD51" s="7"/>
       <c r="CE51" s="7"/>
@@ -29221,7 +29230,7 @@
         <v>424</v>
       </c>
       <c r="CH51" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CI51" s="7"/>
       <c r="CJ51" s="7"/>
@@ -29373,13 +29382,13 @@
       <c r="BQ52" s="7"/>
       <c r="BR52" s="7"/>
       <c r="BS52" s="7">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="BT52" s="7"/>
       <c r="BU52" s="7"/>
       <c r="BV52" s="7"/>
       <c r="BW52" s="7">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="BX52" s="7"/>
       <c r="BY52" s="7">
@@ -29395,7 +29404,7 @@
         <v>3</v>
       </c>
       <c r="CC52" s="7">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="CD52" s="7"/>
       <c r="CE52" s="7"/>
@@ -29566,12 +29575,14 @@
       <c r="BQ53" s="7"/>
       <c r="BR53" s="7"/>
       <c r="BS53" s="7">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="BT53" s="7"/>
       <c r="BU53" s="7"/>
       <c r="BV53" s="7"/>
-      <c r="BW53" s="7"/>
+      <c r="BW53" s="7">
+        <v>25</v>
+      </c>
       <c r="BX53" s="7"/>
       <c r="BY53" s="7">
         <v>43</v>
@@ -29584,7 +29595,7 @@
         <v>3</v>
       </c>
       <c r="CC53" s="7">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="CD53" s="3" t="s">
         <v>435</v>
@@ -29595,7 +29606,7 @@
         <v>436</v>
       </c>
       <c r="CH53" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CI53" s="7">
         <v>1</v>
@@ -29637,43 +29648,43 @@
       <c r="A54" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="B54" s="30" t="s">
+      <c r="B54" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="C54" s="30" t="s">
+      <c r="C54" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="D54" s="30" t="s">
+      <c r="D54" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="E54" s="30" t="s">
+      <c r="E54" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="F54" s="30" t="s">
+      <c r="F54" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="G54" s="30" t="s">
+      <c r="G54" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="H54" s="30" t="s">
+      <c r="H54" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="I54" s="30" t="s">
+      <c r="I54" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="J54" s="30" t="s">
+      <c r="J54" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="K54" s="30" t="s">
+      <c r="K54" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="L54" s="30" t="s">
+      <c r="L54" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="M54" s="30" t="s">
+      <c r="M54" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="N54" s="30" t="s">
+      <c r="N54" s="29" t="s">
         <v>165</v>
       </c>
       <c r="O54" s="9" t="s">
@@ -29682,148 +29693,148 @@
       <c r="P54" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="Q54" s="30" t="s">
+      <c r="Q54" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="R54" s="30" t="s">
+      <c r="R54" s="29" t="s">
         <v>234</v>
       </c>
-      <c r="S54" s="30" t="s">
+      <c r="S54" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="T54" s="30" t="s">
+      <c r="T54" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="U54" s="30" t="s">
+      <c r="U54" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="V54" s="30" t="s">
+      <c r="V54" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="W54" s="30" t="s">
+      <c r="W54" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="X54" s="30" t="s">
+      <c r="X54" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="Y54" s="30" t="s">
+      <c r="Y54" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="Z54" s="30" t="s">
+      <c r="Z54" s="29" t="s">
         <v>47</v>
       </c>
       <c r="AA54" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="AB54" s="30" t="s">
+      <c r="AB54" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="AC54" s="30" t="s">
+      <c r="AC54" s="29" t="s">
         <v>235</v>
       </c>
-      <c r="AD54" s="30" t="s">
+      <c r="AD54" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="AE54" s="30" t="s">
+      <c r="AE54" s="29" t="s">
         <v>236</v>
       </c>
-      <c r="AF54" s="30" t="s">
+      <c r="AF54" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="AG54" s="30" t="s">
+      <c r="AG54" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="AH54" s="30" t="s">
+      <c r="AH54" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="AI54" s="30" t="s">
+      <c r="AI54" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="AJ54" s="30" t="s">
+      <c r="AJ54" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="AK54" s="30" t="s">
+      <c r="AK54" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="AL54" s="30" t="s">
+      <c r="AL54" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="AM54" s="30" t="s">
+      <c r="AM54" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="AN54" s="30" t="s">
+      <c r="AN54" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="AO54" s="30" t="s">
+      <c r="AO54" s="29" t="s">
         <v>671</v>
       </c>
-      <c r="AP54" s="30" t="s">
+      <c r="AP54" s="29" t="s">
         <v>174</v>
       </c>
-      <c r="AQ54" s="30" t="s">
+      <c r="AQ54" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="AR54" s="30" t="s">
+      <c r="AR54" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="AS54" s="30" t="s">
+      <c r="AS54" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="AT54" s="30" t="s">
+      <c r="AT54" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="AU54" s="30" t="s">
+      <c r="AU54" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="AV54" s="30" t="s">
+      <c r="AV54" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="AW54" s="30" t="s">
+      <c r="AW54" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="AX54" s="30" t="s">
+      <c r="AX54" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="AY54" s="30" t="s">
+      <c r="AY54" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="AZ54" s="30" t="s">
+      <c r="AZ54" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="BA54" s="30" t="s">
+      <c r="BA54" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="BB54" s="30" t="s">
+      <c r="BB54" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="BC54" s="30" t="s">
+      <c r="BC54" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="BD54" s="30" t="s">
+      <c r="BD54" s="29" t="s">
         <v>66</v>
       </c>
       <c r="BE54" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="BF54" s="30" t="s">
+      <c r="BF54" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="BG54" s="30" t="s">
+      <c r="BG54" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="BH54" s="30" t="s">
+      <c r="BH54" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="BI54" s="30" t="s">
+      <c r="BI54" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="BJ54" s="30" t="s">
+      <c r="BJ54" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="BK54" s="30" t="s">
+      <c r="BK54" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="BL54" s="30" t="s">
+      <c r="BL54" s="29" t="s">
         <v>28</v>
       </c>
       <c r="BM54" s="8" t="s">
@@ -29832,121 +29843,121 @@
       <c r="BN54" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="BO54" s="30" t="s">
+      <c r="BO54" s="29" t="s">
         <v>48</v>
       </c>
       <c r="BP54" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="BQ54" s="30" t="s">
+      <c r="BQ54" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="BR54" s="30" t="s">
+      <c r="BR54" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="BS54" s="30" t="s">
+      <c r="BS54" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="BT54" s="30" t="s">
+      <c r="BT54" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="BU54" s="30" t="s">
+      <c r="BU54" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="BV54" s="30" t="s">
+      <c r="BV54" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="BW54" s="30" t="s">
+      <c r="BW54" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="BX54" s="30" t="s">
+      <c r="BX54" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="BY54" s="30" t="s">
+      <c r="BY54" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="BZ54" s="30" t="s">
+      <c r="BZ54" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="CA54" s="30" t="s">
+      <c r="CA54" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="CB54" s="30" t="s">
+      <c r="CB54" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="CC54" s="30" t="s">
+      <c r="CC54" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="CD54" s="30" t="s">
+      <c r="CD54" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="CE54" s="30" t="s">
+      <c r="CE54" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="CF54" s="30" t="s">
+      <c r="CF54" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="CG54" s="30" t="s">
+      <c r="CG54" s="29" t="s">
         <v>20</v>
       </c>
       <c r="CH54" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="CI54" s="30" t="s">
+      <c r="CI54" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="CJ54" s="30" t="s">
+      <c r="CJ54" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="CK54" s="30" t="s">
+      <c r="CK54" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="CL54" s="30" t="s">
+      <c r="CL54" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="CM54" s="30" t="s">
+      <c r="CM54" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="CN54" s="30" t="s">
+      <c r="CN54" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="CO54" s="30" t="s">
+      <c r="CO54" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="CP54" s="30" t="s">
+      <c r="CP54" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="CQ54" s="30" t="s">
+      <c r="CQ54" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="CR54" s="30" t="s">
+      <c r="CR54" s="29" t="s">
         <v>41</v>
       </c>
       <c r="CS54" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="CT54" s="30" t="s">
+      <c r="CT54" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="CU54" s="30" t="s">
+      <c r="CU54" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="CV54" s="30" t="s">
+      <c r="CV54" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="CW54" s="30" t="s">
+      <c r="CW54" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="CX54" s="30" t="s">
+      <c r="CX54" s="29" t="s">
         <v>45</v>
       </c>
       <c r="CY54" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="CZ54" s="29" t="s">
+      <c r="CZ54" s="30" t="s">
         <v>248</v>
       </c>
-      <c r="DA54" s="29" t="s">
+      <c r="DA54" s="30" t="s">
         <v>249</v>
       </c>
     </row>
@@ -29954,130 +29965,130 @@
       <c r="A55" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="B55" s="30"/>
-      <c r="C55" s="30"/>
-      <c r="D55" s="30"/>
-      <c r="E55" s="30"/>
-      <c r="F55" s="30"/>
-      <c r="G55" s="30"/>
-      <c r="H55" s="30"/>
-      <c r="I55" s="30"/>
-      <c r="J55" s="30"/>
-      <c r="K55" s="30"/>
-      <c r="L55" s="30"/>
-      <c r="M55" s="30"/>
-      <c r="N55" s="30"/>
+      <c r="B55" s="29"/>
+      <c r="C55" s="29"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="29"/>
+      <c r="F55" s="29"/>
+      <c r="G55" s="29"/>
+      <c r="H55" s="29"/>
+      <c r="I55" s="29"/>
+      <c r="J55" s="29"/>
+      <c r="K55" s="29"/>
+      <c r="L55" s="29"/>
+      <c r="M55" s="29"/>
+      <c r="N55" s="29"/>
       <c r="O55" s="9" t="s">
         <v>231</v>
       </c>
       <c r="P55" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="Q55" s="30"/>
-      <c r="R55" s="30"/>
-      <c r="S55" s="30"/>
-      <c r="T55" s="30"/>
-      <c r="U55" s="30"/>
-      <c r="V55" s="30"/>
-      <c r="W55" s="30"/>
-      <c r="X55" s="30"/>
-      <c r="Y55" s="30"/>
-      <c r="Z55" s="30"/>
+      <c r="Q55" s="29"/>
+      <c r="R55" s="29"/>
+      <c r="S55" s="29"/>
+      <c r="T55" s="29"/>
+      <c r="U55" s="29"/>
+      <c r="V55" s="29"/>
+      <c r="W55" s="29"/>
+      <c r="X55" s="29"/>
+      <c r="Y55" s="29"/>
+      <c r="Z55" s="29"/>
       <c r="AA55" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="AB55" s="30"/>
-      <c r="AC55" s="30"/>
-      <c r="AD55" s="30"/>
-      <c r="AE55" s="30"/>
-      <c r="AF55" s="30"/>
-      <c r="AG55" s="30"/>
-      <c r="AH55" s="30"/>
-      <c r="AI55" s="30"/>
-      <c r="AJ55" s="30"/>
-      <c r="AK55" s="30"/>
-      <c r="AL55" s="30"/>
-      <c r="AM55" s="30"/>
-      <c r="AN55" s="30"/>
-      <c r="AO55" s="30"/>
-      <c r="AP55" s="30"/>
-      <c r="AQ55" s="30"/>
-      <c r="AR55" s="30"/>
-      <c r="AS55" s="30"/>
-      <c r="AT55" s="30"/>
-      <c r="AU55" s="30"/>
-      <c r="AV55" s="30"/>
-      <c r="AW55" s="30"/>
-      <c r="AX55" s="30"/>
-      <c r="AY55" s="30"/>
-      <c r="AZ55" s="30"/>
-      <c r="BA55" s="30"/>
-      <c r="BB55" s="30"/>
-      <c r="BC55" s="30"/>
-      <c r="BD55" s="30"/>
+      <c r="AB55" s="29"/>
+      <c r="AC55" s="29"/>
+      <c r="AD55" s="29"/>
+      <c r="AE55" s="29"/>
+      <c r="AF55" s="29"/>
+      <c r="AG55" s="29"/>
+      <c r="AH55" s="29"/>
+      <c r="AI55" s="29"/>
+      <c r="AJ55" s="29"/>
+      <c r="AK55" s="29"/>
+      <c r="AL55" s="29"/>
+      <c r="AM55" s="29"/>
+      <c r="AN55" s="29"/>
+      <c r="AO55" s="29"/>
+      <c r="AP55" s="29"/>
+      <c r="AQ55" s="29"/>
+      <c r="AR55" s="29"/>
+      <c r="AS55" s="29"/>
+      <c r="AT55" s="29"/>
+      <c r="AU55" s="29"/>
+      <c r="AV55" s="29"/>
+      <c r="AW55" s="29"/>
+      <c r="AX55" s="29"/>
+      <c r="AY55" s="29"/>
+      <c r="AZ55" s="29"/>
+      <c r="BA55" s="29"/>
+      <c r="BB55" s="29"/>
+      <c r="BC55" s="29"/>
+      <c r="BD55" s="29"/>
       <c r="BE55" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="BF55" s="30"/>
-      <c r="BG55" s="30"/>
-      <c r="BH55" s="30"/>
-      <c r="BI55" s="30"/>
-      <c r="BJ55" s="30"/>
-      <c r="BK55" s="30"/>
-      <c r="BL55" s="30"/>
+      <c r="BF55" s="29"/>
+      <c r="BG55" s="29"/>
+      <c r="BH55" s="29"/>
+      <c r="BI55" s="29"/>
+      <c r="BJ55" s="29"/>
+      <c r="BK55" s="29"/>
+      <c r="BL55" s="29"/>
       <c r="BM55" s="8" t="s">
         <v>212</v>
       </c>
       <c r="BN55" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="BO55" s="30"/>
+      <c r="BO55" s="29"/>
       <c r="BP55" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="BQ55" s="30"/>
-      <c r="BR55" s="30"/>
-      <c r="BS55" s="30"/>
-      <c r="BT55" s="30"/>
-      <c r="BU55" s="30"/>
-      <c r="BV55" s="30"/>
-      <c r="BW55" s="30"/>
-      <c r="BX55" s="30"/>
-      <c r="BY55" s="30"/>
-      <c r="BZ55" s="30"/>
-      <c r="CA55" s="30"/>
-      <c r="CB55" s="30"/>
-      <c r="CC55" s="30"/>
-      <c r="CD55" s="30"/>
-      <c r="CE55" s="30"/>
-      <c r="CF55" s="30"/>
-      <c r="CG55" s="30"/>
+      <c r="BQ55" s="29"/>
+      <c r="BR55" s="29"/>
+      <c r="BS55" s="29"/>
+      <c r="BT55" s="29"/>
+      <c r="BU55" s="29"/>
+      <c r="BV55" s="29"/>
+      <c r="BW55" s="29"/>
+      <c r="BX55" s="29"/>
+      <c r="BY55" s="29"/>
+      <c r="BZ55" s="29"/>
+      <c r="CA55" s="29"/>
+      <c r="CB55" s="29"/>
+      <c r="CC55" s="29"/>
+      <c r="CD55" s="29"/>
+      <c r="CE55" s="29"/>
+      <c r="CF55" s="29"/>
+      <c r="CG55" s="29"/>
       <c r="CH55" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="CI55" s="30"/>
-      <c r="CJ55" s="30"/>
-      <c r="CK55" s="30"/>
-      <c r="CL55" s="30"/>
-      <c r="CM55" s="30"/>
-      <c r="CN55" s="30"/>
-      <c r="CO55" s="30"/>
-      <c r="CP55" s="30"/>
-      <c r="CQ55" s="30"/>
-      <c r="CR55" s="30"/>
+      <c r="CI55" s="29"/>
+      <c r="CJ55" s="29"/>
+      <c r="CK55" s="29"/>
+      <c r="CL55" s="29"/>
+      <c r="CM55" s="29"/>
+      <c r="CN55" s="29"/>
+      <c r="CO55" s="29"/>
+      <c r="CP55" s="29"/>
+      <c r="CQ55" s="29"/>
+      <c r="CR55" s="29"/>
       <c r="CS55" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="CT55" s="30"/>
-      <c r="CU55" s="30"/>
-      <c r="CV55" s="30"/>
-      <c r="CW55" s="30"/>
-      <c r="CX55" s="30"/>
+      <c r="CT55" s="29"/>
+      <c r="CU55" s="29"/>
+      <c r="CV55" s="29"/>
+      <c r="CW55" s="29"/>
+      <c r="CX55" s="29"/>
       <c r="CY55" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="CZ55" s="29"/>
-      <c r="DA55" s="29"/>
+      <c r="CZ55" s="30"/>
+      <c r="DA55" s="30"/>
     </row>
     <row r="56" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
@@ -30174,7 +30185,7 @@
       </c>
       <c r="BE56" s="7"/>
       <c r="BF56" s="7">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="BG56" s="7">
         <v>5</v>
@@ -30195,12 +30206,14 @@
       <c r="BQ56" s="7"/>
       <c r="BR56" s="7"/>
       <c r="BS56" s="7">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="BT56" s="7"/>
       <c r="BU56" s="7"/>
       <c r="BV56" s="7"/>
-      <c r="BW56" s="7"/>
+      <c r="BW56" s="7">
+        <v>26</v>
+      </c>
       <c r="BX56" s="7"/>
       <c r="BY56" s="7">
         <v>30</v>
@@ -30224,7 +30237,7 @@
         <v>3</v>
       </c>
       <c r="CH56" s="7">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="CI56" s="7"/>
       <c r="CJ56" s="7">
@@ -30390,7 +30403,7 @@
       <c r="BQ57" s="7"/>
       <c r="BR57" s="7"/>
       <c r="BS57" s="7">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="BT57" s="7"/>
       <c r="BU57" s="3" t="s">
@@ -30398,7 +30411,7 @@
       </c>
       <c r="BV57" s="7"/>
       <c r="BW57" s="7">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="BX57" s="3" t="s">
         <v>447</v>
@@ -30414,7 +30427,7 @@
         <v>5</v>
       </c>
       <c r="CC57" s="7">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="CD57" s="7"/>
       <c r="CE57" s="7"/>
@@ -30425,7 +30438,7 @@
         <v>8</v>
       </c>
       <c r="CH57" s="7">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="CI57" s="7"/>
       <c r="CJ57" s="7">
@@ -30595,7 +30608,7 @@
       </c>
       <c r="BV58" s="7"/>
       <c r="BW58" s="7">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="BX58" s="7"/>
       <c r="BY58" s="7">
@@ -30622,7 +30635,7 @@
         <v>6</v>
       </c>
       <c r="CH58" s="7">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="CI58" s="7">
         <v>1</v>
@@ -30802,7 +30815,7 @@
         <v>459</v>
       </c>
       <c r="BW59" s="7">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="BX59" s="7"/>
       <c r="BY59" s="7">
@@ -30836,7 +30849,7 @@
         <v>10</v>
       </c>
       <c r="CK59" s="7">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="CL59" s="7">
         <v>5</v>
@@ -31017,7 +31030,7 @@
         <v>5</v>
       </c>
       <c r="BW60" s="7">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="BX60" s="7"/>
       <c r="BY60" s="7">
@@ -31051,7 +31064,7 @@
         <v>11</v>
       </c>
       <c r="CK60" s="7">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="CL60" s="7">
         <v>5</v>
@@ -31253,7 +31266,7 @@
         <v>46</v>
       </c>
       <c r="CH61" s="7">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="CI61" s="7">
         <v>5</v>
@@ -31262,7 +31275,7 @@
         <v>8</v>
       </c>
       <c r="CK61" s="7">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="CL61" s="7">
         <v>3</v>
@@ -31441,7 +31454,7 @@
       <c r="BQ62" s="7"/>
       <c r="BR62" s="7"/>
       <c r="BS62" s="7">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="BT62" s="7"/>
       <c r="BU62" s="7">
@@ -31476,7 +31489,7 @@
         <v>60</v>
       </c>
       <c r="CH62" s="7">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="CI62" s="7">
         <v>1</v>
@@ -31485,13 +31498,13 @@
         <v>5</v>
       </c>
       <c r="CK62" s="7">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="CL62" s="7">
         <v>6</v>
       </c>
       <c r="CM62" s="7">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="CN62" s="7">
         <v>4</v>
@@ -31689,7 +31702,7 @@
         <v>76</v>
       </c>
       <c r="CH63" s="7">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="CI63" s="7">
         <v>2</v>
@@ -31698,13 +31711,13 @@
         <v>8</v>
       </c>
       <c r="CK63" s="7">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="CL63" s="7">
         <v>8</v>
       </c>
       <c r="CM63" s="7">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="CN63" s="7">
         <v>7</v>
@@ -31916,7 +31929,7 @@
         <v>57</v>
       </c>
       <c r="CH64" s="7">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="CI64" s="7">
         <v>3</v>
@@ -31925,13 +31938,13 @@
         <v>7</v>
       </c>
       <c r="CK64" s="7">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="CL64" s="7">
         <v>55</v>
       </c>
       <c r="CM64" s="7">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="CN64" s="7">
         <v>10</v>
@@ -31995,7 +32008,7 @@
       <c r="P65" s="7"/>
       <c r="Q65" s="7"/>
       <c r="R65" s="7">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="S65" s="7">
         <v>18</v>
@@ -32143,7 +32156,7 @@
         <v>61</v>
       </c>
       <c r="CH65" s="7">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="CI65" s="7">
         <v>10</v>
@@ -32152,13 +32165,13 @@
         <v>16</v>
       </c>
       <c r="CK65" s="7">
-        <v>85</v>
+        <v>173</v>
       </c>
       <c r="CL65" s="7">
         <v>172</v>
       </c>
       <c r="CM65" s="7">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="CN65" s="7">
         <v>7</v>
@@ -32218,7 +32231,7 @@
         <v>4</v>
       </c>
       <c r="R66" s="7">
-        <v>269</v>
+        <v>307</v>
       </c>
       <c r="S66" s="7">
         <v>21</v>
@@ -32362,7 +32375,7 @@
         <v>121</v>
       </c>
       <c r="CH66" s="7">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="CI66" s="7">
         <v>9</v>
@@ -32371,13 +32384,13 @@
         <v>9</v>
       </c>
       <c r="CK66" s="7">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="CL66" s="7">
         <v>252</v>
       </c>
       <c r="CM66" s="7">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="CN66" s="7">
         <v>19</v>
@@ -32445,7 +32458,7 @@
         <v>4</v>
       </c>
       <c r="R67" s="7">
-        <v>393</v>
+        <v>329</v>
       </c>
       <c r="S67" s="7">
         <v>40</v>
@@ -32597,7 +32610,7 @@
         <v>111</v>
       </c>
       <c r="CH67" s="7">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="CI67" s="7">
         <v>27</v>
@@ -32606,7 +32619,7 @@
         <v>27</v>
       </c>
       <c r="CK67" s="7">
-        <v>132</v>
+        <v>171</v>
       </c>
       <c r="CL67" s="7">
         <v>160</v>
@@ -32692,7 +32705,7 @@
         <v>11</v>
       </c>
       <c r="R68" s="7">
-        <v>565</v>
+        <v>553</v>
       </c>
       <c r="S68" s="7">
         <v>39</v>
@@ -32853,7 +32866,7 @@
         <v>21</v>
       </c>
       <c r="CK68" s="7">
-        <v>131</v>
+        <v>196</v>
       </c>
       <c r="CL68" s="7">
         <v>128</v>
@@ -32929,7 +32942,7 @@
         <v>15</v>
       </c>
       <c r="R69" s="7">
-        <v>662</v>
+        <v>587</v>
       </c>
       <c r="S69" s="7">
         <v>54</v>
@@ -33090,13 +33103,13 @@
       </c>
       <c r="CJ69" s="7"/>
       <c r="CK69" s="7">
-        <v>156</v>
+        <v>113</v>
       </c>
       <c r="CL69" s="7">
         <v>32</v>
       </c>
       <c r="CM69" s="7">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="CN69" s="7">
         <v>67</v>
@@ -33174,7 +33187,7 @@
         <v>12</v>
       </c>
       <c r="R70" s="7">
-        <v>676</v>
+        <v>843</v>
       </c>
       <c r="S70" s="7">
         <v>74</v>
@@ -33341,13 +33354,13 @@
       <c r="CI70" s="7"/>
       <c r="CJ70" s="7"/>
       <c r="CK70" s="7">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="CL70" s="7">
         <v>39</v>
       </c>
       <c r="CM70" s="7">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="CN70" s="7">
         <v>21</v>
@@ -33425,7 +33438,7 @@
         <v>29</v>
       </c>
       <c r="R71" s="7">
-        <v>872</v>
+        <v>983</v>
       </c>
       <c r="S71" s="7">
         <v>101</v>
@@ -33584,13 +33597,13 @@
       <c r="CI71" s="7"/>
       <c r="CJ71" s="7"/>
       <c r="CK71" s="7">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="CL71" s="7">
         <v>75</v>
       </c>
       <c r="CM71" s="7">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="CN71" s="7">
         <v>28</v>
@@ -33676,7 +33689,7 @@
         <v>11</v>
       </c>
       <c r="R72" s="7">
-        <v>1289</v>
+        <v>1748</v>
       </c>
       <c r="S72" s="7">
         <v>144</v>
@@ -33839,13 +33852,13 @@
       <c r="CI72" s="7"/>
       <c r="CJ72" s="7"/>
       <c r="CK72" s="7">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="CL72" s="7">
         <v>92</v>
       </c>
       <c r="CM72" s="7">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="CN72" s="7">
         <v>47</v>
@@ -33927,7 +33940,7 @@
         <v>25</v>
       </c>
       <c r="R73" s="7">
-        <v>2412</v>
+        <v>2853</v>
       </c>
       <c r="S73" s="7">
         <v>121</v>
@@ -34092,13 +34105,13 @@
       <c r="CI73" s="7"/>
       <c r="CJ73" s="7"/>
       <c r="CK73" s="7">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="CL73" s="7">
         <v>91</v>
       </c>
       <c r="CM73" s="7">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="CN73" s="7">
         <v>40</v>
@@ -34184,7 +34197,7 @@
         <v>46</v>
       </c>
       <c r="R74" s="7">
-        <v>3944</v>
+        <v>4582</v>
       </c>
       <c r="S74" s="7">
         <v>156</v>
@@ -34355,13 +34368,13 @@
       <c r="CI74" s="7"/>
       <c r="CJ74" s="7"/>
       <c r="CK74" s="7">
-        <v>127</v>
+        <v>199</v>
       </c>
       <c r="CL74" s="7">
         <v>108</v>
       </c>
       <c r="CM74" s="7">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="CN74" s="7">
         <v>41</v>
@@ -34447,7 +34460,7 @@
         <v>39</v>
       </c>
       <c r="R75" s="7">
-        <v>5421</v>
+        <v>5588</v>
       </c>
       <c r="S75" s="7">
         <v>209</v>
@@ -34608,13 +34621,13 @@
       <c r="CI75" s="7"/>
       <c r="CJ75" s="7"/>
       <c r="CK75" s="7">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="CL75" s="7">
         <v>112</v>
       </c>
       <c r="CM75" s="7">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="CN75" s="7">
         <v>50</v>
@@ -34702,7 +34715,7 @@
         <v>48</v>
       </c>
       <c r="R76" s="7">
-        <v>6271</v>
+        <v>4825</v>
       </c>
       <c r="S76" s="7">
         <v>226</v>
@@ -34875,7 +34888,7 @@
         <v>83</v>
       </c>
       <c r="CM76" s="7">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="CN76" s="7">
         <v>71</v>
@@ -34961,7 +34974,7 @@
         <v>65</v>
       </c>
       <c r="R77" s="7">
-        <v>8631</v>
+        <v>9400</v>
       </c>
       <c r="S77" s="7">
         <v>148</v>
@@ -35130,7 +35143,7 @@
       </c>
       <c r="CL77" s="7"/>
       <c r="CM77" s="7">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="CN77" s="7"/>
       <c r="CO77" s="7"/>
@@ -35202,7 +35215,7 @@
         <v>51</v>
       </c>
       <c r="R78" s="7">
-        <v>10408</v>
+        <v>10189</v>
       </c>
       <c r="S78" s="7">
         <v>632</v>
@@ -35479,7 +35492,7 @@
         <v>38</v>
       </c>
       <c r="R79" s="7">
-        <v>9936</v>
+        <v>11075</v>
       </c>
       <c r="S79" s="7">
         <v>690</v>
@@ -35764,7 +35777,7 @@
         <v>70</v>
       </c>
       <c r="R80" s="7">
-        <v>12231</v>
+        <v>13355</v>
       </c>
       <c r="S80" s="7">
         <v>634</v>
@@ -36057,7 +36070,7 @@
         <v>110</v>
       </c>
       <c r="R81" s="7">
-        <v>16920</v>
+        <v>17224</v>
       </c>
       <c r="S81" s="7">
         <v>633</v>
@@ -36346,7 +36359,7 @@
         <v>132</v>
       </c>
       <c r="R82" s="7">
-        <v>19033</v>
+        <v>18691</v>
       </c>
       <c r="S82" s="7">
         <v>725</v>
@@ -36519,7 +36532,7 @@
         <v>43</v>
       </c>
       <c r="BY82" s="7">
-        <v>2809</v>
+        <v>3809</v>
       </c>
       <c r="BZ82" s="7">
         <v>9</v>
@@ -36641,7 +36654,7 @@
         <v>131</v>
       </c>
       <c r="R83" s="7">
-        <v>20102</v>
+        <v>19452</v>
       </c>
       <c r="S83" s="7">
         <v>909</v>
@@ -37136,7 +37149,7 @@
     </row>
     <row r="85" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A85" s="7" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B85" s="7"/>
       <c r="C85" s="7">
@@ -37186,7 +37199,7 @@
         <v>46</v>
       </c>
       <c r="AA85" s="7" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="AB85" s="7">
         <v>41</v>
@@ -37278,7 +37291,7 @@
         <v>448</v>
       </c>
       <c r="BM85" s="7" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="BN85" s="7">
         <v>45</v>
@@ -37385,7 +37398,7 @@
     </row>
     <row r="86" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A86" s="7" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="R86" s="7">
         <v>24742</v>
@@ -37424,7 +37437,7 @@
     </row>
     <row r="87" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A87" s="7" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="R87" s="7">
         <v>26473</v>
@@ -37462,9 +37475,44 @@
       </c>
     </row>
     <row r="88" spans="1:105" x14ac:dyDescent="0.3">
-      <c r="A88" s="7"/>
+      <c r="A88" s="7" t="s">
+        <v>688</v>
+      </c>
+      <c r="R88" s="7">
+        <v>29874</v>
+      </c>
+      <c r="AR88" s="7">
+        <v>266</v>
+      </c>
+      <c r="AU88" s="7">
+        <v>545</v>
+      </c>
+      <c r="BF88" s="7">
+        <v>2875</v>
+      </c>
       <c r="BM88" s="7"/>
+      <c r="BS88" s="7">
+        <v>4668</v>
+      </c>
+      <c r="BW88" s="7">
+        <v>7947</v>
+      </c>
+      <c r="BY88" s="7">
+        <v>2116</v>
+      </c>
+      <c r="CC88" s="7">
+        <v>6813</v>
+      </c>
       <c r="CD88" s="7"/>
+      <c r="CH88" s="7">
+        <v>4244</v>
+      </c>
+      <c r="CK88" s="7">
+        <v>270</v>
+      </c>
+      <c r="CM88" s="7">
+        <v>621</v>
+      </c>
     </row>
     <row r="89" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A89" s="7"/>
@@ -37594,17 +37642,267 @@
     </row>
   </sheetData>
   <mergeCells count="296">
-    <mergeCell ref="CZ54:CZ55"/>
-    <mergeCell ref="DA54:DA55"/>
-    <mergeCell ref="CO54:CO55"/>
-    <mergeCell ref="CP54:CP55"/>
-    <mergeCell ref="CQ54:CQ55"/>
-    <mergeCell ref="CR54:CR55"/>
-    <mergeCell ref="CT54:CT55"/>
-    <mergeCell ref="CU54:CU55"/>
-    <mergeCell ref="CV54:CV55"/>
-    <mergeCell ref="CW54:CW55"/>
-    <mergeCell ref="CX54:CX55"/>
+    <mergeCell ref="CK54:CK55"/>
+    <mergeCell ref="CM54:CM55"/>
+    <mergeCell ref="CN54:CN55"/>
+    <mergeCell ref="CD54:CD55"/>
+    <mergeCell ref="CE54:CE55"/>
+    <mergeCell ref="CG54:CG55"/>
+    <mergeCell ref="CI54:CI55"/>
+    <mergeCell ref="CJ54:CJ55"/>
+    <mergeCell ref="CF54:CF55"/>
+    <mergeCell ref="CL54:CL55"/>
+    <mergeCell ref="BY54:BY55"/>
+    <mergeCell ref="BZ54:BZ55"/>
+    <mergeCell ref="CA54:CA55"/>
+    <mergeCell ref="CB54:CB55"/>
+    <mergeCell ref="CC54:CC55"/>
+    <mergeCell ref="BQ54:BQ55"/>
+    <mergeCell ref="BR54:BR55"/>
+    <mergeCell ref="BS54:BS55"/>
+    <mergeCell ref="BT54:BT55"/>
+    <mergeCell ref="BV54:BV55"/>
+    <mergeCell ref="BW54:BW55"/>
+    <mergeCell ref="BU54:BU55"/>
+    <mergeCell ref="BK54:BK55"/>
+    <mergeCell ref="BL54:BL55"/>
+    <mergeCell ref="BO54:BO55"/>
+    <mergeCell ref="BF54:BF55"/>
+    <mergeCell ref="BG54:BG55"/>
+    <mergeCell ref="BH54:BH55"/>
+    <mergeCell ref="BI54:BI55"/>
+    <mergeCell ref="BJ54:BJ55"/>
+    <mergeCell ref="BX54:BX55"/>
+    <mergeCell ref="AV54:AV55"/>
+    <mergeCell ref="AW54:AW55"/>
+    <mergeCell ref="AX54:AX55"/>
+    <mergeCell ref="AY54:AY55"/>
+    <mergeCell ref="BB54:BB55"/>
+    <mergeCell ref="BD54:BD55"/>
+    <mergeCell ref="AO54:AO55"/>
+    <mergeCell ref="AP54:AP55"/>
+    <mergeCell ref="AQ54:AQ55"/>
+    <mergeCell ref="AS54:AS55"/>
+    <mergeCell ref="AT54:AT55"/>
+    <mergeCell ref="AU54:AU55"/>
+    <mergeCell ref="AR54:AR55"/>
+    <mergeCell ref="AZ54:AZ55"/>
+    <mergeCell ref="BA54:BA55"/>
+    <mergeCell ref="BC54:BC55"/>
+    <mergeCell ref="AI54:AI55"/>
+    <mergeCell ref="AJ54:AJ55"/>
+    <mergeCell ref="AK54:AK55"/>
+    <mergeCell ref="AL54:AL55"/>
+    <mergeCell ref="AM54:AM55"/>
+    <mergeCell ref="AN54:AN55"/>
+    <mergeCell ref="AC54:AC55"/>
+    <mergeCell ref="AD54:AD55"/>
+    <mergeCell ref="AE54:AE55"/>
+    <mergeCell ref="AF54:AF55"/>
+    <mergeCell ref="AG54:AG55"/>
+    <mergeCell ref="AH54:AH55"/>
+    <mergeCell ref="W54:W55"/>
+    <mergeCell ref="X54:X55"/>
+    <mergeCell ref="Y54:Y55"/>
+    <mergeCell ref="Z54:Z55"/>
+    <mergeCell ref="AB54:AB55"/>
+    <mergeCell ref="Q54:Q55"/>
+    <mergeCell ref="S54:S55"/>
+    <mergeCell ref="T54:T55"/>
+    <mergeCell ref="U54:U55"/>
+    <mergeCell ref="V54:V55"/>
+    <mergeCell ref="R54:R55"/>
+    <mergeCell ref="J54:J55"/>
+    <mergeCell ref="K54:K55"/>
+    <mergeCell ref="L54:L55"/>
+    <mergeCell ref="M54:M55"/>
+    <mergeCell ref="N54:N55"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="I54:I55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="CI23:CI24"/>
+    <mergeCell ref="CJ23:CJ24"/>
+    <mergeCell ref="CK23:CK24"/>
+    <mergeCell ref="CM23:CM24"/>
+    <mergeCell ref="CN23:CN24"/>
+    <mergeCell ref="CA23:CA24"/>
+    <mergeCell ref="CB23:CB24"/>
+    <mergeCell ref="CC23:CC24"/>
+    <mergeCell ref="CD23:CD24"/>
+    <mergeCell ref="CE23:CE24"/>
+    <mergeCell ref="CG23:CG24"/>
+    <mergeCell ref="BT23:BT24"/>
+    <mergeCell ref="BV23:BV24"/>
+    <mergeCell ref="BW23:BW24"/>
+    <mergeCell ref="BX23:BX24"/>
+    <mergeCell ref="BY23:BY24"/>
+    <mergeCell ref="BZ23:BZ24"/>
+    <mergeCell ref="BO23:BO24"/>
+    <mergeCell ref="BQ23:BQ24"/>
+    <mergeCell ref="BR23:BR24"/>
+    <mergeCell ref="BS23:BS24"/>
+    <mergeCell ref="AQ23:AQ24"/>
+    <mergeCell ref="BH23:BH24"/>
+    <mergeCell ref="BI23:BI24"/>
+    <mergeCell ref="BJ23:BJ24"/>
+    <mergeCell ref="BK23:BK24"/>
+    <mergeCell ref="BL23:BL24"/>
+    <mergeCell ref="AY23:AY24"/>
+    <mergeCell ref="BB23:BB24"/>
+    <mergeCell ref="BD23:BD24"/>
+    <mergeCell ref="BF23:BF24"/>
+    <mergeCell ref="BG23:BG24"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="S23:S24"/>
+    <mergeCell ref="AF23:AF24"/>
+    <mergeCell ref="AG23:AG24"/>
+    <mergeCell ref="AH23:AH24"/>
+    <mergeCell ref="AI23:AI24"/>
+    <mergeCell ref="AJ23:AJ24"/>
+    <mergeCell ref="Z23:Z24"/>
+    <mergeCell ref="AB23:AB24"/>
+    <mergeCell ref="AC23:AC24"/>
+    <mergeCell ref="AD23:AD24"/>
+    <mergeCell ref="AE23:AE24"/>
+    <mergeCell ref="CB2:CB3"/>
+    <mergeCell ref="CC2:CC3"/>
+    <mergeCell ref="CD2:CD3"/>
+    <mergeCell ref="CE2:CE3"/>
+    <mergeCell ref="BS2:BS3"/>
+    <mergeCell ref="BT2:BT3"/>
+    <mergeCell ref="T23:T24"/>
+    <mergeCell ref="U23:U24"/>
+    <mergeCell ref="V23:V24"/>
+    <mergeCell ref="W23:W24"/>
+    <mergeCell ref="X23:X24"/>
+    <mergeCell ref="Y23:Y24"/>
+    <mergeCell ref="AK23:AK24"/>
+    <mergeCell ref="AS23:AS24"/>
+    <mergeCell ref="AT23:AT24"/>
+    <mergeCell ref="AU23:AU24"/>
+    <mergeCell ref="AV23:AV24"/>
+    <mergeCell ref="AW23:AW24"/>
+    <mergeCell ref="AX23:AX24"/>
+    <mergeCell ref="AL23:AL24"/>
+    <mergeCell ref="AM23:AM24"/>
+    <mergeCell ref="AN23:AN24"/>
+    <mergeCell ref="AO23:AO24"/>
+    <mergeCell ref="AP23:AP24"/>
+    <mergeCell ref="BV2:BV3"/>
+    <mergeCell ref="BW2:BW3"/>
+    <mergeCell ref="BX2:BX3"/>
+    <mergeCell ref="BY2:BY3"/>
+    <mergeCell ref="BO2:BO3"/>
+    <mergeCell ref="BQ2:BQ3"/>
+    <mergeCell ref="BR2:BR3"/>
+    <mergeCell ref="CN2:CN3"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="CG2:CG3"/>
+    <mergeCell ref="CI2:CI3"/>
+    <mergeCell ref="CJ2:CJ3"/>
+    <mergeCell ref="CK2:CK3"/>
+    <mergeCell ref="CM2:CM3"/>
+    <mergeCell ref="BZ2:BZ3"/>
+    <mergeCell ref="CA2:CA3"/>
+    <mergeCell ref="BG2:BG3"/>
+    <mergeCell ref="BH2:BH3"/>
+    <mergeCell ref="BI2:BI3"/>
+    <mergeCell ref="BJ2:BJ3"/>
+    <mergeCell ref="BK2:BK3"/>
+    <mergeCell ref="BL2:BL3"/>
+    <mergeCell ref="AX2:AX3"/>
+    <mergeCell ref="AY2:AY3"/>
+    <mergeCell ref="BB2:BB3"/>
+    <mergeCell ref="BD2:BD3"/>
+    <mergeCell ref="BF2:BF3"/>
+    <mergeCell ref="AQ2:AQ3"/>
+    <mergeCell ref="AS2:AS3"/>
+    <mergeCell ref="AT2:AT3"/>
+    <mergeCell ref="AU2:AU3"/>
+    <mergeCell ref="AV2:AV3"/>
+    <mergeCell ref="AW2:AW3"/>
+    <mergeCell ref="AK2:AK3"/>
+    <mergeCell ref="AL2:AL3"/>
+    <mergeCell ref="AM2:AM3"/>
+    <mergeCell ref="AN2:AN3"/>
+    <mergeCell ref="AO2:AO3"/>
+    <mergeCell ref="AP2:AP3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="AH2:AH3"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="AJ2:AJ3"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="Z2:Z3"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="AG1:AQ1"/>
+    <mergeCell ref="AR1:AS1"/>
+    <mergeCell ref="AT1:AX1"/>
+    <mergeCell ref="AY1:BL1"/>
+    <mergeCell ref="BN1:BX1"/>
+    <mergeCell ref="BY1:CG1"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="B1:N1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="CH1:CQ1"/>
+    <mergeCell ref="CR1:CX1"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="AR2:AR3"/>
+    <mergeCell ref="AZ2:AZ3"/>
+    <mergeCell ref="BA2:BA3"/>
+    <mergeCell ref="BC2:BC3"/>
+    <mergeCell ref="BU2:BU3"/>
+    <mergeCell ref="CF2:CF3"/>
+    <mergeCell ref="CL2:CL3"/>
+    <mergeCell ref="CO2:CO3"/>
+    <mergeCell ref="CP2:CP3"/>
+    <mergeCell ref="CQ2:CQ3"/>
+    <mergeCell ref="CR2:CR3"/>
+    <mergeCell ref="CT2:CT3"/>
+    <mergeCell ref="CU2:CU3"/>
+    <mergeCell ref="CV2:CV3"/>
+    <mergeCell ref="CW2:CW3"/>
+    <mergeCell ref="CX2:CX3"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="AB1:AF1"/>
     <mergeCell ref="CZ2:CZ3"/>
     <mergeCell ref="DA2:DA3"/>
     <mergeCell ref="F23:F24"/>
@@ -37629,267 +37927,17 @@
     <mergeCell ref="CZ23:CZ24"/>
     <mergeCell ref="DA23:DA24"/>
     <mergeCell ref="M2:M3"/>
-    <mergeCell ref="CH1:CQ1"/>
-    <mergeCell ref="CR1:CX1"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="AR2:AR3"/>
-    <mergeCell ref="AZ2:AZ3"/>
-    <mergeCell ref="BA2:BA3"/>
-    <mergeCell ref="BC2:BC3"/>
-    <mergeCell ref="BU2:BU3"/>
-    <mergeCell ref="CF2:CF3"/>
-    <mergeCell ref="CL2:CL3"/>
-    <mergeCell ref="CO2:CO3"/>
-    <mergeCell ref="CP2:CP3"/>
-    <mergeCell ref="CQ2:CQ3"/>
-    <mergeCell ref="CR2:CR3"/>
-    <mergeCell ref="CT2:CT3"/>
-    <mergeCell ref="CU2:CU3"/>
-    <mergeCell ref="CV2:CV3"/>
-    <mergeCell ref="CW2:CW3"/>
-    <mergeCell ref="CX2:CX3"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="AB1:AF1"/>
-    <mergeCell ref="AG1:AQ1"/>
-    <mergeCell ref="AR1:AS1"/>
-    <mergeCell ref="AT1:AX1"/>
-    <mergeCell ref="AY1:BL1"/>
-    <mergeCell ref="BN1:BX1"/>
-    <mergeCell ref="BY1:CG1"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="B1:N1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="AF2:AF3"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="AJ2:AJ3"/>
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="Z2:Z3"/>
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="AQ2:AQ3"/>
-    <mergeCell ref="AS2:AS3"/>
-    <mergeCell ref="AT2:AT3"/>
-    <mergeCell ref="AU2:AU3"/>
-    <mergeCell ref="AV2:AV3"/>
-    <mergeCell ref="AW2:AW3"/>
-    <mergeCell ref="AK2:AK3"/>
-    <mergeCell ref="AL2:AL3"/>
-    <mergeCell ref="AM2:AM3"/>
-    <mergeCell ref="AN2:AN3"/>
-    <mergeCell ref="AO2:AO3"/>
-    <mergeCell ref="AP2:AP3"/>
-    <mergeCell ref="BG2:BG3"/>
-    <mergeCell ref="BH2:BH3"/>
-    <mergeCell ref="BI2:BI3"/>
-    <mergeCell ref="BJ2:BJ3"/>
-    <mergeCell ref="BK2:BK3"/>
-    <mergeCell ref="BL2:BL3"/>
-    <mergeCell ref="AX2:AX3"/>
-    <mergeCell ref="AY2:AY3"/>
-    <mergeCell ref="BB2:BB3"/>
-    <mergeCell ref="BD2:BD3"/>
-    <mergeCell ref="BF2:BF3"/>
-    <mergeCell ref="BV2:BV3"/>
-    <mergeCell ref="BW2:BW3"/>
-    <mergeCell ref="BX2:BX3"/>
-    <mergeCell ref="BY2:BY3"/>
-    <mergeCell ref="BO2:BO3"/>
-    <mergeCell ref="BQ2:BQ3"/>
-    <mergeCell ref="BR2:BR3"/>
-    <mergeCell ref="CN2:CN3"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="CG2:CG3"/>
-    <mergeCell ref="CI2:CI3"/>
-    <mergeCell ref="CJ2:CJ3"/>
-    <mergeCell ref="CK2:CK3"/>
-    <mergeCell ref="CM2:CM3"/>
-    <mergeCell ref="BZ2:BZ3"/>
-    <mergeCell ref="CA2:CA3"/>
-    <mergeCell ref="CB2:CB3"/>
-    <mergeCell ref="CC2:CC3"/>
-    <mergeCell ref="CD2:CD3"/>
-    <mergeCell ref="CE2:CE3"/>
-    <mergeCell ref="BS2:BS3"/>
-    <mergeCell ref="BT2:BT3"/>
-    <mergeCell ref="T23:T24"/>
-    <mergeCell ref="U23:U24"/>
-    <mergeCell ref="V23:V24"/>
-    <mergeCell ref="W23:W24"/>
-    <mergeCell ref="X23:X24"/>
-    <mergeCell ref="Y23:Y24"/>
-    <mergeCell ref="AK23:AK24"/>
-    <mergeCell ref="AS23:AS24"/>
-    <mergeCell ref="AT23:AT24"/>
-    <mergeCell ref="AU23:AU24"/>
-    <mergeCell ref="AV23:AV24"/>
-    <mergeCell ref="AW23:AW24"/>
-    <mergeCell ref="AX23:AX24"/>
-    <mergeCell ref="AL23:AL24"/>
-    <mergeCell ref="AM23:AM24"/>
-    <mergeCell ref="AN23:AN24"/>
-    <mergeCell ref="AO23:AO24"/>
-    <mergeCell ref="AP23:AP24"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="Q23:Q24"/>
-    <mergeCell ref="S23:S24"/>
-    <mergeCell ref="AF23:AF24"/>
-    <mergeCell ref="AG23:AG24"/>
-    <mergeCell ref="AH23:AH24"/>
-    <mergeCell ref="AI23:AI24"/>
-    <mergeCell ref="AJ23:AJ24"/>
-    <mergeCell ref="Z23:Z24"/>
-    <mergeCell ref="AB23:AB24"/>
-    <mergeCell ref="AC23:AC24"/>
-    <mergeCell ref="AD23:AD24"/>
-    <mergeCell ref="AE23:AE24"/>
-    <mergeCell ref="AQ23:AQ24"/>
-    <mergeCell ref="BH23:BH24"/>
-    <mergeCell ref="BI23:BI24"/>
-    <mergeCell ref="BJ23:BJ24"/>
-    <mergeCell ref="BK23:BK24"/>
-    <mergeCell ref="BL23:BL24"/>
-    <mergeCell ref="AY23:AY24"/>
-    <mergeCell ref="BB23:BB24"/>
-    <mergeCell ref="BD23:BD24"/>
-    <mergeCell ref="BF23:BF24"/>
-    <mergeCell ref="BG23:BG24"/>
-    <mergeCell ref="BT23:BT24"/>
-    <mergeCell ref="BV23:BV24"/>
-    <mergeCell ref="BW23:BW24"/>
-    <mergeCell ref="BX23:BX24"/>
-    <mergeCell ref="BY23:BY24"/>
-    <mergeCell ref="BZ23:BZ24"/>
-    <mergeCell ref="BO23:BO24"/>
-    <mergeCell ref="BQ23:BQ24"/>
-    <mergeCell ref="BR23:BR24"/>
-    <mergeCell ref="BS23:BS24"/>
-    <mergeCell ref="CI23:CI24"/>
-    <mergeCell ref="CJ23:CJ24"/>
-    <mergeCell ref="CK23:CK24"/>
-    <mergeCell ref="CM23:CM24"/>
-    <mergeCell ref="CN23:CN24"/>
-    <mergeCell ref="CA23:CA24"/>
-    <mergeCell ref="CB23:CB24"/>
-    <mergeCell ref="CC23:CC24"/>
-    <mergeCell ref="CD23:CD24"/>
-    <mergeCell ref="CE23:CE24"/>
-    <mergeCell ref="CG23:CG24"/>
-    <mergeCell ref="J54:J55"/>
-    <mergeCell ref="K54:K55"/>
-    <mergeCell ref="L54:L55"/>
-    <mergeCell ref="M54:M55"/>
-    <mergeCell ref="N54:N55"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="H54:H55"/>
-    <mergeCell ref="I54:I55"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="W54:W55"/>
-    <mergeCell ref="X54:X55"/>
-    <mergeCell ref="Y54:Y55"/>
-    <mergeCell ref="Z54:Z55"/>
-    <mergeCell ref="AB54:AB55"/>
-    <mergeCell ref="Q54:Q55"/>
-    <mergeCell ref="S54:S55"/>
-    <mergeCell ref="T54:T55"/>
-    <mergeCell ref="U54:U55"/>
-    <mergeCell ref="V54:V55"/>
-    <mergeCell ref="R54:R55"/>
-    <mergeCell ref="AI54:AI55"/>
-    <mergeCell ref="AJ54:AJ55"/>
-    <mergeCell ref="AK54:AK55"/>
-    <mergeCell ref="AL54:AL55"/>
-    <mergeCell ref="AM54:AM55"/>
-    <mergeCell ref="AN54:AN55"/>
-    <mergeCell ref="AC54:AC55"/>
-    <mergeCell ref="AD54:AD55"/>
-    <mergeCell ref="AE54:AE55"/>
-    <mergeCell ref="AF54:AF55"/>
-    <mergeCell ref="AG54:AG55"/>
-    <mergeCell ref="AH54:AH55"/>
-    <mergeCell ref="AV54:AV55"/>
-    <mergeCell ref="AW54:AW55"/>
-    <mergeCell ref="AX54:AX55"/>
-    <mergeCell ref="AY54:AY55"/>
-    <mergeCell ref="BB54:BB55"/>
-    <mergeCell ref="BD54:BD55"/>
-    <mergeCell ref="AO54:AO55"/>
-    <mergeCell ref="AP54:AP55"/>
-    <mergeCell ref="AQ54:AQ55"/>
-    <mergeCell ref="AS54:AS55"/>
-    <mergeCell ref="AT54:AT55"/>
-    <mergeCell ref="AU54:AU55"/>
-    <mergeCell ref="AR54:AR55"/>
-    <mergeCell ref="AZ54:AZ55"/>
-    <mergeCell ref="BA54:BA55"/>
-    <mergeCell ref="BC54:BC55"/>
-    <mergeCell ref="BK54:BK55"/>
-    <mergeCell ref="BL54:BL55"/>
-    <mergeCell ref="BO54:BO55"/>
-    <mergeCell ref="BF54:BF55"/>
-    <mergeCell ref="BG54:BG55"/>
-    <mergeCell ref="BH54:BH55"/>
-    <mergeCell ref="BI54:BI55"/>
-    <mergeCell ref="BJ54:BJ55"/>
-    <mergeCell ref="BX54:BX55"/>
-    <mergeCell ref="BY54:BY55"/>
-    <mergeCell ref="BZ54:BZ55"/>
-    <mergeCell ref="CA54:CA55"/>
-    <mergeCell ref="CB54:CB55"/>
-    <mergeCell ref="CC54:CC55"/>
-    <mergeCell ref="BQ54:BQ55"/>
-    <mergeCell ref="BR54:BR55"/>
-    <mergeCell ref="BS54:BS55"/>
-    <mergeCell ref="BT54:BT55"/>
-    <mergeCell ref="BV54:BV55"/>
-    <mergeCell ref="BW54:BW55"/>
-    <mergeCell ref="BU54:BU55"/>
-    <mergeCell ref="CK54:CK55"/>
-    <mergeCell ref="CM54:CM55"/>
-    <mergeCell ref="CN54:CN55"/>
-    <mergeCell ref="CD54:CD55"/>
-    <mergeCell ref="CE54:CE55"/>
-    <mergeCell ref="CG54:CG55"/>
-    <mergeCell ref="CI54:CI55"/>
-    <mergeCell ref="CJ54:CJ55"/>
-    <mergeCell ref="CF54:CF55"/>
-    <mergeCell ref="CL54:CL55"/>
+    <mergeCell ref="CZ54:CZ55"/>
+    <mergeCell ref="DA54:DA55"/>
+    <mergeCell ref="CO54:CO55"/>
+    <mergeCell ref="CP54:CP55"/>
+    <mergeCell ref="CQ54:CQ55"/>
+    <mergeCell ref="CR54:CR55"/>
+    <mergeCell ref="CT54:CT55"/>
+    <mergeCell ref="CU54:CU55"/>
+    <mergeCell ref="CV54:CV55"/>
+    <mergeCell ref="CW54:CW55"/>
+    <mergeCell ref="CX54:CX55"/>
   </mergeCells>
   <phoneticPr fontId="28" type="noConversion"/>
   <hyperlinks>
@@ -38218,7 +38266,6 @@
     <hyperlink ref="BE46" location="cite_note-108" display="cite_note-108" xr:uid="{AC498C2B-E2CF-48AB-8885-B5E5B0E3A6DB}"/>
     <hyperlink ref="CY47" location="cite_note-110" display="cite_note-110" xr:uid="{8AA80A59-BE48-4223-89D4-4B92EB4088E6}"/>
     <hyperlink ref="BC48" location="cite_note-111" display="cite_note-111" xr:uid="{540D3E30-EB46-4252-9364-E11AA57CF35F}"/>
-    <hyperlink ref="BW48" location="cite_note-112" display="cite_note-112" xr:uid="{8B9EDF9C-253E-4CC1-B41A-04F52C1A4ACE}"/>
     <hyperlink ref="E49" location="cite_note-113" display="cite_note-113" xr:uid="{61152D31-2431-4EDF-8546-9C5AA8243254}"/>
     <hyperlink ref="U49" location="cite_note-114" display="cite_note-114" xr:uid="{BA337D3A-11E0-460A-A5C5-DEB0327F443D}"/>
     <hyperlink ref="BQ49" location="cite_note-115" display="cite_note-115" xr:uid="{53AE3B15-CEF6-4680-8589-FD727F888E94}"/>
@@ -38226,14 +38273,12 @@
     <hyperlink ref="CB49" location="cite_note-117" display="cite_note-117" xr:uid="{93F25FB0-42F1-410F-9B79-48703E808C71}"/>
     <hyperlink ref="BO50" location="cite_note-118" display="cite_note-118" xr:uid="{4D570EF2-2F8D-4322-90F6-B4EC1BC9AE9A}"/>
     <hyperlink ref="BP50" location="cite_note-119" display="cite_note-119" xr:uid="{B65904C8-C4EA-450D-859F-3C10D7A8C38D}"/>
-    <hyperlink ref="CK50" location="cite_note-120" display="cite_note-120" xr:uid="{FCA574C5-09A0-4849-8370-F21E4202D950}"/>
     <hyperlink ref="CN50" location="cite_note-121" display="cite_note-121" xr:uid="{296ABC53-95BF-4F62-88F2-ADCA0F638CD9}"/>
     <hyperlink ref="CU50" location="cite_note-122" display="cite_note-122" xr:uid="{BC9253E6-260B-4E73-816B-7AABD18229DD}"/>
     <hyperlink ref="BE51" location="cite_note-123" display="cite_note-123" xr:uid="{00655C97-78D2-4171-A07C-20AFA642E918}"/>
     <hyperlink ref="BR51" location="cite_note-:1-124" display="cite_note-:1-124" xr:uid="{E179B0A6-B8B4-4978-804F-5E233ED837B2}"/>
     <hyperlink ref="CA51" location="cite_note-:5-125" display="cite_note-:5-125" xr:uid="{165F4205-3D1D-4279-96C9-614F6F87AAE1}"/>
     <hyperlink ref="CG51" location="cite_note-126" display="cite_note-126" xr:uid="{57011B6C-7960-4919-AA36-DE71750D45DD}"/>
-    <hyperlink ref="CL51" location="cite_note-:3-127" display="cite_note-:3-127" xr:uid="{05E02744-39F0-460F-B23F-0A8BA1117AC1}"/>
     <hyperlink ref="CO51" location="cite_note-:4-128" display="cite_note-:4-128" xr:uid="{16809502-0C9C-4185-BC85-54AAB14FCF88}"/>
     <hyperlink ref="Q52" location="cite_note-129" display="cite_note-129" xr:uid="{97C3A3A6-6A4F-4AD0-97A5-D16BB0C6158A}"/>
     <hyperlink ref="BE52" location="cite_note-130" display="cite_note-130" xr:uid="{FB68A7B0-229E-44C5-9AA9-B1B25D5ABC3D}"/>
@@ -38402,6 +38447,7 @@
     <hyperlink ref="AM76" location="cite_note-186" display="cite_note-186" xr:uid="{B7215459-88B3-43FE-95DF-F2F13D46104F}"/>
     <hyperlink ref="AM77" location="cite_note-187" display="cite_note-187" xr:uid="{9A2290FE-F28C-4BC1-8141-0CB8EE77014D}"/>
     <hyperlink ref="AM81" location="cite_note-188" display="cite_note-188" xr:uid="{A7A19E55-C0CA-436A-B806-4A5A8DF34DD6}"/>
+    <hyperlink ref="CL51" location="cite_note-:3-127" display="cite_note-:3-127" xr:uid="{05E02744-39F0-460F-B23F-0A8BA1117AC1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId319"/>
@@ -38410,10 +38456,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F0720B9-F1C1-4E88-8345-0A7B8577FCEF}">
-  <dimension ref="A1:CT52"/>
+  <dimension ref="A1:CT53"/>
   <sheetViews>
-    <sheetView topLeftCell="CE23" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="CM53" sqref="CM53"/>
+    <sheetView topLeftCell="A20" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -38422,137 +38468,137 @@
       <c r="A1" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="32" t="s">
+        <v>672</v>
+      </c>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32" t="s">
         <v>673</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31" t="s">
-        <v>674</v>
-      </c>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31" t="s">
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32" t="s">
         <v>217</v>
       </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31" t="s">
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32" t="s">
         <v>218</v>
       </c>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
       <c r="R1" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="S1" s="31" t="s">
+      <c r="S1" s="32" t="s">
         <v>216</v>
       </c>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31" t="s">
+      <c r="T1" s="32"/>
+      <c r="U1" s="32" t="s">
         <v>215</v>
       </c>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31"/>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31" t="s">
+      <c r="V1" s="32"/>
+      <c r="W1" s="32"/>
+      <c r="X1" s="32"/>
+      <c r="Y1" s="32" t="s">
         <v>214</v>
       </c>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="31"/>
-      <c r="AB1" s="31" t="s">
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="32" t="s">
         <v>213</v>
       </c>
-      <c r="AC1" s="31"/>
-      <c r="AD1" s="31"/>
-      <c r="AE1" s="31"/>
-      <c r="AF1" s="31"/>
-      <c r="AG1" s="31"/>
-      <c r="AH1" s="31"/>
-      <c r="AI1" s="31"/>
+      <c r="AC1" s="32"/>
+      <c r="AD1" s="32"/>
+      <c r="AE1" s="32"/>
+      <c r="AF1" s="32"/>
+      <c r="AG1" s="32"/>
+      <c r="AH1" s="32"/>
+      <c r="AI1" s="32"/>
       <c r="AJ1" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="AK1" s="31" t="s">
+      <c r="AK1" s="32" t="s">
         <v>220</v>
       </c>
-      <c r="AL1" s="31"/>
-      <c r="AM1" s="31"/>
-      <c r="AN1" s="31"/>
-      <c r="AO1" s="31" t="s">
+      <c r="AL1" s="32"/>
+      <c r="AM1" s="32"/>
+      <c r="AN1" s="32"/>
+      <c r="AO1" s="32" t="s">
         <v>221</v>
       </c>
-      <c r="AP1" s="31"/>
-      <c r="AQ1" s="31"/>
-      <c r="AR1" s="31"/>
-      <c r="AS1" s="31"/>
-      <c r="AT1" s="31" t="s">
+      <c r="AP1" s="32"/>
+      <c r="AQ1" s="32"/>
+      <c r="AR1" s="32"/>
+      <c r="AS1" s="32"/>
+      <c r="AT1" s="32" t="s">
         <v>223</v>
       </c>
-      <c r="AU1" s="31"/>
-      <c r="AV1" s="31"/>
-      <c r="AW1" s="31"/>
-      <c r="AX1" s="31"/>
-      <c r="AY1" s="31" t="s">
+      <c r="AU1" s="32"/>
+      <c r="AV1" s="32"/>
+      <c r="AW1" s="32"/>
+      <c r="AX1" s="32"/>
+      <c r="AY1" s="32" t="s">
         <v>224</v>
       </c>
-      <c r="AZ1" s="31"/>
-      <c r="BA1" s="31"/>
-      <c r="BB1" s="31"/>
-      <c r="BC1" s="31"/>
-      <c r="BD1" s="31"/>
-      <c r="BE1" s="31"/>
-      <c r="BF1" s="31"/>
-      <c r="BG1" s="31"/>
+      <c r="AZ1" s="32"/>
+      <c r="BA1" s="32"/>
+      <c r="BB1" s="32"/>
+      <c r="BC1" s="32"/>
+      <c r="BD1" s="32"/>
+      <c r="BE1" s="32"/>
+      <c r="BF1" s="32"/>
+      <c r="BG1" s="32"/>
       <c r="BH1" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="BI1" s="31" t="s">
+      <c r="BI1" s="32" t="s">
         <v>228</v>
       </c>
-      <c r="BJ1" s="31"/>
-      <c r="BK1" s="31"/>
-      <c r="BL1" s="31"/>
-      <c r="BM1" s="31"/>
-      <c r="BN1" s="31"/>
-      <c r="BO1" s="31"/>
-      <c r="BP1" s="31" t="s">
+      <c r="BJ1" s="32"/>
+      <c r="BK1" s="32"/>
+      <c r="BL1" s="32"/>
+      <c r="BM1" s="32"/>
+      <c r="BN1" s="32"/>
+      <c r="BO1" s="32"/>
+      <c r="BP1" s="32" t="s">
         <v>227</v>
       </c>
-      <c r="BQ1" s="31"/>
-      <c r="BR1" s="31"/>
-      <c r="BS1" s="31"/>
-      <c r="BT1" s="31"/>
-      <c r="BU1" s="31"/>
-      <c r="BV1" s="31"/>
-      <c r="BW1" s="31"/>
-      <c r="BX1" s="31" t="s">
+      <c r="BQ1" s="32"/>
+      <c r="BR1" s="32"/>
+      <c r="BS1" s="32"/>
+      <c r="BT1" s="32"/>
+      <c r="BU1" s="32"/>
+      <c r="BV1" s="32"/>
+      <c r="BW1" s="32"/>
+      <c r="BX1" s="32" t="s">
         <v>225</v>
       </c>
-      <c r="BY1" s="31"/>
-      <c r="BZ1" s="31"/>
-      <c r="CA1" s="31"/>
-      <c r="CB1" s="31"/>
-      <c r="CC1" s="31"/>
-      <c r="CD1" s="31"/>
-      <c r="CE1" s="31"/>
-      <c r="CF1" s="31"/>
-      <c r="CG1" s="31"/>
-      <c r="CH1" s="31"/>
-      <c r="CI1" s="31"/>
-      <c r="CJ1" s="31" t="s">
+      <c r="BY1" s="32"/>
+      <c r="BZ1" s="32"/>
+      <c r="CA1" s="32"/>
+      <c r="CB1" s="32"/>
+      <c r="CC1" s="32"/>
+      <c r="CD1" s="32"/>
+      <c r="CE1" s="32"/>
+      <c r="CF1" s="32"/>
+      <c r="CG1" s="32"/>
+      <c r="CH1" s="32"/>
+      <c r="CI1" s="32"/>
+      <c r="CJ1" s="32" t="s">
         <v>226</v>
       </c>
-      <c r="CK1" s="31"/>
-      <c r="CL1" s="31"/>
-      <c r="CM1" s="31"/>
-      <c r="CN1" s="31"/>
-      <c r="CO1" s="31"/>
-      <c r="CP1" s="31"/>
+      <c r="CK1" s="32"/>
+      <c r="CL1" s="32"/>
+      <c r="CM1" s="32"/>
+      <c r="CN1" s="32"/>
+      <c r="CO1" s="32"/>
+      <c r="CP1" s="32"/>
       <c r="CQ1" s="21" t="s">
         <v>222</v>
       </c>
@@ -38566,399 +38612,399 @@
       <c r="A2" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="29" t="s">
         <v>178</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="29" t="s">
+        <v>674</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="I2" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="J2" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="K2" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="L2" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="M2" s="29" t="s">
         <v>675</v>
       </c>
-      <c r="F2" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="G2" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="H2" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="I2" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="J2" s="30" t="s">
-        <v>188</v>
-      </c>
-      <c r="K2" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="L2" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="M2" s="30" t="s">
-        <v>676</v>
-      </c>
-      <c r="N2" s="30" t="s">
+      <c r="N2" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="O2" s="30" t="s">
+      <c r="O2" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="P2" s="30" t="s">
+      <c r="P2" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="Q2" s="30" t="s">
+      <c r="Q2" s="29" t="s">
         <v>122</v>
       </c>
       <c r="R2" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="S2" s="30" t="s">
+      <c r="S2" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="T2" s="30" t="s">
+      <c r="T2" s="29" t="s">
         <v>234</v>
       </c>
-      <c r="U2" s="30" t="s">
+      <c r="U2" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="V2" s="30" t="s">
+      <c r="V2" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="W2" s="30" t="s">
+      <c r="W2" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="X2" s="30" t="s">
+      <c r="X2" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="Y2" s="30" t="s">
+      <c r="Y2" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="Z2" s="30" t="s">
+      <c r="Z2" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="AA2" s="30" t="s">
+      <c r="AA2" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="AB2" s="30" t="s">
+      <c r="AB2" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="AC2" s="30" t="s">
+      <c r="AC2" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="AD2" s="30" t="s">
+      <c r="AD2" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="AE2" s="30" t="s">
+      <c r="AE2" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="AF2" s="30" t="s">
+      <c r="AF2" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="AG2" s="30" t="s">
+      <c r="AG2" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="AH2" s="30" t="s">
+      <c r="AH2" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="AI2" s="30" t="s">
+      <c r="AI2" s="29" t="s">
         <v>58</v>
       </c>
       <c r="AJ2" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="AK2" s="30" t="s">
+      <c r="AK2" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="AL2" s="30" t="s">
+      <c r="AL2" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="AM2" s="30" t="s">
+      <c r="AM2" s="29" t="s">
         <v>236</v>
       </c>
-      <c r="AN2" s="30" t="s">
+      <c r="AN2" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="AO2" s="30" t="s">
+      <c r="AO2" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="AP2" s="30" t="s">
+      <c r="AP2" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="AQ2" s="30" t="s">
+      <c r="AQ2" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="AR2" s="30" t="s">
+      <c r="AR2" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="AS2" s="30" t="s">
+      <c r="AS2" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="AT2" s="30" t="s">
+      <c r="AT2" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="AU2" s="30" t="s">
+      <c r="AU2" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="AV2" s="30" t="s">
+      <c r="AV2" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="AW2" s="30" t="s">
+      <c r="AW2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="AX2" s="30" t="s">
+      <c r="AX2" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="AY2" s="30" t="s">
+      <c r="AY2" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="AZ2" s="30" t="s">
+      <c r="AZ2" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="BA2" s="30" t="s">
+      <c r="BA2" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="BB2" s="30" t="s">
+      <c r="BB2" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="BC2" s="30" t="s">
+      <c r="BC2" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="BD2" s="30" t="s">
+      <c r="BD2" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="BE2" s="30" t="s">
+      <c r="BE2" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="BF2" s="30" t="s">
+      <c r="BF2" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="BG2" s="30" t="s">
-        <v>677</v>
+      <c r="BG2" s="29" t="s">
+        <v>676</v>
       </c>
       <c r="BH2" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="BI2" s="30" t="s">
+      <c r="BI2" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="BJ2" s="30" t="s">
+      <c r="BJ2" s="29" t="s">
+        <v>677</v>
+      </c>
+      <c r="BK2" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="BL2" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="BM2" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="BN2" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="BO2" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="BP2" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="BQ2" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="BR2" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="BS2" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="BT2" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="BU2" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="BV2" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="BW2" s="29" t="s">
         <v>678</v>
       </c>
-      <c r="BK2" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="BL2" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="BM2" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="BN2" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="BO2" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="BP2" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="BQ2" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="BR2" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="BS2" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="BT2" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="BU2" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="BV2" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="BW2" s="30" t="s">
-        <v>679</v>
-      </c>
-      <c r="BX2" s="30" t="s">
+      <c r="BX2" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="BY2" s="30" t="s">
+      <c r="BY2" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="BZ2" s="30" t="s">
+      <c r="BZ2" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="CA2" s="30" t="s">
+      <c r="CA2" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="CB2" s="30" t="s">
+      <c r="CB2" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="CC2" s="30" t="s">
+      <c r="CC2" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="CD2" s="30" t="s">
+      <c r="CD2" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="CE2" s="30" t="s">
+      <c r="CE2" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="CF2" s="30" t="s">
+      <c r="CF2" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="CG2" s="30" t="s">
+      <c r="CG2" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="CH2" s="30" t="s">
+      <c r="CH2" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="CI2" s="30" t="s">
+      <c r="CI2" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="CJ2" s="30" t="s">
+      <c r="CJ2" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="CK2" s="30" t="s">
+      <c r="CK2" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="CL2" s="30" t="s">
+      <c r="CL2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="CM2" s="30" t="s">
+      <c r="CM2" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="CN2" s="30" t="s">
+      <c r="CN2" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="CO2" s="30" t="s">
+      <c r="CO2" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="CP2" s="30" t="s">
+      <c r="CP2" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="CQ2" s="30" t="s">
+      <c r="CQ2" s="29" t="s">
         <v>27</v>
       </c>
       <c r="CR2" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="CS2" s="32" t="s">
+      <c r="CS2" s="31" t="s">
         <v>248</v>
       </c>
-      <c r="CT2" s="32" t="s">
+      <c r="CT2" s="31" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:98" ht="51.6" x14ac:dyDescent="0.3">
       <c r="A3" s="21"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
       <c r="R3" s="21"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30"/>
-      <c r="U3" s="30"/>
-      <c r="V3" s="30"/>
-      <c r="W3" s="30"/>
-      <c r="X3" s="30"/>
-      <c r="Y3" s="30"/>
-      <c r="Z3" s="30"/>
-      <c r="AA3" s="30"/>
-      <c r="AB3" s="30"/>
-      <c r="AC3" s="30"/>
-      <c r="AD3" s="30"/>
-      <c r="AE3" s="30"/>
-      <c r="AF3" s="30"/>
-      <c r="AG3" s="30"/>
-      <c r="AH3" s="30"/>
-      <c r="AI3" s="30"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="29"/>
+      <c r="W3" s="29"/>
+      <c r="X3" s="29"/>
+      <c r="Y3" s="29"/>
+      <c r="Z3" s="29"/>
+      <c r="AA3" s="29"/>
+      <c r="AB3" s="29"/>
+      <c r="AC3" s="29"/>
+      <c r="AD3" s="29"/>
+      <c r="AE3" s="29"/>
+      <c r="AF3" s="29"/>
+      <c r="AG3" s="29"/>
+      <c r="AH3" s="29"/>
+      <c r="AI3" s="29"/>
       <c r="AJ3" s="21"/>
-      <c r="AK3" s="30"/>
-      <c r="AL3" s="30"/>
-      <c r="AM3" s="30"/>
-      <c r="AN3" s="30"/>
-      <c r="AO3" s="30"/>
-      <c r="AP3" s="30"/>
-      <c r="AQ3" s="30"/>
-      <c r="AR3" s="30"/>
-      <c r="AS3" s="30"/>
-      <c r="AT3" s="30"/>
-      <c r="AU3" s="30"/>
-      <c r="AV3" s="30"/>
-      <c r="AW3" s="30"/>
-      <c r="AX3" s="30"/>
-      <c r="AY3" s="30"/>
-      <c r="AZ3" s="30"/>
-      <c r="BA3" s="30"/>
-      <c r="BB3" s="30"/>
-      <c r="BC3" s="30"/>
-      <c r="BD3" s="30"/>
-      <c r="BE3" s="30"/>
-      <c r="BF3" s="30"/>
-      <c r="BG3" s="30"/>
+      <c r="AK3" s="29"/>
+      <c r="AL3" s="29"/>
+      <c r="AM3" s="29"/>
+      <c r="AN3" s="29"/>
+      <c r="AO3" s="29"/>
+      <c r="AP3" s="29"/>
+      <c r="AQ3" s="29"/>
+      <c r="AR3" s="29"/>
+      <c r="AS3" s="29"/>
+      <c r="AT3" s="29"/>
+      <c r="AU3" s="29"/>
+      <c r="AV3" s="29"/>
+      <c r="AW3" s="29"/>
+      <c r="AX3" s="29"/>
+      <c r="AY3" s="29"/>
+      <c r="AZ3" s="29"/>
+      <c r="BA3" s="29"/>
+      <c r="BB3" s="29"/>
+      <c r="BC3" s="29"/>
+      <c r="BD3" s="29"/>
+      <c r="BE3" s="29"/>
+      <c r="BF3" s="29"/>
+      <c r="BG3" s="29"/>
       <c r="BH3" s="21"/>
-      <c r="BI3" s="30"/>
-      <c r="BJ3" s="30"/>
-      <c r="BK3" s="30"/>
-      <c r="BL3" s="30"/>
-      <c r="BM3" s="30"/>
-      <c r="BN3" s="30"/>
-      <c r="BO3" s="30"/>
-      <c r="BP3" s="30"/>
-      <c r="BQ3" s="30"/>
-      <c r="BR3" s="30"/>
-      <c r="BS3" s="30"/>
-      <c r="BT3" s="30"/>
-      <c r="BU3" s="30"/>
-      <c r="BV3" s="30"/>
-      <c r="BW3" s="30"/>
-      <c r="BX3" s="30"/>
-      <c r="BY3" s="30"/>
-      <c r="BZ3" s="30"/>
-      <c r="CA3" s="30"/>
-      <c r="CB3" s="30"/>
-      <c r="CC3" s="30"/>
-      <c r="CD3" s="30"/>
-      <c r="CE3" s="30"/>
-      <c r="CF3" s="30"/>
-      <c r="CG3" s="30"/>
-      <c r="CH3" s="30"/>
-      <c r="CI3" s="30"/>
-      <c r="CJ3" s="30"/>
-      <c r="CK3" s="30"/>
-      <c r="CL3" s="30"/>
-      <c r="CM3" s="30"/>
-      <c r="CN3" s="30"/>
-      <c r="CO3" s="30"/>
-      <c r="CP3" s="30"/>
-      <c r="CQ3" s="30"/>
+      <c r="BI3" s="29"/>
+      <c r="BJ3" s="29"/>
+      <c r="BK3" s="29"/>
+      <c r="BL3" s="29"/>
+      <c r="BM3" s="29"/>
+      <c r="BN3" s="29"/>
+      <c r="BO3" s="29"/>
+      <c r="BP3" s="29"/>
+      <c r="BQ3" s="29"/>
+      <c r="BR3" s="29"/>
+      <c r="BS3" s="29"/>
+      <c r="BT3" s="29"/>
+      <c r="BU3" s="29"/>
+      <c r="BV3" s="29"/>
+      <c r="BW3" s="29"/>
+      <c r="BX3" s="29"/>
+      <c r="BY3" s="29"/>
+      <c r="BZ3" s="29"/>
+      <c r="CA3" s="29"/>
+      <c r="CB3" s="29"/>
+      <c r="CC3" s="29"/>
+      <c r="CD3" s="29"/>
+      <c r="CE3" s="29"/>
+      <c r="CF3" s="29"/>
+      <c r="CG3" s="29"/>
+      <c r="CH3" s="29"/>
+      <c r="CI3" s="29"/>
+      <c r="CJ3" s="29"/>
+      <c r="CK3" s="29"/>
+      <c r="CL3" s="29"/>
+      <c r="CM3" s="29"/>
+      <c r="CN3" s="29"/>
+      <c r="CO3" s="29"/>
+      <c r="CP3" s="29"/>
+      <c r="CQ3" s="29"/>
       <c r="CR3" s="22" t="s">
         <v>247</v>
       </c>
-      <c r="CS3" s="32"/>
-      <c r="CT3" s="32"/>
+      <c r="CS3" s="31"/>
+      <c r="CT3" s="31"/>
     </row>
     <row r="4" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
@@ -39233,7 +39279,7 @@
       </c>
       <c r="AK6" s="23"/>
       <c r="AL6" s="3" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="AM6" s="23"/>
       <c r="AN6" s="23"/>
@@ -39404,7 +39450,9 @@
       <c r="CI7" s="23"/>
       <c r="CJ7" s="23"/>
       <c r="CK7" s="23"/>
-      <c r="CL7" s="23"/>
+      <c r="CL7" s="23">
+        <v>0</v>
+      </c>
       <c r="CM7" s="23"/>
       <c r="CN7" s="23"/>
       <c r="CO7" s="23"/>
@@ -39475,9 +39523,7 @@
       <c r="AT8" s="23"/>
       <c r="AU8" s="23"/>
       <c r="AV8" s="23"/>
-      <c r="AW8" s="3" t="s">
-        <v>392</v>
-      </c>
+      <c r="AW8" s="3"/>
       <c r="AX8" s="23"/>
       <c r="AY8" s="23"/>
       <c r="AZ8" s="23"/>
@@ -39580,7 +39626,7 @@
       <c r="AK9" s="23"/>
       <c r="AL9" s="23"/>
       <c r="AM9" s="3" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="AN9" s="23"/>
       <c r="AO9" s="23"/>
@@ -39641,7 +39687,7 @@
       <c r="CP9" s="23"/>
       <c r="CQ9" s="23"/>
       <c r="CR9" s="3" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="CS9" s="21">
         <v>3</v>
@@ -39995,7 +40041,7 @@
       <c r="CP12" s="23"/>
       <c r="CQ12" s="23"/>
       <c r="CR12" s="3" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="CS12" s="21">
         <v>7</v>
@@ -40097,7 +40143,7 @@
       <c r="BZ13" s="23"/>
       <c r="CA13" s="23"/>
       <c r="CB13" s="23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CC13" s="23"/>
       <c r="CD13" s="23"/>
@@ -40182,7 +40228,7 @@
       <c r="AU14" s="23"/>
       <c r="AV14" s="23"/>
       <c r="AW14" s="23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX14" s="23"/>
       <c r="AY14" s="23"/>
@@ -40631,7 +40677,7 @@
       </c>
       <c r="S18" s="23"/>
       <c r="T18" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U18" s="23"/>
       <c r="V18" s="23"/>
@@ -40730,295 +40776,295 @@
       <c r="A19" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="29" t="s">
         <v>178</v>
       </c>
-      <c r="D19" s="30" t="s">
+      <c r="D19" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="E19" s="30" t="s">
+      <c r="E19" s="29" t="s">
+        <v>674</v>
+      </c>
+      <c r="F19" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="G19" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="H19" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="I19" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="J19" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="K19" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="L19" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="M19" s="29" t="s">
         <v>675</v>
       </c>
-      <c r="F19" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="G19" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="H19" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="I19" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="J19" s="30" t="s">
-        <v>188</v>
-      </c>
-      <c r="K19" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="L19" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="M19" s="30" t="s">
-        <v>676</v>
-      </c>
-      <c r="N19" s="30" t="s">
+      <c r="N19" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="O19" s="30" t="s">
+      <c r="O19" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="P19" s="30" t="s">
+      <c r="P19" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="Q19" s="30" t="s">
+      <c r="Q19" s="29" t="s">
         <v>122</v>
       </c>
       <c r="R19" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="S19" s="30" t="s">
+      <c r="S19" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="T19" s="30" t="s">
+      <c r="T19" s="29" t="s">
         <v>234</v>
       </c>
-      <c r="U19" s="30" t="s">
+      <c r="U19" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="V19" s="30" t="s">
+      <c r="V19" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="W19" s="30" t="s">
+      <c r="W19" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="X19" s="30" t="s">
+      <c r="X19" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="Y19" s="30" t="s">
+      <c r="Y19" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="Z19" s="30" t="s">
+      <c r="Z19" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="AA19" s="30" t="s">
+      <c r="AA19" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="AB19" s="30" t="s">
+      <c r="AB19" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="AC19" s="30" t="s">
+      <c r="AC19" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="AD19" s="30" t="s">
+      <c r="AD19" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="AE19" s="30" t="s">
+      <c r="AE19" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="AF19" s="30" t="s">
+      <c r="AF19" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="AG19" s="30" t="s">
+      <c r="AG19" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="AH19" s="30" t="s">
+      <c r="AH19" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="AI19" s="30" t="s">
+      <c r="AI19" s="29" t="s">
         <v>58</v>
       </c>
       <c r="AJ19" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="AK19" s="30" t="s">
+      <c r="AK19" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="AL19" s="30" t="s">
+      <c r="AL19" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="AM19" s="30" t="s">
+      <c r="AM19" s="29" t="s">
         <v>236</v>
       </c>
-      <c r="AN19" s="30" t="s">
+      <c r="AN19" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="AO19" s="30" t="s">
+      <c r="AO19" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="AP19" s="30" t="s">
+      <c r="AP19" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="AQ19" s="30" t="s">
+      <c r="AQ19" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="AR19" s="30" t="s">
+      <c r="AR19" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="AS19" s="30" t="s">
+      <c r="AS19" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="AT19" s="30" t="s">
+      <c r="AT19" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="AU19" s="30" t="s">
+      <c r="AU19" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="AV19" s="30" t="s">
+      <c r="AV19" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="AW19" s="30" t="s">
+      <c r="AW19" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="AX19" s="30" t="s">
+      <c r="AX19" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="AY19" s="30" t="s">
+      <c r="AY19" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="AZ19" s="30" t="s">
+      <c r="AZ19" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="BA19" s="30" t="s">
+      <c r="BA19" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="BB19" s="30" t="s">
+      <c r="BB19" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="BC19" s="30" t="s">
+      <c r="BC19" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="BD19" s="30" t="s">
+      <c r="BD19" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="BE19" s="30" t="s">
+      <c r="BE19" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="BF19" s="30" t="s">
+      <c r="BF19" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="BG19" s="30" t="s">
-        <v>677</v>
+      <c r="BG19" s="29" t="s">
+        <v>676</v>
       </c>
       <c r="BH19" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="BI19" s="30" t="s">
+      <c r="BI19" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="BJ19" s="30" t="s">
+      <c r="BJ19" s="29" t="s">
+        <v>677</v>
+      </c>
+      <c r="BK19" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="BL19" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="BM19" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="BN19" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="BO19" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="BP19" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="BQ19" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="BR19" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="BS19" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="BT19" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="BU19" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="BV19" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="BW19" s="29" t="s">
         <v>678</v>
       </c>
-      <c r="BK19" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="BL19" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="BM19" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="BN19" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="BO19" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="BP19" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="BQ19" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="BR19" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="BS19" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="BT19" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="BU19" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="BV19" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="BW19" s="30" t="s">
-        <v>679</v>
-      </c>
-      <c r="BX19" s="30" t="s">
+      <c r="BX19" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="BY19" s="30" t="s">
+      <c r="BY19" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="BZ19" s="30" t="s">
+      <c r="BZ19" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="CA19" s="30" t="s">
+      <c r="CA19" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="CB19" s="30" t="s">
+      <c r="CB19" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="CC19" s="30" t="s">
+      <c r="CC19" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="CD19" s="30" t="s">
+      <c r="CD19" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="CE19" s="30" t="s">
+      <c r="CE19" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="CF19" s="30" t="s">
+      <c r="CF19" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="CG19" s="30" t="s">
+      <c r="CG19" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="CH19" s="30" t="s">
+      <c r="CH19" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="CI19" s="30" t="s">
+      <c r="CI19" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="CJ19" s="30" t="s">
+      <c r="CJ19" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="CK19" s="30" t="s">
+      <c r="CK19" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="CL19" s="30" t="s">
+      <c r="CL19" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="CM19" s="30" t="s">
+      <c r="CM19" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="CN19" s="30" t="s">
+      <c r="CN19" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="CO19" s="30" t="s">
+      <c r="CO19" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="CP19" s="30" t="s">
+      <c r="CP19" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="CQ19" s="30" t="s">
+      <c r="CQ19" s="29" t="s">
         <v>27</v>
       </c>
       <c r="CR19" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="CS19" s="32" t="s">
+      <c r="CS19" s="31" t="s">
         <v>248</v>
       </c>
-      <c r="CT19" s="32" t="s">
+      <c r="CT19" s="31" t="s">
         <v>249</v>
       </c>
     </row>
@@ -41026,111 +41072,111 @@
       <c r="A20" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="30"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="29"/>
       <c r="R20" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="S20" s="30"/>
-      <c r="T20" s="30"/>
-      <c r="U20" s="30"/>
-      <c r="V20" s="30"/>
-      <c r="W20" s="30"/>
-      <c r="X20" s="30"/>
-      <c r="Y20" s="30"/>
-      <c r="Z20" s="30"/>
-      <c r="AA20" s="30"/>
-      <c r="AB20" s="30"/>
-      <c r="AC20" s="30"/>
-      <c r="AD20" s="30"/>
-      <c r="AE20" s="30"/>
-      <c r="AF20" s="30"/>
-      <c r="AG20" s="30"/>
-      <c r="AH20" s="30"/>
-      <c r="AI20" s="30"/>
+      <c r="S20" s="29"/>
+      <c r="T20" s="29"/>
+      <c r="U20" s="29"/>
+      <c r="V20" s="29"/>
+      <c r="W20" s="29"/>
+      <c r="X20" s="29"/>
+      <c r="Y20" s="29"/>
+      <c r="Z20" s="29"/>
+      <c r="AA20" s="29"/>
+      <c r="AB20" s="29"/>
+      <c r="AC20" s="29"/>
+      <c r="AD20" s="29"/>
+      <c r="AE20" s="29"/>
+      <c r="AF20" s="29"/>
+      <c r="AG20" s="29"/>
+      <c r="AH20" s="29"/>
+      <c r="AI20" s="29"/>
       <c r="AJ20" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="AK20" s="30"/>
-      <c r="AL20" s="30"/>
-      <c r="AM20" s="30"/>
-      <c r="AN20" s="30"/>
-      <c r="AO20" s="30"/>
-      <c r="AP20" s="30"/>
-      <c r="AQ20" s="30"/>
-      <c r="AR20" s="30"/>
-      <c r="AS20" s="30"/>
-      <c r="AT20" s="30"/>
-      <c r="AU20" s="30"/>
-      <c r="AV20" s="30"/>
-      <c r="AW20" s="30"/>
-      <c r="AX20" s="30"/>
-      <c r="AY20" s="30"/>
-      <c r="AZ20" s="30"/>
-      <c r="BA20" s="30"/>
-      <c r="BB20" s="30"/>
-      <c r="BC20" s="30"/>
-      <c r="BD20" s="30"/>
-      <c r="BE20" s="30"/>
-      <c r="BF20" s="30"/>
-      <c r="BG20" s="30"/>
+      <c r="AK20" s="29"/>
+      <c r="AL20" s="29"/>
+      <c r="AM20" s="29"/>
+      <c r="AN20" s="29"/>
+      <c r="AO20" s="29"/>
+      <c r="AP20" s="29"/>
+      <c r="AQ20" s="29"/>
+      <c r="AR20" s="29"/>
+      <c r="AS20" s="29"/>
+      <c r="AT20" s="29"/>
+      <c r="AU20" s="29"/>
+      <c r="AV20" s="29"/>
+      <c r="AW20" s="29"/>
+      <c r="AX20" s="29"/>
+      <c r="AY20" s="29"/>
+      <c r="AZ20" s="29"/>
+      <c r="BA20" s="29"/>
+      <c r="BB20" s="29"/>
+      <c r="BC20" s="29"/>
+      <c r="BD20" s="29"/>
+      <c r="BE20" s="29"/>
+      <c r="BF20" s="29"/>
+      <c r="BG20" s="29"/>
       <c r="BH20" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="BI20" s="30"/>
-      <c r="BJ20" s="30"/>
-      <c r="BK20" s="30"/>
-      <c r="BL20" s="30"/>
-      <c r="BM20" s="30"/>
-      <c r="BN20" s="30"/>
-      <c r="BO20" s="30"/>
-      <c r="BP20" s="30"/>
-      <c r="BQ20" s="30"/>
-      <c r="BR20" s="30"/>
-      <c r="BS20" s="30"/>
-      <c r="BT20" s="30"/>
-      <c r="BU20" s="30"/>
-      <c r="BV20" s="30"/>
-      <c r="BW20" s="30"/>
-      <c r="BX20" s="30"/>
-      <c r="BY20" s="30"/>
-      <c r="BZ20" s="30"/>
-      <c r="CA20" s="30"/>
-      <c r="CB20" s="30"/>
-      <c r="CC20" s="30"/>
-      <c r="CD20" s="30"/>
-      <c r="CE20" s="30"/>
-      <c r="CF20" s="30"/>
-      <c r="CG20" s="30"/>
-      <c r="CH20" s="30"/>
-      <c r="CI20" s="30"/>
-      <c r="CJ20" s="30"/>
-      <c r="CK20" s="30"/>
-      <c r="CL20" s="30"/>
-      <c r="CM20" s="30"/>
-      <c r="CN20" s="30"/>
-      <c r="CO20" s="30"/>
-      <c r="CP20" s="30"/>
-      <c r="CQ20" s="30"/>
+      <c r="BI20" s="29"/>
+      <c r="BJ20" s="29"/>
+      <c r="BK20" s="29"/>
+      <c r="BL20" s="29"/>
+      <c r="BM20" s="29"/>
+      <c r="BN20" s="29"/>
+      <c r="BO20" s="29"/>
+      <c r="BP20" s="29"/>
+      <c r="BQ20" s="29"/>
+      <c r="BR20" s="29"/>
+      <c r="BS20" s="29"/>
+      <c r="BT20" s="29"/>
+      <c r="BU20" s="29"/>
+      <c r="BV20" s="29"/>
+      <c r="BW20" s="29"/>
+      <c r="BX20" s="29"/>
+      <c r="BY20" s="29"/>
+      <c r="BZ20" s="29"/>
+      <c r="CA20" s="29"/>
+      <c r="CB20" s="29"/>
+      <c r="CC20" s="29"/>
+      <c r="CD20" s="29"/>
+      <c r="CE20" s="29"/>
+      <c r="CF20" s="29"/>
+      <c r="CG20" s="29"/>
+      <c r="CH20" s="29"/>
+      <c r="CI20" s="29"/>
+      <c r="CJ20" s="29"/>
+      <c r="CK20" s="29"/>
+      <c r="CL20" s="29"/>
+      <c r="CM20" s="29"/>
+      <c r="CN20" s="29"/>
+      <c r="CO20" s="29"/>
+      <c r="CP20" s="29"/>
+      <c r="CQ20" s="29"/>
       <c r="CR20" s="22" t="s">
         <v>247</v>
       </c>
-      <c r="CS20" s="32"/>
-      <c r="CT20" s="32"/>
+      <c r="CS20" s="31"/>
+      <c r="CT20" s="31"/>
     </row>
     <row r="21" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A21" s="23" t="s">
@@ -41157,7 +41203,7 @@
       </c>
       <c r="S21" s="23"/>
       <c r="T21" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U21" s="23"/>
       <c r="V21" s="23"/>
@@ -41231,7 +41277,7 @@
       <c r="BZ21" s="23"/>
       <c r="CA21" s="23"/>
       <c r="CB21" s="23">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="CC21" s="23"/>
       <c r="CD21" s="23"/>
@@ -41285,7 +41331,7 @@
       </c>
       <c r="S22" s="23"/>
       <c r="T22" s="23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U22" s="23"/>
       <c r="V22" s="23"/>
@@ -41355,7 +41401,7 @@
       <c r="BZ22" s="23"/>
       <c r="CA22" s="23"/>
       <c r="CB22" s="23">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="CC22" s="23"/>
       <c r="CD22" s="23"/>
@@ -41529,7 +41575,7 @@
       </c>
       <c r="S24" s="23"/>
       <c r="T24" s="23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U24" s="23"/>
       <c r="V24" s="23"/>
@@ -41684,7 +41730,7 @@
       <c r="AU25" s="23"/>
       <c r="AV25" s="23"/>
       <c r="AW25" s="23">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AX25" s="23"/>
       <c r="AY25" s="23"/>
@@ -41773,7 +41819,7 @@
       </c>
       <c r="S26" s="23"/>
       <c r="T26" s="23">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="U26" s="23"/>
       <c r="V26" s="23"/>
@@ -41808,7 +41854,7 @@
       <c r="AU26" s="23"/>
       <c r="AV26" s="23"/>
       <c r="AW26" s="23">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AX26" s="23"/>
       <c r="AY26" s="23"/>
@@ -41854,7 +41900,7 @@
       <c r="CG26" s="23"/>
       <c r="CH26" s="23"/>
       <c r="CI26" s="23">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="CJ26" s="23"/>
       <c r="CK26" s="23"/>
@@ -41897,7 +41943,7 @@
       </c>
       <c r="S27" s="23"/>
       <c r="T27" s="23">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U27" s="23"/>
       <c r="V27" s="23"/>
@@ -41907,7 +41953,7 @@
       <c r="Z27" s="23"/>
       <c r="AA27" s="23"/>
       <c r="AB27" s="3" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="AC27" s="23"/>
       <c r="AD27" s="23"/>
@@ -42108,7 +42154,7 @@
       <c r="CG28" s="23"/>
       <c r="CH28" s="23"/>
       <c r="CI28" s="23">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="CJ28" s="23"/>
       <c r="CK28" s="23"/>
@@ -42242,12 +42288,12 @@
       <c r="CG29" s="23"/>
       <c r="CH29" s="23"/>
       <c r="CI29" s="23">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="CJ29" s="23"/>
       <c r="CK29" s="23"/>
       <c r="CL29" s="23">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="CM29" s="23">
         <v>2</v>
@@ -42289,7 +42335,7 @@
       </c>
       <c r="S30" s="23"/>
       <c r="T30" s="23">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U30" s="23"/>
       <c r="V30" s="23"/>
@@ -42376,7 +42422,7 @@
       <c r="CG30" s="23"/>
       <c r="CH30" s="23"/>
       <c r="CI30" s="23">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="CJ30" s="23"/>
       <c r="CK30" s="23">
@@ -42421,7 +42467,7 @@
       </c>
       <c r="S31" s="23"/>
       <c r="T31" s="23">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U31" s="23"/>
       <c r="V31" s="23"/>
@@ -42526,7 +42572,7 @@
       <c r="CG31" s="23"/>
       <c r="CH31" s="23"/>
       <c r="CI31" s="23">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="CJ31" s="23">
         <v>1</v>
@@ -42581,7 +42627,7 @@
       </c>
       <c r="S32" s="23"/>
       <c r="T32" s="23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U32" s="23"/>
       <c r="V32" s="23"/>
@@ -42682,7 +42728,7 @@
       <c r="CG32" s="23"/>
       <c r="CH32" s="23"/>
       <c r="CI32" s="23">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="CJ32" s="23">
         <v>1</v>
@@ -42692,7 +42738,7 @@
         <v>13</v>
       </c>
       <c r="CM32" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CN32" s="23"/>
       <c r="CO32" s="23"/>
@@ -42739,7 +42785,7 @@
       <c r="Z33" s="23"/>
       <c r="AA33" s="23"/>
       <c r="AB33" s="3" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="AC33" s="23"/>
       <c r="AD33" s="23"/>
@@ -42828,15 +42874,15 @@
       <c r="CG33" s="23"/>
       <c r="CH33" s="23"/>
       <c r="CI33" s="23">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="CJ33" s="23"/>
       <c r="CK33" s="23"/>
       <c r="CL33" s="23">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="CM33" s="23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CN33" s="23">
         <v>1</v>
@@ -42877,7 +42923,7 @@
       </c>
       <c r="S34" s="23"/>
       <c r="T34" s="23">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="U34" s="23"/>
       <c r="V34" s="23"/>
@@ -42982,16 +43028,18 @@
         <v>1</v>
       </c>
       <c r="CI34" s="23">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="CJ34" s="23"/>
       <c r="CK34" s="23">
         <v>1</v>
       </c>
       <c r="CL34" s="23">
-        <v>16</v>
-      </c>
-      <c r="CM34" s="23"/>
+        <v>12</v>
+      </c>
+      <c r="CM34" s="23">
+        <v>1</v>
+      </c>
       <c r="CN34" s="23"/>
       <c r="CO34" s="23">
         <v>2</v>
@@ -43029,7 +43077,7 @@
       </c>
       <c r="S35" s="23"/>
       <c r="T35" s="23">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="U35" s="23"/>
       <c r="V35" s="23">
@@ -43128,7 +43176,7 @@
       <c r="CG35" s="23"/>
       <c r="CH35" s="23"/>
       <c r="CI35" s="23">
-        <v>152</v>
+        <v>98</v>
       </c>
       <c r="CJ35" s="23"/>
       <c r="CK35" s="23"/>
@@ -43177,7 +43225,7 @@
         <v>3</v>
       </c>
       <c r="T36" s="23">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="U36" s="23"/>
       <c r="V36" s="23"/>
@@ -43256,7 +43304,7 @@
         <v>4</v>
       </c>
       <c r="BW36" s="23">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BX36" s="23"/>
       <c r="BY36" s="23"/>
@@ -43276,7 +43324,7 @@
       <c r="CG36" s="23"/>
       <c r="CH36" s="23"/>
       <c r="CI36" s="23">
-        <v>101</v>
+        <v>48</v>
       </c>
       <c r="CJ36" s="23">
         <v>2</v>
@@ -43331,7 +43379,7 @@
         <v>4</v>
       </c>
       <c r="T37" s="23">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="U37" s="23"/>
       <c r="V37" s="23"/>
@@ -43495,7 +43543,7 @@
         <v>1</v>
       </c>
       <c r="T38" s="23">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="U38" s="23">
         <v>1</v>
@@ -43592,7 +43640,7 @@
         <v>2</v>
       </c>
       <c r="BW38" s="23">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="BX38" s="23">
         <v>1</v>
@@ -43623,7 +43671,7 @@
         <v>4</v>
       </c>
       <c r="CL38" s="23">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="CM38" s="23">
         <v>2</v>
@@ -43770,7 +43818,7 @@
         <v>1</v>
       </c>
       <c r="BW39" s="23">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="BX39" s="23"/>
       <c r="BY39" s="23"/>
@@ -43799,7 +43847,7 @@
         <v>7</v>
       </c>
       <c r="CL39" s="23">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="CM39" s="23">
         <v>16</v>
@@ -44349,7 +44397,7 @@
         <v>2</v>
       </c>
       <c r="CB42" s="23">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="CC42" s="23">
         <v>1</v>
@@ -45026,7 +45074,7 @@
       <c r="AJ47" s="23" t="s">
         <v>516</v>
       </c>
-      <c r="AW47">
+      <c r="AW47" s="36">
         <v>144</v>
       </c>
       <c r="BH47" s="23" t="s">
@@ -45114,28 +45162,28 @@
       <c r="CL49" s="23">
         <v>292</v>
       </c>
-      <c r="CM49">
+      <c r="CM49" s="36">
         <v>108</v>
       </c>
     </row>
     <row r="50" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A50" s="23" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="R50" s="23" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="T50" s="23">
-        <v>573</v>
+        <v>558</v>
       </c>
       <c r="AJ50" s="23" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="AW50" s="23">
         <v>117</v>
       </c>
       <c r="BH50" s="23" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="BW50" s="23">
         <v>180</v>
@@ -45149,13 +45197,13 @@
       <c r="CL50" s="23">
         <v>418</v>
       </c>
-      <c r="CM50">
+      <c r="CM50" s="36">
         <v>104</v>
       </c>
     </row>
     <row r="51" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A51" s="23" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="T51" s="23">
         <v>912</v>
@@ -45175,13 +45223,13 @@
       <c r="CL51" s="23">
         <v>499</v>
       </c>
-      <c r="CM51">
+      <c r="CM51" s="36">
         <v>130</v>
       </c>
     </row>
     <row r="52" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A52" s="23" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="T52" s="23">
         <v>1049</v>
@@ -45201,98 +45249,130 @@
       <c r="CL52" s="23">
         <v>509</v>
       </c>
-      <c r="CM52">
+      <c r="CM52" s="36">
         <v>156</v>
+      </c>
+    </row>
+    <row r="53" spans="1:91" x14ac:dyDescent="0.3">
+      <c r="A53" s="23" t="s">
+        <v>688</v>
+      </c>
+      <c r="T53" s="23">
+        <v>968</v>
+      </c>
+      <c r="AW53" s="23">
+        <v>124</v>
+      </c>
+      <c r="BW53" s="23">
+        <v>569</v>
+      </c>
+      <c r="CB53" s="23">
+        <v>760</v>
+      </c>
+      <c r="CI53" s="23">
+        <v>961</v>
+      </c>
+      <c r="CL53" s="23">
+        <v>1355</v>
+      </c>
+      <c r="CM53" s="36">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="202">
-    <mergeCell ref="CS19:CS20"/>
-    <mergeCell ref="CT19:CT20"/>
-    <mergeCell ref="CL19:CL20"/>
-    <mergeCell ref="CM19:CM20"/>
-    <mergeCell ref="CN19:CN20"/>
-    <mergeCell ref="CO19:CO20"/>
-    <mergeCell ref="CP19:CP20"/>
-    <mergeCell ref="CQ19:CQ20"/>
-    <mergeCell ref="CF19:CF20"/>
-    <mergeCell ref="CG19:CG20"/>
-    <mergeCell ref="CH19:CH20"/>
-    <mergeCell ref="CI19:CI20"/>
-    <mergeCell ref="CJ19:CJ20"/>
-    <mergeCell ref="CK19:CK20"/>
-    <mergeCell ref="BZ19:BZ20"/>
-    <mergeCell ref="CA19:CA20"/>
-    <mergeCell ref="CB19:CB20"/>
-    <mergeCell ref="CC19:CC20"/>
-    <mergeCell ref="CD19:CD20"/>
-    <mergeCell ref="CE19:CE20"/>
-    <mergeCell ref="BT19:BT20"/>
-    <mergeCell ref="BU19:BU20"/>
-    <mergeCell ref="BV19:BV20"/>
-    <mergeCell ref="BW19:BW20"/>
-    <mergeCell ref="BX19:BX20"/>
-    <mergeCell ref="BY19:BY20"/>
-    <mergeCell ref="BN19:BN20"/>
-    <mergeCell ref="BO19:BO20"/>
-    <mergeCell ref="BP19:BP20"/>
-    <mergeCell ref="BQ19:BQ20"/>
-    <mergeCell ref="BR19:BR20"/>
-    <mergeCell ref="BS19:BS20"/>
-    <mergeCell ref="BG19:BG20"/>
-    <mergeCell ref="BI19:BI20"/>
-    <mergeCell ref="BJ19:BJ20"/>
-    <mergeCell ref="BK19:BK20"/>
-    <mergeCell ref="BL19:BL20"/>
-    <mergeCell ref="BM19:BM20"/>
-    <mergeCell ref="BA19:BA20"/>
-    <mergeCell ref="BB19:BB20"/>
-    <mergeCell ref="BC19:BC20"/>
-    <mergeCell ref="BD19:BD20"/>
-    <mergeCell ref="BE19:BE20"/>
-    <mergeCell ref="BF19:BF20"/>
-    <mergeCell ref="AU19:AU20"/>
-    <mergeCell ref="AV19:AV20"/>
-    <mergeCell ref="AW19:AW20"/>
-    <mergeCell ref="AX19:AX20"/>
-    <mergeCell ref="AY19:AY20"/>
-    <mergeCell ref="AZ19:AZ20"/>
-    <mergeCell ref="AO19:AO20"/>
-    <mergeCell ref="AP19:AP20"/>
-    <mergeCell ref="AQ19:AQ20"/>
-    <mergeCell ref="AR19:AR20"/>
-    <mergeCell ref="AS19:AS20"/>
-    <mergeCell ref="AT19:AT20"/>
-    <mergeCell ref="AH19:AH20"/>
-    <mergeCell ref="AI19:AI20"/>
-    <mergeCell ref="AK19:AK20"/>
-    <mergeCell ref="AL19:AL20"/>
-    <mergeCell ref="AM19:AM20"/>
-    <mergeCell ref="AN19:AN20"/>
-    <mergeCell ref="AB19:AB20"/>
-    <mergeCell ref="AC19:AC20"/>
-    <mergeCell ref="AD19:AD20"/>
-    <mergeCell ref="AE19:AE20"/>
-    <mergeCell ref="AF19:AF20"/>
-    <mergeCell ref="AG19:AG20"/>
-    <mergeCell ref="V19:V20"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="X19:X20"/>
-    <mergeCell ref="Y19:Y20"/>
-    <mergeCell ref="Z19:Z20"/>
-    <mergeCell ref="AA19:AA20"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="P19:P20"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="S19:S20"/>
-    <mergeCell ref="T19:T20"/>
-    <mergeCell ref="U19:U20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="BI1:BO1"/>
+    <mergeCell ref="BP1:BW1"/>
+    <mergeCell ref="BX1:CI1"/>
+    <mergeCell ref="CJ1:CP1"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="Y1:AA1"/>
+    <mergeCell ref="AB1:AI1"/>
+    <mergeCell ref="AK1:AN1"/>
+    <mergeCell ref="AO1:AS1"/>
+    <mergeCell ref="AT1:AX1"/>
+    <mergeCell ref="AY1:BG1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="L1:Q1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:X1"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="AA2:AA3"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="Z2:Z3"/>
+    <mergeCell ref="AN2:AN3"/>
+    <mergeCell ref="AO2:AO3"/>
+    <mergeCell ref="AP2:AP3"/>
+    <mergeCell ref="AQ2:AQ3"/>
+    <mergeCell ref="AR2:AR3"/>
+    <mergeCell ref="AS2:AS3"/>
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="AH2:AH3"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="AK2:AK3"/>
+    <mergeCell ref="AL2:AL3"/>
+    <mergeCell ref="AM2:AM3"/>
+    <mergeCell ref="AZ2:AZ3"/>
+    <mergeCell ref="BA2:BA3"/>
+    <mergeCell ref="BB2:BB3"/>
+    <mergeCell ref="BC2:BC3"/>
+    <mergeCell ref="BD2:BD3"/>
+    <mergeCell ref="BE2:BE3"/>
+    <mergeCell ref="AT2:AT3"/>
+    <mergeCell ref="AU2:AU3"/>
+    <mergeCell ref="AV2:AV3"/>
+    <mergeCell ref="AW2:AW3"/>
+    <mergeCell ref="AX2:AX3"/>
+    <mergeCell ref="AY2:AY3"/>
+    <mergeCell ref="BM2:BM3"/>
+    <mergeCell ref="BN2:BN3"/>
+    <mergeCell ref="BO2:BO3"/>
+    <mergeCell ref="BP2:BP3"/>
+    <mergeCell ref="BQ2:BQ3"/>
+    <mergeCell ref="BR2:BR3"/>
+    <mergeCell ref="BF2:BF3"/>
+    <mergeCell ref="BG2:BG3"/>
+    <mergeCell ref="BI2:BI3"/>
+    <mergeCell ref="BJ2:BJ3"/>
+    <mergeCell ref="BK2:BK3"/>
+    <mergeCell ref="BL2:BL3"/>
+    <mergeCell ref="CA2:CA3"/>
+    <mergeCell ref="CB2:CB3"/>
+    <mergeCell ref="CC2:CC3"/>
+    <mergeCell ref="CD2:CD3"/>
+    <mergeCell ref="BS2:BS3"/>
+    <mergeCell ref="BT2:BT3"/>
+    <mergeCell ref="BU2:BU3"/>
+    <mergeCell ref="BV2:BV3"/>
+    <mergeCell ref="BW2:BW3"/>
+    <mergeCell ref="BX2:BX3"/>
     <mergeCell ref="CQ2:CQ3"/>
     <mergeCell ref="CS2:CS3"/>
     <mergeCell ref="CT2:CT3"/>
@@ -45317,98 +45397,92 @@
     <mergeCell ref="CJ2:CJ3"/>
     <mergeCell ref="BY2:BY3"/>
     <mergeCell ref="BZ2:BZ3"/>
-    <mergeCell ref="CA2:CA3"/>
-    <mergeCell ref="CB2:CB3"/>
-    <mergeCell ref="CC2:CC3"/>
-    <mergeCell ref="CD2:CD3"/>
-    <mergeCell ref="BS2:BS3"/>
-    <mergeCell ref="BT2:BT3"/>
-    <mergeCell ref="BU2:BU3"/>
-    <mergeCell ref="BV2:BV3"/>
-    <mergeCell ref="BW2:BW3"/>
-    <mergeCell ref="BX2:BX3"/>
-    <mergeCell ref="BM2:BM3"/>
-    <mergeCell ref="BN2:BN3"/>
-    <mergeCell ref="BO2:BO3"/>
-    <mergeCell ref="BP2:BP3"/>
-    <mergeCell ref="BQ2:BQ3"/>
-    <mergeCell ref="BR2:BR3"/>
-    <mergeCell ref="BF2:BF3"/>
-    <mergeCell ref="BG2:BG3"/>
-    <mergeCell ref="BI2:BI3"/>
-    <mergeCell ref="BJ2:BJ3"/>
-    <mergeCell ref="BK2:BK3"/>
-    <mergeCell ref="BL2:BL3"/>
-    <mergeCell ref="AZ2:AZ3"/>
-    <mergeCell ref="BA2:BA3"/>
-    <mergeCell ref="BB2:BB3"/>
-    <mergeCell ref="BC2:BC3"/>
-    <mergeCell ref="BD2:BD3"/>
-    <mergeCell ref="BE2:BE3"/>
-    <mergeCell ref="AT2:AT3"/>
-    <mergeCell ref="AU2:AU3"/>
-    <mergeCell ref="AV2:AV3"/>
-    <mergeCell ref="AW2:AW3"/>
-    <mergeCell ref="AX2:AX3"/>
-    <mergeCell ref="AY2:AY3"/>
-    <mergeCell ref="AN2:AN3"/>
-    <mergeCell ref="AO2:AO3"/>
-    <mergeCell ref="AP2:AP3"/>
-    <mergeCell ref="AQ2:AQ3"/>
-    <mergeCell ref="AR2:AR3"/>
-    <mergeCell ref="AS2:AS3"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="AK2:AK3"/>
-    <mergeCell ref="AL2:AL3"/>
-    <mergeCell ref="AM2:AM3"/>
-    <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="AF2:AF3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="Z2:Z3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="BI1:BO1"/>
-    <mergeCell ref="BP1:BW1"/>
-    <mergeCell ref="BX1:CI1"/>
-    <mergeCell ref="CJ1:CP1"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="Y1:AA1"/>
-    <mergeCell ref="AB1:AI1"/>
-    <mergeCell ref="AK1:AN1"/>
-    <mergeCell ref="AO1:AS1"/>
-    <mergeCell ref="AT1:AX1"/>
-    <mergeCell ref="AY1:BG1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:K1"/>
-    <mergeCell ref="L1:Q1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:X1"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="S19:S20"/>
+    <mergeCell ref="T19:T20"/>
+    <mergeCell ref="U19:U20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="AB19:AB20"/>
+    <mergeCell ref="AC19:AC20"/>
+    <mergeCell ref="AD19:AD20"/>
+    <mergeCell ref="AE19:AE20"/>
+    <mergeCell ref="AF19:AF20"/>
+    <mergeCell ref="AG19:AG20"/>
+    <mergeCell ref="V19:V20"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="X19:X20"/>
+    <mergeCell ref="Y19:Y20"/>
+    <mergeCell ref="Z19:Z20"/>
+    <mergeCell ref="AA19:AA20"/>
+    <mergeCell ref="AO19:AO20"/>
+    <mergeCell ref="AP19:AP20"/>
+    <mergeCell ref="AQ19:AQ20"/>
+    <mergeCell ref="AR19:AR20"/>
+    <mergeCell ref="AS19:AS20"/>
+    <mergeCell ref="AT19:AT20"/>
+    <mergeCell ref="AH19:AH20"/>
+    <mergeCell ref="AI19:AI20"/>
+    <mergeCell ref="AK19:AK20"/>
+    <mergeCell ref="AL19:AL20"/>
+    <mergeCell ref="AM19:AM20"/>
+    <mergeCell ref="AN19:AN20"/>
+    <mergeCell ref="BA19:BA20"/>
+    <mergeCell ref="BB19:BB20"/>
+    <mergeCell ref="BC19:BC20"/>
+    <mergeCell ref="BD19:BD20"/>
+    <mergeCell ref="BE19:BE20"/>
+    <mergeCell ref="BF19:BF20"/>
+    <mergeCell ref="AU19:AU20"/>
+    <mergeCell ref="AV19:AV20"/>
+    <mergeCell ref="AW19:AW20"/>
+    <mergeCell ref="AX19:AX20"/>
+    <mergeCell ref="AY19:AY20"/>
+    <mergeCell ref="AZ19:AZ20"/>
+    <mergeCell ref="BN19:BN20"/>
+    <mergeCell ref="BO19:BO20"/>
+    <mergeCell ref="BP19:BP20"/>
+    <mergeCell ref="BQ19:BQ20"/>
+    <mergeCell ref="BR19:BR20"/>
+    <mergeCell ref="BS19:BS20"/>
+    <mergeCell ref="BG19:BG20"/>
+    <mergeCell ref="BI19:BI20"/>
+    <mergeCell ref="BJ19:BJ20"/>
+    <mergeCell ref="BK19:BK20"/>
+    <mergeCell ref="BL19:BL20"/>
+    <mergeCell ref="BM19:BM20"/>
+    <mergeCell ref="BZ19:BZ20"/>
+    <mergeCell ref="CA19:CA20"/>
+    <mergeCell ref="CB19:CB20"/>
+    <mergeCell ref="CC19:CC20"/>
+    <mergeCell ref="CD19:CD20"/>
+    <mergeCell ref="CE19:CE20"/>
+    <mergeCell ref="BT19:BT20"/>
+    <mergeCell ref="BU19:BU20"/>
+    <mergeCell ref="BV19:BV20"/>
+    <mergeCell ref="BW19:BW20"/>
+    <mergeCell ref="BX19:BX20"/>
+    <mergeCell ref="BY19:BY20"/>
+    <mergeCell ref="CS19:CS20"/>
+    <mergeCell ref="CT19:CT20"/>
+    <mergeCell ref="CL19:CL20"/>
+    <mergeCell ref="CM19:CM20"/>
+    <mergeCell ref="CN19:CN20"/>
+    <mergeCell ref="CO19:CO20"/>
+    <mergeCell ref="CP19:CP20"/>
+    <mergeCell ref="CQ19:CQ20"/>
+    <mergeCell ref="CF19:CF20"/>
+    <mergeCell ref="CG19:CG20"/>
+    <mergeCell ref="CH19:CH20"/>
+    <mergeCell ref="CI19:CI20"/>
+    <mergeCell ref="CJ19:CJ20"/>
+    <mergeCell ref="CK19:CK20"/>
   </mergeCells>
   <phoneticPr fontId="28" type="noConversion"/>
   <hyperlinks>
@@ -45504,7 +45578,6 @@
     <hyperlink ref="CP2" r:id="rId90" tooltip="2020 coronavirus pandemic in Switzerland" display="https://en.wikipedia.org/wiki/2020_coronavirus_pandemic_in_Switzerland" xr:uid="{462815C5-2624-4107-9D0B-ABF2E94FF41A}"/>
     <hyperlink ref="CQ2" r:id="rId91" tooltip="2020 coronavirus pandemic in Australia" display="https://en.wikipedia.org/wiki/2020_coronavirus_pandemic_in_Australia" xr:uid="{B304F0C0-ED8F-461E-B47D-79220C0A9D89}"/>
     <hyperlink ref="AL6" location="cite_note-MHLW_14Feb-259" display="cite_note-MHLW_14Feb-259" xr:uid="{C8CA2750-422C-4800-9B11-25E4683BC72E}"/>
-    <hyperlink ref="AW8" location="cite_note-CNBC_Iran_first2deaths-103" display="cite_note-CNBC_Iran_first2deaths-103" xr:uid="{353CC5A5-DA75-4DC1-95D9-6A92E84A4D3A}"/>
     <hyperlink ref="AM9" location="cite_note-367" display="cite_note-367" xr:uid="{F3127DE1-928F-46E1-BACB-DE0FEC47EF90}"/>
     <hyperlink ref="CR9" location="cite_note-368" display="cite_note-368" xr:uid="{EAE7C0BF-32D6-4A93-81B9-C2803290C6B7}"/>
     <hyperlink ref="CR12" location="cite_note-369" display="cite_note-369" xr:uid="{E070A87F-109D-4617-9490-913C9F6C855D}"/>
@@ -45617,192 +45690,192 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="33" t="s">
         <v>557</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="35" t="s">
         <v>525</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34" t="s">
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35" t="s">
         <v>520</v>
       </c>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34" t="s">
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35" t="s">
         <v>241</v>
       </c>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34" t="s">
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35" t="s">
         <v>526</v>
       </c>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34" t="s">
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35" t="s">
         <v>527</v>
       </c>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34" t="s">
+      <c r="X1" s="35"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="35" t="s">
         <v>528</v>
       </c>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="34"/>
-      <c r="AG1" s="34"/>
-      <c r="AH1" s="34"/>
-      <c r="AI1" s="34"/>
-      <c r="AJ1" s="34"/>
+      <c r="AC1" s="35"/>
+      <c r="AD1" s="35"/>
+      <c r="AE1" s="35"/>
+      <c r="AF1" s="35"/>
+      <c r="AG1" s="35"/>
+      <c r="AH1" s="35"/>
+      <c r="AI1" s="35"/>
+      <c r="AJ1" s="35"/>
       <c r="AK1" s="12" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A2" s="35"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
-      <c r="V2" s="34"/>
-      <c r="W2" s="34"/>
-      <c r="X2" s="34"/>
-      <c r="Y2" s="34"/>
-      <c r="Z2" s="34"/>
-      <c r="AA2" s="34"/>
-      <c r="AB2" s="34"/>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="34"/>
-      <c r="AE2" s="34"/>
-      <c r="AF2" s="34"/>
-      <c r="AG2" s="34"/>
-      <c r="AH2" s="34"/>
-      <c r="AI2" s="34"/>
-      <c r="AJ2" s="34"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="35"/>
+      <c r="V2" s="35"/>
+      <c r="W2" s="35"/>
+      <c r="X2" s="35"/>
+      <c r="Y2" s="35"/>
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="35"/>
+      <c r="AD2" s="35"/>
+      <c r="AE2" s="35"/>
+      <c r="AF2" s="35"/>
+      <c r="AG2" s="35"/>
+      <c r="AH2" s="35"/>
+      <c r="AI2" s="35"/>
+      <c r="AJ2" s="35"/>
       <c r="AK2" s="2"/>
     </row>
     <row r="3" spans="1:37" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="35"/>
-      <c r="B3" s="33" t="s">
+      <c r="A3" s="33"/>
+      <c r="B3" s="34" t="s">
         <v>521</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="34" t="s">
         <v>529</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="34" t="s">
         <v>522</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="34" t="s">
         <v>530</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="34" t="s">
         <v>531</v>
       </c>
-      <c r="G3" s="33" t="s">
+      <c r="G3" s="34" t="s">
         <v>532</v>
       </c>
-      <c r="H3" s="33" t="s">
+      <c r="H3" s="34" t="s">
         <v>523</v>
       </c>
-      <c r="I3" s="33" t="s">
+      <c r="I3" s="34" t="s">
         <v>533</v>
       </c>
-      <c r="J3" s="33" t="s">
+      <c r="J3" s="34" t="s">
         <v>534</v>
       </c>
-      <c r="K3" s="33" t="s">
+      <c r="K3" s="34" t="s">
         <v>535</v>
       </c>
-      <c r="L3" s="33" t="s">
+      <c r="L3" s="34" t="s">
         <v>536</v>
       </c>
-      <c r="M3" s="33" t="s">
+      <c r="M3" s="34" t="s">
         <v>537</v>
       </c>
-      <c r="N3" s="33" t="s">
+      <c r="N3" s="34" t="s">
         <v>538</v>
       </c>
-      <c r="O3" s="33" t="s">
+      <c r="O3" s="34" t="s">
         <v>539</v>
       </c>
-      <c r="P3" s="33" t="s">
+      <c r="P3" s="34" t="s">
         <v>540</v>
       </c>
-      <c r="Q3" s="33" t="s">
+      <c r="Q3" s="34" t="s">
         <v>541</v>
       </c>
-      <c r="R3" s="33" t="s">
+      <c r="R3" s="34" t="s">
         <v>542</v>
       </c>
       <c r="S3" s="13" t="s">
         <v>543</v>
       </c>
-      <c r="T3" s="33" t="s">
+      <c r="T3" s="34" t="s">
         <v>544</v>
       </c>
-      <c r="U3" s="33" t="s">
+      <c r="U3" s="34" t="s">
         <v>545</v>
       </c>
-      <c r="V3" s="33" t="s">
+      <c r="V3" s="34" t="s">
         <v>546</v>
       </c>
-      <c r="W3" s="33" t="s">
+      <c r="W3" s="34" t="s">
         <v>547</v>
       </c>
-      <c r="X3" s="33" t="s">
+      <c r="X3" s="34" t="s">
         <v>524</v>
       </c>
-      <c r="Y3" s="33" t="s">
+      <c r="Y3" s="34" t="s">
         <v>548</v>
       </c>
-      <c r="Z3" s="33" t="s">
+      <c r="Z3" s="34" t="s">
         <v>549</v>
       </c>
-      <c r="AA3" s="33" t="s">
+      <c r="AA3" s="34" t="s">
         <v>550</v>
       </c>
-      <c r="AB3" s="33" t="s">
+      <c r="AB3" s="34" t="s">
         <v>551</v>
       </c>
-      <c r="AC3" s="33" t="s">
+      <c r="AC3" s="34" t="s">
         <v>552</v>
       </c>
-      <c r="AD3" s="33" t="s">
+      <c r="AD3" s="34" t="s">
         <v>553</v>
       </c>
-      <c r="AE3" s="33" t="s">
+      <c r="AE3" s="34" t="s">
         <v>554</v>
       </c>
-      <c r="AF3" s="33" t="s">
+      <c r="AF3" s="34" t="s">
         <v>555</v>
       </c>
       <c r="AG3" s="13" t="s">
@@ -45822,40 +45895,40 @@
       </c>
     </row>
     <row r="4" spans="1:37" ht="130.80000000000001" x14ac:dyDescent="0.3">
-      <c r="A4" s="35"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="33"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
       <c r="S4" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="T4" s="33"/>
-      <c r="U4" s="33"/>
-      <c r="V4" s="33"/>
-      <c r="W4" s="33"/>
-      <c r="X4" s="33"/>
-      <c r="Y4" s="33"/>
-      <c r="Z4" s="33"/>
-      <c r="AA4" s="33"/>
-      <c r="AB4" s="33"/>
-      <c r="AC4" s="33"/>
-      <c r="AD4" s="33"/>
-      <c r="AE4" s="33"/>
-      <c r="AF4" s="33"/>
+      <c r="T4" s="34"/>
+      <c r="U4" s="34"/>
+      <c r="V4" s="34"/>
+      <c r="W4" s="34"/>
+      <c r="X4" s="34"/>
+      <c r="Y4" s="34"/>
+      <c r="Z4" s="34"/>
+      <c r="AA4" s="34"/>
+      <c r="AB4" s="34"/>
+      <c r="AC4" s="34"/>
+      <c r="AD4" s="34"/>
+      <c r="AE4" s="34"/>
+      <c r="AF4" s="34"/>
       <c r="AG4" s="13" t="s">
         <v>559</v>
       </c>
@@ -50951,31 +51024,6 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="B1:G2"/>
-    <mergeCell ref="H1:N2"/>
-    <mergeCell ref="O1:S2"/>
-    <mergeCell ref="T1:V2"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
     <mergeCell ref="AF3:AF4"/>
     <mergeCell ref="W3:W4"/>
     <mergeCell ref="AI1:AI2"/>
@@ -50992,6 +51040,31 @@
     <mergeCell ref="X3:X4"/>
     <mergeCell ref="Y3:Y4"/>
     <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="B1:G2"/>
+    <mergeCell ref="H1:N2"/>
+    <mergeCell ref="O1:S2"/>
+    <mergeCell ref="T1:V2"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="B3:B4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="Time in China" display="https://en.wikipedia.org/wiki/Time_in_China" xr:uid="{00000000-0004-0000-0300-000000000000}"/>

--- a/myfile.xlsx
+++ b/myfile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\coronavirus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D62CDF-A99F-41F5-BB35-2C26032707A6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A043E68-C580-47AD-9DA2-C00472F8A19C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1812" yWindow="1812" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cases" sheetId="5" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="375">
   <si>
     <t>China</t>
   </si>
@@ -759,9 +759,6 @@
     <t>20.2.25</t>
   </si>
   <si>
-    <t>1[113]</t>
-  </si>
-  <si>
     <t>1[114]</t>
   </si>
   <si>
@@ -828,9 +825,6 @@
     <t>1[132]</t>
   </si>
   <si>
-    <t>1[133]</t>
-  </si>
-  <si>
     <t>1[134]</t>
   </si>
   <si>
@@ -897,9 +891,6 @@
     <t>20.3.04</t>
   </si>
   <si>
-    <t>2[152]</t>
-  </si>
-  <si>
     <t>2[153]</t>
   </si>
   <si>
@@ -912,9 +903,6 @@
     <t>1[155]</t>
   </si>
   <si>
-    <t>4[156]</t>
-  </si>
-  <si>
     <t>1[157]</t>
   </si>
   <si>
@@ -927,9 +915,6 @@
     <t>6[160]</t>
   </si>
   <si>
-    <t>6[161]</t>
-  </si>
-  <si>
     <t>4[162]</t>
   </si>
   <si>
@@ -939,9 +924,6 @@
     <t>1[163]</t>
   </si>
   <si>
-    <t>5[164]</t>
-  </si>
-  <si>
     <t>20.3.08</t>
   </si>
   <si>
@@ -954,36 +936,24 @@
     <t>2[169]</t>
   </si>
   <si>
-    <t>4[170]</t>
-  </si>
-  <si>
     <t>20.3.11</t>
   </si>
   <si>
     <t>2[171]</t>
   </si>
   <si>
-    <t>18[172]</t>
-  </si>
-  <si>
     <t>20.3.12</t>
   </si>
   <si>
     <t>10[173]</t>
   </si>
   <si>
-    <t>24[174]</t>
-  </si>
-  <si>
     <t>20.3.13</t>
   </si>
   <si>
     <t>3[175]</t>
   </si>
   <si>
-    <t>22[176]</t>
-  </si>
-  <si>
     <t>20.3.14</t>
   </si>
   <si>
@@ -1077,9 +1047,6 @@
     <t>3[165]</t>
   </si>
   <si>
-    <t>6[166]</t>
-  </si>
-  <si>
     <t>5[167]</t>
   </si>
   <si>
@@ -1186,6 +1153,9 @@
   </si>
   <si>
     <t>Tests_per1Mpop</t>
+  </si>
+  <si>
+    <t>20.4.07</t>
   </si>
 </sst>
 </file>
@@ -1820,11 +1790,11 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2187,8 +2157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:DA118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CK34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="CV52" sqref="CV52"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E93" sqref="E93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2197,189 +2167,189 @@
       <c r="A1" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24" t="s">
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="P1" s="24"/>
+      <c r="P1" s="25"/>
       <c r="Q1" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="R1" s="24" t="s">
+      <c r="R1" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24" t="s">
+      <c r="S1" s="25"/>
+      <c r="T1" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24" t="s">
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="Y1" s="24"/>
+      <c r="Y1" s="25"/>
       <c r="Z1" s="3" t="s">
         <v>122</v>
       </c>
       <c r="AA1" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="AB1" s="24" t="s">
+      <c r="AB1" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="AC1" s="24"/>
-      <c r="AD1" s="24"/>
-      <c r="AE1" s="24"/>
-      <c r="AF1" s="24"/>
-      <c r="AG1" s="24" t="s">
+      <c r="AC1" s="25"/>
+      <c r="AD1" s="25"/>
+      <c r="AE1" s="25"/>
+      <c r="AF1" s="25"/>
+      <c r="AG1" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="AH1" s="24"/>
-      <c r="AI1" s="24"/>
-      <c r="AJ1" s="24"/>
-      <c r="AK1" s="24"/>
-      <c r="AL1" s="24"/>
-      <c r="AM1" s="24"/>
-      <c r="AN1" s="24"/>
-      <c r="AO1" s="24"/>
-      <c r="AP1" s="24"/>
-      <c r="AQ1" s="24"/>
-      <c r="AR1" s="24" t="s">
+      <c r="AH1" s="25"/>
+      <c r="AI1" s="25"/>
+      <c r="AJ1" s="25"/>
+      <c r="AK1" s="25"/>
+      <c r="AL1" s="25"/>
+      <c r="AM1" s="25"/>
+      <c r="AN1" s="25"/>
+      <c r="AO1" s="25"/>
+      <c r="AP1" s="25"/>
+      <c r="AQ1" s="25"/>
+      <c r="AR1" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="AS1" s="24"/>
-      <c r="AT1" s="24" t="s">
+      <c r="AS1" s="25"/>
+      <c r="AT1" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="AU1" s="24"/>
-      <c r="AV1" s="24"/>
-      <c r="AW1" s="24"/>
-      <c r="AX1" s="24"/>
-      <c r="AY1" s="24" t="s">
+      <c r="AU1" s="25"/>
+      <c r="AV1" s="25"/>
+      <c r="AW1" s="25"/>
+      <c r="AX1" s="25"/>
+      <c r="AY1" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="AZ1" s="24"/>
-      <c r="BA1" s="24"/>
-      <c r="BB1" s="24"/>
-      <c r="BC1" s="24"/>
-      <c r="BD1" s="24"/>
-      <c r="BE1" s="24"/>
-      <c r="BF1" s="24"/>
-      <c r="BG1" s="24"/>
-      <c r="BH1" s="24"/>
-      <c r="BI1" s="24"/>
-      <c r="BJ1" s="24"/>
-      <c r="BK1" s="24"/>
-      <c r="BL1" s="24"/>
+      <c r="AZ1" s="25"/>
+      <c r="BA1" s="25"/>
+      <c r="BB1" s="25"/>
+      <c r="BC1" s="25"/>
+      <c r="BD1" s="25"/>
+      <c r="BE1" s="25"/>
+      <c r="BF1" s="25"/>
+      <c r="BG1" s="25"/>
+      <c r="BH1" s="25"/>
+      <c r="BI1" s="25"/>
+      <c r="BJ1" s="25"/>
+      <c r="BK1" s="25"/>
+      <c r="BL1" s="25"/>
       <c r="BM1" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="BN1" s="24" t="s">
+      <c r="BN1" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="BO1" s="24"/>
-      <c r="BP1" s="24"/>
-      <c r="BQ1" s="24"/>
-      <c r="BR1" s="24"/>
-      <c r="BS1" s="24"/>
-      <c r="BT1" s="24"/>
-      <c r="BU1" s="24"/>
-      <c r="BV1" s="24"/>
-      <c r="BW1" s="24"/>
-      <c r="BX1" s="24"/>
-      <c r="BY1" s="24" t="s">
+      <c r="BO1" s="25"/>
+      <c r="BP1" s="25"/>
+      <c r="BQ1" s="25"/>
+      <c r="BR1" s="25"/>
+      <c r="BS1" s="25"/>
+      <c r="BT1" s="25"/>
+      <c r="BU1" s="25"/>
+      <c r="BV1" s="25"/>
+      <c r="BW1" s="25"/>
+      <c r="BX1" s="25"/>
+      <c r="BY1" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="BZ1" s="24"/>
-      <c r="CA1" s="24"/>
-      <c r="CB1" s="24"/>
-      <c r="CC1" s="24"/>
-      <c r="CD1" s="24"/>
-      <c r="CE1" s="24"/>
-      <c r="CF1" s="24"/>
-      <c r="CG1" s="24"/>
-      <c r="CH1" s="24" t="s">
+      <c r="BZ1" s="25"/>
+      <c r="CA1" s="25"/>
+      <c r="CB1" s="25"/>
+      <c r="CC1" s="25"/>
+      <c r="CD1" s="25"/>
+      <c r="CE1" s="25"/>
+      <c r="CF1" s="25"/>
+      <c r="CG1" s="25"/>
+      <c r="CH1" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="CI1" s="24"/>
-      <c r="CJ1" s="24"/>
-      <c r="CK1" s="24"/>
-      <c r="CL1" s="24"/>
-      <c r="CM1" s="24"/>
-      <c r="CN1" s="24"/>
-      <c r="CO1" s="24"/>
-      <c r="CP1" s="24"/>
-      <c r="CQ1" s="24"/>
-      <c r="CR1" s="24" t="s">
+      <c r="CI1" s="25"/>
+      <c r="CJ1" s="25"/>
+      <c r="CK1" s="25"/>
+      <c r="CL1" s="25"/>
+      <c r="CM1" s="25"/>
+      <c r="CN1" s="25"/>
+      <c r="CO1" s="25"/>
+      <c r="CP1" s="25"/>
+      <c r="CQ1" s="25"/>
+      <c r="CR1" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="CS1" s="24"/>
-      <c r="CT1" s="24"/>
-      <c r="CU1" s="24"/>
-      <c r="CV1" s="24"/>
-      <c r="CW1" s="24"/>
-      <c r="CX1" s="24"/>
-      <c r="CY1" s="24"/>
+      <c r="CS1" s="25"/>
+      <c r="CT1" s="25"/>
+      <c r="CU1" s="25"/>
+      <c r="CV1" s="25"/>
+      <c r="CW1" s="25"/>
+      <c r="CX1" s="25"/>
+      <c r="CY1" s="25"/>
       <c r="CZ1" s="3" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
     </row>
     <row r="2" spans="1:105" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="J2" s="25" t="s">
+      <c r="J2" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="K2" s="25" t="s">
+      <c r="K2" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="L2" s="25" t="s">
+      <c r="L2" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="M2" s="25" t="s">
+      <c r="M2" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="N2" s="25" t="s">
+      <c r="N2" s="24" t="s">
         <v>105</v>
       </c>
       <c r="O2" s="4" t="s">
@@ -2388,148 +2358,148 @@
       <c r="P2" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="Q2" s="25" t="s">
+      <c r="Q2" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="R2" s="25" t="s">
+      <c r="R2" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="S2" s="25" t="s">
+      <c r="S2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="T2" s="25" t="s">
+      <c r="T2" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="U2" s="25" t="s">
+      <c r="U2" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="V2" s="25" t="s">
+      <c r="V2" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="W2" s="25" t="s">
+      <c r="W2" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="X2" s="25" t="s">
+      <c r="X2" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="Y2" s="25" t="s">
+      <c r="Y2" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="Z2" s="25" t="s">
+      <c r="Z2" s="24" t="s">
         <v>33</v>
       </c>
       <c r="AA2" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="AB2" s="25" t="s">
+      <c r="AB2" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="AC2" s="25" t="s">
+      <c r="AC2" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="AD2" s="25" t="s">
+      <c r="AD2" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="AE2" s="25" t="s">
+      <c r="AE2" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="AF2" s="25" t="s">
+      <c r="AF2" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="AG2" s="25" t="s">
+      <c r="AG2" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="AH2" s="25" t="s">
+      <c r="AH2" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="AI2" s="25" t="s">
+      <c r="AI2" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="AJ2" s="25" t="s">
+      <c r="AJ2" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="AK2" s="25" t="s">
+      <c r="AK2" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="AL2" s="25" t="s">
+      <c r="AL2" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="AM2" s="25" t="s">
+      <c r="AM2" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="AN2" s="25" t="s">
+      <c r="AN2" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="AO2" s="25" t="s">
-        <v>353</v>
-      </c>
-      <c r="AP2" s="25" t="s">
+      <c r="AO2" s="24" t="s">
+        <v>342</v>
+      </c>
+      <c r="AP2" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="AQ2" s="25" t="s">
+      <c r="AQ2" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="AR2" s="25" t="s">
+      <c r="AR2" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="AS2" s="25" t="s">
+      <c r="AS2" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="AT2" s="25" t="s">
+      <c r="AT2" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="AU2" s="25" t="s">
+      <c r="AU2" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="AV2" s="25" t="s">
+      <c r="AV2" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="AW2" s="25" t="s">
+      <c r="AW2" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="AX2" s="25" t="s">
+      <c r="AX2" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="AY2" s="25" t="s">
+      <c r="AY2" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="AZ2" s="25" t="s">
+      <c r="AZ2" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="BA2" s="25" t="s">
+      <c r="BA2" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="BB2" s="25" t="s">
+      <c r="BB2" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="BC2" s="25" t="s">
+      <c r="BC2" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="BD2" s="25" t="s">
+      <c r="BD2" s="24" t="s">
         <v>51</v>
       </c>
       <c r="BE2" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="BF2" s="25" t="s">
+      <c r="BF2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="BG2" s="25" t="s">
+      <c r="BG2" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="BH2" s="25" t="s">
+      <c r="BH2" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="BI2" s="25" t="s">
+      <c r="BI2" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="BJ2" s="25" t="s">
+      <c r="BJ2" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="BK2" s="25" t="s">
+      <c r="BK2" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="BL2" s="25" t="s">
+      <c r="BL2" s="24" t="s">
         <v>15</v>
       </c>
       <c r="BM2" s="3" t="s">
@@ -2538,119 +2508,119 @@
       <c r="BN2" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="BO2" s="25" t="s">
+      <c r="BO2" s="24" t="s">
         <v>34</v>
       </c>
       <c r="BP2" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="BQ2" s="25" t="s">
+      <c r="BQ2" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="BR2" s="25" t="s">
+      <c r="BR2" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="BS2" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="BT2" s="25" t="s">
+      <c r="BS2" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="BT2" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="BU2" s="25" t="s">
+      <c r="BU2" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="BV2" s="25" t="s">
+      <c r="BV2" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="BW2" s="25" t="s">
+      <c r="BW2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="BX2" s="25" t="s">
+      <c r="BX2" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="BY2" s="25" t="s">
+      <c r="BY2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="BZ2" s="25" t="s">
+      <c r="BZ2" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="CA2" s="25" t="s">
+      <c r="CA2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="CB2" s="25" t="s">
+      <c r="CB2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="CC2" s="25" t="s">
+      <c r="CC2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="CD2" s="25" t="s">
+      <c r="CD2" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="CE2" s="25" t="s">
+      <c r="CE2" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="CF2" s="25" t="s">
+      <c r="CF2" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="CG2" s="25" t="s">
+      <c r="CG2" s="24" t="s">
         <v>7</v>
       </c>
       <c r="CH2" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="CI2" s="25" t="s">
+        <v>369</v>
+      </c>
+      <c r="CI2" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="CJ2" s="25" t="s">
+      <c r="CJ2" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="CK2" s="25" t="s">
+      <c r="CK2" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="CL2" s="25" t="s">
+      <c r="CL2" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="CM2" s="25" t="s">
+      <c r="CM2" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="CN2" s="25" t="s">
+      <c r="CN2" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="CO2" s="25" t="s">
+      <c r="CO2" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="CP2" s="25" t="s">
+      <c r="CP2" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="CQ2" s="25" t="s">
+      <c r="CQ2" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="CR2" s="25" t="s">
+      <c r="CR2" s="24" t="s">
         <v>27</v>
       </c>
       <c r="CS2" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="CT2" s="25" t="s">
+      <c r="CT2" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="CU2" s="25" t="s">
+      <c r="CU2" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="CV2" s="25" t="s">
+      <c r="CV2" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="CW2" s="25" t="s">
+      <c r="CW2" s="24" t="s">
         <v>68</v>
       </c>
       <c r="CX2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="CY2" s="25" t="s">
+      <c r="CY2" s="24" t="s">
         <v>31</v>
       </c>
       <c r="CZ2" s="5" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="DA2" t="s">
         <v>147</v>
@@ -2658,127 +2628,127 @@
     </row>
     <row r="3" spans="1:105" ht="87.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
       <c r="O3" s="4" t="s">
         <v>133</v>
       </c>
       <c r="P3" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="25"/>
-      <c r="S3" s="25"/>
-      <c r="T3" s="25"/>
-      <c r="U3" s="25"/>
-      <c r="V3" s="25"/>
-      <c r="W3" s="25"/>
-      <c r="X3" s="25"/>
-      <c r="Y3" s="25"/>
-      <c r="Z3" s="25"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="24"/>
+      <c r="T3" s="24"/>
+      <c r="U3" s="24"/>
+      <c r="V3" s="24"/>
+      <c r="W3" s="24"/>
+      <c r="X3" s="24"/>
+      <c r="Y3" s="24"/>
+      <c r="Z3" s="24"/>
       <c r="AA3" s="3"/>
-      <c r="AB3" s="25"/>
-      <c r="AC3" s="25"/>
-      <c r="AD3" s="25"/>
-      <c r="AE3" s="25"/>
-      <c r="AF3" s="25"/>
-      <c r="AG3" s="25"/>
-      <c r="AH3" s="25"/>
-      <c r="AI3" s="25"/>
-      <c r="AJ3" s="25"/>
-      <c r="AK3" s="25"/>
-      <c r="AL3" s="25"/>
-      <c r="AM3" s="25"/>
-      <c r="AN3" s="25"/>
-      <c r="AO3" s="25"/>
-      <c r="AP3" s="25"/>
-      <c r="AQ3" s="25"/>
-      <c r="AR3" s="25"/>
-      <c r="AS3" s="25"/>
-      <c r="AT3" s="25"/>
-      <c r="AU3" s="25"/>
-      <c r="AV3" s="25"/>
-      <c r="AW3" s="25"/>
-      <c r="AX3" s="25"/>
-      <c r="AY3" s="25"/>
-      <c r="AZ3" s="25"/>
-      <c r="BA3" s="25"/>
-      <c r="BB3" s="25"/>
-      <c r="BC3" s="25"/>
-      <c r="BD3" s="25"/>
+      <c r="AB3" s="24"/>
+      <c r="AC3" s="24"/>
+      <c r="AD3" s="24"/>
+      <c r="AE3" s="24"/>
+      <c r="AF3" s="24"/>
+      <c r="AG3" s="24"/>
+      <c r="AH3" s="24"/>
+      <c r="AI3" s="24"/>
+      <c r="AJ3" s="24"/>
+      <c r="AK3" s="24"/>
+      <c r="AL3" s="24"/>
+      <c r="AM3" s="24"/>
+      <c r="AN3" s="24"/>
+      <c r="AO3" s="24"/>
+      <c r="AP3" s="24"/>
+      <c r="AQ3" s="24"/>
+      <c r="AR3" s="24"/>
+      <c r="AS3" s="24"/>
+      <c r="AT3" s="24"/>
+      <c r="AU3" s="24"/>
+      <c r="AV3" s="24"/>
+      <c r="AW3" s="24"/>
+      <c r="AX3" s="24"/>
+      <c r="AY3" s="24"/>
+      <c r="AZ3" s="24"/>
+      <c r="BA3" s="24"/>
+      <c r="BB3" s="24"/>
+      <c r="BC3" s="24"/>
+      <c r="BD3" s="24"/>
       <c r="BE3" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="BF3" s="25"/>
-      <c r="BG3" s="25"/>
-      <c r="BH3" s="25"/>
-      <c r="BI3" s="25"/>
-      <c r="BJ3" s="25"/>
-      <c r="BK3" s="25"/>
-      <c r="BL3" s="25"/>
+      <c r="BF3" s="24"/>
+      <c r="BG3" s="24"/>
+      <c r="BH3" s="24"/>
+      <c r="BI3" s="24"/>
+      <c r="BJ3" s="24"/>
+      <c r="BK3" s="24"/>
+      <c r="BL3" s="24"/>
       <c r="BM3" s="3"/>
       <c r="BN3" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="BO3" s="25"/>
+      <c r="BO3" s="24"/>
       <c r="BP3" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="BQ3" s="25"/>
-      <c r="BR3" s="25"/>
-      <c r="BS3" s="25"/>
-      <c r="BT3" s="25"/>
-      <c r="BU3" s="25"/>
-      <c r="BV3" s="25"/>
-      <c r="BW3" s="25"/>
-      <c r="BX3" s="25"/>
-      <c r="BY3" s="25"/>
-      <c r="BZ3" s="25"/>
-      <c r="CA3" s="25"/>
-      <c r="CB3" s="25"/>
-      <c r="CC3" s="25"/>
-      <c r="CD3" s="25"/>
-      <c r="CE3" s="25"/>
-      <c r="CF3" s="25"/>
-      <c r="CG3" s="25"/>
+      <c r="BQ3" s="24"/>
+      <c r="BR3" s="24"/>
+      <c r="BS3" s="24"/>
+      <c r="BT3" s="24"/>
+      <c r="BU3" s="24"/>
+      <c r="BV3" s="24"/>
+      <c r="BW3" s="24"/>
+      <c r="BX3" s="24"/>
+      <c r="BY3" s="24"/>
+      <c r="BZ3" s="24"/>
+      <c r="CA3" s="24"/>
+      <c r="CB3" s="24"/>
+      <c r="CC3" s="24"/>
+      <c r="CD3" s="24"/>
+      <c r="CE3" s="24"/>
+      <c r="CF3" s="24"/>
+      <c r="CG3" s="24"/>
       <c r="CH3" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="CI3" s="25"/>
-      <c r="CJ3" s="25"/>
-      <c r="CK3" s="25"/>
-      <c r="CL3" s="25"/>
-      <c r="CM3" s="25"/>
-      <c r="CN3" s="25"/>
-      <c r="CO3" s="25"/>
-      <c r="CP3" s="25"/>
-      <c r="CQ3" s="25"/>
-      <c r="CR3" s="25"/>
+      <c r="CI3" s="24"/>
+      <c r="CJ3" s="24"/>
+      <c r="CK3" s="24"/>
+      <c r="CL3" s="24"/>
+      <c r="CM3" s="24"/>
+      <c r="CN3" s="24"/>
+      <c r="CO3" s="24"/>
+      <c r="CP3" s="24"/>
+      <c r="CQ3" s="24"/>
+      <c r="CR3" s="24"/>
       <c r="CS3" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="CT3" s="25"/>
-      <c r="CU3" s="25"/>
-      <c r="CV3" s="25"/>
-      <c r="CW3" s="25"/>
+      <c r="CT3" s="24"/>
+      <c r="CU3" s="24"/>
+      <c r="CV3" s="24"/>
+      <c r="CW3" s="24"/>
       <c r="CX3" s="14"/>
-      <c r="CY3" s="25"/>
+      <c r="CY3" s="24"/>
       <c r="CZ3" s="5"/>
     </row>
     <row r="4" spans="1:105" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
@@ -2890,7 +2860,7 @@
     </row>
     <row r="5" spans="1:105" ht="24" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
@@ -3008,7 +2978,7 @@
     </row>
     <row r="6" spans="1:105" ht="24" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
@@ -5503,7 +5473,7 @@
       <c r="BC25" s="2"/>
       <c r="BD25" s="2"/>
       <c r="BE25" s="1" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="BF25" s="2"/>
       <c r="BG25" s="2"/>
@@ -5613,7 +5583,7 @@
         <v>3</v>
       </c>
       <c r="AG26" s="1" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="AH26" s="2"/>
       <c r="AI26" s="2"/>
@@ -5745,7 +5715,7 @@
       </c>
       <c r="AF27" s="2"/>
       <c r="AG27" s="1" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="AH27" s="2"/>
       <c r="AI27" s="2"/>
@@ -8683,7 +8653,6 @@
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
@@ -8833,8 +8802,8 @@
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
-      <c r="E50" s="1" t="s">
-        <v>242</v>
+      <c r="E50" s="2">
+        <v>1</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
@@ -8854,7 +8823,7 @@
       </c>
       <c r="T50" s="2"/>
       <c r="U50" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="V50" s="2"/>
       <c r="W50" s="2"/>
@@ -8932,7 +8901,7 @@
       <c r="BO50" s="2"/>
       <c r="BP50" s="2"/>
       <c r="BQ50" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="BR50" s="2"/>
       <c r="BS50" s="2">
@@ -8950,10 +8919,10 @@
       </c>
       <c r="BZ50" s="2"/>
       <c r="CA50" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="CB50" s="1" t="s">
         <v>245</v>
-      </c>
-      <c r="CB50" s="1" t="s">
-        <v>246</v>
       </c>
       <c r="CC50" s="2">
         <v>2</v>
@@ -8996,7 +8965,7 @@
     </row>
     <row r="51" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -9026,7 +8995,7 @@
       <c r="Y51" s="2"/>
       <c r="Z51" s="2"/>
       <c r="AA51" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AB51" s="2">
         <v>6</v>
@@ -9088,14 +9057,14 @@
       </c>
       <c r="BL51" s="2"/>
       <c r="BM51" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="BN51" s="2"/>
       <c r="BO51" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="BP51" s="1" t="s">
         <v>248</v>
-      </c>
-      <c r="BP51" s="1" t="s">
-        <v>249</v>
       </c>
       <c r="BQ51" s="2">
         <v>2</v>
@@ -9133,7 +9102,7 @@
         <v>1</v>
       </c>
       <c r="CN51" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="CO51" s="2"/>
       <c r="CP51" s="2"/>
@@ -9142,7 +9111,7 @@
       <c r="CS51" s="2"/>
       <c r="CT51" s="2"/>
       <c r="CU51" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="CV51" s="2">
         <v>0</v>
@@ -9162,7 +9131,7 @@
     </row>
     <row r="52" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -9194,7 +9163,7 @@
       <c r="Y52" s="2"/>
       <c r="Z52" s="2"/>
       <c r="AA52" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AB52" s="2">
         <v>2</v>
@@ -9240,7 +9209,7 @@
       </c>
       <c r="BD52" s="2"/>
       <c r="BE52" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="BF52" s="2">
         <v>106</v>
@@ -9256,7 +9225,7 @@
         <v>1</v>
       </c>
       <c r="BM52" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="BN52" s="2"/>
       <c r="BO52" s="2">
@@ -9265,7 +9234,7 @@
       <c r="BP52" s="2"/>
       <c r="BQ52" s="2"/>
       <c r="BR52" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="BS52" s="2">
         <v>185</v>
@@ -9282,7 +9251,7 @@
       </c>
       <c r="BZ52" s="2"/>
       <c r="CA52" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="CB52" s="2">
         <v>1</v>
@@ -9294,7 +9263,7 @@
       <c r="CE52" s="2"/>
       <c r="CF52" s="2"/>
       <c r="CG52" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="CH52" s="2">
         <v>3</v>
@@ -9305,14 +9274,14 @@
         <v>3</v>
       </c>
       <c r="CL52" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="CM52" s="2">
         <v>5</v>
       </c>
       <c r="CN52" s="2"/>
       <c r="CO52" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="CP52" s="2"/>
       <c r="CQ52" s="2"/>
@@ -9338,12 +9307,11 @@
     </row>
     <row r="53" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
@@ -9356,7 +9324,7 @@
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
       <c r="Q53" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="R53" s="2">
         <v>4</v>
@@ -9372,7 +9340,7 @@
       <c r="Y53" s="2"/>
       <c r="Z53" s="2"/>
       <c r="AA53" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AB53" s="2">
         <v>1</v>
@@ -9426,7 +9394,7 @@
         <v>5</v>
       </c>
       <c r="BE53" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="BF53" s="2">
         <v>143</v>
@@ -9444,7 +9412,7 @@
         <v>4</v>
       </c>
       <c r="BM53" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BN53" s="2"/>
       <c r="BO53" s="2">
@@ -9482,7 +9450,7 @@
       <c r="CE53" s="2"/>
       <c r="CF53" s="2"/>
       <c r="CG53" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="CH53" s="2">
         <v>4</v>
@@ -9532,15 +9500,15 @@
     </row>
     <row r="54" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
+      </c>
+      <c r="E54" s="2">
+        <v>1</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
@@ -9554,7 +9522,7 @@
       <c r="O54" s="2"/>
       <c r="P54" s="2"/>
       <c r="Q54" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="R54" s="2">
         <v>5</v>
@@ -9570,7 +9538,7 @@
       <c r="Y54" s="2"/>
       <c r="Z54" s="2"/>
       <c r="AA54" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AB54" s="2">
         <v>1</v>
@@ -9640,7 +9608,7 @@
       <c r="BK54" s="2"/>
       <c r="BL54" s="2"/>
       <c r="BM54" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="BN54" s="2"/>
       <c r="BO54" s="2">
@@ -9673,12 +9641,12 @@
         <v>5</v>
       </c>
       <c r="CD54" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="CE54" s="2"/>
       <c r="CF54" s="2"/>
       <c r="CG54" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="CH54" s="2">
         <v>3</v>
@@ -9726,7 +9694,7 @@
     </row>
     <row r="55" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -9744,10 +9712,10 @@
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="P55" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="Q55" s="2">
         <v>1</v>
@@ -9768,7 +9736,7 @@
       <c r="Y55" s="2"/>
       <c r="Z55" s="2"/>
       <c r="AA55" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AB55" s="2">
         <v>5</v>
@@ -9832,7 +9800,7 @@
         <v>3</v>
       </c>
       <c r="BM55" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="BN55" s="2"/>
       <c r="BO55" s="2"/>
@@ -9894,7 +9862,7 @@
       <c r="CQ55" s="2"/>
       <c r="CR55" s="2"/>
       <c r="CS55" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="CT55" s="2"/>
       <c r="CU55" s="2"/>
@@ -9916,7 +9884,7 @@
     </row>
     <row r="56" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -9938,7 +9906,7 @@
         <v>15</v>
       </c>
       <c r="S56" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="T56" s="2">
         <v>19</v>
@@ -9947,18 +9915,18 @@
         <v>2</v>
       </c>
       <c r="V56" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="W56" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="X56" s="2"/>
       <c r="Y56" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="Z56" s="2"/>
       <c r="AA56" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AB56" s="2">
         <v>1</v>
@@ -10034,7 +10002,7 @@
         <v>2</v>
       </c>
       <c r="BM56" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="BN56" s="2"/>
       <c r="BO56" s="2"/>
@@ -10046,14 +10014,14 @@
       </c>
       <c r="BT56" s="2"/>
       <c r="BU56" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="BV56" s="2"/>
       <c r="BW56" s="2">
         <v>36</v>
       </c>
       <c r="BX56" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="BY56" s="2">
         <v>61</v>
@@ -10122,13 +10090,13 @@
     </row>
     <row r="57" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D57" s="2">
         <v>5</v>
@@ -10150,7 +10118,7 @@
         <v>28</v>
       </c>
       <c r="S57" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="T57" s="2"/>
       <c r="U57" s="2">
@@ -10162,7 +10130,7 @@
       <c r="Y57" s="2"/>
       <c r="Z57" s="2"/>
       <c r="AA57" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="AB57" s="2"/>
       <c r="AC57" s="2"/>
@@ -10232,7 +10200,7 @@
       <c r="BK57" s="2"/>
       <c r="BL57" s="2"/>
       <c r="BM57" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="BN57" s="2"/>
       <c r="BO57" s="2"/>
@@ -10243,10 +10211,10 @@
         <v>466</v>
       </c>
       <c r="BT57" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="BU57" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="BV57" s="2"/>
       <c r="BW57" s="2">
@@ -10268,7 +10236,7 @@
       </c>
       <c r="CD57" s="2"/>
       <c r="CE57" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="CF57" s="2">
         <v>5</v>
@@ -10296,7 +10264,7 @@
       </c>
       <c r="CN57" s="2"/>
       <c r="CO57" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="CP57" s="2"/>
       <c r="CQ57" s="2"/>
@@ -10328,7 +10296,7 @@
     </row>
     <row r="58" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="2">
@@ -10337,8 +10305,8 @@
       <c r="D58" s="2">
         <v>3</v>
       </c>
-      <c r="E58" s="1" t="s">
-        <v>288</v>
+      <c r="E58" s="2">
+        <v>1</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
@@ -10370,7 +10338,7 @@
       </c>
       <c r="Z58" s="2"/>
       <c r="AA58" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="AB58" s="2">
         <v>4</v>
@@ -10442,7 +10410,7 @@
         <v>3</v>
       </c>
       <c r="BM58" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="BN58" s="2"/>
       <c r="BO58" s="2">
@@ -10456,10 +10424,10 @@
       </c>
       <c r="BT58" s="2"/>
       <c r="BU58" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="BV58" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="BW58" s="2">
         <v>63</v>
@@ -10542,17 +10510,17 @@
     </row>
     <row r="59" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C59" s="2">
         <v>1</v>
       </c>
       <c r="D59" s="2"/>
-      <c r="E59" s="1" t="s">
-        <v>293</v>
+      <c r="E59" s="2">
+        <v>5</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
@@ -10581,10 +10549,10 @@
       <c r="X59" s="2"/>
       <c r="Y59" s="2"/>
       <c r="Z59" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="AA59" s="2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="AB59" s="2"/>
       <c r="AC59" s="2"/>
@@ -10640,7 +10608,7 @@
       </c>
       <c r="BB59" s="2"/>
       <c r="BC59" s="1" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="BD59" s="2">
         <v>3</v>
@@ -10660,10 +10628,10 @@
         <v>2</v>
       </c>
       <c r="BM59" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="BN59" s="1" t="s">
         <v>291</v>
-      </c>
-      <c r="BN59" s="1" t="s">
-        <v>295</v>
       </c>
       <c r="BO59" s="2">
         <v>23</v>
@@ -10758,17 +10726,17 @@
     </row>
     <row r="60" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C60" s="2">
         <v>1</v>
       </c>
       <c r="D60" s="2"/>
-      <c r="E60" s="1" t="s">
-        <v>298</v>
+      <c r="E60" s="2">
+        <v>5</v>
       </c>
       <c r="F60" s="2">
         <v>1</v>
@@ -10806,7 +10774,7 @@
       <c r="Y60" s="2"/>
       <c r="Z60" s="2"/>
       <c r="AA60" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="AB60" s="2">
         <v>3</v>
@@ -10878,7 +10846,7 @@
         <v>4</v>
       </c>
       <c r="BM60" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="BN60" s="2"/>
       <c r="BO60" s="2">
@@ -10949,7 +10917,7 @@
       <c r="CP60" s="2"/>
       <c r="CQ60" s="2"/>
       <c r="CR60" s="1" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="CS60" s="2">
         <v>7</v>
@@ -10978,17 +10946,17 @@
     </row>
     <row r="61" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C61" s="2">
         <v>2</v>
       </c>
       <c r="D61" s="2"/>
-      <c r="E61" s="1" t="s">
-        <v>302</v>
+      <c r="E61" s="2">
+        <v>6</v>
       </c>
       <c r="F61" s="2">
         <v>5</v>
@@ -11026,7 +10994,7 @@
         <v>1</v>
       </c>
       <c r="AA61" s="2" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="AB61" s="2">
         <v>2</v>
@@ -11106,7 +11074,7 @@
         <v>4</v>
       </c>
       <c r="BM61" s="2" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="BN61" s="2"/>
       <c r="BO61" s="2">
@@ -11204,10 +11172,10 @@
     </row>
     <row r="62" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="C62" s="2">
         <v>3</v>
@@ -11215,8 +11183,8 @@
       <c r="D62" s="2">
         <v>1</v>
       </c>
-      <c r="E62" s="1" t="s">
-        <v>348</v>
+      <c r="E62" s="2">
+        <v>6</v>
       </c>
       <c r="F62" s="2">
         <v>1</v>
@@ -11252,7 +11220,7 @@
         <v>1</v>
       </c>
       <c r="AA62" s="2" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="AB62" s="2">
         <v>5</v>
@@ -11324,7 +11292,7 @@
         <v>14</v>
       </c>
       <c r="BM62" s="2" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="BN62" s="2"/>
       <c r="BO62" s="2">
@@ -11422,18 +11390,16 @@
     </row>
     <row r="63" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="C63" s="2">
         <v>3</v>
       </c>
       <c r="D63" s="2"/>
-      <c r="E63" s="2">
-        <v>5</v>
-      </c>
+      <c r="E63" s="2"/>
       <c r="F63" s="2">
         <v>2</v>
       </c>
@@ -11472,7 +11438,7 @@
         <v>4</v>
       </c>
       <c r="AA63" s="2" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="AB63" s="2">
         <v>1</v>
@@ -11532,7 +11498,7 @@
         <v>3</v>
       </c>
       <c r="BC63" s="1" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="BD63" s="2">
         <v>24</v>
@@ -11554,7 +11520,7 @@
         <v>11</v>
       </c>
       <c r="BM63" s="2" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="BN63" s="2"/>
       <c r="BO63" s="2">
@@ -11652,10 +11618,10 @@
     </row>
     <row r="64" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C64" s="2">
         <v>4</v>
@@ -11663,8 +11629,8 @@
       <c r="D64" s="2">
         <v>2</v>
       </c>
-      <c r="E64" s="1" t="s">
-        <v>307</v>
+      <c r="E64" s="2">
+        <v>9</v>
       </c>
       <c r="F64" s="2">
         <v>2</v>
@@ -11704,7 +11670,7 @@
       </c>
       <c r="Z64" s="2"/>
       <c r="AA64" s="2" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="AB64" s="2">
         <v>5</v>
@@ -11788,7 +11754,7 @@
         <v>20</v>
       </c>
       <c r="BM64" s="2" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="BN64" s="2"/>
       <c r="BO64" s="2">
@@ -11882,17 +11848,17 @@
     </row>
     <row r="65" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="C65" s="2">
         <v>6</v>
       </c>
       <c r="D65" s="2"/>
-      <c r="E65" s="1" t="s">
-        <v>310</v>
+      <c r="E65" s="2">
+        <v>18</v>
       </c>
       <c r="F65" s="2">
         <v>4</v>
@@ -11932,7 +11898,7 @@
         <v>6</v>
       </c>
       <c r="AA65" s="2" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="AB65" s="2">
         <v>9</v>
@@ -12012,7 +11978,7 @@
         <v>12</v>
       </c>
       <c r="BM65" s="2" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="BN65" s="2"/>
       <c r="BO65" s="2">
@@ -12110,17 +12076,17 @@
     </row>
     <row r="66" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="C66" s="2">
         <v>11</v>
       </c>
       <c r="D66" s="2"/>
-      <c r="E66" s="1" t="s">
-        <v>313</v>
+      <c r="E66" s="2">
+        <v>25</v>
       </c>
       <c r="F66" s="2">
         <v>7</v>
@@ -12168,7 +12134,7 @@
         <v>3</v>
       </c>
       <c r="AA66" s="2" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="AB66" s="2">
         <v>2</v>
@@ -12252,7 +12218,7 @@
         <v>27</v>
       </c>
       <c r="BM66" s="2" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="BN66" s="2"/>
       <c r="BO66" s="2">
@@ -12352,10 +12318,10 @@
     </row>
     <row r="67" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="C67" s="2">
         <v>9</v>
@@ -12363,8 +12329,8 @@
       <c r="D67" s="2">
         <v>6</v>
       </c>
-      <c r="E67" s="1" t="s">
-        <v>316</v>
+      <c r="E67" s="2">
+        <v>74</v>
       </c>
       <c r="F67" s="2">
         <v>16</v>
@@ -12418,7 +12384,7 @@
         <v>8</v>
       </c>
       <c r="AA67" s="2" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="AB67" s="2">
         <v>6</v>
@@ -12502,7 +12468,7 @@
         <v>34</v>
       </c>
       <c r="BM67" s="2" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="BN67" s="2"/>
       <c r="BO67" s="2">
@@ -12598,10 +12564,10 @@
     </row>
     <row r="68" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="C68" s="2">
         <v>18</v>
@@ -12610,7 +12576,7 @@
         <v>5</v>
       </c>
       <c r="E68" s="2">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="F68" s="2">
         <v>5</v>
@@ -12656,7 +12622,7 @@
         <v>14</v>
       </c>
       <c r="AA68" s="2" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="AB68" s="2">
         <v>4</v>
@@ -12688,7 +12654,7 @@
         <v>47</v>
       </c>
       <c r="AM68" s="1" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="AN68" s="2">
         <v>3</v>
@@ -12744,7 +12710,7 @@
         <v>50</v>
       </c>
       <c r="BM68" s="2" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="BN68" s="2"/>
       <c r="BO68" s="2">
@@ -12840,7 +12806,7 @@
     </row>
     <row r="69" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="B69" s="2">
         <v>11</v>
@@ -12852,7 +12818,7 @@
         <v>9</v>
       </c>
       <c r="E69" s="2">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="F69" s="2">
         <v>28</v>
@@ -12904,7 +12870,7 @@
         <v>13</v>
       </c>
       <c r="AA69" s="2" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="AB69" s="2">
         <v>7</v>
@@ -12940,7 +12906,7 @@
         <v>29</v>
       </c>
       <c r="AM69" s="1" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="AN69" s="2">
         <v>10</v>
@@ -12998,7 +12964,7 @@
         <v>20</v>
       </c>
       <c r="BM69" s="2" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="BN69" s="2"/>
       <c r="BO69" s="2">
@@ -13092,7 +13058,7 @@
     </row>
     <row r="70" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="B70" s="2">
         <v>9</v>
@@ -13154,7 +13120,7 @@
         <v>11</v>
       </c>
       <c r="AA70" s="2" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="AB70" s="2">
         <v>9</v>
@@ -13188,7 +13154,7 @@
         <v>2</v>
       </c>
       <c r="AM70" s="1" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="AN70" s="2">
         <v>4</v>
@@ -13242,7 +13208,7 @@
         <v>85</v>
       </c>
       <c r="BM70" s="2" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="BN70" s="2"/>
       <c r="BO70" s="2">
@@ -13344,7 +13310,7 @@
     </row>
     <row r="71" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="B71" s="2">
         <v>14</v>
@@ -13356,7 +13322,7 @@
         <v>53</v>
       </c>
       <c r="E71" s="2">
-        <v>57</v>
+        <v>112</v>
       </c>
       <c r="F71" s="2">
         <v>31</v>
@@ -13408,7 +13374,7 @@
         <v>23</v>
       </c>
       <c r="AA71" s="2" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="AB71" s="2">
         <v>10</v>
@@ -13444,7 +13410,7 @@
         <v>45</v>
       </c>
       <c r="AM71" s="1" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="AN71" s="2">
         <v>2</v>
@@ -13498,7 +13464,7 @@
         <v>39</v>
       </c>
       <c r="BM71" s="2" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="BN71" s="2"/>
       <c r="BO71" s="2">
@@ -13598,7 +13564,7 @@
     </row>
     <row r="72" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="B72" s="2">
         <v>19</v>
@@ -13610,7 +13576,7 @@
         <v>44</v>
       </c>
       <c r="E72" s="2">
-        <v>137</v>
+        <v>183</v>
       </c>
       <c r="F72" s="2">
         <v>28</v>
@@ -13658,7 +13624,7 @@
         <v>31</v>
       </c>
       <c r="AA72" s="2" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="AB72" s="2">
         <v>25</v>
@@ -13694,7 +13660,7 @@
         <v>15</v>
       </c>
       <c r="AM72" s="1" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="AN72" s="2">
         <v>12</v>
@@ -13750,7 +13716,7 @@
         <v>96</v>
       </c>
       <c r="BM72" s="2" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="BN72" s="2"/>
       <c r="BO72" s="2">
@@ -13792,7 +13758,7 @@
         <v>243</v>
       </c>
       <c r="CG72" s="1" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="CH72" s="2">
         <v>676</v>
@@ -13852,7 +13818,7 @@
     </row>
     <row r="73" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="B73" s="2">
         <v>31</v>
@@ -13864,7 +13830,7 @@
         <v>105</v>
       </c>
       <c r="E73" s="2">
-        <v>193</v>
+        <v>111</v>
       </c>
       <c r="F73" s="2">
         <v>89</v>
@@ -13920,7 +13886,7 @@
         <v>34</v>
       </c>
       <c r="AA73" s="2" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="AB73" s="2">
         <v>16</v>
@@ -13956,7 +13922,7 @@
         <v>15</v>
       </c>
       <c r="AM73" s="1" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="AN73" s="2">
         <v>5</v>
@@ -14014,7 +13980,7 @@
         <v>244</v>
       </c>
       <c r="BM73" s="2" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="BN73" s="2"/>
       <c r="BO73" s="2">
@@ -14114,7 +14080,7 @@
     </row>
     <row r="74" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="B74" s="2">
         <v>30</v>
@@ -14126,7 +14092,7 @@
         <v>107</v>
       </c>
       <c r="E74" s="2">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="F74" s="2">
         <v>29</v>
@@ -14182,7 +14148,7 @@
         <v>52</v>
       </c>
       <c r="AA74" s="2" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="AB74" s="2">
         <v>48</v>
@@ -14216,7 +14182,7 @@
         <v>13</v>
       </c>
       <c r="AM74" s="1" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="AN74" s="2">
         <v>5</v>
@@ -14270,7 +14236,7 @@
         <v>28</v>
       </c>
       <c r="BM74" s="2" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="BN74" s="2"/>
       <c r="BO74" s="2"/>
@@ -14368,7 +14334,7 @@
     </row>
     <row r="75" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="B75" s="2">
         <v>67</v>
@@ -14380,7 +14346,7 @@
         <v>165</v>
       </c>
       <c r="E75" s="2">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="F75" s="2">
         <v>55</v>
@@ -14438,7 +14404,7 @@
         <v>38</v>
       </c>
       <c r="AA75" s="2" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="AB75" s="2">
         <v>17</v>
@@ -14474,7 +14440,7 @@
         <v>77</v>
       </c>
       <c r="AM75" s="1" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="AN75" s="2">
         <v>5</v>
@@ -14532,7 +14498,7 @@
         <v>178</v>
       </c>
       <c r="BM75" s="2" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="BN75" s="2"/>
       <c r="BO75" s="2"/>
@@ -14630,7 +14596,7 @@
     </row>
     <row r="76" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="B76" s="2">
         <v>41</v>
@@ -14698,7 +14664,7 @@
         <v>34</v>
       </c>
       <c r="AA76" s="2" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="AB76" s="2">
         <v>44</v>
@@ -14734,7 +14700,7 @@
         <v>73</v>
       </c>
       <c r="AM76" s="1" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="AN76" s="2">
         <v>5</v>
@@ -14794,7 +14760,7 @@
         <v>188</v>
       </c>
       <c r="BM76" s="2" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="BN76" s="2"/>
       <c r="BO76" s="2"/>
@@ -14874,7 +14840,7 @@
     </row>
     <row r="77" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="B77" s="2">
         <v>36</v>
@@ -14886,7 +14852,7 @@
         <v>192</v>
       </c>
       <c r="E77" s="2">
-        <v>345</v>
+        <v>378</v>
       </c>
       <c r="F77" s="2">
         <v>34</v>
@@ -14944,7 +14910,7 @@
         <v>128</v>
       </c>
       <c r="AA77" s="2" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="AB77" s="2">
         <v>39</v>
@@ -15050,7 +15016,7 @@
         <v>371</v>
       </c>
       <c r="BM77" s="2" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="BN77" s="2"/>
       <c r="BO77" s="2">
@@ -15156,7 +15122,7 @@
     </row>
     <row r="78" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="B78" s="2">
         <v>86</v>
@@ -15168,7 +15134,7 @@
         <v>101</v>
       </c>
       <c r="E78" s="2">
-        <v>310</v>
+        <v>323</v>
       </c>
       <c r="F78" s="2">
         <v>21</v>
@@ -15226,7 +15192,7 @@
         <v>152</v>
       </c>
       <c r="AA78" s="2" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="AB78" s="2">
         <v>30</v>
@@ -15334,7 +15300,7 @@
         <v>488</v>
       </c>
       <c r="BM78" s="2" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="BN78" s="2">
         <v>17</v>
@@ -15446,7 +15412,7 @@
     </row>
     <row r="79" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="B79" s="2">
         <v>117</v>
@@ -15458,7 +15424,7 @@
         <v>129</v>
       </c>
       <c r="E79" s="2">
-        <v>232</v>
+        <v>307</v>
       </c>
       <c r="F79" s="2">
         <v>64</v>
@@ -15516,7 +15482,7 @@
         <v>155</v>
       </c>
       <c r="AA79" s="2" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="AB79" s="2">
         <v>24</v>
@@ -15624,7 +15590,7 @@
         <v>439</v>
       </c>
       <c r="BM79" s="2" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="BN79" s="2">
         <v>24</v>
@@ -15744,7 +15710,7 @@
     </row>
     <row r="80" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="B80" s="2">
         <v>87</v>
@@ -15756,7 +15722,7 @@
         <v>192</v>
       </c>
       <c r="E80" s="2">
-        <v>482</v>
+        <v>431</v>
       </c>
       <c r="F80" s="2">
         <v>49</v>
@@ -15814,7 +15780,7 @@
         <v>218</v>
       </c>
       <c r="AA80" s="2" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="AB80" s="2">
         <v>43</v>
@@ -15850,7 +15816,7 @@
         <v>71</v>
       </c>
       <c r="AM80" s="1" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="AN80" s="2">
         <v>5</v>
@@ -15918,7 +15884,7 @@
         <v>324</v>
       </c>
       <c r="BM80" s="2" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="BN80" s="2">
         <v>15</v>
@@ -16037,7 +16003,7 @@
     </row>
     <row r="81" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="B81" s="2">
         <v>101</v>
@@ -16049,7 +16015,7 @@
         <v>224</v>
       </c>
       <c r="E81" s="2">
-        <v>502</v>
+        <v>432</v>
       </c>
       <c r="F81" s="2">
         <v>106</v>
@@ -16107,7 +16073,7 @@
         <v>243</v>
       </c>
       <c r="AA81" s="2" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="AB81" s="2">
         <v>65</v>
@@ -16217,7 +16183,7 @@
         <v>342</v>
       </c>
       <c r="BM81" s="2" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="BN81" s="2">
         <v>46</v>
@@ -16339,7 +16305,7 @@
     </row>
     <row r="82" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="B82" s="2">
         <v>55</v>
@@ -16405,7 +16371,7 @@
         <v>17</v>
       </c>
       <c r="AA82" s="2" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="AB82" s="2">
         <v>42</v>
@@ -16499,7 +16465,7 @@
         <v>584</v>
       </c>
       <c r="BM82" s="2" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="BN82" s="2">
         <v>41</v>
@@ -16618,7 +16584,7 @@
     </row>
     <row r="83" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" s="2">
@@ -16664,7 +16630,7 @@
         <v>93</v>
       </c>
       <c r="AA83" s="2" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="AB83" s="2">
         <v>59</v>
@@ -16766,7 +16732,7 @@
         <v>628</v>
       </c>
       <c r="BM83" s="2" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="BN83" s="2">
         <v>45</v>
@@ -16883,7 +16849,7 @@
     </row>
     <row r="84" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" s="2">
@@ -16933,7 +16899,7 @@
         <v>46</v>
       </c>
       <c r="AA84" s="2" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="AB84" s="2">
         <v>41</v>
@@ -17025,7 +16991,7 @@
         <v>448</v>
       </c>
       <c r="BM84" s="2" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="BN84" s="2">
         <v>45</v>
@@ -17137,7 +17103,10 @@
     </row>
     <row r="85" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>366</v>
+        <v>355</v>
+      </c>
+      <c r="E85" s="2">
+        <v>1087</v>
       </c>
       <c r="R85" s="2">
         <v>24742</v>
@@ -17186,7 +17155,10 @@
     </row>
     <row r="86" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>367</v>
+        <v>356</v>
+      </c>
+      <c r="E86" s="2">
+        <v>1163</v>
       </c>
       <c r="R86" s="2">
         <v>26473</v>
@@ -17235,7 +17207,10 @@
     </row>
     <row r="87" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>368</v>
+        <v>357</v>
+      </c>
+      <c r="E87" s="2">
+        <v>1164</v>
       </c>
       <c r="R87" s="2">
         <v>29874</v>
@@ -17285,7 +17260,10 @@
     </row>
     <row r="88" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>371</v>
+        <v>360</v>
+      </c>
+      <c r="E88" s="2">
+        <v>1150</v>
       </c>
       <c r="R88" s="2">
         <v>32284</v>
@@ -17335,7 +17313,10 @@
     </row>
     <row r="89" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>375</v>
+        <v>364</v>
+      </c>
+      <c r="E89" s="2">
+        <v>1166</v>
       </c>
       <c r="R89" s="2">
         <v>34196</v>
@@ -17381,7 +17362,10 @@
     </row>
     <row r="90" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>376</v>
+        <v>365</v>
+      </c>
+      <c r="E90" s="2">
+        <v>894</v>
       </c>
       <c r="R90" s="2">
         <v>25316</v>
@@ -17427,7 +17411,10 @@
     </row>
     <row r="91" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>377</v>
+        <v>366</v>
+      </c>
+      <c r="E91" s="2">
+        <v>929</v>
       </c>
       <c r="R91" s="2">
         <v>30331</v>
@@ -17472,9 +17459,53 @@
       </c>
     </row>
     <row r="92" spans="1:105" x14ac:dyDescent="0.3">
-      <c r="A92" s="2"/>
+      <c r="A92" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="E92" s="2">
+        <v>1851</v>
+      </c>
+      <c r="R92" s="2">
+        <v>33331</v>
+      </c>
+      <c r="AR92" s="2">
+        <v>93</v>
+      </c>
+      <c r="AU92" s="2">
+        <v>573</v>
+      </c>
+      <c r="BF92" s="2">
+        <v>2089</v>
+      </c>
       <c r="BM92" s="2"/>
+      <c r="BS92" s="2">
+        <v>3039</v>
+      </c>
+      <c r="BW92" s="2">
+        <v>5267</v>
+      </c>
+      <c r="BY92" s="2">
+        <v>11059</v>
+      </c>
+      <c r="CC92" s="2">
+        <v>4288</v>
+      </c>
       <c r="CD92" s="2"/>
+      <c r="CH92" s="2">
+        <v>3634</v>
+      </c>
+      <c r="CK92" s="2">
+        <v>221</v>
+      </c>
+      <c r="CM92" s="2">
+        <v>487</v>
+      </c>
+      <c r="CV92">
+        <v>161</v>
+      </c>
+      <c r="DA92">
+        <v>84915</v>
+      </c>
     </row>
     <row r="93" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A93" s="2"/>
@@ -17579,64 +17610,30 @@
     </row>
   </sheetData>
   <mergeCells count="106">
-    <mergeCell ref="BV2:BV3"/>
-    <mergeCell ref="BW2:BW3"/>
-    <mergeCell ref="BX2:BX3"/>
-    <mergeCell ref="BY2:BY3"/>
-    <mergeCell ref="BO2:BO3"/>
-    <mergeCell ref="BQ2:BQ3"/>
-    <mergeCell ref="BR2:BR3"/>
-    <mergeCell ref="CN2:CN3"/>
-    <mergeCell ref="CG2:CG3"/>
-    <mergeCell ref="CI2:CI3"/>
-    <mergeCell ref="CJ2:CJ3"/>
-    <mergeCell ref="CK2:CK3"/>
-    <mergeCell ref="CM2:CM3"/>
-    <mergeCell ref="BZ2:BZ3"/>
-    <mergeCell ref="CA2:CA3"/>
-    <mergeCell ref="CB2:CB3"/>
-    <mergeCell ref="CC2:CC3"/>
-    <mergeCell ref="CD2:CD3"/>
-    <mergeCell ref="CE2:CE3"/>
-    <mergeCell ref="BS2:BS3"/>
-    <mergeCell ref="BT2:BT3"/>
-    <mergeCell ref="BG2:BG3"/>
-    <mergeCell ref="BH2:BH3"/>
-    <mergeCell ref="BI2:BI3"/>
-    <mergeCell ref="BJ2:BJ3"/>
-    <mergeCell ref="BK2:BK3"/>
-    <mergeCell ref="BL2:BL3"/>
-    <mergeCell ref="AX2:AX3"/>
-    <mergeCell ref="AY2:AY3"/>
-    <mergeCell ref="BB2:BB3"/>
-    <mergeCell ref="BD2:BD3"/>
-    <mergeCell ref="BF2:BF3"/>
-    <mergeCell ref="AQ2:AQ3"/>
-    <mergeCell ref="AS2:AS3"/>
-    <mergeCell ref="AT2:AT3"/>
-    <mergeCell ref="AU2:AU3"/>
-    <mergeCell ref="AV2:AV3"/>
-    <mergeCell ref="AW2:AW3"/>
-    <mergeCell ref="AK2:AK3"/>
-    <mergeCell ref="AL2:AL3"/>
-    <mergeCell ref="AM2:AM3"/>
-    <mergeCell ref="AN2:AN3"/>
-    <mergeCell ref="AO2:AO3"/>
-    <mergeCell ref="AP2:AP3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="AF2:AF3"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="AJ2:AJ3"/>
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="Z2:Z3"/>
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="CR1:CY1"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="AR2:AR3"/>
+    <mergeCell ref="AZ2:AZ3"/>
+    <mergeCell ref="BA2:BA3"/>
+    <mergeCell ref="BC2:BC3"/>
+    <mergeCell ref="BU2:BU3"/>
+    <mergeCell ref="CF2:CF3"/>
+    <mergeCell ref="CL2:CL3"/>
+    <mergeCell ref="CO2:CO3"/>
+    <mergeCell ref="CP2:CP3"/>
+    <mergeCell ref="CQ2:CQ3"/>
+    <mergeCell ref="CR2:CR3"/>
+    <mergeCell ref="CT2:CT3"/>
+    <mergeCell ref="CU2:CU3"/>
+    <mergeCell ref="CV2:CV3"/>
+    <mergeCell ref="CW2:CW3"/>
+    <mergeCell ref="CY2:CY3"/>
+    <mergeCell ref="AB1:AF1"/>
+    <mergeCell ref="AG1:AQ1"/>
+    <mergeCell ref="AR1:AS1"/>
+    <mergeCell ref="AT1:AX1"/>
     <mergeCell ref="AY1:BL1"/>
     <mergeCell ref="BN1:BX1"/>
     <mergeCell ref="BY1:CG1"/>
@@ -17661,30 +17658,64 @@
     <mergeCell ref="X2:X3"/>
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="N2:N3"/>
-    <mergeCell ref="CR1:CY1"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="AR2:AR3"/>
-    <mergeCell ref="AZ2:AZ3"/>
-    <mergeCell ref="BA2:BA3"/>
-    <mergeCell ref="BC2:BC3"/>
-    <mergeCell ref="BU2:BU3"/>
-    <mergeCell ref="CF2:CF3"/>
-    <mergeCell ref="CL2:CL3"/>
-    <mergeCell ref="CO2:CO3"/>
-    <mergeCell ref="CP2:CP3"/>
-    <mergeCell ref="CQ2:CQ3"/>
-    <mergeCell ref="CR2:CR3"/>
-    <mergeCell ref="CT2:CT3"/>
-    <mergeCell ref="CU2:CU3"/>
-    <mergeCell ref="CV2:CV3"/>
-    <mergeCell ref="CW2:CW3"/>
-    <mergeCell ref="CY2:CY3"/>
-    <mergeCell ref="AB1:AF1"/>
-    <mergeCell ref="AG1:AQ1"/>
-    <mergeCell ref="AR1:AS1"/>
-    <mergeCell ref="AT1:AX1"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="AH2:AH3"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="AJ2:AJ3"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="Z2:Z3"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="AQ2:AQ3"/>
+    <mergeCell ref="AS2:AS3"/>
+    <mergeCell ref="AT2:AT3"/>
+    <mergeCell ref="AU2:AU3"/>
+    <mergeCell ref="AV2:AV3"/>
+    <mergeCell ref="AW2:AW3"/>
+    <mergeCell ref="AK2:AK3"/>
+    <mergeCell ref="AL2:AL3"/>
+    <mergeCell ref="AM2:AM3"/>
+    <mergeCell ref="AN2:AN3"/>
+    <mergeCell ref="AO2:AO3"/>
+    <mergeCell ref="AP2:AP3"/>
+    <mergeCell ref="BG2:BG3"/>
+    <mergeCell ref="BH2:BH3"/>
+    <mergeCell ref="BI2:BI3"/>
+    <mergeCell ref="BJ2:BJ3"/>
+    <mergeCell ref="BK2:BK3"/>
+    <mergeCell ref="BL2:BL3"/>
+    <mergeCell ref="AX2:AX3"/>
+    <mergeCell ref="AY2:AY3"/>
+    <mergeCell ref="BB2:BB3"/>
+    <mergeCell ref="BD2:BD3"/>
+    <mergeCell ref="BF2:BF3"/>
+    <mergeCell ref="BV2:BV3"/>
+    <mergeCell ref="BW2:BW3"/>
+    <mergeCell ref="BX2:BX3"/>
+    <mergeCell ref="BY2:BY3"/>
+    <mergeCell ref="BO2:BO3"/>
+    <mergeCell ref="BQ2:BQ3"/>
+    <mergeCell ref="BR2:BR3"/>
+    <mergeCell ref="CN2:CN3"/>
+    <mergeCell ref="CG2:CG3"/>
+    <mergeCell ref="CI2:CI3"/>
+    <mergeCell ref="CJ2:CJ3"/>
+    <mergeCell ref="CK2:CK3"/>
+    <mergeCell ref="CM2:CM3"/>
+    <mergeCell ref="BZ2:BZ3"/>
+    <mergeCell ref="CA2:CA3"/>
+    <mergeCell ref="CB2:CB3"/>
+    <mergeCell ref="CC2:CC3"/>
+    <mergeCell ref="CD2:CD3"/>
+    <mergeCell ref="CE2:CE3"/>
+    <mergeCell ref="BS2:BS3"/>
+    <mergeCell ref="BT2:BT3"/>
   </mergeCells>
   <phoneticPr fontId="26" type="noConversion"/>
   <hyperlinks>
@@ -17847,7 +17878,6 @@
     <hyperlink ref="BE46" location="cite_note-107" display="cite_note-107" xr:uid="{38328736-0407-48A5-B6B4-418FFD4B64EA}"/>
     <hyperlink ref="BE47" location="cite_note-108" display="cite_note-108" xr:uid="{AC498C2B-E2CF-48AB-8885-B5E5B0E3A6DB}"/>
     <hyperlink ref="BC49" location="cite_note-111" display="cite_note-111" xr:uid="{540D3E30-EB46-4252-9364-E11AA57CF35F}"/>
-    <hyperlink ref="E50" location="cite_note-113" display="cite_note-113" xr:uid="{61152D31-2431-4EDF-8546-9C5AA8243254}"/>
     <hyperlink ref="U50" location="cite_note-114" display="cite_note-114" xr:uid="{BA337D3A-11E0-460A-A5C5-DEB0327F443D}"/>
     <hyperlink ref="BQ50" location="cite_note-115" display="cite_note-115" xr:uid="{53AE3B15-CEF6-4680-8589-FD727F888E94}"/>
     <hyperlink ref="CA50" location="cite_note-116" display="cite_note-116" xr:uid="{0BA35893-5606-4108-BAA5-1B24A6D48D47}"/>
@@ -17865,7 +17895,6 @@
     <hyperlink ref="BE53" location="cite_note-130" display="cite_note-130" xr:uid="{FB68A7B0-229E-44C5-9AA9-B1B25D5ABC3D}"/>
     <hyperlink ref="CG53" location="cite_note-131" display="cite_note-131" xr:uid="{FA8782A2-B6F3-48E0-952B-02910064B049}"/>
     <hyperlink ref="D54" location="cite_note-:7-132" display="cite_note-:7-132" xr:uid="{4A5F9FCB-4892-4F4E-BCC9-17EFDB8C20C3}"/>
-    <hyperlink ref="E54" location="cite_note-133" display="cite_note-133" xr:uid="{79E67117-9095-46ED-9194-E10FADA2A256}"/>
     <hyperlink ref="Q54" location="cite_note-:6-134" display="cite_note-:6-134" xr:uid="{2FB53566-6F3E-449C-A123-12FDD9ADB778}"/>
     <hyperlink ref="CD54" location="cite_note-135" display="cite_note-135" xr:uid="{C29F9E47-55E8-4217-8083-D3AAECC74525}"/>
     <hyperlink ref="CG54" location="cite_note-:2-136" display="cite_note-:2-136" xr:uid="{D44E72BC-94B3-44FE-9917-180CC101D359}"/>
@@ -17885,31 +17914,22 @@
     <hyperlink ref="BU57" location="cite_note-149" display="cite_note-149" xr:uid="{87FFF06D-19F4-47D6-9CB9-B70470DB7DE3}"/>
     <hyperlink ref="CE57" location="cite_note-150" display="cite_note-150" xr:uid="{5746D7AB-C685-4B3B-A6DB-DFBB89973508}"/>
     <hyperlink ref="CO57" location="cite_note-151" display="cite_note-151" xr:uid="{DBFD8871-D964-4305-A7A9-ACA754EB6D23}"/>
-    <hyperlink ref="E58" location="cite_note-152" display="cite_note-152" xr:uid="{A73B5782-503C-45E5-8D82-B4F3EB4695C2}"/>
     <hyperlink ref="BU58" location="cite_note-153" display="cite_note-153" xr:uid="{31D7AD46-4669-4810-9B0B-04ADD67F329D}"/>
     <hyperlink ref="BV58" location="cite_note-154" display="cite_note-154" xr:uid="{321AC134-464A-4277-8390-8372DA381033}"/>
     <hyperlink ref="B59" location="cite_note-155" display="cite_note-155" xr:uid="{218DB306-69D7-4B3D-BF13-257FDDD152F9}"/>
-    <hyperlink ref="E59" location="cite_note-156" display="cite_note-156" xr:uid="{6A492B55-7136-4A65-A0C5-088DDB0A1FB4}"/>
     <hyperlink ref="Z59" location="cite_note-157" display="cite_note-157" xr:uid="{CCF4A3C9-4324-449D-A3A3-A94713F1D15E}"/>
     <hyperlink ref="BC59" location="cite_note-158" display="cite_note-158" xr:uid="{388D1F58-6F38-43F3-B167-6F02C068EB0B}"/>
     <hyperlink ref="BN59" location="cite_note-159" display="cite_note-159" xr:uid="{532553AB-D559-47FE-BB76-51446B8A8C55}"/>
     <hyperlink ref="B60" location="cite_note-160" display="cite_note-160" xr:uid="{A98FDB67-6A96-4DE2-94A7-702EEB03D67C}"/>
-    <hyperlink ref="E60" location="cite_note-161" display="cite_note-161" xr:uid="{41E71BE2-DBC4-4C99-858D-2FCA2F02BA29}"/>
     <hyperlink ref="CR60" location="cite_note-TVN24_6Mar_4new-162" display="cite_note-TVN24_6Mar_4new-162" xr:uid="{9F22B304-6C9D-42E3-AA25-2A1D06743C0F}"/>
     <hyperlink ref="B61" location="cite_note-163" display="cite_note-163" xr:uid="{BA8F8A4D-656E-4582-A7CB-5519EAA882DF}"/>
-    <hyperlink ref="E61" location="cite_note-164" display="cite_note-164" xr:uid="{E2C6FE69-F772-4AF7-A8EB-C0E979980BBA}"/>
     <hyperlink ref="B62" location="cite_note-165" display="cite_note-165" xr:uid="{0EF61A2B-237B-4542-8521-911DBA3FAE54}"/>
-    <hyperlink ref="E62" location="cite_note-166" display="cite_note-166" xr:uid="{4653F5E6-6C98-425C-9479-717091707053}"/>
     <hyperlink ref="B63" location="cite_note-167" display="cite_note-167" xr:uid="{B3A34C7F-9801-4A36-A6D0-16A911681277}"/>
     <hyperlink ref="BC63" location="cite_note-168" display="cite_note-168" xr:uid="{809F4023-AA91-4D57-AB9B-6ADCA6EEC462}"/>
     <hyperlink ref="B64" location="cite_note-169" display="cite_note-169" xr:uid="{3928C776-EAE6-4902-889E-FF7F19DCC23B}"/>
-    <hyperlink ref="E64" location="cite_note-170" display="cite_note-170" xr:uid="{C60808A1-19CD-43C4-9CB7-0E23523A2E48}"/>
     <hyperlink ref="B65" location="cite_note-171" display="cite_note-171" xr:uid="{C6079CFB-9EAF-4A63-8769-B8D4CD057739}"/>
-    <hyperlink ref="E65" location="cite_note-172" display="cite_note-172" xr:uid="{33CC15DD-9639-4287-9C8C-617F6972C9A9}"/>
     <hyperlink ref="B66" location="cite_note-173" display="cite_note-173" xr:uid="{51F00296-3CF0-4240-B624-234C9DF1EB66}"/>
-    <hyperlink ref="E66" location="cite_note-174" display="cite_note-174" xr:uid="{7FE4DE70-55F8-410F-9E15-D378EDCB94D0}"/>
     <hyperlink ref="B67" location="cite_note-175" display="cite_note-175" xr:uid="{3C00B7DC-B071-4490-A25A-3994C6FAD081}"/>
-    <hyperlink ref="E67" location="cite_note-176" display="cite_note-176" xr:uid="{9110E133-CF21-4102-B538-9CB01F641823}"/>
     <hyperlink ref="B68" location="cite_note-177" display="cite_note-177" xr:uid="{419CCCB9-9309-4FD6-A11B-D1383AEF785C}"/>
     <hyperlink ref="AM68" location="cite_note-178" display="cite_note-178" xr:uid="{41B9A281-C70C-401F-8BF2-72337AE74149}"/>
     <hyperlink ref="AM69" location="cite_note-179" display="cite_note-179" xr:uid="{601CA20E-D79D-4F41-AFAE-31DEFF9D2F7D}"/>
@@ -17948,19 +17968,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="B1" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="C1" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="D1" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="E1" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -18084,7 +18104,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="B9">
         <v>1111</v>
@@ -18118,7 +18138,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="B11">
         <v>760</v>
@@ -18177,10 +18197,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F0720B9-F1C1-4E88-8345-0A7B8577FCEF}">
-  <dimension ref="A1:CS81"/>
+  <dimension ref="A1:CS82"/>
   <sheetViews>
-    <sheetView topLeftCell="BJ1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="BO9" sqref="BO9"/>
+    <sheetView topLeftCell="CM74" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="CU82" sqref="CU82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18190,11 +18210,11 @@
         <v>114</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="C1" s="26"/>
       <c r="D1" s="26" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="E1" s="26"/>
       <c r="F1" s="26"/>
@@ -18325,499 +18345,499 @@
         <v>125</v>
       </c>
       <c r="CS1" s="9" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
     </row>
     <row r="2" spans="1:97" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="E2" s="25" t="s">
-        <v>356</v>
-      </c>
-      <c r="F2" s="25" t="s">
+      <c r="E2" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="F2" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="J2" s="25" t="s">
+      <c r="J2" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="K2" s="25" t="s">
+      <c r="K2" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="L2" s="25" t="s">
+      <c r="L2" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="M2" s="25" t="s">
-        <v>357</v>
-      </c>
-      <c r="N2" s="25" t="s">
+      <c r="M2" s="24" t="s">
+        <v>346</v>
+      </c>
+      <c r="N2" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="O2" s="25" t="s">
+      <c r="O2" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="P2" s="25" t="s">
+      <c r="P2" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="Q2" s="25" t="s">
+      <c r="Q2" s="24" t="s">
         <v>94</v>
       </c>
       <c r="R2" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="S2" s="25" t="s">
+      <c r="S2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="T2" s="25" t="s">
+      <c r="T2" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="U2" s="25" t="s">
+      <c r="U2" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="V2" s="25" t="s">
+      <c r="V2" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="W2" s="25" t="s">
+      <c r="W2" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="X2" s="25" t="s">
+      <c r="X2" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="Y2" s="25" t="s">
+      <c r="Y2" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="Z2" s="25" t="s">
+      <c r="Z2" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="AA2" s="25" t="s">
+      <c r="AA2" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="AB2" s="25" t="s">
+      <c r="AB2" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="AC2" s="25" t="s">
+      <c r="AC2" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="AD2" s="25" t="s">
+      <c r="AD2" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="AE2" s="25" t="s">
+      <c r="AE2" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="AF2" s="25" t="s">
+      <c r="AF2" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="AG2" s="25" t="s">
+      <c r="AG2" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="AH2" s="25" t="s">
+      <c r="AH2" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="AI2" s="25" t="s">
+      <c r="AI2" s="24" t="s">
         <v>43</v>
       </c>
       <c r="AJ2" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="AK2" s="25" t="s">
+      <c r="AK2" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="AL2" s="25" t="s">
+      <c r="AL2" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="AM2" s="25" t="s">
+      <c r="AM2" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="AN2" s="25" t="s">
+      <c r="AN2" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="AO2" s="25" t="s">
+      <c r="AO2" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="AP2" s="25" t="s">
+      <c r="AP2" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="AQ2" s="25" t="s">
+      <c r="AQ2" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="AR2" s="25" t="s">
+      <c r="AR2" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="AS2" s="25" t="s">
+      <c r="AS2" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="AT2" s="25" t="s">
+      <c r="AT2" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="AU2" s="25" t="s">
+      <c r="AU2" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="AV2" s="25" t="s">
+      <c r="AV2" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="AW2" s="25" t="s">
+      <c r="AW2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="AX2" s="25" t="s">
+      <c r="AX2" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="AY2" s="25" t="s">
+      <c r="AY2" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="AZ2" s="25" t="s">
+      <c r="AZ2" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="BA2" s="25" t="s">
+      <c r="BA2" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="BB2" s="25" t="s">
+      <c r="BB2" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="BC2" s="25" t="s">
+      <c r="BC2" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="BD2" s="25" t="s">
+      <c r="BD2" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="BE2" s="25" t="s">
+      <c r="BE2" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="BF2" s="25" t="s">
+      <c r="BF2" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="BG2" s="25" t="s">
-        <v>358</v>
+      <c r="BG2" s="24" t="s">
+        <v>347</v>
       </c>
       <c r="BH2" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="BI2" s="25" t="s">
+      <c r="BI2" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="BJ2" s="25" t="s">
-        <v>359</v>
-      </c>
-      <c r="BK2" s="25" t="s">
+      <c r="BJ2" s="24" t="s">
+        <v>348</v>
+      </c>
+      <c r="BK2" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="BL2" s="25" t="s">
+      <c r="BL2" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="BM2" s="25" t="s">
+      <c r="BM2" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="BN2" s="25" t="s">
+      <c r="BN2" s="24" t="s">
         <v>25</v>
       </c>
       <c r="BO2" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="BP2" s="25" t="s">
+      <c r="BP2" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="BQ2" s="25" t="s">
+      <c r="BQ2" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="BR2" s="25" t="s">
+      <c r="BR2" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="BS2" s="25" t="s">
+      <c r="BS2" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="BT2" s="25" t="s">
+      <c r="BT2" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="BU2" s="25" t="s">
+      <c r="BU2" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="BV2" s="25" t="s">
+      <c r="BV2" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="BW2" s="25" t="s">
+      <c r="BW2" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="BX2" s="25" t="s">
-        <v>380</v>
-      </c>
-      <c r="BY2" s="25" t="s">
+      <c r="BX2" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="BY2" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="BZ2" s="25" t="s">
+      <c r="BZ2" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="CA2" s="25" t="s">
+      <c r="CA2" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="CB2" s="25" t="s">
+      <c r="CB2" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="CC2" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="CD2" s="25" t="s">
+      <c r="CC2" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="CD2" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="CE2" s="25" t="s">
+      <c r="CE2" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="CF2" s="25" t="s">
+      <c r="CF2" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="CG2" s="25" t="s">
+      <c r="CG2" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="CH2" s="25" t="s">
+      <c r="CH2" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="CI2" s="25" t="s">
+      <c r="CI2" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="CJ2" s="25" t="s">
+      <c r="CJ2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="CK2" s="25" t="s">
+      <c r="CK2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="CL2" s="25" t="s">
+      <c r="CL2" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="CM2" s="25" t="s">
+      <c r="CM2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="CN2" s="25" t="s">
+      <c r="CN2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="CO2" s="25" t="s">
+      <c r="CO2" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="CP2" s="25" t="s">
+      <c r="CP2" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="CQ2" s="25" t="s">
+      <c r="CQ2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="CR2" s="25" t="s">
+      <c r="CR2" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="CS2" s="25" t="s">
+      <c r="CS2" s="24" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A3" s="20"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
       <c r="R3" s="20"/>
-      <c r="S3" s="25"/>
-      <c r="T3" s="25"/>
-      <c r="U3" s="25"/>
-      <c r="V3" s="25"/>
-      <c r="W3" s="25"/>
-      <c r="X3" s="25"/>
-      <c r="Y3" s="25"/>
-      <c r="Z3" s="25"/>
-      <c r="AA3" s="25"/>
-      <c r="AB3" s="25"/>
-      <c r="AC3" s="25"/>
-      <c r="AD3" s="25"/>
-      <c r="AE3" s="25"/>
-      <c r="AF3" s="25"/>
-      <c r="AG3" s="25"/>
-      <c r="AH3" s="25"/>
-      <c r="AI3" s="25"/>
+      <c r="S3" s="24"/>
+      <c r="T3" s="24"/>
+      <c r="U3" s="24"/>
+      <c r="V3" s="24"/>
+      <c r="W3" s="24"/>
+      <c r="X3" s="24"/>
+      <c r="Y3" s="24"/>
+      <c r="Z3" s="24"/>
+      <c r="AA3" s="24"/>
+      <c r="AB3" s="24"/>
+      <c r="AC3" s="24"/>
+      <c r="AD3" s="24"/>
+      <c r="AE3" s="24"/>
+      <c r="AF3" s="24"/>
+      <c r="AG3" s="24"/>
+      <c r="AH3" s="24"/>
+      <c r="AI3" s="24"/>
       <c r="AJ3" s="20"/>
-      <c r="AK3" s="25"/>
-      <c r="AL3" s="25"/>
-      <c r="AM3" s="25"/>
-      <c r="AN3" s="25"/>
-      <c r="AO3" s="25"/>
-      <c r="AP3" s="25"/>
-      <c r="AQ3" s="25"/>
-      <c r="AR3" s="25"/>
-      <c r="AS3" s="25"/>
-      <c r="AT3" s="25"/>
-      <c r="AU3" s="25"/>
-      <c r="AV3" s="25"/>
-      <c r="AW3" s="25"/>
-      <c r="AX3" s="25"/>
-      <c r="AY3" s="25"/>
-      <c r="AZ3" s="25"/>
-      <c r="BA3" s="25"/>
-      <c r="BB3" s="25"/>
-      <c r="BC3" s="25"/>
-      <c r="BD3" s="25"/>
-      <c r="BE3" s="25"/>
-      <c r="BF3" s="25"/>
-      <c r="BG3" s="25"/>
+      <c r="AK3" s="24"/>
+      <c r="AL3" s="24"/>
+      <c r="AM3" s="24"/>
+      <c r="AN3" s="24"/>
+      <c r="AO3" s="24"/>
+      <c r="AP3" s="24"/>
+      <c r="AQ3" s="24"/>
+      <c r="AR3" s="24"/>
+      <c r="AS3" s="24"/>
+      <c r="AT3" s="24"/>
+      <c r="AU3" s="24"/>
+      <c r="AV3" s="24"/>
+      <c r="AW3" s="24"/>
+      <c r="AX3" s="24"/>
+      <c r="AY3" s="24"/>
+      <c r="AZ3" s="24"/>
+      <c r="BA3" s="24"/>
+      <c r="BB3" s="24"/>
+      <c r="BC3" s="24"/>
+      <c r="BD3" s="24"/>
+      <c r="BE3" s="24"/>
+      <c r="BF3" s="24"/>
+      <c r="BG3" s="24"/>
       <c r="BH3" s="20"/>
-      <c r="BI3" s="25"/>
-      <c r="BJ3" s="25"/>
-      <c r="BK3" s="25"/>
-      <c r="BL3" s="25"/>
-      <c r="BM3" s="25"/>
-      <c r="BN3" s="25"/>
+      <c r="BI3" s="24"/>
+      <c r="BJ3" s="24"/>
+      <c r="BK3" s="24"/>
+      <c r="BL3" s="24"/>
+      <c r="BM3" s="24"/>
+      <c r="BN3" s="24"/>
       <c r="BO3" s="22"/>
-      <c r="BP3" s="25"/>
-      <c r="BQ3" s="25"/>
-      <c r="BR3" s="25"/>
-      <c r="BS3" s="25"/>
-      <c r="BT3" s="25"/>
-      <c r="BU3" s="25"/>
-      <c r="BV3" s="25"/>
-      <c r="BW3" s="25"/>
-      <c r="BX3" s="25"/>
-      <c r="BY3" s="25"/>
-      <c r="BZ3" s="25"/>
-      <c r="CA3" s="25"/>
-      <c r="CB3" s="25"/>
-      <c r="CC3" s="25"/>
-      <c r="CD3" s="25"/>
-      <c r="CE3" s="25"/>
-      <c r="CF3" s="25"/>
-      <c r="CG3" s="25"/>
-      <c r="CH3" s="25"/>
-      <c r="CI3" s="25"/>
-      <c r="CJ3" s="25"/>
-      <c r="CK3" s="25"/>
-      <c r="CL3" s="25"/>
-      <c r="CM3" s="25"/>
-      <c r="CN3" s="25"/>
-      <c r="CO3" s="25"/>
-      <c r="CP3" s="25"/>
-      <c r="CQ3" s="25"/>
-      <c r="CR3" s="25"/>
-      <c r="CS3" s="25"/>
+      <c r="BP3" s="24"/>
+      <c r="BQ3" s="24"/>
+      <c r="BR3" s="24"/>
+      <c r="BS3" s="24"/>
+      <c r="BT3" s="24"/>
+      <c r="BU3" s="24"/>
+      <c r="BV3" s="24"/>
+      <c r="BW3" s="24"/>
+      <c r="BX3" s="24"/>
+      <c r="BY3" s="24"/>
+      <c r="BZ3" s="24"/>
+      <c r="CA3" s="24"/>
+      <c r="CB3" s="24"/>
+      <c r="CC3" s="24"/>
+      <c r="CD3" s="24"/>
+      <c r="CE3" s="24"/>
+      <c r="CF3" s="24"/>
+      <c r="CG3" s="24"/>
+      <c r="CH3" s="24"/>
+      <c r="CI3" s="24"/>
+      <c r="CJ3" s="24"/>
+      <c r="CK3" s="24"/>
+      <c r="CL3" s="24"/>
+      <c r="CM3" s="24"/>
+      <c r="CN3" s="24"/>
+      <c r="CO3" s="24"/>
+      <c r="CP3" s="24"/>
+      <c r="CQ3" s="24"/>
+      <c r="CR3" s="24"/>
+      <c r="CS3" s="24"/>
     </row>
     <row r="4" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A4" s="9"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
       <c r="R4" s="9"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="25"/>
-      <c r="U4" s="25"/>
-      <c r="V4" s="25"/>
-      <c r="W4" s="25"/>
-      <c r="X4" s="25"/>
-      <c r="Y4" s="25"/>
-      <c r="Z4" s="25"/>
-      <c r="AA4" s="25"/>
-      <c r="AB4" s="25"/>
-      <c r="AC4" s="25"/>
-      <c r="AD4" s="25"/>
-      <c r="AE4" s="25"/>
-      <c r="AF4" s="25"/>
-      <c r="AG4" s="25"/>
-      <c r="AH4" s="25"/>
-      <c r="AI4" s="25"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="24"/>
+      <c r="V4" s="24"/>
+      <c r="W4" s="24"/>
+      <c r="X4" s="24"/>
+      <c r="Y4" s="24"/>
+      <c r="Z4" s="24"/>
+      <c r="AA4" s="24"/>
+      <c r="AB4" s="24"/>
+      <c r="AC4" s="24"/>
+      <c r="AD4" s="24"/>
+      <c r="AE4" s="24"/>
+      <c r="AF4" s="24"/>
+      <c r="AG4" s="24"/>
+      <c r="AH4" s="24"/>
+      <c r="AI4" s="24"/>
       <c r="AJ4" s="9"/>
-      <c r="AK4" s="25"/>
-      <c r="AL4" s="25"/>
-      <c r="AM4" s="25"/>
-      <c r="AN4" s="25"/>
-      <c r="AO4" s="25"/>
-      <c r="AP4" s="25"/>
-      <c r="AQ4" s="25"/>
-      <c r="AR4" s="25"/>
-      <c r="AS4" s="25"/>
-      <c r="AT4" s="25"/>
-      <c r="AU4" s="25"/>
-      <c r="AV4" s="25"/>
-      <c r="AW4" s="25"/>
-      <c r="AX4" s="25"/>
-      <c r="AY4" s="25"/>
-      <c r="AZ4" s="25"/>
-      <c r="BA4" s="25"/>
-      <c r="BB4" s="25"/>
-      <c r="BC4" s="25"/>
-      <c r="BD4" s="25"/>
-      <c r="BE4" s="25"/>
-      <c r="BF4" s="25"/>
-      <c r="BG4" s="25"/>
+      <c r="AK4" s="24"/>
+      <c r="AL4" s="24"/>
+      <c r="AM4" s="24"/>
+      <c r="AN4" s="24"/>
+      <c r="AO4" s="24"/>
+      <c r="AP4" s="24"/>
+      <c r="AQ4" s="24"/>
+      <c r="AR4" s="24"/>
+      <c r="AS4" s="24"/>
+      <c r="AT4" s="24"/>
+      <c r="AU4" s="24"/>
+      <c r="AV4" s="24"/>
+      <c r="AW4" s="24"/>
+      <c r="AX4" s="24"/>
+      <c r="AY4" s="24"/>
+      <c r="AZ4" s="24"/>
+      <c r="BA4" s="24"/>
+      <c r="BB4" s="24"/>
+      <c r="BC4" s="24"/>
+      <c r="BD4" s="24"/>
+      <c r="BE4" s="24"/>
+      <c r="BF4" s="24"/>
+      <c r="BG4" s="24"/>
       <c r="BH4" s="9"/>
-      <c r="BI4" s="25"/>
-      <c r="BJ4" s="25"/>
-      <c r="BK4" s="25"/>
-      <c r="BL4" s="25"/>
-      <c r="BM4" s="25"/>
-      <c r="BN4" s="25"/>
+      <c r="BI4" s="24"/>
+      <c r="BJ4" s="24"/>
+      <c r="BK4" s="24"/>
+      <c r="BL4" s="24"/>
+      <c r="BM4" s="24"/>
+      <c r="BN4" s="24"/>
       <c r="BO4" s="22"/>
-      <c r="BP4" s="25"/>
-      <c r="BQ4" s="25"/>
-      <c r="BR4" s="25"/>
-      <c r="BS4" s="25"/>
-      <c r="BT4" s="25"/>
-      <c r="BU4" s="25"/>
-      <c r="BV4" s="25"/>
-      <c r="BW4" s="25"/>
-      <c r="BX4" s="25"/>
-      <c r="BY4" s="25"/>
-      <c r="BZ4" s="25"/>
-      <c r="CA4" s="25"/>
-      <c r="CB4" s="25"/>
-      <c r="CC4" s="25"/>
-      <c r="CD4" s="25"/>
-      <c r="CE4" s="25"/>
-      <c r="CF4" s="25"/>
-      <c r="CG4" s="25"/>
-      <c r="CH4" s="25"/>
-      <c r="CI4" s="25"/>
-      <c r="CJ4" s="25"/>
-      <c r="CK4" s="25"/>
-      <c r="CL4" s="25"/>
-      <c r="CM4" s="25"/>
-      <c r="CN4" s="25"/>
-      <c r="CO4" s="25"/>
-      <c r="CP4" s="25"/>
-      <c r="CQ4" s="25"/>
-      <c r="CR4" s="25"/>
-      <c r="CS4" s="25"/>
+      <c r="BP4" s="24"/>
+      <c r="BQ4" s="24"/>
+      <c r="BR4" s="24"/>
+      <c r="BS4" s="24"/>
+      <c r="BT4" s="24"/>
+      <c r="BU4" s="24"/>
+      <c r="BV4" s="24"/>
+      <c r="BW4" s="24"/>
+      <c r="BX4" s="24"/>
+      <c r="BY4" s="24"/>
+      <c r="BZ4" s="24"/>
+      <c r="CA4" s="24"/>
+      <c r="CB4" s="24"/>
+      <c r="CC4" s="24"/>
+      <c r="CD4" s="24"/>
+      <c r="CE4" s="24"/>
+      <c r="CF4" s="24"/>
+      <c r="CG4" s="24"/>
+      <c r="CH4" s="24"/>
+      <c r="CI4" s="24"/>
+      <c r="CJ4" s="24"/>
+      <c r="CK4" s="24"/>
+      <c r="CL4" s="24"/>
+      <c r="CM4" s="24"/>
+      <c r="CN4" s="24"/>
+      <c r="CO4" s="24"/>
+      <c r="CP4" s="24"/>
+      <c r="CQ4" s="24"/>
+      <c r="CR4" s="24"/>
+      <c r="CS4" s="24"/>
     </row>
     <row r="5" spans="1:97" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -21249,7 +21269,7 @@
       </c>
       <c r="AK28" s="10"/>
       <c r="AL28" s="1" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="AM28" s="10"/>
       <c r="AN28" s="10"/>
@@ -21999,7 +22019,7 @@
       <c r="AK35" s="10"/>
       <c r="AL35" s="10"/>
       <c r="AM35" s="1" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="AN35" s="10"/>
       <c r="AO35" s="10"/>
@@ -22643,7 +22663,7 @@
     </row>
     <row r="41" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
@@ -22662,7 +22682,7 @@
       <c r="P41" s="10"/>
       <c r="Q41" s="10"/>
       <c r="R41" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="S41" s="10"/>
       <c r="T41" s="10"/>
@@ -22682,7 +22702,7 @@
       <c r="AH41" s="10"/>
       <c r="AI41" s="10"/>
       <c r="AJ41" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AK41" s="10"/>
       <c r="AL41" s="10">
@@ -22714,7 +22734,7 @@
       <c r="BF41" s="10"/>
       <c r="BG41" s="10"/>
       <c r="BH41" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="BI41" s="10"/>
       <c r="BJ41" s="10"/>
@@ -22760,7 +22780,7 @@
     </row>
     <row r="42" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
@@ -22779,7 +22799,7 @@
       <c r="P42" s="10"/>
       <c r="Q42" s="10"/>
       <c r="R42" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="S42" s="10"/>
       <c r="T42" s="10"/>
@@ -22799,7 +22819,7 @@
       <c r="AH42" s="10"/>
       <c r="AI42" s="10"/>
       <c r="AJ42" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AK42" s="10"/>
       <c r="AL42" s="10">
@@ -22831,7 +22851,7 @@
       <c r="BF42" s="10"/>
       <c r="BG42" s="10"/>
       <c r="BH42" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="BI42" s="10"/>
       <c r="BJ42" s="10"/>
@@ -22877,7 +22897,7 @@
     </row>
     <row r="43" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
@@ -22896,7 +22916,7 @@
       <c r="P43" s="10"/>
       <c r="Q43" s="10"/>
       <c r="R43" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="S43" s="10"/>
       <c r="T43" s="10"/>
@@ -22916,7 +22936,7 @@
       <c r="AH43" s="10"/>
       <c r="AI43" s="10"/>
       <c r="AJ43" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AK43" s="10"/>
       <c r="AL43" s="10">
@@ -22946,7 +22966,7 @@
       <c r="BF43" s="10"/>
       <c r="BG43" s="10"/>
       <c r="BH43" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BI43" s="10"/>
       <c r="BJ43" s="10"/>
@@ -22991,7 +23011,7 @@
     </row>
     <row r="44" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -23010,7 +23030,7 @@
       <c r="P44" s="10"/>
       <c r="Q44" s="10"/>
       <c r="R44" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="S44" s="10"/>
       <c r="T44" s="10">
@@ -23032,7 +23052,7 @@
       <c r="AH44" s="10"/>
       <c r="AI44" s="10"/>
       <c r="AJ44" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AK44" s="10"/>
       <c r="AL44" s="10"/>
@@ -23062,7 +23082,7 @@
       <c r="BF44" s="10"/>
       <c r="BG44" s="10"/>
       <c r="BH44" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="BI44" s="10"/>
       <c r="BJ44" s="10"/>
@@ -23107,7 +23127,7 @@
     </row>
     <row r="45" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -23126,7 +23146,7 @@
       <c r="P45" s="10"/>
       <c r="Q45" s="10"/>
       <c r="R45" s="10" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="S45" s="10"/>
       <c r="T45" s="10">
@@ -23148,7 +23168,7 @@
       <c r="AH45" s="10"/>
       <c r="AI45" s="10"/>
       <c r="AJ45" s="10" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AK45" s="10"/>
       <c r="AL45" s="10">
@@ -23182,7 +23202,7 @@
       <c r="BF45" s="10"/>
       <c r="BG45" s="10"/>
       <c r="BH45" s="10" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="BI45" s="10"/>
       <c r="BJ45" s="10"/>
@@ -23231,7 +23251,7 @@
     </row>
     <row r="46" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
@@ -23250,7 +23270,7 @@
       <c r="P46" s="10"/>
       <c r="Q46" s="10"/>
       <c r="R46" s="10" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="S46" s="10"/>
       <c r="T46" s="10">
@@ -23272,7 +23292,7 @@
       <c r="AH46" s="10"/>
       <c r="AI46" s="10"/>
       <c r="AJ46" s="10" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AK46" s="10"/>
       <c r="AL46" s="10"/>
@@ -23302,7 +23322,7 @@
       <c r="BF46" s="10"/>
       <c r="BG46" s="10"/>
       <c r="BH46" s="10" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="BI46" s="10"/>
       <c r="BJ46" s="10"/>
@@ -23351,7 +23371,7 @@
     </row>
     <row r="47" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
@@ -23370,7 +23390,7 @@
       <c r="P47" s="10"/>
       <c r="Q47" s="10"/>
       <c r="R47" s="10" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="S47" s="10"/>
       <c r="T47" s="10">
@@ -23392,7 +23412,7 @@
       <c r="AH47" s="10"/>
       <c r="AI47" s="10"/>
       <c r="AJ47" s="10" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="AK47" s="10"/>
       <c r="AL47" s="10"/>
@@ -23424,7 +23444,7 @@
       <c r="BF47" s="10"/>
       <c r="BG47" s="10"/>
       <c r="BH47" s="10" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="BI47" s="10"/>
       <c r="BJ47" s="10"/>
@@ -23471,7 +23491,7 @@
     </row>
     <row r="48" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
@@ -23490,7 +23510,7 @@
       <c r="P48" s="10"/>
       <c r="Q48" s="10"/>
       <c r="R48" s="10" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="S48" s="10"/>
       <c r="T48" s="10">
@@ -23512,7 +23532,7 @@
       <c r="AH48" s="10"/>
       <c r="AI48" s="10"/>
       <c r="AJ48" s="10" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="AK48" s="10"/>
       <c r="AL48" s="10"/>
@@ -23544,7 +23564,7 @@
       <c r="BF48" s="10"/>
       <c r="BG48" s="10"/>
       <c r="BH48" s="10" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="BI48" s="10"/>
       <c r="BJ48" s="10"/>
@@ -23593,7 +23613,7 @@
     </row>
     <row r="49" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
@@ -23612,7 +23632,7 @@
       <c r="P49" s="10"/>
       <c r="Q49" s="10"/>
       <c r="R49" s="10" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="S49" s="10"/>
       <c r="T49" s="10"/>
@@ -23632,7 +23652,7 @@
       <c r="AH49" s="10"/>
       <c r="AI49" s="10"/>
       <c r="AJ49" s="10" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="AK49" s="10"/>
       <c r="AL49" s="10"/>
@@ -23662,7 +23682,7 @@
       <c r="BF49" s="10"/>
       <c r="BG49" s="10"/>
       <c r="BH49" s="10" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="BI49" s="10"/>
       <c r="BJ49" s="10"/>
@@ -23715,7 +23735,7 @@
     </row>
     <row r="50" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
@@ -23734,7 +23754,7 @@
       <c r="P50" s="10"/>
       <c r="Q50" s="10"/>
       <c r="R50" s="10" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="S50" s="10"/>
       <c r="T50" s="10">
@@ -23756,7 +23776,7 @@
       <c r="AH50" s="10"/>
       <c r="AI50" s="10"/>
       <c r="AJ50" s="10" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="AK50" s="10"/>
       <c r="AL50" s="10"/>
@@ -23786,7 +23806,7 @@
       <c r="BF50" s="10"/>
       <c r="BG50" s="10"/>
       <c r="BH50" s="10" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="BI50" s="10"/>
       <c r="BJ50" s="10"/>
@@ -23839,7 +23859,7 @@
     </row>
     <row r="51" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A51" s="10" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
@@ -23858,7 +23878,7 @@
       <c r="P51" s="10"/>
       <c r="Q51" s="10"/>
       <c r="R51" s="10" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="S51" s="10"/>
       <c r="T51" s="10">
@@ -23872,7 +23892,7 @@
       <c r="Z51" s="10"/>
       <c r="AA51" s="10"/>
       <c r="AB51" s="1" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="AC51" s="10"/>
       <c r="AD51" s="10"/>
@@ -23882,7 +23902,7 @@
       <c r="AH51" s="10"/>
       <c r="AI51" s="10"/>
       <c r="AJ51" s="10" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="AK51" s="10"/>
       <c r="AL51" s="10"/>
@@ -23912,7 +23932,7 @@
       <c r="BF51" s="10"/>
       <c r="BG51" s="10"/>
       <c r="BH51" s="10" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="BI51" s="10"/>
       <c r="BJ51" s="10"/>
@@ -23961,7 +23981,7 @@
     </row>
     <row r="52" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A52" s="10" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
@@ -23982,7 +24002,7 @@
       <c r="P52" s="10"/>
       <c r="Q52" s="10"/>
       <c r="R52" s="10" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="S52" s="10">
         <v>1</v>
@@ -24006,7 +24026,7 @@
       <c r="AH52" s="10"/>
       <c r="AI52" s="10"/>
       <c r="AJ52" s="10" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="AK52" s="10">
         <v>1</v>
@@ -24040,7 +24060,7 @@
       <c r="BF52" s="10"/>
       <c r="BG52" s="10"/>
       <c r="BH52" s="10" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="BI52" s="10"/>
       <c r="BJ52" s="10"/>
@@ -24097,7 +24117,7 @@
     </row>
     <row r="53" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A53" s="10" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
@@ -24116,7 +24136,7 @@
       <c r="P53" s="10"/>
       <c r="Q53" s="10"/>
       <c r="R53" s="10" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="S53" s="10"/>
       <c r="T53" s="10">
@@ -24138,7 +24158,7 @@
       <c r="AH53" s="10"/>
       <c r="AI53" s="10"/>
       <c r="AJ53" s="10" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="AK53" s="10"/>
       <c r="AL53" s="10">
@@ -24172,7 +24192,7 @@
       <c r="BF53" s="10"/>
       <c r="BG53" s="10"/>
       <c r="BH53" s="10" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="BI53" s="10"/>
       <c r="BJ53" s="10"/>
@@ -24229,7 +24249,7 @@
     </row>
     <row r="54" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A54" s="10" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
@@ -24250,7 +24270,7 @@
       <c r="P54" s="10"/>
       <c r="Q54" s="10"/>
       <c r="R54" s="10" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="S54" s="10"/>
       <c r="T54" s="10">
@@ -24272,7 +24292,7 @@
       <c r="AH54" s="10"/>
       <c r="AI54" s="10"/>
       <c r="AJ54" s="10" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="AK54" s="10"/>
       <c r="AL54" s="10">
@@ -24308,7 +24328,7 @@
       <c r="BF54" s="10"/>
       <c r="BG54" s="10"/>
       <c r="BH54" s="10" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="BI54" s="10"/>
       <c r="BJ54" s="10"/>
@@ -24363,7 +24383,7 @@
     </row>
     <row r="55" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A55" s="10" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
@@ -24382,7 +24402,7 @@
       <c r="P55" s="10"/>
       <c r="Q55" s="10"/>
       <c r="R55" s="10" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="S55" s="10"/>
       <c r="T55" s="10">
@@ -24408,7 +24428,7 @@
       <c r="AH55" s="10"/>
       <c r="AI55" s="10"/>
       <c r="AJ55" s="10" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="AK55" s="10"/>
       <c r="AL55" s="10">
@@ -24448,7 +24468,7 @@
       <c r="BF55" s="10"/>
       <c r="BG55" s="10"/>
       <c r="BH55" s="10" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="BI55" s="10">
         <v>1</v>
@@ -24519,7 +24539,7 @@
     </row>
     <row r="56" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A56" s="10" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
@@ -24542,7 +24562,7 @@
       <c r="P56" s="10"/>
       <c r="Q56" s="10"/>
       <c r="R56" s="10" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="S56" s="10"/>
       <c r="T56" s="10">
@@ -24564,7 +24584,7 @@
       <c r="AH56" s="10"/>
       <c r="AI56" s="10"/>
       <c r="AJ56" s="10" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="AK56" s="10"/>
       <c r="AL56" s="10">
@@ -24604,7 +24624,7 @@
       <c r="BF56" s="10"/>
       <c r="BG56" s="10"/>
       <c r="BH56" s="10" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="BI56" s="10"/>
       <c r="BJ56" s="10"/>
@@ -24669,7 +24689,7 @@
     </row>
     <row r="57" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A57" s="10" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
@@ -24690,7 +24710,7 @@
       <c r="P57" s="10"/>
       <c r="Q57" s="10"/>
       <c r="R57" s="10" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="S57" s="10"/>
       <c r="T57" s="10">
@@ -24704,7 +24724,7 @@
       <c r="Z57" s="10"/>
       <c r="AA57" s="10"/>
       <c r="AB57" s="1" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="AC57" s="10"/>
       <c r="AD57" s="10"/>
@@ -24716,7 +24736,7 @@
       <c r="AH57" s="10"/>
       <c r="AI57" s="10"/>
       <c r="AJ57" s="10" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="AK57" s="10">
         <v>1</v>
@@ -24756,7 +24776,7 @@
       <c r="BF57" s="10"/>
       <c r="BG57" s="10"/>
       <c r="BH57" s="10" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="BI57" s="10"/>
       <c r="BJ57" s="10"/>
@@ -24817,7 +24837,7 @@
     </row>
     <row r="58" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A58" s="10" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
@@ -24838,7 +24858,7 @@
       <c r="P58" s="10"/>
       <c r="Q58" s="10"/>
       <c r="R58" s="10" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="S58" s="10"/>
       <c r="T58" s="10">
@@ -24862,7 +24882,7 @@
       <c r="AH58" s="10"/>
       <c r="AI58" s="10"/>
       <c r="AJ58" s="10" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="AK58" s="10"/>
       <c r="AL58" s="10">
@@ -24898,7 +24918,7 @@
       <c r="BF58" s="10"/>
       <c r="BG58" s="10"/>
       <c r="BH58" s="10" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="BI58" s="10">
         <v>1</v>
@@ -24971,7 +24991,7 @@
     </row>
     <row r="59" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A59" s="10" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
@@ -24992,7 +25012,7 @@
       <c r="P59" s="10"/>
       <c r="Q59" s="10"/>
       <c r="R59" s="10" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="S59" s="10"/>
       <c r="T59" s="10">
@@ -25016,7 +25036,7 @@
       <c r="AH59" s="10"/>
       <c r="AI59" s="10"/>
       <c r="AJ59" s="10" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="AK59" s="10"/>
       <c r="AL59" s="10">
@@ -25050,7 +25070,7 @@
       </c>
       <c r="BG59" s="10"/>
       <c r="BH59" s="10" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="BI59" s="10"/>
       <c r="BJ59" s="10"/>
@@ -25119,7 +25139,7 @@
     </row>
     <row r="60" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A60" s="10" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
@@ -25138,7 +25158,7 @@
       <c r="P60" s="10"/>
       <c r="Q60" s="10"/>
       <c r="R60" s="10" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="S60" s="10">
         <v>3</v>
@@ -25166,7 +25186,7 @@
       <c r="AH60" s="10"/>
       <c r="AI60" s="10"/>
       <c r="AJ60" s="10" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="AK60" s="10"/>
       <c r="AL60" s="10">
@@ -25200,7 +25220,7 @@
       <c r="BF60" s="10"/>
       <c r="BG60" s="10"/>
       <c r="BH60" s="10" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="BI60" s="10"/>
       <c r="BJ60" s="10"/>
@@ -25269,7 +25289,7 @@
     </row>
     <row r="61" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A61" s="10" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
@@ -25292,7 +25312,7 @@
       <c r="P61" s="10"/>
       <c r="Q61" s="10"/>
       <c r="R61" s="10" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="S61" s="10">
         <v>4</v>
@@ -25318,7 +25338,7 @@
       <c r="AH61" s="10"/>
       <c r="AI61" s="10"/>
       <c r="AJ61" s="10" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="AK61" s="10"/>
       <c r="AL61" s="10">
@@ -25362,7 +25382,7 @@
       </c>
       <c r="BG61" s="10"/>
       <c r="BH61" s="10" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="BI61" s="10"/>
       <c r="BJ61" s="10"/>
@@ -25433,7 +25453,7 @@
     </row>
     <row r="62" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A62" s="10" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
@@ -25456,7 +25476,7 @@
       <c r="P62" s="10"/>
       <c r="Q62" s="10"/>
       <c r="R62" s="10" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="S62" s="10">
         <v>1</v>
@@ -25490,7 +25510,7 @@
       <c r="AH62" s="10"/>
       <c r="AI62" s="10"/>
       <c r="AJ62" s="10" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="AK62" s="10"/>
       <c r="AL62" s="10">
@@ -25536,7 +25556,7 @@
       </c>
       <c r="BG62" s="10"/>
       <c r="BH62" s="10" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="BI62" s="10"/>
       <c r="BJ62" s="10"/>
@@ -25611,7 +25631,7 @@
     </row>
     <row r="63" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A63" s="10" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
@@ -25634,7 +25654,7 @@
       <c r="P63" s="10"/>
       <c r="Q63" s="10"/>
       <c r="R63" s="10" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="S63" s="10">
         <v>3</v>
@@ -25670,7 +25690,7 @@
         <v>3</v>
       </c>
       <c r="AJ63" s="10" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="AK63" s="10"/>
       <c r="AL63" s="10">
@@ -25708,7 +25728,7 @@
       </c>
       <c r="BG63" s="10"/>
       <c r="BH63" s="10" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="BI63" s="10">
         <v>1</v>
@@ -25785,7 +25805,7 @@
     </row>
     <row r="64" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A64" s="10" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
@@ -25812,7 +25832,7 @@
       <c r="P64" s="10"/>
       <c r="Q64" s="10"/>
       <c r="R64" s="10" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="S64" s="10">
         <v>1</v>
@@ -25846,7 +25866,7 @@
         <v>1</v>
       </c>
       <c r="AJ64" s="10" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="AK64" s="10"/>
       <c r="AL64" s="10">
@@ -25896,7 +25916,7 @@
       </c>
       <c r="BG64" s="10"/>
       <c r="BH64" s="10" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="BI64" s="10"/>
       <c r="BJ64" s="10"/>
@@ -25973,7 +25993,7 @@
     </row>
     <row r="65" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A65" s="10" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="B65" s="10">
         <v>1</v>
@@ -26002,7 +26022,7 @@
       <c r="P65" s="10"/>
       <c r="Q65" s="10"/>
       <c r="R65" s="10" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="S65" s="10">
         <v>5</v>
@@ -26040,7 +26060,7 @@
         <v>1</v>
       </c>
       <c r="AJ65" s="10" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="AK65" s="10"/>
       <c r="AL65" s="10">
@@ -26090,7 +26110,7 @@
         <v>2</v>
       </c>
       <c r="BH65" s="10" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="BI65" s="10"/>
       <c r="BJ65" s="10"/>
@@ -26165,7 +26185,7 @@
     </row>
     <row r="66" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A66" s="10" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="B66" s="10">
         <v>1</v>
@@ -26194,7 +26214,7 @@
       <c r="P66" s="10"/>
       <c r="Q66" s="10"/>
       <c r="R66" s="10" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="S66" s="10">
         <v>2</v>
@@ -26224,7 +26244,7 @@
       <c r="AH66" s="10"/>
       <c r="AI66" s="10"/>
       <c r="AJ66" s="10" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="AK66" s="10"/>
       <c r="AL66" s="10">
@@ -26274,7 +26294,7 @@
       </c>
       <c r="BG66" s="10"/>
       <c r="BH66" s="10" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="BI66" s="10"/>
       <c r="BJ66" s="10">
@@ -26361,7 +26381,7 @@
     </row>
     <row r="67" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A67" s="10" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="B67" s="10"/>
       <c r="C67" s="10">
@@ -26386,7 +26406,7 @@
         <v>1</v>
       </c>
       <c r="R67" s="10" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="S67" s="10">
         <v>4</v>
@@ -26426,7 +26446,7 @@
       </c>
       <c r="AI67" s="10"/>
       <c r="AJ67" s="10" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="AK67" s="10"/>
       <c r="AL67" s="10">
@@ -26474,7 +26494,7 @@
       </c>
       <c r="BG67" s="10"/>
       <c r="BH67" s="10" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="BI67" s="10"/>
       <c r="BJ67" s="10"/>
@@ -26561,7 +26581,7 @@
     </row>
     <row r="68" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A68" s="10" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
@@ -26588,7 +26608,7 @@
       <c r="P68" s="10"/>
       <c r="Q68" s="10"/>
       <c r="R68" s="10" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="S68" s="10">
         <v>3</v>
@@ -26624,7 +26644,7 @@
         <v>2</v>
       </c>
       <c r="AJ68" s="10" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="AK68" s="10"/>
       <c r="AL68" s="10"/>
@@ -26678,7 +26698,7 @@
       </c>
       <c r="BG68" s="10"/>
       <c r="BH68" s="10" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="BI68" s="10"/>
       <c r="BJ68" s="10">
@@ -26773,7 +26793,7 @@
     </row>
     <row r="69" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A69" s="10" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
@@ -26796,7 +26816,7 @@
       </c>
       <c r="Q69" s="10"/>
       <c r="R69" s="10" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="S69" s="10"/>
       <c r="T69" s="10">
@@ -26820,7 +26840,7 @@
       <c r="AH69" s="10"/>
       <c r="AI69" s="10"/>
       <c r="AJ69" s="10" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="AK69" s="10"/>
       <c r="AL69" s="10"/>
@@ -26860,7 +26880,7 @@
       <c r="BF69" s="10"/>
       <c r="BG69" s="10"/>
       <c r="BH69" s="10" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="BI69" s="10"/>
       <c r="BJ69" s="10">
@@ -26945,22 +26965,22 @@
     </row>
     <row r="70" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A70" s="10" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="R70" s="10" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="T70" s="10">
         <v>268</v>
       </c>
       <c r="AJ70" s="10" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="AW70" s="10">
         <v>157</v>
       </c>
       <c r="BH70" s="10" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="BX70" s="10">
         <v>115</v>
@@ -26983,22 +27003,22 @@
     </row>
     <row r="71" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A71" s="10" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="R71" s="10" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="T71" s="10">
         <v>400</v>
       </c>
       <c r="AJ71" s="10" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="AW71" s="16">
         <v>144</v>
       </c>
       <c r="BH71" s="10" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="BX71" s="10">
         <v>181</v>
@@ -27021,22 +27041,22 @@
     </row>
     <row r="72" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A72" s="10" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="R72" s="10" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="T72" s="10">
         <v>525</v>
       </c>
       <c r="AJ72" s="10" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="AW72" s="10">
         <v>139</v>
       </c>
       <c r="BH72" s="10" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="BX72" s="10">
         <v>260</v>
@@ -27059,22 +27079,22 @@
     </row>
     <row r="73" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A73" s="10" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="R73" s="10" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="T73" s="10">
         <v>363</v>
       </c>
       <c r="AJ73" s="10" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="AW73" s="10">
         <v>123</v>
       </c>
       <c r="BH73" s="10" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="BX73" s="10">
         <v>209</v>
@@ -27097,22 +27117,22 @@
     </row>
     <row r="74" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A74" s="10" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="R74" s="10" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="T74" s="10">
         <v>558</v>
       </c>
       <c r="AJ74" s="10" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="AW74" s="10">
         <v>117</v>
       </c>
       <c r="BH74" s="10" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="BX74" s="10">
         <v>180</v>
@@ -27135,7 +27155,7 @@
     </row>
     <row r="75" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A75" s="10" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="T75" s="10">
         <v>912</v>
@@ -27144,7 +27164,7 @@
         <v>141</v>
       </c>
       <c r="BH75" s="10" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="BO75">
         <v>1</v>
@@ -27170,7 +27190,7 @@
     </row>
     <row r="76" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A76" s="10" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="T76" s="10">
         <v>1049</v>
@@ -27179,7 +27199,7 @@
         <v>138</v>
       </c>
       <c r="BH76" s="10" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="BO76">
         <v>1</v>
@@ -27205,7 +27225,7 @@
     </row>
     <row r="77" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A77" s="10" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="T77" s="10">
         <v>968</v>
@@ -27214,7 +27234,7 @@
         <v>124</v>
       </c>
       <c r="BH77" s="10" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="BO77">
         <v>2</v>
@@ -27240,7 +27260,7 @@
     </row>
     <row r="78" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A78" s="10" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="T78" s="10">
         <v>1321</v>
@@ -27249,7 +27269,7 @@
         <v>134</v>
       </c>
       <c r="BH78" s="10" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="BX78" s="10">
         <v>684</v>
@@ -27272,7 +27292,7 @@
     </row>
     <row r="79" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A79" s="10" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="T79" s="10">
         <v>1331</v>
@@ -27281,7 +27301,7 @@
         <v>158</v>
       </c>
       <c r="BH79" s="10" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="BO79">
         <v>1</v>
@@ -27307,7 +27327,7 @@
     </row>
     <row r="80" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A80" s="10" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="T80" s="10">
         <v>1165</v>
@@ -27316,7 +27336,7 @@
         <v>151</v>
       </c>
       <c r="BH80" s="10" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="BO80">
         <v>3</v>
@@ -27342,7 +27362,7 @@
     </row>
     <row r="81" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A81" s="10" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="T81" s="10">
         <v>1255</v>
@@ -27351,7 +27371,7 @@
         <v>136</v>
       </c>
       <c r="BH81" s="10" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="BO81">
         <v>5</v>
@@ -27373,10 +27393,123 @@
       </c>
       <c r="CS81">
         <v>5229</v>
+      </c>
+    </row>
+    <row r="82" spans="1:97" x14ac:dyDescent="0.3">
+      <c r="A82" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="T82" s="10">
+        <v>1970</v>
+      </c>
+      <c r="AW82" s="10">
+        <v>1333</v>
+      </c>
+      <c r="BX82" s="10">
+        <v>786</v>
+      </c>
+      <c r="CC82" s="10">
+        <v>604</v>
+      </c>
+      <c r="CJ82" s="10">
+        <v>704</v>
+      </c>
+      <c r="CM82" s="10">
+        <v>1417</v>
+      </c>
+      <c r="CN82" s="16">
+        <v>206</v>
+      </c>
+      <c r="CS82" s="10">
+        <v>7380</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="108">
+    <mergeCell ref="CR2:CR4"/>
+    <mergeCell ref="CS2:CS4"/>
+    <mergeCell ref="CL2:CL4"/>
+    <mergeCell ref="CM2:CM4"/>
+    <mergeCell ref="CN2:CN4"/>
+    <mergeCell ref="CO2:CO4"/>
+    <mergeCell ref="CP2:CP4"/>
+    <mergeCell ref="CQ2:CQ4"/>
+    <mergeCell ref="CF2:CF4"/>
+    <mergeCell ref="CG2:CG4"/>
+    <mergeCell ref="CH2:CH4"/>
+    <mergeCell ref="CI2:CI4"/>
+    <mergeCell ref="CJ2:CJ4"/>
+    <mergeCell ref="CK2:CK4"/>
+    <mergeCell ref="CB2:CB4"/>
+    <mergeCell ref="CC2:CC4"/>
+    <mergeCell ref="CD2:CD4"/>
+    <mergeCell ref="CE2:CE4"/>
+    <mergeCell ref="BT2:BT4"/>
+    <mergeCell ref="BU2:BU4"/>
+    <mergeCell ref="BV2:BV4"/>
+    <mergeCell ref="BW2:BW4"/>
+    <mergeCell ref="BX2:BX4"/>
+    <mergeCell ref="BY2:BY4"/>
+    <mergeCell ref="BZ2:BZ4"/>
+    <mergeCell ref="CA2:CA4"/>
+    <mergeCell ref="BM2:BM4"/>
+    <mergeCell ref="BN2:BN4"/>
+    <mergeCell ref="BP2:BP4"/>
+    <mergeCell ref="BQ2:BQ4"/>
+    <mergeCell ref="BR2:BR4"/>
+    <mergeCell ref="BS2:BS4"/>
+    <mergeCell ref="BF2:BF4"/>
+    <mergeCell ref="BG2:BG4"/>
+    <mergeCell ref="BI2:BI4"/>
+    <mergeCell ref="BJ2:BJ4"/>
+    <mergeCell ref="BK2:BK4"/>
+    <mergeCell ref="BL2:BL4"/>
+    <mergeCell ref="AZ2:AZ4"/>
+    <mergeCell ref="BA2:BA4"/>
+    <mergeCell ref="BB2:BB4"/>
+    <mergeCell ref="BC2:BC4"/>
+    <mergeCell ref="BD2:BD4"/>
+    <mergeCell ref="BE2:BE4"/>
+    <mergeCell ref="AT2:AT4"/>
+    <mergeCell ref="AU2:AU4"/>
+    <mergeCell ref="AV2:AV4"/>
+    <mergeCell ref="AW2:AW4"/>
+    <mergeCell ref="AX2:AX4"/>
+    <mergeCell ref="AY2:AY4"/>
+    <mergeCell ref="AN2:AN4"/>
+    <mergeCell ref="AO2:AO4"/>
+    <mergeCell ref="AP2:AP4"/>
+    <mergeCell ref="AQ2:AQ4"/>
+    <mergeCell ref="AR2:AR4"/>
+    <mergeCell ref="AS2:AS4"/>
+    <mergeCell ref="AG2:AG4"/>
+    <mergeCell ref="AH2:AH4"/>
+    <mergeCell ref="AI2:AI4"/>
+    <mergeCell ref="AK2:AK4"/>
+    <mergeCell ref="AL2:AL4"/>
+    <mergeCell ref="AM2:AM4"/>
+    <mergeCell ref="AA2:AA4"/>
+    <mergeCell ref="AB2:AB4"/>
+    <mergeCell ref="AC2:AC4"/>
+    <mergeCell ref="AD2:AD4"/>
+    <mergeCell ref="AE2:AE4"/>
+    <mergeCell ref="AF2:AF4"/>
+    <mergeCell ref="U2:U4"/>
+    <mergeCell ref="V2:V4"/>
+    <mergeCell ref="W2:W4"/>
+    <mergeCell ref="X2:X4"/>
+    <mergeCell ref="Y2:Y4"/>
+    <mergeCell ref="Z2:Z4"/>
+    <mergeCell ref="P2:P4"/>
+    <mergeCell ref="Q2:Q4"/>
+    <mergeCell ref="S2:S4"/>
+    <mergeCell ref="T2:T4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="M2:M4"/>
     <mergeCell ref="BI1:BP1"/>
     <mergeCell ref="BQ1:BX1"/>
     <mergeCell ref="BY1:CJ1"/>
@@ -27401,90 +27534,6 @@
     <mergeCell ref="U1:X1"/>
     <mergeCell ref="N2:N4"/>
     <mergeCell ref="O2:O4"/>
-    <mergeCell ref="P2:P4"/>
-    <mergeCell ref="Q2:Q4"/>
-    <mergeCell ref="S2:S4"/>
-    <mergeCell ref="T2:T4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="L2:L4"/>
-    <mergeCell ref="M2:M4"/>
-    <mergeCell ref="AA2:AA4"/>
-    <mergeCell ref="AB2:AB4"/>
-    <mergeCell ref="AC2:AC4"/>
-    <mergeCell ref="AD2:AD4"/>
-    <mergeCell ref="AE2:AE4"/>
-    <mergeCell ref="AF2:AF4"/>
-    <mergeCell ref="U2:U4"/>
-    <mergeCell ref="V2:V4"/>
-    <mergeCell ref="W2:W4"/>
-    <mergeCell ref="X2:X4"/>
-    <mergeCell ref="Y2:Y4"/>
-    <mergeCell ref="Z2:Z4"/>
-    <mergeCell ref="AN2:AN4"/>
-    <mergeCell ref="AO2:AO4"/>
-    <mergeCell ref="AP2:AP4"/>
-    <mergeCell ref="AQ2:AQ4"/>
-    <mergeCell ref="AR2:AR4"/>
-    <mergeCell ref="AS2:AS4"/>
-    <mergeCell ref="AG2:AG4"/>
-    <mergeCell ref="AH2:AH4"/>
-    <mergeCell ref="AI2:AI4"/>
-    <mergeCell ref="AK2:AK4"/>
-    <mergeCell ref="AL2:AL4"/>
-    <mergeCell ref="AM2:AM4"/>
-    <mergeCell ref="AZ2:AZ4"/>
-    <mergeCell ref="BA2:BA4"/>
-    <mergeCell ref="BB2:BB4"/>
-    <mergeCell ref="BC2:BC4"/>
-    <mergeCell ref="BD2:BD4"/>
-    <mergeCell ref="BE2:BE4"/>
-    <mergeCell ref="AT2:AT4"/>
-    <mergeCell ref="AU2:AU4"/>
-    <mergeCell ref="AV2:AV4"/>
-    <mergeCell ref="AW2:AW4"/>
-    <mergeCell ref="AX2:AX4"/>
-    <mergeCell ref="AY2:AY4"/>
-    <mergeCell ref="BM2:BM4"/>
-    <mergeCell ref="BN2:BN4"/>
-    <mergeCell ref="BP2:BP4"/>
-    <mergeCell ref="BQ2:BQ4"/>
-    <mergeCell ref="BR2:BR4"/>
-    <mergeCell ref="BS2:BS4"/>
-    <mergeCell ref="BF2:BF4"/>
-    <mergeCell ref="BG2:BG4"/>
-    <mergeCell ref="BI2:BI4"/>
-    <mergeCell ref="BJ2:BJ4"/>
-    <mergeCell ref="BK2:BK4"/>
-    <mergeCell ref="BL2:BL4"/>
-    <mergeCell ref="CB2:CB4"/>
-    <mergeCell ref="CC2:CC4"/>
-    <mergeCell ref="CD2:CD4"/>
-    <mergeCell ref="CE2:CE4"/>
-    <mergeCell ref="BT2:BT4"/>
-    <mergeCell ref="BU2:BU4"/>
-    <mergeCell ref="BV2:BV4"/>
-    <mergeCell ref="BW2:BW4"/>
-    <mergeCell ref="BX2:BX4"/>
-    <mergeCell ref="BY2:BY4"/>
-    <mergeCell ref="BZ2:BZ4"/>
-    <mergeCell ref="CA2:CA4"/>
-    <mergeCell ref="CR2:CR4"/>
-    <mergeCell ref="CS2:CS4"/>
-    <mergeCell ref="CL2:CL4"/>
-    <mergeCell ref="CM2:CM4"/>
-    <mergeCell ref="CN2:CN4"/>
-    <mergeCell ref="CO2:CO4"/>
-    <mergeCell ref="CP2:CP4"/>
-    <mergeCell ref="CQ2:CQ4"/>
-    <mergeCell ref="CF2:CF4"/>
-    <mergeCell ref="CG2:CG4"/>
-    <mergeCell ref="CH2:CH4"/>
-    <mergeCell ref="CI2:CI4"/>
-    <mergeCell ref="CJ2:CJ4"/>
-    <mergeCell ref="CK2:CK4"/>
   </mergeCells>
   <phoneticPr fontId="26" type="noConversion"/>
   <hyperlinks>
@@ -27603,187 +27652,187 @@
       <c r="A1" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24" t="s">
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="P1" s="24"/>
+      <c r="P1" s="25"/>
       <c r="Q1" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="R1" s="24" t="s">
+      <c r="R1" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24" t="s">
+      <c r="S1" s="25"/>
+      <c r="T1" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24" t="s">
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="Y1" s="24"/>
+      <c r="Y1" s="25"/>
       <c r="Z1" s="17" t="s">
         <v>122</v>
       </c>
       <c r="AA1" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="AB1" s="24" t="s">
+      <c r="AB1" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="AC1" s="24"/>
-      <c r="AD1" s="24"/>
-      <c r="AE1" s="24"/>
-      <c r="AF1" s="24"/>
-      <c r="AG1" s="24" t="s">
+      <c r="AC1" s="25"/>
+      <c r="AD1" s="25"/>
+      <c r="AE1" s="25"/>
+      <c r="AF1" s="25"/>
+      <c r="AG1" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="AH1" s="24"/>
-      <c r="AI1" s="24"/>
-      <c r="AJ1" s="24"/>
-      <c r="AK1" s="24"/>
-      <c r="AL1" s="24"/>
-      <c r="AM1" s="24"/>
-      <c r="AN1" s="24"/>
-      <c r="AO1" s="24"/>
-      <c r="AP1" s="24"/>
-      <c r="AQ1" s="24"/>
-      <c r="AR1" s="24" t="s">
+      <c r="AH1" s="25"/>
+      <c r="AI1" s="25"/>
+      <c r="AJ1" s="25"/>
+      <c r="AK1" s="25"/>
+      <c r="AL1" s="25"/>
+      <c r="AM1" s="25"/>
+      <c r="AN1" s="25"/>
+      <c r="AO1" s="25"/>
+      <c r="AP1" s="25"/>
+      <c r="AQ1" s="25"/>
+      <c r="AR1" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="AS1" s="24"/>
-      <c r="AT1" s="24" t="s">
+      <c r="AS1" s="25"/>
+      <c r="AT1" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="AU1" s="24"/>
-      <c r="AV1" s="24"/>
-      <c r="AW1" s="24"/>
-      <c r="AX1" s="24"/>
-      <c r="AY1" s="24" t="s">
+      <c r="AU1" s="25"/>
+      <c r="AV1" s="25"/>
+      <c r="AW1" s="25"/>
+      <c r="AX1" s="25"/>
+      <c r="AY1" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="AZ1" s="24"/>
-      <c r="BA1" s="24"/>
-      <c r="BB1" s="24"/>
-      <c r="BC1" s="24"/>
-      <c r="BD1" s="24"/>
-      <c r="BE1" s="24"/>
-      <c r="BF1" s="24"/>
-      <c r="BG1" s="24"/>
-      <c r="BH1" s="24"/>
-      <c r="BI1" s="24"/>
-      <c r="BJ1" s="24"/>
-      <c r="BK1" s="24"/>
-      <c r="BL1" s="24"/>
+      <c r="AZ1" s="25"/>
+      <c r="BA1" s="25"/>
+      <c r="BB1" s="25"/>
+      <c r="BC1" s="25"/>
+      <c r="BD1" s="25"/>
+      <c r="BE1" s="25"/>
+      <c r="BF1" s="25"/>
+      <c r="BG1" s="25"/>
+      <c r="BH1" s="25"/>
+      <c r="BI1" s="25"/>
+      <c r="BJ1" s="25"/>
+      <c r="BK1" s="25"/>
+      <c r="BL1" s="25"/>
       <c r="BM1" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="BN1" s="24" t="s">
+      <c r="BN1" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="BO1" s="24"/>
-      <c r="BP1" s="24"/>
-      <c r="BQ1" s="24"/>
-      <c r="BR1" s="24"/>
-      <c r="BS1" s="24"/>
-      <c r="BT1" s="24"/>
-      <c r="BU1" s="24"/>
-      <c r="BV1" s="24"/>
-      <c r="BW1" s="24"/>
-      <c r="BX1" s="24"/>
-      <c r="BY1" s="24" t="s">
+      <c r="BO1" s="25"/>
+      <c r="BP1" s="25"/>
+      <c r="BQ1" s="25"/>
+      <c r="BR1" s="25"/>
+      <c r="BS1" s="25"/>
+      <c r="BT1" s="25"/>
+      <c r="BU1" s="25"/>
+      <c r="BV1" s="25"/>
+      <c r="BW1" s="25"/>
+      <c r="BX1" s="25"/>
+      <c r="BY1" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="BZ1" s="24"/>
-      <c r="CA1" s="24"/>
-      <c r="CB1" s="24"/>
-      <c r="CC1" s="24"/>
-      <c r="CD1" s="24"/>
-      <c r="CE1" s="24"/>
-      <c r="CF1" s="24"/>
-      <c r="CG1" s="24"/>
-      <c r="CH1" s="24" t="s">
+      <c r="BZ1" s="25"/>
+      <c r="CA1" s="25"/>
+      <c r="CB1" s="25"/>
+      <c r="CC1" s="25"/>
+      <c r="CD1" s="25"/>
+      <c r="CE1" s="25"/>
+      <c r="CF1" s="25"/>
+      <c r="CG1" s="25"/>
+      <c r="CH1" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="CI1" s="24"/>
-      <c r="CJ1" s="24"/>
-      <c r="CK1" s="24"/>
-      <c r="CL1" s="24"/>
-      <c r="CM1" s="24"/>
-      <c r="CN1" s="24"/>
-      <c r="CO1" s="24"/>
-      <c r="CP1" s="24"/>
-      <c r="CQ1" s="24"/>
-      <c r="CR1" s="24" t="s">
+      <c r="CI1" s="25"/>
+      <c r="CJ1" s="25"/>
+      <c r="CK1" s="25"/>
+      <c r="CL1" s="25"/>
+      <c r="CM1" s="25"/>
+      <c r="CN1" s="25"/>
+      <c r="CO1" s="25"/>
+      <c r="CP1" s="25"/>
+      <c r="CQ1" s="25"/>
+      <c r="CR1" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="CS1" s="24"/>
-      <c r="CT1" s="24"/>
-      <c r="CU1" s="24"/>
-      <c r="CV1" s="24"/>
-      <c r="CW1" s="24"/>
-      <c r="CX1" s="24"/>
-      <c r="CY1" s="24"/>
+      <c r="CS1" s="25"/>
+      <c r="CT1" s="25"/>
+      <c r="CU1" s="25"/>
+      <c r="CV1" s="25"/>
+      <c r="CW1" s="25"/>
+      <c r="CX1" s="25"/>
+      <c r="CY1" s="25"/>
       <c r="CZ1" s="17"/>
     </row>
     <row r="2" spans="1:104" ht="102" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="J2" s="25" t="s">
+      <c r="J2" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="K2" s="25" t="s">
+      <c r="K2" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="L2" s="25" t="s">
+      <c r="L2" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="M2" s="25" t="s">
+      <c r="M2" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="N2" s="25" t="s">
+      <c r="N2" s="24" t="s">
         <v>105</v>
       </c>
       <c r="O2" s="19" t="s">
@@ -27792,148 +27841,148 @@
       <c r="P2" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="Q2" s="25" t="s">
+      <c r="Q2" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="R2" s="25" t="s">
+      <c r="R2" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="S2" s="25" t="s">
+      <c r="S2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="T2" s="25" t="s">
+      <c r="T2" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="U2" s="25" t="s">
+      <c r="U2" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="V2" s="25" t="s">
+      <c r="V2" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="W2" s="25" t="s">
+      <c r="W2" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="X2" s="25" t="s">
+      <c r="X2" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="Y2" s="25" t="s">
+      <c r="Y2" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="Z2" s="25" t="s">
+      <c r="Z2" s="24" t="s">
         <v>33</v>
       </c>
       <c r="AA2" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="AB2" s="25" t="s">
+      <c r="AB2" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="AC2" s="25" t="s">
+      <c r="AC2" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="AD2" s="25" t="s">
+      <c r="AD2" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="AE2" s="25" t="s">
+      <c r="AE2" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="AF2" s="25" t="s">
+      <c r="AF2" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="AG2" s="25" t="s">
+      <c r="AG2" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="AH2" s="25" t="s">
+      <c r="AH2" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="AI2" s="25" t="s">
+      <c r="AI2" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="AJ2" s="25" t="s">
+      <c r="AJ2" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="AK2" s="25" t="s">
+      <c r="AK2" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="AL2" s="25" t="s">
+      <c r="AL2" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="AM2" s="25" t="s">
+      <c r="AM2" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="AN2" s="25" t="s">
+      <c r="AN2" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="AO2" s="25" t="s">
-        <v>353</v>
-      </c>
-      <c r="AP2" s="25" t="s">
+      <c r="AO2" s="24" t="s">
+        <v>342</v>
+      </c>
+      <c r="AP2" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="AQ2" s="25" t="s">
+      <c r="AQ2" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="AR2" s="25" t="s">
+      <c r="AR2" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="AS2" s="25" t="s">
+      <c r="AS2" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="AT2" s="25" t="s">
+      <c r="AT2" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="AU2" s="25" t="s">
+      <c r="AU2" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="AV2" s="25" t="s">
+      <c r="AV2" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="AW2" s="25" t="s">
+      <c r="AW2" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="AX2" s="25" t="s">
+      <c r="AX2" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="AY2" s="25" t="s">
+      <c r="AY2" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="AZ2" s="25" t="s">
+      <c r="AZ2" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="BA2" s="25" t="s">
+      <c r="BA2" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="BB2" s="25" t="s">
+      <c r="BB2" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="BC2" s="25" t="s">
+      <c r="BC2" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="BD2" s="25" t="s">
+      <c r="BD2" s="24" t="s">
         <v>51</v>
       </c>
       <c r="BE2" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="BF2" s="25" t="s">
+      <c r="BF2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="BG2" s="25" t="s">
+      <c r="BG2" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="BH2" s="25" t="s">
+      <c r="BH2" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="BI2" s="25" t="s">
+      <c r="BI2" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="BJ2" s="25" t="s">
+      <c r="BJ2" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="BK2" s="25" t="s">
+      <c r="BK2" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="BL2" s="25" t="s">
+      <c r="BL2" s="24" t="s">
         <v>15</v>
       </c>
       <c r="BM2" s="17" t="s">
@@ -27942,115 +27991,115 @@
       <c r="BN2" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="BO2" s="25" t="s">
+      <c r="BO2" s="24" t="s">
         <v>34</v>
       </c>
       <c r="BP2" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="BQ2" s="25" t="s">
+      <c r="BQ2" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="BR2" s="25" t="s">
+      <c r="BR2" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="BS2" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="BT2" s="25" t="s">
+      <c r="BS2" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="BT2" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="BU2" s="25" t="s">
+      <c r="BU2" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="BV2" s="25" t="s">
+      <c r="BV2" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="BW2" s="25" t="s">
+      <c r="BW2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="BX2" s="25" t="s">
+      <c r="BX2" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="BY2" s="25" t="s">
+      <c r="BY2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="BZ2" s="25" t="s">
+      <c r="BZ2" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="CA2" s="25" t="s">
+      <c r="CA2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="CB2" s="25" t="s">
+      <c r="CB2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="CC2" s="25" t="s">
+      <c r="CC2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="CD2" s="25" t="s">
+      <c r="CD2" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="CE2" s="25" t="s">
+      <c r="CE2" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="CF2" s="25" t="s">
+      <c r="CF2" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="CG2" s="25" t="s">
+      <c r="CG2" s="24" t="s">
         <v>7</v>
       </c>
       <c r="CH2" s="19" t="s">
-        <v>360</v>
-      </c>
-      <c r="CI2" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="CI2" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="CJ2" s="25" t="s">
+      <c r="CJ2" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="CK2" s="25" t="s">
+      <c r="CK2" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="CL2" s="25" t="s">
+      <c r="CL2" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="CM2" s="25" t="s">
+      <c r="CM2" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="CN2" s="25" t="s">
+      <c r="CN2" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="CO2" s="25" t="s">
+      <c r="CO2" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="CP2" s="25" t="s">
+      <c r="CP2" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="CQ2" s="25" t="s">
+      <c r="CQ2" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="CR2" s="25" t="s">
+      <c r="CR2" s="24" t="s">
         <v>27</v>
       </c>
       <c r="CS2" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="CT2" s="25" t="s">
+      <c r="CT2" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="CU2" s="25" t="s">
+      <c r="CU2" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="CV2" s="25" t="s">
+      <c r="CV2" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="CW2" s="25" t="s">
+      <c r="CW2" s="24" t="s">
         <v>68</v>
       </c>
       <c r="CX2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="CY2" s="25" t="s">
+      <c r="CY2" s="24" t="s">
         <v>31</v>
       </c>
       <c r="CZ2" s="18" t="s">
@@ -28059,127 +28108,127 @@
     </row>
     <row r="3" spans="1:104" ht="87.6" x14ac:dyDescent="0.3">
       <c r="A3" s="17"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
       <c r="O3" s="19" t="s">
         <v>133</v>
       </c>
       <c r="P3" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="25"/>
-      <c r="S3" s="25"/>
-      <c r="T3" s="25"/>
-      <c r="U3" s="25"/>
-      <c r="V3" s="25"/>
-      <c r="W3" s="25"/>
-      <c r="X3" s="25"/>
-      <c r="Y3" s="25"/>
-      <c r="Z3" s="25"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="24"/>
+      <c r="T3" s="24"/>
+      <c r="U3" s="24"/>
+      <c r="V3" s="24"/>
+      <c r="W3" s="24"/>
+      <c r="X3" s="24"/>
+      <c r="Y3" s="24"/>
+      <c r="Z3" s="24"/>
       <c r="AA3" s="17"/>
-      <c r="AB3" s="25"/>
-      <c r="AC3" s="25"/>
-      <c r="AD3" s="25"/>
-      <c r="AE3" s="25"/>
-      <c r="AF3" s="25"/>
-      <c r="AG3" s="25"/>
-      <c r="AH3" s="25"/>
-      <c r="AI3" s="25"/>
-      <c r="AJ3" s="25"/>
-      <c r="AK3" s="25"/>
-      <c r="AL3" s="25"/>
-      <c r="AM3" s="25"/>
-      <c r="AN3" s="25"/>
-      <c r="AO3" s="25"/>
-      <c r="AP3" s="25"/>
-      <c r="AQ3" s="25"/>
-      <c r="AR3" s="25"/>
-      <c r="AS3" s="25"/>
-      <c r="AT3" s="25"/>
-      <c r="AU3" s="25"/>
-      <c r="AV3" s="25"/>
-      <c r="AW3" s="25"/>
-      <c r="AX3" s="25"/>
-      <c r="AY3" s="25"/>
-      <c r="AZ3" s="25"/>
-      <c r="BA3" s="25"/>
-      <c r="BB3" s="25"/>
-      <c r="BC3" s="25"/>
-      <c r="BD3" s="25"/>
+      <c r="AB3" s="24"/>
+      <c r="AC3" s="24"/>
+      <c r="AD3" s="24"/>
+      <c r="AE3" s="24"/>
+      <c r="AF3" s="24"/>
+      <c r="AG3" s="24"/>
+      <c r="AH3" s="24"/>
+      <c r="AI3" s="24"/>
+      <c r="AJ3" s="24"/>
+      <c r="AK3" s="24"/>
+      <c r="AL3" s="24"/>
+      <c r="AM3" s="24"/>
+      <c r="AN3" s="24"/>
+      <c r="AO3" s="24"/>
+      <c r="AP3" s="24"/>
+      <c r="AQ3" s="24"/>
+      <c r="AR3" s="24"/>
+      <c r="AS3" s="24"/>
+      <c r="AT3" s="24"/>
+      <c r="AU3" s="24"/>
+      <c r="AV3" s="24"/>
+      <c r="AW3" s="24"/>
+      <c r="AX3" s="24"/>
+      <c r="AY3" s="24"/>
+      <c r="AZ3" s="24"/>
+      <c r="BA3" s="24"/>
+      <c r="BB3" s="24"/>
+      <c r="BC3" s="24"/>
+      <c r="BD3" s="24"/>
       <c r="BE3" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="BF3" s="25"/>
-      <c r="BG3" s="25"/>
-      <c r="BH3" s="25"/>
-      <c r="BI3" s="25"/>
-      <c r="BJ3" s="25"/>
-      <c r="BK3" s="25"/>
-      <c r="BL3" s="25"/>
+      <c r="BF3" s="24"/>
+      <c r="BG3" s="24"/>
+      <c r="BH3" s="24"/>
+      <c r="BI3" s="24"/>
+      <c r="BJ3" s="24"/>
+      <c r="BK3" s="24"/>
+      <c r="BL3" s="24"/>
       <c r="BM3" s="17"/>
       <c r="BN3" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="BO3" s="25"/>
+      <c r="BO3" s="24"/>
       <c r="BP3" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="BQ3" s="25"/>
-      <c r="BR3" s="25"/>
-      <c r="BS3" s="25"/>
-      <c r="BT3" s="25"/>
-      <c r="BU3" s="25"/>
-      <c r="BV3" s="25"/>
-      <c r="BW3" s="25"/>
-      <c r="BX3" s="25"/>
-      <c r="BY3" s="25"/>
-      <c r="BZ3" s="25"/>
-      <c r="CA3" s="25"/>
-      <c r="CB3" s="25"/>
-      <c r="CC3" s="25"/>
-      <c r="CD3" s="25"/>
-      <c r="CE3" s="25"/>
-      <c r="CF3" s="25"/>
-      <c r="CG3" s="25"/>
+      <c r="BQ3" s="24"/>
+      <c r="BR3" s="24"/>
+      <c r="BS3" s="24"/>
+      <c r="BT3" s="24"/>
+      <c r="BU3" s="24"/>
+      <c r="BV3" s="24"/>
+      <c r="BW3" s="24"/>
+      <c r="BX3" s="24"/>
+      <c r="BY3" s="24"/>
+      <c r="BZ3" s="24"/>
+      <c r="CA3" s="24"/>
+      <c r="CB3" s="24"/>
+      <c r="CC3" s="24"/>
+      <c r="CD3" s="24"/>
+      <c r="CE3" s="24"/>
+      <c r="CF3" s="24"/>
+      <c r="CG3" s="24"/>
       <c r="CH3" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="CI3" s="25"/>
-      <c r="CJ3" s="25"/>
-      <c r="CK3" s="25"/>
-      <c r="CL3" s="25"/>
-      <c r="CM3" s="25"/>
-      <c r="CN3" s="25"/>
-      <c r="CO3" s="25"/>
-      <c r="CP3" s="25"/>
-      <c r="CQ3" s="25"/>
-      <c r="CR3" s="25"/>
+      <c r="CI3" s="24"/>
+      <c r="CJ3" s="24"/>
+      <c r="CK3" s="24"/>
+      <c r="CL3" s="24"/>
+      <c r="CM3" s="24"/>
+      <c r="CN3" s="24"/>
+      <c r="CO3" s="24"/>
+      <c r="CP3" s="24"/>
+      <c r="CQ3" s="24"/>
+      <c r="CR3" s="24"/>
       <c r="CS3" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="CT3" s="25"/>
-      <c r="CU3" s="25"/>
-      <c r="CV3" s="25"/>
-      <c r="CW3" s="25"/>
+      <c r="CT3" s="24"/>
+      <c r="CU3" s="24"/>
+      <c r="CV3" s="24"/>
+      <c r="CW3" s="24"/>
       <c r="CX3" s="19"/>
-      <c r="CY3" s="25"/>
+      <c r="CY3" s="24"/>
       <c r="CZ3" s="18"/>
     </row>
     <row r="4" spans="1:104" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
@@ -28287,7 +28336,7 @@
     </row>
     <row r="5" spans="1:104" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
@@ -33146,7 +33195,7 @@
     </row>
     <row r="50" spans="1:104" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -33254,7 +33303,7 @@
     </row>
     <row r="51" spans="1:104" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -33362,7 +33411,7 @@
     </row>
     <row r="52" spans="1:104" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -33470,7 +33519,7 @@
     </row>
     <row r="53" spans="1:104" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -33578,7 +33627,7 @@
     </row>
     <row r="54" spans="1:104" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -33686,7 +33735,7 @@
     </row>
     <row r="55" spans="1:104" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -33794,7 +33843,7 @@
     </row>
     <row r="56" spans="1:104" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -33902,7 +33951,7 @@
     </row>
     <row r="57" spans="1:104" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -34010,7 +34059,7 @@
     </row>
     <row r="58" spans="1:104" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="2"/>
@@ -34118,7 +34167,7 @@
     </row>
     <row r="59" spans="1:104" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="2"/>
@@ -34226,7 +34275,7 @@
     </row>
     <row r="60" spans="1:104" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="2"/>
@@ -34334,7 +34383,7 @@
     </row>
     <row r="61" spans="1:104" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="2"/>
@@ -34442,7 +34491,7 @@
     </row>
     <row r="62" spans="1:104" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="2"/>
@@ -34550,7 +34599,7 @@
     </row>
     <row r="63" spans="1:104" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="2"/>
@@ -34658,7 +34707,7 @@
     </row>
     <row r="64" spans="1:104" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="2"/>
@@ -34766,7 +34815,7 @@
     </row>
     <row r="65" spans="1:104" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="2"/>
@@ -34874,7 +34923,7 @@
     </row>
     <row r="66" spans="1:104" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="2"/>
@@ -34982,7 +35031,7 @@
     </row>
     <row r="67" spans="1:104" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="2"/>
@@ -35090,7 +35139,7 @@
     </row>
     <row r="68" spans="1:104" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -35198,7 +35247,7 @@
     </row>
     <row r="69" spans="1:104" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -35306,7 +35355,7 @@
     </row>
     <row r="70" spans="1:104" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -35414,7 +35463,7 @@
     </row>
     <row r="71" spans="1:104" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -35522,7 +35571,7 @@
     </row>
     <row r="72" spans="1:104" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -35630,7 +35679,7 @@
     </row>
     <row r="73" spans="1:104" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -35738,7 +35787,7 @@
     </row>
     <row r="74" spans="1:104" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -35846,7 +35895,7 @@
     </row>
     <row r="75" spans="1:104" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -35954,7 +36003,7 @@
     </row>
     <row r="76" spans="1:104" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -36062,7 +36111,7 @@
     </row>
     <row r="77" spans="1:104" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -36170,7 +36219,7 @@
     </row>
     <row r="78" spans="1:104" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -36278,7 +36327,7 @@
     </row>
     <row r="79" spans="1:104" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -36386,7 +36435,7 @@
     </row>
     <row r="80" spans="1:104" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -36494,7 +36543,7 @@
     </row>
     <row r="81" spans="1:104" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -36602,7 +36651,7 @@
     </row>
     <row r="82" spans="1:104" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -36710,7 +36759,7 @@
     </row>
     <row r="83" spans="1:104" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -36818,7 +36867,7 @@
     </row>
     <row r="84" spans="1:104" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="R84" s="2"/>
       <c r="AR84" s="2"/>
@@ -36836,7 +36885,7 @@
     </row>
     <row r="85" spans="1:104" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="R85" s="2"/>
       <c r="AR85" s="2"/>
@@ -36854,7 +36903,7 @@
     </row>
     <row r="86" spans="1:104" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="R86" s="2"/>
       <c r="AR86" s="2"/>
@@ -36873,7 +36922,7 @@
     </row>
     <row r="87" spans="1:104" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="R87" s="2"/>
       <c r="AR87" s="2"/>
@@ -36892,88 +36941,6 @@
     </row>
   </sheetData>
   <mergeCells count="106">
-    <mergeCell ref="CR2:CR3"/>
-    <mergeCell ref="CT2:CT3"/>
-    <mergeCell ref="CU2:CU3"/>
-    <mergeCell ref="CV2:CV3"/>
-    <mergeCell ref="CW2:CW3"/>
-    <mergeCell ref="CY2:CY3"/>
-    <mergeCell ref="CL2:CL3"/>
-    <mergeCell ref="CM2:CM3"/>
-    <mergeCell ref="CN2:CN3"/>
-    <mergeCell ref="CO2:CO3"/>
-    <mergeCell ref="CP2:CP3"/>
-    <mergeCell ref="CQ2:CQ3"/>
-    <mergeCell ref="CE2:CE3"/>
-    <mergeCell ref="CF2:CF3"/>
-    <mergeCell ref="CG2:CG3"/>
-    <mergeCell ref="CI2:CI3"/>
-    <mergeCell ref="CJ2:CJ3"/>
-    <mergeCell ref="CK2:CK3"/>
-    <mergeCell ref="BY2:BY3"/>
-    <mergeCell ref="BZ2:BZ3"/>
-    <mergeCell ref="CA2:CA3"/>
-    <mergeCell ref="CB2:CB3"/>
-    <mergeCell ref="CC2:CC3"/>
-    <mergeCell ref="CD2:CD3"/>
-    <mergeCell ref="BS2:BS3"/>
-    <mergeCell ref="BT2:BT3"/>
-    <mergeCell ref="BU2:BU3"/>
-    <mergeCell ref="BV2:BV3"/>
-    <mergeCell ref="BW2:BW3"/>
-    <mergeCell ref="BX2:BX3"/>
-    <mergeCell ref="BJ2:BJ3"/>
-    <mergeCell ref="BK2:BK3"/>
-    <mergeCell ref="BL2:BL3"/>
-    <mergeCell ref="BO2:BO3"/>
-    <mergeCell ref="BQ2:BQ3"/>
-    <mergeCell ref="BR2:BR3"/>
-    <mergeCell ref="BC2:BC3"/>
-    <mergeCell ref="BD2:BD3"/>
-    <mergeCell ref="BF2:BF3"/>
-    <mergeCell ref="BG2:BG3"/>
-    <mergeCell ref="BH2:BH3"/>
-    <mergeCell ref="BI2:BI3"/>
-    <mergeCell ref="AW2:AW3"/>
-    <mergeCell ref="AX2:AX3"/>
-    <mergeCell ref="AY2:AY3"/>
-    <mergeCell ref="AZ2:AZ3"/>
-    <mergeCell ref="BA2:BA3"/>
-    <mergeCell ref="BB2:BB3"/>
-    <mergeCell ref="AQ2:AQ3"/>
-    <mergeCell ref="AR2:AR3"/>
-    <mergeCell ref="AS2:AS3"/>
-    <mergeCell ref="AT2:AT3"/>
-    <mergeCell ref="AU2:AU3"/>
-    <mergeCell ref="AV2:AV3"/>
-    <mergeCell ref="AK2:AK3"/>
-    <mergeCell ref="AL2:AL3"/>
-    <mergeCell ref="AM2:AM3"/>
-    <mergeCell ref="AN2:AN3"/>
-    <mergeCell ref="AO2:AO3"/>
-    <mergeCell ref="AP2:AP3"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="AF2:AF3"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="AJ2:AJ3"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="Z2:Z3"/>
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="CH1:CQ1"/>
     <mergeCell ref="CR1:CY1"/>
     <mergeCell ref="B2:B3"/>
@@ -36998,6 +36965,88 @@
     <mergeCell ref="AB1:AF1"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="S2:S3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="AH2:AH3"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="AJ2:AJ3"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="Z2:Z3"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="AQ2:AQ3"/>
+    <mergeCell ref="AR2:AR3"/>
+    <mergeCell ref="AS2:AS3"/>
+    <mergeCell ref="AT2:AT3"/>
+    <mergeCell ref="AU2:AU3"/>
+    <mergeCell ref="AV2:AV3"/>
+    <mergeCell ref="AK2:AK3"/>
+    <mergeCell ref="AL2:AL3"/>
+    <mergeCell ref="AM2:AM3"/>
+    <mergeCell ref="AN2:AN3"/>
+    <mergeCell ref="AO2:AO3"/>
+    <mergeCell ref="AP2:AP3"/>
+    <mergeCell ref="BC2:BC3"/>
+    <mergeCell ref="BD2:BD3"/>
+    <mergeCell ref="BF2:BF3"/>
+    <mergeCell ref="BG2:BG3"/>
+    <mergeCell ref="BH2:BH3"/>
+    <mergeCell ref="BI2:BI3"/>
+    <mergeCell ref="AW2:AW3"/>
+    <mergeCell ref="AX2:AX3"/>
+    <mergeCell ref="AY2:AY3"/>
+    <mergeCell ref="AZ2:AZ3"/>
+    <mergeCell ref="BA2:BA3"/>
+    <mergeCell ref="BB2:BB3"/>
+    <mergeCell ref="BS2:BS3"/>
+    <mergeCell ref="BT2:BT3"/>
+    <mergeCell ref="BU2:BU3"/>
+    <mergeCell ref="BV2:BV3"/>
+    <mergeCell ref="BW2:BW3"/>
+    <mergeCell ref="BX2:BX3"/>
+    <mergeCell ref="BJ2:BJ3"/>
+    <mergeCell ref="BK2:BK3"/>
+    <mergeCell ref="BL2:BL3"/>
+    <mergeCell ref="BO2:BO3"/>
+    <mergeCell ref="BQ2:BQ3"/>
+    <mergeCell ref="BR2:BR3"/>
+    <mergeCell ref="CE2:CE3"/>
+    <mergeCell ref="CF2:CF3"/>
+    <mergeCell ref="CG2:CG3"/>
+    <mergeCell ref="CI2:CI3"/>
+    <mergeCell ref="CJ2:CJ3"/>
+    <mergeCell ref="CK2:CK3"/>
+    <mergeCell ref="BY2:BY3"/>
+    <mergeCell ref="BZ2:BZ3"/>
+    <mergeCell ref="CA2:CA3"/>
+    <mergeCell ref="CB2:CB3"/>
+    <mergeCell ref="CC2:CC3"/>
+    <mergeCell ref="CD2:CD3"/>
+    <mergeCell ref="CR2:CR3"/>
+    <mergeCell ref="CT2:CT3"/>
+    <mergeCell ref="CU2:CU3"/>
+    <mergeCell ref="CV2:CV3"/>
+    <mergeCell ref="CW2:CW3"/>
+    <mergeCell ref="CY2:CY3"/>
+    <mergeCell ref="CL2:CL3"/>
+    <mergeCell ref="CM2:CM3"/>
+    <mergeCell ref="CN2:CN3"/>
+    <mergeCell ref="CO2:CO3"/>
+    <mergeCell ref="CP2:CP3"/>
+    <mergeCell ref="CQ2:CQ3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" tooltip="2020 coronavirus pandemic in Argentina" display="https://en.wikipedia.org/wiki/2020_coronavirus_pandemic_in_Argentina" xr:uid="{A1276897-A83E-4B5D-8DEB-71FFBF97F299}"/>

--- a/myfile.xlsx
+++ b/myfile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\coronavirus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A043E68-C580-47AD-9DA2-C00472F8A19C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6AA0C07-5B56-4784-AA2A-F3395B41CD8B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1812" yWindow="1812" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1812" yWindow="1812" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cases" sheetId="5" r:id="rId1"/>
@@ -2157,8 +2157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:DA118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E93" sqref="E93"/>
+    <sheetView topLeftCell="A68" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B91" sqref="B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18199,7 +18199,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F0720B9-F1C1-4E88-8345-0A7B8577FCEF}">
   <dimension ref="A1:CS82"/>
   <sheetViews>
-    <sheetView topLeftCell="CM74" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="CU82" sqref="CU82"/>
     </sheetView>
   </sheetViews>

--- a/myfile.xlsx
+++ b/myfile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\coronavirus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6AA0C07-5B56-4784-AA2A-F3395B41CD8B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8CEC96-00BC-4041-986A-40F7F6B84CC6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1812" yWindow="1812" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cases" sheetId="5" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="379">
   <si>
     <t>China</t>
   </si>
@@ -1156,6 +1156,18 @@
   </si>
   <si>
     <t>20.4.07</t>
+  </si>
+  <si>
+    <t>20.4.08</t>
+  </si>
+  <si>
+    <t>20.4.09</t>
+  </si>
+  <si>
+    <t>20.4.10</t>
+  </si>
+  <si>
+    <t>20.4.11</t>
   </si>
 </sst>
 </file>
@@ -1790,11 +1802,11 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2157,8 +2169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:DA118"/>
   <sheetViews>
-    <sheetView topLeftCell="A68" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B91" sqref="B91"/>
+    <sheetView topLeftCell="CQ79" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="CI96" sqref="CI96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2167,144 +2179,144 @@
       <c r="A1" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25" t="s">
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="P1" s="25"/>
+      <c r="P1" s="24"/>
       <c r="Q1" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="R1" s="25" t="s">
+      <c r="R1" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25" t="s">
+      <c r="S1" s="24"/>
+      <c r="T1" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
-      <c r="W1" s="25"/>
-      <c r="X1" s="25" t="s">
+      <c r="U1" s="24"/>
+      <c r="V1" s="24"/>
+      <c r="W1" s="24"/>
+      <c r="X1" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="Y1" s="25"/>
+      <c r="Y1" s="24"/>
       <c r="Z1" s="3" t="s">
         <v>122</v>
       </c>
       <c r="AA1" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="AB1" s="25" t="s">
+      <c r="AB1" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="AC1" s="25"/>
-      <c r="AD1" s="25"/>
-      <c r="AE1" s="25"/>
-      <c r="AF1" s="25"/>
-      <c r="AG1" s="25" t="s">
+      <c r="AC1" s="24"/>
+      <c r="AD1" s="24"/>
+      <c r="AE1" s="24"/>
+      <c r="AF1" s="24"/>
+      <c r="AG1" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="AH1" s="25"/>
-      <c r="AI1" s="25"/>
-      <c r="AJ1" s="25"/>
-      <c r="AK1" s="25"/>
-      <c r="AL1" s="25"/>
-      <c r="AM1" s="25"/>
-      <c r="AN1" s="25"/>
-      <c r="AO1" s="25"/>
-      <c r="AP1" s="25"/>
-      <c r="AQ1" s="25"/>
-      <c r="AR1" s="25" t="s">
+      <c r="AH1" s="24"/>
+      <c r="AI1" s="24"/>
+      <c r="AJ1" s="24"/>
+      <c r="AK1" s="24"/>
+      <c r="AL1" s="24"/>
+      <c r="AM1" s="24"/>
+      <c r="AN1" s="24"/>
+      <c r="AO1" s="24"/>
+      <c r="AP1" s="24"/>
+      <c r="AQ1" s="24"/>
+      <c r="AR1" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="AS1" s="25"/>
-      <c r="AT1" s="25" t="s">
+      <c r="AS1" s="24"/>
+      <c r="AT1" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="AU1" s="25"/>
-      <c r="AV1" s="25"/>
-      <c r="AW1" s="25"/>
-      <c r="AX1" s="25"/>
-      <c r="AY1" s="25" t="s">
+      <c r="AU1" s="24"/>
+      <c r="AV1" s="24"/>
+      <c r="AW1" s="24"/>
+      <c r="AX1" s="24"/>
+      <c r="AY1" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="AZ1" s="25"/>
-      <c r="BA1" s="25"/>
-      <c r="BB1" s="25"/>
-      <c r="BC1" s="25"/>
-      <c r="BD1" s="25"/>
-      <c r="BE1" s="25"/>
-      <c r="BF1" s="25"/>
-      <c r="BG1" s="25"/>
-      <c r="BH1" s="25"/>
-      <c r="BI1" s="25"/>
-      <c r="BJ1" s="25"/>
-      <c r="BK1" s="25"/>
-      <c r="BL1" s="25"/>
+      <c r="AZ1" s="24"/>
+      <c r="BA1" s="24"/>
+      <c r="BB1" s="24"/>
+      <c r="BC1" s="24"/>
+      <c r="BD1" s="24"/>
+      <c r="BE1" s="24"/>
+      <c r="BF1" s="24"/>
+      <c r="BG1" s="24"/>
+      <c r="BH1" s="24"/>
+      <c r="BI1" s="24"/>
+      <c r="BJ1" s="24"/>
+      <c r="BK1" s="24"/>
+      <c r="BL1" s="24"/>
       <c r="BM1" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="BN1" s="25" t="s">
+      <c r="BN1" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="BO1" s="25"/>
-      <c r="BP1" s="25"/>
-      <c r="BQ1" s="25"/>
-      <c r="BR1" s="25"/>
-      <c r="BS1" s="25"/>
-      <c r="BT1" s="25"/>
-      <c r="BU1" s="25"/>
-      <c r="BV1" s="25"/>
-      <c r="BW1" s="25"/>
-      <c r="BX1" s="25"/>
-      <c r="BY1" s="25" t="s">
+      <c r="BO1" s="24"/>
+      <c r="BP1" s="24"/>
+      <c r="BQ1" s="24"/>
+      <c r="BR1" s="24"/>
+      <c r="BS1" s="24"/>
+      <c r="BT1" s="24"/>
+      <c r="BU1" s="24"/>
+      <c r="BV1" s="24"/>
+      <c r="BW1" s="24"/>
+      <c r="BX1" s="24"/>
+      <c r="BY1" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="BZ1" s="25"/>
-      <c r="CA1" s="25"/>
-      <c r="CB1" s="25"/>
-      <c r="CC1" s="25"/>
-      <c r="CD1" s="25"/>
-      <c r="CE1" s="25"/>
-      <c r="CF1" s="25"/>
-      <c r="CG1" s="25"/>
-      <c r="CH1" s="25" t="s">
+      <c r="BZ1" s="24"/>
+      <c r="CA1" s="24"/>
+      <c r="CB1" s="24"/>
+      <c r="CC1" s="24"/>
+      <c r="CD1" s="24"/>
+      <c r="CE1" s="24"/>
+      <c r="CF1" s="24"/>
+      <c r="CG1" s="24"/>
+      <c r="CH1" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="CI1" s="25"/>
-      <c r="CJ1" s="25"/>
-      <c r="CK1" s="25"/>
-      <c r="CL1" s="25"/>
-      <c r="CM1" s="25"/>
-      <c r="CN1" s="25"/>
-      <c r="CO1" s="25"/>
-      <c r="CP1" s="25"/>
-      <c r="CQ1" s="25"/>
-      <c r="CR1" s="25" t="s">
+      <c r="CI1" s="24"/>
+      <c r="CJ1" s="24"/>
+      <c r="CK1" s="24"/>
+      <c r="CL1" s="24"/>
+      <c r="CM1" s="24"/>
+      <c r="CN1" s="24"/>
+      <c r="CO1" s="24"/>
+      <c r="CP1" s="24"/>
+      <c r="CQ1" s="24"/>
+      <c r="CR1" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="CS1" s="25"/>
-      <c r="CT1" s="25"/>
-      <c r="CU1" s="25"/>
-      <c r="CV1" s="25"/>
-      <c r="CW1" s="25"/>
-      <c r="CX1" s="25"/>
-      <c r="CY1" s="25"/>
+      <c r="CS1" s="24"/>
+      <c r="CT1" s="24"/>
+      <c r="CU1" s="24"/>
+      <c r="CV1" s="24"/>
+      <c r="CW1" s="24"/>
+      <c r="CX1" s="24"/>
+      <c r="CY1" s="24"/>
       <c r="CZ1" s="3" t="s">
         <v>361</v>
       </c>
@@ -2313,43 +2325,43 @@
       <c r="A2" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="J2" s="24" t="s">
+      <c r="J2" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="K2" s="24" t="s">
+      <c r="K2" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="L2" s="24" t="s">
+      <c r="L2" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="M2" s="24" t="s">
+      <c r="M2" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="N2" s="24" t="s">
+      <c r="N2" s="25" t="s">
         <v>105</v>
       </c>
       <c r="O2" s="4" t="s">
@@ -2358,148 +2370,148 @@
       <c r="P2" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="Q2" s="24" t="s">
+      <c r="Q2" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="R2" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="S2" s="24" t="s">
+      <c r="R2" s="25" t="s">
+        <v>368</v>
+      </c>
+      <c r="S2" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="T2" s="24" t="s">
+      <c r="T2" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="U2" s="24" t="s">
+      <c r="U2" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="V2" s="24" t="s">
+      <c r="V2" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="W2" s="24" t="s">
+      <c r="W2" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="X2" s="24" t="s">
+      <c r="X2" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="Y2" s="24" t="s">
+      <c r="Y2" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="Z2" s="24" t="s">
+      <c r="Z2" s="25" t="s">
         <v>33</v>
       </c>
       <c r="AA2" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="AB2" s="24" t="s">
+      <c r="AB2" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="AC2" s="24" t="s">
+      <c r="AC2" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="AD2" s="24" t="s">
+      <c r="AD2" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="AE2" s="24" t="s">
+      <c r="AE2" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="AF2" s="24" t="s">
+      <c r="AF2" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="AG2" s="24" t="s">
+      <c r="AG2" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="AH2" s="24" t="s">
+      <c r="AH2" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="AI2" s="24" t="s">
+      <c r="AI2" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="AJ2" s="24" t="s">
+      <c r="AJ2" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="AK2" s="24" t="s">
+      <c r="AK2" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="AL2" s="24" t="s">
+      <c r="AL2" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="AM2" s="24" t="s">
+      <c r="AM2" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="AN2" s="24" t="s">
+      <c r="AN2" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="AO2" s="24" t="s">
+      <c r="AO2" s="25" t="s">
         <v>342</v>
       </c>
-      <c r="AP2" s="24" t="s">
+      <c r="AP2" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="AQ2" s="24" t="s">
+      <c r="AQ2" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="AR2" s="24" t="s">
+      <c r="AR2" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="AS2" s="24" t="s">
+      <c r="AS2" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="AT2" s="24" t="s">
+      <c r="AT2" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="AU2" s="24" t="s">
+      <c r="AU2" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="AV2" s="24" t="s">
+      <c r="AV2" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="AW2" s="24" t="s">
+      <c r="AW2" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="AX2" s="24" t="s">
+      <c r="AX2" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="AY2" s="24" t="s">
+      <c r="AY2" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="AZ2" s="24" t="s">
+      <c r="AZ2" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="BA2" s="24" t="s">
+      <c r="BA2" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="BB2" s="24" t="s">
+      <c r="BB2" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="BC2" s="24" t="s">
+      <c r="BC2" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="BD2" s="24" t="s">
+      <c r="BD2" s="25" t="s">
         <v>51</v>
       </c>
       <c r="BE2" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="BF2" s="24" t="s">
+      <c r="BF2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="BG2" s="24" t="s">
+      <c r="BG2" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="BH2" s="24" t="s">
+      <c r="BH2" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="BI2" s="24" t="s">
+      <c r="BI2" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="BJ2" s="24" t="s">
+      <c r="BJ2" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="BK2" s="24" t="s">
+      <c r="BK2" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="BL2" s="24" t="s">
+      <c r="BL2" s="25" t="s">
         <v>15</v>
       </c>
       <c r="BM2" s="3" t="s">
@@ -2508,115 +2520,115 @@
       <c r="BN2" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="BO2" s="24" t="s">
+      <c r="BO2" s="25" t="s">
         <v>34</v>
       </c>
       <c r="BP2" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="BQ2" s="24" t="s">
+      <c r="BQ2" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="BR2" s="24" t="s">
+      <c r="BR2" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="BS2" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="BT2" s="24" t="s">
+      <c r="BS2" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="BT2" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="BU2" s="24" t="s">
+      <c r="BU2" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="BV2" s="24" t="s">
+      <c r="BV2" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="BW2" s="24" t="s">
+      <c r="BW2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="BX2" s="24" t="s">
+      <c r="BX2" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="BY2" s="24" t="s">
+      <c r="BY2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="BZ2" s="24" t="s">
+      <c r="BZ2" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="CA2" s="24" t="s">
+      <c r="CA2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="CB2" s="24" t="s">
+      <c r="CB2" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="CC2" s="24" t="s">
+      <c r="CC2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="CD2" s="24" t="s">
+      <c r="CD2" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="CE2" s="24" t="s">
+      <c r="CE2" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="CF2" s="24" t="s">
+      <c r="CF2" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="CG2" s="24" t="s">
+      <c r="CG2" s="25" t="s">
         <v>7</v>
       </c>
       <c r="CH2" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="CI2" s="24" t="s">
+      <c r="CI2" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="CJ2" s="24" t="s">
+      <c r="CJ2" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="CK2" s="24" t="s">
+      <c r="CK2" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="CL2" s="24" t="s">
+      <c r="CL2" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="CM2" s="24" t="s">
+      <c r="CM2" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="CN2" s="24" t="s">
+      <c r="CN2" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="CO2" s="24" t="s">
+      <c r="CO2" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="CP2" s="24" t="s">
+      <c r="CP2" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="CQ2" s="24" t="s">
+      <c r="CQ2" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="CR2" s="24" t="s">
+      <c r="CR2" s="25" t="s">
         <v>27</v>
       </c>
       <c r="CS2" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="CT2" s="24" t="s">
+      <c r="CT2" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="CU2" s="24" t="s">
+      <c r="CU2" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="CV2" s="24" t="s">
+      <c r="CV2" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="CW2" s="24" t="s">
+      <c r="CW2" s="25" t="s">
         <v>68</v>
       </c>
       <c r="CX2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="CY2" s="24" t="s">
+      <c r="CY2" s="25" t="s">
         <v>31</v>
       </c>
       <c r="CZ2" s="5" t="s">
@@ -2628,122 +2640,122 @@
     </row>
     <row r="3" spans="1:105" ht="87.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
       <c r="O3" s="4" t="s">
         <v>133</v>
       </c>
       <c r="P3" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="24"/>
-      <c r="T3" s="24"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="24"/>
-      <c r="W3" s="24"/>
-      <c r="X3" s="24"/>
-      <c r="Y3" s="24"/>
-      <c r="Z3" s="24"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="25"/>
+      <c r="T3" s="25"/>
+      <c r="U3" s="25"/>
+      <c r="V3" s="25"/>
+      <c r="W3" s="25"/>
+      <c r="X3" s="25"/>
+      <c r="Y3" s="25"/>
+      <c r="Z3" s="25"/>
       <c r="AA3" s="3"/>
-      <c r="AB3" s="24"/>
-      <c r="AC3" s="24"/>
-      <c r="AD3" s="24"/>
-      <c r="AE3" s="24"/>
-      <c r="AF3" s="24"/>
-      <c r="AG3" s="24"/>
-      <c r="AH3" s="24"/>
-      <c r="AI3" s="24"/>
-      <c r="AJ3" s="24"/>
-      <c r="AK3" s="24"/>
-      <c r="AL3" s="24"/>
-      <c r="AM3" s="24"/>
-      <c r="AN3" s="24"/>
-      <c r="AO3" s="24"/>
-      <c r="AP3" s="24"/>
-      <c r="AQ3" s="24"/>
-      <c r="AR3" s="24"/>
-      <c r="AS3" s="24"/>
-      <c r="AT3" s="24"/>
-      <c r="AU3" s="24"/>
-      <c r="AV3" s="24"/>
-      <c r="AW3" s="24"/>
-      <c r="AX3" s="24"/>
-      <c r="AY3" s="24"/>
-      <c r="AZ3" s="24"/>
-      <c r="BA3" s="24"/>
-      <c r="BB3" s="24"/>
-      <c r="BC3" s="24"/>
-      <c r="BD3" s="24"/>
+      <c r="AB3" s="25"/>
+      <c r="AC3" s="25"/>
+      <c r="AD3" s="25"/>
+      <c r="AE3" s="25"/>
+      <c r="AF3" s="25"/>
+      <c r="AG3" s="25"/>
+      <c r="AH3" s="25"/>
+      <c r="AI3" s="25"/>
+      <c r="AJ3" s="25"/>
+      <c r="AK3" s="25"/>
+      <c r="AL3" s="25"/>
+      <c r="AM3" s="25"/>
+      <c r="AN3" s="25"/>
+      <c r="AO3" s="25"/>
+      <c r="AP3" s="25"/>
+      <c r="AQ3" s="25"/>
+      <c r="AR3" s="25"/>
+      <c r="AS3" s="25"/>
+      <c r="AT3" s="25"/>
+      <c r="AU3" s="25"/>
+      <c r="AV3" s="25"/>
+      <c r="AW3" s="25"/>
+      <c r="AX3" s="25"/>
+      <c r="AY3" s="25"/>
+      <c r="AZ3" s="25"/>
+      <c r="BA3" s="25"/>
+      <c r="BB3" s="25"/>
+      <c r="BC3" s="25"/>
+      <c r="BD3" s="25"/>
       <c r="BE3" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="BF3" s="24"/>
-      <c r="BG3" s="24"/>
-      <c r="BH3" s="24"/>
-      <c r="BI3" s="24"/>
-      <c r="BJ3" s="24"/>
-      <c r="BK3" s="24"/>
-      <c r="BL3" s="24"/>
+      <c r="BF3" s="25"/>
+      <c r="BG3" s="25"/>
+      <c r="BH3" s="25"/>
+      <c r="BI3" s="25"/>
+      <c r="BJ3" s="25"/>
+      <c r="BK3" s="25"/>
+      <c r="BL3" s="25"/>
       <c r="BM3" s="3"/>
       <c r="BN3" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="BO3" s="24"/>
+      <c r="BO3" s="25"/>
       <c r="BP3" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="BQ3" s="24"/>
-      <c r="BR3" s="24"/>
-      <c r="BS3" s="24"/>
-      <c r="BT3" s="24"/>
-      <c r="BU3" s="24"/>
-      <c r="BV3" s="24"/>
-      <c r="BW3" s="24"/>
-      <c r="BX3" s="24"/>
-      <c r="BY3" s="24"/>
-      <c r="BZ3" s="24"/>
-      <c r="CA3" s="24"/>
-      <c r="CB3" s="24"/>
-      <c r="CC3" s="24"/>
-      <c r="CD3" s="24"/>
-      <c r="CE3" s="24"/>
-      <c r="CF3" s="24"/>
-      <c r="CG3" s="24"/>
+      <c r="BQ3" s="25"/>
+      <c r="BR3" s="25"/>
+      <c r="BS3" s="25"/>
+      <c r="BT3" s="25"/>
+      <c r="BU3" s="25"/>
+      <c r="BV3" s="25"/>
+      <c r="BW3" s="25"/>
+      <c r="BX3" s="25"/>
+      <c r="BY3" s="25"/>
+      <c r="BZ3" s="25"/>
+      <c r="CA3" s="25"/>
+      <c r="CB3" s="25"/>
+      <c r="CC3" s="25"/>
+      <c r="CD3" s="25"/>
+      <c r="CE3" s="25"/>
+      <c r="CF3" s="25"/>
+      <c r="CG3" s="25"/>
       <c r="CH3" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="CI3" s="24"/>
-      <c r="CJ3" s="24"/>
-      <c r="CK3" s="24"/>
-      <c r="CL3" s="24"/>
-      <c r="CM3" s="24"/>
-      <c r="CN3" s="24"/>
-      <c r="CO3" s="24"/>
-      <c r="CP3" s="24"/>
-      <c r="CQ3" s="24"/>
-      <c r="CR3" s="24"/>
+      <c r="CI3" s="25"/>
+      <c r="CJ3" s="25"/>
+      <c r="CK3" s="25"/>
+      <c r="CL3" s="25"/>
+      <c r="CM3" s="25"/>
+      <c r="CN3" s="25"/>
+      <c r="CO3" s="25"/>
+      <c r="CP3" s="25"/>
+      <c r="CQ3" s="25"/>
+      <c r="CR3" s="25"/>
       <c r="CS3" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="CT3" s="24"/>
-      <c r="CU3" s="24"/>
-      <c r="CV3" s="24"/>
-      <c r="CW3" s="24"/>
+      <c r="CT3" s="25"/>
+      <c r="CU3" s="25"/>
+      <c r="CV3" s="25"/>
+      <c r="CW3" s="25"/>
       <c r="CX3" s="14"/>
-      <c r="CY3" s="24"/>
+      <c r="CY3" s="25"/>
       <c r="CZ3" s="5"/>
     </row>
     <row r="4" spans="1:105" ht="15.6" x14ac:dyDescent="0.3">
@@ -17368,7 +17380,7 @@
         <v>894</v>
       </c>
       <c r="R90" s="2">
-        <v>25316</v>
+        <v>25400</v>
       </c>
       <c r="AR90" s="2">
         <v>200</v>
@@ -17417,7 +17429,7 @@
         <v>929</v>
       </c>
       <c r="R91" s="2">
-        <v>30331</v>
+        <v>31240</v>
       </c>
       <c r="AR91" s="2">
         <v>145</v>
@@ -17466,7 +17478,7 @@
         <v>1851</v>
       </c>
       <c r="R92" s="2">
-        <v>33331</v>
+        <v>33502</v>
       </c>
       <c r="AR92" s="2">
         <v>93</v>
@@ -17508,24 +17520,116 @@
       </c>
     </row>
     <row r="93" spans="1:105" x14ac:dyDescent="0.3">
-      <c r="A93" s="2"/>
+      <c r="A93" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="E93" s="2">
+        <v>2154</v>
+      </c>
+      <c r="R93" s="2">
+        <v>31997</v>
+      </c>
+      <c r="AR93" s="2">
+        <v>64</v>
+      </c>
+      <c r="AU93" s="2">
+        <v>565</v>
+      </c>
+      <c r="BF93" s="2">
+        <v>1997</v>
+      </c>
       <c r="BM93" s="2"/>
+      <c r="BS93" s="2">
+        <v>3836</v>
+      </c>
+      <c r="BW93" s="2">
+        <v>6278</v>
+      </c>
+      <c r="BY93" s="2">
+        <v>3881</v>
+      </c>
+      <c r="CC93" s="2">
+        <v>5633</v>
+      </c>
       <c r="CD93" s="2"/>
+      <c r="CH93" s="2">
+        <v>5491</v>
+      </c>
+      <c r="CM93" s="2">
+        <v>726</v>
+      </c>
+      <c r="CV93">
+        <v>205</v>
+      </c>
+      <c r="DA93">
+        <v>84384</v>
+      </c>
     </row>
     <row r="94" spans="1:105" x14ac:dyDescent="0.3">
-      <c r="A94" s="2"/>
+      <c r="A94" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="R94" s="2">
+        <v>33606</v>
+      </c>
       <c r="BM94" s="2"/>
+      <c r="BS94" s="2">
+        <v>4204</v>
+      </c>
+      <c r="BW94" s="2">
+        <v>5002</v>
+      </c>
+      <c r="BY94" s="2">
+        <v>4799</v>
+      </c>
       <c r="CD94" s="2"/>
+      <c r="CH94" s="2">
+        <v>4344</v>
+      </c>
     </row>
     <row r="95" spans="1:105" x14ac:dyDescent="0.3">
-      <c r="A95" s="2"/>
+      <c r="A95" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="R95" s="2">
+        <v>33752</v>
+      </c>
       <c r="BM95" s="2"/>
+      <c r="BS95" s="2">
+        <v>3951</v>
+      </c>
+      <c r="BW95" s="2">
+        <v>5051</v>
+      </c>
+      <c r="BY95" s="2">
+        <v>7120</v>
+      </c>
       <c r="CD95" s="2"/>
+      <c r="CH95" s="2">
+        <v>8681</v>
+      </c>
     </row>
     <row r="96" spans="1:105" x14ac:dyDescent="0.3">
-      <c r="A96" s="2"/>
+      <c r="A96" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="R96" s="2">
+        <v>30003</v>
+      </c>
       <c r="BM96" s="2"/>
+      <c r="BS96" s="2">
+        <v>4694</v>
+      </c>
+      <c r="BW96" s="2">
+        <v>4754</v>
+      </c>
+      <c r="BY96" s="2">
+        <v>4785</v>
+      </c>
       <c r="CD96" s="2"/>
+      <c r="CH96" s="2">
+        <v>5233</v>
+      </c>
     </row>
     <row r="97" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A97" s="2"/>
@@ -17610,6 +17714,88 @@
     </row>
   </sheetData>
   <mergeCells count="106">
+    <mergeCell ref="BV2:BV3"/>
+    <mergeCell ref="BW2:BW3"/>
+    <mergeCell ref="BX2:BX3"/>
+    <mergeCell ref="BY2:BY3"/>
+    <mergeCell ref="BO2:BO3"/>
+    <mergeCell ref="BQ2:BQ3"/>
+    <mergeCell ref="BR2:BR3"/>
+    <mergeCell ref="CN2:CN3"/>
+    <mergeCell ref="CG2:CG3"/>
+    <mergeCell ref="CI2:CI3"/>
+    <mergeCell ref="CJ2:CJ3"/>
+    <mergeCell ref="CK2:CK3"/>
+    <mergeCell ref="CM2:CM3"/>
+    <mergeCell ref="BZ2:BZ3"/>
+    <mergeCell ref="CA2:CA3"/>
+    <mergeCell ref="CB2:CB3"/>
+    <mergeCell ref="CC2:CC3"/>
+    <mergeCell ref="CD2:CD3"/>
+    <mergeCell ref="CE2:CE3"/>
+    <mergeCell ref="BS2:BS3"/>
+    <mergeCell ref="BT2:BT3"/>
+    <mergeCell ref="BG2:BG3"/>
+    <mergeCell ref="BH2:BH3"/>
+    <mergeCell ref="BI2:BI3"/>
+    <mergeCell ref="BJ2:BJ3"/>
+    <mergeCell ref="BK2:BK3"/>
+    <mergeCell ref="BL2:BL3"/>
+    <mergeCell ref="AX2:AX3"/>
+    <mergeCell ref="AY2:AY3"/>
+    <mergeCell ref="BB2:BB3"/>
+    <mergeCell ref="BD2:BD3"/>
+    <mergeCell ref="BF2:BF3"/>
+    <mergeCell ref="AQ2:AQ3"/>
+    <mergeCell ref="AS2:AS3"/>
+    <mergeCell ref="AT2:AT3"/>
+    <mergeCell ref="AU2:AU3"/>
+    <mergeCell ref="AV2:AV3"/>
+    <mergeCell ref="AW2:AW3"/>
+    <mergeCell ref="AK2:AK3"/>
+    <mergeCell ref="AL2:AL3"/>
+    <mergeCell ref="AM2:AM3"/>
+    <mergeCell ref="AN2:AN3"/>
+    <mergeCell ref="AO2:AO3"/>
+    <mergeCell ref="AP2:AP3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="AH2:AH3"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="AJ2:AJ3"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="Z2:Z3"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="AY1:BL1"/>
+    <mergeCell ref="BN1:BX1"/>
+    <mergeCell ref="BY1:CG1"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="CH1:CQ1"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="B1:N1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="N2:N3"/>
     <mergeCell ref="CR1:CY1"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
@@ -17634,88 +17820,6 @@
     <mergeCell ref="AG1:AQ1"/>
     <mergeCell ref="AR1:AS1"/>
     <mergeCell ref="AT1:AX1"/>
-    <mergeCell ref="AY1:BL1"/>
-    <mergeCell ref="BN1:BX1"/>
-    <mergeCell ref="BY1:CG1"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="CH1:CQ1"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="B1:N1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="AF2:AF3"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="AJ2:AJ3"/>
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="Z2:Z3"/>
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="AQ2:AQ3"/>
-    <mergeCell ref="AS2:AS3"/>
-    <mergeCell ref="AT2:AT3"/>
-    <mergeCell ref="AU2:AU3"/>
-    <mergeCell ref="AV2:AV3"/>
-    <mergeCell ref="AW2:AW3"/>
-    <mergeCell ref="AK2:AK3"/>
-    <mergeCell ref="AL2:AL3"/>
-    <mergeCell ref="AM2:AM3"/>
-    <mergeCell ref="AN2:AN3"/>
-    <mergeCell ref="AO2:AO3"/>
-    <mergeCell ref="AP2:AP3"/>
-    <mergeCell ref="BG2:BG3"/>
-    <mergeCell ref="BH2:BH3"/>
-    <mergeCell ref="BI2:BI3"/>
-    <mergeCell ref="BJ2:BJ3"/>
-    <mergeCell ref="BK2:BK3"/>
-    <mergeCell ref="BL2:BL3"/>
-    <mergeCell ref="AX2:AX3"/>
-    <mergeCell ref="AY2:AY3"/>
-    <mergeCell ref="BB2:BB3"/>
-    <mergeCell ref="BD2:BD3"/>
-    <mergeCell ref="BF2:BF3"/>
-    <mergeCell ref="BV2:BV3"/>
-    <mergeCell ref="BW2:BW3"/>
-    <mergeCell ref="BX2:BX3"/>
-    <mergeCell ref="BY2:BY3"/>
-    <mergeCell ref="BO2:BO3"/>
-    <mergeCell ref="BQ2:BQ3"/>
-    <mergeCell ref="BR2:BR3"/>
-    <mergeCell ref="CN2:CN3"/>
-    <mergeCell ref="CG2:CG3"/>
-    <mergeCell ref="CI2:CI3"/>
-    <mergeCell ref="CJ2:CJ3"/>
-    <mergeCell ref="CK2:CK3"/>
-    <mergeCell ref="CM2:CM3"/>
-    <mergeCell ref="BZ2:BZ3"/>
-    <mergeCell ref="CA2:CA3"/>
-    <mergeCell ref="CB2:CB3"/>
-    <mergeCell ref="CC2:CC3"/>
-    <mergeCell ref="CD2:CD3"/>
-    <mergeCell ref="CE2:CE3"/>
-    <mergeCell ref="BS2:BS3"/>
-    <mergeCell ref="BT2:BT3"/>
   </mergeCells>
   <phoneticPr fontId="26" type="noConversion"/>
   <hyperlinks>
@@ -17953,8 +18057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F29D14F-5256-41EB-8E69-D00BD3A17764}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17988,16 +18092,16 @@
         <v>13</v>
       </c>
       <c r="B2">
-        <v>1082</v>
+        <v>1182</v>
       </c>
       <c r="C2">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D2">
-        <v>111299</v>
+        <v>124279</v>
       </c>
       <c r="E2">
-        <v>20530</v>
+        <v>22924</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -18005,118 +18109,118 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>2531</v>
+        <v>2901</v>
       </c>
       <c r="C3">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="D3">
-        <v>162500</v>
+        <v>190000</v>
       </c>
       <c r="E3">
-        <v>18776</v>
+        <v>21954</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>1380</v>
+        <v>2518</v>
       </c>
       <c r="C4">
-        <v>27</v>
+        <v>322</v>
       </c>
       <c r="D4">
-        <v>115235</v>
+        <v>963473</v>
       </c>
       <c r="E4">
-        <v>12795</v>
+        <v>15935</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>232</v>
+        <v>1497</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="D5">
-        <v>310700</v>
+        <v>1317887</v>
       </c>
       <c r="E5">
-        <v>12184</v>
+        <v>15730</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B6">
-        <v>2192</v>
+        <v>1533</v>
       </c>
       <c r="C6">
-        <v>273</v>
+        <v>37</v>
       </c>
       <c r="D6">
-        <v>721732</v>
+        <v>140975</v>
       </c>
       <c r="E6">
-        <v>11937</v>
+        <v>15653</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>1234</v>
+        <v>247</v>
       </c>
       <c r="C7">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>918460</v>
+        <v>351380</v>
       </c>
       <c r="E7">
-        <v>10962</v>
+        <v>13780</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>368</v>
       </c>
       <c r="B8">
-        <v>3005</v>
+        <v>1610</v>
       </c>
       <c r="C8">
-        <v>295</v>
+        <v>62</v>
       </c>
       <c r="D8">
-        <v>355000</v>
+        <v>2670674</v>
       </c>
       <c r="E8">
-        <v>7593</v>
+        <v>8068</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>368</v>
+        <v>2</v>
       </c>
       <c r="B9">
-        <v>1111</v>
+        <v>3487</v>
       </c>
       <c r="C9">
-        <v>33</v>
+        <v>355</v>
       </c>
       <c r="D9">
-        <v>1933423</v>
+        <v>355000</v>
       </c>
       <c r="E9">
-        <v>5841</v>
+        <v>7593</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -18124,10 +18228,10 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <v>714</v>
+        <v>1005</v>
       </c>
       <c r="C10">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="D10">
         <v>54700</v>
@@ -18138,36 +18242,36 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>369</v>
+        <v>5</v>
       </c>
       <c r="B11">
-        <v>760</v>
+        <v>1986</v>
       </c>
       <c r="C11">
-        <v>79</v>
+        <v>212</v>
       </c>
       <c r="D11">
-        <v>252958</v>
+        <v>333807</v>
       </c>
       <c r="E11">
-        <v>3726</v>
+        <v>5114</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>369</v>
       </c>
       <c r="B12">
-        <v>1502</v>
+        <v>1164</v>
       </c>
       <c r="C12">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="D12">
-        <v>224254</v>
+        <v>334974</v>
       </c>
       <c r="E12">
-        <v>3436</v>
+        <v>4934</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -18175,16 +18279,16 @@
         <v>4</v>
       </c>
       <c r="B13">
-        <v>745</v>
+        <v>834</v>
       </c>
       <c r="C13">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D13">
-        <v>211136</v>
+        <v>251703</v>
       </c>
       <c r="E13">
-        <v>2514</v>
+        <v>2997</v>
       </c>
     </row>
   </sheetData>
@@ -18197,10 +18301,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F0720B9-F1C1-4E88-8345-0A7B8577FCEF}">
-  <dimension ref="A1:CS82"/>
+  <dimension ref="A1:CS86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="CU82" sqref="CU82"/>
+    <sheetView topLeftCell="CO43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="CS86" sqref="CS86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18352,492 +18456,492 @@
       <c r="A2" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="25" t="s">
         <v>345</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="J2" s="24" t="s">
+      <c r="J2" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="K2" s="24" t="s">
+      <c r="K2" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="L2" s="24" t="s">
+      <c r="L2" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="M2" s="24" t="s">
+      <c r="M2" s="25" t="s">
         <v>346</v>
       </c>
-      <c r="N2" s="24" t="s">
+      <c r="N2" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="O2" s="24" t="s">
+      <c r="O2" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="P2" s="24" t="s">
+      <c r="P2" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="Q2" s="24" t="s">
+      <c r="Q2" s="25" t="s">
         <v>94</v>
       </c>
       <c r="R2" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="S2" s="24" t="s">
+      <c r="S2" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="T2" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="U2" s="24" t="s">
+      <c r="T2" s="25" t="s">
+        <v>368</v>
+      </c>
+      <c r="U2" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="V2" s="24" t="s">
+      <c r="V2" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="W2" s="24" t="s">
+      <c r="W2" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="X2" s="24" t="s">
+      <c r="X2" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="Y2" s="24" t="s">
+      <c r="Y2" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="Z2" s="24" t="s">
+      <c r="Z2" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="AA2" s="24" t="s">
+      <c r="AA2" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="AB2" s="24" t="s">
+      <c r="AB2" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="AC2" s="24" t="s">
+      <c r="AC2" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="AD2" s="24" t="s">
+      <c r="AD2" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="AE2" s="24" t="s">
+      <c r="AE2" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="AF2" s="24" t="s">
+      <c r="AF2" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="AG2" s="24" t="s">
+      <c r="AG2" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="AH2" s="24" t="s">
+      <c r="AH2" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="AI2" s="24" t="s">
+      <c r="AI2" s="25" t="s">
         <v>43</v>
       </c>
       <c r="AJ2" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="AK2" s="24" t="s">
+      <c r="AK2" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="AL2" s="24" t="s">
+      <c r="AL2" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="AM2" s="24" t="s">
+      <c r="AM2" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="AN2" s="24" t="s">
+      <c r="AN2" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="AO2" s="24" t="s">
+      <c r="AO2" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="AP2" s="24" t="s">
+      <c r="AP2" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="AQ2" s="24" t="s">
+      <c r="AQ2" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="AR2" s="24" t="s">
+      <c r="AR2" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="AS2" s="24" t="s">
+      <c r="AS2" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="AT2" s="24" t="s">
+      <c r="AT2" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="AU2" s="24" t="s">
+      <c r="AU2" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="AV2" s="24" t="s">
+      <c r="AV2" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="AW2" s="24" t="s">
+      <c r="AW2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="AX2" s="24" t="s">
+      <c r="AX2" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="AY2" s="24" t="s">
+      <c r="AY2" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="AZ2" s="24" t="s">
+      <c r="AZ2" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="BA2" s="24" t="s">
+      <c r="BA2" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="BB2" s="24" t="s">
+      <c r="BB2" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="BC2" s="24" t="s">
+      <c r="BC2" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="BD2" s="24" t="s">
+      <c r="BD2" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="BE2" s="24" t="s">
+      <c r="BE2" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="BF2" s="24" t="s">
+      <c r="BF2" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="BG2" s="24" t="s">
+      <c r="BG2" s="25" t="s">
         <v>347</v>
       </c>
       <c r="BH2" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="BI2" s="24" t="s">
+      <c r="BI2" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="BJ2" s="24" t="s">
+      <c r="BJ2" s="25" t="s">
         <v>348</v>
       </c>
-      <c r="BK2" s="24" t="s">
+      <c r="BK2" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="BL2" s="24" t="s">
+      <c r="BL2" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="BM2" s="24" t="s">
+      <c r="BM2" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="BN2" s="24" t="s">
+      <c r="BN2" s="25" t="s">
         <v>25</v>
       </c>
       <c r="BO2" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="BP2" s="24" t="s">
+      <c r="BP2" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="BQ2" s="24" t="s">
+      <c r="BQ2" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="BR2" s="24" t="s">
+      <c r="BR2" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="BS2" s="24" t="s">
+      <c r="BS2" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="BT2" s="24" t="s">
+      <c r="BT2" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="BU2" s="24" t="s">
+      <c r="BU2" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="BV2" s="24" t="s">
+      <c r="BV2" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="BW2" s="24" t="s">
+      <c r="BW2" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="BX2" s="24" t="s">
+      <c r="BX2" s="25" t="s">
         <v>369</v>
       </c>
-      <c r="BY2" s="24" t="s">
+      <c r="BY2" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="BZ2" s="24" t="s">
+      <c r="BZ2" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="CA2" s="24" t="s">
+      <c r="CA2" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="CB2" s="24" t="s">
+      <c r="CB2" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="CC2" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="CD2" s="24" t="s">
+      <c r="CC2" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="CD2" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="CE2" s="24" t="s">
+      <c r="CE2" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="CF2" s="24" t="s">
+      <c r="CF2" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="CG2" s="24" t="s">
+      <c r="CG2" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="CH2" s="24" t="s">
+      <c r="CH2" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="CI2" s="24" t="s">
+      <c r="CI2" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="CJ2" s="24" t="s">
+      <c r="CJ2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="CK2" s="24" t="s">
+      <c r="CK2" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="CL2" s="24" t="s">
+      <c r="CL2" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="CM2" s="24" t="s">
+      <c r="CM2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="CN2" s="24" t="s">
+      <c r="CN2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="CO2" s="24" t="s">
+      <c r="CO2" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="CP2" s="24" t="s">
+      <c r="CP2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="CQ2" s="24" t="s">
+      <c r="CQ2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="CR2" s="24" t="s">
+      <c r="CR2" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="CS2" s="24" t="s">
+      <c r="CS2" s="25" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A3" s="20"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
       <c r="R3" s="20"/>
-      <c r="S3" s="24"/>
-      <c r="T3" s="24"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="24"/>
-      <c r="W3" s="24"/>
-      <c r="X3" s="24"/>
-      <c r="Y3" s="24"/>
-      <c r="Z3" s="24"/>
-      <c r="AA3" s="24"/>
-      <c r="AB3" s="24"/>
-      <c r="AC3" s="24"/>
-      <c r="AD3" s="24"/>
-      <c r="AE3" s="24"/>
-      <c r="AF3" s="24"/>
-      <c r="AG3" s="24"/>
-      <c r="AH3" s="24"/>
-      <c r="AI3" s="24"/>
+      <c r="S3" s="25"/>
+      <c r="T3" s="25"/>
+      <c r="U3" s="25"/>
+      <c r="V3" s="25"/>
+      <c r="W3" s="25"/>
+      <c r="X3" s="25"/>
+      <c r="Y3" s="25"/>
+      <c r="Z3" s="25"/>
+      <c r="AA3" s="25"/>
+      <c r="AB3" s="25"/>
+      <c r="AC3" s="25"/>
+      <c r="AD3" s="25"/>
+      <c r="AE3" s="25"/>
+      <c r="AF3" s="25"/>
+      <c r="AG3" s="25"/>
+      <c r="AH3" s="25"/>
+      <c r="AI3" s="25"/>
       <c r="AJ3" s="20"/>
-      <c r="AK3" s="24"/>
-      <c r="AL3" s="24"/>
-      <c r="AM3" s="24"/>
-      <c r="AN3" s="24"/>
-      <c r="AO3" s="24"/>
-      <c r="AP3" s="24"/>
-      <c r="AQ3" s="24"/>
-      <c r="AR3" s="24"/>
-      <c r="AS3" s="24"/>
-      <c r="AT3" s="24"/>
-      <c r="AU3" s="24"/>
-      <c r="AV3" s="24"/>
-      <c r="AW3" s="24"/>
-      <c r="AX3" s="24"/>
-      <c r="AY3" s="24"/>
-      <c r="AZ3" s="24"/>
-      <c r="BA3" s="24"/>
-      <c r="BB3" s="24"/>
-      <c r="BC3" s="24"/>
-      <c r="BD3" s="24"/>
-      <c r="BE3" s="24"/>
-      <c r="BF3" s="24"/>
-      <c r="BG3" s="24"/>
+      <c r="AK3" s="25"/>
+      <c r="AL3" s="25"/>
+      <c r="AM3" s="25"/>
+      <c r="AN3" s="25"/>
+      <c r="AO3" s="25"/>
+      <c r="AP3" s="25"/>
+      <c r="AQ3" s="25"/>
+      <c r="AR3" s="25"/>
+      <c r="AS3" s="25"/>
+      <c r="AT3" s="25"/>
+      <c r="AU3" s="25"/>
+      <c r="AV3" s="25"/>
+      <c r="AW3" s="25"/>
+      <c r="AX3" s="25"/>
+      <c r="AY3" s="25"/>
+      <c r="AZ3" s="25"/>
+      <c r="BA3" s="25"/>
+      <c r="BB3" s="25"/>
+      <c r="BC3" s="25"/>
+      <c r="BD3" s="25"/>
+      <c r="BE3" s="25"/>
+      <c r="BF3" s="25"/>
+      <c r="BG3" s="25"/>
       <c r="BH3" s="20"/>
-      <c r="BI3" s="24"/>
-      <c r="BJ3" s="24"/>
-      <c r="BK3" s="24"/>
-      <c r="BL3" s="24"/>
-      <c r="BM3" s="24"/>
-      <c r="BN3" s="24"/>
+      <c r="BI3" s="25"/>
+      <c r="BJ3" s="25"/>
+      <c r="BK3" s="25"/>
+      <c r="BL3" s="25"/>
+      <c r="BM3" s="25"/>
+      <c r="BN3" s="25"/>
       <c r="BO3" s="22"/>
-      <c r="BP3" s="24"/>
-      <c r="BQ3" s="24"/>
-      <c r="BR3" s="24"/>
-      <c r="BS3" s="24"/>
-      <c r="BT3" s="24"/>
-      <c r="BU3" s="24"/>
-      <c r="BV3" s="24"/>
-      <c r="BW3" s="24"/>
-      <c r="BX3" s="24"/>
-      <c r="BY3" s="24"/>
-      <c r="BZ3" s="24"/>
-      <c r="CA3" s="24"/>
-      <c r="CB3" s="24"/>
-      <c r="CC3" s="24"/>
-      <c r="CD3" s="24"/>
-      <c r="CE3" s="24"/>
-      <c r="CF3" s="24"/>
-      <c r="CG3" s="24"/>
-      <c r="CH3" s="24"/>
-      <c r="CI3" s="24"/>
-      <c r="CJ3" s="24"/>
-      <c r="CK3" s="24"/>
-      <c r="CL3" s="24"/>
-      <c r="CM3" s="24"/>
-      <c r="CN3" s="24"/>
-      <c r="CO3" s="24"/>
-      <c r="CP3" s="24"/>
-      <c r="CQ3" s="24"/>
-      <c r="CR3" s="24"/>
-      <c r="CS3" s="24"/>
+      <c r="BP3" s="25"/>
+      <c r="BQ3" s="25"/>
+      <c r="BR3" s="25"/>
+      <c r="BS3" s="25"/>
+      <c r="BT3" s="25"/>
+      <c r="BU3" s="25"/>
+      <c r="BV3" s="25"/>
+      <c r="BW3" s="25"/>
+      <c r="BX3" s="25"/>
+      <c r="BY3" s="25"/>
+      <c r="BZ3" s="25"/>
+      <c r="CA3" s="25"/>
+      <c r="CB3" s="25"/>
+      <c r="CC3" s="25"/>
+      <c r="CD3" s="25"/>
+      <c r="CE3" s="25"/>
+      <c r="CF3" s="25"/>
+      <c r="CG3" s="25"/>
+      <c r="CH3" s="25"/>
+      <c r="CI3" s="25"/>
+      <c r="CJ3" s="25"/>
+      <c r="CK3" s="25"/>
+      <c r="CL3" s="25"/>
+      <c r="CM3" s="25"/>
+      <c r="CN3" s="25"/>
+      <c r="CO3" s="25"/>
+      <c r="CP3" s="25"/>
+      <c r="CQ3" s="25"/>
+      <c r="CR3" s="25"/>
+      <c r="CS3" s="25"/>
     </row>
     <row r="4" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A4" s="9"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
       <c r="R4" s="9"/>
-      <c r="S4" s="24"/>
-      <c r="T4" s="24"/>
-      <c r="U4" s="24"/>
-      <c r="V4" s="24"/>
-      <c r="W4" s="24"/>
-      <c r="X4" s="24"/>
-      <c r="Y4" s="24"/>
-      <c r="Z4" s="24"/>
-      <c r="AA4" s="24"/>
-      <c r="AB4" s="24"/>
-      <c r="AC4" s="24"/>
-      <c r="AD4" s="24"/>
-      <c r="AE4" s="24"/>
-      <c r="AF4" s="24"/>
-      <c r="AG4" s="24"/>
-      <c r="AH4" s="24"/>
-      <c r="AI4" s="24"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="25"/>
+      <c r="V4" s="25"/>
+      <c r="W4" s="25"/>
+      <c r="X4" s="25"/>
+      <c r="Y4" s="25"/>
+      <c r="Z4" s="25"/>
+      <c r="AA4" s="25"/>
+      <c r="AB4" s="25"/>
+      <c r="AC4" s="25"/>
+      <c r="AD4" s="25"/>
+      <c r="AE4" s="25"/>
+      <c r="AF4" s="25"/>
+      <c r="AG4" s="25"/>
+      <c r="AH4" s="25"/>
+      <c r="AI4" s="25"/>
       <c r="AJ4" s="9"/>
-      <c r="AK4" s="24"/>
-      <c r="AL4" s="24"/>
-      <c r="AM4" s="24"/>
-      <c r="AN4" s="24"/>
-      <c r="AO4" s="24"/>
-      <c r="AP4" s="24"/>
-      <c r="AQ4" s="24"/>
-      <c r="AR4" s="24"/>
-      <c r="AS4" s="24"/>
-      <c r="AT4" s="24"/>
-      <c r="AU4" s="24"/>
-      <c r="AV4" s="24"/>
-      <c r="AW4" s="24"/>
-      <c r="AX4" s="24"/>
-      <c r="AY4" s="24"/>
-      <c r="AZ4" s="24"/>
-      <c r="BA4" s="24"/>
-      <c r="BB4" s="24"/>
-      <c r="BC4" s="24"/>
-      <c r="BD4" s="24"/>
-      <c r="BE4" s="24"/>
-      <c r="BF4" s="24"/>
-      <c r="BG4" s="24"/>
+      <c r="AK4" s="25"/>
+      <c r="AL4" s="25"/>
+      <c r="AM4" s="25"/>
+      <c r="AN4" s="25"/>
+      <c r="AO4" s="25"/>
+      <c r="AP4" s="25"/>
+      <c r="AQ4" s="25"/>
+      <c r="AR4" s="25"/>
+      <c r="AS4" s="25"/>
+      <c r="AT4" s="25"/>
+      <c r="AU4" s="25"/>
+      <c r="AV4" s="25"/>
+      <c r="AW4" s="25"/>
+      <c r="AX4" s="25"/>
+      <c r="AY4" s="25"/>
+      <c r="AZ4" s="25"/>
+      <c r="BA4" s="25"/>
+      <c r="BB4" s="25"/>
+      <c r="BC4" s="25"/>
+      <c r="BD4" s="25"/>
+      <c r="BE4" s="25"/>
+      <c r="BF4" s="25"/>
+      <c r="BG4" s="25"/>
       <c r="BH4" s="9"/>
-      <c r="BI4" s="24"/>
-      <c r="BJ4" s="24"/>
-      <c r="BK4" s="24"/>
-      <c r="BL4" s="24"/>
-      <c r="BM4" s="24"/>
-      <c r="BN4" s="24"/>
+      <c r="BI4" s="25"/>
+      <c r="BJ4" s="25"/>
+      <c r="BK4" s="25"/>
+      <c r="BL4" s="25"/>
+      <c r="BM4" s="25"/>
+      <c r="BN4" s="25"/>
       <c r="BO4" s="22"/>
-      <c r="BP4" s="24"/>
-      <c r="BQ4" s="24"/>
-      <c r="BR4" s="24"/>
-      <c r="BS4" s="24"/>
-      <c r="BT4" s="24"/>
-      <c r="BU4" s="24"/>
-      <c r="BV4" s="24"/>
-      <c r="BW4" s="24"/>
-      <c r="BX4" s="24"/>
-      <c r="BY4" s="24"/>
-      <c r="BZ4" s="24"/>
-      <c r="CA4" s="24"/>
-      <c r="CB4" s="24"/>
-      <c r="CC4" s="24"/>
-      <c r="CD4" s="24"/>
-      <c r="CE4" s="24"/>
-      <c r="CF4" s="24"/>
-      <c r="CG4" s="24"/>
-      <c r="CH4" s="24"/>
-      <c r="CI4" s="24"/>
-      <c r="CJ4" s="24"/>
-      <c r="CK4" s="24"/>
-      <c r="CL4" s="24"/>
-      <c r="CM4" s="24"/>
-      <c r="CN4" s="24"/>
-      <c r="CO4" s="24"/>
-      <c r="CP4" s="24"/>
-      <c r="CQ4" s="24"/>
-      <c r="CR4" s="24"/>
-      <c r="CS4" s="24"/>
+      <c r="BP4" s="25"/>
+      <c r="BQ4" s="25"/>
+      <c r="BR4" s="25"/>
+      <c r="BS4" s="25"/>
+      <c r="BT4" s="25"/>
+      <c r="BU4" s="25"/>
+      <c r="BV4" s="25"/>
+      <c r="BW4" s="25"/>
+      <c r="BX4" s="25"/>
+      <c r="BY4" s="25"/>
+      <c r="BZ4" s="25"/>
+      <c r="CA4" s="25"/>
+      <c r="CB4" s="25"/>
+      <c r="CC4" s="25"/>
+      <c r="CD4" s="25"/>
+      <c r="CE4" s="25"/>
+      <c r="CF4" s="25"/>
+      <c r="CG4" s="25"/>
+      <c r="CH4" s="25"/>
+      <c r="CI4" s="25"/>
+      <c r="CJ4" s="25"/>
+      <c r="CK4" s="25"/>
+      <c r="CL4" s="25"/>
+      <c r="CM4" s="25"/>
+      <c r="CN4" s="25"/>
+      <c r="CO4" s="25"/>
+      <c r="CP4" s="25"/>
+      <c r="CQ4" s="25"/>
+      <c r="CR4" s="25"/>
+      <c r="CS4" s="25"/>
     </row>
     <row r="5" spans="1:97" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -27403,7 +27507,7 @@
         <v>1970</v>
       </c>
       <c r="AW82" s="10">
-        <v>1333</v>
+        <v>133</v>
       </c>
       <c r="BX82" s="10">
         <v>786</v>
@@ -27422,94 +27526,99 @@
       </c>
       <c r="CS82" s="10">
         <v>7380</v>
+      </c>
+    </row>
+    <row r="83" spans="1:97" x14ac:dyDescent="0.3">
+      <c r="A83" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="T83" s="10">
+        <v>1943</v>
+      </c>
+      <c r="AW83" s="10">
+        <v>121</v>
+      </c>
+      <c r="BX83" s="10">
+        <v>938</v>
+      </c>
+      <c r="CC83" s="10">
+        <v>542</v>
+      </c>
+      <c r="CJ83" s="10">
+        <v>747</v>
+      </c>
+      <c r="CM83" s="10">
+        <v>541</v>
+      </c>
+      <c r="CN83" s="16">
+        <v>333</v>
+      </c>
+      <c r="CS83">
+        <v>6414</v>
+      </c>
+    </row>
+    <row r="84" spans="1:97" x14ac:dyDescent="0.3">
+      <c r="A84" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="T84" s="10">
+        <v>1901</v>
+      </c>
+      <c r="BX84" s="10">
+        <v>881</v>
+      </c>
+      <c r="CC84" s="10">
+        <v>610</v>
+      </c>
+      <c r="CJ84" s="10">
+        <v>655</v>
+      </c>
+      <c r="CM84" s="10">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="85" spans="1:97" x14ac:dyDescent="0.3">
+      <c r="A85" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="T85" s="10">
+        <v>2035</v>
+      </c>
+      <c r="BX85" s="10">
+        <v>980</v>
+      </c>
+      <c r="CC85" s="10">
+        <v>570</v>
+      </c>
+      <c r="CJ85" s="10">
+        <v>634</v>
+      </c>
+      <c r="CM85" s="10">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="86" spans="1:97" x14ac:dyDescent="0.3">
+      <c r="A86" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="T86" s="10">
+        <v>1830</v>
+      </c>
+      <c r="BX86" s="10">
+        <v>917</v>
+      </c>
+      <c r="CC86" s="10">
+        <v>619</v>
+      </c>
+      <c r="CJ86" s="10">
+        <v>525</v>
+      </c>
+      <c r="CM86" s="10">
+        <v>635</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="108">
-    <mergeCell ref="CR2:CR4"/>
-    <mergeCell ref="CS2:CS4"/>
-    <mergeCell ref="CL2:CL4"/>
-    <mergeCell ref="CM2:CM4"/>
-    <mergeCell ref="CN2:CN4"/>
-    <mergeCell ref="CO2:CO4"/>
-    <mergeCell ref="CP2:CP4"/>
-    <mergeCell ref="CQ2:CQ4"/>
-    <mergeCell ref="CF2:CF4"/>
-    <mergeCell ref="CG2:CG4"/>
-    <mergeCell ref="CH2:CH4"/>
-    <mergeCell ref="CI2:CI4"/>
-    <mergeCell ref="CJ2:CJ4"/>
-    <mergeCell ref="CK2:CK4"/>
-    <mergeCell ref="CB2:CB4"/>
-    <mergeCell ref="CC2:CC4"/>
-    <mergeCell ref="CD2:CD4"/>
-    <mergeCell ref="CE2:CE4"/>
-    <mergeCell ref="BT2:BT4"/>
-    <mergeCell ref="BU2:BU4"/>
-    <mergeCell ref="BV2:BV4"/>
-    <mergeCell ref="BW2:BW4"/>
-    <mergeCell ref="BX2:BX4"/>
-    <mergeCell ref="BY2:BY4"/>
-    <mergeCell ref="BZ2:BZ4"/>
-    <mergeCell ref="CA2:CA4"/>
-    <mergeCell ref="BM2:BM4"/>
-    <mergeCell ref="BN2:BN4"/>
-    <mergeCell ref="BP2:BP4"/>
-    <mergeCell ref="BQ2:BQ4"/>
-    <mergeCell ref="BR2:BR4"/>
-    <mergeCell ref="BS2:BS4"/>
-    <mergeCell ref="BF2:BF4"/>
-    <mergeCell ref="BG2:BG4"/>
-    <mergeCell ref="BI2:BI4"/>
-    <mergeCell ref="BJ2:BJ4"/>
-    <mergeCell ref="BK2:BK4"/>
-    <mergeCell ref="BL2:BL4"/>
-    <mergeCell ref="AZ2:AZ4"/>
-    <mergeCell ref="BA2:BA4"/>
-    <mergeCell ref="BB2:BB4"/>
-    <mergeCell ref="BC2:BC4"/>
-    <mergeCell ref="BD2:BD4"/>
-    <mergeCell ref="BE2:BE4"/>
-    <mergeCell ref="AT2:AT4"/>
-    <mergeCell ref="AU2:AU4"/>
-    <mergeCell ref="AV2:AV4"/>
-    <mergeCell ref="AW2:AW4"/>
-    <mergeCell ref="AX2:AX4"/>
-    <mergeCell ref="AY2:AY4"/>
-    <mergeCell ref="AN2:AN4"/>
-    <mergeCell ref="AO2:AO4"/>
-    <mergeCell ref="AP2:AP4"/>
-    <mergeCell ref="AQ2:AQ4"/>
-    <mergeCell ref="AR2:AR4"/>
-    <mergeCell ref="AS2:AS4"/>
-    <mergeCell ref="AG2:AG4"/>
-    <mergeCell ref="AH2:AH4"/>
-    <mergeCell ref="AI2:AI4"/>
-    <mergeCell ref="AK2:AK4"/>
-    <mergeCell ref="AL2:AL4"/>
-    <mergeCell ref="AM2:AM4"/>
-    <mergeCell ref="AA2:AA4"/>
-    <mergeCell ref="AB2:AB4"/>
-    <mergeCell ref="AC2:AC4"/>
-    <mergeCell ref="AD2:AD4"/>
-    <mergeCell ref="AE2:AE4"/>
-    <mergeCell ref="AF2:AF4"/>
-    <mergeCell ref="U2:U4"/>
-    <mergeCell ref="V2:V4"/>
-    <mergeCell ref="W2:W4"/>
-    <mergeCell ref="X2:X4"/>
-    <mergeCell ref="Y2:Y4"/>
-    <mergeCell ref="Z2:Z4"/>
-    <mergeCell ref="P2:P4"/>
-    <mergeCell ref="Q2:Q4"/>
-    <mergeCell ref="S2:S4"/>
-    <mergeCell ref="T2:T4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="L2:L4"/>
-    <mergeCell ref="M2:M4"/>
     <mergeCell ref="BI1:BP1"/>
     <mergeCell ref="BQ1:BX1"/>
     <mergeCell ref="BY1:CJ1"/>
@@ -27534,6 +27643,90 @@
     <mergeCell ref="U1:X1"/>
     <mergeCell ref="N2:N4"/>
     <mergeCell ref="O2:O4"/>
+    <mergeCell ref="P2:P4"/>
+    <mergeCell ref="Q2:Q4"/>
+    <mergeCell ref="S2:S4"/>
+    <mergeCell ref="T2:T4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="AA2:AA4"/>
+    <mergeCell ref="AB2:AB4"/>
+    <mergeCell ref="AC2:AC4"/>
+    <mergeCell ref="AD2:AD4"/>
+    <mergeCell ref="AE2:AE4"/>
+    <mergeCell ref="AF2:AF4"/>
+    <mergeCell ref="U2:U4"/>
+    <mergeCell ref="V2:V4"/>
+    <mergeCell ref="W2:W4"/>
+    <mergeCell ref="X2:X4"/>
+    <mergeCell ref="Y2:Y4"/>
+    <mergeCell ref="Z2:Z4"/>
+    <mergeCell ref="AN2:AN4"/>
+    <mergeCell ref="AO2:AO4"/>
+    <mergeCell ref="AP2:AP4"/>
+    <mergeCell ref="AQ2:AQ4"/>
+    <mergeCell ref="AR2:AR4"/>
+    <mergeCell ref="AS2:AS4"/>
+    <mergeCell ref="AG2:AG4"/>
+    <mergeCell ref="AH2:AH4"/>
+    <mergeCell ref="AI2:AI4"/>
+    <mergeCell ref="AK2:AK4"/>
+    <mergeCell ref="AL2:AL4"/>
+    <mergeCell ref="AM2:AM4"/>
+    <mergeCell ref="AZ2:AZ4"/>
+    <mergeCell ref="BA2:BA4"/>
+    <mergeCell ref="BB2:BB4"/>
+    <mergeCell ref="BC2:BC4"/>
+    <mergeCell ref="BD2:BD4"/>
+    <mergeCell ref="BE2:BE4"/>
+    <mergeCell ref="AT2:AT4"/>
+    <mergeCell ref="AU2:AU4"/>
+    <mergeCell ref="AV2:AV4"/>
+    <mergeCell ref="AW2:AW4"/>
+    <mergeCell ref="AX2:AX4"/>
+    <mergeCell ref="AY2:AY4"/>
+    <mergeCell ref="BM2:BM4"/>
+    <mergeCell ref="BN2:BN4"/>
+    <mergeCell ref="BP2:BP4"/>
+    <mergeCell ref="BQ2:BQ4"/>
+    <mergeCell ref="BR2:BR4"/>
+    <mergeCell ref="BS2:BS4"/>
+    <mergeCell ref="BF2:BF4"/>
+    <mergeCell ref="BG2:BG4"/>
+    <mergeCell ref="BI2:BI4"/>
+    <mergeCell ref="BJ2:BJ4"/>
+    <mergeCell ref="BK2:BK4"/>
+    <mergeCell ref="BL2:BL4"/>
+    <mergeCell ref="CB2:CB4"/>
+    <mergeCell ref="CC2:CC4"/>
+    <mergeCell ref="CD2:CD4"/>
+    <mergeCell ref="CE2:CE4"/>
+    <mergeCell ref="BT2:BT4"/>
+    <mergeCell ref="BU2:BU4"/>
+    <mergeCell ref="BV2:BV4"/>
+    <mergeCell ref="BW2:BW4"/>
+    <mergeCell ref="BX2:BX4"/>
+    <mergeCell ref="BY2:BY4"/>
+    <mergeCell ref="BZ2:BZ4"/>
+    <mergeCell ref="CA2:CA4"/>
+    <mergeCell ref="CR2:CR4"/>
+    <mergeCell ref="CS2:CS4"/>
+    <mergeCell ref="CL2:CL4"/>
+    <mergeCell ref="CM2:CM4"/>
+    <mergeCell ref="CN2:CN4"/>
+    <mergeCell ref="CO2:CO4"/>
+    <mergeCell ref="CP2:CP4"/>
+    <mergeCell ref="CQ2:CQ4"/>
+    <mergeCell ref="CF2:CF4"/>
+    <mergeCell ref="CG2:CG4"/>
+    <mergeCell ref="CH2:CH4"/>
+    <mergeCell ref="CI2:CI4"/>
+    <mergeCell ref="CJ2:CJ4"/>
+    <mergeCell ref="CK2:CK4"/>
   </mergeCells>
   <phoneticPr fontId="26" type="noConversion"/>
   <hyperlinks>
@@ -27652,187 +27845,187 @@
       <c r="A1" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25" t="s">
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="P1" s="25"/>
+      <c r="P1" s="24"/>
       <c r="Q1" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="R1" s="25" t="s">
+      <c r="R1" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25" t="s">
+      <c r="S1" s="24"/>
+      <c r="T1" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
-      <c r="W1" s="25"/>
-      <c r="X1" s="25" t="s">
+      <c r="U1" s="24"/>
+      <c r="V1" s="24"/>
+      <c r="W1" s="24"/>
+      <c r="X1" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="Y1" s="25"/>
+      <c r="Y1" s="24"/>
       <c r="Z1" s="17" t="s">
         <v>122</v>
       </c>
       <c r="AA1" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="AB1" s="25" t="s">
+      <c r="AB1" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="AC1" s="25"/>
-      <c r="AD1" s="25"/>
-      <c r="AE1" s="25"/>
-      <c r="AF1" s="25"/>
-      <c r="AG1" s="25" t="s">
+      <c r="AC1" s="24"/>
+      <c r="AD1" s="24"/>
+      <c r="AE1" s="24"/>
+      <c r="AF1" s="24"/>
+      <c r="AG1" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="AH1" s="25"/>
-      <c r="AI1" s="25"/>
-      <c r="AJ1" s="25"/>
-      <c r="AK1" s="25"/>
-      <c r="AL1" s="25"/>
-      <c r="AM1" s="25"/>
-      <c r="AN1" s="25"/>
-      <c r="AO1" s="25"/>
-      <c r="AP1" s="25"/>
-      <c r="AQ1" s="25"/>
-      <c r="AR1" s="25" t="s">
+      <c r="AH1" s="24"/>
+      <c r="AI1" s="24"/>
+      <c r="AJ1" s="24"/>
+      <c r="AK1" s="24"/>
+      <c r="AL1" s="24"/>
+      <c r="AM1" s="24"/>
+      <c r="AN1" s="24"/>
+      <c r="AO1" s="24"/>
+      <c r="AP1" s="24"/>
+      <c r="AQ1" s="24"/>
+      <c r="AR1" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="AS1" s="25"/>
-      <c r="AT1" s="25" t="s">
+      <c r="AS1" s="24"/>
+      <c r="AT1" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="AU1" s="25"/>
-      <c r="AV1" s="25"/>
-      <c r="AW1" s="25"/>
-      <c r="AX1" s="25"/>
-      <c r="AY1" s="25" t="s">
+      <c r="AU1" s="24"/>
+      <c r="AV1" s="24"/>
+      <c r="AW1" s="24"/>
+      <c r="AX1" s="24"/>
+      <c r="AY1" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="AZ1" s="25"/>
-      <c r="BA1" s="25"/>
-      <c r="BB1" s="25"/>
-      <c r="BC1" s="25"/>
-      <c r="BD1" s="25"/>
-      <c r="BE1" s="25"/>
-      <c r="BF1" s="25"/>
-      <c r="BG1" s="25"/>
-      <c r="BH1" s="25"/>
-      <c r="BI1" s="25"/>
-      <c r="BJ1" s="25"/>
-      <c r="BK1" s="25"/>
-      <c r="BL1" s="25"/>
+      <c r="AZ1" s="24"/>
+      <c r="BA1" s="24"/>
+      <c r="BB1" s="24"/>
+      <c r="BC1" s="24"/>
+      <c r="BD1" s="24"/>
+      <c r="BE1" s="24"/>
+      <c r="BF1" s="24"/>
+      <c r="BG1" s="24"/>
+      <c r="BH1" s="24"/>
+      <c r="BI1" s="24"/>
+      <c r="BJ1" s="24"/>
+      <c r="BK1" s="24"/>
+      <c r="BL1" s="24"/>
       <c r="BM1" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="BN1" s="25" t="s">
+      <c r="BN1" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="BO1" s="25"/>
-      <c r="BP1" s="25"/>
-      <c r="BQ1" s="25"/>
-      <c r="BR1" s="25"/>
-      <c r="BS1" s="25"/>
-      <c r="BT1" s="25"/>
-      <c r="BU1" s="25"/>
-      <c r="BV1" s="25"/>
-      <c r="BW1" s="25"/>
-      <c r="BX1" s="25"/>
-      <c r="BY1" s="25" t="s">
+      <c r="BO1" s="24"/>
+      <c r="BP1" s="24"/>
+      <c r="BQ1" s="24"/>
+      <c r="BR1" s="24"/>
+      <c r="BS1" s="24"/>
+      <c r="BT1" s="24"/>
+      <c r="BU1" s="24"/>
+      <c r="BV1" s="24"/>
+      <c r="BW1" s="24"/>
+      <c r="BX1" s="24"/>
+      <c r="BY1" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="BZ1" s="25"/>
-      <c r="CA1" s="25"/>
-      <c r="CB1" s="25"/>
-      <c r="CC1" s="25"/>
-      <c r="CD1" s="25"/>
-      <c r="CE1" s="25"/>
-      <c r="CF1" s="25"/>
-      <c r="CG1" s="25"/>
-      <c r="CH1" s="25" t="s">
+      <c r="BZ1" s="24"/>
+      <c r="CA1" s="24"/>
+      <c r="CB1" s="24"/>
+      <c r="CC1" s="24"/>
+      <c r="CD1" s="24"/>
+      <c r="CE1" s="24"/>
+      <c r="CF1" s="24"/>
+      <c r="CG1" s="24"/>
+      <c r="CH1" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="CI1" s="25"/>
-      <c r="CJ1" s="25"/>
-      <c r="CK1" s="25"/>
-      <c r="CL1" s="25"/>
-      <c r="CM1" s="25"/>
-      <c r="CN1" s="25"/>
-      <c r="CO1" s="25"/>
-      <c r="CP1" s="25"/>
-      <c r="CQ1" s="25"/>
-      <c r="CR1" s="25" t="s">
+      <c r="CI1" s="24"/>
+      <c r="CJ1" s="24"/>
+      <c r="CK1" s="24"/>
+      <c r="CL1" s="24"/>
+      <c r="CM1" s="24"/>
+      <c r="CN1" s="24"/>
+      <c r="CO1" s="24"/>
+      <c r="CP1" s="24"/>
+      <c r="CQ1" s="24"/>
+      <c r="CR1" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="CS1" s="25"/>
-      <c r="CT1" s="25"/>
-      <c r="CU1" s="25"/>
-      <c r="CV1" s="25"/>
-      <c r="CW1" s="25"/>
-      <c r="CX1" s="25"/>
-      <c r="CY1" s="25"/>
+      <c r="CS1" s="24"/>
+      <c r="CT1" s="24"/>
+      <c r="CU1" s="24"/>
+      <c r="CV1" s="24"/>
+      <c r="CW1" s="24"/>
+      <c r="CX1" s="24"/>
+      <c r="CY1" s="24"/>
       <c r="CZ1" s="17"/>
     </row>
     <row r="2" spans="1:104" ht="102" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="J2" s="24" t="s">
+      <c r="J2" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="K2" s="24" t="s">
+      <c r="K2" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="L2" s="24" t="s">
+      <c r="L2" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="M2" s="24" t="s">
+      <c r="M2" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="N2" s="24" t="s">
+      <c r="N2" s="25" t="s">
         <v>105</v>
       </c>
       <c r="O2" s="19" t="s">
@@ -27841,148 +28034,148 @@
       <c r="P2" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="Q2" s="24" t="s">
+      <c r="Q2" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="R2" s="24" t="s">
+      <c r="R2" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="S2" s="24" t="s">
+      <c r="S2" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="T2" s="24" t="s">
+      <c r="T2" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="U2" s="24" t="s">
+      <c r="U2" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="V2" s="24" t="s">
+      <c r="V2" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="W2" s="24" t="s">
+      <c r="W2" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="X2" s="24" t="s">
+      <c r="X2" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="Y2" s="24" t="s">
+      <c r="Y2" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="Z2" s="24" t="s">
+      <c r="Z2" s="25" t="s">
         <v>33</v>
       </c>
       <c r="AA2" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="AB2" s="24" t="s">
+      <c r="AB2" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="AC2" s="24" t="s">
+      <c r="AC2" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="AD2" s="24" t="s">
+      <c r="AD2" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="AE2" s="24" t="s">
+      <c r="AE2" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="AF2" s="24" t="s">
+      <c r="AF2" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="AG2" s="24" t="s">
+      <c r="AG2" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="AH2" s="24" t="s">
+      <c r="AH2" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="AI2" s="24" t="s">
+      <c r="AI2" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="AJ2" s="24" t="s">
+      <c r="AJ2" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="AK2" s="24" t="s">
+      <c r="AK2" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="AL2" s="24" t="s">
+      <c r="AL2" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="AM2" s="24" t="s">
+      <c r="AM2" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="AN2" s="24" t="s">
+      <c r="AN2" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="AO2" s="24" t="s">
+      <c r="AO2" s="25" t="s">
         <v>342</v>
       </c>
-      <c r="AP2" s="24" t="s">
+      <c r="AP2" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="AQ2" s="24" t="s">
+      <c r="AQ2" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="AR2" s="24" t="s">
+      <c r="AR2" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="AS2" s="24" t="s">
+      <c r="AS2" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="AT2" s="24" t="s">
+      <c r="AT2" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="AU2" s="24" t="s">
+      <c r="AU2" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="AV2" s="24" t="s">
+      <c r="AV2" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="AW2" s="24" t="s">
+      <c r="AW2" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="AX2" s="24" t="s">
+      <c r="AX2" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="AY2" s="24" t="s">
+      <c r="AY2" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="AZ2" s="24" t="s">
+      <c r="AZ2" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="BA2" s="24" t="s">
+      <c r="BA2" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="BB2" s="24" t="s">
+      <c r="BB2" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="BC2" s="24" t="s">
+      <c r="BC2" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="BD2" s="24" t="s">
+      <c r="BD2" s="25" t="s">
         <v>51</v>
       </c>
       <c r="BE2" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="BF2" s="24" t="s">
+      <c r="BF2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="BG2" s="24" t="s">
+      <c r="BG2" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="BH2" s="24" t="s">
+      <c r="BH2" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="BI2" s="24" t="s">
+      <c r="BI2" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="BJ2" s="24" t="s">
+      <c r="BJ2" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="BK2" s="24" t="s">
+      <c r="BK2" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="BL2" s="24" t="s">
+      <c r="BL2" s="25" t="s">
         <v>15</v>
       </c>
       <c r="BM2" s="17" t="s">
@@ -27991,115 +28184,115 @@
       <c r="BN2" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="BO2" s="24" t="s">
+      <c r="BO2" s="25" t="s">
         <v>34</v>
       </c>
       <c r="BP2" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="BQ2" s="24" t="s">
+      <c r="BQ2" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="BR2" s="24" t="s">
+      <c r="BR2" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="BS2" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="BT2" s="24" t="s">
+      <c r="BS2" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="BT2" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="BU2" s="24" t="s">
+      <c r="BU2" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="BV2" s="24" t="s">
+      <c r="BV2" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="BW2" s="24" t="s">
+      <c r="BW2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="BX2" s="24" t="s">
+      <c r="BX2" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="BY2" s="24" t="s">
+      <c r="BY2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="BZ2" s="24" t="s">
+      <c r="BZ2" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="CA2" s="24" t="s">
+      <c r="CA2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="CB2" s="24" t="s">
+      <c r="CB2" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="CC2" s="24" t="s">
+      <c r="CC2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="CD2" s="24" t="s">
+      <c r="CD2" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="CE2" s="24" t="s">
+      <c r="CE2" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="CF2" s="24" t="s">
+      <c r="CF2" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="CG2" s="24" t="s">
+      <c r="CG2" s="25" t="s">
         <v>7</v>
       </c>
       <c r="CH2" s="19" t="s">
         <v>349</v>
       </c>
-      <c r="CI2" s="24" t="s">
+      <c r="CI2" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="CJ2" s="24" t="s">
+      <c r="CJ2" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="CK2" s="24" t="s">
+      <c r="CK2" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="CL2" s="24" t="s">
+      <c r="CL2" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="CM2" s="24" t="s">
+      <c r="CM2" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="CN2" s="24" t="s">
+      <c r="CN2" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="CO2" s="24" t="s">
+      <c r="CO2" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="CP2" s="24" t="s">
+      <c r="CP2" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="CQ2" s="24" t="s">
+      <c r="CQ2" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="CR2" s="24" t="s">
+      <c r="CR2" s="25" t="s">
         <v>27</v>
       </c>
       <c r="CS2" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="CT2" s="24" t="s">
+      <c r="CT2" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="CU2" s="24" t="s">
+      <c r="CU2" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="CV2" s="24" t="s">
+      <c r="CV2" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="CW2" s="24" t="s">
+      <c r="CW2" s="25" t="s">
         <v>68</v>
       </c>
       <c r="CX2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="CY2" s="24" t="s">
+      <c r="CY2" s="25" t="s">
         <v>31</v>
       </c>
       <c r="CZ2" s="18" t="s">
@@ -28108,122 +28301,122 @@
     </row>
     <row r="3" spans="1:104" ht="87.6" x14ac:dyDescent="0.3">
       <c r="A3" s="17"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
       <c r="O3" s="19" t="s">
         <v>133</v>
       </c>
       <c r="P3" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="24"/>
-      <c r="T3" s="24"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="24"/>
-      <c r="W3" s="24"/>
-      <c r="X3" s="24"/>
-      <c r="Y3" s="24"/>
-      <c r="Z3" s="24"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="25"/>
+      <c r="T3" s="25"/>
+      <c r="U3" s="25"/>
+      <c r="V3" s="25"/>
+      <c r="W3" s="25"/>
+      <c r="X3" s="25"/>
+      <c r="Y3" s="25"/>
+      <c r="Z3" s="25"/>
       <c r="AA3" s="17"/>
-      <c r="AB3" s="24"/>
-      <c r="AC3" s="24"/>
-      <c r="AD3" s="24"/>
-      <c r="AE3" s="24"/>
-      <c r="AF3" s="24"/>
-      <c r="AG3" s="24"/>
-      <c r="AH3" s="24"/>
-      <c r="AI3" s="24"/>
-      <c r="AJ3" s="24"/>
-      <c r="AK3" s="24"/>
-      <c r="AL3" s="24"/>
-      <c r="AM3" s="24"/>
-      <c r="AN3" s="24"/>
-      <c r="AO3" s="24"/>
-      <c r="AP3" s="24"/>
-      <c r="AQ3" s="24"/>
-      <c r="AR3" s="24"/>
-      <c r="AS3" s="24"/>
-      <c r="AT3" s="24"/>
-      <c r="AU3" s="24"/>
-      <c r="AV3" s="24"/>
-      <c r="AW3" s="24"/>
-      <c r="AX3" s="24"/>
-      <c r="AY3" s="24"/>
-      <c r="AZ3" s="24"/>
-      <c r="BA3" s="24"/>
-      <c r="BB3" s="24"/>
-      <c r="BC3" s="24"/>
-      <c r="BD3" s="24"/>
+      <c r="AB3" s="25"/>
+      <c r="AC3" s="25"/>
+      <c r="AD3" s="25"/>
+      <c r="AE3" s="25"/>
+      <c r="AF3" s="25"/>
+      <c r="AG3" s="25"/>
+      <c r="AH3" s="25"/>
+      <c r="AI3" s="25"/>
+      <c r="AJ3" s="25"/>
+      <c r="AK3" s="25"/>
+      <c r="AL3" s="25"/>
+      <c r="AM3" s="25"/>
+      <c r="AN3" s="25"/>
+      <c r="AO3" s="25"/>
+      <c r="AP3" s="25"/>
+      <c r="AQ3" s="25"/>
+      <c r="AR3" s="25"/>
+      <c r="AS3" s="25"/>
+      <c r="AT3" s="25"/>
+      <c r="AU3" s="25"/>
+      <c r="AV3" s="25"/>
+      <c r="AW3" s="25"/>
+      <c r="AX3" s="25"/>
+      <c r="AY3" s="25"/>
+      <c r="AZ3" s="25"/>
+      <c r="BA3" s="25"/>
+      <c r="BB3" s="25"/>
+      <c r="BC3" s="25"/>
+      <c r="BD3" s="25"/>
       <c r="BE3" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="BF3" s="24"/>
-      <c r="BG3" s="24"/>
-      <c r="BH3" s="24"/>
-      <c r="BI3" s="24"/>
-      <c r="BJ3" s="24"/>
-      <c r="BK3" s="24"/>
-      <c r="BL3" s="24"/>
+      <c r="BF3" s="25"/>
+      <c r="BG3" s="25"/>
+      <c r="BH3" s="25"/>
+      <c r="BI3" s="25"/>
+      <c r="BJ3" s="25"/>
+      <c r="BK3" s="25"/>
+      <c r="BL3" s="25"/>
       <c r="BM3" s="17"/>
       <c r="BN3" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="BO3" s="24"/>
+      <c r="BO3" s="25"/>
       <c r="BP3" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="BQ3" s="24"/>
-      <c r="BR3" s="24"/>
-      <c r="BS3" s="24"/>
-      <c r="BT3" s="24"/>
-      <c r="BU3" s="24"/>
-      <c r="BV3" s="24"/>
-      <c r="BW3" s="24"/>
-      <c r="BX3" s="24"/>
-      <c r="BY3" s="24"/>
-      <c r="BZ3" s="24"/>
-      <c r="CA3" s="24"/>
-      <c r="CB3" s="24"/>
-      <c r="CC3" s="24"/>
-      <c r="CD3" s="24"/>
-      <c r="CE3" s="24"/>
-      <c r="CF3" s="24"/>
-      <c r="CG3" s="24"/>
+      <c r="BQ3" s="25"/>
+      <c r="BR3" s="25"/>
+      <c r="BS3" s="25"/>
+      <c r="BT3" s="25"/>
+      <c r="BU3" s="25"/>
+      <c r="BV3" s="25"/>
+      <c r="BW3" s="25"/>
+      <c r="BX3" s="25"/>
+      <c r="BY3" s="25"/>
+      <c r="BZ3" s="25"/>
+      <c r="CA3" s="25"/>
+      <c r="CB3" s="25"/>
+      <c r="CC3" s="25"/>
+      <c r="CD3" s="25"/>
+      <c r="CE3" s="25"/>
+      <c r="CF3" s="25"/>
+      <c r="CG3" s="25"/>
       <c r="CH3" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="CI3" s="24"/>
-      <c r="CJ3" s="24"/>
-      <c r="CK3" s="24"/>
-      <c r="CL3" s="24"/>
-      <c r="CM3" s="24"/>
-      <c r="CN3" s="24"/>
-      <c r="CO3" s="24"/>
-      <c r="CP3" s="24"/>
-      <c r="CQ3" s="24"/>
-      <c r="CR3" s="24"/>
+      <c r="CI3" s="25"/>
+      <c r="CJ3" s="25"/>
+      <c r="CK3" s="25"/>
+      <c r="CL3" s="25"/>
+      <c r="CM3" s="25"/>
+      <c r="CN3" s="25"/>
+      <c r="CO3" s="25"/>
+      <c r="CP3" s="25"/>
+      <c r="CQ3" s="25"/>
+      <c r="CR3" s="25"/>
       <c r="CS3" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="CT3" s="24"/>
-      <c r="CU3" s="24"/>
-      <c r="CV3" s="24"/>
-      <c r="CW3" s="24"/>
+      <c r="CT3" s="25"/>
+      <c r="CU3" s="25"/>
+      <c r="CV3" s="25"/>
+      <c r="CW3" s="25"/>
       <c r="CX3" s="19"/>
-      <c r="CY3" s="24"/>
+      <c r="CY3" s="25"/>
       <c r="CZ3" s="18"/>
     </row>
     <row r="4" spans="1:104" x14ac:dyDescent="0.3">
@@ -36941,6 +37134,88 @@
     </row>
   </sheetData>
   <mergeCells count="106">
+    <mergeCell ref="CR2:CR3"/>
+    <mergeCell ref="CT2:CT3"/>
+    <mergeCell ref="CU2:CU3"/>
+    <mergeCell ref="CV2:CV3"/>
+    <mergeCell ref="CW2:CW3"/>
+    <mergeCell ref="CY2:CY3"/>
+    <mergeCell ref="CL2:CL3"/>
+    <mergeCell ref="CM2:CM3"/>
+    <mergeCell ref="CN2:CN3"/>
+    <mergeCell ref="CO2:CO3"/>
+    <mergeCell ref="CP2:CP3"/>
+    <mergeCell ref="CQ2:CQ3"/>
+    <mergeCell ref="CE2:CE3"/>
+    <mergeCell ref="CF2:CF3"/>
+    <mergeCell ref="CG2:CG3"/>
+    <mergeCell ref="CI2:CI3"/>
+    <mergeCell ref="CJ2:CJ3"/>
+    <mergeCell ref="CK2:CK3"/>
+    <mergeCell ref="BY2:BY3"/>
+    <mergeCell ref="BZ2:BZ3"/>
+    <mergeCell ref="CA2:CA3"/>
+    <mergeCell ref="CB2:CB3"/>
+    <mergeCell ref="CC2:CC3"/>
+    <mergeCell ref="CD2:CD3"/>
+    <mergeCell ref="BS2:BS3"/>
+    <mergeCell ref="BT2:BT3"/>
+    <mergeCell ref="BU2:BU3"/>
+    <mergeCell ref="BV2:BV3"/>
+    <mergeCell ref="BW2:BW3"/>
+    <mergeCell ref="BX2:BX3"/>
+    <mergeCell ref="BJ2:BJ3"/>
+    <mergeCell ref="BK2:BK3"/>
+    <mergeCell ref="BL2:BL3"/>
+    <mergeCell ref="BO2:BO3"/>
+    <mergeCell ref="BQ2:BQ3"/>
+    <mergeCell ref="BR2:BR3"/>
+    <mergeCell ref="BC2:BC3"/>
+    <mergeCell ref="BD2:BD3"/>
+    <mergeCell ref="BF2:BF3"/>
+    <mergeCell ref="BG2:BG3"/>
+    <mergeCell ref="BH2:BH3"/>
+    <mergeCell ref="BI2:BI3"/>
+    <mergeCell ref="AW2:AW3"/>
+    <mergeCell ref="AX2:AX3"/>
+    <mergeCell ref="AY2:AY3"/>
+    <mergeCell ref="AZ2:AZ3"/>
+    <mergeCell ref="BA2:BA3"/>
+    <mergeCell ref="BB2:BB3"/>
+    <mergeCell ref="AQ2:AQ3"/>
+    <mergeCell ref="AR2:AR3"/>
+    <mergeCell ref="AS2:AS3"/>
+    <mergeCell ref="AT2:AT3"/>
+    <mergeCell ref="AU2:AU3"/>
+    <mergeCell ref="AV2:AV3"/>
+    <mergeCell ref="AK2:AK3"/>
+    <mergeCell ref="AL2:AL3"/>
+    <mergeCell ref="AM2:AM3"/>
+    <mergeCell ref="AN2:AN3"/>
+    <mergeCell ref="AO2:AO3"/>
+    <mergeCell ref="AP2:AP3"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="AH2:AH3"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="AJ2:AJ3"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="Z2:Z3"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="CH1:CQ1"/>
     <mergeCell ref="CR1:CY1"/>
     <mergeCell ref="B2:B3"/>
@@ -36965,88 +37240,6 @@
     <mergeCell ref="AB1:AF1"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="S2:S3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="AF2:AF3"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="AJ2:AJ3"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="Z2:Z3"/>
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="AQ2:AQ3"/>
-    <mergeCell ref="AR2:AR3"/>
-    <mergeCell ref="AS2:AS3"/>
-    <mergeCell ref="AT2:AT3"/>
-    <mergeCell ref="AU2:AU3"/>
-    <mergeCell ref="AV2:AV3"/>
-    <mergeCell ref="AK2:AK3"/>
-    <mergeCell ref="AL2:AL3"/>
-    <mergeCell ref="AM2:AM3"/>
-    <mergeCell ref="AN2:AN3"/>
-    <mergeCell ref="AO2:AO3"/>
-    <mergeCell ref="AP2:AP3"/>
-    <mergeCell ref="BC2:BC3"/>
-    <mergeCell ref="BD2:BD3"/>
-    <mergeCell ref="BF2:BF3"/>
-    <mergeCell ref="BG2:BG3"/>
-    <mergeCell ref="BH2:BH3"/>
-    <mergeCell ref="BI2:BI3"/>
-    <mergeCell ref="AW2:AW3"/>
-    <mergeCell ref="AX2:AX3"/>
-    <mergeCell ref="AY2:AY3"/>
-    <mergeCell ref="AZ2:AZ3"/>
-    <mergeCell ref="BA2:BA3"/>
-    <mergeCell ref="BB2:BB3"/>
-    <mergeCell ref="BS2:BS3"/>
-    <mergeCell ref="BT2:BT3"/>
-    <mergeCell ref="BU2:BU3"/>
-    <mergeCell ref="BV2:BV3"/>
-    <mergeCell ref="BW2:BW3"/>
-    <mergeCell ref="BX2:BX3"/>
-    <mergeCell ref="BJ2:BJ3"/>
-    <mergeCell ref="BK2:BK3"/>
-    <mergeCell ref="BL2:BL3"/>
-    <mergeCell ref="BO2:BO3"/>
-    <mergeCell ref="BQ2:BQ3"/>
-    <mergeCell ref="BR2:BR3"/>
-    <mergeCell ref="CE2:CE3"/>
-    <mergeCell ref="CF2:CF3"/>
-    <mergeCell ref="CG2:CG3"/>
-    <mergeCell ref="CI2:CI3"/>
-    <mergeCell ref="CJ2:CJ3"/>
-    <mergeCell ref="CK2:CK3"/>
-    <mergeCell ref="BY2:BY3"/>
-    <mergeCell ref="BZ2:BZ3"/>
-    <mergeCell ref="CA2:CA3"/>
-    <mergeCell ref="CB2:CB3"/>
-    <mergeCell ref="CC2:CC3"/>
-    <mergeCell ref="CD2:CD3"/>
-    <mergeCell ref="CR2:CR3"/>
-    <mergeCell ref="CT2:CT3"/>
-    <mergeCell ref="CU2:CU3"/>
-    <mergeCell ref="CV2:CV3"/>
-    <mergeCell ref="CW2:CW3"/>
-    <mergeCell ref="CY2:CY3"/>
-    <mergeCell ref="CL2:CL3"/>
-    <mergeCell ref="CM2:CM3"/>
-    <mergeCell ref="CN2:CN3"/>
-    <mergeCell ref="CO2:CO3"/>
-    <mergeCell ref="CP2:CP3"/>
-    <mergeCell ref="CQ2:CQ3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" tooltip="2020 coronavirus pandemic in Argentina" display="https://en.wikipedia.org/wiki/2020_coronavirus_pandemic_in_Argentina" xr:uid="{A1276897-A83E-4B5D-8DEB-71FFBF97F299}"/>

--- a/myfile.xlsx
+++ b/myfile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\coronavirus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8CEC96-00BC-4041-986A-40F7F6B84CC6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A41110E0-9EDE-4E20-9E60-F85D62AF6D94}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1812" yWindow="1812" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cases" sheetId="5" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="384">
   <si>
     <t>China</t>
   </si>
@@ -1168,6 +1168,21 @@
   </si>
   <si>
     <t>20.4.11</t>
+  </si>
+  <si>
+    <t>20.4.12</t>
+  </si>
+  <si>
+    <t>20.4.13</t>
+  </si>
+  <si>
+    <t>20.4.14</t>
+  </si>
+  <si>
+    <t>20.4.15</t>
+  </si>
+  <si>
+    <t>20.4.16</t>
   </si>
 </sst>
 </file>
@@ -1802,11 +1817,11 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2169,8 +2184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:DA118"/>
   <sheetViews>
-    <sheetView topLeftCell="CQ79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="CI96" sqref="CI96"/>
+    <sheetView topLeftCell="CF88" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="CJ101" sqref="CJ101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2179,144 +2194,144 @@
       <c r="A1" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24" t="s">
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="P1" s="24"/>
+      <c r="P1" s="25"/>
       <c r="Q1" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="R1" s="24" t="s">
+      <c r="R1" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24" t="s">
+      <c r="S1" s="25"/>
+      <c r="T1" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24" t="s">
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="Y1" s="24"/>
+      <c r="Y1" s="25"/>
       <c r="Z1" s="3" t="s">
         <v>122</v>
       </c>
       <c r="AA1" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="AB1" s="24" t="s">
+      <c r="AB1" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="AC1" s="24"/>
-      <c r="AD1" s="24"/>
-      <c r="AE1" s="24"/>
-      <c r="AF1" s="24"/>
-      <c r="AG1" s="24" t="s">
+      <c r="AC1" s="25"/>
+      <c r="AD1" s="25"/>
+      <c r="AE1" s="25"/>
+      <c r="AF1" s="25"/>
+      <c r="AG1" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="AH1" s="24"/>
-      <c r="AI1" s="24"/>
-      <c r="AJ1" s="24"/>
-      <c r="AK1" s="24"/>
-      <c r="AL1" s="24"/>
-      <c r="AM1" s="24"/>
-      <c r="AN1" s="24"/>
-      <c r="AO1" s="24"/>
-      <c r="AP1" s="24"/>
-      <c r="AQ1" s="24"/>
-      <c r="AR1" s="24" t="s">
+      <c r="AH1" s="25"/>
+      <c r="AI1" s="25"/>
+      <c r="AJ1" s="25"/>
+      <c r="AK1" s="25"/>
+      <c r="AL1" s="25"/>
+      <c r="AM1" s="25"/>
+      <c r="AN1" s="25"/>
+      <c r="AO1" s="25"/>
+      <c r="AP1" s="25"/>
+      <c r="AQ1" s="25"/>
+      <c r="AR1" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="AS1" s="24"/>
-      <c r="AT1" s="24" t="s">
+      <c r="AS1" s="25"/>
+      <c r="AT1" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="AU1" s="24"/>
-      <c r="AV1" s="24"/>
-      <c r="AW1" s="24"/>
-      <c r="AX1" s="24"/>
-      <c r="AY1" s="24" t="s">
+      <c r="AU1" s="25"/>
+      <c r="AV1" s="25"/>
+      <c r="AW1" s="25"/>
+      <c r="AX1" s="25"/>
+      <c r="AY1" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="AZ1" s="24"/>
-      <c r="BA1" s="24"/>
-      <c r="BB1" s="24"/>
-      <c r="BC1" s="24"/>
-      <c r="BD1" s="24"/>
-      <c r="BE1" s="24"/>
-      <c r="BF1" s="24"/>
-      <c r="BG1" s="24"/>
-      <c r="BH1" s="24"/>
-      <c r="BI1" s="24"/>
-      <c r="BJ1" s="24"/>
-      <c r="BK1" s="24"/>
-      <c r="BL1" s="24"/>
+      <c r="AZ1" s="25"/>
+      <c r="BA1" s="25"/>
+      <c r="BB1" s="25"/>
+      <c r="BC1" s="25"/>
+      <c r="BD1" s="25"/>
+      <c r="BE1" s="25"/>
+      <c r="BF1" s="25"/>
+      <c r="BG1" s="25"/>
+      <c r="BH1" s="25"/>
+      <c r="BI1" s="25"/>
+      <c r="BJ1" s="25"/>
+      <c r="BK1" s="25"/>
+      <c r="BL1" s="25"/>
       <c r="BM1" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="BN1" s="24" t="s">
+      <c r="BN1" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="BO1" s="24"/>
-      <c r="BP1" s="24"/>
-      <c r="BQ1" s="24"/>
-      <c r="BR1" s="24"/>
-      <c r="BS1" s="24"/>
-      <c r="BT1" s="24"/>
-      <c r="BU1" s="24"/>
-      <c r="BV1" s="24"/>
-      <c r="BW1" s="24"/>
-      <c r="BX1" s="24"/>
-      <c r="BY1" s="24" t="s">
+      <c r="BO1" s="25"/>
+      <c r="BP1" s="25"/>
+      <c r="BQ1" s="25"/>
+      <c r="BR1" s="25"/>
+      <c r="BS1" s="25"/>
+      <c r="BT1" s="25"/>
+      <c r="BU1" s="25"/>
+      <c r="BV1" s="25"/>
+      <c r="BW1" s="25"/>
+      <c r="BX1" s="25"/>
+      <c r="BY1" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="BZ1" s="24"/>
-      <c r="CA1" s="24"/>
-      <c r="CB1" s="24"/>
-      <c r="CC1" s="24"/>
-      <c r="CD1" s="24"/>
-      <c r="CE1" s="24"/>
-      <c r="CF1" s="24"/>
-      <c r="CG1" s="24"/>
-      <c r="CH1" s="24" t="s">
+      <c r="BZ1" s="25"/>
+      <c r="CA1" s="25"/>
+      <c r="CB1" s="25"/>
+      <c r="CC1" s="25"/>
+      <c r="CD1" s="25"/>
+      <c r="CE1" s="25"/>
+      <c r="CF1" s="25"/>
+      <c r="CG1" s="25"/>
+      <c r="CH1" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="CI1" s="24"/>
-      <c r="CJ1" s="24"/>
-      <c r="CK1" s="24"/>
-      <c r="CL1" s="24"/>
-      <c r="CM1" s="24"/>
-      <c r="CN1" s="24"/>
-      <c r="CO1" s="24"/>
-      <c r="CP1" s="24"/>
-      <c r="CQ1" s="24"/>
-      <c r="CR1" s="24" t="s">
+      <c r="CI1" s="25"/>
+      <c r="CJ1" s="25"/>
+      <c r="CK1" s="25"/>
+      <c r="CL1" s="25"/>
+      <c r="CM1" s="25"/>
+      <c r="CN1" s="25"/>
+      <c r="CO1" s="25"/>
+      <c r="CP1" s="25"/>
+      <c r="CQ1" s="25"/>
+      <c r="CR1" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="CS1" s="24"/>
-      <c r="CT1" s="24"/>
-      <c r="CU1" s="24"/>
-      <c r="CV1" s="24"/>
-      <c r="CW1" s="24"/>
-      <c r="CX1" s="24"/>
-      <c r="CY1" s="24"/>
+      <c r="CS1" s="25"/>
+      <c r="CT1" s="25"/>
+      <c r="CU1" s="25"/>
+      <c r="CV1" s="25"/>
+      <c r="CW1" s="25"/>
+      <c r="CX1" s="25"/>
+      <c r="CY1" s="25"/>
       <c r="CZ1" s="3" t="s">
         <v>361</v>
       </c>
@@ -2325,43 +2340,43 @@
       <c r="A2" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="J2" s="25" t="s">
+      <c r="J2" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="K2" s="25" t="s">
+      <c r="K2" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="L2" s="25" t="s">
+      <c r="L2" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="M2" s="25" t="s">
+      <c r="M2" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="N2" s="25" t="s">
+      <c r="N2" s="24" t="s">
         <v>105</v>
       </c>
       <c r="O2" s="4" t="s">
@@ -2370,148 +2385,148 @@
       <c r="P2" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="Q2" s="25" t="s">
+      <c r="Q2" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="R2" s="25" t="s">
+      <c r="R2" s="24" t="s">
         <v>368</v>
       </c>
-      <c r="S2" s="25" t="s">
+      <c r="S2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="T2" s="25" t="s">
+      <c r="T2" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="U2" s="25" t="s">
+      <c r="U2" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="V2" s="25" t="s">
+      <c r="V2" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="W2" s="25" t="s">
+      <c r="W2" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="X2" s="25" t="s">
+      <c r="X2" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="Y2" s="25" t="s">
+      <c r="Y2" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="Z2" s="25" t="s">
+      <c r="Z2" s="24" t="s">
         <v>33</v>
       </c>
       <c r="AA2" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="AB2" s="25" t="s">
+      <c r="AB2" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="AC2" s="25" t="s">
+      <c r="AC2" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="AD2" s="25" t="s">
+      <c r="AD2" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="AE2" s="25" t="s">
+      <c r="AE2" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="AF2" s="25" t="s">
+      <c r="AF2" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="AG2" s="25" t="s">
+      <c r="AG2" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="AH2" s="25" t="s">
+      <c r="AH2" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="AI2" s="25" t="s">
+      <c r="AI2" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="AJ2" s="25" t="s">
+      <c r="AJ2" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="AK2" s="25" t="s">
+      <c r="AK2" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="AL2" s="25" t="s">
+      <c r="AL2" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="AM2" s="25" t="s">
+      <c r="AM2" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="AN2" s="25" t="s">
+      <c r="AN2" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="AO2" s="25" t="s">
+      <c r="AO2" s="24" t="s">
         <v>342</v>
       </c>
-      <c r="AP2" s="25" t="s">
+      <c r="AP2" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="AQ2" s="25" t="s">
+      <c r="AQ2" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="AR2" s="25" t="s">
+      <c r="AR2" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="AS2" s="25" t="s">
+      <c r="AS2" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="AT2" s="25" t="s">
+      <c r="AT2" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="AU2" s="25" t="s">
+      <c r="AU2" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="AV2" s="25" t="s">
+      <c r="AV2" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="AW2" s="25" t="s">
+      <c r="AW2" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="AX2" s="25" t="s">
+      <c r="AX2" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="AY2" s="25" t="s">
+      <c r="AY2" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="AZ2" s="25" t="s">
+      <c r="AZ2" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="BA2" s="25" t="s">
+      <c r="BA2" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="BB2" s="25" t="s">
+      <c r="BB2" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="BC2" s="25" t="s">
+      <c r="BC2" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="BD2" s="25" t="s">
+      <c r="BD2" s="24" t="s">
         <v>51</v>
       </c>
       <c r="BE2" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="BF2" s="25" t="s">
+      <c r="BF2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="BG2" s="25" t="s">
+      <c r="BG2" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="BH2" s="25" t="s">
+      <c r="BH2" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="BI2" s="25" t="s">
+      <c r="BI2" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="BJ2" s="25" t="s">
+      <c r="BJ2" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="BK2" s="25" t="s">
+      <c r="BK2" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="BL2" s="25" t="s">
+      <c r="BL2" s="24" t="s">
         <v>15</v>
       </c>
       <c r="BM2" s="3" t="s">
@@ -2520,115 +2535,115 @@
       <c r="BN2" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="BO2" s="25" t="s">
+      <c r="BO2" s="24" t="s">
         <v>34</v>
       </c>
       <c r="BP2" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="BQ2" s="25" t="s">
+      <c r="BQ2" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="BR2" s="25" t="s">
+      <c r="BR2" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="BS2" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="BT2" s="25" t="s">
+      <c r="BS2" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="BT2" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="BU2" s="25" t="s">
+      <c r="BU2" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="BV2" s="25" t="s">
+      <c r="BV2" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="BW2" s="25" t="s">
+      <c r="BW2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="BX2" s="25" t="s">
+      <c r="BX2" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="BY2" s="25" t="s">
+      <c r="BY2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="BZ2" s="25" t="s">
+      <c r="BZ2" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="CA2" s="25" t="s">
+      <c r="CA2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="CB2" s="25" t="s">
+      <c r="CB2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="CC2" s="25" t="s">
+      <c r="CC2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="CD2" s="25" t="s">
+      <c r="CD2" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="CE2" s="25" t="s">
+      <c r="CE2" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="CF2" s="25" t="s">
+      <c r="CF2" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="CG2" s="25" t="s">
+      <c r="CG2" s="24" t="s">
         <v>7</v>
       </c>
       <c r="CH2" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="CI2" s="25" t="s">
+      <c r="CI2" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="CJ2" s="25" t="s">
+      <c r="CJ2" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="CK2" s="25" t="s">
+      <c r="CK2" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="CL2" s="25" t="s">
+      <c r="CL2" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="CM2" s="25" t="s">
+      <c r="CM2" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="CN2" s="25" t="s">
+      <c r="CN2" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="CO2" s="25" t="s">
+      <c r="CO2" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="CP2" s="25" t="s">
+      <c r="CP2" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="CQ2" s="25" t="s">
+      <c r="CQ2" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="CR2" s="25" t="s">
+      <c r="CR2" s="24" t="s">
         <v>27</v>
       </c>
       <c r="CS2" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="CT2" s="25" t="s">
+      <c r="CT2" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="CU2" s="25" t="s">
+      <c r="CU2" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="CV2" s="25" t="s">
+      <c r="CV2" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="CW2" s="25" t="s">
+      <c r="CW2" s="24" t="s">
         <v>68</v>
       </c>
       <c r="CX2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="CY2" s="25" t="s">
+      <c r="CY2" s="24" t="s">
         <v>31</v>
       </c>
       <c r="CZ2" s="5" t="s">
@@ -2640,122 +2655,122 @@
     </row>
     <row r="3" spans="1:105" ht="87.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
       <c r="O3" s="4" t="s">
         <v>133</v>
       </c>
       <c r="P3" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="25"/>
-      <c r="S3" s="25"/>
-      <c r="T3" s="25"/>
-      <c r="U3" s="25"/>
-      <c r="V3" s="25"/>
-      <c r="W3" s="25"/>
-      <c r="X3" s="25"/>
-      <c r="Y3" s="25"/>
-      <c r="Z3" s="25"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="24"/>
+      <c r="T3" s="24"/>
+      <c r="U3" s="24"/>
+      <c r="V3" s="24"/>
+      <c r="W3" s="24"/>
+      <c r="X3" s="24"/>
+      <c r="Y3" s="24"/>
+      <c r="Z3" s="24"/>
       <c r="AA3" s="3"/>
-      <c r="AB3" s="25"/>
-      <c r="AC3" s="25"/>
-      <c r="AD3" s="25"/>
-      <c r="AE3" s="25"/>
-      <c r="AF3" s="25"/>
-      <c r="AG3" s="25"/>
-      <c r="AH3" s="25"/>
-      <c r="AI3" s="25"/>
-      <c r="AJ3" s="25"/>
-      <c r="AK3" s="25"/>
-      <c r="AL3" s="25"/>
-      <c r="AM3" s="25"/>
-      <c r="AN3" s="25"/>
-      <c r="AO3" s="25"/>
-      <c r="AP3" s="25"/>
-      <c r="AQ3" s="25"/>
-      <c r="AR3" s="25"/>
-      <c r="AS3" s="25"/>
-      <c r="AT3" s="25"/>
-      <c r="AU3" s="25"/>
-      <c r="AV3" s="25"/>
-      <c r="AW3" s="25"/>
-      <c r="AX3" s="25"/>
-      <c r="AY3" s="25"/>
-      <c r="AZ3" s="25"/>
-      <c r="BA3" s="25"/>
-      <c r="BB3" s="25"/>
-      <c r="BC3" s="25"/>
-      <c r="BD3" s="25"/>
+      <c r="AB3" s="24"/>
+      <c r="AC3" s="24"/>
+      <c r="AD3" s="24"/>
+      <c r="AE3" s="24"/>
+      <c r="AF3" s="24"/>
+      <c r="AG3" s="24"/>
+      <c r="AH3" s="24"/>
+      <c r="AI3" s="24"/>
+      <c r="AJ3" s="24"/>
+      <c r="AK3" s="24"/>
+      <c r="AL3" s="24"/>
+      <c r="AM3" s="24"/>
+      <c r="AN3" s="24"/>
+      <c r="AO3" s="24"/>
+      <c r="AP3" s="24"/>
+      <c r="AQ3" s="24"/>
+      <c r="AR3" s="24"/>
+      <c r="AS3" s="24"/>
+      <c r="AT3" s="24"/>
+      <c r="AU3" s="24"/>
+      <c r="AV3" s="24"/>
+      <c r="AW3" s="24"/>
+      <c r="AX3" s="24"/>
+      <c r="AY3" s="24"/>
+      <c r="AZ3" s="24"/>
+      <c r="BA3" s="24"/>
+      <c r="BB3" s="24"/>
+      <c r="BC3" s="24"/>
+      <c r="BD3" s="24"/>
       <c r="BE3" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="BF3" s="25"/>
-      <c r="BG3" s="25"/>
-      <c r="BH3" s="25"/>
-      <c r="BI3" s="25"/>
-      <c r="BJ3" s="25"/>
-      <c r="BK3" s="25"/>
-      <c r="BL3" s="25"/>
+      <c r="BF3" s="24"/>
+      <c r="BG3" s="24"/>
+      <c r="BH3" s="24"/>
+      <c r="BI3" s="24"/>
+      <c r="BJ3" s="24"/>
+      <c r="BK3" s="24"/>
+      <c r="BL3" s="24"/>
       <c r="BM3" s="3"/>
       <c r="BN3" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="BO3" s="25"/>
+      <c r="BO3" s="24"/>
       <c r="BP3" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="BQ3" s="25"/>
-      <c r="BR3" s="25"/>
-      <c r="BS3" s="25"/>
-      <c r="BT3" s="25"/>
-      <c r="BU3" s="25"/>
-      <c r="BV3" s="25"/>
-      <c r="BW3" s="25"/>
-      <c r="BX3" s="25"/>
-      <c r="BY3" s="25"/>
-      <c r="BZ3" s="25"/>
-      <c r="CA3" s="25"/>
-      <c r="CB3" s="25"/>
-      <c r="CC3" s="25"/>
-      <c r="CD3" s="25"/>
-      <c r="CE3" s="25"/>
-      <c r="CF3" s="25"/>
-      <c r="CG3" s="25"/>
+      <c r="BQ3" s="24"/>
+      <c r="BR3" s="24"/>
+      <c r="BS3" s="24"/>
+      <c r="BT3" s="24"/>
+      <c r="BU3" s="24"/>
+      <c r="BV3" s="24"/>
+      <c r="BW3" s="24"/>
+      <c r="BX3" s="24"/>
+      <c r="BY3" s="24"/>
+      <c r="BZ3" s="24"/>
+      <c r="CA3" s="24"/>
+      <c r="CB3" s="24"/>
+      <c r="CC3" s="24"/>
+      <c r="CD3" s="24"/>
+      <c r="CE3" s="24"/>
+      <c r="CF3" s="24"/>
+      <c r="CG3" s="24"/>
       <c r="CH3" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="CI3" s="25"/>
-      <c r="CJ3" s="25"/>
-      <c r="CK3" s="25"/>
-      <c r="CL3" s="25"/>
-      <c r="CM3" s="25"/>
-      <c r="CN3" s="25"/>
-      <c r="CO3" s="25"/>
-      <c r="CP3" s="25"/>
-      <c r="CQ3" s="25"/>
-      <c r="CR3" s="25"/>
+      <c r="CI3" s="24"/>
+      <c r="CJ3" s="24"/>
+      <c r="CK3" s="24"/>
+      <c r="CL3" s="24"/>
+      <c r="CM3" s="24"/>
+      <c r="CN3" s="24"/>
+      <c r="CO3" s="24"/>
+      <c r="CP3" s="24"/>
+      <c r="CQ3" s="24"/>
+      <c r="CR3" s="24"/>
       <c r="CS3" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="CT3" s="25"/>
-      <c r="CU3" s="25"/>
-      <c r="CV3" s="25"/>
-      <c r="CW3" s="25"/>
+      <c r="CT3" s="24"/>
+      <c r="CU3" s="24"/>
+      <c r="CV3" s="24"/>
+      <c r="CW3" s="24"/>
       <c r="CX3" s="14"/>
-      <c r="CY3" s="25"/>
+      <c r="CY3" s="24"/>
       <c r="CZ3" s="5"/>
     </row>
     <row r="4" spans="1:105" ht="15.6" x14ac:dyDescent="0.3">
@@ -17582,6 +17597,9 @@
       <c r="BY94" s="2">
         <v>4799</v>
       </c>
+      <c r="CC94" s="2">
+        <v>4939</v>
+      </c>
       <c r="CD94" s="2"/>
       <c r="CH94" s="2">
         <v>4344</v>
@@ -17604,6 +17622,9 @@
       <c r="BY95" s="2">
         <v>7120</v>
       </c>
+      <c r="CC95" s="2">
+        <v>3936</v>
+      </c>
       <c r="CD95" s="2"/>
       <c r="CH95" s="2">
         <v>8681</v>
@@ -17626,71 +17647,176 @@
       <c r="BY96" s="2">
         <v>4785</v>
       </c>
+      <c r="CC96" s="2">
+        <v>3281</v>
+      </c>
       <c r="CD96" s="2"/>
       <c r="CH96" s="2">
         <v>5233</v>
       </c>
     </row>
-    <row r="97" spans="1:82" x14ac:dyDescent="0.3">
-      <c r="A97" s="2"/>
+    <row r="97" spans="1:86" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="R97" s="2">
+        <v>27421</v>
+      </c>
       <c r="BM97" s="2"/>
+      <c r="BS97" s="2">
+        <v>4092</v>
+      </c>
+      <c r="BW97" s="2">
+        <v>3804</v>
+      </c>
+      <c r="BY97" s="2">
+        <v>2937</v>
+      </c>
+      <c r="CC97" s="2">
+        <v>2402</v>
+      </c>
       <c r="CD97" s="2"/>
+      <c r="CH97" s="2">
+        <v>5288</v>
+      </c>
     </row>
-    <row r="98" spans="1:82" x14ac:dyDescent="0.3">
-      <c r="A98" s="2"/>
+    <row r="98" spans="1:86" x14ac:dyDescent="0.3">
+      <c r="A98" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="R98" s="2">
+        <v>26641</v>
+      </c>
       <c r="BM98" s="2"/>
+      <c r="BS98" s="2">
+        <v>3153</v>
+      </c>
+      <c r="BW98" s="2">
+        <v>3268</v>
+      </c>
+      <c r="BY98" s="2">
+        <v>4188</v>
+      </c>
+      <c r="CC98" s="2">
+        <v>2218</v>
+      </c>
       <c r="CD98" s="2"/>
+      <c r="CH98" s="2">
+        <v>4342</v>
+      </c>
     </row>
-    <row r="99" spans="1:82" x14ac:dyDescent="0.3">
-      <c r="A99" s="2"/>
+    <row r="99" spans="1:86" x14ac:dyDescent="0.3">
+      <c r="A99" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="R99" s="2">
+        <v>30720</v>
+      </c>
       <c r="BM99" s="2"/>
+      <c r="BS99" s="2">
+        <v>2972</v>
+      </c>
+      <c r="BW99" s="2">
+        <v>3961</v>
+      </c>
+      <c r="BY99" s="2">
+        <v>6524</v>
+      </c>
+      <c r="CC99" s="2">
+        <v>2138</v>
+      </c>
       <c r="CD99" s="2"/>
+      <c r="CH99" s="2">
+        <v>5252</v>
+      </c>
     </row>
-    <row r="100" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:86" x14ac:dyDescent="0.3">
+      <c r="A100" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="R100" s="2">
+        <v>30342</v>
+      </c>
+      <c r="BS100" s="2">
+        <v>2667</v>
+      </c>
+      <c r="BW100" s="2">
+        <v>6599</v>
+      </c>
+      <c r="BY100" s="2">
+        <v>4560</v>
+      </c>
+      <c r="CC100" s="2">
+        <v>2543</v>
+      </c>
       <c r="CD100" s="2"/>
+      <c r="CH100" s="2">
+        <v>4603</v>
+      </c>
     </row>
-    <row r="101" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:86" x14ac:dyDescent="0.3">
+      <c r="A101" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="R101" s="2">
+        <v>29567</v>
+      </c>
+      <c r="BS101" s="2">
+        <v>3786</v>
+      </c>
+      <c r="BW101" s="2">
+        <v>4289</v>
+      </c>
+      <c r="BY101" s="2">
+        <v>17164</v>
+      </c>
+      <c r="CC101" s="2">
+        <v>2945</v>
+      </c>
       <c r="CD101" s="2"/>
+      <c r="CH101" s="2">
+        <v>4617</v>
+      </c>
     </row>
-    <row r="102" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:86" x14ac:dyDescent="0.3">
       <c r="CD102" s="2"/>
     </row>
-    <row r="103" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:86" x14ac:dyDescent="0.3">
       <c r="CD103" s="2"/>
     </row>
-    <row r="104" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:86" x14ac:dyDescent="0.3">
       <c r="CC104" s="2"/>
       <c r="CD104" s="2"/>
     </row>
-    <row r="105" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:86" x14ac:dyDescent="0.3">
       <c r="CC105" s="2"/>
       <c r="CD105" s="2"/>
     </row>
-    <row r="106" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:86" x14ac:dyDescent="0.3">
       <c r="CC106" s="2"/>
       <c r="CD106" s="2"/>
     </row>
-    <row r="107" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:86" x14ac:dyDescent="0.3">
       <c r="CC107" s="2"/>
       <c r="CD107" s="2"/>
     </row>
-    <row r="108" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:86" x14ac:dyDescent="0.3">
       <c r="CC108" s="2"/>
       <c r="CD108" s="2"/>
     </row>
-    <row r="109" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:86" x14ac:dyDescent="0.3">
       <c r="CC109" s="2"/>
       <c r="CD109" s="2"/>
     </row>
-    <row r="110" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:86" x14ac:dyDescent="0.3">
       <c r="CC110" s="2"/>
       <c r="CD110" s="2"/>
     </row>
-    <row r="111" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:86" x14ac:dyDescent="0.3">
       <c r="CC111" s="2"/>
       <c r="CD111" s="2"/>
     </row>
-    <row r="112" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:86" x14ac:dyDescent="0.3">
       <c r="CC112" s="2"/>
       <c r="CD112" s="2"/>
     </row>
@@ -17714,64 +17840,30 @@
     </row>
   </sheetData>
   <mergeCells count="106">
-    <mergeCell ref="BV2:BV3"/>
-    <mergeCell ref="BW2:BW3"/>
-    <mergeCell ref="BX2:BX3"/>
-    <mergeCell ref="BY2:BY3"/>
-    <mergeCell ref="BO2:BO3"/>
-    <mergeCell ref="BQ2:BQ3"/>
-    <mergeCell ref="BR2:BR3"/>
-    <mergeCell ref="CN2:CN3"/>
-    <mergeCell ref="CG2:CG3"/>
-    <mergeCell ref="CI2:CI3"/>
-    <mergeCell ref="CJ2:CJ3"/>
-    <mergeCell ref="CK2:CK3"/>
-    <mergeCell ref="CM2:CM3"/>
-    <mergeCell ref="BZ2:BZ3"/>
-    <mergeCell ref="CA2:CA3"/>
-    <mergeCell ref="CB2:CB3"/>
-    <mergeCell ref="CC2:CC3"/>
-    <mergeCell ref="CD2:CD3"/>
-    <mergeCell ref="CE2:CE3"/>
-    <mergeCell ref="BS2:BS3"/>
-    <mergeCell ref="BT2:BT3"/>
-    <mergeCell ref="BG2:BG3"/>
-    <mergeCell ref="BH2:BH3"/>
-    <mergeCell ref="BI2:BI3"/>
-    <mergeCell ref="BJ2:BJ3"/>
-    <mergeCell ref="BK2:BK3"/>
-    <mergeCell ref="BL2:BL3"/>
-    <mergeCell ref="AX2:AX3"/>
-    <mergeCell ref="AY2:AY3"/>
-    <mergeCell ref="BB2:BB3"/>
-    <mergeCell ref="BD2:BD3"/>
-    <mergeCell ref="BF2:BF3"/>
-    <mergeCell ref="AQ2:AQ3"/>
-    <mergeCell ref="AS2:AS3"/>
-    <mergeCell ref="AT2:AT3"/>
-    <mergeCell ref="AU2:AU3"/>
-    <mergeCell ref="AV2:AV3"/>
-    <mergeCell ref="AW2:AW3"/>
-    <mergeCell ref="AK2:AK3"/>
-    <mergeCell ref="AL2:AL3"/>
-    <mergeCell ref="AM2:AM3"/>
-    <mergeCell ref="AN2:AN3"/>
-    <mergeCell ref="AO2:AO3"/>
-    <mergeCell ref="AP2:AP3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="AF2:AF3"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="AJ2:AJ3"/>
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="Z2:Z3"/>
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="CR1:CY1"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="AR2:AR3"/>
+    <mergeCell ref="AZ2:AZ3"/>
+    <mergeCell ref="BA2:BA3"/>
+    <mergeCell ref="BC2:BC3"/>
+    <mergeCell ref="BU2:BU3"/>
+    <mergeCell ref="CF2:CF3"/>
+    <mergeCell ref="CL2:CL3"/>
+    <mergeCell ref="CO2:CO3"/>
+    <mergeCell ref="CP2:CP3"/>
+    <mergeCell ref="CQ2:CQ3"/>
+    <mergeCell ref="CR2:CR3"/>
+    <mergeCell ref="CT2:CT3"/>
+    <mergeCell ref="CU2:CU3"/>
+    <mergeCell ref="CV2:CV3"/>
+    <mergeCell ref="CW2:CW3"/>
+    <mergeCell ref="CY2:CY3"/>
+    <mergeCell ref="AB1:AF1"/>
+    <mergeCell ref="AG1:AQ1"/>
+    <mergeCell ref="AR1:AS1"/>
+    <mergeCell ref="AT1:AX1"/>
     <mergeCell ref="AY1:BL1"/>
     <mergeCell ref="BN1:BX1"/>
     <mergeCell ref="BY1:CG1"/>
@@ -17796,30 +17888,64 @@
     <mergeCell ref="X2:X3"/>
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="N2:N3"/>
-    <mergeCell ref="CR1:CY1"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="AR2:AR3"/>
-    <mergeCell ref="AZ2:AZ3"/>
-    <mergeCell ref="BA2:BA3"/>
-    <mergeCell ref="BC2:BC3"/>
-    <mergeCell ref="BU2:BU3"/>
-    <mergeCell ref="CF2:CF3"/>
-    <mergeCell ref="CL2:CL3"/>
-    <mergeCell ref="CO2:CO3"/>
-    <mergeCell ref="CP2:CP3"/>
-    <mergeCell ref="CQ2:CQ3"/>
-    <mergeCell ref="CR2:CR3"/>
-    <mergeCell ref="CT2:CT3"/>
-    <mergeCell ref="CU2:CU3"/>
-    <mergeCell ref="CV2:CV3"/>
-    <mergeCell ref="CW2:CW3"/>
-    <mergeCell ref="CY2:CY3"/>
-    <mergeCell ref="AB1:AF1"/>
-    <mergeCell ref="AG1:AQ1"/>
-    <mergeCell ref="AR1:AS1"/>
-    <mergeCell ref="AT1:AX1"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="AH2:AH3"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="AJ2:AJ3"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="Z2:Z3"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="AQ2:AQ3"/>
+    <mergeCell ref="AS2:AS3"/>
+    <mergeCell ref="AT2:AT3"/>
+    <mergeCell ref="AU2:AU3"/>
+    <mergeCell ref="AV2:AV3"/>
+    <mergeCell ref="AW2:AW3"/>
+    <mergeCell ref="AK2:AK3"/>
+    <mergeCell ref="AL2:AL3"/>
+    <mergeCell ref="AM2:AM3"/>
+    <mergeCell ref="AN2:AN3"/>
+    <mergeCell ref="AO2:AO3"/>
+    <mergeCell ref="AP2:AP3"/>
+    <mergeCell ref="BG2:BG3"/>
+    <mergeCell ref="BH2:BH3"/>
+    <mergeCell ref="BI2:BI3"/>
+    <mergeCell ref="BJ2:BJ3"/>
+    <mergeCell ref="BK2:BK3"/>
+    <mergeCell ref="BL2:BL3"/>
+    <mergeCell ref="AX2:AX3"/>
+    <mergeCell ref="AY2:AY3"/>
+    <mergeCell ref="BB2:BB3"/>
+    <mergeCell ref="BD2:BD3"/>
+    <mergeCell ref="BF2:BF3"/>
+    <mergeCell ref="BV2:BV3"/>
+    <mergeCell ref="BW2:BW3"/>
+    <mergeCell ref="BX2:BX3"/>
+    <mergeCell ref="BY2:BY3"/>
+    <mergeCell ref="BO2:BO3"/>
+    <mergeCell ref="BQ2:BQ3"/>
+    <mergeCell ref="BR2:BR3"/>
+    <mergeCell ref="CN2:CN3"/>
+    <mergeCell ref="CG2:CG3"/>
+    <mergeCell ref="CI2:CI3"/>
+    <mergeCell ref="CJ2:CJ3"/>
+    <mergeCell ref="CK2:CK3"/>
+    <mergeCell ref="CM2:CM3"/>
+    <mergeCell ref="BZ2:BZ3"/>
+    <mergeCell ref="CA2:CA3"/>
+    <mergeCell ref="CB2:CB3"/>
+    <mergeCell ref="CC2:CC3"/>
+    <mergeCell ref="CD2:CD3"/>
+    <mergeCell ref="CE2:CE3"/>
+    <mergeCell ref="BS2:BS3"/>
+    <mergeCell ref="BT2:BT3"/>
   </mergeCells>
   <phoneticPr fontId="26" type="noConversion"/>
   <hyperlinks>
@@ -18057,7 +18183,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F29D14F-5256-41EB-8E69-D00BD3A17764}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -18301,10 +18427,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F0720B9-F1C1-4E88-8345-0A7B8577FCEF}">
-  <dimension ref="A1:CS86"/>
+  <dimension ref="A1:CS91"/>
   <sheetViews>
-    <sheetView topLeftCell="CO43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="CS86" sqref="CS86"/>
+    <sheetView tabSelected="1" topLeftCell="BT79" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="BZ94" sqref="BZ94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18456,492 +18582,492 @@
       <c r="A2" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="24" t="s">
         <v>345</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="J2" s="25" t="s">
+      <c r="J2" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="K2" s="25" t="s">
+      <c r="K2" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="L2" s="25" t="s">
+      <c r="L2" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="M2" s="25" t="s">
+      <c r="M2" s="24" t="s">
         <v>346</v>
       </c>
-      <c r="N2" s="25" t="s">
+      <c r="N2" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="O2" s="25" t="s">
+      <c r="O2" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="P2" s="25" t="s">
+      <c r="P2" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="Q2" s="25" t="s">
+      <c r="Q2" s="24" t="s">
         <v>94</v>
       </c>
       <c r="R2" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="S2" s="25" t="s">
+      <c r="S2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="T2" s="25" t="s">
+      <c r="T2" s="24" t="s">
         <v>368</v>
       </c>
-      <c r="U2" s="25" t="s">
+      <c r="U2" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="V2" s="25" t="s">
+      <c r="V2" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="W2" s="25" t="s">
+      <c r="W2" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="X2" s="25" t="s">
+      <c r="X2" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="Y2" s="25" t="s">
+      <c r="Y2" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="Z2" s="25" t="s">
+      <c r="Z2" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="AA2" s="25" t="s">
+      <c r="AA2" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="AB2" s="25" t="s">
+      <c r="AB2" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="AC2" s="25" t="s">
+      <c r="AC2" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="AD2" s="25" t="s">
+      <c r="AD2" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="AE2" s="25" t="s">
+      <c r="AE2" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="AF2" s="25" t="s">
+      <c r="AF2" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="AG2" s="25" t="s">
+      <c r="AG2" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="AH2" s="25" t="s">
+      <c r="AH2" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="AI2" s="25" t="s">
+      <c r="AI2" s="24" t="s">
         <v>43</v>
       </c>
       <c r="AJ2" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="AK2" s="25" t="s">
+      <c r="AK2" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="AL2" s="25" t="s">
+      <c r="AL2" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="AM2" s="25" t="s">
+      <c r="AM2" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="AN2" s="25" t="s">
+      <c r="AN2" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="AO2" s="25" t="s">
+      <c r="AO2" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="AP2" s="25" t="s">
+      <c r="AP2" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="AQ2" s="25" t="s">
+      <c r="AQ2" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="AR2" s="25" t="s">
+      <c r="AR2" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="AS2" s="25" t="s">
+      <c r="AS2" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="AT2" s="25" t="s">
+      <c r="AT2" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="AU2" s="25" t="s">
+      <c r="AU2" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="AV2" s="25" t="s">
+      <c r="AV2" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="AW2" s="25" t="s">
+      <c r="AW2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="AX2" s="25" t="s">
+      <c r="AX2" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="AY2" s="25" t="s">
+      <c r="AY2" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="AZ2" s="25" t="s">
+      <c r="AZ2" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="BA2" s="25" t="s">
+      <c r="BA2" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="BB2" s="25" t="s">
+      <c r="BB2" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="BC2" s="25" t="s">
+      <c r="BC2" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="BD2" s="25" t="s">
+      <c r="BD2" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="BE2" s="25" t="s">
+      <c r="BE2" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="BF2" s="25" t="s">
+      <c r="BF2" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="BG2" s="25" t="s">
+      <c r="BG2" s="24" t="s">
         <v>347</v>
       </c>
       <c r="BH2" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="BI2" s="25" t="s">
+      <c r="BI2" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="BJ2" s="25" t="s">
+      <c r="BJ2" s="24" t="s">
         <v>348</v>
       </c>
-      <c r="BK2" s="25" t="s">
+      <c r="BK2" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="BL2" s="25" t="s">
+      <c r="BL2" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="BM2" s="25" t="s">
+      <c r="BM2" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="BN2" s="25" t="s">
+      <c r="BN2" s="24" t="s">
         <v>25</v>
       </c>
       <c r="BO2" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="BP2" s="25" t="s">
+      <c r="BP2" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="BQ2" s="25" t="s">
+      <c r="BQ2" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="BR2" s="25" t="s">
+      <c r="BR2" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="BS2" s="25" t="s">
+      <c r="BS2" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="BT2" s="25" t="s">
+      <c r="BT2" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="BU2" s="25" t="s">
+      <c r="BU2" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="BV2" s="25" t="s">
+      <c r="BV2" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="BW2" s="25" t="s">
+      <c r="BW2" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="BX2" s="25" t="s">
+      <c r="BX2" s="24" t="s">
         <v>369</v>
       </c>
-      <c r="BY2" s="25" t="s">
+      <c r="BY2" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="BZ2" s="25" t="s">
+      <c r="BZ2" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="CA2" s="25" t="s">
+      <c r="CA2" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="CB2" s="25" t="s">
+      <c r="CB2" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="CC2" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="CD2" s="25" t="s">
+      <c r="CC2" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="CD2" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="CE2" s="25" t="s">
+      <c r="CE2" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="CF2" s="25" t="s">
+      <c r="CF2" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="CG2" s="25" t="s">
+      <c r="CG2" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="CH2" s="25" t="s">
+      <c r="CH2" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="CI2" s="25" t="s">
+      <c r="CI2" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="CJ2" s="25" t="s">
+      <c r="CJ2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="CK2" s="25" t="s">
+      <c r="CK2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="CL2" s="25" t="s">
+      <c r="CL2" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="CM2" s="25" t="s">
+      <c r="CM2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="CN2" s="25" t="s">
+      <c r="CN2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="CO2" s="25" t="s">
+      <c r="CO2" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="CP2" s="25" t="s">
+      <c r="CP2" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="CQ2" s="25" t="s">
+      <c r="CQ2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="CR2" s="25" t="s">
+      <c r="CR2" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="CS2" s="25" t="s">
+      <c r="CS2" s="24" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A3" s="20"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
       <c r="R3" s="20"/>
-      <c r="S3" s="25"/>
-      <c r="T3" s="25"/>
-      <c r="U3" s="25"/>
-      <c r="V3" s="25"/>
-      <c r="W3" s="25"/>
-      <c r="X3" s="25"/>
-      <c r="Y3" s="25"/>
-      <c r="Z3" s="25"/>
-      <c r="AA3" s="25"/>
-      <c r="AB3" s="25"/>
-      <c r="AC3" s="25"/>
-      <c r="AD3" s="25"/>
-      <c r="AE3" s="25"/>
-      <c r="AF3" s="25"/>
-      <c r="AG3" s="25"/>
-      <c r="AH3" s="25"/>
-      <c r="AI3" s="25"/>
+      <c r="S3" s="24"/>
+      <c r="T3" s="24"/>
+      <c r="U3" s="24"/>
+      <c r="V3" s="24"/>
+      <c r="W3" s="24"/>
+      <c r="X3" s="24"/>
+      <c r="Y3" s="24"/>
+      <c r="Z3" s="24"/>
+      <c r="AA3" s="24"/>
+      <c r="AB3" s="24"/>
+      <c r="AC3" s="24"/>
+      <c r="AD3" s="24"/>
+      <c r="AE3" s="24"/>
+      <c r="AF3" s="24"/>
+      <c r="AG3" s="24"/>
+      <c r="AH3" s="24"/>
+      <c r="AI3" s="24"/>
       <c r="AJ3" s="20"/>
-      <c r="AK3" s="25"/>
-      <c r="AL3" s="25"/>
-      <c r="AM3" s="25"/>
-      <c r="AN3" s="25"/>
-      <c r="AO3" s="25"/>
-      <c r="AP3" s="25"/>
-      <c r="AQ3" s="25"/>
-      <c r="AR3" s="25"/>
-      <c r="AS3" s="25"/>
-      <c r="AT3" s="25"/>
-      <c r="AU3" s="25"/>
-      <c r="AV3" s="25"/>
-      <c r="AW3" s="25"/>
-      <c r="AX3" s="25"/>
-      <c r="AY3" s="25"/>
-      <c r="AZ3" s="25"/>
-      <c r="BA3" s="25"/>
-      <c r="BB3" s="25"/>
-      <c r="BC3" s="25"/>
-      <c r="BD3" s="25"/>
-      <c r="BE3" s="25"/>
-      <c r="BF3" s="25"/>
-      <c r="BG3" s="25"/>
+      <c r="AK3" s="24"/>
+      <c r="AL3" s="24"/>
+      <c r="AM3" s="24"/>
+      <c r="AN3" s="24"/>
+      <c r="AO3" s="24"/>
+      <c r="AP3" s="24"/>
+      <c r="AQ3" s="24"/>
+      <c r="AR3" s="24"/>
+      <c r="AS3" s="24"/>
+      <c r="AT3" s="24"/>
+      <c r="AU3" s="24"/>
+      <c r="AV3" s="24"/>
+      <c r="AW3" s="24"/>
+      <c r="AX3" s="24"/>
+      <c r="AY3" s="24"/>
+      <c r="AZ3" s="24"/>
+      <c r="BA3" s="24"/>
+      <c r="BB3" s="24"/>
+      <c r="BC3" s="24"/>
+      <c r="BD3" s="24"/>
+      <c r="BE3" s="24"/>
+      <c r="BF3" s="24"/>
+      <c r="BG3" s="24"/>
       <c r="BH3" s="20"/>
-      <c r="BI3" s="25"/>
-      <c r="BJ3" s="25"/>
-      <c r="BK3" s="25"/>
-      <c r="BL3" s="25"/>
-      <c r="BM3" s="25"/>
-      <c r="BN3" s="25"/>
+      <c r="BI3" s="24"/>
+      <c r="BJ3" s="24"/>
+      <c r="BK3" s="24"/>
+      <c r="BL3" s="24"/>
+      <c r="BM3" s="24"/>
+      <c r="BN3" s="24"/>
       <c r="BO3" s="22"/>
-      <c r="BP3" s="25"/>
-      <c r="BQ3" s="25"/>
-      <c r="BR3" s="25"/>
-      <c r="BS3" s="25"/>
-      <c r="BT3" s="25"/>
-      <c r="BU3" s="25"/>
-      <c r="BV3" s="25"/>
-      <c r="BW3" s="25"/>
-      <c r="BX3" s="25"/>
-      <c r="BY3" s="25"/>
-      <c r="BZ3" s="25"/>
-      <c r="CA3" s="25"/>
-      <c r="CB3" s="25"/>
-      <c r="CC3" s="25"/>
-      <c r="CD3" s="25"/>
-      <c r="CE3" s="25"/>
-      <c r="CF3" s="25"/>
-      <c r="CG3" s="25"/>
-      <c r="CH3" s="25"/>
-      <c r="CI3" s="25"/>
-      <c r="CJ3" s="25"/>
-      <c r="CK3" s="25"/>
-      <c r="CL3" s="25"/>
-      <c r="CM3" s="25"/>
-      <c r="CN3" s="25"/>
-      <c r="CO3" s="25"/>
-      <c r="CP3" s="25"/>
-      <c r="CQ3" s="25"/>
-      <c r="CR3" s="25"/>
-      <c r="CS3" s="25"/>
+      <c r="BP3" s="24"/>
+      <c r="BQ3" s="24"/>
+      <c r="BR3" s="24"/>
+      <c r="BS3" s="24"/>
+      <c r="BT3" s="24"/>
+      <c r="BU3" s="24"/>
+      <c r="BV3" s="24"/>
+      <c r="BW3" s="24"/>
+      <c r="BX3" s="24"/>
+      <c r="BY3" s="24"/>
+      <c r="BZ3" s="24"/>
+      <c r="CA3" s="24"/>
+      <c r="CB3" s="24"/>
+      <c r="CC3" s="24"/>
+      <c r="CD3" s="24"/>
+      <c r="CE3" s="24"/>
+      <c r="CF3" s="24"/>
+      <c r="CG3" s="24"/>
+      <c r="CH3" s="24"/>
+      <c r="CI3" s="24"/>
+      <c r="CJ3" s="24"/>
+      <c r="CK3" s="24"/>
+      <c r="CL3" s="24"/>
+      <c r="CM3" s="24"/>
+      <c r="CN3" s="24"/>
+      <c r="CO3" s="24"/>
+      <c r="CP3" s="24"/>
+      <c r="CQ3" s="24"/>
+      <c r="CR3" s="24"/>
+      <c r="CS3" s="24"/>
     </row>
     <row r="4" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A4" s="9"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
       <c r="R4" s="9"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="25"/>
-      <c r="U4" s="25"/>
-      <c r="V4" s="25"/>
-      <c r="W4" s="25"/>
-      <c r="X4" s="25"/>
-      <c r="Y4" s="25"/>
-      <c r="Z4" s="25"/>
-      <c r="AA4" s="25"/>
-      <c r="AB4" s="25"/>
-      <c r="AC4" s="25"/>
-      <c r="AD4" s="25"/>
-      <c r="AE4" s="25"/>
-      <c r="AF4" s="25"/>
-      <c r="AG4" s="25"/>
-      <c r="AH4" s="25"/>
-      <c r="AI4" s="25"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="24"/>
+      <c r="V4" s="24"/>
+      <c r="W4" s="24"/>
+      <c r="X4" s="24"/>
+      <c r="Y4" s="24"/>
+      <c r="Z4" s="24"/>
+      <c r="AA4" s="24"/>
+      <c r="AB4" s="24"/>
+      <c r="AC4" s="24"/>
+      <c r="AD4" s="24"/>
+      <c r="AE4" s="24"/>
+      <c r="AF4" s="24"/>
+      <c r="AG4" s="24"/>
+      <c r="AH4" s="24"/>
+      <c r="AI4" s="24"/>
       <c r="AJ4" s="9"/>
-      <c r="AK4" s="25"/>
-      <c r="AL4" s="25"/>
-      <c r="AM4" s="25"/>
-      <c r="AN4" s="25"/>
-      <c r="AO4" s="25"/>
-      <c r="AP4" s="25"/>
-      <c r="AQ4" s="25"/>
-      <c r="AR4" s="25"/>
-      <c r="AS4" s="25"/>
-      <c r="AT4" s="25"/>
-      <c r="AU4" s="25"/>
-      <c r="AV4" s="25"/>
-      <c r="AW4" s="25"/>
-      <c r="AX4" s="25"/>
-      <c r="AY4" s="25"/>
-      <c r="AZ4" s="25"/>
-      <c r="BA4" s="25"/>
-      <c r="BB4" s="25"/>
-      <c r="BC4" s="25"/>
-      <c r="BD4" s="25"/>
-      <c r="BE4" s="25"/>
-      <c r="BF4" s="25"/>
-      <c r="BG4" s="25"/>
+      <c r="AK4" s="24"/>
+      <c r="AL4" s="24"/>
+      <c r="AM4" s="24"/>
+      <c r="AN4" s="24"/>
+      <c r="AO4" s="24"/>
+      <c r="AP4" s="24"/>
+      <c r="AQ4" s="24"/>
+      <c r="AR4" s="24"/>
+      <c r="AS4" s="24"/>
+      <c r="AT4" s="24"/>
+      <c r="AU4" s="24"/>
+      <c r="AV4" s="24"/>
+      <c r="AW4" s="24"/>
+      <c r="AX4" s="24"/>
+      <c r="AY4" s="24"/>
+      <c r="AZ4" s="24"/>
+      <c r="BA4" s="24"/>
+      <c r="BB4" s="24"/>
+      <c r="BC4" s="24"/>
+      <c r="BD4" s="24"/>
+      <c r="BE4" s="24"/>
+      <c r="BF4" s="24"/>
+      <c r="BG4" s="24"/>
       <c r="BH4" s="9"/>
-      <c r="BI4" s="25"/>
-      <c r="BJ4" s="25"/>
-      <c r="BK4" s="25"/>
-      <c r="BL4" s="25"/>
-      <c r="BM4" s="25"/>
-      <c r="BN4" s="25"/>
+      <c r="BI4" s="24"/>
+      <c r="BJ4" s="24"/>
+      <c r="BK4" s="24"/>
+      <c r="BL4" s="24"/>
+      <c r="BM4" s="24"/>
+      <c r="BN4" s="24"/>
       <c r="BO4" s="22"/>
-      <c r="BP4" s="25"/>
-      <c r="BQ4" s="25"/>
-      <c r="BR4" s="25"/>
-      <c r="BS4" s="25"/>
-      <c r="BT4" s="25"/>
-      <c r="BU4" s="25"/>
-      <c r="BV4" s="25"/>
-      <c r="BW4" s="25"/>
-      <c r="BX4" s="25"/>
-      <c r="BY4" s="25"/>
-      <c r="BZ4" s="25"/>
-      <c r="CA4" s="25"/>
-      <c r="CB4" s="25"/>
-      <c r="CC4" s="25"/>
-      <c r="CD4" s="25"/>
-      <c r="CE4" s="25"/>
-      <c r="CF4" s="25"/>
-      <c r="CG4" s="25"/>
-      <c r="CH4" s="25"/>
-      <c r="CI4" s="25"/>
-      <c r="CJ4" s="25"/>
-      <c r="CK4" s="25"/>
-      <c r="CL4" s="25"/>
-      <c r="CM4" s="25"/>
-      <c r="CN4" s="25"/>
-      <c r="CO4" s="25"/>
-      <c r="CP4" s="25"/>
-      <c r="CQ4" s="25"/>
-      <c r="CR4" s="25"/>
-      <c r="CS4" s="25"/>
+      <c r="BP4" s="24"/>
+      <c r="BQ4" s="24"/>
+      <c r="BR4" s="24"/>
+      <c r="BS4" s="24"/>
+      <c r="BT4" s="24"/>
+      <c r="BU4" s="24"/>
+      <c r="BV4" s="24"/>
+      <c r="BW4" s="24"/>
+      <c r="BX4" s="24"/>
+      <c r="BY4" s="24"/>
+      <c r="BZ4" s="24"/>
+      <c r="CA4" s="24"/>
+      <c r="CB4" s="24"/>
+      <c r="CC4" s="24"/>
+      <c r="CD4" s="24"/>
+      <c r="CE4" s="24"/>
+      <c r="CF4" s="24"/>
+      <c r="CG4" s="24"/>
+      <c r="CH4" s="24"/>
+      <c r="CI4" s="24"/>
+      <c r="CJ4" s="24"/>
+      <c r="CK4" s="24"/>
+      <c r="CL4" s="24"/>
+      <c r="CM4" s="24"/>
+      <c r="CN4" s="24"/>
+      <c r="CO4" s="24"/>
+      <c r="CP4" s="24"/>
+      <c r="CQ4" s="24"/>
+      <c r="CR4" s="24"/>
+      <c r="CS4" s="24"/>
     </row>
     <row r="5" spans="1:97" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -27576,6 +27702,9 @@
       <c r="CM84" s="10">
         <v>1341</v>
       </c>
+      <c r="CN84" s="16">
+        <v>258</v>
+      </c>
     </row>
     <row r="85" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A85" s="10" t="s">
@@ -27596,6 +27725,9 @@
       <c r="CM85" s="10">
         <v>987</v>
       </c>
+      <c r="CN85" s="16">
+        <v>129</v>
+      </c>
     </row>
     <row r="86" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A86" s="10" t="s">
@@ -27616,9 +27748,211 @@
       <c r="CM86" s="10">
         <v>635</v>
       </c>
+      <c r="CN86" s="16">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="87" spans="1:97" x14ac:dyDescent="0.3">
+      <c r="A87" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="T87" s="10">
+        <v>1528</v>
+      </c>
+      <c r="BX87" s="10">
+        <v>737</v>
+      </c>
+      <c r="CC87" s="10">
+        <v>431</v>
+      </c>
+      <c r="CJ87" s="10">
+        <v>603</v>
+      </c>
+      <c r="CM87" s="10">
+        <v>561</v>
+      </c>
+      <c r="CN87" s="16">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="88" spans="1:97" x14ac:dyDescent="0.3">
+      <c r="A88" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="T88" s="10">
+        <v>1535</v>
+      </c>
+      <c r="BX88" s="10">
+        <v>717</v>
+      </c>
+      <c r="CC88" s="10">
+        <v>566</v>
+      </c>
+      <c r="CJ88" s="10">
+        <v>547</v>
+      </c>
+      <c r="CM88" s="10">
+        <v>574</v>
+      </c>
+      <c r="CN88" s="16">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="89" spans="1:97" x14ac:dyDescent="0.3">
+      <c r="A89" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="T89" s="10">
+        <v>6185</v>
+      </c>
+      <c r="BX89" s="10">
+        <v>778</v>
+      </c>
+      <c r="CC89" s="10">
+        <v>602</v>
+      </c>
+      <c r="CJ89" s="10">
+        <v>499</v>
+      </c>
+      <c r="CM89" s="10">
+        <v>762</v>
+      </c>
+      <c r="CN89" s="16">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="90" spans="1:97" x14ac:dyDescent="0.3">
+      <c r="A90" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="T90" s="10">
+        <v>2618</v>
+      </c>
+      <c r="BX90" s="10">
+        <v>761</v>
+      </c>
+      <c r="CC90" s="10">
+        <v>578</v>
+      </c>
+      <c r="CJ90" s="10">
+        <v>557</v>
+      </c>
+      <c r="CM90" s="10">
+        <v>1438</v>
+      </c>
+      <c r="CN90" s="16">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="91" spans="1:97" x14ac:dyDescent="0.3">
+      <c r="A91" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="T91" s="10">
+        <v>2174</v>
+      </c>
+      <c r="BX91" s="10">
+        <v>861</v>
+      </c>
+      <c r="CC91" s="10">
+        <v>525</v>
+      </c>
+      <c r="CJ91" s="10">
+        <v>503</v>
+      </c>
+      <c r="CM91" s="10">
+        <v>753</v>
+      </c>
+      <c r="CN91" s="16">
+        <v>248</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="108">
+    <mergeCell ref="CR2:CR4"/>
+    <mergeCell ref="CS2:CS4"/>
+    <mergeCell ref="CL2:CL4"/>
+    <mergeCell ref="CM2:CM4"/>
+    <mergeCell ref="CN2:CN4"/>
+    <mergeCell ref="CO2:CO4"/>
+    <mergeCell ref="CP2:CP4"/>
+    <mergeCell ref="CQ2:CQ4"/>
+    <mergeCell ref="CF2:CF4"/>
+    <mergeCell ref="CG2:CG4"/>
+    <mergeCell ref="CH2:CH4"/>
+    <mergeCell ref="CI2:CI4"/>
+    <mergeCell ref="CJ2:CJ4"/>
+    <mergeCell ref="CK2:CK4"/>
+    <mergeCell ref="CB2:CB4"/>
+    <mergeCell ref="CC2:CC4"/>
+    <mergeCell ref="CD2:CD4"/>
+    <mergeCell ref="CE2:CE4"/>
+    <mergeCell ref="BT2:BT4"/>
+    <mergeCell ref="BU2:BU4"/>
+    <mergeCell ref="BV2:BV4"/>
+    <mergeCell ref="BW2:BW4"/>
+    <mergeCell ref="BX2:BX4"/>
+    <mergeCell ref="BY2:BY4"/>
+    <mergeCell ref="BZ2:BZ4"/>
+    <mergeCell ref="CA2:CA4"/>
+    <mergeCell ref="BM2:BM4"/>
+    <mergeCell ref="BN2:BN4"/>
+    <mergeCell ref="BP2:BP4"/>
+    <mergeCell ref="BQ2:BQ4"/>
+    <mergeCell ref="BR2:BR4"/>
+    <mergeCell ref="BS2:BS4"/>
+    <mergeCell ref="BF2:BF4"/>
+    <mergeCell ref="BG2:BG4"/>
+    <mergeCell ref="BI2:BI4"/>
+    <mergeCell ref="BJ2:BJ4"/>
+    <mergeCell ref="BK2:BK4"/>
+    <mergeCell ref="BL2:BL4"/>
+    <mergeCell ref="AZ2:AZ4"/>
+    <mergeCell ref="BA2:BA4"/>
+    <mergeCell ref="BB2:BB4"/>
+    <mergeCell ref="BC2:BC4"/>
+    <mergeCell ref="BD2:BD4"/>
+    <mergeCell ref="BE2:BE4"/>
+    <mergeCell ref="AT2:AT4"/>
+    <mergeCell ref="AU2:AU4"/>
+    <mergeCell ref="AV2:AV4"/>
+    <mergeCell ref="AW2:AW4"/>
+    <mergeCell ref="AX2:AX4"/>
+    <mergeCell ref="AY2:AY4"/>
+    <mergeCell ref="AN2:AN4"/>
+    <mergeCell ref="AO2:AO4"/>
+    <mergeCell ref="AP2:AP4"/>
+    <mergeCell ref="AQ2:AQ4"/>
+    <mergeCell ref="AR2:AR4"/>
+    <mergeCell ref="AS2:AS4"/>
+    <mergeCell ref="AG2:AG4"/>
+    <mergeCell ref="AH2:AH4"/>
+    <mergeCell ref="AI2:AI4"/>
+    <mergeCell ref="AK2:AK4"/>
+    <mergeCell ref="AL2:AL4"/>
+    <mergeCell ref="AM2:AM4"/>
+    <mergeCell ref="AA2:AA4"/>
+    <mergeCell ref="AB2:AB4"/>
+    <mergeCell ref="AC2:AC4"/>
+    <mergeCell ref="AD2:AD4"/>
+    <mergeCell ref="AE2:AE4"/>
+    <mergeCell ref="AF2:AF4"/>
+    <mergeCell ref="U2:U4"/>
+    <mergeCell ref="V2:V4"/>
+    <mergeCell ref="W2:W4"/>
+    <mergeCell ref="X2:X4"/>
+    <mergeCell ref="Y2:Y4"/>
+    <mergeCell ref="Z2:Z4"/>
+    <mergeCell ref="P2:P4"/>
+    <mergeCell ref="Q2:Q4"/>
+    <mergeCell ref="S2:S4"/>
+    <mergeCell ref="T2:T4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="M2:M4"/>
     <mergeCell ref="BI1:BP1"/>
     <mergeCell ref="BQ1:BX1"/>
     <mergeCell ref="BY1:CJ1"/>
@@ -27643,90 +27977,6 @@
     <mergeCell ref="U1:X1"/>
     <mergeCell ref="N2:N4"/>
     <mergeCell ref="O2:O4"/>
-    <mergeCell ref="P2:P4"/>
-    <mergeCell ref="Q2:Q4"/>
-    <mergeCell ref="S2:S4"/>
-    <mergeCell ref="T2:T4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="L2:L4"/>
-    <mergeCell ref="M2:M4"/>
-    <mergeCell ref="AA2:AA4"/>
-    <mergeCell ref="AB2:AB4"/>
-    <mergeCell ref="AC2:AC4"/>
-    <mergeCell ref="AD2:AD4"/>
-    <mergeCell ref="AE2:AE4"/>
-    <mergeCell ref="AF2:AF4"/>
-    <mergeCell ref="U2:U4"/>
-    <mergeCell ref="V2:V4"/>
-    <mergeCell ref="W2:W4"/>
-    <mergeCell ref="X2:X4"/>
-    <mergeCell ref="Y2:Y4"/>
-    <mergeCell ref="Z2:Z4"/>
-    <mergeCell ref="AN2:AN4"/>
-    <mergeCell ref="AO2:AO4"/>
-    <mergeCell ref="AP2:AP4"/>
-    <mergeCell ref="AQ2:AQ4"/>
-    <mergeCell ref="AR2:AR4"/>
-    <mergeCell ref="AS2:AS4"/>
-    <mergeCell ref="AG2:AG4"/>
-    <mergeCell ref="AH2:AH4"/>
-    <mergeCell ref="AI2:AI4"/>
-    <mergeCell ref="AK2:AK4"/>
-    <mergeCell ref="AL2:AL4"/>
-    <mergeCell ref="AM2:AM4"/>
-    <mergeCell ref="AZ2:AZ4"/>
-    <mergeCell ref="BA2:BA4"/>
-    <mergeCell ref="BB2:BB4"/>
-    <mergeCell ref="BC2:BC4"/>
-    <mergeCell ref="BD2:BD4"/>
-    <mergeCell ref="BE2:BE4"/>
-    <mergeCell ref="AT2:AT4"/>
-    <mergeCell ref="AU2:AU4"/>
-    <mergeCell ref="AV2:AV4"/>
-    <mergeCell ref="AW2:AW4"/>
-    <mergeCell ref="AX2:AX4"/>
-    <mergeCell ref="AY2:AY4"/>
-    <mergeCell ref="BM2:BM4"/>
-    <mergeCell ref="BN2:BN4"/>
-    <mergeCell ref="BP2:BP4"/>
-    <mergeCell ref="BQ2:BQ4"/>
-    <mergeCell ref="BR2:BR4"/>
-    <mergeCell ref="BS2:BS4"/>
-    <mergeCell ref="BF2:BF4"/>
-    <mergeCell ref="BG2:BG4"/>
-    <mergeCell ref="BI2:BI4"/>
-    <mergeCell ref="BJ2:BJ4"/>
-    <mergeCell ref="BK2:BK4"/>
-    <mergeCell ref="BL2:BL4"/>
-    <mergeCell ref="CB2:CB4"/>
-    <mergeCell ref="CC2:CC4"/>
-    <mergeCell ref="CD2:CD4"/>
-    <mergeCell ref="CE2:CE4"/>
-    <mergeCell ref="BT2:BT4"/>
-    <mergeCell ref="BU2:BU4"/>
-    <mergeCell ref="BV2:BV4"/>
-    <mergeCell ref="BW2:BW4"/>
-    <mergeCell ref="BX2:BX4"/>
-    <mergeCell ref="BY2:BY4"/>
-    <mergeCell ref="BZ2:BZ4"/>
-    <mergeCell ref="CA2:CA4"/>
-    <mergeCell ref="CR2:CR4"/>
-    <mergeCell ref="CS2:CS4"/>
-    <mergeCell ref="CL2:CL4"/>
-    <mergeCell ref="CM2:CM4"/>
-    <mergeCell ref="CN2:CN4"/>
-    <mergeCell ref="CO2:CO4"/>
-    <mergeCell ref="CP2:CP4"/>
-    <mergeCell ref="CQ2:CQ4"/>
-    <mergeCell ref="CF2:CF4"/>
-    <mergeCell ref="CG2:CG4"/>
-    <mergeCell ref="CH2:CH4"/>
-    <mergeCell ref="CI2:CI4"/>
-    <mergeCell ref="CJ2:CJ4"/>
-    <mergeCell ref="CK2:CK4"/>
   </mergeCells>
   <phoneticPr fontId="26" type="noConversion"/>
   <hyperlinks>
@@ -27845,187 +28095,187 @@
       <c r="A1" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24" t="s">
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="P1" s="24"/>
+      <c r="P1" s="25"/>
       <c r="Q1" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="R1" s="24" t="s">
+      <c r="R1" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24" t="s">
+      <c r="S1" s="25"/>
+      <c r="T1" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24" t="s">
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="Y1" s="24"/>
+      <c r="Y1" s="25"/>
       <c r="Z1" s="17" t="s">
         <v>122</v>
       </c>
       <c r="AA1" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="AB1" s="24" t="s">
+      <c r="AB1" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="AC1" s="24"/>
-      <c r="AD1" s="24"/>
-      <c r="AE1" s="24"/>
-      <c r="AF1" s="24"/>
-      <c r="AG1" s="24" t="s">
+      <c r="AC1" s="25"/>
+      <c r="AD1" s="25"/>
+      <c r="AE1" s="25"/>
+      <c r="AF1" s="25"/>
+      <c r="AG1" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="AH1" s="24"/>
-      <c r="AI1" s="24"/>
-      <c r="AJ1" s="24"/>
-      <c r="AK1" s="24"/>
-      <c r="AL1" s="24"/>
-      <c r="AM1" s="24"/>
-      <c r="AN1" s="24"/>
-      <c r="AO1" s="24"/>
-      <c r="AP1" s="24"/>
-      <c r="AQ1" s="24"/>
-      <c r="AR1" s="24" t="s">
+      <c r="AH1" s="25"/>
+      <c r="AI1" s="25"/>
+      <c r="AJ1" s="25"/>
+      <c r="AK1" s="25"/>
+      <c r="AL1" s="25"/>
+      <c r="AM1" s="25"/>
+      <c r="AN1" s="25"/>
+      <c r="AO1" s="25"/>
+      <c r="AP1" s="25"/>
+      <c r="AQ1" s="25"/>
+      <c r="AR1" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="AS1" s="24"/>
-      <c r="AT1" s="24" t="s">
+      <c r="AS1" s="25"/>
+      <c r="AT1" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="AU1" s="24"/>
-      <c r="AV1" s="24"/>
-      <c r="AW1" s="24"/>
-      <c r="AX1" s="24"/>
-      <c r="AY1" s="24" t="s">
+      <c r="AU1" s="25"/>
+      <c r="AV1" s="25"/>
+      <c r="AW1" s="25"/>
+      <c r="AX1" s="25"/>
+      <c r="AY1" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="AZ1" s="24"/>
-      <c r="BA1" s="24"/>
-      <c r="BB1" s="24"/>
-      <c r="BC1" s="24"/>
-      <c r="BD1" s="24"/>
-      <c r="BE1" s="24"/>
-      <c r="BF1" s="24"/>
-      <c r="BG1" s="24"/>
-      <c r="BH1" s="24"/>
-      <c r="BI1" s="24"/>
-      <c r="BJ1" s="24"/>
-      <c r="BK1" s="24"/>
-      <c r="BL1" s="24"/>
+      <c r="AZ1" s="25"/>
+      <c r="BA1" s="25"/>
+      <c r="BB1" s="25"/>
+      <c r="BC1" s="25"/>
+      <c r="BD1" s="25"/>
+      <c r="BE1" s="25"/>
+      <c r="BF1" s="25"/>
+      <c r="BG1" s="25"/>
+      <c r="BH1" s="25"/>
+      <c r="BI1" s="25"/>
+      <c r="BJ1" s="25"/>
+      <c r="BK1" s="25"/>
+      <c r="BL1" s="25"/>
       <c r="BM1" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="BN1" s="24" t="s">
+      <c r="BN1" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="BO1" s="24"/>
-      <c r="BP1" s="24"/>
-      <c r="BQ1" s="24"/>
-      <c r="BR1" s="24"/>
-      <c r="BS1" s="24"/>
-      <c r="BT1" s="24"/>
-      <c r="BU1" s="24"/>
-      <c r="BV1" s="24"/>
-      <c r="BW1" s="24"/>
-      <c r="BX1" s="24"/>
-      <c r="BY1" s="24" t="s">
+      <c r="BO1" s="25"/>
+      <c r="BP1" s="25"/>
+      <c r="BQ1" s="25"/>
+      <c r="BR1" s="25"/>
+      <c r="BS1" s="25"/>
+      <c r="BT1" s="25"/>
+      <c r="BU1" s="25"/>
+      <c r="BV1" s="25"/>
+      <c r="BW1" s="25"/>
+      <c r="BX1" s="25"/>
+      <c r="BY1" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="BZ1" s="24"/>
-      <c r="CA1" s="24"/>
-      <c r="CB1" s="24"/>
-      <c r="CC1" s="24"/>
-      <c r="CD1" s="24"/>
-      <c r="CE1" s="24"/>
-      <c r="CF1" s="24"/>
-      <c r="CG1" s="24"/>
-      <c r="CH1" s="24" t="s">
+      <c r="BZ1" s="25"/>
+      <c r="CA1" s="25"/>
+      <c r="CB1" s="25"/>
+      <c r="CC1" s="25"/>
+      <c r="CD1" s="25"/>
+      <c r="CE1" s="25"/>
+      <c r="CF1" s="25"/>
+      <c r="CG1" s="25"/>
+      <c r="CH1" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="CI1" s="24"/>
-      <c r="CJ1" s="24"/>
-      <c r="CK1" s="24"/>
-      <c r="CL1" s="24"/>
-      <c r="CM1" s="24"/>
-      <c r="CN1" s="24"/>
-      <c r="CO1" s="24"/>
-      <c r="CP1" s="24"/>
-      <c r="CQ1" s="24"/>
-      <c r="CR1" s="24" t="s">
+      <c r="CI1" s="25"/>
+      <c r="CJ1" s="25"/>
+      <c r="CK1" s="25"/>
+      <c r="CL1" s="25"/>
+      <c r="CM1" s="25"/>
+      <c r="CN1" s="25"/>
+      <c r="CO1" s="25"/>
+      <c r="CP1" s="25"/>
+      <c r="CQ1" s="25"/>
+      <c r="CR1" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="CS1" s="24"/>
-      <c r="CT1" s="24"/>
-      <c r="CU1" s="24"/>
-      <c r="CV1" s="24"/>
-      <c r="CW1" s="24"/>
-      <c r="CX1" s="24"/>
-      <c r="CY1" s="24"/>
+      <c r="CS1" s="25"/>
+      <c r="CT1" s="25"/>
+      <c r="CU1" s="25"/>
+      <c r="CV1" s="25"/>
+      <c r="CW1" s="25"/>
+      <c r="CX1" s="25"/>
+      <c r="CY1" s="25"/>
       <c r="CZ1" s="17"/>
     </row>
     <row r="2" spans="1:104" ht="102" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="J2" s="25" t="s">
+      <c r="J2" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="K2" s="25" t="s">
+      <c r="K2" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="L2" s="25" t="s">
+      <c r="L2" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="M2" s="25" t="s">
+      <c r="M2" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="N2" s="25" t="s">
+      <c r="N2" s="24" t="s">
         <v>105</v>
       </c>
       <c r="O2" s="19" t="s">
@@ -28034,148 +28284,148 @@
       <c r="P2" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="Q2" s="25" t="s">
+      <c r="Q2" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="R2" s="25" t="s">
+      <c r="R2" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="S2" s="25" t="s">
+      <c r="S2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="T2" s="25" t="s">
+      <c r="T2" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="U2" s="25" t="s">
+      <c r="U2" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="V2" s="25" t="s">
+      <c r="V2" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="W2" s="25" t="s">
+      <c r="W2" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="X2" s="25" t="s">
+      <c r="X2" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="Y2" s="25" t="s">
+      <c r="Y2" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="Z2" s="25" t="s">
+      <c r="Z2" s="24" t="s">
         <v>33</v>
       </c>
       <c r="AA2" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="AB2" s="25" t="s">
+      <c r="AB2" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="AC2" s="25" t="s">
+      <c r="AC2" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="AD2" s="25" t="s">
+      <c r="AD2" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="AE2" s="25" t="s">
+      <c r="AE2" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="AF2" s="25" t="s">
+      <c r="AF2" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="AG2" s="25" t="s">
+      <c r="AG2" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="AH2" s="25" t="s">
+      <c r="AH2" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="AI2" s="25" t="s">
+      <c r="AI2" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="AJ2" s="25" t="s">
+      <c r="AJ2" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="AK2" s="25" t="s">
+      <c r="AK2" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="AL2" s="25" t="s">
+      <c r="AL2" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="AM2" s="25" t="s">
+      <c r="AM2" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="AN2" s="25" t="s">
+      <c r="AN2" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="AO2" s="25" t="s">
+      <c r="AO2" s="24" t="s">
         <v>342</v>
       </c>
-      <c r="AP2" s="25" t="s">
+      <c r="AP2" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="AQ2" s="25" t="s">
+      <c r="AQ2" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="AR2" s="25" t="s">
+      <c r="AR2" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="AS2" s="25" t="s">
+      <c r="AS2" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="AT2" s="25" t="s">
+      <c r="AT2" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="AU2" s="25" t="s">
+      <c r="AU2" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="AV2" s="25" t="s">
+      <c r="AV2" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="AW2" s="25" t="s">
+      <c r="AW2" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="AX2" s="25" t="s">
+      <c r="AX2" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="AY2" s="25" t="s">
+      <c r="AY2" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="AZ2" s="25" t="s">
+      <c r="AZ2" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="BA2" s="25" t="s">
+      <c r="BA2" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="BB2" s="25" t="s">
+      <c r="BB2" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="BC2" s="25" t="s">
+      <c r="BC2" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="BD2" s="25" t="s">
+      <c r="BD2" s="24" t="s">
         <v>51</v>
       </c>
       <c r="BE2" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="BF2" s="25" t="s">
+      <c r="BF2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="BG2" s="25" t="s">
+      <c r="BG2" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="BH2" s="25" t="s">
+      <c r="BH2" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="BI2" s="25" t="s">
+      <c r="BI2" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="BJ2" s="25" t="s">
+      <c r="BJ2" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="BK2" s="25" t="s">
+      <c r="BK2" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="BL2" s="25" t="s">
+      <c r="BL2" s="24" t="s">
         <v>15</v>
       </c>
       <c r="BM2" s="17" t="s">
@@ -28184,115 +28434,115 @@
       <c r="BN2" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="BO2" s="25" t="s">
+      <c r="BO2" s="24" t="s">
         <v>34</v>
       </c>
       <c r="BP2" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="BQ2" s="25" t="s">
+      <c r="BQ2" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="BR2" s="25" t="s">
+      <c r="BR2" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="BS2" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="BT2" s="25" t="s">
+      <c r="BS2" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="BT2" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="BU2" s="25" t="s">
+      <c r="BU2" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="BV2" s="25" t="s">
+      <c r="BV2" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="BW2" s="25" t="s">
+      <c r="BW2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="BX2" s="25" t="s">
+      <c r="BX2" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="BY2" s="25" t="s">
+      <c r="BY2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="BZ2" s="25" t="s">
+      <c r="BZ2" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="CA2" s="25" t="s">
+      <c r="CA2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="CB2" s="25" t="s">
+      <c r="CB2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="CC2" s="25" t="s">
+      <c r="CC2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="CD2" s="25" t="s">
+      <c r="CD2" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="CE2" s="25" t="s">
+      <c r="CE2" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="CF2" s="25" t="s">
+      <c r="CF2" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="CG2" s="25" t="s">
+      <c r="CG2" s="24" t="s">
         <v>7</v>
       </c>
       <c r="CH2" s="19" t="s">
         <v>349</v>
       </c>
-      <c r="CI2" s="25" t="s">
+      <c r="CI2" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="CJ2" s="25" t="s">
+      <c r="CJ2" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="CK2" s="25" t="s">
+      <c r="CK2" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="CL2" s="25" t="s">
+      <c r="CL2" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="CM2" s="25" t="s">
+      <c r="CM2" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="CN2" s="25" t="s">
+      <c r="CN2" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="CO2" s="25" t="s">
+      <c r="CO2" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="CP2" s="25" t="s">
+      <c r="CP2" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="CQ2" s="25" t="s">
+      <c r="CQ2" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="CR2" s="25" t="s">
+      <c r="CR2" s="24" t="s">
         <v>27</v>
       </c>
       <c r="CS2" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="CT2" s="25" t="s">
+      <c r="CT2" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="CU2" s="25" t="s">
+      <c r="CU2" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="CV2" s="25" t="s">
+      <c r="CV2" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="CW2" s="25" t="s">
+      <c r="CW2" s="24" t="s">
         <v>68</v>
       </c>
       <c r="CX2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="CY2" s="25" t="s">
+      <c r="CY2" s="24" t="s">
         <v>31</v>
       </c>
       <c r="CZ2" s="18" t="s">
@@ -28301,122 +28551,122 @@
     </row>
     <row r="3" spans="1:104" ht="87.6" x14ac:dyDescent="0.3">
       <c r="A3" s="17"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
       <c r="O3" s="19" t="s">
         <v>133</v>
       </c>
       <c r="P3" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="25"/>
-      <c r="S3" s="25"/>
-      <c r="T3" s="25"/>
-      <c r="U3" s="25"/>
-      <c r="V3" s="25"/>
-      <c r="W3" s="25"/>
-      <c r="X3" s="25"/>
-      <c r="Y3" s="25"/>
-      <c r="Z3" s="25"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="24"/>
+      <c r="T3" s="24"/>
+      <c r="U3" s="24"/>
+      <c r="V3" s="24"/>
+      <c r="W3" s="24"/>
+      <c r="X3" s="24"/>
+      <c r="Y3" s="24"/>
+      <c r="Z3" s="24"/>
       <c r="AA3" s="17"/>
-      <c r="AB3" s="25"/>
-      <c r="AC3" s="25"/>
-      <c r="AD3" s="25"/>
-      <c r="AE3" s="25"/>
-      <c r="AF3" s="25"/>
-      <c r="AG3" s="25"/>
-      <c r="AH3" s="25"/>
-      <c r="AI3" s="25"/>
-      <c r="AJ3" s="25"/>
-      <c r="AK3" s="25"/>
-      <c r="AL3" s="25"/>
-      <c r="AM3" s="25"/>
-      <c r="AN3" s="25"/>
-      <c r="AO3" s="25"/>
-      <c r="AP3" s="25"/>
-      <c r="AQ3" s="25"/>
-      <c r="AR3" s="25"/>
-      <c r="AS3" s="25"/>
-      <c r="AT3" s="25"/>
-      <c r="AU3" s="25"/>
-      <c r="AV3" s="25"/>
-      <c r="AW3" s="25"/>
-      <c r="AX3" s="25"/>
-      <c r="AY3" s="25"/>
-      <c r="AZ3" s="25"/>
-      <c r="BA3" s="25"/>
-      <c r="BB3" s="25"/>
-      <c r="BC3" s="25"/>
-      <c r="BD3" s="25"/>
+      <c r="AB3" s="24"/>
+      <c r="AC3" s="24"/>
+      <c r="AD3" s="24"/>
+      <c r="AE3" s="24"/>
+      <c r="AF3" s="24"/>
+      <c r="AG3" s="24"/>
+      <c r="AH3" s="24"/>
+      <c r="AI3" s="24"/>
+      <c r="AJ3" s="24"/>
+      <c r="AK3" s="24"/>
+      <c r="AL3" s="24"/>
+      <c r="AM3" s="24"/>
+      <c r="AN3" s="24"/>
+      <c r="AO3" s="24"/>
+      <c r="AP3" s="24"/>
+      <c r="AQ3" s="24"/>
+      <c r="AR3" s="24"/>
+      <c r="AS3" s="24"/>
+      <c r="AT3" s="24"/>
+      <c r="AU3" s="24"/>
+      <c r="AV3" s="24"/>
+      <c r="AW3" s="24"/>
+      <c r="AX3" s="24"/>
+      <c r="AY3" s="24"/>
+      <c r="AZ3" s="24"/>
+      <c r="BA3" s="24"/>
+      <c r="BB3" s="24"/>
+      <c r="BC3" s="24"/>
+      <c r="BD3" s="24"/>
       <c r="BE3" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="BF3" s="25"/>
-      <c r="BG3" s="25"/>
-      <c r="BH3" s="25"/>
-      <c r="BI3" s="25"/>
-      <c r="BJ3" s="25"/>
-      <c r="BK3" s="25"/>
-      <c r="BL3" s="25"/>
+      <c r="BF3" s="24"/>
+      <c r="BG3" s="24"/>
+      <c r="BH3" s="24"/>
+      <c r="BI3" s="24"/>
+      <c r="BJ3" s="24"/>
+      <c r="BK3" s="24"/>
+      <c r="BL3" s="24"/>
       <c r="BM3" s="17"/>
       <c r="BN3" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="BO3" s="25"/>
+      <c r="BO3" s="24"/>
       <c r="BP3" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="BQ3" s="25"/>
-      <c r="BR3" s="25"/>
-      <c r="BS3" s="25"/>
-      <c r="BT3" s="25"/>
-      <c r="BU3" s="25"/>
-      <c r="BV3" s="25"/>
-      <c r="BW3" s="25"/>
-      <c r="BX3" s="25"/>
-      <c r="BY3" s="25"/>
-      <c r="BZ3" s="25"/>
-      <c r="CA3" s="25"/>
-      <c r="CB3" s="25"/>
-      <c r="CC3" s="25"/>
-      <c r="CD3" s="25"/>
-      <c r="CE3" s="25"/>
-      <c r="CF3" s="25"/>
-      <c r="CG3" s="25"/>
+      <c r="BQ3" s="24"/>
+      <c r="BR3" s="24"/>
+      <c r="BS3" s="24"/>
+      <c r="BT3" s="24"/>
+      <c r="BU3" s="24"/>
+      <c r="BV3" s="24"/>
+      <c r="BW3" s="24"/>
+      <c r="BX3" s="24"/>
+      <c r="BY3" s="24"/>
+      <c r="BZ3" s="24"/>
+      <c r="CA3" s="24"/>
+      <c r="CB3" s="24"/>
+      <c r="CC3" s="24"/>
+      <c r="CD3" s="24"/>
+      <c r="CE3" s="24"/>
+      <c r="CF3" s="24"/>
+      <c r="CG3" s="24"/>
       <c r="CH3" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="CI3" s="25"/>
-      <c r="CJ3" s="25"/>
-      <c r="CK3" s="25"/>
-      <c r="CL3" s="25"/>
-      <c r="CM3" s="25"/>
-      <c r="CN3" s="25"/>
-      <c r="CO3" s="25"/>
-      <c r="CP3" s="25"/>
-      <c r="CQ3" s="25"/>
-      <c r="CR3" s="25"/>
+      <c r="CI3" s="24"/>
+      <c r="CJ3" s="24"/>
+      <c r="CK3" s="24"/>
+      <c r="CL3" s="24"/>
+      <c r="CM3" s="24"/>
+      <c r="CN3" s="24"/>
+      <c r="CO3" s="24"/>
+      <c r="CP3" s="24"/>
+      <c r="CQ3" s="24"/>
+      <c r="CR3" s="24"/>
       <c r="CS3" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="CT3" s="25"/>
-      <c r="CU3" s="25"/>
-      <c r="CV3" s="25"/>
-      <c r="CW3" s="25"/>
+      <c r="CT3" s="24"/>
+      <c r="CU3" s="24"/>
+      <c r="CV3" s="24"/>
+      <c r="CW3" s="24"/>
       <c r="CX3" s="19"/>
-      <c r="CY3" s="25"/>
+      <c r="CY3" s="24"/>
       <c r="CZ3" s="18"/>
     </row>
     <row r="4" spans="1:104" x14ac:dyDescent="0.3">
@@ -37134,88 +37384,6 @@
     </row>
   </sheetData>
   <mergeCells count="106">
-    <mergeCell ref="CR2:CR3"/>
-    <mergeCell ref="CT2:CT3"/>
-    <mergeCell ref="CU2:CU3"/>
-    <mergeCell ref="CV2:CV3"/>
-    <mergeCell ref="CW2:CW3"/>
-    <mergeCell ref="CY2:CY3"/>
-    <mergeCell ref="CL2:CL3"/>
-    <mergeCell ref="CM2:CM3"/>
-    <mergeCell ref="CN2:CN3"/>
-    <mergeCell ref="CO2:CO3"/>
-    <mergeCell ref="CP2:CP3"/>
-    <mergeCell ref="CQ2:CQ3"/>
-    <mergeCell ref="CE2:CE3"/>
-    <mergeCell ref="CF2:CF3"/>
-    <mergeCell ref="CG2:CG3"/>
-    <mergeCell ref="CI2:CI3"/>
-    <mergeCell ref="CJ2:CJ3"/>
-    <mergeCell ref="CK2:CK3"/>
-    <mergeCell ref="BY2:BY3"/>
-    <mergeCell ref="BZ2:BZ3"/>
-    <mergeCell ref="CA2:CA3"/>
-    <mergeCell ref="CB2:CB3"/>
-    <mergeCell ref="CC2:CC3"/>
-    <mergeCell ref="CD2:CD3"/>
-    <mergeCell ref="BS2:BS3"/>
-    <mergeCell ref="BT2:BT3"/>
-    <mergeCell ref="BU2:BU3"/>
-    <mergeCell ref="BV2:BV3"/>
-    <mergeCell ref="BW2:BW3"/>
-    <mergeCell ref="BX2:BX3"/>
-    <mergeCell ref="BJ2:BJ3"/>
-    <mergeCell ref="BK2:BK3"/>
-    <mergeCell ref="BL2:BL3"/>
-    <mergeCell ref="BO2:BO3"/>
-    <mergeCell ref="BQ2:BQ3"/>
-    <mergeCell ref="BR2:BR3"/>
-    <mergeCell ref="BC2:BC3"/>
-    <mergeCell ref="BD2:BD3"/>
-    <mergeCell ref="BF2:BF3"/>
-    <mergeCell ref="BG2:BG3"/>
-    <mergeCell ref="BH2:BH3"/>
-    <mergeCell ref="BI2:BI3"/>
-    <mergeCell ref="AW2:AW3"/>
-    <mergeCell ref="AX2:AX3"/>
-    <mergeCell ref="AY2:AY3"/>
-    <mergeCell ref="AZ2:AZ3"/>
-    <mergeCell ref="BA2:BA3"/>
-    <mergeCell ref="BB2:BB3"/>
-    <mergeCell ref="AQ2:AQ3"/>
-    <mergeCell ref="AR2:AR3"/>
-    <mergeCell ref="AS2:AS3"/>
-    <mergeCell ref="AT2:AT3"/>
-    <mergeCell ref="AU2:AU3"/>
-    <mergeCell ref="AV2:AV3"/>
-    <mergeCell ref="AK2:AK3"/>
-    <mergeCell ref="AL2:AL3"/>
-    <mergeCell ref="AM2:AM3"/>
-    <mergeCell ref="AN2:AN3"/>
-    <mergeCell ref="AO2:AO3"/>
-    <mergeCell ref="AP2:AP3"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="AF2:AF3"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="AJ2:AJ3"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="Z2:Z3"/>
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="CH1:CQ1"/>
     <mergeCell ref="CR1:CY1"/>
     <mergeCell ref="B2:B3"/>
@@ -37240,6 +37408,88 @@
     <mergeCell ref="AB1:AF1"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="S2:S3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="AH2:AH3"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="AJ2:AJ3"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="Z2:Z3"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="AQ2:AQ3"/>
+    <mergeCell ref="AR2:AR3"/>
+    <mergeCell ref="AS2:AS3"/>
+    <mergeCell ref="AT2:AT3"/>
+    <mergeCell ref="AU2:AU3"/>
+    <mergeCell ref="AV2:AV3"/>
+    <mergeCell ref="AK2:AK3"/>
+    <mergeCell ref="AL2:AL3"/>
+    <mergeCell ref="AM2:AM3"/>
+    <mergeCell ref="AN2:AN3"/>
+    <mergeCell ref="AO2:AO3"/>
+    <mergeCell ref="AP2:AP3"/>
+    <mergeCell ref="BC2:BC3"/>
+    <mergeCell ref="BD2:BD3"/>
+    <mergeCell ref="BF2:BF3"/>
+    <mergeCell ref="BG2:BG3"/>
+    <mergeCell ref="BH2:BH3"/>
+    <mergeCell ref="BI2:BI3"/>
+    <mergeCell ref="AW2:AW3"/>
+    <mergeCell ref="AX2:AX3"/>
+    <mergeCell ref="AY2:AY3"/>
+    <mergeCell ref="AZ2:AZ3"/>
+    <mergeCell ref="BA2:BA3"/>
+    <mergeCell ref="BB2:BB3"/>
+    <mergeCell ref="BS2:BS3"/>
+    <mergeCell ref="BT2:BT3"/>
+    <mergeCell ref="BU2:BU3"/>
+    <mergeCell ref="BV2:BV3"/>
+    <mergeCell ref="BW2:BW3"/>
+    <mergeCell ref="BX2:BX3"/>
+    <mergeCell ref="BJ2:BJ3"/>
+    <mergeCell ref="BK2:BK3"/>
+    <mergeCell ref="BL2:BL3"/>
+    <mergeCell ref="BO2:BO3"/>
+    <mergeCell ref="BQ2:BQ3"/>
+    <mergeCell ref="BR2:BR3"/>
+    <mergeCell ref="CE2:CE3"/>
+    <mergeCell ref="CF2:CF3"/>
+    <mergeCell ref="CG2:CG3"/>
+    <mergeCell ref="CI2:CI3"/>
+    <mergeCell ref="CJ2:CJ3"/>
+    <mergeCell ref="CK2:CK3"/>
+    <mergeCell ref="BY2:BY3"/>
+    <mergeCell ref="BZ2:BZ3"/>
+    <mergeCell ref="CA2:CA3"/>
+    <mergeCell ref="CB2:CB3"/>
+    <mergeCell ref="CC2:CC3"/>
+    <mergeCell ref="CD2:CD3"/>
+    <mergeCell ref="CR2:CR3"/>
+    <mergeCell ref="CT2:CT3"/>
+    <mergeCell ref="CU2:CU3"/>
+    <mergeCell ref="CV2:CV3"/>
+    <mergeCell ref="CW2:CW3"/>
+    <mergeCell ref="CY2:CY3"/>
+    <mergeCell ref="CL2:CL3"/>
+    <mergeCell ref="CM2:CM3"/>
+    <mergeCell ref="CN2:CN3"/>
+    <mergeCell ref="CO2:CO3"/>
+    <mergeCell ref="CP2:CP3"/>
+    <mergeCell ref="CQ2:CQ3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" tooltip="2020 coronavirus pandemic in Argentina" display="https://en.wikipedia.org/wiki/2020_coronavirus_pandemic_in_Argentina" xr:uid="{A1276897-A83E-4B5D-8DEB-71FFBF97F299}"/>
